--- a/Result.xlsx
+++ b/Result.xlsx
@@ -1864,82 +1864,82 @@
         <v>45912</v>
       </c>
       <c r="B13" s="3">
-        <v>14390</v>
+        <v>21240</v>
       </c>
       <c r="C13" s="3">
-        <v>7724</v>
+        <v>11411</v>
       </c>
       <c r="D13" s="3">
-        <v>1905</v>
+        <v>2583</v>
       </c>
       <c r="E13" s="3">
-        <v>5819</v>
+        <v>8828</v>
       </c>
       <c r="F13" s="4">
-        <v>0.2466338684619368</v>
+        <v>0.22636052931382</v>
       </c>
       <c r="G13" s="5">
-        <v>42.42866390471259</v>
+        <v>45.26001226886338</v>
       </c>
       <c r="H13" s="3">
-        <v>6666</v>
+        <v>9829</v>
       </c>
       <c r="I13" s="4">
-        <v>0.536761640027797</v>
+        <v>0.537241054613936</v>
       </c>
       <c r="J13" s="3">
-        <v>6666</v>
+        <v>9829</v>
       </c>
       <c r="K13" s="3">
-        <v>6627</v>
+        <v>9755</v>
       </c>
       <c r="L13" s="3">
-        <v>6403</v>
+        <v>9318</v>
       </c>
       <c r="M13" s="3">
-        <v>6286</v>
+        <v>9148</v>
       </c>
       <c r="N13" s="3">
-        <v>117</v>
+        <v>170</v>
       </c>
       <c r="O13" s="4">
-        <v>0.9661988833559679</v>
+        <v>0.9552024602767811</v>
       </c>
       <c r="P13" s="3">
-        <v>224</v>
+        <v>437</v>
       </c>
       <c r="Q13" s="4">
-        <v>0.03380111664403202</v>
+        <v>0.04479753972321888</v>
       </c>
       <c r="R13" s="3">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="S13" s="3">
-        <v>6172</v>
+        <v>8734</v>
       </c>
       <c r="T13" s="3">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="U13" s="3">
-        <v>231</v>
+        <v>584</v>
       </c>
       <c r="V13" s="4">
-        <v>0.9555658770707541</v>
+        <v>0.9272746576069646</v>
       </c>
       <c r="W13" s="5">
-        <v>135.7581928094177</v>
+        <v>133.0100568430258</v>
       </c>
       <c r="X13" s="5">
-        <v>13.28507795100223</v>
+        <v>18.45376038478356</v>
       </c>
       <c r="Y13" s="3">
-        <v>0</v>
+        <v>693</v>
       </c>
       <c r="Z13" s="3">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="AA13" s="3">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="AB13" s="5">
         <v>60</v>
@@ -1951,22 +1951,22 @@
         <v>30</v>
       </c>
       <c r="AE13" s="3">
-        <v>0</v>
+        <v>670</v>
       </c>
       <c r="AF13" s="3">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="AG13" s="3">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AH13" s="4">
-        <v>0</v>
+        <v>0.9668109668109668</v>
       </c>
       <c r="AI13" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ13" s="4">
-        <v>0</v>
+        <v>0.9777777777777777</v>
       </c>
     </row>
     <row r="14" spans="1:36">
@@ -1974,82 +1974,82 @@
         <v>36</v>
       </c>
       <c r="B14" s="3">
-        <v>227847</v>
+        <v>234697</v>
       </c>
       <c r="C14" s="3">
-        <v>118350</v>
+        <v>122037</v>
       </c>
       <c r="D14" s="3">
-        <v>29901</v>
+        <v>30579</v>
       </c>
       <c r="E14" s="3">
-        <v>88449</v>
+        <v>91458</v>
       </c>
       <c r="F14" s="4">
-        <v>0.2526489226869455</v>
+        <v>0.2505715479731557</v>
       </c>
       <c r="G14" s="5">
-        <v>42.79775242923532</v>
+        <v>43.05134508386801</v>
       </c>
       <c r="H14" s="3">
-        <v>109497</v>
+        <v>112660</v>
       </c>
       <c r="I14" s="4">
-        <v>0.5194275105663011</v>
+        <v>0.5199768211779443</v>
       </c>
       <c r="J14" s="3">
-        <v>109497</v>
+        <v>112660</v>
       </c>
       <c r="K14" s="3">
-        <v>108619</v>
+        <v>111747</v>
       </c>
       <c r="L14" s="3">
-        <v>102468</v>
+        <v>105383</v>
       </c>
       <c r="M14" s="3">
-        <v>100493</v>
+        <v>103355</v>
       </c>
       <c r="N14" s="3">
-        <v>1975</v>
+        <v>2028</v>
       </c>
       <c r="O14" s="4">
-        <v>0.9433708651340925</v>
+        <v>0.943049925277636</v>
       </c>
       <c r="P14" s="3">
-        <v>6151</v>
+        <v>6364</v>
       </c>
       <c r="Q14" s="4">
-        <v>0.05662913486590753</v>
+        <v>0.05695007472236398</v>
       </c>
       <c r="R14" s="3">
-        <v>878</v>
+        <v>913</v>
       </c>
       <c r="S14" s="3">
-        <v>97850</v>
+        <v>100412</v>
       </c>
       <c r="T14" s="3">
-        <v>1944</v>
+        <v>1989</v>
       </c>
       <c r="U14" s="3">
-        <v>4618</v>
+        <v>4971</v>
       </c>
       <c r="V14" s="4">
-        <v>0.9371528176837911</v>
+        <v>0.9351786313005251</v>
       </c>
       <c r="W14" s="5">
-        <v>133.5471624889296</v>
+        <v>133.3651492429007</v>
       </c>
       <c r="X14" s="5">
-        <v>16.81893266197645</v>
+        <v>17.17855933433312</v>
       </c>
       <c r="Y14" s="3">
-        <v>6259</v>
+        <v>6952</v>
       </c>
       <c r="Z14" s="3">
-        <v>328</v>
+        <v>386</v>
       </c>
       <c r="AA14" s="3">
-        <v>326</v>
+        <v>371</v>
       </c>
       <c r="AB14" s="5">
         <v>60</v>
@@ -2061,22 +2061,22 @@
         <v>30</v>
       </c>
       <c r="AE14" s="3">
-        <v>6144</v>
+        <v>6814</v>
       </c>
       <c r="AF14" s="3">
-        <v>328</v>
+        <v>386</v>
       </c>
       <c r="AG14" s="3">
-        <v>325</v>
+        <v>369</v>
       </c>
       <c r="AH14" s="4">
-        <v>0.9816264579006231</v>
+        <v>0.9801495972382048</v>
       </c>
       <c r="AI14" s="4">
         <v>1</v>
       </c>
       <c r="AJ14" s="4">
-        <v>0.9969325153374232</v>
+        <v>0.9946091644204852</v>
       </c>
     </row>
   </sheetData>
@@ -3420,82 +3420,82 @@
         <v>45912</v>
       </c>
       <c r="B13" s="3">
-        <v>8716</v>
+        <v>13784</v>
       </c>
       <c r="C13" s="3">
-        <v>5210</v>
+        <v>8108</v>
       </c>
       <c r="D13" s="3">
-        <v>1060</v>
+        <v>1485</v>
       </c>
       <c r="E13" s="3">
-        <v>4150</v>
+        <v>6623</v>
       </c>
       <c r="F13" s="4">
-        <v>0.2034548944337812</v>
+        <v>0.1831524420325604</v>
       </c>
       <c r="G13" s="5">
-        <v>49.17735124760077</v>
+        <v>52.15355204736063</v>
       </c>
       <c r="H13" s="3">
-        <v>3506</v>
+        <v>5676</v>
       </c>
       <c r="I13" s="4">
-        <v>0.5977512620468105</v>
+        <v>0.5882182240278584</v>
       </c>
       <c r="J13" s="3">
-        <v>3506</v>
+        <v>5676</v>
       </c>
       <c r="K13" s="3">
-        <v>3483</v>
+        <v>5631</v>
       </c>
       <c r="L13" s="3">
-        <v>3337</v>
+        <v>5312</v>
       </c>
       <c r="M13" s="3">
-        <v>3284</v>
+        <v>5240</v>
       </c>
       <c r="N13" s="3">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="O13" s="4">
-        <v>0.9580821131208728</v>
+        <v>0.9433493162848517</v>
       </c>
       <c r="P13" s="3">
-        <v>146</v>
+        <v>319</v>
       </c>
       <c r="Q13" s="4">
-        <v>0.0419178868791272</v>
+        <v>0.0566506837151482</v>
       </c>
       <c r="R13" s="3">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="S13" s="3">
-        <v>3131</v>
+        <v>4775</v>
       </c>
       <c r="T13" s="3">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="U13" s="3">
-        <v>206</v>
+        <v>537</v>
       </c>
       <c r="V13" s="4">
-        <v>0.9268798105387803</v>
+        <v>0.8852428624397478</v>
       </c>
       <c r="W13" s="5">
-        <v>140.7423873325213</v>
+        <v>133.5335877862595</v>
       </c>
       <c r="X13" s="5">
-        <v>18.48294762484775</v>
+        <v>26.24541984732824</v>
       </c>
       <c r="Y13" s="3">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="Z13" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AA13" s="3">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AB13" s="5">
         <v>60</v>
@@ -3507,22 +3507,22 @@
         <v>30</v>
       </c>
       <c r="AE13" s="3">
-        <v>0</v>
+        <v>427</v>
       </c>
       <c r="AF13" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AG13" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AH13" s="4">
-        <v>0</v>
+        <v>0.9488888888888889</v>
       </c>
       <c r="AI13" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ13" s="4">
-        <v>0</v>
+        <v>0.967741935483871</v>
       </c>
     </row>
     <row r="14" spans="1:36">
@@ -3530,82 +3530,82 @@
         <v>36</v>
       </c>
       <c r="B14" s="3">
-        <v>129879</v>
+        <v>134947</v>
       </c>
       <c r="C14" s="3">
-        <v>77616</v>
+        <v>80514</v>
       </c>
       <c r="D14" s="3">
-        <v>16739</v>
+        <v>17164</v>
       </c>
       <c r="E14" s="3">
-        <v>60877</v>
+        <v>63350</v>
       </c>
       <c r="F14" s="4">
-        <v>0.2156642960214389</v>
+        <v>0.2131803164667014</v>
       </c>
       <c r="G14" s="5">
-        <v>48.51433982683983</v>
+        <v>48.83791638721216</v>
       </c>
       <c r="H14" s="3">
-        <v>52263</v>
+        <v>54433</v>
       </c>
       <c r="I14" s="4">
-        <v>0.5976023837571894</v>
+        <v>0.5966342341808265</v>
       </c>
       <c r="J14" s="3">
-        <v>52263</v>
+        <v>54433</v>
       </c>
       <c r="K14" s="3">
-        <v>51928</v>
+        <v>54076</v>
       </c>
       <c r="L14" s="3">
-        <v>49540</v>
+        <v>51515</v>
       </c>
       <c r="M14" s="3">
-        <v>48705</v>
+        <v>50661</v>
       </c>
       <c r="N14" s="3">
-        <v>835</v>
+        <v>854</v>
       </c>
       <c r="O14" s="4">
-        <v>0.9540132491141581</v>
+        <v>0.9526407278644871</v>
       </c>
       <c r="P14" s="3">
-        <v>2388</v>
+        <v>2561</v>
       </c>
       <c r="Q14" s="4">
-        <v>0.04598675088584187</v>
+        <v>0.04735927213551292</v>
       </c>
       <c r="R14" s="3">
-        <v>335</v>
+        <v>357</v>
       </c>
       <c r="S14" s="3">
-        <v>46426</v>
+        <v>48070</v>
       </c>
       <c r="T14" s="3">
-        <v>607</v>
+        <v>648</v>
       </c>
       <c r="U14" s="3">
-        <v>3114</v>
+        <v>3445</v>
       </c>
       <c r="V14" s="4">
-        <v>0.925798153428919</v>
+        <v>0.9215344209497153</v>
       </c>
       <c r="W14" s="5">
-        <v>136.6301817061903</v>
+        <v>136.0433272142279</v>
       </c>
       <c r="X14" s="5">
-        <v>20.21732881634329</v>
+        <v>20.95325793016324</v>
       </c>
       <c r="Y14" s="3">
-        <v>2753</v>
+        <v>3203</v>
       </c>
       <c r="Z14" s="3">
-        <v>275</v>
+        <v>325</v>
       </c>
       <c r="AA14" s="3">
-        <v>234</v>
+        <v>265</v>
       </c>
       <c r="AB14" s="5">
         <v>60</v>
@@ -3617,22 +3617,22 @@
         <v>30</v>
       </c>
       <c r="AE14" s="3">
-        <v>2701</v>
+        <v>3128</v>
       </c>
       <c r="AF14" s="3">
-        <v>275</v>
+        <v>325</v>
       </c>
       <c r="AG14" s="3">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="AH14" s="4">
-        <v>0.9811115147112242</v>
+        <v>0.9765844520761786</v>
       </c>
       <c r="AI14" s="4">
         <v>1</v>
       </c>
       <c r="AJ14" s="4">
-        <v>0.9957264957264956</v>
+        <v>0.9924528301886792</v>
       </c>
     </row>
   </sheetData>
@@ -4976,82 +4976,82 @@
         <v>45912</v>
       </c>
       <c r="B13" s="3">
-        <v>3427</v>
+        <v>4566</v>
       </c>
       <c r="C13" s="3">
-        <v>1612</v>
+        <v>2126</v>
       </c>
       <c r="D13" s="3">
-        <v>572</v>
+        <v>745</v>
       </c>
       <c r="E13" s="3">
-        <v>1040</v>
+        <v>1381</v>
       </c>
       <c r="F13" s="4">
-        <v>0.3548387096774194</v>
+        <v>0.3504233301975541</v>
       </c>
       <c r="G13" s="5">
-        <v>25.6166253101737</v>
+        <v>25.91768579492004</v>
       </c>
       <c r="H13" s="3">
-        <v>1815</v>
+        <v>2440</v>
       </c>
       <c r="I13" s="4">
-        <v>0.470382258535162</v>
+        <v>0.4656154183092422</v>
       </c>
       <c r="J13" s="3">
-        <v>1815</v>
+        <v>2440</v>
       </c>
       <c r="K13" s="3">
-        <v>1803</v>
+        <v>2415</v>
       </c>
       <c r="L13" s="3">
-        <v>1757</v>
+        <v>2342</v>
       </c>
       <c r="M13" s="3">
-        <v>1722</v>
+        <v>2281</v>
       </c>
       <c r="N13" s="3">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="O13" s="4">
-        <v>0.9744869661674985</v>
+        <v>0.9697722567287783</v>
       </c>
       <c r="P13" s="3">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="Q13" s="4">
-        <v>0.02551303383250143</v>
+        <v>0.03022774327122164</v>
       </c>
       <c r="R13" s="3">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="S13" s="3">
-        <v>1742</v>
+        <v>2315</v>
       </c>
       <c r="T13" s="3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="U13" s="3">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="V13" s="4">
-        <v>0.9864099660249149</v>
+        <v>0.9838504037399065</v>
       </c>
       <c r="W13" s="5">
-        <v>125.4221835075494</v>
+        <v>128.8728627794827</v>
       </c>
       <c r="X13" s="5">
-        <v>7.639953542392567</v>
+        <v>7.828583954405962</v>
       </c>
       <c r="Y13" s="3">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="Z13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA13" s="3">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AB13" s="5">
         <v>60</v>
@@ -5063,22 +5063,22 @@
         <v>30</v>
       </c>
       <c r="AE13" s="3">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="AF13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG13" s="3">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AH13" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI13" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ13" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:36">
@@ -5086,82 +5086,82 @@
         <v>36</v>
       </c>
       <c r="B14" s="3">
-        <v>59268</v>
+        <v>60407</v>
       </c>
       <c r="C14" s="3">
-        <v>26302</v>
+        <v>26816</v>
       </c>
       <c r="D14" s="3">
-        <v>8976</v>
+        <v>9149</v>
       </c>
       <c r="E14" s="3">
-        <v>17326</v>
+        <v>17667</v>
       </c>
       <c r="F14" s="4">
-        <v>0.3412668238156794</v>
+        <v>0.3411769093078759</v>
       </c>
       <c r="G14" s="5">
-        <v>29.14386738651053</v>
+        <v>29.10012678997613</v>
       </c>
       <c r="H14" s="3">
-        <v>32966</v>
+        <v>33591</v>
       </c>
       <c r="I14" s="4">
-        <v>0.4437807923331308</v>
+        <v>0.4439220620126807</v>
       </c>
       <c r="J14" s="3">
-        <v>32966</v>
+        <v>33591</v>
       </c>
       <c r="K14" s="3">
-        <v>32608</v>
+        <v>33220</v>
       </c>
       <c r="L14" s="3">
-        <v>30275</v>
+        <v>30860</v>
       </c>
       <c r="M14" s="3">
-        <v>29514</v>
+        <v>30073</v>
       </c>
       <c r="N14" s="3">
-        <v>761</v>
+        <v>787</v>
       </c>
       <c r="O14" s="4">
-        <v>0.9284531403336603</v>
+        <v>0.9289584587597832</v>
       </c>
       <c r="P14" s="3">
-        <v>2333</v>
+        <v>2360</v>
       </c>
       <c r="Q14" s="4">
-        <v>0.07154685966633963</v>
+        <v>0.07104154124021676</v>
       </c>
       <c r="R14" s="3">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="S14" s="3">
-        <v>29410</v>
+        <v>29983</v>
       </c>
       <c r="T14" s="3">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="U14" s="3">
-        <v>865</v>
+        <v>877</v>
       </c>
       <c r="V14" s="4">
-        <v>0.9463285925735246</v>
+        <v>0.9468814148113058</v>
       </c>
       <c r="W14" s="5">
-        <v>127.5354746899776</v>
+        <v>127.7579223888538</v>
       </c>
       <c r="X14" s="5">
-        <v>13.73927627566579</v>
+        <v>13.64020882519203</v>
       </c>
       <c r="Y14" s="3">
-        <v>2092</v>
+        <v>2246</v>
       </c>
       <c r="Z14" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AA14" s="3">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AB14" s="5">
         <v>60</v>
@@ -5173,16 +5173,16 @@
         <v>30</v>
       </c>
       <c r="AE14" s="3">
-        <v>2052</v>
+        <v>2206</v>
       </c>
       <c r="AF14" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG14" s="3">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AH14" s="4">
-        <v>0.9808795411089865</v>
+        <v>0.9821905609973285</v>
       </c>
       <c r="AI14" s="4">
         <v>1</v>
@@ -6532,82 +6532,82 @@
         <v>45912</v>
       </c>
       <c r="B13" s="3">
-        <v>2247</v>
+        <v>2890</v>
       </c>
       <c r="C13" s="3">
-        <v>902</v>
+        <v>1177</v>
       </c>
       <c r="D13" s="3">
-        <v>273</v>
+        <v>353</v>
       </c>
       <c r="E13" s="3">
-        <v>629</v>
+        <v>824</v>
       </c>
       <c r="F13" s="4">
-        <v>0.3026607538802661</v>
+        <v>0.2999150382327953</v>
       </c>
       <c r="G13" s="5">
-        <v>33.49334811529933</v>
+        <v>32.71028037383178</v>
       </c>
       <c r="H13" s="3">
-        <v>1345</v>
+        <v>1713</v>
       </c>
       <c r="I13" s="4">
-        <v>0.4014241210502893</v>
+        <v>0.4072664359861592</v>
       </c>
       <c r="J13" s="3">
-        <v>1345</v>
+        <v>1713</v>
       </c>
       <c r="K13" s="3">
-        <v>1341</v>
+        <v>1709</v>
       </c>
       <c r="L13" s="3">
-        <v>1309</v>
+        <v>1664</v>
       </c>
       <c r="M13" s="3">
-        <v>1280</v>
+        <v>1627</v>
       </c>
       <c r="N13" s="3">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="O13" s="4">
-        <v>0.9761372110365401</v>
+        <v>0.97366881217086</v>
       </c>
       <c r="P13" s="3">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="Q13" s="4">
-        <v>0.02386278896345999</v>
+        <v>0.02633118782913996</v>
       </c>
       <c r="R13" s="3">
         <v>4</v>
       </c>
       <c r="S13" s="3">
-        <v>1299</v>
+        <v>1644</v>
       </c>
       <c r="T13" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U13" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="V13" s="4">
-        <v>0.9878326996197718</v>
+        <v>0.9832535885167464</v>
       </c>
       <c r="W13" s="5">
-        <v>136.87578125</v>
+        <v>137.1241548862938</v>
       </c>
       <c r="X13" s="5">
-        <v>7.54375</v>
+        <v>8.255685310387216</v>
       </c>
       <c r="Y13" s="3">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="Z13" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AA13" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB13" s="5">
         <v>60</v>
@@ -6619,22 +6619,22 @@
         <v>30</v>
       </c>
       <c r="AE13" s="3">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="AF13" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AG13" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH13" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI13" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ13" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:36">
@@ -6642,82 +6642,82 @@
         <v>36</v>
       </c>
       <c r="B14" s="3">
-        <v>38700</v>
+        <v>39343</v>
       </c>
       <c r="C14" s="3">
-        <v>14432</v>
+        <v>14707</v>
       </c>
       <c r="D14" s="3">
-        <v>4186</v>
+        <v>4266</v>
       </c>
       <c r="E14" s="3">
-        <v>10246</v>
+        <v>10441</v>
       </c>
       <c r="F14" s="4">
-        <v>0.290049889135255</v>
+        <v>0.2900659549874209</v>
       </c>
       <c r="G14" s="5">
-        <v>36.93756929046563</v>
+        <v>36.81049840212144</v>
       </c>
       <c r="H14" s="3">
-        <v>24268</v>
+        <v>24636</v>
       </c>
       <c r="I14" s="4">
-        <v>0.3729198966408269</v>
+        <v>0.3738149098950258</v>
       </c>
       <c r="J14" s="3">
-        <v>24268</v>
+        <v>24636</v>
       </c>
       <c r="K14" s="3">
-        <v>24083</v>
+        <v>24451</v>
       </c>
       <c r="L14" s="3">
-        <v>22653</v>
+        <v>23008</v>
       </c>
       <c r="M14" s="3">
-        <v>22274</v>
+        <v>22621</v>
       </c>
       <c r="N14" s="3">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="O14" s="4">
-        <v>0.9406220155296267</v>
+        <v>0.9409840088339945</v>
       </c>
       <c r="P14" s="3">
-        <v>1430</v>
+        <v>1443</v>
       </c>
       <c r="Q14" s="4">
-        <v>0.05937798447037337</v>
+        <v>0.0590159911660055</v>
       </c>
       <c r="R14" s="3">
         <v>185</v>
       </c>
       <c r="S14" s="3">
-        <v>22014</v>
+        <v>22359</v>
       </c>
       <c r="T14" s="3">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="U14" s="3">
-        <v>639</v>
+        <v>649</v>
       </c>
       <c r="V14" s="4">
-        <v>0.9494113080605512</v>
+        <v>0.9496687054026504</v>
       </c>
       <c r="W14" s="5">
-        <v>134.7714824459011</v>
+        <v>134.8216259228151</v>
       </c>
       <c r="X14" s="5">
-        <v>13.46857322438718</v>
+        <v>13.42889350603422</v>
       </c>
       <c r="Y14" s="3">
-        <v>1414</v>
+        <v>1503</v>
       </c>
       <c r="Z14" s="3">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="AA14" s="3">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB14" s="5">
         <v>60</v>
@@ -6729,16 +6729,16 @@
         <v>30</v>
       </c>
       <c r="AE14" s="3">
-        <v>1391</v>
+        <v>1480</v>
       </c>
       <c r="AF14" s="3">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="AG14" s="3">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH14" s="4">
-        <v>0.9837340876944838</v>
+        <v>0.9846972721224219</v>
       </c>
       <c r="AI14" s="4">
         <v>1</v>
@@ -6754,7 +6754,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L283"/>
+  <dimension ref="A1:L288"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -17373,7 +17373,7 @@
         <v>15</v>
       </c>
       <c r="C280" s="3">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="D280" s="3">
         <v>471</v>
@@ -17411,28 +17411,28 @@
         <v>16</v>
       </c>
       <c r="C281" s="3">
-        <v>1169</v>
+        <v>1177</v>
       </c>
       <c r="D281" s="3">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="E281" s="3">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="F281" s="3">
         <v>7</v>
       </c>
       <c r="G281" s="4">
-        <v>0.9862745098039215</v>
+        <v>0.9864077669902913</v>
       </c>
       <c r="H281" s="4">
-        <v>0.9940476190476191</v>
+        <v>0.9941060903732809</v>
       </c>
       <c r="I281" s="5">
-        <v>152.8895705521472</v>
+        <v>153.3400809716599</v>
       </c>
       <c r="J281" s="3">
-        <v>99.65034965034964</v>
+        <v>99.6551724137931</v>
       </c>
       <c r="K281" s="3">
         <v>100</v>
@@ -17449,25 +17449,25 @@
         <v>17</v>
       </c>
       <c r="C282" s="3">
-        <v>1375</v>
+        <v>1378</v>
       </c>
       <c r="D282" s="3">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="E282" s="3">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="F282" s="3">
         <v>5</v>
       </c>
       <c r="G282" s="4">
-        <v>0.9919743178170144</v>
+        <v>0.9919871794871795</v>
       </c>
       <c r="H282" s="4">
-        <v>0.9903225806451613</v>
+        <v>0.9903381642512076</v>
       </c>
       <c r="I282" s="5">
-        <v>141.9637561779242</v>
+        <v>141.9457236842105</v>
       </c>
       <c r="J282" s="3">
         <v>100</v>
@@ -17487,33 +17487,223 @@
         <v>18</v>
       </c>
       <c r="C283" s="3">
-        <v>1189</v>
+        <v>1569</v>
       </c>
       <c r="D283" s="3">
-        <v>500</v>
+        <v>709</v>
       </c>
       <c r="E283" s="3">
-        <v>496</v>
+        <v>697</v>
       </c>
       <c r="F283" s="3">
+        <v>12</v>
+      </c>
+      <c r="G283" s="4">
+        <v>0.9830747531734838</v>
+      </c>
+      <c r="H283" s="4">
+        <v>0.9497847919655668</v>
+      </c>
+      <c r="I283" s="5">
+        <v>146.3450292397661</v>
+      </c>
+      <c r="J283" s="3">
+        <v>91.48418491484185</v>
+      </c>
+      <c r="K283" s="3">
+        <v>100</v>
+      </c>
+      <c r="L283" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="284" spans="1:12">
+      <c r="A284" s="2">
+        <v>45912</v>
+      </c>
+      <c r="B284" s="3">
+        <v>19</v>
+      </c>
+      <c r="C284" s="3">
+        <v>1824</v>
+      </c>
+      <c r="D284" s="3">
+        <v>800</v>
+      </c>
+      <c r="E284" s="3">
+        <v>796</v>
+      </c>
+      <c r="F284" s="3">
         <v>4</v>
       </c>
-      <c r="G283" s="4">
-        <v>0.992</v>
-      </c>
-      <c r="H283" s="4">
-        <v>1</v>
-      </c>
-      <c r="I283" s="5">
-        <v>147.5020491803279</v>
-      </c>
-      <c r="J283" s="3">
-        <v>100</v>
-      </c>
-      <c r="K283" s="3">
-        <v>100</v>
-      </c>
-      <c r="L283" s="3">
+      <c r="G284" s="4">
+        <v>0.995</v>
+      </c>
+      <c r="H284" s="4">
+        <v>0.9861809045226131</v>
+      </c>
+      <c r="I284" s="5">
+        <v>118.9898089171975</v>
+      </c>
+      <c r="J284" s="3">
+        <v>97.92843691148776</v>
+      </c>
+      <c r="K284" s="3">
+        <v>100</v>
+      </c>
+      <c r="L284" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="285" spans="1:12">
+      <c r="A285" s="2">
+        <v>45912</v>
+      </c>
+      <c r="B285" s="3">
+        <v>20</v>
+      </c>
+      <c r="C285" s="3">
+        <v>1796</v>
+      </c>
+      <c r="D285" s="3">
+        <v>811</v>
+      </c>
+      <c r="E285" s="3">
+        <v>732</v>
+      </c>
+      <c r="F285" s="3">
+        <v>79</v>
+      </c>
+      <c r="G285" s="4">
+        <v>0.9025893958076449</v>
+      </c>
+      <c r="H285" s="4">
+        <v>0.8466666666666667</v>
+      </c>
+      <c r="I285" s="5">
+        <v>116.8022130013831</v>
+      </c>
+      <c r="J285" s="3">
+        <v>77.37373737373737</v>
+      </c>
+      <c r="K285" s="3">
+        <v>98.65771812080537</v>
+      </c>
+      <c r="L285" s="3">
+        <v>99.05660377358491</v>
+      </c>
+    </row>
+    <row r="286" spans="1:12">
+      <c r="A286" s="2">
+        <v>45912</v>
+      </c>
+      <c r="B286" s="3">
+        <v>21</v>
+      </c>
+      <c r="C286" s="3">
+        <v>1524</v>
+      </c>
+      <c r="D286" s="3">
+        <v>682</v>
+      </c>
+      <c r="E286" s="3">
+        <v>587</v>
+      </c>
+      <c r="F286" s="3">
+        <v>95</v>
+      </c>
+      <c r="G286" s="4">
+        <v>0.8607038123167157</v>
+      </c>
+      <c r="H286" s="4">
+        <v>0.6891447368421053</v>
+      </c>
+      <c r="I286" s="5">
+        <v>134.5989583333333</v>
+      </c>
+      <c r="J286" s="3">
+        <v>56.90866510538641</v>
+      </c>
+      <c r="K286" s="3">
+        <v>97.34513274336283</v>
+      </c>
+      <c r="L286" s="3">
+        <v>97.05882352941177</v>
+      </c>
+    </row>
+    <row r="287" spans="1:12">
+      <c r="A287" s="2">
+        <v>45912</v>
+      </c>
+      <c r="B287" s="3">
+        <v>22</v>
+      </c>
+      <c r="C287" s="3">
+        <v>878</v>
+      </c>
+      <c r="D287" s="3">
+        <v>407</v>
+      </c>
+      <c r="E287" s="3">
+        <v>380</v>
+      </c>
+      <c r="F287" s="3">
+        <v>27</v>
+      </c>
+      <c r="G287" s="4">
+        <v>0.9336609336609336</v>
+      </c>
+      <c r="H287" s="4">
+        <v>0.8756476683937824</v>
+      </c>
+      <c r="I287" s="5">
+        <v>139.5067385444744</v>
+      </c>
+      <c r="J287" s="3">
+        <v>89.24731182795699</v>
+      </c>
+      <c r="K287" s="3">
+        <v>88.60759493670885</v>
+      </c>
+      <c r="L287" s="3">
+        <v>67.85714285714286</v>
+      </c>
+    </row>
+    <row r="288" spans="1:12">
+      <c r="A288" s="2">
+        <v>45912</v>
+      </c>
+      <c r="B288" s="3">
+        <v>23</v>
+      </c>
+      <c r="C288" s="3">
+        <v>435</v>
+      </c>
+      <c r="D288" s="3">
+        <v>213</v>
+      </c>
+      <c r="E288" s="3">
+        <v>213</v>
+      </c>
+      <c r="F288" s="3">
+        <v>0</v>
+      </c>
+      <c r="G288" s="4">
+        <v>1</v>
+      </c>
+      <c r="H288" s="4">
+        <v>1</v>
+      </c>
+      <c r="I288" s="5">
+        <v>131.8146341463415</v>
+      </c>
+      <c r="J288" s="3">
+        <v>100</v>
+      </c>
+      <c r="K288" s="3">
+        <v>100</v>
+      </c>
+      <c r="L288" s="3">
         <v>100</v>
       </c>
     </row>

--- a/Result.xlsx
+++ b/Result.xlsx
@@ -530,7 +530,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ23"/>
+  <dimension ref="A1:AJ25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2960,86 +2960,86 @@
       </c>
     </row>
     <row r="23" spans="1:36">
-      <c r="A23" s="3" t="s">
-        <v>36</v>
+      <c r="A23" s="2">
+        <v>45922</v>
       </c>
       <c r="B23" s="3">
-        <v>384707</v>
+        <v>16036</v>
       </c>
       <c r="C23" s="3">
-        <v>203248</v>
+        <v>8563</v>
       </c>
       <c r="D23" s="3">
-        <v>52116</v>
+        <v>2260</v>
       </c>
       <c r="E23" s="3">
-        <v>151132</v>
+        <v>6303</v>
       </c>
       <c r="F23" s="4">
-        <v>0.2564158072896166</v>
+        <v>0.263926194090856</v>
       </c>
       <c r="G23" s="5">
-        <v>41.74311678343698</v>
+        <v>39.79831834637393</v>
       </c>
       <c r="H23" s="3">
-        <v>181459</v>
+        <v>7473</v>
       </c>
       <c r="I23" s="4">
-        <v>0.5283189544250559</v>
+        <v>0.5339860314292841</v>
       </c>
       <c r="J23" s="3">
-        <v>181459</v>
+        <v>7473</v>
       </c>
       <c r="K23" s="3">
-        <v>180337</v>
+        <v>7458</v>
       </c>
       <c r="L23" s="3">
-        <v>172916</v>
+        <v>7397</v>
       </c>
       <c r="M23" s="3">
-        <v>169429</v>
+        <v>7278</v>
       </c>
       <c r="N23" s="3">
-        <v>3487</v>
+        <v>119</v>
       </c>
       <c r="O23" s="4">
-        <v>0.9588492655417358</v>
+        <v>0.9918208635022794</v>
       </c>
       <c r="P23" s="3">
-        <v>7421</v>
+        <v>61</v>
       </c>
       <c r="Q23" s="4">
-        <v>0.04115073445826425</v>
+        <v>0.008179136497720663</v>
       </c>
       <c r="R23" s="3">
-        <v>1122</v>
+        <v>15</v>
       </c>
       <c r="S23" s="3">
-        <v>167179</v>
+        <v>7370</v>
       </c>
       <c r="T23" s="3">
-        <v>2183</v>
+        <v>13</v>
       </c>
       <c r="U23" s="3">
-        <v>5737</v>
+        <v>27</v>
       </c>
       <c r="V23" s="4">
-        <v>0.9547684452795275</v>
+        <v>0.9946018893387314</v>
       </c>
       <c r="W23" s="5">
-        <v>135.4569347632342</v>
+        <v>139.3726298433636</v>
       </c>
       <c r="X23" s="5">
-        <v>13.03237934474027</v>
+        <v>4.009892827699917</v>
       </c>
       <c r="Y23" s="3">
-        <v>11386</v>
+        <v>451</v>
       </c>
       <c r="Z23" s="3">
-        <v>579</v>
+        <v>23</v>
       </c>
       <c r="AA23" s="3">
-        <v>556</v>
+        <v>22</v>
       </c>
       <c r="AB23" s="5">
         <v>60</v>
@@ -3051,22 +3051,242 @@
         <v>30</v>
       </c>
       <c r="AE23" s="3">
-        <v>11234</v>
+        <v>451</v>
       </c>
       <c r="AF23" s="3">
-        <v>579</v>
+        <v>23</v>
       </c>
       <c r="AG23" s="3">
-        <v>554</v>
+        <v>22</v>
       </c>
       <c r="AH23" s="4">
-        <v>0.9866502722641841</v>
+        <v>1</v>
       </c>
       <c r="AI23" s="4">
         <v>1</v>
       </c>
       <c r="AJ23" s="4">
-        <v>0.9964028776978417</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:36">
+      <c r="A24" s="2">
+        <v>45923</v>
+      </c>
+      <c r="B24" s="3">
+        <v>16911</v>
+      </c>
+      <c r="C24" s="3">
+        <v>9064</v>
+      </c>
+      <c r="D24" s="3">
+        <v>2459</v>
+      </c>
+      <c r="E24" s="3">
+        <v>6605</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0.2712930273609885</v>
+      </c>
+      <c r="G24" s="5">
+        <v>41.40125772285966</v>
+      </c>
+      <c r="H24" s="3">
+        <v>7847</v>
+      </c>
+      <c r="I24" s="4">
+        <v>0.5359824965998462</v>
+      </c>
+      <c r="J24" s="3">
+        <v>7847</v>
+      </c>
+      <c r="K24" s="3">
+        <v>7830</v>
+      </c>
+      <c r="L24" s="3">
+        <v>7680</v>
+      </c>
+      <c r="M24" s="3">
+        <v>7552</v>
+      </c>
+      <c r="N24" s="3">
+        <v>128</v>
+      </c>
+      <c r="O24" s="4">
+        <v>0.9808429118773945</v>
+      </c>
+      <c r="P24" s="3">
+        <v>150</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>0.01915708812260547</v>
+      </c>
+      <c r="R24" s="3">
+        <v>17</v>
+      </c>
+      <c r="S24" s="3">
+        <v>7616</v>
+      </c>
+      <c r="T24" s="3">
+        <v>37</v>
+      </c>
+      <c r="U24" s="3">
+        <v>64</v>
+      </c>
+      <c r="V24" s="4">
+        <v>0.9869120124400674</v>
+      </c>
+      <c r="W24" s="5">
+        <v>133.2726430084746</v>
+      </c>
+      <c r="X24" s="5">
+        <v>5.525291313559322</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>533</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>19</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>17</v>
+      </c>
+      <c r="AB24" s="5">
+        <v>60</v>
+      </c>
+      <c r="AC24" s="5">
+        <v>45</v>
+      </c>
+      <c r="AD24" s="5">
+        <v>30</v>
+      </c>
+      <c r="AE24" s="3">
+        <v>527</v>
+      </c>
+      <c r="AF24" s="3">
+        <v>19</v>
+      </c>
+      <c r="AG24" s="3">
+        <v>17</v>
+      </c>
+      <c r="AH24" s="4">
+        <v>0.9887429643527205</v>
+      </c>
+      <c r="AI24" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ24" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:36">
+      <c r="A25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="3">
+        <v>417654</v>
+      </c>
+      <c r="C25" s="3">
+        <v>220875</v>
+      </c>
+      <c r="D25" s="3">
+        <v>56835</v>
+      </c>
+      <c r="E25" s="3">
+        <v>164040</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0.2573174872665535</v>
+      </c>
+      <c r="G25" s="5">
+        <v>41.65369100169779</v>
+      </c>
+      <c r="H25" s="3">
+        <v>196779</v>
+      </c>
+      <c r="I25" s="4">
+        <v>0.528846844517232</v>
+      </c>
+      <c r="J25" s="3">
+        <v>196779</v>
+      </c>
+      <c r="K25" s="3">
+        <v>195625</v>
+      </c>
+      <c r="L25" s="3">
+        <v>187993</v>
+      </c>
+      <c r="M25" s="3">
+        <v>184259</v>
+      </c>
+      <c r="N25" s="3">
+        <v>3734</v>
+      </c>
+      <c r="O25" s="4">
+        <v>0.9609865814696485</v>
+      </c>
+      <c r="P25" s="3">
+        <v>7632</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>0.03901341853035149</v>
+      </c>
+      <c r="R25" s="3">
+        <v>1154</v>
+      </c>
+      <c r="S25" s="3">
+        <v>182165</v>
+      </c>
+      <c r="T25" s="3">
+        <v>2233</v>
+      </c>
+      <c r="U25" s="3">
+        <v>5828</v>
+      </c>
+      <c r="V25" s="4">
+        <v>0.9576240892412183</v>
+      </c>
+      <c r="W25" s="5">
+        <v>135.522074905432</v>
+      </c>
+      <c r="X25" s="5">
+        <v>12.36831850818685</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>12370</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>621</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>595</v>
+      </c>
+      <c r="AB25" s="5">
+        <v>60</v>
+      </c>
+      <c r="AC25" s="5">
+        <v>45</v>
+      </c>
+      <c r="AD25" s="5">
+        <v>30</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>12212</v>
+      </c>
+      <c r="AF25" s="3">
+        <v>621</v>
+      </c>
+      <c r="AG25" s="3">
+        <v>593</v>
+      </c>
+      <c r="AH25" s="4">
+        <v>0.9872271624898949</v>
+      </c>
+      <c r="AI25" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ25" s="4">
+        <v>0.9966386554621849</v>
       </c>
     </row>
   </sheetData>
@@ -3076,7 +3296,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ23"/>
+  <dimension ref="A1:AJ25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5506,86 +5726,86 @@
       </c>
     </row>
     <row r="23" spans="1:36">
-      <c r="A23" s="3" t="s">
-        <v>36</v>
+      <c r="A23" s="2">
+        <v>45922</v>
       </c>
       <c r="B23" s="3">
-        <v>222829</v>
+        <v>8735</v>
       </c>
       <c r="C23" s="3">
-        <v>134192</v>
+        <v>5182</v>
       </c>
       <c r="D23" s="3">
-        <v>29398</v>
+        <v>1233</v>
       </c>
       <c r="E23" s="3">
-        <v>104794</v>
+        <v>3949</v>
       </c>
       <c r="F23" s="4">
-        <v>0.2190741623941815</v>
+        <v>0.2379390196835199</v>
       </c>
       <c r="G23" s="5">
-        <v>47.4066859425301</v>
+        <v>43.81590119644925</v>
       </c>
       <c r="H23" s="3">
-        <v>88637</v>
+        <v>3553</v>
       </c>
       <c r="I23" s="4">
-        <v>0.6022196392749597</v>
+        <v>0.5932455638236978</v>
       </c>
       <c r="J23" s="3">
-        <v>88637</v>
+        <v>3553</v>
       </c>
       <c r="K23" s="3">
-        <v>88190</v>
+        <v>3548</v>
       </c>
       <c r="L23" s="3">
-        <v>85154</v>
+        <v>3519</v>
       </c>
       <c r="M23" s="3">
-        <v>83618</v>
+        <v>3469</v>
       </c>
       <c r="N23" s="3">
-        <v>1536</v>
+        <v>50</v>
       </c>
       <c r="O23" s="4">
-        <v>0.9655743281551197</v>
+        <v>0.991826381059752</v>
       </c>
       <c r="P23" s="3">
-        <v>3036</v>
+        <v>29</v>
       </c>
       <c r="Q23" s="4">
-        <v>0.03442567184488027</v>
+        <v>0.008173618940247991</v>
       </c>
       <c r="R23" s="3">
-        <v>447</v>
+        <v>5</v>
       </c>
       <c r="S23" s="3">
-        <v>81235</v>
+        <v>3498</v>
       </c>
       <c r="T23" s="3">
-        <v>741</v>
+        <v>8</v>
       </c>
       <c r="U23" s="3">
-        <v>3919</v>
+        <v>21</v>
       </c>
       <c r="V23" s="4">
-        <v>0.9457477152337155</v>
+        <v>0.9917777147717607</v>
       </c>
       <c r="W23" s="5">
-        <v>138.7249994020426</v>
+        <v>147.5949841452868</v>
       </c>
       <c r="X23" s="5">
-        <v>15.61609940443445</v>
+        <v>5.221965984433554</v>
       </c>
       <c r="Y23" s="3">
-        <v>5229</v>
+        <v>202</v>
       </c>
       <c r="Z23" s="3">
-        <v>481</v>
+        <v>17</v>
       </c>
       <c r="AA23" s="3">
-        <v>408</v>
+        <v>16</v>
       </c>
       <c r="AB23" s="5">
         <v>60</v>
@@ -5597,22 +5817,242 @@
         <v>30</v>
       </c>
       <c r="AE23" s="3">
-        <v>5150</v>
+        <v>202</v>
       </c>
       <c r="AF23" s="3">
-        <v>481</v>
+        <v>17</v>
       </c>
       <c r="AG23" s="3">
-        <v>406</v>
+        <v>16</v>
       </c>
       <c r="AH23" s="4">
-        <v>0.9848919487473704</v>
+        <v>1</v>
       </c>
       <c r="AI23" s="4">
         <v>1</v>
       </c>
       <c r="AJ23" s="4">
-        <v>0.9950980392156863</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:36">
+      <c r="A24" s="2">
+        <v>45923</v>
+      </c>
+      <c r="B24" s="3">
+        <v>9652</v>
+      </c>
+      <c r="C24" s="3">
+        <v>5781</v>
+      </c>
+      <c r="D24" s="3">
+        <v>1421</v>
+      </c>
+      <c r="E24" s="3">
+        <v>4360</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0.2458052240096869</v>
+      </c>
+      <c r="G24" s="5">
+        <v>45.82961425358934</v>
+      </c>
+      <c r="H24" s="3">
+        <v>3871</v>
+      </c>
+      <c r="I24" s="4">
+        <v>0.5989432242022379</v>
+      </c>
+      <c r="J24" s="3">
+        <v>3871</v>
+      </c>
+      <c r="K24" s="3">
+        <v>3858</v>
+      </c>
+      <c r="L24" s="3">
+        <v>3787</v>
+      </c>
+      <c r="M24" s="3">
+        <v>3721</v>
+      </c>
+      <c r="N24" s="3">
+        <v>66</v>
+      </c>
+      <c r="O24" s="4">
+        <v>0.9815966822187662</v>
+      </c>
+      <c r="P24" s="3">
+        <v>71</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>0.01840331778123385</v>
+      </c>
+      <c r="R24" s="3">
+        <v>13</v>
+      </c>
+      <c r="S24" s="3">
+        <v>3754</v>
+      </c>
+      <c r="T24" s="3">
+        <v>15</v>
+      </c>
+      <c r="U24" s="3">
+        <v>33</v>
+      </c>
+      <c r="V24" s="4">
+        <v>0.9873750657548659</v>
+      </c>
+      <c r="W24" s="5">
+        <v>138.2660575114216</v>
+      </c>
+      <c r="X24" s="5">
+        <v>5.367911851652782</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>248</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>11</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>13</v>
+      </c>
+      <c r="AB24" s="5">
+        <v>60</v>
+      </c>
+      <c r="AC24" s="5">
+        <v>45</v>
+      </c>
+      <c r="AD24" s="5">
+        <v>30</v>
+      </c>
+      <c r="AE24" s="3">
+        <v>248</v>
+      </c>
+      <c r="AF24" s="3">
+        <v>11</v>
+      </c>
+      <c r="AG24" s="3">
+        <v>13</v>
+      </c>
+      <c r="AH24" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI24" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ24" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:36">
+      <c r="A25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="3">
+        <v>241216</v>
+      </c>
+      <c r="C25" s="3">
+        <v>145155</v>
+      </c>
+      <c r="D25" s="3">
+        <v>32052</v>
+      </c>
+      <c r="E25" s="3">
+        <v>113103</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0.2208122351968585</v>
+      </c>
+      <c r="G25" s="5">
+        <v>47.21568667975612</v>
+      </c>
+      <c r="H25" s="3">
+        <v>96061</v>
+      </c>
+      <c r="I25" s="4">
+        <v>0.6017635646059963</v>
+      </c>
+      <c r="J25" s="3">
+        <v>96061</v>
+      </c>
+      <c r="K25" s="3">
+        <v>95596</v>
+      </c>
+      <c r="L25" s="3">
+        <v>92460</v>
+      </c>
+      <c r="M25" s="3">
+        <v>90808</v>
+      </c>
+      <c r="N25" s="3">
+        <v>1652</v>
+      </c>
+      <c r="O25" s="4">
+        <v>0.9671952801372441</v>
+      </c>
+      <c r="P25" s="3">
+        <v>3136</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>0.03280471986275586</v>
+      </c>
+      <c r="R25" s="3">
+        <v>465</v>
+      </c>
+      <c r="S25" s="3">
+        <v>88487</v>
+      </c>
+      <c r="T25" s="3">
+        <v>764</v>
+      </c>
+      <c r="U25" s="3">
+        <v>3973</v>
+      </c>
+      <c r="V25" s="4">
+        <v>0.9491869046597443</v>
+      </c>
+      <c r="W25" s="5">
+        <v>139.0450400845741</v>
+      </c>
+      <c r="X25" s="5">
+        <v>14.79909259096115</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>5679</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>509</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>437</v>
+      </c>
+      <c r="AB25" s="5">
+        <v>60</v>
+      </c>
+      <c r="AC25" s="5">
+        <v>45</v>
+      </c>
+      <c r="AD25" s="5">
+        <v>30</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>5600</v>
+      </c>
+      <c r="AF25" s="3">
+        <v>509</v>
+      </c>
+      <c r="AG25" s="3">
+        <v>435</v>
+      </c>
+      <c r="AH25" s="4">
+        <v>0.9860891001936962</v>
+      </c>
+      <c r="AI25" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ25" s="4">
+        <v>0.9954233409610984</v>
       </c>
     </row>
   </sheetData>
@@ -5622,7 +6062,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ23"/>
+  <dimension ref="A1:AJ25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8052,86 +8492,86 @@
       </c>
     </row>
     <row r="23" spans="1:36">
-      <c r="A23" s="3" t="s">
-        <v>36</v>
+      <c r="A23" s="2">
+        <v>45922</v>
       </c>
       <c r="B23" s="3">
-        <v>97975</v>
+        <v>4423</v>
       </c>
       <c r="C23" s="3">
-        <v>44421</v>
+        <v>2139</v>
       </c>
       <c r="D23" s="3">
-        <v>15620</v>
+        <v>715</v>
       </c>
       <c r="E23" s="3">
-        <v>28801</v>
+        <v>1424</v>
       </c>
       <c r="F23" s="4">
-        <v>0.3516354877197722</v>
+        <v>0.3342683496961197</v>
       </c>
       <c r="G23" s="5">
-        <v>27.65009792665631</v>
+        <v>29.77980364656381</v>
       </c>
       <c r="H23" s="3">
-        <v>53554</v>
+        <v>2284</v>
       </c>
       <c r="I23" s="4">
-        <v>0.4533911712171472</v>
+        <v>0.4836084105810536</v>
       </c>
       <c r="J23" s="3">
-        <v>53554</v>
+        <v>2284</v>
       </c>
       <c r="K23" s="3">
-        <v>53105</v>
+        <v>2277</v>
       </c>
       <c r="L23" s="3">
-        <v>50417</v>
+        <v>2256</v>
       </c>
       <c r="M23" s="3">
-        <v>49201</v>
+        <v>2213</v>
       </c>
       <c r="N23" s="3">
-        <v>1216</v>
+        <v>43</v>
       </c>
       <c r="O23" s="4">
-        <v>0.9493832972413145</v>
+        <v>0.9907773386034254</v>
       </c>
       <c r="P23" s="3">
-        <v>2688</v>
+        <v>21</v>
       </c>
       <c r="Q23" s="4">
-        <v>0.0506167027586855</v>
+        <v>0.009222661396574523</v>
       </c>
       <c r="R23" s="3">
-        <v>449</v>
+        <v>7</v>
       </c>
       <c r="S23" s="3">
-        <v>49370</v>
+        <v>2250</v>
       </c>
       <c r="T23" s="3">
-        <v>852</v>
+        <v>3</v>
       </c>
       <c r="U23" s="3">
-        <v>1047</v>
+        <v>6</v>
       </c>
       <c r="V23" s="4">
-        <v>0.9629600733386647</v>
+        <v>0.9960159362549801</v>
       </c>
       <c r="W23" s="5">
-        <v>129.4787504319018</v>
+        <v>127.2593764121103</v>
       </c>
       <c r="X23" s="5">
-        <v>10.46190118087031</v>
+        <v>3.109805693628558</v>
       </c>
       <c r="Y23" s="3">
-        <v>3793</v>
+        <v>148</v>
       </c>
       <c r="Z23" s="3">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="AA23" s="3">
-        <v>114</v>
+        <v>4</v>
       </c>
       <c r="AB23" s="5">
         <v>60</v>
@@ -8143,21 +8583,241 @@
         <v>30</v>
       </c>
       <c r="AE23" s="3">
-        <v>3747</v>
+        <v>148</v>
       </c>
       <c r="AF23" s="3">
+        <v>2</v>
+      </c>
+      <c r="AG23" s="3">
+        <v>4</v>
+      </c>
+      <c r="AH23" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI23" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ23" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:36">
+      <c r="A24" s="2">
+        <v>45923</v>
+      </c>
+      <c r="B24" s="3">
+        <v>4273</v>
+      </c>
+      <c r="C24" s="3">
+        <v>2029</v>
+      </c>
+      <c r="D24" s="3">
+        <v>684</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1345</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0.3371118777723016</v>
+      </c>
+      <c r="G24" s="5">
+        <v>30.08822079842287</v>
+      </c>
+      <c r="H24" s="3">
+        <v>2244</v>
+      </c>
+      <c r="I24" s="4">
+        <v>0.4748420313597004</v>
+      </c>
+      <c r="J24" s="3">
+        <v>2244</v>
+      </c>
+      <c r="K24" s="3">
+        <v>2241</v>
+      </c>
+      <c r="L24" s="3">
+        <v>2193</v>
+      </c>
+      <c r="M24" s="3">
+        <v>2147</v>
+      </c>
+      <c r="N24" s="3">
+        <v>46</v>
+      </c>
+      <c r="O24" s="4">
+        <v>0.9785809906291835</v>
+      </c>
+      <c r="P24" s="3">
+        <v>48</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>0.02141900937081658</v>
+      </c>
+      <c r="R24" s="3">
+        <v>3</v>
+      </c>
+      <c r="S24" s="3">
+        <v>2179</v>
+      </c>
+      <c r="T24" s="3">
+        <v>9</v>
+      </c>
+      <c r="U24" s="3">
+        <v>14</v>
+      </c>
+      <c r="V24" s="4">
+        <v>0.9895549500454134</v>
+      </c>
+      <c r="W24" s="5">
+        <v>121.5188635305077</v>
+      </c>
+      <c r="X24" s="5">
+        <v>5.188635305076851</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>169</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>2</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>3</v>
+      </c>
+      <c r="AB24" s="5">
+        <v>60</v>
+      </c>
+      <c r="AC24" s="5">
+        <v>45</v>
+      </c>
+      <c r="AD24" s="5">
+        <v>30</v>
+      </c>
+      <c r="AE24" s="3">
+        <v>165</v>
+      </c>
+      <c r="AF24" s="3">
+        <v>2</v>
+      </c>
+      <c r="AG24" s="3">
+        <v>3</v>
+      </c>
+      <c r="AH24" s="4">
+        <v>0.9763313609467456</v>
+      </c>
+      <c r="AI24" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ24" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:36">
+      <c r="A25" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AG23" s="3">
-        <v>114</v>
-      </c>
-      <c r="AH23" s="4">
-        <v>0.987872396519905</v>
-      </c>
-      <c r="AI23" s="4">
-        <v>1</v>
-      </c>
-      <c r="AJ23" s="4">
+      <c r="B25" s="3">
+        <v>106671</v>
+      </c>
+      <c r="C25" s="3">
+        <v>48589</v>
+      </c>
+      <c r="D25" s="3">
+        <v>17019</v>
+      </c>
+      <c r="E25" s="3">
+        <v>31570</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0.3502644631500956</v>
+      </c>
+      <c r="G25" s="5">
+        <v>27.84566465660952</v>
+      </c>
+      <c r="H25" s="3">
+        <v>58082</v>
+      </c>
+      <c r="I25" s="4">
+        <v>0.4555033701755866</v>
+      </c>
+      <c r="J25" s="3">
+        <v>58082</v>
+      </c>
+      <c r="K25" s="3">
+        <v>57623</v>
+      </c>
+      <c r="L25" s="3">
+        <v>54866</v>
+      </c>
+      <c r="M25" s="3">
+        <v>53561</v>
+      </c>
+      <c r="N25" s="3">
+        <v>1305</v>
+      </c>
+      <c r="O25" s="4">
+        <v>0.9521545216319872</v>
+      </c>
+      <c r="P25" s="3">
+        <v>2757</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>0.0478454783680128</v>
+      </c>
+      <c r="R25" s="3">
+        <v>459</v>
+      </c>
+      <c r="S25" s="3">
+        <v>53799</v>
+      </c>
+      <c r="T25" s="3">
+        <v>864</v>
+      </c>
+      <c r="U25" s="3">
+        <v>1067</v>
+      </c>
+      <c r="V25" s="4">
+        <v>0.9653507984927329</v>
+      </c>
+      <c r="W25" s="5">
+        <v>129.0679785664943</v>
+      </c>
+      <c r="X25" s="5">
+        <v>9.946752301114618</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>4110</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>40</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>121</v>
+      </c>
+      <c r="AB25" s="5">
+        <v>60</v>
+      </c>
+      <c r="AC25" s="5">
+        <v>45</v>
+      </c>
+      <c r="AD25" s="5">
+        <v>30</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>4060</v>
+      </c>
+      <c r="AF25" s="3">
+        <v>40</v>
+      </c>
+      <c r="AG25" s="3">
+        <v>121</v>
+      </c>
+      <c r="AH25" s="4">
+        <v>0.9878345498783454</v>
+      </c>
+      <c r="AI25" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ25" s="4">
         <v>1</v>
       </c>
     </row>
@@ -8168,7 +8828,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ23"/>
+  <dimension ref="A1:AJ25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10598,86 +11258,86 @@
       </c>
     </row>
     <row r="23" spans="1:36">
-      <c r="A23" s="3" t="s">
-        <v>36</v>
+      <c r="A23" s="2">
+        <v>45922</v>
       </c>
       <c r="B23" s="3">
-        <v>63903</v>
+        <v>2878</v>
       </c>
       <c r="C23" s="3">
-        <v>24635</v>
+        <v>1242</v>
       </c>
       <c r="D23" s="3">
-        <v>7098</v>
+        <v>312</v>
       </c>
       <c r="E23" s="3">
-        <v>17537</v>
+        <v>930</v>
       </c>
       <c r="F23" s="4">
-        <v>0.2881266490765171</v>
+        <v>0.251207729468599</v>
       </c>
       <c r="G23" s="5">
-        <v>36.30452608077938</v>
+        <v>40.28985507246377</v>
       </c>
       <c r="H23" s="3">
-        <v>39268</v>
+        <v>1636</v>
       </c>
       <c r="I23" s="4">
-        <v>0.3855061577703707</v>
+        <v>0.4315496872828353</v>
       </c>
       <c r="J23" s="3">
-        <v>39268</v>
+        <v>1636</v>
       </c>
       <c r="K23" s="3">
-        <v>39042</v>
+        <v>1633</v>
       </c>
       <c r="L23" s="3">
-        <v>37345</v>
+        <v>1622</v>
       </c>
       <c r="M23" s="3">
-        <v>36610</v>
+        <v>1596</v>
       </c>
       <c r="N23" s="3">
-        <v>735</v>
+        <v>26</v>
       </c>
       <c r="O23" s="4">
-        <v>0.9565339890374467</v>
+        <v>0.9932639314145743</v>
       </c>
       <c r="P23" s="3">
-        <v>1697</v>
+        <v>11</v>
       </c>
       <c r="Q23" s="4">
-        <v>0.04346601096255327</v>
+        <v>0.006736068585425699</v>
       </c>
       <c r="R23" s="3">
-        <v>226</v>
+        <v>3</v>
       </c>
       <c r="S23" s="3">
-        <v>36574</v>
+        <v>1622</v>
       </c>
       <c r="T23" s="3">
-        <v>590</v>
+        <v>2</v>
       </c>
       <c r="U23" s="3">
-        <v>771</v>
+        <v>0</v>
       </c>
       <c r="V23" s="4">
-        <v>0.9641228417029128</v>
+        <v>0.998768472906404</v>
       </c>
       <c r="W23" s="5">
-        <v>136.02682327233</v>
+        <v>138.296992481203</v>
       </c>
       <c r="X23" s="5">
-        <v>10.58563234089047</v>
+        <v>2.6234335839599</v>
       </c>
       <c r="Y23" s="3">
-        <v>2364</v>
+        <v>101</v>
       </c>
       <c r="Z23" s="3">
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="AA23" s="3">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="AB23" s="5">
         <v>60</v>
@@ -10689,21 +11349,241 @@
         <v>30</v>
       </c>
       <c r="AE23" s="3">
-        <v>2337</v>
+        <v>101</v>
       </c>
       <c r="AF23" s="3">
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="AG23" s="3">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="AH23" s="4">
-        <v>0.9885786802030458</v>
+        <v>1</v>
       </c>
       <c r="AI23" s="4">
         <v>1</v>
       </c>
       <c r="AJ23" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:36">
+      <c r="A24" s="2">
+        <v>45923</v>
+      </c>
+      <c r="B24" s="3">
+        <v>2986</v>
+      </c>
+      <c r="C24" s="3">
+        <v>1254</v>
+      </c>
+      <c r="D24" s="3">
+        <v>354</v>
+      </c>
+      <c r="E24" s="3">
+        <v>900</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0.2822966507177033</v>
+      </c>
+      <c r="G24" s="5">
+        <v>39.29106858054227</v>
+      </c>
+      <c r="H24" s="3">
+        <v>1732</v>
+      </c>
+      <c r="I24" s="4">
+        <v>0.419959812458138</v>
+      </c>
+      <c r="J24" s="3">
+        <v>1732</v>
+      </c>
+      <c r="K24" s="3">
+        <v>1731</v>
+      </c>
+      <c r="L24" s="3">
+        <v>1700</v>
+      </c>
+      <c r="M24" s="3">
+        <v>1684</v>
+      </c>
+      <c r="N24" s="3">
+        <v>16</v>
+      </c>
+      <c r="O24" s="4">
+        <v>0.9820912767186597</v>
+      </c>
+      <c r="P24" s="3">
+        <v>31</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>0.01790872328134029</v>
+      </c>
+      <c r="R24" s="3">
+        <v>1</v>
+      </c>
+      <c r="S24" s="3">
+        <v>1683</v>
+      </c>
+      <c r="T24" s="3">
+        <v>13</v>
+      </c>
+      <c r="U24" s="3">
+        <v>17</v>
+      </c>
+      <c r="V24" s="4">
+        <v>0.9824868651488616</v>
+      </c>
+      <c r="W24" s="5">
+        <v>137.2244655581948</v>
+      </c>
+      <c r="X24" s="5">
+        <v>6.302256532066508</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>116</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>6</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB24" s="5">
+        <v>60</v>
+      </c>
+      <c r="AC24" s="5">
+        <v>45</v>
+      </c>
+      <c r="AD24" s="5">
+        <v>30</v>
+      </c>
+      <c r="AE24" s="3">
+        <v>114</v>
+      </c>
+      <c r="AF24" s="3">
+        <v>6</v>
+      </c>
+      <c r="AG24" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH24" s="4">
+        <v>0.9827586206896551</v>
+      </c>
+      <c r="AI24" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ24" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:36">
+      <c r="A25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="3">
+        <v>69767</v>
+      </c>
+      <c r="C25" s="3">
+        <v>27131</v>
+      </c>
+      <c r="D25" s="3">
+        <v>7764</v>
+      </c>
+      <c r="E25" s="3">
+        <v>19367</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0.2861671151081788</v>
+      </c>
+      <c r="G25" s="5">
+        <v>36.62500460727581</v>
+      </c>
+      <c r="H25" s="3">
+        <v>42636</v>
+      </c>
+      <c r="I25" s="4">
+        <v>0.388880129574154</v>
+      </c>
+      <c r="J25" s="3">
+        <v>42636</v>
+      </c>
+      <c r="K25" s="3">
+        <v>42406</v>
+      </c>
+      <c r="L25" s="3">
+        <v>40667</v>
+      </c>
+      <c r="M25" s="3">
+        <v>39890</v>
+      </c>
+      <c r="N25" s="3">
+        <v>777</v>
+      </c>
+      <c r="O25" s="4">
+        <v>0.9589916521246994</v>
+      </c>
+      <c r="P25" s="3">
+        <v>1739</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>0.04100834787530062</v>
+      </c>
+      <c r="R25" s="3">
+        <v>230</v>
+      </c>
+      <c r="S25" s="3">
+        <v>39879</v>
+      </c>
+      <c r="T25" s="3">
+        <v>605</v>
+      </c>
+      <c r="U25" s="3">
+        <v>788</v>
+      </c>
+      <c r="V25" s="4">
+        <v>0.966248303934871</v>
+      </c>
+      <c r="W25" s="5">
+        <v>136.1682125846077</v>
+      </c>
+      <c r="X25" s="5">
+        <v>10.08623715216846</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>2581</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>72</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>37</v>
+      </c>
+      <c r="AB25" s="5">
+        <v>60</v>
+      </c>
+      <c r="AC25" s="5">
+        <v>45</v>
+      </c>
+      <c r="AD25" s="5">
+        <v>30</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>2552</v>
+      </c>
+      <c r="AF25" s="3">
+        <v>72</v>
+      </c>
+      <c r="AG25" s="3">
+        <v>37</v>
+      </c>
+      <c r="AH25" s="4">
+        <v>0.9887640449438202</v>
+      </c>
+      <c r="AI25" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ25" s="4">
         <v>1</v>
       </c>
     </row>
@@ -10714,7 +11594,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L504"/>
+  <dimension ref="A1:L552"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -29875,6 +30755,1830 @@
         <v>100</v>
       </c>
     </row>
+    <row r="505" spans="1:12">
+      <c r="A505" s="2">
+        <v>45922</v>
+      </c>
+      <c r="B505" s="3">
+        <v>0</v>
+      </c>
+      <c r="C505" s="3">
+        <v>123</v>
+      </c>
+      <c r="D505" s="3">
+        <v>57</v>
+      </c>
+      <c r="E505" s="3">
+        <v>57</v>
+      </c>
+      <c r="F505" s="3">
+        <v>0</v>
+      </c>
+      <c r="G505" s="4">
+        <v>1</v>
+      </c>
+      <c r="H505" s="4">
+        <v>1</v>
+      </c>
+      <c r="I505" s="5">
+        <v>141.4181818181818</v>
+      </c>
+      <c r="J505" s="3">
+        <v>100</v>
+      </c>
+      <c r="K505" s="3">
+        <v>100</v>
+      </c>
+      <c r="L505" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="506" spans="1:12">
+      <c r="A506" s="2">
+        <v>45922</v>
+      </c>
+      <c r="B506" s="3">
+        <v>1</v>
+      </c>
+      <c r="C506" s="3">
+        <v>104</v>
+      </c>
+      <c r="D506" s="3">
+        <v>45</v>
+      </c>
+      <c r="E506" s="3">
+        <v>45</v>
+      </c>
+      <c r="F506" s="3">
+        <v>0</v>
+      </c>
+      <c r="G506" s="4">
+        <v>1</v>
+      </c>
+      <c r="H506" s="4">
+        <v>1</v>
+      </c>
+      <c r="I506" s="5">
+        <v>143.9756097560976</v>
+      </c>
+      <c r="J506" s="3">
+        <v>100</v>
+      </c>
+      <c r="K506" s="3">
+        <v>100</v>
+      </c>
+      <c r="L506" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="507" spans="1:12">
+      <c r="A507" s="2">
+        <v>45922</v>
+      </c>
+      <c r="B507" s="3">
+        <v>2</v>
+      </c>
+      <c r="C507" s="3">
+        <v>54</v>
+      </c>
+      <c r="D507" s="3">
+        <v>22</v>
+      </c>
+      <c r="E507" s="3">
+        <v>19</v>
+      </c>
+      <c r="F507" s="3">
+        <v>3</v>
+      </c>
+      <c r="G507" s="4">
+        <v>0.8636363636363636</v>
+      </c>
+      <c r="H507" s="4">
+        <v>0.9047619047619048</v>
+      </c>
+      <c r="I507" s="5">
+        <v>90.05882352941177</v>
+      </c>
+      <c r="J507" s="3">
+        <v>77.77777777777779</v>
+      </c>
+      <c r="K507" s="3">
+        <v>100</v>
+      </c>
+      <c r="L507" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="508" spans="1:12">
+      <c r="A508" s="2">
+        <v>45922</v>
+      </c>
+      <c r="B508" s="3">
+        <v>3</v>
+      </c>
+      <c r="C508" s="3">
+        <v>23</v>
+      </c>
+      <c r="D508" s="3">
+        <v>7</v>
+      </c>
+      <c r="E508" s="3">
+        <v>4</v>
+      </c>
+      <c r="F508" s="3">
+        <v>3</v>
+      </c>
+      <c r="G508" s="4">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="H508" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="I508" s="5">
+        <v>273.75</v>
+      </c>
+      <c r="J508" s="3">
+        <v>100</v>
+      </c>
+      <c r="K508" s="3">
+        <v>66.66666666666666</v>
+      </c>
+      <c r="L508" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="509" spans="1:12">
+      <c r="A509" s="2">
+        <v>45922</v>
+      </c>
+      <c r="B509" s="3">
+        <v>4</v>
+      </c>
+      <c r="C509" s="3">
+        <v>37</v>
+      </c>
+      <c r="D509" s="3">
+        <v>10</v>
+      </c>
+      <c r="E509" s="3">
+        <v>10</v>
+      </c>
+      <c r="F509" s="3">
+        <v>0</v>
+      </c>
+      <c r="G509" s="4">
+        <v>1</v>
+      </c>
+      <c r="H509" s="4">
+        <v>1</v>
+      </c>
+      <c r="I509" s="5">
+        <v>111.5</v>
+      </c>
+      <c r="J509" s="3">
+        <v>100</v>
+      </c>
+      <c r="K509" s="3">
+        <v>100</v>
+      </c>
+      <c r="L509" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="510" spans="1:12">
+      <c r="A510" s="2">
+        <v>45922</v>
+      </c>
+      <c r="B510" s="3">
+        <v>5</v>
+      </c>
+      <c r="C510" s="3">
+        <v>53</v>
+      </c>
+      <c r="D510" s="3">
+        <v>14</v>
+      </c>
+      <c r="E510" s="3">
+        <v>10</v>
+      </c>
+      <c r="F510" s="3">
+        <v>4</v>
+      </c>
+      <c r="G510" s="4">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="H510" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="I510" s="5">
+        <v>159.4444444444445</v>
+      </c>
+      <c r="J510" s="3">
+        <v>75</v>
+      </c>
+      <c r="K510" s="3">
+        <v>66.66666666666666</v>
+      </c>
+      <c r="L510" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="511" spans="1:12">
+      <c r="A511" s="2">
+        <v>45922</v>
+      </c>
+      <c r="B511" s="3">
+        <v>6</v>
+      </c>
+      <c r="C511" s="3">
+        <v>219</v>
+      </c>
+      <c r="D511" s="3">
+        <v>89</v>
+      </c>
+      <c r="E511" s="3">
+        <v>86</v>
+      </c>
+      <c r="F511" s="3">
+        <v>3</v>
+      </c>
+      <c r="G511" s="4">
+        <v>0.9662921348314607</v>
+      </c>
+      <c r="H511" s="4">
+        <v>0.9545454545454546</v>
+      </c>
+      <c r="I511" s="5">
+        <v>127.6190476190476</v>
+      </c>
+      <c r="J511" s="3">
+        <v>92.30769230769231</v>
+      </c>
+      <c r="K511" s="3">
+        <v>96.7741935483871</v>
+      </c>
+      <c r="L511" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="512" spans="1:12">
+      <c r="A512" s="2">
+        <v>45922</v>
+      </c>
+      <c r="B512" s="3">
+        <v>7</v>
+      </c>
+      <c r="C512" s="3">
+        <v>462</v>
+      </c>
+      <c r="D512" s="3">
+        <v>221</v>
+      </c>
+      <c r="E512" s="3">
+        <v>216</v>
+      </c>
+      <c r="F512" s="3">
+        <v>5</v>
+      </c>
+      <c r="G512" s="4">
+        <v>0.9773755656108597</v>
+      </c>
+      <c r="H512" s="4">
+        <v>0.963302752293578</v>
+      </c>
+      <c r="I512" s="5">
+        <v>113.3302325581395</v>
+      </c>
+      <c r="J512" s="3">
+        <v>92.7927927927928</v>
+      </c>
+      <c r="K512" s="3">
+        <v>100</v>
+      </c>
+      <c r="L512" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="513" spans="1:12">
+      <c r="A513" s="2">
+        <v>45922</v>
+      </c>
+      <c r="B513" s="3">
+        <v>8</v>
+      </c>
+      <c r="C513" s="3">
+        <v>665</v>
+      </c>
+      <c r="D513" s="3">
+        <v>324</v>
+      </c>
+      <c r="E513" s="3">
+        <v>321</v>
+      </c>
+      <c r="F513" s="3">
+        <v>3</v>
+      </c>
+      <c r="G513" s="4">
+        <v>0.9907407407407408</v>
+      </c>
+      <c r="H513" s="4">
+        <v>0.9937694704049843</v>
+      </c>
+      <c r="I513" s="5">
+        <v>126.9686520376176</v>
+      </c>
+      <c r="J513" s="3">
+        <v>98.57142857142858</v>
+      </c>
+      <c r="K513" s="3">
+        <v>100</v>
+      </c>
+      <c r="L513" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="514" spans="1:12">
+      <c r="A514" s="2">
+        <v>45922</v>
+      </c>
+      <c r="B514" s="3">
+        <v>9</v>
+      </c>
+      <c r="C514" s="3">
+        <v>972</v>
+      </c>
+      <c r="D514" s="3">
+        <v>463</v>
+      </c>
+      <c r="E514" s="3">
+        <v>459</v>
+      </c>
+      <c r="F514" s="3">
+        <v>4</v>
+      </c>
+      <c r="G514" s="4">
+        <v>0.9913606911447084</v>
+      </c>
+      <c r="H514" s="4">
+        <v>1</v>
+      </c>
+      <c r="I514" s="5">
+        <v>140.167032967033</v>
+      </c>
+      <c r="J514" s="3">
+        <v>100</v>
+      </c>
+      <c r="K514" s="3">
+        <v>100</v>
+      </c>
+      <c r="L514" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="515" spans="1:12">
+      <c r="A515" s="2">
+        <v>45922</v>
+      </c>
+      <c r="B515" s="3">
+        <v>10</v>
+      </c>
+      <c r="C515" s="3">
+        <v>1217</v>
+      </c>
+      <c r="D515" s="3">
+        <v>549</v>
+      </c>
+      <c r="E515" s="3">
+        <v>549</v>
+      </c>
+      <c r="F515" s="3">
+        <v>0</v>
+      </c>
+      <c r="G515" s="4">
+        <v>1</v>
+      </c>
+      <c r="H515" s="4">
+        <v>1</v>
+      </c>
+      <c r="I515" s="5">
+        <v>130.687037037037</v>
+      </c>
+      <c r="J515" s="3">
+        <v>100</v>
+      </c>
+      <c r="K515" s="3">
+        <v>100</v>
+      </c>
+      <c r="L515" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="516" spans="1:12">
+      <c r="A516" s="2">
+        <v>45922</v>
+      </c>
+      <c r="B516" s="3">
+        <v>11</v>
+      </c>
+      <c r="C516" s="3">
+        <v>1263</v>
+      </c>
+      <c r="D516" s="3">
+        <v>603</v>
+      </c>
+      <c r="E516" s="3">
+        <v>598</v>
+      </c>
+      <c r="F516" s="3">
+        <v>5</v>
+      </c>
+      <c r="G516" s="4">
+        <v>0.9917081260364843</v>
+      </c>
+      <c r="H516" s="4">
+        <v>0.994991652754591</v>
+      </c>
+      <c r="I516" s="5">
+        <v>139.6108291032149</v>
+      </c>
+      <c r="J516" s="3">
+        <v>98.9795918367347</v>
+      </c>
+      <c r="K516" s="3">
+        <v>100</v>
+      </c>
+      <c r="L516" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="517" spans="1:12">
+      <c r="A517" s="2">
+        <v>45922</v>
+      </c>
+      <c r="B517" s="3">
+        <v>12</v>
+      </c>
+      <c r="C517" s="3">
+        <v>1116</v>
+      </c>
+      <c r="D517" s="3">
+        <v>557</v>
+      </c>
+      <c r="E517" s="3">
+        <v>553</v>
+      </c>
+      <c r="F517" s="3">
+        <v>4</v>
+      </c>
+      <c r="G517" s="4">
+        <v>0.992818671454219</v>
+      </c>
+      <c r="H517" s="4">
+        <v>0.9981916817359856</v>
+      </c>
+      <c r="I517" s="5">
+        <v>138.5732600732601</v>
+      </c>
+      <c r="J517" s="3">
+        <v>99.609375</v>
+      </c>
+      <c r="K517" s="3">
+        <v>100</v>
+      </c>
+      <c r="L517" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="518" spans="1:12">
+      <c r="A518" s="2">
+        <v>45922</v>
+      </c>
+      <c r="B518" s="3">
+        <v>13</v>
+      </c>
+      <c r="C518" s="3">
+        <v>1096</v>
+      </c>
+      <c r="D518" s="3">
+        <v>533</v>
+      </c>
+      <c r="E518" s="3">
+        <v>531</v>
+      </c>
+      <c r="F518" s="3">
+        <v>2</v>
+      </c>
+      <c r="G518" s="4">
+        <v>0.99624765478424</v>
+      </c>
+      <c r="H518" s="4">
+        <v>1</v>
+      </c>
+      <c r="I518" s="5">
+        <v>135.4838095238095</v>
+      </c>
+      <c r="J518" s="3">
+        <v>100</v>
+      </c>
+      <c r="K518" s="3">
+        <v>100</v>
+      </c>
+      <c r="L518" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="519" spans="1:12">
+      <c r="A519" s="2">
+        <v>45922</v>
+      </c>
+      <c r="B519" s="3">
+        <v>14</v>
+      </c>
+      <c r="C519" s="3">
+        <v>1114</v>
+      </c>
+      <c r="D519" s="3">
+        <v>540</v>
+      </c>
+      <c r="E519" s="3">
+        <v>539</v>
+      </c>
+      <c r="F519" s="3">
+        <v>1</v>
+      </c>
+      <c r="G519" s="4">
+        <v>0.9981481481481481</v>
+      </c>
+      <c r="H519" s="4">
+        <v>1</v>
+      </c>
+      <c r="I519" s="5">
+        <v>133.562851782364</v>
+      </c>
+      <c r="J519" s="3">
+        <v>100</v>
+      </c>
+      <c r="K519" s="3">
+        <v>100</v>
+      </c>
+      <c r="L519" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="520" spans="1:12">
+      <c r="A520" s="2">
+        <v>45922</v>
+      </c>
+      <c r="B520" s="3">
+        <v>15</v>
+      </c>
+      <c r="C520" s="3">
+        <v>901</v>
+      </c>
+      <c r="D520" s="3">
+        <v>405</v>
+      </c>
+      <c r="E520" s="3">
+        <v>405</v>
+      </c>
+      <c r="F520" s="3">
+        <v>0</v>
+      </c>
+      <c r="G520" s="4">
+        <v>1</v>
+      </c>
+      <c r="H520" s="4">
+        <v>1</v>
+      </c>
+      <c r="I520" s="5">
+        <v>126.9647355163728</v>
+      </c>
+      <c r="J520" s="3">
+        <v>100</v>
+      </c>
+      <c r="K520" s="3">
+        <v>100</v>
+      </c>
+      <c r="L520" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="521" spans="1:12">
+      <c r="A521" s="2">
+        <v>45922</v>
+      </c>
+      <c r="B521" s="3">
+        <v>16</v>
+      </c>
+      <c r="C521" s="3">
+        <v>934</v>
+      </c>
+      <c r="D521" s="3">
+        <v>442</v>
+      </c>
+      <c r="E521" s="3">
+        <v>442</v>
+      </c>
+      <c r="F521" s="3">
+        <v>0</v>
+      </c>
+      <c r="G521" s="4">
+        <v>1</v>
+      </c>
+      <c r="H521" s="4">
+        <v>1</v>
+      </c>
+      <c r="I521" s="5">
+        <v>149.3431818181818</v>
+      </c>
+      <c r="J521" s="3">
+        <v>100</v>
+      </c>
+      <c r="K521" s="3">
+        <v>100</v>
+      </c>
+      <c r="L521" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="522" spans="1:12">
+      <c r="A522" s="2">
+        <v>45922</v>
+      </c>
+      <c r="B522" s="3">
+        <v>17</v>
+      </c>
+      <c r="C522" s="3">
+        <v>1124</v>
+      </c>
+      <c r="D522" s="3">
+        <v>475</v>
+      </c>
+      <c r="E522" s="3">
+        <v>474</v>
+      </c>
+      <c r="F522" s="3">
+        <v>1</v>
+      </c>
+      <c r="G522" s="4">
+        <v>0.9978947368421054</v>
+      </c>
+      <c r="H522" s="4">
+        <v>1</v>
+      </c>
+      <c r="I522" s="5">
+        <v>150.6538461538462</v>
+      </c>
+      <c r="J522" s="3">
+        <v>100</v>
+      </c>
+      <c r="K522" s="3">
+        <v>100</v>
+      </c>
+      <c r="L522" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="523" spans="1:12">
+      <c r="A523" s="2">
+        <v>45922</v>
+      </c>
+      <c r="B523" s="3">
+        <v>18</v>
+      </c>
+      <c r="C523" s="3">
+        <v>1013</v>
+      </c>
+      <c r="D523" s="3">
+        <v>475</v>
+      </c>
+      <c r="E523" s="3">
+        <v>474</v>
+      </c>
+      <c r="F523" s="3">
+        <v>1</v>
+      </c>
+      <c r="G523" s="4">
+        <v>0.9978947368421054</v>
+      </c>
+      <c r="H523" s="4">
+        <v>1</v>
+      </c>
+      <c r="I523" s="5">
+        <v>150.7002141327623</v>
+      </c>
+      <c r="J523" s="3">
+        <v>100</v>
+      </c>
+      <c r="K523" s="3">
+        <v>100</v>
+      </c>
+      <c r="L523" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="524" spans="1:12">
+      <c r="A524" s="2">
+        <v>45922</v>
+      </c>
+      <c r="B524" s="3">
+        <v>19</v>
+      </c>
+      <c r="C524" s="3">
+        <v>1126</v>
+      </c>
+      <c r="D524" s="3">
+        <v>496</v>
+      </c>
+      <c r="E524" s="3">
+        <v>496</v>
+      </c>
+      <c r="F524" s="3">
+        <v>0</v>
+      </c>
+      <c r="G524" s="4">
+        <v>1</v>
+      </c>
+      <c r="H524" s="4">
+        <v>1</v>
+      </c>
+      <c r="I524" s="5">
+        <v>134.1484536082474</v>
+      </c>
+      <c r="J524" s="3">
+        <v>100</v>
+      </c>
+      <c r="K524" s="3">
+        <v>100</v>
+      </c>
+      <c r="L524" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="525" spans="1:12">
+      <c r="A525" s="2">
+        <v>45922</v>
+      </c>
+      <c r="B525" s="3">
+        <v>20</v>
+      </c>
+      <c r="C525" s="3">
+        <v>1038</v>
+      </c>
+      <c r="D525" s="3">
+        <v>487</v>
+      </c>
+      <c r="E525" s="3">
+        <v>472</v>
+      </c>
+      <c r="F525" s="3">
+        <v>15</v>
+      </c>
+      <c r="G525" s="4">
+        <v>0.9691991786447639</v>
+      </c>
+      <c r="H525" s="4">
+        <v>0.9831223628691983</v>
+      </c>
+      <c r="I525" s="5">
+        <v>145.6884531590414</v>
+      </c>
+      <c r="J525" s="3">
+        <v>96.91629955947137</v>
+      </c>
+      <c r="K525" s="3">
+        <v>100</v>
+      </c>
+      <c r="L525" s="3">
+        <v>98.75</v>
+      </c>
+    </row>
+    <row r="526" spans="1:12">
+      <c r="A526" s="2">
+        <v>45922</v>
+      </c>
+      <c r="B526" s="3">
+        <v>21</v>
+      </c>
+      <c r="C526" s="3">
+        <v>732</v>
+      </c>
+      <c r="D526" s="3">
+        <v>334</v>
+      </c>
+      <c r="E526" s="3">
+        <v>329</v>
+      </c>
+      <c r="F526" s="3">
+        <v>5</v>
+      </c>
+      <c r="G526" s="4">
+        <v>0.9850299401197605</v>
+      </c>
+      <c r="H526" s="4">
+        <v>0.9817629179331306</v>
+      </c>
+      <c r="I526" s="5">
+        <v>145.3653250773994</v>
+      </c>
+      <c r="J526" s="3">
+        <v>100</v>
+      </c>
+      <c r="K526" s="3">
+        <v>93.81443298969072</v>
+      </c>
+      <c r="L526" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="527" spans="1:12">
+      <c r="A527" s="2">
+        <v>45922</v>
+      </c>
+      <c r="B527" s="3">
+        <v>22</v>
+      </c>
+      <c r="C527" s="3">
+        <v>448</v>
+      </c>
+      <c r="D527" s="3">
+        <v>206</v>
+      </c>
+      <c r="E527" s="3">
+        <v>204</v>
+      </c>
+      <c r="F527" s="3">
+        <v>2</v>
+      </c>
+      <c r="G527" s="4">
+        <v>0.9902912621359223</v>
+      </c>
+      <c r="H527" s="4">
+        <v>0.9902439024390245</v>
+      </c>
+      <c r="I527" s="5">
+        <v>166.75</v>
+      </c>
+      <c r="J527" s="3">
+        <v>98.98989898989899</v>
+      </c>
+      <c r="K527" s="3">
+        <v>100</v>
+      </c>
+      <c r="L527" s="3">
+        <v>97.82608695652173</v>
+      </c>
+    </row>
+    <row r="528" spans="1:12">
+      <c r="A528" s="2">
+        <v>45922</v>
+      </c>
+      <c r="B528" s="3">
+        <v>23</v>
+      </c>
+      <c r="C528" s="3">
+        <v>202</v>
+      </c>
+      <c r="D528" s="3">
+        <v>104</v>
+      </c>
+      <c r="E528" s="3">
+        <v>104</v>
+      </c>
+      <c r="F528" s="3">
+        <v>0</v>
+      </c>
+      <c r="G528" s="4">
+        <v>1</v>
+      </c>
+      <c r="H528" s="4">
+        <v>1</v>
+      </c>
+      <c r="I528" s="5">
+        <v>165.5161290322581</v>
+      </c>
+      <c r="J528" s="3">
+        <v>100</v>
+      </c>
+      <c r="K528" s="3">
+        <v>100</v>
+      </c>
+      <c r="L528" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="529" spans="1:12">
+      <c r="A529" s="2">
+        <v>45923</v>
+      </c>
+      <c r="B529" s="3">
+        <v>0</v>
+      </c>
+      <c r="C529" s="3">
+        <v>105</v>
+      </c>
+      <c r="D529" s="3">
+        <v>53</v>
+      </c>
+      <c r="E529" s="3">
+        <v>53</v>
+      </c>
+      <c r="F529" s="3">
+        <v>0</v>
+      </c>
+      <c r="G529" s="4">
+        <v>1</v>
+      </c>
+      <c r="H529" s="4">
+        <v>1</v>
+      </c>
+      <c r="I529" s="5">
+        <v>183.0416666666667</v>
+      </c>
+      <c r="J529" s="3">
+        <v>100</v>
+      </c>
+      <c r="K529" s="3">
+        <v>100</v>
+      </c>
+      <c r="L529" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="530" spans="1:12">
+      <c r="A530" s="2">
+        <v>45923</v>
+      </c>
+      <c r="B530" s="3">
+        <v>1</v>
+      </c>
+      <c r="C530" s="3">
+        <v>75</v>
+      </c>
+      <c r="D530" s="3">
+        <v>40</v>
+      </c>
+      <c r="E530" s="3">
+        <v>40</v>
+      </c>
+      <c r="F530" s="3">
+        <v>0</v>
+      </c>
+      <c r="G530" s="4">
+        <v>1</v>
+      </c>
+      <c r="H530" s="4">
+        <v>1</v>
+      </c>
+      <c r="I530" s="5">
+        <v>120.3870967741936</v>
+      </c>
+      <c r="J530" s="3">
+        <v>100</v>
+      </c>
+      <c r="K530" s="3">
+        <v>100</v>
+      </c>
+      <c r="L530" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="531" spans="1:12">
+      <c r="A531" s="2">
+        <v>45923</v>
+      </c>
+      <c r="B531" s="3">
+        <v>2</v>
+      </c>
+      <c r="C531" s="3">
+        <v>38</v>
+      </c>
+      <c r="D531" s="3">
+        <v>21</v>
+      </c>
+      <c r="E531" s="3">
+        <v>18</v>
+      </c>
+      <c r="F531" s="3">
+        <v>3</v>
+      </c>
+      <c r="G531" s="4">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="H531" s="4">
+        <v>0.9473684210526315</v>
+      </c>
+      <c r="I531" s="5">
+        <v>75.91666666666667</v>
+      </c>
+      <c r="J531" s="3">
+        <v>80</v>
+      </c>
+      <c r="K531" s="3">
+        <v>100</v>
+      </c>
+      <c r="L531" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="532" spans="1:12">
+      <c r="A532" s="2">
+        <v>45923</v>
+      </c>
+      <c r="B532" s="3">
+        <v>3</v>
+      </c>
+      <c r="C532" s="3">
+        <v>20</v>
+      </c>
+      <c r="D532" s="3">
+        <v>6</v>
+      </c>
+      <c r="E532" s="3">
+        <v>6</v>
+      </c>
+      <c r="F532" s="3">
+        <v>0</v>
+      </c>
+      <c r="G532" s="4">
+        <v>1</v>
+      </c>
+      <c r="H532" s="4">
+        <v>0.8333333333333335</v>
+      </c>
+      <c r="I532" s="5">
+        <v>164.1666666666667</v>
+      </c>
+      <c r="J532" s="3">
+        <v>66.66666666666666</v>
+      </c>
+      <c r="K532" s="3">
+        <v>100</v>
+      </c>
+      <c r="L532" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="533" spans="1:12">
+      <c r="A533" s="2">
+        <v>45923</v>
+      </c>
+      <c r="B533" s="3">
+        <v>4</v>
+      </c>
+      <c r="C533" s="3">
+        <v>25</v>
+      </c>
+      <c r="D533" s="3">
+        <v>7</v>
+      </c>
+      <c r="E533" s="3">
+        <v>7</v>
+      </c>
+      <c r="F533" s="3">
+        <v>0</v>
+      </c>
+      <c r="G533" s="4">
+        <v>1</v>
+      </c>
+      <c r="H533" s="4">
+        <v>1</v>
+      </c>
+      <c r="I533" s="5">
+        <v>87.71428571428571</v>
+      </c>
+      <c r="J533" s="3">
+        <v>100</v>
+      </c>
+      <c r="K533" s="3">
+        <v>100</v>
+      </c>
+      <c r="L533" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="534" spans="1:12">
+      <c r="A534" s="2">
+        <v>45923</v>
+      </c>
+      <c r="B534" s="3">
+        <v>5</v>
+      </c>
+      <c r="C534" s="3">
+        <v>93</v>
+      </c>
+      <c r="D534" s="3">
+        <v>39</v>
+      </c>
+      <c r="E534" s="3">
+        <v>19</v>
+      </c>
+      <c r="F534" s="3">
+        <v>20</v>
+      </c>
+      <c r="G534" s="4">
+        <v>0.4871794871794872</v>
+      </c>
+      <c r="H534" s="4">
+        <v>0.40625</v>
+      </c>
+      <c r="I534" s="5">
+        <v>145.3157894736842</v>
+      </c>
+      <c r="J534" s="3">
+        <v>35.71428571428572</v>
+      </c>
+      <c r="K534" s="3">
+        <v>55.55555555555556</v>
+      </c>
+      <c r="L534" s="3">
+        <v>33.33333333333333</v>
+      </c>
+    </row>
+    <row r="535" spans="1:12">
+      <c r="A535" s="2">
+        <v>45923</v>
+      </c>
+      <c r="B535" s="3">
+        <v>6</v>
+      </c>
+      <c r="C535" s="3">
+        <v>252</v>
+      </c>
+      <c r="D535" s="3">
+        <v>94</v>
+      </c>
+      <c r="E535" s="3">
+        <v>92</v>
+      </c>
+      <c r="F535" s="3">
+        <v>2</v>
+      </c>
+      <c r="G535" s="4">
+        <v>0.9787234042553191</v>
+      </c>
+      <c r="H535" s="4">
+        <v>0.9891304347826086</v>
+      </c>
+      <c r="I535" s="5">
+        <v>118.1739130434783</v>
+      </c>
+      <c r="J535" s="3">
+        <v>100</v>
+      </c>
+      <c r="K535" s="3">
+        <v>97.14285714285714</v>
+      </c>
+      <c r="L535" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="536" spans="1:12">
+      <c r="A536" s="2">
+        <v>45923</v>
+      </c>
+      <c r="B536" s="3">
+        <v>7</v>
+      </c>
+      <c r="C536" s="3">
+        <v>518</v>
+      </c>
+      <c r="D536" s="3">
+        <v>265</v>
+      </c>
+      <c r="E536" s="3">
+        <v>264</v>
+      </c>
+      <c r="F536" s="3">
+        <v>1</v>
+      </c>
+      <c r="G536" s="4">
+        <v>0.9962264150943396</v>
+      </c>
+      <c r="H536" s="4">
+        <v>0.9886792452830189</v>
+      </c>
+      <c r="I536" s="5">
+        <v>111.8410852713178</v>
+      </c>
+      <c r="J536" s="3">
+        <v>100</v>
+      </c>
+      <c r="K536" s="3">
+        <v>100</v>
+      </c>
+      <c r="L536" s="3">
+        <v>95.52238805970148</v>
+      </c>
+    </row>
+    <row r="537" spans="1:12">
+      <c r="A537" s="2">
+        <v>45923</v>
+      </c>
+      <c r="B537" s="3">
+        <v>8</v>
+      </c>
+      <c r="C537" s="3">
+        <v>696</v>
+      </c>
+      <c r="D537" s="3">
+        <v>285</v>
+      </c>
+      <c r="E537" s="3">
+        <v>265</v>
+      </c>
+      <c r="F537" s="3">
+        <v>20</v>
+      </c>
+      <c r="G537" s="4">
+        <v>0.9298245614035088</v>
+      </c>
+      <c r="H537" s="4">
+        <v>0.9444444444444444</v>
+      </c>
+      <c r="I537" s="5">
+        <v>121.8339622641509</v>
+      </c>
+      <c r="J537" s="3">
+        <v>98.38709677419355</v>
+      </c>
+      <c r="K537" s="3">
+        <v>90.90909090909091</v>
+      </c>
+      <c r="L537" s="3">
+        <v>91.37931034482759</v>
+      </c>
+    </row>
+    <row r="538" spans="1:12">
+      <c r="A538" s="2">
+        <v>45923</v>
+      </c>
+      <c r="B538" s="3">
+        <v>9</v>
+      </c>
+      <c r="C538" s="3">
+        <v>921</v>
+      </c>
+      <c r="D538" s="3">
+        <v>443</v>
+      </c>
+      <c r="E538" s="3">
+        <v>440</v>
+      </c>
+      <c r="F538" s="3">
+        <v>3</v>
+      </c>
+      <c r="G538" s="4">
+        <v>0.9932279909706545</v>
+      </c>
+      <c r="H538" s="4">
+        <v>0.9977324263038548</v>
+      </c>
+      <c r="I538" s="5">
+        <v>128.5697940503433</v>
+      </c>
+      <c r="J538" s="3">
+        <v>100</v>
+      </c>
+      <c r="K538" s="3">
+        <v>100</v>
+      </c>
+      <c r="L538" s="3">
+        <v>99.10714285714286</v>
+      </c>
+    </row>
+    <row r="539" spans="1:12">
+      <c r="A539" s="2">
+        <v>45923</v>
+      </c>
+      <c r="B539" s="3">
+        <v>10</v>
+      </c>
+      <c r="C539" s="3">
+        <v>1291</v>
+      </c>
+      <c r="D539" s="3">
+        <v>620</v>
+      </c>
+      <c r="E539" s="3">
+        <v>615</v>
+      </c>
+      <c r="F539" s="3">
+        <v>5</v>
+      </c>
+      <c r="G539" s="4">
+        <v>0.9919354838709676</v>
+      </c>
+      <c r="H539" s="4">
+        <v>1</v>
+      </c>
+      <c r="I539" s="5">
+        <v>139.2709359605911</v>
+      </c>
+      <c r="J539" s="3">
+        <v>100</v>
+      </c>
+      <c r="K539" s="3">
+        <v>100</v>
+      </c>
+      <c r="L539" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="540" spans="1:12">
+      <c r="A540" s="2">
+        <v>45923</v>
+      </c>
+      <c r="B540" s="3">
+        <v>11</v>
+      </c>
+      <c r="C540" s="3">
+        <v>1345</v>
+      </c>
+      <c r="D540" s="3">
+        <v>639</v>
+      </c>
+      <c r="E540" s="3">
+        <v>638</v>
+      </c>
+      <c r="F540" s="3">
+        <v>1</v>
+      </c>
+      <c r="G540" s="4">
+        <v>0.998435054773083</v>
+      </c>
+      <c r="H540" s="4">
+        <v>1</v>
+      </c>
+      <c r="I540" s="5">
+        <v>132.2218700475436</v>
+      </c>
+      <c r="J540" s="3">
+        <v>100</v>
+      </c>
+      <c r="K540" s="3">
+        <v>100</v>
+      </c>
+      <c r="L540" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="541" spans="1:12">
+      <c r="A541" s="2">
+        <v>45923</v>
+      </c>
+      <c r="B541" s="3">
+        <v>12</v>
+      </c>
+      <c r="C541" s="3">
+        <v>1314</v>
+      </c>
+      <c r="D541" s="3">
+        <v>651</v>
+      </c>
+      <c r="E541" s="3">
+        <v>650</v>
+      </c>
+      <c r="F541" s="3">
+        <v>1</v>
+      </c>
+      <c r="G541" s="4">
+        <v>0.9984639016897081</v>
+      </c>
+      <c r="H541" s="4">
+        <v>0.9984615384615385</v>
+      </c>
+      <c r="I541" s="5">
+        <v>121.5600624024961</v>
+      </c>
+      <c r="J541" s="3">
+        <v>99.66442953020133</v>
+      </c>
+      <c r="K541" s="3">
+        <v>100</v>
+      </c>
+      <c r="L541" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="542" spans="1:12">
+      <c r="A542" s="2">
+        <v>45923</v>
+      </c>
+      <c r="B542" s="3">
+        <v>13</v>
+      </c>
+      <c r="C542" s="3">
+        <v>1047</v>
+      </c>
+      <c r="D542" s="3">
+        <v>494</v>
+      </c>
+      <c r="E542" s="3">
+        <v>494</v>
+      </c>
+      <c r="F542" s="3">
+        <v>0</v>
+      </c>
+      <c r="G542" s="4">
+        <v>1</v>
+      </c>
+      <c r="H542" s="4">
+        <v>1</v>
+      </c>
+      <c r="I542" s="5">
+        <v>134.5975359342916</v>
+      </c>
+      <c r="J542" s="3">
+        <v>100</v>
+      </c>
+      <c r="K542" s="3">
+        <v>100</v>
+      </c>
+      <c r="L542" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="543" spans="1:12">
+      <c r="A543" s="2">
+        <v>45923</v>
+      </c>
+      <c r="B543" s="3">
+        <v>14</v>
+      </c>
+      <c r="C543" s="3">
+        <v>960</v>
+      </c>
+      <c r="D543" s="3">
+        <v>458</v>
+      </c>
+      <c r="E543" s="3">
+        <v>458</v>
+      </c>
+      <c r="F543" s="3">
+        <v>0</v>
+      </c>
+      <c r="G543" s="4">
+        <v>1</v>
+      </c>
+      <c r="H543" s="4">
+        <v>1</v>
+      </c>
+      <c r="I543" s="5">
+        <v>126.5814977973568</v>
+      </c>
+      <c r="J543" s="3">
+        <v>100</v>
+      </c>
+      <c r="K543" s="3">
+        <v>100</v>
+      </c>
+      <c r="L543" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="544" spans="1:12">
+      <c r="A544" s="2">
+        <v>45923</v>
+      </c>
+      <c r="B544" s="3">
+        <v>15</v>
+      </c>
+      <c r="C544" s="3">
+        <v>979</v>
+      </c>
+      <c r="D544" s="3">
+        <v>455</v>
+      </c>
+      <c r="E544" s="3">
+        <v>455</v>
+      </c>
+      <c r="F544" s="3">
+        <v>0</v>
+      </c>
+      <c r="G544" s="4">
+        <v>1</v>
+      </c>
+      <c r="H544" s="4">
+        <v>1</v>
+      </c>
+      <c r="I544" s="5">
+        <v>137.2466960352423</v>
+      </c>
+      <c r="J544" s="3">
+        <v>100</v>
+      </c>
+      <c r="K544" s="3">
+        <v>100</v>
+      </c>
+      <c r="L544" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="545" spans="1:12">
+      <c r="A545" s="2">
+        <v>45923</v>
+      </c>
+      <c r="B545" s="3">
+        <v>16</v>
+      </c>
+      <c r="C545" s="3">
+        <v>959</v>
+      </c>
+      <c r="D545" s="3">
+        <v>421</v>
+      </c>
+      <c r="E545" s="3">
+        <v>420</v>
+      </c>
+      <c r="F545" s="3">
+        <v>1</v>
+      </c>
+      <c r="G545" s="4">
+        <v>0.997624703087886</v>
+      </c>
+      <c r="H545" s="4">
+        <v>1</v>
+      </c>
+      <c r="I545" s="5">
+        <v>147.4722891566265</v>
+      </c>
+      <c r="J545" s="3">
+        <v>100</v>
+      </c>
+      <c r="K545" s="3">
+        <v>100</v>
+      </c>
+      <c r="L545" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="546" spans="1:12">
+      <c r="A546" s="2">
+        <v>45923</v>
+      </c>
+      <c r="B546" s="3">
+        <v>17</v>
+      </c>
+      <c r="C546" s="3">
+        <v>1039</v>
+      </c>
+      <c r="D546" s="3">
+        <v>456</v>
+      </c>
+      <c r="E546" s="3">
+        <v>456</v>
+      </c>
+      <c r="F546" s="3">
+        <v>0</v>
+      </c>
+      <c r="G546" s="4">
+        <v>1</v>
+      </c>
+      <c r="H546" s="4">
+        <v>1</v>
+      </c>
+      <c r="I546" s="5">
+        <v>136.2438478747204</v>
+      </c>
+      <c r="J546" s="3">
+        <v>100</v>
+      </c>
+      <c r="K546" s="3">
+        <v>100</v>
+      </c>
+      <c r="L546" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="547" spans="1:12">
+      <c r="A547" s="2">
+        <v>45923</v>
+      </c>
+      <c r="B547" s="3">
+        <v>18</v>
+      </c>
+      <c r="C547" s="3">
+        <v>1133</v>
+      </c>
+      <c r="D547" s="3">
+        <v>497</v>
+      </c>
+      <c r="E547" s="3">
+        <v>497</v>
+      </c>
+      <c r="F547" s="3">
+        <v>0</v>
+      </c>
+      <c r="G547" s="4">
+        <v>1</v>
+      </c>
+      <c r="H547" s="4">
+        <v>1</v>
+      </c>
+      <c r="I547" s="5">
+        <v>132.3292433537832</v>
+      </c>
+      <c r="J547" s="3">
+        <v>100</v>
+      </c>
+      <c r="K547" s="3">
+        <v>100</v>
+      </c>
+      <c r="L547" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="548" spans="1:12">
+      <c r="A548" s="2">
+        <v>45923</v>
+      </c>
+      <c r="B548" s="3">
+        <v>19</v>
+      </c>
+      <c r="C548" s="3">
+        <v>1291</v>
+      </c>
+      <c r="D548" s="3">
+        <v>575</v>
+      </c>
+      <c r="E548" s="3">
+        <v>569</v>
+      </c>
+      <c r="F548" s="3">
+        <v>6</v>
+      </c>
+      <c r="G548" s="4">
+        <v>0.9895652173913043</v>
+      </c>
+      <c r="H548" s="4">
+        <v>0.9964850615114236</v>
+      </c>
+      <c r="I548" s="5">
+        <v>127.2568306010929</v>
+      </c>
+      <c r="J548" s="3">
+        <v>100</v>
+      </c>
+      <c r="K548" s="3">
+        <v>98.85057471264368</v>
+      </c>
+      <c r="L548" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="549" spans="1:12">
+      <c r="A549" s="2">
+        <v>45923</v>
+      </c>
+      <c r="B549" s="3">
+        <v>20</v>
+      </c>
+      <c r="C549" s="3">
+        <v>1151</v>
+      </c>
+      <c r="D549" s="3">
+        <v>570</v>
+      </c>
+      <c r="E549" s="3">
+        <v>506</v>
+      </c>
+      <c r="F549" s="3">
+        <v>64</v>
+      </c>
+      <c r="G549" s="4">
+        <v>0.887719298245614</v>
+      </c>
+      <c r="H549" s="4">
+        <v>0.9248554913294798</v>
+      </c>
+      <c r="I549" s="5">
+        <v>144.5951903807615</v>
+      </c>
+      <c r="J549" s="3">
+        <v>94.09722222222221</v>
+      </c>
+      <c r="K549" s="3">
+        <v>93.60000000000001</v>
+      </c>
+      <c r="L549" s="3">
+        <v>86.79245283018868</v>
+      </c>
+    </row>
+    <row r="550" spans="1:12">
+      <c r="A550" s="2">
+        <v>45923</v>
+      </c>
+      <c r="B550" s="3">
+        <v>21</v>
+      </c>
+      <c r="C550" s="3">
+        <v>858</v>
+      </c>
+      <c r="D550" s="3">
+        <v>393</v>
+      </c>
+      <c r="E550" s="3">
+        <v>374</v>
+      </c>
+      <c r="F550" s="3">
+        <v>19</v>
+      </c>
+      <c r="G550" s="4">
+        <v>0.9516539440203562</v>
+      </c>
+      <c r="H550" s="4">
+        <v>0.9547872340425532</v>
+      </c>
+      <c r="I550" s="5">
+        <v>126.7208672086721</v>
+      </c>
+      <c r="J550" s="3">
+        <v>92.27053140096618</v>
+      </c>
+      <c r="K550" s="3">
+        <v>100</v>
+      </c>
+      <c r="L550" s="3">
+        <v>98.50746268656717</v>
+      </c>
+    </row>
+    <row r="551" spans="1:12">
+      <c r="A551" s="2">
+        <v>45923</v>
+      </c>
+      <c r="B551" s="3">
+        <v>22</v>
+      </c>
+      <c r="C551" s="3">
+        <v>494</v>
+      </c>
+      <c r="D551" s="3">
+        <v>215</v>
+      </c>
+      <c r="E551" s="3">
+        <v>213</v>
+      </c>
+      <c r="F551" s="3">
+        <v>2</v>
+      </c>
+      <c r="G551" s="4">
+        <v>0.9906976744186047</v>
+      </c>
+      <c r="H551" s="4">
+        <v>0.9953271028037384</v>
+      </c>
+      <c r="I551" s="5">
+        <v>161.2548076923077</v>
+      </c>
+      <c r="J551" s="3">
+        <v>99.09090909090909</v>
+      </c>
+      <c r="K551" s="3">
+        <v>100</v>
+      </c>
+      <c r="L551" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="552" spans="1:12">
+      <c r="A552" s="2">
+        <v>45923</v>
+      </c>
+      <c r="B552" s="3">
+        <v>23</v>
+      </c>
+      <c r="C552" s="3">
+        <v>307</v>
+      </c>
+      <c r="D552" s="3">
+        <v>133</v>
+      </c>
+      <c r="E552" s="3">
+        <v>131</v>
+      </c>
+      <c r="F552" s="3">
+        <v>2</v>
+      </c>
+      <c r="G552" s="4">
+        <v>0.9849624060150376</v>
+      </c>
+      <c r="H552" s="4">
+        <v>1</v>
+      </c>
+      <c r="I552" s="5">
+        <v>158.912</v>
+      </c>
+      <c r="J552" s="3">
+        <v>100</v>
+      </c>
+      <c r="K552" s="3">
+        <v>100</v>
+      </c>
+      <c r="L552" s="3">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Result.xlsx
+++ b/Result.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="76">
   <si>
     <t>Date</t>
   </si>
@@ -246,6 +246,9 @@
   </si>
   <si>
     <t>2025-09-28</t>
+  </si>
+  <si>
+    <t>2025-09-29</t>
   </si>
 </sst>
 </file>
@@ -643,7 +646,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ30"/>
+  <dimension ref="A1:AJ31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3843,86 +3846,86 @@
       </c>
     </row>
     <row r="30" spans="1:36">
-      <c r="A30" s="3" t="s">
-        <v>36</v>
+      <c r="A30" s="2">
+        <v>45929</v>
       </c>
       <c r="B30" s="3">
-        <v>497534</v>
+        <v>17805</v>
       </c>
       <c r="C30" s="3">
-        <v>263726</v>
+        <v>9362</v>
       </c>
       <c r="D30" s="3">
-        <v>68474</v>
+        <v>2381</v>
       </c>
       <c r="E30" s="3">
-        <v>195252</v>
+        <v>6981</v>
       </c>
       <c r="F30" s="4">
-        <v>0.259640687683429</v>
+        <v>0.2543259987182226</v>
       </c>
       <c r="G30" s="5">
-        <v>42.33287957956364</v>
+        <v>40.15124973296304</v>
       </c>
       <c r="H30" s="3">
-        <v>233808</v>
+        <v>8443</v>
       </c>
       <c r="I30" s="4">
-        <v>0.5300662869271245</v>
+        <v>0.5258073574838529</v>
       </c>
       <c r="J30" s="3">
-        <v>233808</v>
+        <v>8443</v>
       </c>
       <c r="K30" s="3">
-        <v>232574</v>
+        <v>8424</v>
       </c>
       <c r="L30" s="3">
-        <v>224508</v>
+        <v>8337</v>
       </c>
       <c r="M30" s="3">
-        <v>220015</v>
+        <v>8172</v>
       </c>
       <c r="N30" s="3">
-        <v>4493</v>
+        <v>165</v>
       </c>
       <c r="O30" s="4">
-        <v>0.9653185652738483</v>
+        <v>0.9896723646723646</v>
       </c>
       <c r="P30" s="3">
-        <v>8066</v>
+        <v>87</v>
       </c>
       <c r="Q30" s="4">
-        <v>0.03468143472615168</v>
+        <v>0.01032763532763539</v>
       </c>
       <c r="R30" s="3">
-        <v>1234</v>
+        <v>19</v>
       </c>
       <c r="S30" s="3">
-        <v>218328</v>
+        <v>8268</v>
       </c>
       <c r="T30" s="3">
-        <v>2333</v>
+        <v>12</v>
       </c>
       <c r="U30" s="3">
-        <v>6180</v>
+        <v>69</v>
       </c>
       <c r="V30" s="4">
-        <v>0.9624715108820716</v>
+        <v>0.990298239310097</v>
       </c>
       <c r="W30" s="5">
-        <v>141.665345544622</v>
+        <v>129.2608908467939</v>
       </c>
       <c r="X30" s="5">
-        <v>11.24408790309752</v>
+        <v>4.651615271659325</v>
       </c>
       <c r="Y30" s="3">
-        <v>14701</v>
+        <v>544</v>
       </c>
       <c r="Z30" s="3">
-        <v>747</v>
+        <v>25</v>
       </c>
       <c r="AA30" s="3">
-        <v>653</v>
+        <v>27</v>
       </c>
       <c r="AB30" s="5">
         <v>60</v>
@@ -3934,22 +3937,132 @@
         <v>30</v>
       </c>
       <c r="AE30" s="3">
-        <v>14539</v>
+        <v>544</v>
       </c>
       <c r="AF30" s="3">
-        <v>747</v>
+        <v>25</v>
       </c>
       <c r="AG30" s="3">
-        <v>650</v>
+        <v>27</v>
       </c>
       <c r="AH30" s="4">
-        <v>0.9889803414733691</v>
+        <v>1</v>
       </c>
       <c r="AI30" s="4">
         <v>1</v>
       </c>
       <c r="AJ30" s="4">
-        <v>0.9954058192955589</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:36">
+      <c r="A31" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="3">
+        <v>515339</v>
+      </c>
+      <c r="C31" s="3">
+        <v>273088</v>
+      </c>
+      <c r="D31" s="3">
+        <v>70855</v>
+      </c>
+      <c r="E31" s="3">
+        <v>202233</v>
+      </c>
+      <c r="F31" s="4">
+        <v>0.2594584895711273</v>
+      </c>
+      <c r="G31" s="5">
+        <v>42.25808896765878</v>
+      </c>
+      <c r="H31" s="3">
+        <v>242251</v>
+      </c>
+      <c r="I31" s="4">
+        <v>0.5299191406045342</v>
+      </c>
+      <c r="J31" s="3">
+        <v>242251</v>
+      </c>
+      <c r="K31" s="3">
+        <v>240998</v>
+      </c>
+      <c r="L31" s="3">
+        <v>232845</v>
+      </c>
+      <c r="M31" s="3">
+        <v>228187</v>
+      </c>
+      <c r="N31" s="3">
+        <v>4658</v>
+      </c>
+      <c r="O31" s="4">
+        <v>0.966169843733143</v>
+      </c>
+      <c r="P31" s="3">
+        <v>8153</v>
+      </c>
+      <c r="Q31" s="4">
+        <v>0.03383015626685704</v>
+      </c>
+      <c r="R31" s="3">
+        <v>1253</v>
+      </c>
+      <c r="S31" s="3">
+        <v>226596</v>
+      </c>
+      <c r="T31" s="3">
+        <v>2345</v>
+      </c>
+      <c r="U31" s="3">
+        <v>6249</v>
+      </c>
+      <c r="V31" s="4">
+        <v>0.9634593307538586</v>
+      </c>
+      <c r="W31" s="5">
+        <v>141.2211081262298</v>
+      </c>
+      <c r="X31" s="5">
+        <v>11.00799344397358</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>15245</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>772</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>680</v>
+      </c>
+      <c r="AB31" s="5">
+        <v>60</v>
+      </c>
+      <c r="AC31" s="5">
+        <v>45</v>
+      </c>
+      <c r="AD31" s="5">
+        <v>30</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>15083</v>
+      </c>
+      <c r="AF31" s="3">
+        <v>772</v>
+      </c>
+      <c r="AG31" s="3">
+        <v>677</v>
+      </c>
+      <c r="AH31" s="4">
+        <v>0.9893735651033125</v>
+      </c>
+      <c r="AI31" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ31" s="4">
+        <v>0.9955882352941177</v>
       </c>
     </row>
   </sheetData>
@@ -3959,7 +4072,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ30"/>
+  <dimension ref="A1:AJ31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7159,86 +7272,86 @@
       </c>
     </row>
     <row r="30" spans="1:36">
-      <c r="A30" s="3" t="s">
-        <v>36</v>
+      <c r="A30" s="2">
+        <v>45929</v>
       </c>
       <c r="B30" s="3">
-        <v>286988</v>
+        <v>10565</v>
       </c>
       <c r="C30" s="3">
-        <v>172009</v>
+        <v>6094</v>
       </c>
       <c r="D30" s="3">
-        <v>38499</v>
+        <v>1325</v>
       </c>
       <c r="E30" s="3">
-        <v>133510</v>
+        <v>4769</v>
       </c>
       <c r="F30" s="4">
-        <v>0.2238196838537518</v>
+        <v>0.2174269773547752</v>
       </c>
       <c r="G30" s="5">
-        <v>49.43407612392375</v>
+        <v>44.90137840498851</v>
       </c>
       <c r="H30" s="3">
-        <v>114979</v>
+        <v>4471</v>
       </c>
       <c r="I30" s="4">
-        <v>0.5993595551033493</v>
+        <v>0.5768102224325603</v>
       </c>
       <c r="J30" s="3">
-        <v>114979</v>
+        <v>4471</v>
       </c>
       <c r="K30" s="3">
-        <v>114473</v>
+        <v>4458</v>
       </c>
       <c r="L30" s="3">
-        <v>111119</v>
+        <v>4409</v>
       </c>
       <c r="M30" s="3">
-        <v>109082</v>
+        <v>4326</v>
       </c>
       <c r="N30" s="3">
-        <v>2037</v>
+        <v>83</v>
       </c>
       <c r="O30" s="4">
-        <v>0.9707005145318109</v>
+        <v>0.9890085240017945</v>
       </c>
       <c r="P30" s="3">
-        <v>3354</v>
+        <v>49</v>
       </c>
       <c r="Q30" s="4">
-        <v>0.02929948546818906</v>
+        <v>0.01099147599820554</v>
       </c>
       <c r="R30" s="3">
-        <v>506</v>
+        <v>13</v>
       </c>
       <c r="S30" s="3">
-        <v>106928</v>
+        <v>4361</v>
       </c>
       <c r="T30" s="3">
-        <v>818</v>
+        <v>8</v>
       </c>
       <c r="U30" s="3">
-        <v>4191</v>
+        <v>48</v>
       </c>
       <c r="V30" s="4">
-        <v>0.9552516147475812</v>
+        <v>0.9873217115689382</v>
       </c>
       <c r="W30" s="5">
-        <v>146.9287966850626</v>
+        <v>133.0547850208044</v>
       </c>
       <c r="X30" s="5">
-        <v>13.27858858473442</v>
+        <v>5.509477577438743</v>
       </c>
       <c r="Y30" s="3">
-        <v>6812</v>
+        <v>260</v>
       </c>
       <c r="Z30" s="3">
-        <v>619</v>
+        <v>23</v>
       </c>
       <c r="AA30" s="3">
-        <v>481</v>
+        <v>19</v>
       </c>
       <c r="AB30" s="5">
         <v>60</v>
@@ -7250,22 +7363,132 @@
         <v>30</v>
       </c>
       <c r="AE30" s="3">
-        <v>6731</v>
+        <v>260</v>
       </c>
       <c r="AF30" s="3">
-        <v>619</v>
+        <v>23</v>
       </c>
       <c r="AG30" s="3">
-        <v>478</v>
+        <v>19</v>
       </c>
       <c r="AH30" s="4">
-        <v>0.9881092190252495</v>
+        <v>1</v>
       </c>
       <c r="AI30" s="4">
         <v>1</v>
       </c>
       <c r="AJ30" s="4">
-        <v>0.9937629937629938</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:36">
+      <c r="A31" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="3">
+        <v>297553</v>
+      </c>
+      <c r="C31" s="3">
+        <v>178103</v>
+      </c>
+      <c r="D31" s="3">
+        <v>39824</v>
+      </c>
+      <c r="E31" s="3">
+        <v>138279</v>
+      </c>
+      <c r="F31" s="4">
+        <v>0.2236009500120717</v>
+      </c>
+      <c r="G31" s="5">
+        <v>49.27898463248794</v>
+      </c>
+      <c r="H31" s="3">
+        <v>119450</v>
+      </c>
+      <c r="I31" s="4">
+        <v>0.5985589121937941</v>
+      </c>
+      <c r="J31" s="3">
+        <v>119450</v>
+      </c>
+      <c r="K31" s="3">
+        <v>118931</v>
+      </c>
+      <c r="L31" s="3">
+        <v>115528</v>
+      </c>
+      <c r="M31" s="3">
+        <v>113408</v>
+      </c>
+      <c r="N31" s="3">
+        <v>2120</v>
+      </c>
+      <c r="O31" s="4">
+        <v>0.9713867704803626</v>
+      </c>
+      <c r="P31" s="3">
+        <v>3403</v>
+      </c>
+      <c r="Q31" s="4">
+        <v>0.02861322951963743</v>
+      </c>
+      <c r="R31" s="3">
+        <v>519</v>
+      </c>
+      <c r="S31" s="3">
+        <v>111289</v>
+      </c>
+      <c r="T31" s="3">
+        <v>826</v>
+      </c>
+      <c r="U31" s="3">
+        <v>4239</v>
+      </c>
+      <c r="V31" s="4">
+        <v>0.9564690513433143</v>
+      </c>
+      <c r="W31" s="5">
+        <v>146.3995661681716</v>
+      </c>
+      <c r="X31" s="5">
+        <v>12.98223229401806</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>7072</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>642</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>500</v>
+      </c>
+      <c r="AB31" s="5">
+        <v>60</v>
+      </c>
+      <c r="AC31" s="5">
+        <v>45</v>
+      </c>
+      <c r="AD31" s="5">
+        <v>30</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>6991</v>
+      </c>
+      <c r="AF31" s="3">
+        <v>642</v>
+      </c>
+      <c r="AG31" s="3">
+        <v>497</v>
+      </c>
+      <c r="AH31" s="4">
+        <v>0.9885463800904978</v>
+      </c>
+      <c r="AI31" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ31" s="4">
+        <v>0.9940000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -7275,7 +7498,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ30"/>
+  <dimension ref="A1:AJ31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10475,86 +10698,86 @@
       </c>
     </row>
     <row r="30" spans="1:36">
-      <c r="A30" s="3" t="s">
-        <v>36</v>
+      <c r="A30" s="2">
+        <v>45929</v>
       </c>
       <c r="B30" s="3">
-        <v>127484</v>
+        <v>4403</v>
       </c>
       <c r="C30" s="3">
-        <v>58775</v>
+        <v>2071</v>
       </c>
       <c r="D30" s="3">
-        <v>20551</v>
+        <v>708</v>
       </c>
       <c r="E30" s="3">
-        <v>38224</v>
+        <v>1363</v>
       </c>
       <c r="F30" s="4">
-        <v>0.3496554657592514</v>
+        <v>0.3418638338966683</v>
       </c>
       <c r="G30" s="5">
-        <v>25.82164185452999</v>
+        <v>27.61419604056012</v>
       </c>
       <c r="H30" s="3">
-        <v>68709</v>
+        <v>2332</v>
       </c>
       <c r="I30" s="4">
-        <v>0.461038247936996</v>
+        <v>0.470361117419941</v>
       </c>
       <c r="J30" s="3">
-        <v>68709</v>
+        <v>2332</v>
       </c>
       <c r="K30" s="3">
-        <v>68223</v>
+        <v>2328</v>
       </c>
       <c r="L30" s="3">
-        <v>65320</v>
+        <v>2303</v>
       </c>
       <c r="M30" s="3">
-        <v>63754</v>
+        <v>2251</v>
       </c>
       <c r="N30" s="3">
-        <v>1566</v>
+        <v>52</v>
       </c>
       <c r="O30" s="4">
-        <v>0.9574483678524838</v>
+        <v>0.9892611683848798</v>
       </c>
       <c r="P30" s="3">
-        <v>2903</v>
+        <v>25</v>
       </c>
       <c r="Q30" s="4">
-        <v>0.04255163214751619</v>
+        <v>0.01073883161512029</v>
       </c>
       <c r="R30" s="3">
-        <v>486</v>
+        <v>4</v>
       </c>
       <c r="S30" s="3">
-        <v>64172</v>
+        <v>2294</v>
       </c>
       <c r="T30" s="3">
-        <v>897</v>
+        <v>2</v>
       </c>
       <c r="U30" s="3">
-        <v>1148</v>
+        <v>9</v>
       </c>
       <c r="V30" s="4">
-        <v>0.9691166920881344</v>
+        <v>0.9952277657266813</v>
       </c>
       <c r="W30" s="5">
-        <v>131.5993976848511</v>
+        <v>122.0257663260773</v>
       </c>
       <c r="X30" s="5">
-        <v>9.162232957932051</v>
+        <v>3.456685917370058</v>
       </c>
       <c r="Y30" s="3">
-        <v>4869</v>
+        <v>187</v>
       </c>
       <c r="Z30" s="3">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="AA30" s="3">
-        <v>133</v>
+        <v>5</v>
       </c>
       <c r="AB30" s="5">
         <v>60</v>
@@ -10566,21 +10789,131 @@
         <v>30</v>
       </c>
       <c r="AE30" s="3">
-        <v>4817</v>
+        <v>187</v>
       </c>
       <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG30" s="3">
+        <v>5</v>
+      </c>
+      <c r="AH30" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI30" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ30" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:36">
+      <c r="A31" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="3">
+        <v>131887</v>
+      </c>
+      <c r="C31" s="3">
+        <v>60846</v>
+      </c>
+      <c r="D31" s="3">
+        <v>21259</v>
+      </c>
+      <c r="E31" s="3">
+        <v>39587</v>
+      </c>
+      <c r="F31" s="4">
+        <v>0.3493902639450416</v>
+      </c>
+      <c r="G31" s="5">
+        <v>25.88265457055517</v>
+      </c>
+      <c r="H31" s="3">
+        <v>71041</v>
+      </c>
+      <c r="I31" s="4">
+        <v>0.4613494885773427</v>
+      </c>
+      <c r="J31" s="3">
+        <v>71041</v>
+      </c>
+      <c r="K31" s="3">
+        <v>70551</v>
+      </c>
+      <c r="L31" s="3">
+        <v>67623</v>
+      </c>
+      <c r="M31" s="3">
+        <v>66005</v>
+      </c>
+      <c r="N31" s="3">
+        <v>1618</v>
+      </c>
+      <c r="O31" s="4">
+        <v>0.9584981077518391</v>
+      </c>
+      <c r="P31" s="3">
+        <v>2928</v>
+      </c>
+      <c r="Q31" s="4">
+        <v>0.04150189224816089</v>
+      </c>
+      <c r="R31" s="3">
+        <v>490</v>
+      </c>
+      <c r="S31" s="3">
+        <v>66466</v>
+      </c>
+      <c r="T31" s="3">
+        <v>899</v>
+      </c>
+      <c r="U31" s="3">
+        <v>1157</v>
+      </c>
+      <c r="V31" s="4">
+        <v>0.9699950380899565</v>
+      </c>
+      <c r="W31" s="5">
+        <v>131.2729035679115</v>
+      </c>
+      <c r="X31" s="5">
+        <v>8.967653965608665</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>5056</v>
+      </c>
+      <c r="Z31" s="3">
         <v>47</v>
       </c>
-      <c r="AG30" s="3">
-        <v>133</v>
-      </c>
-      <c r="AH30" s="4">
-        <v>0.9893201889505032</v>
-      </c>
-      <c r="AI30" s="4">
-        <v>1</v>
-      </c>
-      <c r="AJ30" s="4">
+      <c r="AA31" s="3">
+        <v>138</v>
+      </c>
+      <c r="AB31" s="5">
+        <v>60</v>
+      </c>
+      <c r="AC31" s="5">
+        <v>45</v>
+      </c>
+      <c r="AD31" s="5">
+        <v>30</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>5004</v>
+      </c>
+      <c r="AF31" s="3">
+        <v>47</v>
+      </c>
+      <c r="AG31" s="3">
+        <v>138</v>
+      </c>
+      <c r="AH31" s="4">
+        <v>0.9897151898734177</v>
+      </c>
+      <c r="AI31" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ31" s="4">
         <v>1</v>
       </c>
     </row>
@@ -10591,7 +10924,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ30"/>
+  <dimension ref="A1:AJ31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -13791,86 +14124,86 @@
       </c>
     </row>
     <row r="30" spans="1:36">
-      <c r="A30" s="3" t="s">
-        <v>36</v>
+      <c r="A30" s="2">
+        <v>45929</v>
       </c>
       <c r="B30" s="3">
-        <v>83062</v>
+        <v>2837</v>
       </c>
       <c r="C30" s="3">
-        <v>32942</v>
+        <v>1197</v>
       </c>
       <c r="D30" s="3">
-        <v>9424</v>
+        <v>348</v>
       </c>
       <c r="E30" s="3">
-        <v>23518</v>
+        <v>849</v>
       </c>
       <c r="F30" s="4">
-        <v>0.2860785623216562</v>
+        <v>0.2907268170426065</v>
       </c>
       <c r="G30" s="5">
-        <v>34.71276789508833</v>
+        <v>37.65914786967419</v>
       </c>
       <c r="H30" s="3">
-        <v>50120</v>
+        <v>1640</v>
       </c>
       <c r="I30" s="4">
-        <v>0.3965953143435024</v>
+        <v>0.4219245682058512</v>
       </c>
       <c r="J30" s="3">
-        <v>50120</v>
+        <v>1640</v>
       </c>
       <c r="K30" s="3">
-        <v>49878</v>
+        <v>1638</v>
       </c>
       <c r="L30" s="3">
-        <v>48069</v>
+        <v>1625</v>
       </c>
       <c r="M30" s="3">
-        <v>47179</v>
+        <v>1595</v>
       </c>
       <c r="N30" s="3">
-        <v>890</v>
+        <v>30</v>
       </c>
       <c r="O30" s="4">
-        <v>0.9637315048718874</v>
+        <v>0.9920634920634922</v>
       </c>
       <c r="P30" s="3">
-        <v>1809</v>
+        <v>13</v>
       </c>
       <c r="Q30" s="4">
-        <v>0.03626849512811262</v>
+        <v>0.007936507936507837</v>
       </c>
       <c r="R30" s="3">
-        <v>242</v>
+        <v>2</v>
       </c>
       <c r="S30" s="3">
-        <v>47228</v>
+        <v>1613</v>
       </c>
       <c r="T30" s="3">
-        <v>618</v>
+        <v>2</v>
       </c>
       <c r="U30" s="3">
-        <v>841</v>
+        <v>12</v>
       </c>
       <c r="V30" s="4">
-        <v>0.9700330683755418</v>
+        <v>0.9913952059004303</v>
       </c>
       <c r="W30" s="5">
-        <v>143.0981156870642</v>
+        <v>129.1818181818182</v>
       </c>
       <c r="X30" s="5">
-        <v>9.353398757921957</v>
+        <v>4.01128526645768</v>
       </c>
       <c r="Y30" s="3">
-        <v>3020</v>
+        <v>97</v>
       </c>
       <c r="Z30" s="3">
-        <v>81</v>
+        <v>2</v>
       </c>
       <c r="AA30" s="3">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="AB30" s="5">
         <v>60</v>
@@ -13882,21 +14215,131 @@
         <v>30</v>
       </c>
       <c r="AE30" s="3">
-        <v>2991</v>
+        <v>97</v>
       </c>
       <c r="AF30" s="3">
-        <v>81</v>
+        <v>2</v>
       </c>
       <c r="AG30" s="3">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="AH30" s="4">
-        <v>0.9903973509933774</v>
+        <v>1</v>
       </c>
       <c r="AI30" s="4">
         <v>1</v>
       </c>
       <c r="AJ30" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:36">
+      <c r="A31" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="3">
+        <v>85899</v>
+      </c>
+      <c r="C31" s="3">
+        <v>34139</v>
+      </c>
+      <c r="D31" s="3">
+        <v>9772</v>
+      </c>
+      <c r="E31" s="3">
+        <v>24367</v>
+      </c>
+      <c r="F31" s="4">
+        <v>0.2862415419315153</v>
+      </c>
+      <c r="G31" s="5">
+        <v>34.81607545622309</v>
+      </c>
+      <c r="H31" s="3">
+        <v>51760</v>
+      </c>
+      <c r="I31" s="4">
+        <v>0.3974318676585293</v>
+      </c>
+      <c r="J31" s="3">
+        <v>51760</v>
+      </c>
+      <c r="K31" s="3">
+        <v>51516</v>
+      </c>
+      <c r="L31" s="3">
+        <v>49694</v>
+      </c>
+      <c r="M31" s="3">
+        <v>48774</v>
+      </c>
+      <c r="N31" s="3">
+        <v>920</v>
+      </c>
+      <c r="O31" s="4">
+        <v>0.964632347231928</v>
+      </c>
+      <c r="P31" s="3">
+        <v>1822</v>
+      </c>
+      <c r="Q31" s="4">
+        <v>0.03536765276807202</v>
+      </c>
+      <c r="R31" s="3">
+        <v>244</v>
+      </c>
+      <c r="S31" s="3">
+        <v>48841</v>
+      </c>
+      <c r="T31" s="3">
+        <v>620</v>
+      </c>
+      <c r="U31" s="3">
+        <v>853</v>
+      </c>
+      <c r="V31" s="4">
+        <v>0.9707238541956513</v>
+      </c>
+      <c r="W31" s="5">
+        <v>142.643027022594</v>
+      </c>
+      <c r="X31" s="5">
+        <v>9.178701767335056</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>3117</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>83</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>42</v>
+      </c>
+      <c r="AB31" s="5">
+        <v>60</v>
+      </c>
+      <c r="AC31" s="5">
+        <v>45</v>
+      </c>
+      <c r="AD31" s="5">
+        <v>30</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>3088</v>
+      </c>
+      <c r="AF31" s="3">
+        <v>83</v>
+      </c>
+      <c r="AG31" s="3">
+        <v>42</v>
+      </c>
+      <c r="AH31" s="4">
+        <v>0.9906961822264998</v>
+      </c>
+      <c r="AI31" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ31" s="4">
         <v>1</v>
       </c>
     </row>
@@ -13907,7 +14350,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L671"/>
+  <dimension ref="A1:L695"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -39414,6 +39857,918 @@
         <v>100</v>
       </c>
     </row>
+    <row r="672" spans="1:12">
+      <c r="A672" s="2">
+        <v>45929</v>
+      </c>
+      <c r="B672" s="3">
+        <v>0</v>
+      </c>
+      <c r="C672" s="3">
+        <v>128</v>
+      </c>
+      <c r="D672" s="3">
+        <v>67</v>
+      </c>
+      <c r="E672" s="3">
+        <v>67</v>
+      </c>
+      <c r="F672" s="3">
+        <v>0</v>
+      </c>
+      <c r="G672" s="4">
+        <v>1</v>
+      </c>
+      <c r="H672" s="4">
+        <v>1</v>
+      </c>
+      <c r="I672" s="5">
+        <v>92.93442622950819</v>
+      </c>
+      <c r="J672" s="3">
+        <v>100</v>
+      </c>
+      <c r="K672" s="3">
+        <v>100</v>
+      </c>
+      <c r="L672" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="673" spans="1:12">
+      <c r="A673" s="2">
+        <v>45929</v>
+      </c>
+      <c r="B673" s="3">
+        <v>1</v>
+      </c>
+      <c r="C673" s="3">
+        <v>72</v>
+      </c>
+      <c r="D673" s="3">
+        <v>40</v>
+      </c>
+      <c r="E673" s="3">
+        <v>40</v>
+      </c>
+      <c r="F673" s="3">
+        <v>0</v>
+      </c>
+      <c r="G673" s="4">
+        <v>1</v>
+      </c>
+      <c r="H673" s="4">
+        <v>1</v>
+      </c>
+      <c r="I673" s="5">
+        <v>82.72</v>
+      </c>
+      <c r="J673" s="3">
+        <v>100</v>
+      </c>
+      <c r="K673" s="3">
+        <v>100</v>
+      </c>
+      <c r="L673" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="674" spans="1:12">
+      <c r="A674" s="2">
+        <v>45929</v>
+      </c>
+      <c r="B674" s="3">
+        <v>2</v>
+      </c>
+      <c r="C674" s="3">
+        <v>39</v>
+      </c>
+      <c r="D674" s="3">
+        <v>24</v>
+      </c>
+      <c r="E674" s="3">
+        <v>24</v>
+      </c>
+      <c r="F674" s="3">
+        <v>0</v>
+      </c>
+      <c r="G674" s="4">
+        <v>1</v>
+      </c>
+      <c r="H674" s="4">
+        <v>1</v>
+      </c>
+      <c r="I674" s="5">
+        <v>75.08333333333333</v>
+      </c>
+      <c r="J674" s="3">
+        <v>100</v>
+      </c>
+      <c r="K674" s="3">
+        <v>100</v>
+      </c>
+      <c r="L674" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="675" spans="1:12">
+      <c r="A675" s="2">
+        <v>45929</v>
+      </c>
+      <c r="B675" s="3">
+        <v>3</v>
+      </c>
+      <c r="C675" s="3">
+        <v>38</v>
+      </c>
+      <c r="D675" s="3">
+        <v>11</v>
+      </c>
+      <c r="E675" s="3">
+        <v>11</v>
+      </c>
+      <c r="F675" s="3">
+        <v>0</v>
+      </c>
+      <c r="G675" s="4">
+        <v>1</v>
+      </c>
+      <c r="H675" s="4">
+        <v>1</v>
+      </c>
+      <c r="I675" s="5">
+        <v>83.09090909090909</v>
+      </c>
+      <c r="J675" s="3">
+        <v>100</v>
+      </c>
+      <c r="K675" s="3">
+        <v>100</v>
+      </c>
+      <c r="L675" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="676" spans="1:12">
+      <c r="A676" s="2">
+        <v>45929</v>
+      </c>
+      <c r="B676" s="3">
+        <v>4</v>
+      </c>
+      <c r="C676" s="3">
+        <v>39</v>
+      </c>
+      <c r="D676" s="3">
+        <v>10</v>
+      </c>
+      <c r="E676" s="3">
+        <v>9</v>
+      </c>
+      <c r="F676" s="3">
+        <v>1</v>
+      </c>
+      <c r="G676" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="H676" s="4">
+        <v>1</v>
+      </c>
+      <c r="I676" s="5">
+        <v>89.57142857142857</v>
+      </c>
+      <c r="J676" s="3">
+        <v>100</v>
+      </c>
+      <c r="K676" s="3">
+        <v>100</v>
+      </c>
+      <c r="L676" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="677" spans="1:12">
+      <c r="A677" s="2">
+        <v>45929</v>
+      </c>
+      <c r="B677" s="3">
+        <v>5</v>
+      </c>
+      <c r="C677" s="3">
+        <v>76</v>
+      </c>
+      <c r="D677" s="3">
+        <v>28</v>
+      </c>
+      <c r="E677" s="3">
+        <v>21</v>
+      </c>
+      <c r="F677" s="3">
+        <v>7</v>
+      </c>
+      <c r="G677" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="H677" s="4">
+        <v>0.6818181818181818</v>
+      </c>
+      <c r="I677" s="5">
+        <v>119.4761904761905</v>
+      </c>
+      <c r="J677" s="3">
+        <v>71.42857142857143</v>
+      </c>
+      <c r="K677" s="3">
+        <v>75</v>
+      </c>
+      <c r="L677" s="3">
+        <v>63.63636363636363</v>
+      </c>
+    </row>
+    <row r="678" spans="1:12">
+      <c r="A678" s="2">
+        <v>45929</v>
+      </c>
+      <c r="B678" s="3">
+        <v>6</v>
+      </c>
+      <c r="C678" s="3">
+        <v>255</v>
+      </c>
+      <c r="D678" s="3">
+        <v>121</v>
+      </c>
+      <c r="E678" s="3">
+        <v>115</v>
+      </c>
+      <c r="F678" s="3">
+        <v>6</v>
+      </c>
+      <c r="G678" s="4">
+        <v>0.9504132231404959</v>
+      </c>
+      <c r="H678" s="4">
+        <v>0.9482758620689655</v>
+      </c>
+      <c r="I678" s="5">
+        <v>123.2636363636364</v>
+      </c>
+      <c r="J678" s="3">
+        <v>94.64285714285714</v>
+      </c>
+      <c r="K678" s="3">
+        <v>94.5945945945946</v>
+      </c>
+      <c r="L678" s="3">
+        <v>95.65217391304348</v>
+      </c>
+    </row>
+    <row r="679" spans="1:12">
+      <c r="A679" s="2">
+        <v>45929</v>
+      </c>
+      <c r="B679" s="3">
+        <v>7</v>
+      </c>
+      <c r="C679" s="3">
+        <v>514</v>
+      </c>
+      <c r="D679" s="3">
+        <v>243</v>
+      </c>
+      <c r="E679" s="3">
+        <v>233</v>
+      </c>
+      <c r="F679" s="3">
+        <v>10</v>
+      </c>
+      <c r="G679" s="4">
+        <v>0.9588477366255144</v>
+      </c>
+      <c r="H679" s="4">
+        <v>0.948936170212766</v>
+      </c>
+      <c r="I679" s="5">
+        <v>131.0387931034483</v>
+      </c>
+      <c r="J679" s="3">
+        <v>91.52542372881356</v>
+      </c>
+      <c r="K679" s="3">
+        <v>97.36842105263158</v>
+      </c>
+      <c r="L679" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="680" spans="1:12">
+      <c r="A680" s="2">
+        <v>45929</v>
+      </c>
+      <c r="B680" s="3">
+        <v>8</v>
+      </c>
+      <c r="C680" s="3">
+        <v>640</v>
+      </c>
+      <c r="D680" s="3">
+        <v>289</v>
+      </c>
+      <c r="E680" s="3">
+        <v>288</v>
+      </c>
+      <c r="F680" s="3">
+        <v>1</v>
+      </c>
+      <c r="G680" s="4">
+        <v>0.9965397923875432</v>
+      </c>
+      <c r="H680" s="4">
+        <v>0.9965277777777779</v>
+      </c>
+      <c r="I680" s="5">
+        <v>123.6526315789474</v>
+      </c>
+      <c r="J680" s="3">
+        <v>99.29577464788733</v>
+      </c>
+      <c r="K680" s="3">
+        <v>100</v>
+      </c>
+      <c r="L680" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="681" spans="1:12">
+      <c r="A681" s="2">
+        <v>45929</v>
+      </c>
+      <c r="B681" s="3">
+        <v>9</v>
+      </c>
+      <c r="C681" s="3">
+        <v>1056</v>
+      </c>
+      <c r="D681" s="3">
+        <v>539</v>
+      </c>
+      <c r="E681" s="3">
+        <v>528</v>
+      </c>
+      <c r="F681" s="3">
+        <v>11</v>
+      </c>
+      <c r="G681" s="4">
+        <v>0.9795918367346939</v>
+      </c>
+      <c r="H681" s="4">
+        <v>0.9773156899810964</v>
+      </c>
+      <c r="I681" s="5">
+        <v>130.6447876447876</v>
+      </c>
+      <c r="J681" s="3">
+        <v>97.37827715355806</v>
+      </c>
+      <c r="K681" s="3">
+        <v>100</v>
+      </c>
+      <c r="L681" s="3">
+        <v>95.53571428571429</v>
+      </c>
+    </row>
+    <row r="682" spans="1:12">
+      <c r="A682" s="2">
+        <v>45929</v>
+      </c>
+      <c r="B682" s="3">
+        <v>10</v>
+      </c>
+      <c r="C682" s="3">
+        <v>1439</v>
+      </c>
+      <c r="D682" s="3">
+        <v>682</v>
+      </c>
+      <c r="E682" s="3">
+        <v>676</v>
+      </c>
+      <c r="F682" s="3">
+        <v>6</v>
+      </c>
+      <c r="G682" s="4">
+        <v>0.9912023460410557</v>
+      </c>
+      <c r="H682" s="4">
+        <v>0.9896449704142012</v>
+      </c>
+      <c r="I682" s="5">
+        <v>126.5148367952522</v>
+      </c>
+      <c r="J682" s="3">
+        <v>98.64130434782609</v>
+      </c>
+      <c r="K682" s="3">
+        <v>98.90710382513662</v>
+      </c>
+      <c r="L682" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="683" spans="1:12">
+      <c r="A683" s="2">
+        <v>45929</v>
+      </c>
+      <c r="B683" s="3">
+        <v>11</v>
+      </c>
+      <c r="C683" s="3">
+        <v>1369</v>
+      </c>
+      <c r="D683" s="3">
+        <v>674</v>
+      </c>
+      <c r="E683" s="3">
+        <v>674</v>
+      </c>
+      <c r="F683" s="3">
+        <v>0</v>
+      </c>
+      <c r="G683" s="4">
+        <v>1</v>
+      </c>
+      <c r="H683" s="4">
+        <v>1</v>
+      </c>
+      <c r="I683" s="5">
+        <v>123.0600600600601</v>
+      </c>
+      <c r="J683" s="3">
+        <v>100</v>
+      </c>
+      <c r="K683" s="3">
+        <v>100</v>
+      </c>
+      <c r="L683" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="684" spans="1:12">
+      <c r="A684" s="2">
+        <v>45929</v>
+      </c>
+      <c r="B684" s="3">
+        <v>12</v>
+      </c>
+      <c r="C684" s="3">
+        <v>1241</v>
+      </c>
+      <c r="D684" s="3">
+        <v>606</v>
+      </c>
+      <c r="E684" s="3">
+        <v>606</v>
+      </c>
+      <c r="F684" s="3">
+        <v>0</v>
+      </c>
+      <c r="G684" s="4">
+        <v>1</v>
+      </c>
+      <c r="H684" s="4">
+        <v>1</v>
+      </c>
+      <c r="I684" s="5">
+        <v>119.7596638655462</v>
+      </c>
+      <c r="J684" s="3">
+        <v>100</v>
+      </c>
+      <c r="K684" s="3">
+        <v>100</v>
+      </c>
+      <c r="L684" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="685" spans="1:12">
+      <c r="A685" s="2">
+        <v>45929</v>
+      </c>
+      <c r="B685" s="3">
+        <v>13</v>
+      </c>
+      <c r="C685" s="3">
+        <v>1148</v>
+      </c>
+      <c r="D685" s="3">
+        <v>585</v>
+      </c>
+      <c r="E685" s="3">
+        <v>584</v>
+      </c>
+      <c r="F685" s="3">
+        <v>1</v>
+      </c>
+      <c r="G685" s="4">
+        <v>0.9982905982905983</v>
+      </c>
+      <c r="H685" s="4">
+        <v>1</v>
+      </c>
+      <c r="I685" s="5">
+        <v>120.4572953736655</v>
+      </c>
+      <c r="J685" s="3">
+        <v>100</v>
+      </c>
+      <c r="K685" s="3">
+        <v>100</v>
+      </c>
+      <c r="L685" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="686" spans="1:12">
+      <c r="A686" s="2">
+        <v>45929</v>
+      </c>
+      <c r="B686" s="3">
+        <v>14</v>
+      </c>
+      <c r="C686" s="3">
+        <v>1160</v>
+      </c>
+      <c r="D686" s="3">
+        <v>548</v>
+      </c>
+      <c r="E686" s="3">
+        <v>548</v>
+      </c>
+      <c r="F686" s="3">
+        <v>0</v>
+      </c>
+      <c r="G686" s="4">
+        <v>1</v>
+      </c>
+      <c r="H686" s="4">
+        <v>1</v>
+      </c>
+      <c r="I686" s="5">
+        <v>129.0330275229358</v>
+      </c>
+      <c r="J686" s="3">
+        <v>100</v>
+      </c>
+      <c r="K686" s="3">
+        <v>100</v>
+      </c>
+      <c r="L686" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="687" spans="1:12">
+      <c r="A687" s="2">
+        <v>45929</v>
+      </c>
+      <c r="B687" s="3">
+        <v>15</v>
+      </c>
+      <c r="C687" s="3">
+        <v>1102</v>
+      </c>
+      <c r="D687" s="3">
+        <v>503</v>
+      </c>
+      <c r="E687" s="3">
+        <v>503</v>
+      </c>
+      <c r="F687" s="3">
+        <v>0</v>
+      </c>
+      <c r="G687" s="4">
+        <v>1</v>
+      </c>
+      <c r="H687" s="4">
+        <v>1</v>
+      </c>
+      <c r="I687" s="5">
+        <v>131.3521126760564</v>
+      </c>
+      <c r="J687" s="3">
+        <v>100</v>
+      </c>
+      <c r="K687" s="3">
+        <v>100</v>
+      </c>
+      <c r="L687" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="688" spans="1:12">
+      <c r="A688" s="2">
+        <v>45929</v>
+      </c>
+      <c r="B688" s="3">
+        <v>16</v>
+      </c>
+      <c r="C688" s="3">
+        <v>1189</v>
+      </c>
+      <c r="D688" s="3">
+        <v>526</v>
+      </c>
+      <c r="E688" s="3">
+        <v>526</v>
+      </c>
+      <c r="F688" s="3">
+        <v>0</v>
+      </c>
+      <c r="G688" s="4">
+        <v>1</v>
+      </c>
+      <c r="H688" s="4">
+        <v>1</v>
+      </c>
+      <c r="I688" s="5">
+        <v>140.734496124031</v>
+      </c>
+      <c r="J688" s="3">
+        <v>100</v>
+      </c>
+      <c r="K688" s="3">
+        <v>100</v>
+      </c>
+      <c r="L688" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="689" spans="1:12">
+      <c r="A689" s="2">
+        <v>45929</v>
+      </c>
+      <c r="B689" s="3">
+        <v>17</v>
+      </c>
+      <c r="C689" s="3">
+        <v>1046</v>
+      </c>
+      <c r="D689" s="3">
+        <v>468</v>
+      </c>
+      <c r="E689" s="3">
+        <v>468</v>
+      </c>
+      <c r="F689" s="3">
+        <v>0</v>
+      </c>
+      <c r="G689" s="4">
+        <v>1</v>
+      </c>
+      <c r="H689" s="4">
+        <v>1</v>
+      </c>
+      <c r="I689" s="5">
+        <v>138.7521929824561</v>
+      </c>
+      <c r="J689" s="3">
+        <v>100</v>
+      </c>
+      <c r="K689" s="3">
+        <v>100</v>
+      </c>
+      <c r="L689" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="690" spans="1:12">
+      <c r="A690" s="2">
+        <v>45929</v>
+      </c>
+      <c r="B690" s="3">
+        <v>18</v>
+      </c>
+      <c r="C690" s="3">
+        <v>1070</v>
+      </c>
+      <c r="D690" s="3">
+        <v>468</v>
+      </c>
+      <c r="E690" s="3">
+        <v>468</v>
+      </c>
+      <c r="F690" s="3">
+        <v>0</v>
+      </c>
+      <c r="G690" s="4">
+        <v>1</v>
+      </c>
+      <c r="H690" s="4">
+        <v>1</v>
+      </c>
+      <c r="I690" s="5">
+        <v>138.5311827956989</v>
+      </c>
+      <c r="J690" s="3">
+        <v>100</v>
+      </c>
+      <c r="K690" s="3">
+        <v>100</v>
+      </c>
+      <c r="L690" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="691" spans="1:12">
+      <c r="A691" s="2">
+        <v>45929</v>
+      </c>
+      <c r="B691" s="3">
+        <v>19</v>
+      </c>
+      <c r="C691" s="3">
+        <v>1290</v>
+      </c>
+      <c r="D691" s="3">
+        <v>598</v>
+      </c>
+      <c r="E691" s="3">
+        <v>596</v>
+      </c>
+      <c r="F691" s="3">
+        <v>2</v>
+      </c>
+      <c r="G691" s="4">
+        <v>0.9966555183946488</v>
+      </c>
+      <c r="H691" s="4">
+        <v>1</v>
+      </c>
+      <c r="I691" s="5">
+        <v>127.7738095238095</v>
+      </c>
+      <c r="J691" s="3">
+        <v>100</v>
+      </c>
+      <c r="K691" s="3">
+        <v>100</v>
+      </c>
+      <c r="L691" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="692" spans="1:12">
+      <c r="A692" s="2">
+        <v>45929</v>
+      </c>
+      <c r="B692" s="3">
+        <v>20</v>
+      </c>
+      <c r="C692" s="3">
+        <v>1162</v>
+      </c>
+      <c r="D692" s="3">
+        <v>557</v>
+      </c>
+      <c r="E692" s="3">
+        <v>530</v>
+      </c>
+      <c r="F692" s="3">
+        <v>27</v>
+      </c>
+      <c r="G692" s="4">
+        <v>0.9515260323159783</v>
+      </c>
+      <c r="H692" s="4">
+        <v>0.9513108614232209</v>
+      </c>
+      <c r="I692" s="5">
+        <v>131.8314176245211</v>
+      </c>
+      <c r="J692" s="3">
+        <v>92.91044776119402</v>
+      </c>
+      <c r="K692" s="3">
+        <v>97.6878612716763</v>
+      </c>
+      <c r="L692" s="3">
+        <v>96.7741935483871</v>
+      </c>
+    </row>
+    <row r="693" spans="1:12">
+      <c r="A693" s="2">
+        <v>45929</v>
+      </c>
+      <c r="B693" s="3">
+        <v>21</v>
+      </c>
+      <c r="C693" s="3">
+        <v>883</v>
+      </c>
+      <c r="D693" s="3">
+        <v>423</v>
+      </c>
+      <c r="E693" s="3">
+        <v>411</v>
+      </c>
+      <c r="F693" s="3">
+        <v>12</v>
+      </c>
+      <c r="G693" s="4">
+        <v>0.9716312056737588</v>
+      </c>
+      <c r="H693" s="4">
+        <v>0.9782608695652173</v>
+      </c>
+      <c r="I693" s="5">
+        <v>138.1234567901235</v>
+      </c>
+      <c r="J693" s="3">
+        <v>96.28099173553719</v>
+      </c>
+      <c r="K693" s="3">
+        <v>100</v>
+      </c>
+      <c r="L693" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="694" spans="1:12">
+      <c r="A694" s="2">
+        <v>45929</v>
+      </c>
+      <c r="B694" s="3">
+        <v>22</v>
+      </c>
+      <c r="C694" s="3">
+        <v>541</v>
+      </c>
+      <c r="D694" s="3">
+        <v>274</v>
+      </c>
+      <c r="E694" s="3">
+        <v>271</v>
+      </c>
+      <c r="F694" s="3">
+        <v>3</v>
+      </c>
+      <c r="G694" s="4">
+        <v>0.9890510948905109</v>
+      </c>
+      <c r="H694" s="4">
+        <v>0.996309963099631</v>
+      </c>
+      <c r="I694" s="5">
+        <v>142.2851711026616</v>
+      </c>
+      <c r="J694" s="3">
+        <v>100</v>
+      </c>
+      <c r="K694" s="3">
+        <v>100</v>
+      </c>
+      <c r="L694" s="3">
+        <v>97.43589743589743</v>
+      </c>
+    </row>
+    <row r="695" spans="1:12">
+      <c r="A695" s="2">
+        <v>45929</v>
+      </c>
+      <c r="B695" s="3">
+        <v>23</v>
+      </c>
+      <c r="C695" s="3">
+        <v>308</v>
+      </c>
+      <c r="D695" s="3">
+        <v>140</v>
+      </c>
+      <c r="E695" s="3">
+        <v>140</v>
+      </c>
+      <c r="F695" s="3">
+        <v>0</v>
+      </c>
+      <c r="G695" s="4">
+        <v>1</v>
+      </c>
+      <c r="H695" s="4">
+        <v>1</v>
+      </c>
+      <c r="I695" s="5">
+        <v>132.6854838709677</v>
+      </c>
+      <c r="J695" s="3">
+        <v>100</v>
+      </c>
+      <c r="K695" s="3">
+        <v>100</v>
+      </c>
+      <c r="L695" s="3">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -39421,7 +40776,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK117"/>
+  <dimension ref="A1:AK121"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -52200,454 +53555,906 @@
       </c>
     </row>
     <row r="114" spans="1:37">
-      <c r="A114" s="3" t="s">
-        <v>36</v>
+      <c r="A114" s="2">
+        <v>45929</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C114" s="3">
-        <v>11383</v>
+        <v>425</v>
       </c>
       <c r="D114" s="3">
-        <v>5057</v>
+        <v>195</v>
       </c>
       <c r="E114" s="3">
-        <v>98</v>
+        <v>3</v>
       </c>
       <c r="F114" s="3">
-        <v>4959</v>
+        <v>192</v>
       </c>
       <c r="G114" s="4">
-        <v>0.01937907850504252</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="H114" s="5">
-        <v>57.72691318963813</v>
+        <v>56.71282051282051</v>
       </c>
       <c r="I114" s="3">
-        <v>6326</v>
+        <v>230</v>
       </c>
       <c r="J114" s="4">
-        <v>0.4442589826934903</v>
+        <v>0.4588235294117647</v>
       </c>
       <c r="K114" s="3">
-        <v>6326</v>
+        <v>230</v>
       </c>
       <c r="L114" s="3">
-        <v>6134</v>
+        <v>225</v>
       </c>
       <c r="M114" s="3">
-        <v>5889</v>
+        <v>218</v>
       </c>
       <c r="N114" s="3">
-        <v>245</v>
+        <v>7</v>
       </c>
       <c r="O114" s="3">
-        <v>146</v>
+        <v>1</v>
       </c>
       <c r="P114" s="3">
-        <v>6280</v>
+        <v>226</v>
       </c>
       <c r="Q114" s="4">
-        <v>0.9767515923566878</v>
+        <v>0.995575221238938</v>
       </c>
       <c r="R114" s="4">
-        <v>0.02324840764331213</v>
+        <v>0.004424778761061958</v>
       </c>
       <c r="S114" s="3">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="T114" s="3">
-        <v>6078</v>
+        <v>225</v>
       </c>
       <c r="U114" s="3">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="V114" s="3">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="W114" s="4">
-        <v>0.9839728023312287</v>
+        <v>1</v>
       </c>
       <c r="X114" s="5">
-        <v>144.5333672949567</v>
+        <v>116.9036697247706</v>
       </c>
       <c r="Y114" s="5">
-        <v>8.064696892511462</v>
+        <v>3.880733944954128</v>
       </c>
       <c r="Z114" s="3">
-        <v>311</v>
+        <v>12</v>
       </c>
       <c r="AA114" s="5">
         <v>60</v>
       </c>
       <c r="AB114" s="3">
-        <v>308</v>
+        <v>12</v>
       </c>
       <c r="AC114" s="4">
-        <v>0.9903536977491961</v>
+        <v>1</v>
       </c>
       <c r="AD114" s="3">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AE114" s="5">
         <v>45</v>
       </c>
       <c r="AF114" s="3">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AG114" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH114" s="3">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="AI114" s="5">
         <v>30</v>
       </c>
       <c r="AJ114" s="3">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="AK114" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:37">
-      <c r="A115" s="3" t="s">
-        <v>36</v>
+      <c r="A115" s="2">
+        <v>45929</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C115" s="3">
-        <v>7033</v>
+        <v>274</v>
       </c>
       <c r="D115" s="3">
-        <v>3392</v>
+        <v>115</v>
       </c>
       <c r="E115" s="3">
-        <v>164</v>
+        <v>5</v>
       </c>
       <c r="F115" s="3">
-        <v>3228</v>
+        <v>110</v>
       </c>
       <c r="G115" s="4">
-        <v>0.04834905660377359</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="H115" s="5">
-        <v>63.04392688679246</v>
+        <v>66.05217391304348</v>
       </c>
       <c r="I115" s="3">
-        <v>3641</v>
+        <v>159</v>
       </c>
       <c r="J115" s="4">
-        <v>0.4822977392293474</v>
+        <v>0.4197080291970803</v>
       </c>
       <c r="K115" s="3">
-        <v>3641</v>
+        <v>159</v>
       </c>
       <c r="L115" s="3">
-        <v>3519</v>
+        <v>158</v>
       </c>
       <c r="M115" s="3">
-        <v>3405</v>
+        <v>154</v>
       </c>
       <c r="N115" s="3">
-        <v>114</v>
+        <v>4</v>
       </c>
       <c r="O115" s="3">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P115" s="3">
-        <v>3619</v>
+        <v>159</v>
       </c>
       <c r="Q115" s="4">
-        <v>0.9723680574744403</v>
+        <v>0.9937106918238993</v>
       </c>
       <c r="R115" s="4">
-        <v>0.02763194252555962</v>
+        <v>0.00628930817610069</v>
       </c>
       <c r="S115" s="3">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="T115" s="3">
-        <v>3432</v>
+        <v>157</v>
       </c>
       <c r="U115" s="3">
-        <v>87</v>
+        <v>1</v>
       </c>
       <c r="V115" s="3">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="W115" s="4">
-        <v>0.9659442724458205</v>
+        <v>0.9936708860759493</v>
       </c>
       <c r="X115" s="5">
-        <v>106.6070484581498</v>
+        <v>99.64935064935065</v>
       </c>
       <c r="Y115" s="5">
-        <v>12.71336270190896</v>
+        <v>4.324675324675325</v>
       </c>
       <c r="Z115" s="3">
-        <v>188</v>
+        <v>10</v>
       </c>
       <c r="AA115" s="5">
         <v>60</v>
       </c>
       <c r="AB115" s="3">
-        <v>186</v>
+        <v>10</v>
       </c>
       <c r="AC115" s="4">
-        <v>0.9893617021276596</v>
+        <v>1</v>
       </c>
       <c r="AD115" s="3">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="AE115" s="5">
         <v>45</v>
       </c>
       <c r="AF115" s="3">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="AG115" s="4">
         <v>1</v>
       </c>
       <c r="AH115" s="3">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="AI115" s="5">
         <v>30</v>
       </c>
       <c r="AJ115" s="3">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="AK115" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:37">
-      <c r="A116" s="3" t="s">
-        <v>36</v>
+      <c r="A116" s="2">
+        <v>45929</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C116" s="3">
-        <v>278444</v>
+        <v>10231</v>
       </c>
       <c r="D116" s="3">
-        <v>167271</v>
+        <v>5923</v>
       </c>
       <c r="E116" s="3">
-        <v>38376</v>
+        <v>1319</v>
       </c>
       <c r="F116" s="3">
-        <v>128895</v>
+        <v>4604</v>
       </c>
       <c r="G116" s="4">
-        <v>0.2294241081837258</v>
+        <v>0.2226912037818673</v>
       </c>
       <c r="H116" s="5">
-        <v>49.03313784218424</v>
+        <v>44.30558838426473</v>
       </c>
       <c r="I116" s="3">
-        <v>111173</v>
+        <v>4308</v>
       </c>
       <c r="J116" s="4">
-        <v>0.6007347976612891</v>
+        <v>0.5789267911250122</v>
       </c>
       <c r="K116" s="3">
-        <v>111173</v>
+        <v>4308</v>
       </c>
       <c r="L116" s="3">
-        <v>107416</v>
+        <v>4248</v>
       </c>
       <c r="M116" s="3">
-        <v>105489</v>
+        <v>4167</v>
       </c>
       <c r="N116" s="3">
-        <v>1927</v>
+        <v>81</v>
       </c>
       <c r="O116" s="3">
-        <v>3271</v>
+        <v>49</v>
       </c>
       <c r="P116" s="3">
-        <v>110687</v>
+        <v>4297</v>
       </c>
       <c r="Q116" s="4">
-        <v>0.9704482007823862</v>
+        <v>0.988596695368862</v>
       </c>
       <c r="R116" s="4">
-        <v>0.0295517992176137</v>
+        <v>0.01140330463113799</v>
       </c>
       <c r="S116" s="3">
-        <v>486</v>
+        <v>11</v>
       </c>
       <c r="T116" s="3">
-        <v>103289</v>
+        <v>4201</v>
       </c>
       <c r="U116" s="3">
-        <v>4127</v>
+        <v>47</v>
       </c>
       <c r="V116" s="3">
-        <v>792</v>
+        <v>8</v>
       </c>
       <c r="W116" s="4">
-        <v>0.9545412538814135</v>
+        <v>0.987077067669173</v>
       </c>
       <c r="X116" s="5">
-        <v>147.2428878840448</v>
+        <v>134.2135829133669</v>
       </c>
       <c r="Y116" s="5">
-        <v>13.35945928011451</v>
+        <v>5.477561795056396</v>
       </c>
       <c r="Z116" s="3">
-        <v>6631</v>
+        <v>255</v>
       </c>
       <c r="AA116" s="5">
         <v>60</v>
       </c>
       <c r="AB116" s="3">
-        <v>6551</v>
+        <v>255</v>
       </c>
       <c r="AC116" s="4">
-        <v>0.9879354546825516</v>
+        <v>1</v>
       </c>
       <c r="AD116" s="3">
-        <v>593</v>
+        <v>22</v>
       </c>
       <c r="AE116" s="5">
         <v>45</v>
       </c>
       <c r="AF116" s="3">
-        <v>593</v>
+        <v>22</v>
       </c>
       <c r="AG116" s="4">
         <v>1</v>
       </c>
       <c r="AH116" s="3">
-        <v>444</v>
+        <v>18</v>
       </c>
       <c r="AI116" s="5">
         <v>30</v>
       </c>
       <c r="AJ116" s="3">
-        <v>441</v>
+        <v>18</v>
       </c>
       <c r="AK116" s="4">
-        <v>0.9932432432432432</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:37">
-      <c r="A117" s="3" t="s">
-        <v>36</v>
+      <c r="A117" s="2">
+        <v>45929</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C117" s="3">
-        <v>200674</v>
+        <v>6875</v>
       </c>
       <c r="D117" s="3">
-        <v>88006</v>
+        <v>3129</v>
       </c>
       <c r="E117" s="3">
-        <v>29836</v>
+        <v>1054</v>
       </c>
       <c r="F117" s="3">
-        <v>58170</v>
+        <v>2075</v>
       </c>
       <c r="G117" s="4">
-        <v>0.3390223393859509</v>
+        <v>0.3368488334931288</v>
       </c>
       <c r="H117" s="5">
-        <v>27.91501715792105</v>
+        <v>30.30329178651326</v>
       </c>
       <c r="I117" s="3">
-        <v>112668</v>
+        <v>3746</v>
       </c>
       <c r="J117" s="4">
-        <v>0.4385520794921116</v>
+        <v>0.4551272727272727</v>
       </c>
       <c r="K117" s="3">
-        <v>112668</v>
+        <v>3746</v>
       </c>
       <c r="L117" s="3">
-        <v>107439</v>
+        <v>3706</v>
       </c>
       <c r="M117" s="3">
-        <v>105232</v>
+        <v>3633</v>
       </c>
       <c r="N117" s="3">
-        <v>2207</v>
+        <v>73</v>
       </c>
       <c r="O117" s="3">
-        <v>4549</v>
+        <v>36</v>
       </c>
       <c r="P117" s="3">
-        <v>111988</v>
+        <v>3742</v>
       </c>
       <c r="Q117" s="4">
-        <v>0.9593795763831839</v>
+        <v>0.9903794762159273</v>
       </c>
       <c r="R117" s="4">
-        <v>0.04062042361681605</v>
+        <v>0.009620523784072788</v>
       </c>
       <c r="S117" s="3">
-        <v>680</v>
+        <v>4</v>
       </c>
       <c r="T117" s="3">
-        <v>105529</v>
+        <v>3685</v>
       </c>
       <c r="U117" s="3">
-        <v>1910</v>
+        <v>21</v>
       </c>
       <c r="V117" s="3">
-        <v>1464</v>
+        <v>4</v>
       </c>
       <c r="W117" s="4">
-        <v>0.9690183006896045</v>
+        <v>0.9932614555256065</v>
       </c>
       <c r="X117" s="5">
-        <v>137.0480652273073</v>
+        <v>125.5769336636389</v>
       </c>
       <c r="Y117" s="5">
-        <v>9.253934164512696</v>
+        <v>3.764382053399395</v>
       </c>
       <c r="Z117" s="3">
-        <v>7571</v>
+        <v>267</v>
       </c>
       <c r="AA117" s="5">
         <v>60</v>
       </c>
       <c r="AB117" s="3">
-        <v>7494</v>
+        <v>267</v>
       </c>
       <c r="AC117" s="4">
-        <v>0.989829612996962</v>
+        <v>1</v>
       </c>
       <c r="AD117" s="3">
-        <v>108</v>
+        <v>2</v>
       </c>
       <c r="AE117" s="5">
         <v>45</v>
       </c>
       <c r="AF117" s="3">
-        <v>108</v>
+        <v>2</v>
       </c>
       <c r="AG117" s="4">
         <v>1</v>
       </c>
       <c r="AH117" s="3">
-        <v>145</v>
+        <v>5</v>
       </c>
       <c r="AI117" s="5">
         <v>30</v>
       </c>
       <c r="AJ117" s="3">
-        <v>145</v>
+        <v>5</v>
       </c>
       <c r="AK117" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:37">
+      <c r="A118" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C118" s="3">
+        <v>11808</v>
+      </c>
+      <c r="D118" s="3">
+        <v>5252</v>
+      </c>
+      <c r="E118" s="3">
+        <v>101</v>
+      </c>
+      <c r="F118" s="3">
+        <v>5151</v>
+      </c>
+      <c r="G118" s="4">
+        <v>0.01923076923076923</v>
+      </c>
+      <c r="H118" s="5">
+        <v>57.68926123381569</v>
+      </c>
+      <c r="I118" s="3">
+        <v>6556</v>
+      </c>
+      <c r="J118" s="4">
+        <v>0.4447831978319783</v>
+      </c>
+      <c r="K118" s="3">
+        <v>6556</v>
+      </c>
+      <c r="L118" s="3">
+        <v>6359</v>
+      </c>
+      <c r="M118" s="3">
+        <v>6107</v>
+      </c>
+      <c r="N118" s="3">
+        <v>252</v>
+      </c>
+      <c r="O118" s="3">
+        <v>147</v>
+      </c>
+      <c r="P118" s="3">
+        <v>6506</v>
+      </c>
+      <c r="Q118" s="4">
+        <v>0.977405471872118</v>
+      </c>
+      <c r="R118" s="4">
+        <v>0.02259452812788197</v>
+      </c>
+      <c r="S118" s="3">
+        <v>50</v>
+      </c>
+      <c r="T118" s="3">
+        <v>6303</v>
+      </c>
+      <c r="U118" s="3">
+        <v>56</v>
+      </c>
+      <c r="V118" s="3">
+        <v>43</v>
+      </c>
+      <c r="W118" s="4">
+        <v>0.984536082474227</v>
+      </c>
+      <c r="X118" s="5">
+        <v>143.5470771246111</v>
+      </c>
+      <c r="Y118" s="5">
+        <v>7.915343048960209</v>
+      </c>
+      <c r="Z118" s="3">
+        <v>323</v>
+      </c>
+      <c r="AA118" s="5">
+        <v>60</v>
+      </c>
+      <c r="AB118" s="3">
+        <v>320</v>
+      </c>
+      <c r="AC118" s="4">
+        <v>0.9907120743034057</v>
+      </c>
+      <c r="AD118" s="3">
+        <v>32</v>
+      </c>
+      <c r="AE118" s="5">
+        <v>45</v>
+      </c>
+      <c r="AF118" s="3">
+        <v>32</v>
+      </c>
+      <c r="AG118" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH118" s="3">
+        <v>48</v>
+      </c>
+      <c r="AI118" s="5">
+        <v>30</v>
+      </c>
+      <c r="AJ118" s="3">
+        <v>48</v>
+      </c>
+      <c r="AK118" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:37">
+      <c r="A119" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C119" s="3">
+        <v>7307</v>
+      </c>
+      <c r="D119" s="3">
+        <v>3507</v>
+      </c>
+      <c r="E119" s="3">
+        <v>169</v>
+      </c>
+      <c r="F119" s="3">
+        <v>3338</v>
+      </c>
+      <c r="G119" s="4">
+        <v>0.04818933561448532</v>
+      </c>
+      <c r="H119" s="5">
+        <v>63.14257199885942</v>
+      </c>
+      <c r="I119" s="3">
+        <v>3800</v>
+      </c>
+      <c r="J119" s="4">
+        <v>0.4799507321746271</v>
+      </c>
+      <c r="K119" s="3">
+        <v>3800</v>
+      </c>
+      <c r="L119" s="3">
+        <v>3677</v>
+      </c>
+      <c r="M119" s="3">
+        <v>3559</v>
+      </c>
+      <c r="N119" s="3">
+        <v>118</v>
+      </c>
+      <c r="O119" s="3">
+        <v>101</v>
+      </c>
+      <c r="P119" s="3">
+        <v>3778</v>
+      </c>
+      <c r="Q119" s="4">
+        <v>0.9732662784542085</v>
+      </c>
+      <c r="R119" s="4">
+        <v>0.02673372154579141</v>
+      </c>
+      <c r="S119" s="3">
+        <v>22</v>
+      </c>
+      <c r="T119" s="3">
+        <v>3589</v>
+      </c>
+      <c r="U119" s="3">
+        <v>88</v>
+      </c>
+      <c r="V119" s="3">
+        <v>34</v>
+      </c>
+      <c r="W119" s="4">
+        <v>0.9671247642144976</v>
+      </c>
+      <c r="X119" s="5">
+        <v>106.3059848271987</v>
+      </c>
+      <c r="Y119" s="5">
+        <v>12.35037932003372</v>
+      </c>
+      <c r="Z119" s="3">
+        <v>198</v>
+      </c>
+      <c r="AA119" s="5">
+        <v>60</v>
+      </c>
+      <c r="AB119" s="3">
+        <v>196</v>
+      </c>
+      <c r="AC119" s="4">
+        <v>0.9898989898989899</v>
+      </c>
+      <c r="AD119" s="3">
+        <v>15</v>
+      </c>
+      <c r="AE119" s="5">
+        <v>45</v>
+      </c>
+      <c r="AF119" s="3">
+        <v>15</v>
+      </c>
+      <c r="AG119" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH119" s="3">
+        <v>20</v>
+      </c>
+      <c r="AI119" s="5">
+        <v>30</v>
+      </c>
+      <c r="AJ119" s="3">
+        <v>20</v>
+      </c>
+      <c r="AK119" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:37">
+      <c r="A120" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C120" s="3">
+        <v>288675</v>
+      </c>
+      <c r="D120" s="3">
+        <v>173194</v>
+      </c>
+      <c r="E120" s="3">
+        <v>39695</v>
+      </c>
+      <c r="F120" s="3">
+        <v>133499</v>
+      </c>
+      <c r="G120" s="4">
+        <v>0.2291938519810155</v>
+      </c>
+      <c r="H120" s="5">
+        <v>48.8714620598866</v>
+      </c>
+      <c r="I120" s="3">
+        <v>115481</v>
+      </c>
+      <c r="J120" s="4">
+        <v>0.5999618948644669</v>
+      </c>
+      <c r="K120" s="3">
+        <v>115481</v>
+      </c>
+      <c r="L120" s="3">
+        <v>111664</v>
+      </c>
+      <c r="M120" s="3">
+        <v>109656</v>
+      </c>
+      <c r="N120" s="3">
+        <v>2008</v>
+      </c>
+      <c r="O120" s="3">
+        <v>3320</v>
+      </c>
+      <c r="P120" s="3">
+        <v>114984</v>
+      </c>
+      <c r="Q120" s="4">
+        <v>0.971126417588534</v>
+      </c>
+      <c r="R120" s="4">
+        <v>0.028873582411466</v>
+      </c>
+      <c r="S120" s="3">
+        <v>497</v>
+      </c>
+      <c r="T120" s="3">
+        <v>107490</v>
+      </c>
+      <c r="U120" s="3">
+        <v>4174</v>
+      </c>
+      <c r="V120" s="3">
+        <v>800</v>
+      </c>
+      <c r="W120" s="4">
+        <v>0.9557725138711054</v>
+      </c>
+      <c r="X120" s="5">
+        <v>146.7477657401328</v>
+      </c>
+      <c r="Y120" s="5">
+        <v>13.05994200043773</v>
+      </c>
+      <c r="Z120" s="3">
+        <v>6886</v>
+      </c>
+      <c r="AA120" s="5">
+        <v>60</v>
+      </c>
+      <c r="AB120" s="3">
+        <v>6806</v>
+      </c>
+      <c r="AC120" s="4">
+        <v>0.98838222480395</v>
+      </c>
+      <c r="AD120" s="3">
+        <v>615</v>
+      </c>
+      <c r="AE120" s="5">
+        <v>45</v>
+      </c>
+      <c r="AF120" s="3">
+        <v>615</v>
+      </c>
+      <c r="AG120" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH120" s="3">
+        <v>462</v>
+      </c>
+      <c r="AI120" s="5">
+        <v>30</v>
+      </c>
+      <c r="AJ120" s="3">
+        <v>459</v>
+      </c>
+      <c r="AK120" s="4">
+        <v>0.9935064935064937</v>
+      </c>
+    </row>
+    <row r="121" spans="1:37">
+      <c r="A121" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C121" s="3">
+        <v>207549</v>
+      </c>
+      <c r="D121" s="3">
+        <v>91135</v>
+      </c>
+      <c r="E121" s="3">
+        <v>30890</v>
+      </c>
+      <c r="F121" s="3">
+        <v>60245</v>
+      </c>
+      <c r="G121" s="4">
+        <v>0.3389477149284029</v>
+      </c>
+      <c r="H121" s="5">
+        <v>27.99701541668952</v>
+      </c>
+      <c r="I121" s="3">
+        <v>116414</v>
+      </c>
+      <c r="J121" s="4">
+        <v>0.4391011279264173</v>
+      </c>
+      <c r="K121" s="3">
+        <v>116414</v>
+      </c>
+      <c r="L121" s="3">
+        <v>111145</v>
+      </c>
+      <c r="M121" s="3">
+        <v>108865</v>
+      </c>
+      <c r="N121" s="3">
+        <v>2280</v>
+      </c>
+      <c r="O121" s="3">
+        <v>4585</v>
+      </c>
+      <c r="P121" s="3">
+        <v>115730</v>
+      </c>
+      <c r="Q121" s="4">
+        <v>0.9603819234424955</v>
+      </c>
+      <c r="R121" s="4">
+        <v>0.03961807655750448</v>
+      </c>
+      <c r="S121" s="3">
+        <v>684</v>
+      </c>
+      <c r="T121" s="3">
+        <v>109214</v>
+      </c>
+      <c r="U121" s="3">
+        <v>1931</v>
+      </c>
+      <c r="V121" s="3">
+        <v>1468</v>
+      </c>
+      <c r="W121" s="4">
+        <v>0.9698169838295756</v>
+      </c>
+      <c r="X121" s="5">
+        <v>136.6652551325035</v>
+      </c>
+      <c r="Y121" s="5">
+        <v>9.070738988655675</v>
+      </c>
+      <c r="Z121" s="3">
+        <v>7838</v>
+      </c>
+      <c r="AA121" s="5">
+        <v>60</v>
+      </c>
+      <c r="AB121" s="3">
+        <v>7761</v>
+      </c>
+      <c r="AC121" s="4">
+        <v>0.9901760653227865</v>
+      </c>
+      <c r="AD121" s="3">
+        <v>110</v>
+      </c>
+      <c r="AE121" s="5">
+        <v>45</v>
+      </c>
+      <c r="AF121" s="3">
+        <v>110</v>
+      </c>
+      <c r="AG121" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH121" s="3">
+        <v>150</v>
+      </c>
+      <c r="AI121" s="5">
+        <v>30</v>
+      </c>
+      <c r="AJ121" s="3">
+        <v>150</v>
+      </c>
+      <c r="AK121" s="4">
         <v>1</v>
       </c>
     </row>
@@ -52658,13 +54465,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC25"/>
+  <dimension ref="A1:AD25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:30">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -52752,8 +54559,11 @@
       <c r="AC1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="2" spans="1:29">
+      <c r="AD1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30">
       <c r="A2">
         <v>0</v>
       </c>
@@ -52841,8 +54651,11 @@
       <c r="AC2">
         <v>135</v>
       </c>
-    </row>
-    <row r="3" spans="1:29">
+      <c r="AD2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30">
       <c r="A3">
         <v>1</v>
       </c>
@@ -52930,8 +54743,11 @@
       <c r="AC3">
         <v>60</v>
       </c>
-    </row>
-    <row r="4" spans="1:29">
+      <c r="AD3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30">
       <c r="A4">
         <v>2</v>
       </c>
@@ -53019,8 +54835,11 @@
       <c r="AC4">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:29">
+      <c r="AD4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30">
       <c r="A5">
         <v>3</v>
       </c>
@@ -53108,8 +54927,11 @@
       <c r="AC5">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:29">
+      <c r="AD5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30">
       <c r="A6">
         <v>4</v>
       </c>
@@ -53197,8 +55019,11 @@
       <c r="AC6">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:29">
+      <c r="AD6">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30">
       <c r="A7">
         <v>5</v>
       </c>
@@ -53286,8 +55111,11 @@
       <c r="AC7">
         <v>76</v>
       </c>
-    </row>
-    <row r="8" spans="1:29">
+      <c r="AD7">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30">
       <c r="A8">
         <v>6</v>
       </c>
@@ -53372,8 +55200,11 @@
       <c r="AC8">
         <v>267</v>
       </c>
-    </row>
-    <row r="9" spans="1:29">
+      <c r="AD8">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30">
       <c r="A9">
         <v>7</v>
       </c>
@@ -53461,8 +55292,11 @@
       <c r="AC9">
         <v>503</v>
       </c>
-    </row>
-    <row r="10" spans="1:29">
+      <c r="AD9">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30">
       <c r="A10">
         <v>8</v>
       </c>
@@ -53550,8 +55384,11 @@
       <c r="AC10">
         <v>667</v>
       </c>
-    </row>
-    <row r="11" spans="1:29">
+      <c r="AD10">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30">
       <c r="A11">
         <v>9</v>
       </c>
@@ -53639,8 +55476,11 @@
       <c r="AC11">
         <v>818</v>
       </c>
-    </row>
-    <row r="12" spans="1:29">
+      <c r="AD11">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30">
       <c r="A12">
         <v>10</v>
       </c>
@@ -53728,8 +55568,11 @@
       <c r="AC12">
         <v>989</v>
       </c>
-    </row>
-    <row r="13" spans="1:29">
+      <c r="AD12">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30">
       <c r="A13">
         <v>11</v>
       </c>
@@ -53814,8 +55657,11 @@
       <c r="AC13">
         <v>1082</v>
       </c>
-    </row>
-    <row r="14" spans="1:29">
+      <c r="AD13">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30">
       <c r="A14">
         <v>12</v>
       </c>
@@ -53903,8 +55749,11 @@
       <c r="AC14">
         <v>1020</v>
       </c>
-    </row>
-    <row r="15" spans="1:29">
+      <c r="AD14">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30">
       <c r="A15">
         <v>13</v>
       </c>
@@ -53992,8 +55841,11 @@
       <c r="AC15">
         <v>1016</v>
       </c>
-    </row>
-    <row r="16" spans="1:29">
+      <c r="AD15">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30">
       <c r="A16">
         <v>14</v>
       </c>
@@ -54081,8 +55933,11 @@
       <c r="AC16">
         <v>893</v>
       </c>
-    </row>
-    <row r="17" spans="1:29">
+      <c r="AD16">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30">
       <c r="A17">
         <v>15</v>
       </c>
@@ -54170,8 +56025,11 @@
       <c r="AC17">
         <v>748</v>
       </c>
-    </row>
-    <row r="18" spans="1:29">
+      <c r="AD17">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30">
       <c r="A18">
         <v>16</v>
       </c>
@@ -54259,8 +56117,11 @@
       <c r="AC18">
         <v>856</v>
       </c>
-    </row>
-    <row r="19" spans="1:29">
+      <c r="AD18">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30">
       <c r="A19">
         <v>17</v>
       </c>
@@ -54348,8 +56209,11 @@
       <c r="AC19">
         <v>889</v>
       </c>
-    </row>
-    <row r="20" spans="1:29">
+      <c r="AD19">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30">
       <c r="A20">
         <v>18</v>
       </c>
@@ -54437,8 +56301,11 @@
       <c r="AC20">
         <v>935</v>
       </c>
-    </row>
-    <row r="21" spans="1:29">
+      <c r="AD20">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30">
       <c r="A21">
         <v>19</v>
       </c>
@@ -54526,8 +56393,11 @@
       <c r="AC21">
         <v>990</v>
       </c>
-    </row>
-    <row r="22" spans="1:29">
+      <c r="AD21">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30">
       <c r="A22">
         <v>20</v>
       </c>
@@ -54615,8 +56485,11 @@
       <c r="AC22">
         <v>851</v>
       </c>
-    </row>
-    <row r="23" spans="1:29">
+      <c r="AD22">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30">
       <c r="A23">
         <v>21</v>
       </c>
@@ -54704,8 +56577,11 @@
       <c r="AC23">
         <v>719</v>
       </c>
-    </row>
-    <row r="24" spans="1:29">
+      <c r="AD23">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30">
       <c r="A24">
         <v>22</v>
       </c>
@@ -54793,8 +56669,11 @@
       <c r="AC24">
         <v>439</v>
       </c>
-    </row>
-    <row r="25" spans="1:29">
+      <c r="AD24">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30">
       <c r="A25">
         <v>23</v>
       </c>
@@ -54882,9 +56761,12 @@
       <c r="AC25">
         <v>245</v>
       </c>
+      <c r="AD25">
+        <v>308</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:AC25">
+  <conditionalFormatting sqref="B2:AD25">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -54902,13 +56784,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC25"/>
+  <dimension ref="A1:AD25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:30">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -54996,8 +56878,11 @@
       <c r="AC1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="2" spans="1:29">
+      <c r="AD1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30">
       <c r="A2">
         <v>0</v>
       </c>
@@ -55085,8 +56970,11 @@
       <c r="AC2">
         <v>136</v>
       </c>
-    </row>
-    <row r="3" spans="1:29">
+      <c r="AD2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30">
       <c r="A3">
         <v>1</v>
       </c>
@@ -55174,8 +57062,11 @@
       <c r="AC3">
         <v>91</v>
       </c>
-    </row>
-    <row r="4" spans="1:29">
+      <c r="AD3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30">
       <c r="A4">
         <v>2</v>
       </c>
@@ -55263,8 +57154,11 @@
       <c r="AC4">
         <v>246</v>
       </c>
-    </row>
-    <row r="5" spans="1:29">
+      <c r="AD4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30">
       <c r="A5">
         <v>3</v>
       </c>
@@ -55349,8 +57243,11 @@
       <c r="AC5">
         <v>153</v>
       </c>
-    </row>
-    <row r="6" spans="1:29">
+      <c r="AD5">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30">
       <c r="A6">
         <v>4</v>
       </c>
@@ -55438,8 +57335,11 @@
       <c r="AC6">
         <v>108</v>
       </c>
-    </row>
-    <row r="7" spans="1:29">
+      <c r="AD6">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30">
       <c r="A7">
         <v>5</v>
       </c>
@@ -55527,8 +57427,11 @@
       <c r="AC7">
         <v>107</v>
       </c>
-    </row>
-    <row r="8" spans="1:29">
+      <c r="AD7">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30">
       <c r="A8">
         <v>6</v>
       </c>
@@ -55613,8 +57516,11 @@
       <c r="AC8">
         <v>110</v>
       </c>
-    </row>
-    <row r="9" spans="1:29">
+      <c r="AD8">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30">
       <c r="A9">
         <v>7</v>
       </c>
@@ -55702,8 +57608,11 @@
       <c r="AC9">
         <v>117</v>
       </c>
-    </row>
-    <row r="10" spans="1:29">
+      <c r="AD9">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30">
       <c r="A10">
         <v>8</v>
       </c>
@@ -55791,8 +57700,11 @@
       <c r="AC10">
         <v>138</v>
       </c>
-    </row>
-    <row r="11" spans="1:29">
+      <c r="AD10">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30">
       <c r="A11">
         <v>9</v>
       </c>
@@ -55880,8 +57792,11 @@
       <c r="AC11">
         <v>128</v>
       </c>
-    </row>
-    <row r="12" spans="1:29">
+      <c r="AD11">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30">
       <c r="A12">
         <v>10</v>
       </c>
@@ -55969,8 +57884,11 @@
       <c r="AC12">
         <v>128</v>
       </c>
-    </row>
-    <row r="13" spans="1:29">
+      <c r="AD12">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30">
       <c r="A13">
         <v>11</v>
       </c>
@@ -56055,8 +57973,11 @@
       <c r="AC13">
         <v>122</v>
       </c>
-    </row>
-    <row r="14" spans="1:29">
+      <c r="AD13">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30">
       <c r="A14">
         <v>12</v>
       </c>
@@ -56144,8 +58065,11 @@
       <c r="AC14">
         <v>132</v>
       </c>
-    </row>
-    <row r="15" spans="1:29">
+      <c r="AD14">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30">
       <c r="A15">
         <v>13</v>
       </c>
@@ -56233,8 +58157,11 @@
       <c r="AC15">
         <v>120</v>
       </c>
-    </row>
-    <row r="16" spans="1:29">
+      <c r="AD15">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30">
       <c r="A16">
         <v>14</v>
       </c>
@@ -56322,8 +58249,11 @@
       <c r="AC16">
         <v>117</v>
       </c>
-    </row>
-    <row r="17" spans="1:29">
+      <c r="AD16">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30">
       <c r="A17">
         <v>15</v>
       </c>
@@ -56411,8 +58341,11 @@
       <c r="AC17">
         <v>127</v>
       </c>
-    </row>
-    <row r="18" spans="1:29">
+      <c r="AD17">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30">
       <c r="A18">
         <v>16</v>
       </c>
@@ -56500,8 +58433,11 @@
       <c r="AC18">
         <v>135</v>
       </c>
-    </row>
-    <row r="19" spans="1:29">
+      <c r="AD18">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30">
       <c r="A19">
         <v>17</v>
       </c>
@@ -56589,8 +58525,11 @@
       <c r="AC19">
         <v>146</v>
       </c>
-    </row>
-    <row r="20" spans="1:29">
+      <c r="AD19">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30">
       <c r="A20">
         <v>18</v>
       </c>
@@ -56678,8 +58617,11 @@
       <c r="AC20">
         <v>147</v>
       </c>
-    </row>
-    <row r="21" spans="1:29">
+      <c r="AD20">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30">
       <c r="A21">
         <v>19</v>
       </c>
@@ -56767,8 +58709,11 @@
       <c r="AC21">
         <v>135</v>
       </c>
-    </row>
-    <row r="22" spans="1:29">
+      <c r="AD21">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30">
       <c r="A22">
         <v>20</v>
       </c>
@@ -56856,8 +58801,11 @@
       <c r="AC22">
         <v>133</v>
       </c>
-    </row>
-    <row r="23" spans="1:29">
+      <c r="AD22">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30">
       <c r="A23">
         <v>21</v>
       </c>
@@ -56945,8 +58893,11 @@
       <c r="AC23">
         <v>143</v>
       </c>
-    </row>
-    <row r="24" spans="1:29">
+      <c r="AD23">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30">
       <c r="A24">
         <v>22</v>
       </c>
@@ -57034,8 +58985,11 @@
       <c r="AC24">
         <v>132</v>
       </c>
-    </row>
-    <row r="25" spans="1:29">
+      <c r="AD24">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30">
       <c r="A25">
         <v>23</v>
       </c>
@@ -57123,9 +59077,12 @@
       <c r="AC25">
         <v>123</v>
       </c>
+      <c r="AD25">
+        <v>133</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:AC25">
+  <conditionalFormatting sqref="B2:AD25">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>

--- a/Result.xlsx
+++ b/Result.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="77">
   <si>
     <t>Date</t>
   </si>
@@ -249,6 +249,9 @@
   </si>
   <si>
     <t>2025-09-29</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
   </si>
 </sst>
 </file>
@@ -646,7 +649,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ31"/>
+  <dimension ref="A1:AJ32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3956,86 +3959,86 @@
       </c>
     </row>
     <row r="31" spans="1:36">
-      <c r="A31" s="3" t="s">
-        <v>36</v>
+      <c r="A31" s="2">
+        <v>45930</v>
       </c>
       <c r="B31" s="3">
-        <v>515339</v>
+        <v>16746</v>
       </c>
       <c r="C31" s="3">
-        <v>273088</v>
+        <v>8770</v>
       </c>
       <c r="D31" s="3">
-        <v>70855</v>
+        <v>2351</v>
       </c>
       <c r="E31" s="3">
-        <v>202233</v>
+        <v>6419</v>
       </c>
       <c r="F31" s="4">
-        <v>0.2594584895711273</v>
+        <v>0.268072976054732</v>
       </c>
       <c r="G31" s="5">
-        <v>42.25808896765878</v>
+        <v>39.59144811858609</v>
       </c>
       <c r="H31" s="3">
-        <v>242251</v>
+        <v>7976</v>
       </c>
       <c r="I31" s="4">
-        <v>0.5299191406045342</v>
+        <v>0.5237071539472112</v>
       </c>
       <c r="J31" s="3">
-        <v>242251</v>
+        <v>7976</v>
       </c>
       <c r="K31" s="3">
-        <v>240998</v>
+        <v>7960</v>
       </c>
       <c r="L31" s="3">
-        <v>232845</v>
+        <v>7902</v>
       </c>
       <c r="M31" s="3">
-        <v>228187</v>
+        <v>7758</v>
       </c>
       <c r="N31" s="3">
-        <v>4658</v>
+        <v>144</v>
       </c>
       <c r="O31" s="4">
-        <v>0.966169843733143</v>
+        <v>0.992713567839196</v>
       </c>
       <c r="P31" s="3">
-        <v>8153</v>
+        <v>58</v>
       </c>
       <c r="Q31" s="4">
-        <v>0.03383015626685704</v>
+        <v>0.007286432160803998</v>
       </c>
       <c r="R31" s="3">
-        <v>1253</v>
+        <v>16</v>
       </c>
       <c r="S31" s="3">
-        <v>226596</v>
+        <v>7877</v>
       </c>
       <c r="T31" s="3">
-        <v>2345</v>
+        <v>14</v>
       </c>
       <c r="U31" s="3">
-        <v>6249</v>
+        <v>25</v>
       </c>
       <c r="V31" s="4">
-        <v>0.9634593307538586</v>
+        <v>0.9950732693279434</v>
       </c>
       <c r="W31" s="5">
-        <v>141.2211081262298</v>
+        <v>132.7779066769786</v>
       </c>
       <c r="X31" s="5">
-        <v>11.00799344397358</v>
+        <v>3.737174529517917</v>
       </c>
       <c r="Y31" s="3">
-        <v>15245</v>
+        <v>455</v>
       </c>
       <c r="Z31" s="3">
-        <v>772</v>
+        <v>21</v>
       </c>
       <c r="AA31" s="3">
-        <v>680</v>
+        <v>13</v>
       </c>
       <c r="AB31" s="5">
         <v>60</v>
@@ -4047,22 +4050,132 @@
         <v>30</v>
       </c>
       <c r="AE31" s="3">
-        <v>15083</v>
+        <v>455</v>
       </c>
       <c r="AF31" s="3">
-        <v>772</v>
+        <v>21</v>
       </c>
       <c r="AG31" s="3">
-        <v>677</v>
+        <v>13</v>
       </c>
       <c r="AH31" s="4">
-        <v>0.9893735651033125</v>
+        <v>1</v>
       </c>
       <c r="AI31" s="4">
         <v>1</v>
       </c>
       <c r="AJ31" s="4">
-        <v>0.9955882352941177</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:36">
+      <c r="A32" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="3">
+        <v>532085</v>
+      </c>
+      <c r="C32" s="3">
+        <v>281858</v>
+      </c>
+      <c r="D32" s="3">
+        <v>73206</v>
+      </c>
+      <c r="E32" s="3">
+        <v>208652</v>
+      </c>
+      <c r="F32" s="4">
+        <v>0.2597265289613919</v>
+      </c>
+      <c r="G32" s="5">
+        <v>42.17511654804902</v>
+      </c>
+      <c r="H32" s="3">
+        <v>250227</v>
+      </c>
+      <c r="I32" s="4">
+        <v>0.5297236343817248</v>
+      </c>
+      <c r="J32" s="3">
+        <v>250227</v>
+      </c>
+      <c r="K32" s="3">
+        <v>248958</v>
+      </c>
+      <c r="L32" s="3">
+        <v>240747</v>
+      </c>
+      <c r="M32" s="3">
+        <v>235945</v>
+      </c>
+      <c r="N32" s="3">
+        <v>4802</v>
+      </c>
+      <c r="O32" s="4">
+        <v>0.9670185332465718</v>
+      </c>
+      <c r="P32" s="3">
+        <v>8211</v>
+      </c>
+      <c r="Q32" s="4">
+        <v>0.03298146675342821</v>
+      </c>
+      <c r="R32" s="3">
+        <v>1269</v>
+      </c>
+      <c r="S32" s="3">
+        <v>234473</v>
+      </c>
+      <c r="T32" s="3">
+        <v>2359</v>
+      </c>
+      <c r="U32" s="3">
+        <v>6274</v>
+      </c>
+      <c r="V32" s="4">
+        <v>0.9644887415366137</v>
+      </c>
+      <c r="W32" s="5">
+        <v>140.9434910678336</v>
+      </c>
+      <c r="X32" s="5">
+        <v>10.76892496132573</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>15700</v>
+      </c>
+      <c r="Z32" s="3">
+        <v>793</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>693</v>
+      </c>
+      <c r="AB32" s="5">
+        <v>60</v>
+      </c>
+      <c r="AC32" s="5">
+        <v>45</v>
+      </c>
+      <c r="AD32" s="5">
+        <v>30</v>
+      </c>
+      <c r="AE32" s="3">
+        <v>15538</v>
+      </c>
+      <c r="AF32" s="3">
+        <v>793</v>
+      </c>
+      <c r="AG32" s="3">
+        <v>690</v>
+      </c>
+      <c r="AH32" s="4">
+        <v>0.9896815286624203</v>
+      </c>
+      <c r="AI32" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ32" s="4">
+        <v>0.9956709956709957</v>
       </c>
     </row>
   </sheetData>
@@ -4072,7 +4185,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ31"/>
+  <dimension ref="A1:AJ32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7382,86 +7495,86 @@
       </c>
     </row>
     <row r="31" spans="1:36">
-      <c r="A31" s="3" t="s">
-        <v>36</v>
+      <c r="A31" s="2">
+        <v>45930</v>
       </c>
       <c r="B31" s="3">
-        <v>297553</v>
+        <v>9713</v>
       </c>
       <c r="C31" s="3">
-        <v>178103</v>
+        <v>5605</v>
       </c>
       <c r="D31" s="3">
-        <v>39824</v>
+        <v>1294</v>
       </c>
       <c r="E31" s="3">
-        <v>138279</v>
+        <v>4311</v>
       </c>
       <c r="F31" s="4">
-        <v>0.2236009500120717</v>
+        <v>0.2308652988403211</v>
       </c>
       <c r="G31" s="5">
-        <v>49.27898463248794</v>
+        <v>44.66654772524532</v>
       </c>
       <c r="H31" s="3">
-        <v>119450</v>
+        <v>4108</v>
       </c>
       <c r="I31" s="4">
-        <v>0.5985589121937941</v>
+        <v>0.5770616699269021</v>
       </c>
       <c r="J31" s="3">
-        <v>119450</v>
+        <v>4108</v>
       </c>
       <c r="K31" s="3">
-        <v>118931</v>
+        <v>4099</v>
       </c>
       <c r="L31" s="3">
-        <v>115528</v>
+        <v>4075</v>
       </c>
       <c r="M31" s="3">
-        <v>113408</v>
+        <v>3992</v>
       </c>
       <c r="N31" s="3">
-        <v>2120</v>
+        <v>83</v>
       </c>
       <c r="O31" s="4">
-        <v>0.9713867704803626</v>
+        <v>0.9941449133935106</v>
       </c>
       <c r="P31" s="3">
-        <v>3403</v>
+        <v>24</v>
       </c>
       <c r="Q31" s="4">
-        <v>0.02861322951963743</v>
+        <v>0.005855086606489408</v>
       </c>
       <c r="R31" s="3">
-        <v>519</v>
+        <v>9</v>
       </c>
       <c r="S31" s="3">
-        <v>111289</v>
+        <v>4067</v>
       </c>
       <c r="T31" s="3">
-        <v>826</v>
+        <v>3</v>
       </c>
       <c r="U31" s="3">
-        <v>4239</v>
+        <v>8</v>
       </c>
       <c r="V31" s="4">
-        <v>0.9564690513433143</v>
+        <v>0.9973025993133889</v>
       </c>
       <c r="W31" s="5">
-        <v>146.3995661681716</v>
+        <v>136.1159819639279</v>
       </c>
       <c r="X31" s="5">
-        <v>12.98223229401806</v>
+        <v>3.745991983967936</v>
       </c>
       <c r="Y31" s="3">
-        <v>7072</v>
+        <v>211</v>
       </c>
       <c r="Z31" s="3">
-        <v>642</v>
+        <v>20</v>
       </c>
       <c r="AA31" s="3">
-        <v>500</v>
+        <v>10</v>
       </c>
       <c r="AB31" s="5">
         <v>60</v>
@@ -7473,22 +7586,132 @@
         <v>30</v>
       </c>
       <c r="AE31" s="3">
-        <v>6991</v>
+        <v>211</v>
       </c>
       <c r="AF31" s="3">
-        <v>642</v>
+        <v>20</v>
       </c>
       <c r="AG31" s="3">
-        <v>497</v>
+        <v>10</v>
       </c>
       <c r="AH31" s="4">
-        <v>0.9885463800904978</v>
+        <v>1</v>
       </c>
       <c r="AI31" s="4">
         <v>1</v>
       </c>
       <c r="AJ31" s="4">
-        <v>0.9940000000000001</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:36">
+      <c r="A32" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="3">
+        <v>307266</v>
+      </c>
+      <c r="C32" s="3">
+        <v>183708</v>
+      </c>
+      <c r="D32" s="3">
+        <v>41118</v>
+      </c>
+      <c r="E32" s="3">
+        <v>142590</v>
+      </c>
+      <c r="F32" s="4">
+        <v>0.2238225880201189</v>
+      </c>
+      <c r="G32" s="5">
+        <v>49.13825745204346</v>
+      </c>
+      <c r="H32" s="3">
+        <v>123558</v>
+      </c>
+      <c r="I32" s="4">
+        <v>0.5978793618558513</v>
+      </c>
+      <c r="J32" s="3">
+        <v>123558</v>
+      </c>
+      <c r="K32" s="3">
+        <v>123030</v>
+      </c>
+      <c r="L32" s="3">
+        <v>119603</v>
+      </c>
+      <c r="M32" s="3">
+        <v>117400</v>
+      </c>
+      <c r="N32" s="3">
+        <v>2203</v>
+      </c>
+      <c r="O32" s="4">
+        <v>0.9721450052832643</v>
+      </c>
+      <c r="P32" s="3">
+        <v>3427</v>
+      </c>
+      <c r="Q32" s="4">
+        <v>0.02785499471673574</v>
+      </c>
+      <c r="R32" s="3">
+        <v>528</v>
+      </c>
+      <c r="S32" s="3">
+        <v>115356</v>
+      </c>
+      <c r="T32" s="3">
+        <v>829</v>
+      </c>
+      <c r="U32" s="3">
+        <v>4247</v>
+      </c>
+      <c r="V32" s="4">
+        <v>0.9578517337584695</v>
+      </c>
+      <c r="W32" s="5">
+        <v>146.0498892674617</v>
+      </c>
+      <c r="X32" s="5">
+        <v>12.66816865417377</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>7283</v>
+      </c>
+      <c r="Z32" s="3">
+        <v>662</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>510</v>
+      </c>
+      <c r="AB32" s="5">
+        <v>60</v>
+      </c>
+      <c r="AC32" s="5">
+        <v>45</v>
+      </c>
+      <c r="AD32" s="5">
+        <v>30</v>
+      </c>
+      <c r="AE32" s="3">
+        <v>7202</v>
+      </c>
+      <c r="AF32" s="3">
+        <v>662</v>
+      </c>
+      <c r="AG32" s="3">
+        <v>507</v>
+      </c>
+      <c r="AH32" s="4">
+        <v>0.9888782095290403</v>
+      </c>
+      <c r="AI32" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ32" s="4">
+        <v>0.9941176470588234</v>
       </c>
     </row>
   </sheetData>
@@ -7498,7 +7721,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ31"/>
+  <dimension ref="A1:AJ32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10808,86 +11031,86 @@
       </c>
     </row>
     <row r="31" spans="1:36">
-      <c r="A31" s="3" t="s">
-        <v>36</v>
+      <c r="A31" s="2">
+        <v>45930</v>
       </c>
       <c r="B31" s="3">
-        <v>131887</v>
+        <v>4278</v>
       </c>
       <c r="C31" s="3">
-        <v>60846</v>
+        <v>1993</v>
       </c>
       <c r="D31" s="3">
-        <v>21259</v>
+        <v>675</v>
       </c>
       <c r="E31" s="3">
-        <v>39587</v>
+        <v>1318</v>
       </c>
       <c r="F31" s="4">
-        <v>0.3493902639450416</v>
+        <v>0.3386853988961364</v>
       </c>
       <c r="G31" s="5">
-        <v>25.88265457055517</v>
+        <v>28.66332162568991</v>
       </c>
       <c r="H31" s="3">
-        <v>71041</v>
+        <v>2285</v>
       </c>
       <c r="I31" s="4">
-        <v>0.4613494885773427</v>
+        <v>0.4658719027582983</v>
       </c>
       <c r="J31" s="3">
-        <v>71041</v>
+        <v>2285</v>
       </c>
       <c r="K31" s="3">
-        <v>70551</v>
+        <v>2280</v>
       </c>
       <c r="L31" s="3">
-        <v>67623</v>
+        <v>2256</v>
       </c>
       <c r="M31" s="3">
-        <v>66005</v>
+        <v>2219</v>
       </c>
       <c r="N31" s="3">
-        <v>1618</v>
+        <v>37</v>
       </c>
       <c r="O31" s="4">
-        <v>0.9584981077518391</v>
+        <v>0.9894736842105263</v>
       </c>
       <c r="P31" s="3">
-        <v>2928</v>
+        <v>24</v>
       </c>
       <c r="Q31" s="4">
-        <v>0.04150189224816089</v>
+        <v>0.0105263157894737</v>
       </c>
       <c r="R31" s="3">
-        <v>490</v>
+        <v>5</v>
       </c>
       <c r="S31" s="3">
-        <v>66466</v>
+        <v>2243</v>
       </c>
       <c r="T31" s="3">
-        <v>899</v>
+        <v>5</v>
       </c>
       <c r="U31" s="3">
-        <v>1157</v>
+        <v>13</v>
       </c>
       <c r="V31" s="4">
-        <v>0.9699950380899565</v>
+        <v>0.9920389208314905</v>
       </c>
       <c r="W31" s="5">
-        <v>131.2729035679115</v>
+        <v>125.8427219468229</v>
       </c>
       <c r="X31" s="5">
-        <v>8.967653965608665</v>
+        <v>3.546642631816133</v>
       </c>
       <c r="Y31" s="3">
-        <v>5056</v>
+        <v>148</v>
       </c>
       <c r="Z31" s="3">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="AA31" s="3">
-        <v>138</v>
+        <v>1</v>
       </c>
       <c r="AB31" s="5">
         <v>60</v>
@@ -10899,21 +11122,131 @@
         <v>30</v>
       </c>
       <c r="AE31" s="3">
-        <v>5004</v>
+        <v>148</v>
       </c>
       <c r="AF31" s="3">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="AG31" s="3">
-        <v>138</v>
+        <v>1</v>
       </c>
       <c r="AH31" s="4">
-        <v>0.9897151898734177</v>
+        <v>1</v>
       </c>
       <c r="AI31" s="4">
         <v>1</v>
       </c>
       <c r="AJ31" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:36">
+      <c r="A32" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="3">
+        <v>136165</v>
+      </c>
+      <c r="C32" s="3">
+        <v>62839</v>
+      </c>
+      <c r="D32" s="3">
+        <v>21934</v>
+      </c>
+      <c r="E32" s="3">
+        <v>40905</v>
+      </c>
+      <c r="F32" s="4">
+        <v>0.3490507487388406</v>
+      </c>
+      <c r="G32" s="5">
+        <v>25.97084613058769</v>
+      </c>
+      <c r="H32" s="3">
+        <v>73326</v>
+      </c>
+      <c r="I32" s="4">
+        <v>0.4614915727242683</v>
+      </c>
+      <c r="J32" s="3">
+        <v>73326</v>
+      </c>
+      <c r="K32" s="3">
+        <v>72831</v>
+      </c>
+      <c r="L32" s="3">
+        <v>69879</v>
+      </c>
+      <c r="M32" s="3">
+        <v>68224</v>
+      </c>
+      <c r="N32" s="3">
+        <v>1655</v>
+      </c>
+      <c r="O32" s="4">
+        <v>0.9594678090373605</v>
+      </c>
+      <c r="P32" s="3">
+        <v>2952</v>
+      </c>
+      <c r="Q32" s="4">
+        <v>0.04053219096263945</v>
+      </c>
+      <c r="R32" s="3">
+        <v>495</v>
+      </c>
+      <c r="S32" s="3">
+        <v>68709</v>
+      </c>
+      <c r="T32" s="3">
+        <v>904</v>
+      </c>
+      <c r="U32" s="3">
+        <v>1170</v>
+      </c>
+      <c r="V32" s="4">
+        <v>0.9706991791814419</v>
+      </c>
+      <c r="W32" s="5">
+        <v>131.0962857645403</v>
+      </c>
+      <c r="X32" s="5">
+        <v>8.791334427767355</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>5204</v>
+      </c>
+      <c r="Z32" s="3">
+        <v>48</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>139</v>
+      </c>
+      <c r="AB32" s="5">
+        <v>60</v>
+      </c>
+      <c r="AC32" s="5">
+        <v>45</v>
+      </c>
+      <c r="AD32" s="5">
+        <v>30</v>
+      </c>
+      <c r="AE32" s="3">
+        <v>5152</v>
+      </c>
+      <c r="AF32" s="3">
+        <v>48</v>
+      </c>
+      <c r="AG32" s="3">
+        <v>139</v>
+      </c>
+      <c r="AH32" s="4">
+        <v>0.9900076863950809</v>
+      </c>
+      <c r="AI32" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ32" s="4">
         <v>1</v>
       </c>
     </row>
@@ -10924,7 +11257,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ31"/>
+  <dimension ref="A1:AJ32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -14234,86 +14567,86 @@
       </c>
     </row>
     <row r="31" spans="1:36">
-      <c r="A31" s="3" t="s">
-        <v>36</v>
+      <c r="A31" s="2">
+        <v>45930</v>
       </c>
       <c r="B31" s="3">
-        <v>85899</v>
+        <v>2755</v>
       </c>
       <c r="C31" s="3">
-        <v>34139</v>
+        <v>1172</v>
       </c>
       <c r="D31" s="3">
-        <v>9772</v>
+        <v>382</v>
       </c>
       <c r="E31" s="3">
-        <v>24367</v>
+        <v>790</v>
       </c>
       <c r="F31" s="4">
-        <v>0.2862415419315153</v>
+        <v>0.325938566552901</v>
       </c>
       <c r="G31" s="5">
-        <v>34.81607545622309</v>
+        <v>33.90358361774744</v>
       </c>
       <c r="H31" s="3">
-        <v>51760</v>
+        <v>1583</v>
       </c>
       <c r="I31" s="4">
-        <v>0.3974318676585293</v>
+        <v>0.4254083484573503</v>
       </c>
       <c r="J31" s="3">
-        <v>51760</v>
+        <v>1583</v>
       </c>
       <c r="K31" s="3">
-        <v>51516</v>
+        <v>1581</v>
       </c>
       <c r="L31" s="3">
-        <v>49694</v>
+        <v>1571</v>
       </c>
       <c r="M31" s="3">
-        <v>48774</v>
+        <v>1547</v>
       </c>
       <c r="N31" s="3">
-        <v>920</v>
+        <v>24</v>
       </c>
       <c r="O31" s="4">
-        <v>0.964632347231928</v>
+        <v>0.9936748893105629</v>
       </c>
       <c r="P31" s="3">
-        <v>1822</v>
+        <v>10</v>
       </c>
       <c r="Q31" s="4">
-        <v>0.03536765276807202</v>
+        <v>0.006325110689437139</v>
       </c>
       <c r="R31" s="3">
-        <v>244</v>
+        <v>2</v>
       </c>
       <c r="S31" s="3">
-        <v>48841</v>
+        <v>1567</v>
       </c>
       <c r="T31" s="3">
-        <v>620</v>
+        <v>6</v>
       </c>
       <c r="U31" s="3">
-        <v>853</v>
+        <v>4</v>
       </c>
       <c r="V31" s="4">
-        <v>0.9707238541956513</v>
+        <v>0.9936588459099557</v>
       </c>
       <c r="W31" s="5">
-        <v>142.643027022594</v>
+        <v>134.1118293471235</v>
       </c>
       <c r="X31" s="5">
-        <v>9.178701767335056</v>
+        <v>3.987718164188752</v>
       </c>
       <c r="Y31" s="3">
-        <v>3117</v>
+        <v>96</v>
       </c>
       <c r="Z31" s="3">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="AA31" s="3">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="AB31" s="5">
         <v>60</v>
@@ -14325,21 +14658,131 @@
         <v>30</v>
       </c>
       <c r="AE31" s="3">
-        <v>3088</v>
+        <v>96</v>
       </c>
       <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG31" s="3">
+        <v>2</v>
+      </c>
+      <c r="AH31" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI31" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ31" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:36">
+      <c r="A32" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="3">
+        <v>88654</v>
+      </c>
+      <c r="C32" s="3">
+        <v>35311</v>
+      </c>
+      <c r="D32" s="3">
+        <v>10154</v>
+      </c>
+      <c r="E32" s="3">
+        <v>25157</v>
+      </c>
+      <c r="F32" s="4">
+        <v>0.287559117555436</v>
+      </c>
+      <c r="G32" s="5">
+        <v>34.78578913086574</v>
+      </c>
+      <c r="H32" s="3">
+        <v>53343</v>
+      </c>
+      <c r="I32" s="4">
+        <v>0.3983012610824103</v>
+      </c>
+      <c r="J32" s="3">
+        <v>53343</v>
+      </c>
+      <c r="K32" s="3">
+        <v>53097</v>
+      </c>
+      <c r="L32" s="3">
+        <v>51265</v>
+      </c>
+      <c r="M32" s="3">
+        <v>50321</v>
+      </c>
+      <c r="N32" s="3">
+        <v>944</v>
+      </c>
+      <c r="O32" s="4">
+        <v>0.9654971090645422</v>
+      </c>
+      <c r="P32" s="3">
+        <v>1832</v>
+      </c>
+      <c r="Q32" s="4">
+        <v>0.03450289093545777</v>
+      </c>
+      <c r="R32" s="3">
+        <v>246</v>
+      </c>
+      <c r="S32" s="3">
+        <v>50408</v>
+      </c>
+      <c r="T32" s="3">
+        <v>626</v>
+      </c>
+      <c r="U32" s="3">
+        <v>857</v>
+      </c>
+      <c r="V32" s="4">
+        <v>0.9714208629627489</v>
+      </c>
+      <c r="W32" s="5">
+        <v>142.380755549373</v>
+      </c>
+      <c r="X32" s="5">
+        <v>9.01911726714493</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>3213</v>
+      </c>
+      <c r="Z32" s="3">
         <v>83</v>
       </c>
-      <c r="AG31" s="3">
-        <v>42</v>
-      </c>
-      <c r="AH31" s="4">
-        <v>0.9906961822264998</v>
-      </c>
-      <c r="AI31" s="4">
-        <v>1</v>
-      </c>
-      <c r="AJ31" s="4">
+      <c r="AA32" s="3">
+        <v>44</v>
+      </c>
+      <c r="AB32" s="5">
+        <v>60</v>
+      </c>
+      <c r="AC32" s="5">
+        <v>45</v>
+      </c>
+      <c r="AD32" s="5">
+        <v>30</v>
+      </c>
+      <c r="AE32" s="3">
+        <v>3184</v>
+      </c>
+      <c r="AF32" s="3">
+        <v>83</v>
+      </c>
+      <c r="AG32" s="3">
+        <v>44</v>
+      </c>
+      <c r="AH32" s="4">
+        <v>0.9909741674447556</v>
+      </c>
+      <c r="AI32" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ32" s="4">
         <v>1</v>
       </c>
     </row>
@@ -14350,7 +14793,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L695"/>
+  <dimension ref="A1:L719"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -40769,6 +41212,918 @@
         <v>100</v>
       </c>
     </row>
+    <row r="696" spans="1:12">
+      <c r="A696" s="2">
+        <v>45930</v>
+      </c>
+      <c r="B696" s="3">
+        <v>0</v>
+      </c>
+      <c r="C696" s="3">
+        <v>105</v>
+      </c>
+      <c r="D696" s="3">
+        <v>45</v>
+      </c>
+      <c r="E696" s="3">
+        <v>45</v>
+      </c>
+      <c r="F696" s="3">
+        <v>0</v>
+      </c>
+      <c r="G696" s="4">
+        <v>1</v>
+      </c>
+      <c r="H696" s="4">
+        <v>1</v>
+      </c>
+      <c r="I696" s="5">
+        <v>131.8863636363636</v>
+      </c>
+      <c r="J696" s="3">
+        <v>100</v>
+      </c>
+      <c r="K696" s="3">
+        <v>100</v>
+      </c>
+      <c r="L696" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="697" spans="1:12">
+      <c r="A697" s="2">
+        <v>45930</v>
+      </c>
+      <c r="B697" s="3">
+        <v>1</v>
+      </c>
+      <c r="C697" s="3">
+        <v>85</v>
+      </c>
+      <c r="D697" s="3">
+        <v>41</v>
+      </c>
+      <c r="E697" s="3">
+        <v>41</v>
+      </c>
+      <c r="F697" s="3">
+        <v>0</v>
+      </c>
+      <c r="G697" s="4">
+        <v>1</v>
+      </c>
+      <c r="H697" s="4">
+        <v>1</v>
+      </c>
+      <c r="I697" s="5">
+        <v>108.78125</v>
+      </c>
+      <c r="J697" s="3">
+        <v>100</v>
+      </c>
+      <c r="K697" s="3">
+        <v>100</v>
+      </c>
+      <c r="L697" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="698" spans="1:12">
+      <c r="A698" s="2">
+        <v>45930</v>
+      </c>
+      <c r="B698" s="3">
+        <v>2</v>
+      </c>
+      <c r="C698" s="3">
+        <v>46</v>
+      </c>
+      <c r="D698" s="3">
+        <v>23</v>
+      </c>
+      <c r="E698" s="3">
+        <v>22</v>
+      </c>
+      <c r="F698" s="3">
+        <v>1</v>
+      </c>
+      <c r="G698" s="4">
+        <v>0.9565217391304348</v>
+      </c>
+      <c r="H698" s="4">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="I698" s="5">
+        <v>142.8571428571429</v>
+      </c>
+      <c r="J698" s="3">
+        <v>80</v>
+      </c>
+      <c r="K698" s="3">
+        <v>100</v>
+      </c>
+      <c r="L698" s="3">
+        <v>91.66666666666666</v>
+      </c>
+    </row>
+    <row r="699" spans="1:12">
+      <c r="A699" s="2">
+        <v>45930</v>
+      </c>
+      <c r="B699" s="3">
+        <v>3</v>
+      </c>
+      <c r="C699" s="3">
+        <v>22</v>
+      </c>
+      <c r="D699" s="3">
+        <v>9</v>
+      </c>
+      <c r="E699" s="3">
+        <v>9</v>
+      </c>
+      <c r="F699" s="3">
+        <v>0</v>
+      </c>
+      <c r="G699" s="4">
+        <v>1</v>
+      </c>
+      <c r="H699" s="4">
+        <v>1</v>
+      </c>
+      <c r="I699" s="5">
+        <v>154.375</v>
+      </c>
+      <c r="J699" s="3">
+        <v>100</v>
+      </c>
+      <c r="K699" s="3">
+        <v>100</v>
+      </c>
+      <c r="L699" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="700" spans="1:12">
+      <c r="A700" s="2">
+        <v>45930</v>
+      </c>
+      <c r="B700" s="3">
+        <v>4</v>
+      </c>
+      <c r="C700" s="3">
+        <v>36</v>
+      </c>
+      <c r="D700" s="3">
+        <v>10</v>
+      </c>
+      <c r="E700" s="3">
+        <v>9</v>
+      </c>
+      <c r="F700" s="3">
+        <v>1</v>
+      </c>
+      <c r="G700" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="H700" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="I700" s="5">
+        <v>217.5555555555555</v>
+      </c>
+      <c r="J700" s="3">
+        <v>100</v>
+      </c>
+      <c r="K700" s="3">
+        <v>100</v>
+      </c>
+      <c r="L700" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="701" spans="1:12">
+      <c r="A701" s="2">
+        <v>45930</v>
+      </c>
+      <c r="B701" s="3">
+        <v>5</v>
+      </c>
+      <c r="C701" s="3">
+        <v>82</v>
+      </c>
+      <c r="D701" s="3">
+        <v>37</v>
+      </c>
+      <c r="E701" s="3">
+        <v>24</v>
+      </c>
+      <c r="F701" s="3">
+        <v>13</v>
+      </c>
+      <c r="G701" s="4">
+        <v>0.6486486486486487</v>
+      </c>
+      <c r="H701" s="4">
+        <v>0.5294117647058824</v>
+      </c>
+      <c r="I701" s="5">
+        <v>131.875</v>
+      </c>
+      <c r="J701" s="3">
+        <v>33.33333333333333</v>
+      </c>
+      <c r="K701" s="3">
+        <v>22.22222222222222</v>
+      </c>
+      <c r="L701" s="3">
+        <v>73.68421052631578</v>
+      </c>
+    </row>
+    <row r="702" spans="1:12">
+      <c r="A702" s="2">
+        <v>45930</v>
+      </c>
+      <c r="B702" s="3">
+        <v>6</v>
+      </c>
+      <c r="C702" s="3">
+        <v>242</v>
+      </c>
+      <c r="D702" s="3">
+        <v>127</v>
+      </c>
+      <c r="E702" s="3">
+        <v>126</v>
+      </c>
+      <c r="F702" s="3">
+        <v>1</v>
+      </c>
+      <c r="G702" s="4">
+        <v>0.9921259842519686</v>
+      </c>
+      <c r="H702" s="4">
+        <v>1</v>
+      </c>
+      <c r="I702" s="5">
+        <v>108.5483870967742</v>
+      </c>
+      <c r="J702" s="3">
+        <v>100</v>
+      </c>
+      <c r="K702" s="3">
+        <v>100</v>
+      </c>
+      <c r="L702" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="703" spans="1:12">
+      <c r="A703" s="2">
+        <v>45930</v>
+      </c>
+      <c r="B703" s="3">
+        <v>7</v>
+      </c>
+      <c r="C703" s="3">
+        <v>547</v>
+      </c>
+      <c r="D703" s="3">
+        <v>252</v>
+      </c>
+      <c r="E703" s="3">
+        <v>245</v>
+      </c>
+      <c r="F703" s="3">
+        <v>7</v>
+      </c>
+      <c r="G703" s="4">
+        <v>0.9722222222222221</v>
+      </c>
+      <c r="H703" s="4">
+        <v>0.9796747967479675</v>
+      </c>
+      <c r="I703" s="5">
+        <v>110.5145228215768</v>
+      </c>
+      <c r="J703" s="3">
+        <v>96.58119658119658</v>
+      </c>
+      <c r="K703" s="3">
+        <v>98.73417721518987</v>
+      </c>
+      <c r="L703" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="704" spans="1:12">
+      <c r="A704" s="2">
+        <v>45930</v>
+      </c>
+      <c r="B704" s="3">
+        <v>8</v>
+      </c>
+      <c r="C704" s="3">
+        <v>732</v>
+      </c>
+      <c r="D704" s="3">
+        <v>354</v>
+      </c>
+      <c r="E704" s="3">
+        <v>348</v>
+      </c>
+      <c r="F704" s="3">
+        <v>6</v>
+      </c>
+      <c r="G704" s="4">
+        <v>0.9830508474576272</v>
+      </c>
+      <c r="H704" s="4">
+        <v>0.9914040114613181</v>
+      </c>
+      <c r="I704" s="5">
+        <v>138.1661807580175</v>
+      </c>
+      <c r="J704" s="3">
+        <v>98.75</v>
+      </c>
+      <c r="K704" s="3">
+        <v>100</v>
+      </c>
+      <c r="L704" s="3">
+        <v>98.68421052631578</v>
+      </c>
+    </row>
+    <row r="705" spans="1:12">
+      <c r="A705" s="2">
+        <v>45930</v>
+      </c>
+      <c r="B705" s="3">
+        <v>9</v>
+      </c>
+      <c r="C705" s="3">
+        <v>1067</v>
+      </c>
+      <c r="D705" s="3">
+        <v>491</v>
+      </c>
+      <c r="E705" s="3">
+        <v>490</v>
+      </c>
+      <c r="F705" s="3">
+        <v>1</v>
+      </c>
+      <c r="G705" s="4">
+        <v>0.9979633401221996</v>
+      </c>
+      <c r="H705" s="4">
+        <v>1</v>
+      </c>
+      <c r="I705" s="5">
+        <v>130.1519507186858</v>
+      </c>
+      <c r="J705" s="3">
+        <v>100</v>
+      </c>
+      <c r="K705" s="3">
+        <v>100</v>
+      </c>
+      <c r="L705" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="706" spans="1:12">
+      <c r="A706" s="2">
+        <v>45930</v>
+      </c>
+      <c r="B706" s="3">
+        <v>10</v>
+      </c>
+      <c r="C706" s="3">
+        <v>1274</v>
+      </c>
+      <c r="D706" s="3">
+        <v>612</v>
+      </c>
+      <c r="E706" s="3">
+        <v>610</v>
+      </c>
+      <c r="F706" s="3">
+        <v>2</v>
+      </c>
+      <c r="G706" s="4">
+        <v>0.9967320261437908</v>
+      </c>
+      <c r="H706" s="4">
+        <v>1</v>
+      </c>
+      <c r="I706" s="5">
+        <v>127.7591362126246</v>
+      </c>
+      <c r="J706" s="3">
+        <v>100</v>
+      </c>
+      <c r="K706" s="3">
+        <v>100</v>
+      </c>
+      <c r="L706" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="707" spans="1:12">
+      <c r="A707" s="2">
+        <v>45930</v>
+      </c>
+      <c r="B707" s="3">
+        <v>11</v>
+      </c>
+      <c r="C707" s="3">
+        <v>1335</v>
+      </c>
+      <c r="D707" s="3">
+        <v>639</v>
+      </c>
+      <c r="E707" s="3">
+        <v>638</v>
+      </c>
+      <c r="F707" s="3">
+        <v>1</v>
+      </c>
+      <c r="G707" s="4">
+        <v>0.998435054773083</v>
+      </c>
+      <c r="H707" s="4">
+        <v>1</v>
+      </c>
+      <c r="I707" s="5">
+        <v>137.1895734597156</v>
+      </c>
+      <c r="J707" s="3">
+        <v>100</v>
+      </c>
+      <c r="K707" s="3">
+        <v>100</v>
+      </c>
+      <c r="L707" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="708" spans="1:12">
+      <c r="A708" s="2">
+        <v>45930</v>
+      </c>
+      <c r="B708" s="3">
+        <v>12</v>
+      </c>
+      <c r="C708" s="3">
+        <v>1237</v>
+      </c>
+      <c r="D708" s="3">
+        <v>626</v>
+      </c>
+      <c r="E708" s="3">
+        <v>621</v>
+      </c>
+      <c r="F708" s="3">
+        <v>5</v>
+      </c>
+      <c r="G708" s="4">
+        <v>0.9920127795527156</v>
+      </c>
+      <c r="H708" s="4">
+        <v>1</v>
+      </c>
+      <c r="I708" s="5">
+        <v>131.4348534201955</v>
+      </c>
+      <c r="J708" s="3">
+        <v>100</v>
+      </c>
+      <c r="K708" s="3">
+        <v>100</v>
+      </c>
+      <c r="L708" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="709" spans="1:12">
+      <c r="A709" s="2">
+        <v>45930</v>
+      </c>
+      <c r="B709" s="3">
+        <v>13</v>
+      </c>
+      <c r="C709" s="3">
+        <v>1158</v>
+      </c>
+      <c r="D709" s="3">
+        <v>582</v>
+      </c>
+      <c r="E709" s="3">
+        <v>581</v>
+      </c>
+      <c r="F709" s="3">
+        <v>1</v>
+      </c>
+      <c r="G709" s="4">
+        <v>0.9982817869415809</v>
+      </c>
+      <c r="H709" s="4">
+        <v>1</v>
+      </c>
+      <c r="I709" s="5">
+        <v>127.2090592334495</v>
+      </c>
+      <c r="J709" s="3">
+        <v>100</v>
+      </c>
+      <c r="K709" s="3">
+        <v>100</v>
+      </c>
+      <c r="L709" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="710" spans="1:12">
+      <c r="A710" s="2">
+        <v>45930</v>
+      </c>
+      <c r="B710" s="3">
+        <v>14</v>
+      </c>
+      <c r="C710" s="3">
+        <v>1085</v>
+      </c>
+      <c r="D710" s="3">
+        <v>491</v>
+      </c>
+      <c r="E710" s="3">
+        <v>491</v>
+      </c>
+      <c r="F710" s="3">
+        <v>0</v>
+      </c>
+      <c r="G710" s="4">
+        <v>1</v>
+      </c>
+      <c r="H710" s="4">
+        <v>1</v>
+      </c>
+      <c r="I710" s="5">
+        <v>135.3270833333333</v>
+      </c>
+      <c r="J710" s="3">
+        <v>100</v>
+      </c>
+      <c r="K710" s="3">
+        <v>100</v>
+      </c>
+      <c r="L710" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="711" spans="1:12">
+      <c r="A711" s="2">
+        <v>45930</v>
+      </c>
+      <c r="B711" s="3">
+        <v>15</v>
+      </c>
+      <c r="C711" s="3">
+        <v>932</v>
+      </c>
+      <c r="D711" s="3">
+        <v>463</v>
+      </c>
+      <c r="E711" s="3">
+        <v>463</v>
+      </c>
+      <c r="F711" s="3">
+        <v>0</v>
+      </c>
+      <c r="G711" s="4">
+        <v>1</v>
+      </c>
+      <c r="H711" s="4">
+        <v>1</v>
+      </c>
+      <c r="I711" s="5">
+        <v>133.3711111111111</v>
+      </c>
+      <c r="J711" s="3">
+        <v>100</v>
+      </c>
+      <c r="K711" s="3">
+        <v>100</v>
+      </c>
+      <c r="L711" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="712" spans="1:12">
+      <c r="A712" s="2">
+        <v>45930</v>
+      </c>
+      <c r="B712" s="3">
+        <v>16</v>
+      </c>
+      <c r="C712" s="3">
+        <v>1053</v>
+      </c>
+      <c r="D712" s="3">
+        <v>474</v>
+      </c>
+      <c r="E712" s="3">
+        <v>474</v>
+      </c>
+      <c r="F712" s="3">
+        <v>0</v>
+      </c>
+      <c r="G712" s="4">
+        <v>1</v>
+      </c>
+      <c r="H712" s="4">
+        <v>0.9978902953586498</v>
+      </c>
+      <c r="I712" s="5">
+        <v>137.8758029978587</v>
+      </c>
+      <c r="J712" s="3">
+        <v>100</v>
+      </c>
+      <c r="K712" s="3">
+        <v>99.28571428571429</v>
+      </c>
+      <c r="L712" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="713" spans="1:12">
+      <c r="A713" s="2">
+        <v>45930</v>
+      </c>
+      <c r="B713" s="3">
+        <v>17</v>
+      </c>
+      <c r="C713" s="3">
+        <v>1016</v>
+      </c>
+      <c r="D713" s="3">
+        <v>456</v>
+      </c>
+      <c r="E713" s="3">
+        <v>456</v>
+      </c>
+      <c r="F713" s="3">
+        <v>0</v>
+      </c>
+      <c r="G713" s="4">
+        <v>1</v>
+      </c>
+      <c r="H713" s="4">
+        <v>1</v>
+      </c>
+      <c r="I713" s="5">
+        <v>137.1674107142857</v>
+      </c>
+      <c r="J713" s="3">
+        <v>100</v>
+      </c>
+      <c r="K713" s="3">
+        <v>100</v>
+      </c>
+      <c r="L713" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="714" spans="1:12">
+      <c r="A714" s="2">
+        <v>45930</v>
+      </c>
+      <c r="B714" s="3">
+        <v>18</v>
+      </c>
+      <c r="C714" s="3">
+        <v>1053</v>
+      </c>
+      <c r="D714" s="3">
+        <v>511</v>
+      </c>
+      <c r="E714" s="3">
+        <v>511</v>
+      </c>
+      <c r="F714" s="3">
+        <v>0</v>
+      </c>
+      <c r="G714" s="4">
+        <v>1</v>
+      </c>
+      <c r="H714" s="4">
+        <v>1</v>
+      </c>
+      <c r="I714" s="5">
+        <v>138.4071856287425</v>
+      </c>
+      <c r="J714" s="3">
+        <v>100</v>
+      </c>
+      <c r="K714" s="3">
+        <v>100</v>
+      </c>
+      <c r="L714" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="715" spans="1:12">
+      <c r="A715" s="2">
+        <v>45930</v>
+      </c>
+      <c r="B715" s="3">
+        <v>19</v>
+      </c>
+      <c r="C715" s="3">
+        <v>1012</v>
+      </c>
+      <c r="D715" s="3">
+        <v>489</v>
+      </c>
+      <c r="E715" s="3">
+        <v>489</v>
+      </c>
+      <c r="F715" s="3">
+        <v>0</v>
+      </c>
+      <c r="G715" s="4">
+        <v>1</v>
+      </c>
+      <c r="H715" s="4">
+        <v>1</v>
+      </c>
+      <c r="I715" s="5">
+        <v>136.8127572016461</v>
+      </c>
+      <c r="J715" s="3">
+        <v>100</v>
+      </c>
+      <c r="K715" s="3">
+        <v>100</v>
+      </c>
+      <c r="L715" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="716" spans="1:12">
+      <c r="A716" s="2">
+        <v>45930</v>
+      </c>
+      <c r="B716" s="3">
+        <v>20</v>
+      </c>
+      <c r="C716" s="3">
+        <v>1080</v>
+      </c>
+      <c r="D716" s="3">
+        <v>494</v>
+      </c>
+      <c r="E716" s="3">
+        <v>484</v>
+      </c>
+      <c r="F716" s="3">
+        <v>10</v>
+      </c>
+      <c r="G716" s="4">
+        <v>0.9797570850202429</v>
+      </c>
+      <c r="H716" s="4">
+        <v>0.979381443298969</v>
+      </c>
+      <c r="I716" s="5">
+        <v>134.7557894736842</v>
+      </c>
+      <c r="J716" s="3">
+        <v>100</v>
+      </c>
+      <c r="K716" s="3">
+        <v>94.66666666666667</v>
+      </c>
+      <c r="L716" s="3">
+        <v>97.5609756097561</v>
+      </c>
+    </row>
+    <row r="717" spans="1:12">
+      <c r="A717" s="2">
+        <v>45930</v>
+      </c>
+      <c r="B717" s="3">
+        <v>21</v>
+      </c>
+      <c r="C717" s="3">
+        <v>832</v>
+      </c>
+      <c r="D717" s="3">
+        <v>400</v>
+      </c>
+      <c r="E717" s="3">
+        <v>391</v>
+      </c>
+      <c r="F717" s="3">
+        <v>9</v>
+      </c>
+      <c r="G717" s="4">
+        <v>0.9775</v>
+      </c>
+      <c r="H717" s="4">
+        <v>0.9974424552429667</v>
+      </c>
+      <c r="I717" s="5">
+        <v>133.0418848167539</v>
+      </c>
+      <c r="J717" s="3">
+        <v>100</v>
+      </c>
+      <c r="K717" s="3">
+        <v>99.14529914529915</v>
+      </c>
+      <c r="L717" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="718" spans="1:12">
+      <c r="A718" s="2">
+        <v>45930</v>
+      </c>
+      <c r="B718" s="3">
+        <v>22</v>
+      </c>
+      <c r="C718" s="3">
+        <v>480</v>
+      </c>
+      <c r="D718" s="3">
+        <v>220</v>
+      </c>
+      <c r="E718" s="3">
+        <v>220</v>
+      </c>
+      <c r="F718" s="3">
+        <v>0</v>
+      </c>
+      <c r="G718" s="4">
+        <v>1</v>
+      </c>
+      <c r="H718" s="4">
+        <v>1</v>
+      </c>
+      <c r="I718" s="5">
+        <v>133.8202764976959</v>
+      </c>
+      <c r="J718" s="3">
+        <v>100</v>
+      </c>
+      <c r="K718" s="3">
+        <v>100</v>
+      </c>
+      <c r="L718" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="719" spans="1:12">
+      <c r="A719" s="2">
+        <v>45930</v>
+      </c>
+      <c r="B719" s="3">
+        <v>23</v>
+      </c>
+      <c r="C719" s="3">
+        <v>235</v>
+      </c>
+      <c r="D719" s="3">
+        <v>114</v>
+      </c>
+      <c r="E719" s="3">
+        <v>114</v>
+      </c>
+      <c r="F719" s="3">
+        <v>0</v>
+      </c>
+      <c r="G719" s="4">
+        <v>1</v>
+      </c>
+      <c r="H719" s="4">
+        <v>1</v>
+      </c>
+      <c r="I719" s="5">
+        <v>131.9708737864078</v>
+      </c>
+      <c r="J719" s="3">
+        <v>100</v>
+      </c>
+      <c r="K719" s="3">
+        <v>100</v>
+      </c>
+      <c r="L719" s="3">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -40776,7 +42131,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK121"/>
+  <dimension ref="A1:AK125"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -54007,454 +55362,906 @@
       </c>
     </row>
     <row r="118" spans="1:37">
-      <c r="A118" s="3" t="s">
-        <v>36</v>
+      <c r="A118" s="2">
+        <v>45930</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C118" s="3">
-        <v>11808</v>
+        <v>386</v>
       </c>
       <c r="D118" s="3">
-        <v>5252</v>
+        <v>193</v>
       </c>
       <c r="E118" s="3">
-        <v>101</v>
+        <v>5</v>
       </c>
       <c r="F118" s="3">
-        <v>5151</v>
+        <v>188</v>
       </c>
       <c r="G118" s="4">
-        <v>0.01923076923076923</v>
+        <v>0.02590673575129534</v>
       </c>
       <c r="H118" s="5">
-        <v>57.68926123381569</v>
+        <v>58.88082901554404</v>
       </c>
       <c r="I118" s="3">
-        <v>6556</v>
+        <v>193</v>
       </c>
       <c r="J118" s="4">
-        <v>0.4447831978319783</v>
+        <v>0.5</v>
       </c>
       <c r="K118" s="3">
-        <v>6556</v>
+        <v>193</v>
       </c>
       <c r="L118" s="3">
-        <v>6359</v>
+        <v>191</v>
       </c>
       <c r="M118" s="3">
-        <v>6107</v>
+        <v>187</v>
       </c>
       <c r="N118" s="3">
-        <v>252</v>
+        <v>4</v>
       </c>
       <c r="O118" s="3">
-        <v>147</v>
+        <v>2</v>
       </c>
       <c r="P118" s="3">
-        <v>6506</v>
+        <v>193</v>
       </c>
       <c r="Q118" s="4">
-        <v>0.977405471872118</v>
+        <v>0.9896373056994818</v>
       </c>
       <c r="R118" s="4">
-        <v>0.02259452812788197</v>
+        <v>0.01036269430051817</v>
       </c>
       <c r="S118" s="3">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="T118" s="3">
-        <v>6303</v>
+        <v>190</v>
       </c>
       <c r="U118" s="3">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="V118" s="3">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="W118" s="4">
-        <v>0.984536082474227</v>
+        <v>0.9947643979057592</v>
       </c>
       <c r="X118" s="5">
-        <v>143.5470771246111</v>
+        <v>146.2139037433155</v>
       </c>
       <c r="Y118" s="5">
-        <v>7.915343048960209</v>
+        <v>4.647058823529412</v>
       </c>
       <c r="Z118" s="3">
-        <v>323</v>
+        <v>17</v>
       </c>
       <c r="AA118" s="5">
         <v>60</v>
       </c>
       <c r="AB118" s="3">
-        <v>320</v>
+        <v>17</v>
       </c>
       <c r="AC118" s="4">
-        <v>0.9907120743034057</v>
+        <v>1</v>
       </c>
       <c r="AD118" s="3">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AE118" s="5">
         <v>45</v>
       </c>
       <c r="AF118" s="3">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AG118" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH118" s="3">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="AI118" s="5">
         <v>30</v>
       </c>
       <c r="AJ118" s="3">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="AK118" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:37">
-      <c r="A119" s="3" t="s">
-        <v>36</v>
+      <c r="A119" s="2">
+        <v>45930</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C119" s="3">
-        <v>7307</v>
+        <v>237</v>
       </c>
       <c r="D119" s="3">
-        <v>3507</v>
+        <v>113</v>
       </c>
       <c r="E119" s="3">
-        <v>169</v>
+        <v>2</v>
       </c>
       <c r="F119" s="3">
-        <v>3338</v>
+        <v>111</v>
       </c>
       <c r="G119" s="4">
-        <v>0.04818933561448532</v>
+        <v>0.01769911504424779</v>
       </c>
       <c r="H119" s="5">
-        <v>63.14257199885942</v>
+        <v>63.01769911504424</v>
       </c>
       <c r="I119" s="3">
-        <v>3800</v>
+        <v>124</v>
       </c>
       <c r="J119" s="4">
-        <v>0.4799507321746271</v>
+        <v>0.4767932489451477</v>
       </c>
       <c r="K119" s="3">
-        <v>3800</v>
+        <v>124</v>
       </c>
       <c r="L119" s="3">
-        <v>3677</v>
+        <v>123</v>
       </c>
       <c r="M119" s="3">
-        <v>3559</v>
+        <v>119</v>
       </c>
       <c r="N119" s="3">
-        <v>118</v>
+        <v>4</v>
       </c>
       <c r="O119" s="3">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="P119" s="3">
-        <v>3778</v>
+        <v>124</v>
       </c>
       <c r="Q119" s="4">
-        <v>0.9732662784542085</v>
+        <v>0.9919354838709676</v>
       </c>
       <c r="R119" s="4">
-        <v>0.02673372154579141</v>
+        <v>0.008064516129032313</v>
       </c>
       <c r="S119" s="3">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="T119" s="3">
-        <v>3589</v>
+        <v>122</v>
       </c>
       <c r="U119" s="3">
-        <v>88</v>
+        <v>1</v>
       </c>
       <c r="V119" s="3">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="W119" s="4">
-        <v>0.9671247642144976</v>
+        <v>0.9918699186991869</v>
       </c>
       <c r="X119" s="5">
-        <v>106.3059848271987</v>
+        <v>108.3109243697479</v>
       </c>
       <c r="Y119" s="5">
-        <v>12.35037932003372</v>
+        <v>5.529411764705882</v>
       </c>
       <c r="Z119" s="3">
-        <v>198</v>
+        <v>8</v>
       </c>
       <c r="AA119" s="5">
         <v>60</v>
       </c>
       <c r="AB119" s="3">
-        <v>196</v>
+        <v>8</v>
       </c>
       <c r="AC119" s="4">
-        <v>0.9898989898989899</v>
+        <v>1</v>
       </c>
       <c r="AD119" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AE119" s="5">
         <v>45</v>
       </c>
       <c r="AF119" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AG119" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH119" s="3">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="AI119" s="5">
         <v>30</v>
       </c>
       <c r="AJ119" s="3">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="AK119" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:37">
-      <c r="A120" s="3" t="s">
-        <v>36</v>
+      <c r="A120" s="2">
+        <v>45930</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C120" s="3">
-        <v>288675</v>
+        <v>9423</v>
       </c>
       <c r="D120" s="3">
-        <v>173194</v>
+        <v>5434</v>
       </c>
       <c r="E120" s="3">
-        <v>39695</v>
+        <v>1290</v>
       </c>
       <c r="F120" s="3">
-        <v>133499</v>
+        <v>4144</v>
       </c>
       <c r="G120" s="4">
-        <v>0.2291938519810155</v>
+        <v>0.2373941847626058</v>
       </c>
       <c r="H120" s="5">
-        <v>48.8714620598866</v>
+        <v>44.07195436142805</v>
       </c>
       <c r="I120" s="3">
-        <v>115481</v>
+        <v>3989</v>
       </c>
       <c r="J120" s="4">
-        <v>0.5999618948644669</v>
+        <v>0.5766740952987371</v>
       </c>
       <c r="K120" s="3">
-        <v>115481</v>
+        <v>3989</v>
       </c>
       <c r="L120" s="3">
-        <v>111664</v>
+        <v>3957</v>
       </c>
       <c r="M120" s="3">
-        <v>109656</v>
+        <v>3877</v>
       </c>
       <c r="N120" s="3">
-        <v>2008</v>
+        <v>80</v>
       </c>
       <c r="O120" s="3">
-        <v>3320</v>
+        <v>23</v>
       </c>
       <c r="P120" s="3">
-        <v>114984</v>
+        <v>3980</v>
       </c>
       <c r="Q120" s="4">
-        <v>0.971126417588534</v>
+        <v>0.9942211055276382</v>
       </c>
       <c r="R120" s="4">
-        <v>0.028873582411466</v>
+        <v>0.005778894472361742</v>
       </c>
       <c r="S120" s="3">
-        <v>497</v>
+        <v>9</v>
       </c>
       <c r="T120" s="3">
-        <v>107490</v>
+        <v>3949</v>
       </c>
       <c r="U120" s="3">
-        <v>4174</v>
+        <v>8</v>
       </c>
       <c r="V120" s="3">
-        <v>800</v>
+        <v>3</v>
       </c>
       <c r="W120" s="4">
-        <v>0.9557725138711054</v>
+        <v>0.9972222222222222</v>
       </c>
       <c r="X120" s="5">
-        <v>146.7477657401328</v>
+        <v>136.2754707247872</v>
       </c>
       <c r="Y120" s="5">
-        <v>13.05994200043773</v>
+        <v>3.765282434872324</v>
       </c>
       <c r="Z120" s="3">
-        <v>6886</v>
+        <v>197</v>
       </c>
       <c r="AA120" s="5">
         <v>60</v>
       </c>
       <c r="AB120" s="3">
-        <v>6806</v>
+        <v>197</v>
       </c>
       <c r="AC120" s="4">
-        <v>0.98838222480395</v>
+        <v>1</v>
       </c>
       <c r="AD120" s="3">
-        <v>615</v>
+        <v>20</v>
       </c>
       <c r="AE120" s="5">
         <v>45</v>
       </c>
       <c r="AF120" s="3">
-        <v>615</v>
+        <v>20</v>
       </c>
       <c r="AG120" s="4">
         <v>1</v>
       </c>
       <c r="AH120" s="3">
-        <v>462</v>
+        <v>8</v>
       </c>
       <c r="AI120" s="5">
         <v>30</v>
       </c>
       <c r="AJ120" s="3">
-        <v>459</v>
+        <v>8</v>
       </c>
       <c r="AK120" s="4">
-        <v>0.9935064935064937</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:37">
-      <c r="A121" s="3" t="s">
-        <v>36</v>
+      <c r="A121" s="2">
+        <v>45930</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C121" s="3">
-        <v>207549</v>
+        <v>6700</v>
       </c>
       <c r="D121" s="3">
-        <v>91135</v>
+        <v>3030</v>
       </c>
       <c r="E121" s="3">
-        <v>30890</v>
+        <v>1054</v>
       </c>
       <c r="F121" s="3">
-        <v>60245</v>
+        <v>1976</v>
       </c>
       <c r="G121" s="4">
-        <v>0.3389477149284029</v>
+        <v>0.3478547854785479</v>
       </c>
       <c r="H121" s="5">
-        <v>27.99701541668952</v>
+        <v>29.45379537953795</v>
       </c>
       <c r="I121" s="3">
-        <v>116414</v>
+        <v>3670</v>
       </c>
       <c r="J121" s="4">
-        <v>0.4391011279264173</v>
+        <v>0.4522388059701493</v>
       </c>
       <c r="K121" s="3">
-        <v>116414</v>
+        <v>3670</v>
       </c>
       <c r="L121" s="3">
-        <v>111145</v>
+        <v>3631</v>
       </c>
       <c r="M121" s="3">
-        <v>108865</v>
+        <v>3575</v>
       </c>
       <c r="N121" s="3">
-        <v>2280</v>
+        <v>56</v>
       </c>
       <c r="O121" s="3">
-        <v>4585</v>
+        <v>32</v>
       </c>
       <c r="P121" s="3">
-        <v>115730</v>
+        <v>3663</v>
       </c>
       <c r="Q121" s="4">
-        <v>0.9603819234424955</v>
+        <v>0.9912639912639912</v>
       </c>
       <c r="R121" s="4">
-        <v>0.03961807655750448</v>
+        <v>0.008736008736008785</v>
       </c>
       <c r="S121" s="3">
-        <v>684</v>
+        <v>7</v>
       </c>
       <c r="T121" s="3">
-        <v>109214</v>
+        <v>3616</v>
       </c>
       <c r="U121" s="3">
-        <v>1931</v>
+        <v>15</v>
       </c>
       <c r="V121" s="3">
-        <v>1468</v>
+        <v>11</v>
       </c>
       <c r="W121" s="4">
-        <v>0.9698169838295756</v>
+        <v>0.9928610653487095</v>
       </c>
       <c r="X121" s="5">
-        <v>136.6652551325035</v>
+        <v>129.0965034965035</v>
       </c>
       <c r="Y121" s="5">
-        <v>9.070738988655675</v>
+        <v>3.59944055944056</v>
       </c>
       <c r="Z121" s="3">
-        <v>7838</v>
+        <v>233</v>
       </c>
       <c r="AA121" s="5">
         <v>60</v>
       </c>
       <c r="AB121" s="3">
-        <v>7761</v>
+        <v>233</v>
       </c>
       <c r="AC121" s="4">
-        <v>0.9901760653227865</v>
+        <v>1</v>
       </c>
       <c r="AD121" s="3">
-        <v>110</v>
+        <v>1</v>
       </c>
       <c r="AE121" s="5">
         <v>45</v>
       </c>
       <c r="AF121" s="3">
-        <v>110</v>
+        <v>1</v>
       </c>
       <c r="AG121" s="4">
         <v>1</v>
       </c>
       <c r="AH121" s="3">
-        <v>150</v>
+        <v>3</v>
       </c>
       <c r="AI121" s="5">
         <v>30</v>
       </c>
       <c r="AJ121" s="3">
-        <v>150</v>
+        <v>3</v>
       </c>
       <c r="AK121" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:37">
+      <c r="A122" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C122" s="3">
+        <v>12194</v>
+      </c>
+      <c r="D122" s="3">
+        <v>5445</v>
+      </c>
+      <c r="E122" s="3">
+        <v>106</v>
+      </c>
+      <c r="F122" s="3">
+        <v>5339</v>
+      </c>
+      <c r="G122" s="4">
+        <v>0.0194674012855831</v>
+      </c>
+      <c r="H122" s="5">
+        <v>57.73149678604224</v>
+      </c>
+      <c r="I122" s="3">
+        <v>6749</v>
+      </c>
+      <c r="J122" s="4">
+        <v>0.446531080859439</v>
+      </c>
+      <c r="K122" s="3">
+        <v>6749</v>
+      </c>
+      <c r="L122" s="3">
+        <v>6550</v>
+      </c>
+      <c r="M122" s="3">
+        <v>6294</v>
+      </c>
+      <c r="N122" s="3">
+        <v>256</v>
+      </c>
+      <c r="O122" s="3">
+        <v>149</v>
+      </c>
+      <c r="P122" s="3">
+        <v>6699</v>
+      </c>
+      <c r="Q122" s="4">
+        <v>0.9777578743095985</v>
+      </c>
+      <c r="R122" s="4">
+        <v>0.02224212569040148</v>
+      </c>
+      <c r="S122" s="3">
+        <v>50</v>
+      </c>
+      <c r="T122" s="3">
+        <v>6493</v>
+      </c>
+      <c r="U122" s="3">
+        <v>57</v>
+      </c>
+      <c r="V122" s="3">
+        <v>43</v>
+      </c>
+      <c r="W122" s="4">
+        <v>0.9848323979978766</v>
+      </c>
+      <c r="X122" s="5">
+        <v>143.626310772164</v>
+      </c>
+      <c r="Y122" s="5">
+        <v>7.818239593263425</v>
+      </c>
+      <c r="Z122" s="3">
+        <v>340</v>
+      </c>
+      <c r="AA122" s="5">
+        <v>60</v>
+      </c>
+      <c r="AB122" s="3">
+        <v>337</v>
+      </c>
+      <c r="AC122" s="4">
+        <v>0.9911764705882353</v>
+      </c>
+      <c r="AD122" s="3">
+        <v>32</v>
+      </c>
+      <c r="AE122" s="5">
+        <v>45</v>
+      </c>
+      <c r="AF122" s="3">
+        <v>32</v>
+      </c>
+      <c r="AG122" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH122" s="3">
+        <v>49</v>
+      </c>
+      <c r="AI122" s="5">
+        <v>30</v>
+      </c>
+      <c r="AJ122" s="3">
+        <v>49</v>
+      </c>
+      <c r="AK122" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:37">
+      <c r="A123" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C123" s="3">
+        <v>7544</v>
+      </c>
+      <c r="D123" s="3">
+        <v>3620</v>
+      </c>
+      <c r="E123" s="3">
+        <v>171</v>
+      </c>
+      <c r="F123" s="3">
+        <v>3449</v>
+      </c>
+      <c r="G123" s="4">
+        <v>0.04723756906077348</v>
+      </c>
+      <c r="H123" s="5">
+        <v>63.13867403314917</v>
+      </c>
+      <c r="I123" s="3">
+        <v>3924</v>
+      </c>
+      <c r="J123" s="4">
+        <v>0.4798515376458112</v>
+      </c>
+      <c r="K123" s="3">
+        <v>3924</v>
+      </c>
+      <c r="L123" s="3">
+        <v>3800</v>
+      </c>
+      <c r="M123" s="3">
+        <v>3678</v>
+      </c>
+      <c r="N123" s="3">
+        <v>122</v>
+      </c>
+      <c r="O123" s="3">
+        <v>102</v>
+      </c>
+      <c r="P123" s="3">
+        <v>3902</v>
+      </c>
+      <c r="Q123" s="4">
+        <v>0.97385955920041</v>
+      </c>
+      <c r="R123" s="4">
+        <v>0.02614044079959001</v>
+      </c>
+      <c r="S123" s="3">
+        <v>22</v>
+      </c>
+      <c r="T123" s="3">
+        <v>3711</v>
+      </c>
+      <c r="U123" s="3">
+        <v>89</v>
+      </c>
+      <c r="V123" s="3">
+        <v>34</v>
+      </c>
+      <c r="W123" s="4">
+        <v>0.9679186228482003</v>
+      </c>
+      <c r="X123" s="5">
+        <v>106.3708537248505</v>
+      </c>
+      <c r="Y123" s="5">
+        <v>12.12969004893964</v>
+      </c>
+      <c r="Z123" s="3">
+        <v>206</v>
+      </c>
+      <c r="AA123" s="5">
+        <v>60</v>
+      </c>
+      <c r="AB123" s="3">
+        <v>204</v>
+      </c>
+      <c r="AC123" s="4">
+        <v>0.9902912621359223</v>
+      </c>
+      <c r="AD123" s="3">
+        <v>15</v>
+      </c>
+      <c r="AE123" s="5">
+        <v>45</v>
+      </c>
+      <c r="AF123" s="3">
+        <v>15</v>
+      </c>
+      <c r="AG123" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH123" s="3">
+        <v>21</v>
+      </c>
+      <c r="AI123" s="5">
+        <v>30</v>
+      </c>
+      <c r="AJ123" s="3">
+        <v>21</v>
+      </c>
+      <c r="AK123" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:37">
+      <c r="A124" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C124" s="3">
+        <v>298098</v>
+      </c>
+      <c r="D124" s="3">
+        <v>178628</v>
+      </c>
+      <c r="E124" s="3">
+        <v>40985</v>
+      </c>
+      <c r="F124" s="3">
+        <v>137643</v>
+      </c>
+      <c r="G124" s="4">
+        <v>0.2294433123586448</v>
+      </c>
+      <c r="H124" s="5">
+        <v>48.72545737510357</v>
+      </c>
+      <c r="I124" s="3">
+        <v>119470</v>
+      </c>
+      <c r="J124" s="4">
+        <v>0.5992257579722104</v>
+      </c>
+      <c r="K124" s="3">
+        <v>119470</v>
+      </c>
+      <c r="L124" s="3">
+        <v>115621</v>
+      </c>
+      <c r="M124" s="3">
+        <v>113533</v>
+      </c>
+      <c r="N124" s="3">
+        <v>2088</v>
+      </c>
+      <c r="O124" s="3">
+        <v>3343</v>
+      </c>
+      <c r="P124" s="3">
+        <v>118964</v>
+      </c>
+      <c r="Q124" s="4">
+        <v>0.9718990619010793</v>
+      </c>
+      <c r="R124" s="4">
+        <v>0.02810093809892067</v>
+      </c>
+      <c r="S124" s="3">
+        <v>506</v>
+      </c>
+      <c r="T124" s="3">
+        <v>111439</v>
+      </c>
+      <c r="U124" s="3">
+        <v>4182</v>
+      </c>
+      <c r="V124" s="3">
+        <v>803</v>
+      </c>
+      <c r="W124" s="4">
+        <v>0.9571823678966536</v>
+      </c>
+      <c r="X124" s="5">
+        <v>146.3901508812416</v>
+      </c>
+      <c r="Y124" s="5">
+        <v>12.74254181603587</v>
+      </c>
+      <c r="Z124" s="3">
+        <v>7083</v>
+      </c>
+      <c r="AA124" s="5">
+        <v>60</v>
+      </c>
+      <c r="AB124" s="3">
+        <v>7003</v>
+      </c>
+      <c r="AC124" s="4">
+        <v>0.9887053508400395</v>
+      </c>
+      <c r="AD124" s="3">
+        <v>635</v>
+      </c>
+      <c r="AE124" s="5">
+        <v>45</v>
+      </c>
+      <c r="AF124" s="3">
+        <v>635</v>
+      </c>
+      <c r="AG124" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH124" s="3">
+        <v>470</v>
+      </c>
+      <c r="AI124" s="5">
+        <v>30</v>
+      </c>
+      <c r="AJ124" s="3">
+        <v>467</v>
+      </c>
+      <c r="AK124" s="4">
+        <v>0.9936170212765958</v>
+      </c>
+    </row>
+    <row r="125" spans="1:37">
+      <c r="A125" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C125" s="3">
+        <v>214249</v>
+      </c>
+      <c r="D125" s="3">
+        <v>94165</v>
+      </c>
+      <c r="E125" s="3">
+        <v>31944</v>
+      </c>
+      <c r="F125" s="3">
+        <v>62221</v>
+      </c>
+      <c r="G125" s="4">
+        <v>0.3392343227313758</v>
+      </c>
+      <c r="H125" s="5">
+        <v>28.04389104231933</v>
+      </c>
+      <c r="I125" s="3">
+        <v>120084</v>
+      </c>
+      <c r="J125" s="4">
+        <v>0.4395119697174782</v>
+      </c>
+      <c r="K125" s="3">
+        <v>120084</v>
+      </c>
+      <c r="L125" s="3">
+        <v>114776</v>
+      </c>
+      <c r="M125" s="3">
+        <v>112440</v>
+      </c>
+      <c r="N125" s="3">
+        <v>2336</v>
+      </c>
+      <c r="O125" s="3">
+        <v>4617</v>
+      </c>
+      <c r="P125" s="3">
+        <v>119393</v>
+      </c>
+      <c r="Q125" s="4">
+        <v>0.9613293911703367</v>
+      </c>
+      <c r="R125" s="4">
+        <v>0.03867060882966328</v>
+      </c>
+      <c r="S125" s="3">
+        <v>691</v>
+      </c>
+      <c r="T125" s="3">
+        <v>112830</v>
+      </c>
+      <c r="U125" s="3">
+        <v>1946</v>
+      </c>
+      <c r="V125" s="3">
+        <v>1479</v>
+      </c>
+      <c r="W125" s="4">
+        <v>0.9705389015526213</v>
+      </c>
+      <c r="X125" s="5">
+        <v>136.424608680185</v>
+      </c>
+      <c r="Y125" s="5">
+        <v>8.896780505158306</v>
+      </c>
+      <c r="Z125" s="3">
+        <v>8071</v>
+      </c>
+      <c r="AA125" s="5">
+        <v>60</v>
+      </c>
+      <c r="AB125" s="3">
+        <v>7994</v>
+      </c>
+      <c r="AC125" s="4">
+        <v>0.9904596704249784</v>
+      </c>
+      <c r="AD125" s="3">
+        <v>111</v>
+      </c>
+      <c r="AE125" s="5">
+        <v>45</v>
+      </c>
+      <c r="AF125" s="3">
+        <v>111</v>
+      </c>
+      <c r="AG125" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH125" s="3">
+        <v>153</v>
+      </c>
+      <c r="AI125" s="5">
+        <v>30</v>
+      </c>
+      <c r="AJ125" s="3">
+        <v>153</v>
+      </c>
+      <c r="AK125" s="4">
         <v>1</v>
       </c>
     </row>
@@ -54465,13 +56272,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD25"/>
+  <dimension ref="A1:AE25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:31">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -54562,8 +56369,11 @@
       <c r="AD1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="2" spans="1:30">
+      <c r="AE1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31">
       <c r="A2">
         <v>0</v>
       </c>
@@ -54654,8 +56464,11 @@
       <c r="AD2">
         <v>128</v>
       </c>
-    </row>
-    <row r="3" spans="1:30">
+      <c r="AE2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31">
       <c r="A3">
         <v>1</v>
       </c>
@@ -54746,8 +56559,11 @@
       <c r="AD3">
         <v>72</v>
       </c>
-    </row>
-    <row r="4" spans="1:30">
+      <c r="AE3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31">
       <c r="A4">
         <v>2</v>
       </c>
@@ -54838,8 +56654,11 @@
       <c r="AD4">
         <v>39</v>
       </c>
-    </row>
-    <row r="5" spans="1:30">
+      <c r="AE4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31">
       <c r="A5">
         <v>3</v>
       </c>
@@ -54930,8 +56749,11 @@
       <c r="AD5">
         <v>38</v>
       </c>
-    </row>
-    <row r="6" spans="1:30">
+      <c r="AE5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31">
       <c r="A6">
         <v>4</v>
       </c>
@@ -55022,8 +56844,11 @@
       <c r="AD6">
         <v>39</v>
       </c>
-    </row>
-    <row r="7" spans="1:30">
+      <c r="AE6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31">
       <c r="A7">
         <v>5</v>
       </c>
@@ -55114,8 +56939,11 @@
       <c r="AD7">
         <v>76</v>
       </c>
-    </row>
-    <row r="8" spans="1:30">
+      <c r="AE7">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31">
       <c r="A8">
         <v>6</v>
       </c>
@@ -55203,8 +57031,11 @@
       <c r="AD8">
         <v>255</v>
       </c>
-    </row>
-    <row r="9" spans="1:30">
+      <c r="AE8">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31">
       <c r="A9">
         <v>7</v>
       </c>
@@ -55295,8 +57126,11 @@
       <c r="AD9">
         <v>514</v>
       </c>
-    </row>
-    <row r="10" spans="1:30">
+      <c r="AE9">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31">
       <c r="A10">
         <v>8</v>
       </c>
@@ -55387,8 +57221,11 @@
       <c r="AD10">
         <v>640</v>
       </c>
-    </row>
-    <row r="11" spans="1:30">
+      <c r="AE10">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31">
       <c r="A11">
         <v>9</v>
       </c>
@@ -55479,8 +57316,11 @@
       <c r="AD11">
         <v>1056</v>
       </c>
-    </row>
-    <row r="12" spans="1:30">
+      <c r="AE11">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31">
       <c r="A12">
         <v>10</v>
       </c>
@@ -55571,8 +57411,11 @@
       <c r="AD12">
         <v>1439</v>
       </c>
-    </row>
-    <row r="13" spans="1:30">
+      <c r="AE12">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31">
       <c r="A13">
         <v>11</v>
       </c>
@@ -55660,8 +57503,11 @@
       <c r="AD13">
         <v>1369</v>
       </c>
-    </row>
-    <row r="14" spans="1:30">
+      <c r="AE13">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31">
       <c r="A14">
         <v>12</v>
       </c>
@@ -55752,8 +57598,11 @@
       <c r="AD14">
         <v>1241</v>
       </c>
-    </row>
-    <row r="15" spans="1:30">
+      <c r="AE14">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31">
       <c r="A15">
         <v>13</v>
       </c>
@@ -55844,8 +57693,11 @@
       <c r="AD15">
         <v>1148</v>
       </c>
-    </row>
-    <row r="16" spans="1:30">
+      <c r="AE15">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31">
       <c r="A16">
         <v>14</v>
       </c>
@@ -55936,8 +57788,11 @@
       <c r="AD16">
         <v>1160</v>
       </c>
-    </row>
-    <row r="17" spans="1:30">
+      <c r="AE16">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31">
       <c r="A17">
         <v>15</v>
       </c>
@@ -56028,8 +57883,11 @@
       <c r="AD17">
         <v>1102</v>
       </c>
-    </row>
-    <row r="18" spans="1:30">
+      <c r="AE17">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31">
       <c r="A18">
         <v>16</v>
       </c>
@@ -56120,8 +57978,11 @@
       <c r="AD18">
         <v>1189</v>
       </c>
-    </row>
-    <row r="19" spans="1:30">
+      <c r="AE18">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31">
       <c r="A19">
         <v>17</v>
       </c>
@@ -56212,8 +58073,11 @@
       <c r="AD19">
         <v>1046</v>
       </c>
-    </row>
-    <row r="20" spans="1:30">
+      <c r="AE19">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31">
       <c r="A20">
         <v>18</v>
       </c>
@@ -56304,8 +58168,11 @@
       <c r="AD20">
         <v>1070</v>
       </c>
-    </row>
-    <row r="21" spans="1:30">
+      <c r="AE20">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31">
       <c r="A21">
         <v>19</v>
       </c>
@@ -56396,8 +58263,11 @@
       <c r="AD21">
         <v>1290</v>
       </c>
-    </row>
-    <row r="22" spans="1:30">
+      <c r="AE21">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31">
       <c r="A22">
         <v>20</v>
       </c>
@@ -56488,8 +58358,11 @@
       <c r="AD22">
         <v>1162</v>
       </c>
-    </row>
-    <row r="23" spans="1:30">
+      <c r="AE22">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31">
       <c r="A23">
         <v>21</v>
       </c>
@@ -56580,8 +58453,11 @@
       <c r="AD23">
         <v>883</v>
       </c>
-    </row>
-    <row r="24" spans="1:30">
+      <c r="AE23">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31">
       <c r="A24">
         <v>22</v>
       </c>
@@ -56672,8 +58548,11 @@
       <c r="AD24">
         <v>541</v>
       </c>
-    </row>
-    <row r="25" spans="1:30">
+      <c r="AE24">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31">
       <c r="A25">
         <v>23</v>
       </c>
@@ -56764,9 +58643,12 @@
       <c r="AD25">
         <v>308</v>
       </c>
+      <c r="AE25">
+        <v>235</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:AD25">
+  <conditionalFormatting sqref="B2:AE25">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -56784,13 +58666,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD25"/>
+  <dimension ref="A1:AE25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:31">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -56881,8 +58763,11 @@
       <c r="AD1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="2" spans="1:30">
+      <c r="AE1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31">
       <c r="A2">
         <v>0</v>
       </c>
@@ -56973,8 +58858,11 @@
       <c r="AD2">
         <v>93</v>
       </c>
-    </row>
-    <row r="3" spans="1:30">
+      <c r="AE2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31">
       <c r="A3">
         <v>1</v>
       </c>
@@ -57065,8 +58953,11 @@
       <c r="AD3">
         <v>83</v>
       </c>
-    </row>
-    <row r="4" spans="1:30">
+      <c r="AE3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31">
       <c r="A4">
         <v>2</v>
       </c>
@@ -57157,8 +59048,11 @@
       <c r="AD4">
         <v>75</v>
       </c>
-    </row>
-    <row r="5" spans="1:30">
+      <c r="AE4">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31">
       <c r="A5">
         <v>3</v>
       </c>
@@ -57246,8 +59140,11 @@
       <c r="AD5">
         <v>83</v>
       </c>
-    </row>
-    <row r="6" spans="1:30">
+      <c r="AE5">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31">
       <c r="A6">
         <v>4</v>
       </c>
@@ -57338,8 +59235,11 @@
       <c r="AD6">
         <v>90</v>
       </c>
-    </row>
-    <row r="7" spans="1:30">
+      <c r="AE6">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31">
       <c r="A7">
         <v>5</v>
       </c>
@@ -57430,8 +59330,11 @@
       <c r="AD7">
         <v>119</v>
       </c>
-    </row>
-    <row r="8" spans="1:30">
+      <c r="AE7">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31">
       <c r="A8">
         <v>6</v>
       </c>
@@ -57519,8 +59422,11 @@
       <c r="AD8">
         <v>123</v>
       </c>
-    </row>
-    <row r="9" spans="1:30">
+      <c r="AE8">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31">
       <c r="A9">
         <v>7</v>
       </c>
@@ -57611,8 +59517,11 @@
       <c r="AD9">
         <v>131</v>
       </c>
-    </row>
-    <row r="10" spans="1:30">
+      <c r="AE9">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31">
       <c r="A10">
         <v>8</v>
       </c>
@@ -57703,8 +59612,11 @@
       <c r="AD10">
         <v>124</v>
       </c>
-    </row>
-    <row r="11" spans="1:30">
+      <c r="AE10">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31">
       <c r="A11">
         <v>9</v>
       </c>
@@ -57795,8 +59707,11 @@
       <c r="AD11">
         <v>131</v>
       </c>
-    </row>
-    <row r="12" spans="1:30">
+      <c r="AE11">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31">
       <c r="A12">
         <v>10</v>
       </c>
@@ -57887,8 +59802,11 @@
       <c r="AD12">
         <v>127</v>
       </c>
-    </row>
-    <row r="13" spans="1:30">
+      <c r="AE12">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31">
       <c r="A13">
         <v>11</v>
       </c>
@@ -57976,8 +59894,11 @@
       <c r="AD13">
         <v>123</v>
       </c>
-    </row>
-    <row r="14" spans="1:30">
+      <c r="AE13">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31">
       <c r="A14">
         <v>12</v>
       </c>
@@ -58068,8 +59989,11 @@
       <c r="AD14">
         <v>120</v>
       </c>
-    </row>
-    <row r="15" spans="1:30">
+      <c r="AE14">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31">
       <c r="A15">
         <v>13</v>
       </c>
@@ -58160,8 +60084,11 @@
       <c r="AD15">
         <v>120</v>
       </c>
-    </row>
-    <row r="16" spans="1:30">
+      <c r="AE15">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31">
       <c r="A16">
         <v>14</v>
       </c>
@@ -58252,8 +60179,11 @@
       <c r="AD16">
         <v>129</v>
       </c>
-    </row>
-    <row r="17" spans="1:30">
+      <c r="AE16">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31">
       <c r="A17">
         <v>15</v>
       </c>
@@ -58344,8 +60274,11 @@
       <c r="AD17">
         <v>131</v>
       </c>
-    </row>
-    <row r="18" spans="1:30">
+      <c r="AE17">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31">
       <c r="A18">
         <v>16</v>
       </c>
@@ -58436,8 +60369,11 @@
       <c r="AD18">
         <v>141</v>
       </c>
-    </row>
-    <row r="19" spans="1:30">
+      <c r="AE18">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31">
       <c r="A19">
         <v>17</v>
       </c>
@@ -58528,8 +60464,11 @@
       <c r="AD19">
         <v>139</v>
       </c>
-    </row>
-    <row r="20" spans="1:30">
+      <c r="AE19">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31">
       <c r="A20">
         <v>18</v>
       </c>
@@ -58620,8 +60559,11 @@
       <c r="AD20">
         <v>139</v>
       </c>
-    </row>
-    <row r="21" spans="1:30">
+      <c r="AE20">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31">
       <c r="A21">
         <v>19</v>
       </c>
@@ -58712,8 +60654,11 @@
       <c r="AD21">
         <v>128</v>
       </c>
-    </row>
-    <row r="22" spans="1:30">
+      <c r="AE21">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31">
       <c r="A22">
         <v>20</v>
       </c>
@@ -58804,8 +60749,11 @@
       <c r="AD22">
         <v>132</v>
       </c>
-    </row>
-    <row r="23" spans="1:30">
+      <c r="AE22">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31">
       <c r="A23">
         <v>21</v>
       </c>
@@ -58896,8 +60844,11 @@
       <c r="AD23">
         <v>138</v>
       </c>
-    </row>
-    <row r="24" spans="1:30">
+      <c r="AE23">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31">
       <c r="A24">
         <v>22</v>
       </c>
@@ -58988,8 +60939,11 @@
       <c r="AD24">
         <v>142</v>
       </c>
-    </row>
-    <row r="25" spans="1:30">
+      <c r="AE24">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31">
       <c r="A25">
         <v>23</v>
       </c>
@@ -59080,9 +61034,12 @@
       <c r="AD25">
         <v>133</v>
       </c>
+      <c r="AE25">
+        <v>132</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:AD25">
+  <conditionalFormatting sqref="B2:AE25">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>

--- a/Result.xlsx
+++ b/Result.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="54">
   <si>
     <t>Date</t>
   </si>
@@ -177,6 +177,12 @@
   </si>
   <si>
     <t>2025-10-05</t>
+  </si>
+  <si>
+    <t>2025-10-06</t>
+  </si>
+  <si>
+    <t>2025-10-07</t>
   </si>
 </sst>
 </file>
@@ -574,7 +580,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ7"/>
+  <dimension ref="A1:AJ9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1244,86 +1250,86 @@
       </c>
     </row>
     <row r="7" spans="1:36">
-      <c r="A7" s="3" t="s">
-        <v>36</v>
+      <c r="A7" s="2">
+        <v>45936</v>
       </c>
       <c r="B7" s="3">
-        <v>80626</v>
+        <v>18417</v>
       </c>
       <c r="C7" s="3">
-        <v>42626</v>
+        <v>9586</v>
       </c>
       <c r="D7" s="3">
-        <v>11604</v>
+        <v>2502</v>
       </c>
       <c r="E7" s="3">
-        <v>31022</v>
+        <v>7084</v>
       </c>
       <c r="F7" s="4">
-        <v>0.2722282175198236</v>
+        <v>0.2610056332151053</v>
       </c>
       <c r="G7" s="5">
-        <v>39.43297517946793</v>
+        <v>38.83100354683914</v>
       </c>
       <c r="H7" s="3">
-        <v>38000</v>
+        <v>8831</v>
       </c>
       <c r="I7" s="4">
-        <v>0.5286880162726664</v>
+        <v>0.5204973665635011</v>
       </c>
       <c r="J7" s="3">
-        <v>38000</v>
+        <v>8831</v>
       </c>
       <c r="K7" s="3">
-        <v>37938</v>
+        <v>8811</v>
       </c>
       <c r="L7" s="3">
-        <v>37494</v>
+        <v>8693</v>
       </c>
       <c r="M7" s="3">
-        <v>36727</v>
+        <v>8540</v>
       </c>
       <c r="N7" s="3">
-        <v>767</v>
+        <v>153</v>
       </c>
       <c r="O7" s="4">
-        <v>0.9882966946069903</v>
+        <v>0.9866076495289978</v>
       </c>
       <c r="P7" s="3">
-        <v>444</v>
+        <v>118</v>
       </c>
       <c r="Q7" s="4">
-        <v>0.01170330539300963</v>
+        <v>0.01339235047100217</v>
       </c>
       <c r="R7" s="3">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="S7" s="3">
-        <v>37165</v>
+        <v>8610</v>
       </c>
       <c r="T7" s="3">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="U7" s="3">
-        <v>329</v>
+        <v>83</v>
       </c>
       <c r="V7" s="4">
-        <v>0.9887464084282217</v>
+        <v>0.9886324491904926</v>
       </c>
       <c r="W7" s="5">
-        <v>133.1317287009557</v>
+        <v>130.5896955503513</v>
       </c>
       <c r="X7" s="5">
-        <v>5.712173605249544</v>
+        <v>7.065339578454332</v>
       </c>
       <c r="Y7" s="3">
-        <v>2234</v>
+        <v>580</v>
       </c>
       <c r="Z7" s="3">
-        <v>108</v>
+        <v>22</v>
       </c>
       <c r="AA7" s="3">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="AB7" s="5">
         <v>60</v>
@@ -1335,21 +1341,241 @@
         <v>30</v>
       </c>
       <c r="AE7" s="3">
-        <v>2225</v>
+        <v>576</v>
       </c>
       <c r="AF7" s="3">
-        <v>108</v>
+        <v>22</v>
       </c>
       <c r="AG7" s="3">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="AH7" s="4">
-        <v>0.9959713518352732</v>
+        <v>0.9931034482758621</v>
       </c>
       <c r="AI7" s="4">
         <v>1</v>
       </c>
       <c r="AJ7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36">
+      <c r="A8" s="2">
+        <v>45937</v>
+      </c>
+      <c r="B8" s="3">
+        <v>18265</v>
+      </c>
+      <c r="C8" s="3">
+        <v>9581</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2558</v>
+      </c>
+      <c r="E8" s="3">
+        <v>7023</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.2669867445986849</v>
+      </c>
+      <c r="G8" s="5">
+        <v>38.80492641686671</v>
+      </c>
+      <c r="H8" s="3">
+        <v>8684</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0.5245551601423487</v>
+      </c>
+      <c r="J8" s="3">
+        <v>8684</v>
+      </c>
+      <c r="K8" s="3">
+        <v>8662</v>
+      </c>
+      <c r="L8" s="3">
+        <v>8413</v>
+      </c>
+      <c r="M8" s="3">
+        <v>8304</v>
+      </c>
+      <c r="N8" s="3">
+        <v>109</v>
+      </c>
+      <c r="O8" s="4">
+        <v>0.9712537520203186</v>
+      </c>
+      <c r="P8" s="3">
+        <v>249</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>0.02874624797968138</v>
+      </c>
+      <c r="R8" s="3">
+        <v>22</v>
+      </c>
+      <c r="S8" s="3">
+        <v>8297</v>
+      </c>
+      <c r="T8" s="3">
+        <v>94</v>
+      </c>
+      <c r="U8" s="3">
+        <v>116</v>
+      </c>
+      <c r="V8" s="4">
+        <v>0.9753144469260608</v>
+      </c>
+      <c r="W8" s="5">
+        <v>127.9537572254335</v>
+      </c>
+      <c r="X8" s="5">
+        <v>7.087668593448941</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>504</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>21</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>10</v>
+      </c>
+      <c r="AB8" s="5">
+        <v>60</v>
+      </c>
+      <c r="AC8" s="5">
+        <v>45</v>
+      </c>
+      <c r="AD8" s="5">
+        <v>30</v>
+      </c>
+      <c r="AE8" s="3">
+        <v>504</v>
+      </c>
+      <c r="AF8" s="3">
+        <v>21</v>
+      </c>
+      <c r="AG8" s="3">
+        <v>10</v>
+      </c>
+      <c r="AH8" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI8" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36">
+      <c r="A9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="3">
+        <v>117308</v>
+      </c>
+      <c r="C9" s="3">
+        <v>61793</v>
+      </c>
+      <c r="D9" s="3">
+        <v>16664</v>
+      </c>
+      <c r="E9" s="3">
+        <v>45129</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.2696745586069619</v>
+      </c>
+      <c r="G9" s="5">
+        <v>39.24221190102439</v>
+      </c>
+      <c r="H9" s="3">
+        <v>55515</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0.5267586183380503</v>
+      </c>
+      <c r="J9" s="3">
+        <v>55515</v>
+      </c>
+      <c r="K9" s="3">
+        <v>55411</v>
+      </c>
+      <c r="L9" s="3">
+        <v>54600</v>
+      </c>
+      <c r="M9" s="3">
+        <v>53571</v>
+      </c>
+      <c r="N9" s="3">
+        <v>1029</v>
+      </c>
+      <c r="O9" s="4">
+        <v>0.9853639169118044</v>
+      </c>
+      <c r="P9" s="3">
+        <v>811</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>0.01463608308819559</v>
+      </c>
+      <c r="R9" s="3">
+        <v>104</v>
+      </c>
+      <c r="S9" s="3">
+        <v>54072</v>
+      </c>
+      <c r="T9" s="3">
+        <v>204</v>
+      </c>
+      <c r="U9" s="3">
+        <v>528</v>
+      </c>
+      <c r="V9" s="4">
+        <v>0.9866433107072478</v>
+      </c>
+      <c r="W9" s="5">
+        <v>131.9238580575311</v>
+      </c>
+      <c r="X9" s="5">
+        <v>6.141102462153031</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>3318</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>151</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>103</v>
+      </c>
+      <c r="AB9" s="5">
+        <v>60</v>
+      </c>
+      <c r="AC9" s="5">
+        <v>45</v>
+      </c>
+      <c r="AD9" s="5">
+        <v>30</v>
+      </c>
+      <c r="AE9" s="3">
+        <v>3305</v>
+      </c>
+      <c r="AF9" s="3">
+        <v>151</v>
+      </c>
+      <c r="AG9" s="3">
+        <v>103</v>
+      </c>
+      <c r="AH9" s="4">
+        <v>0.9960819770946352</v>
+      </c>
+      <c r="AI9" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ9" s="4">
         <v>1</v>
       </c>
     </row>
@@ -1360,7 +1586,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ7"/>
+  <dimension ref="A1:AJ9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2030,86 +2256,86 @@
       </c>
     </row>
     <row r="7" spans="1:36">
-      <c r="A7" s="3" t="s">
-        <v>36</v>
+      <c r="A7" s="2">
+        <v>45936</v>
       </c>
       <c r="B7" s="3">
-        <v>46167</v>
+        <v>9846</v>
       </c>
       <c r="C7" s="3">
-        <v>26755</v>
+        <v>5755</v>
       </c>
       <c r="D7" s="3">
-        <v>6321</v>
+        <v>1310</v>
       </c>
       <c r="E7" s="3">
-        <v>20434</v>
+        <v>4445</v>
       </c>
       <c r="F7" s="4">
-        <v>0.2362549056251168</v>
+        <v>0.2276281494352737</v>
       </c>
       <c r="G7" s="5">
-        <v>44.28536722108017</v>
+        <v>44.40451781059948</v>
       </c>
       <c r="H7" s="3">
-        <v>19412</v>
+        <v>4091</v>
       </c>
       <c r="I7" s="4">
-        <v>0.5795265016137068</v>
+        <v>0.5845013203331302</v>
       </c>
       <c r="J7" s="3">
-        <v>19412</v>
+        <v>4091</v>
       </c>
       <c r="K7" s="3">
-        <v>19379</v>
+        <v>4083</v>
       </c>
       <c r="L7" s="3">
-        <v>19142</v>
+        <v>4027</v>
       </c>
       <c r="M7" s="3">
-        <v>18666</v>
+        <v>3961</v>
       </c>
       <c r="N7" s="3">
-        <v>476</v>
+        <v>66</v>
       </c>
       <c r="O7" s="4">
-        <v>0.9877702667836317</v>
+        <v>0.9862845946607887</v>
       </c>
       <c r="P7" s="3">
-        <v>237</v>
+        <v>56</v>
       </c>
       <c r="Q7" s="4">
-        <v>0.01222973321636829</v>
+        <v>0.01371540533921134</v>
       </c>
       <c r="R7" s="3">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="S7" s="3">
-        <v>18954</v>
+        <v>3977</v>
       </c>
       <c r="T7" s="3">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="U7" s="3">
-        <v>188</v>
+        <v>50</v>
       </c>
       <c r="V7" s="4">
-        <v>0.9877534003856376</v>
+        <v>0.9858701041150223</v>
       </c>
       <c r="W7" s="5">
-        <v>134.6293796207007</v>
+        <v>133.3963645544055</v>
       </c>
       <c r="X7" s="5">
-        <v>6.162059359262831</v>
+        <v>7.879323403181015</v>
       </c>
       <c r="Y7" s="3">
-        <v>1076</v>
+        <v>255</v>
       </c>
       <c r="Z7" s="3">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="AA7" s="3">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="AB7" s="5">
         <v>60</v>
@@ -2121,21 +2347,241 @@
         <v>30</v>
       </c>
       <c r="AE7" s="3">
-        <v>1072</v>
+        <v>252</v>
       </c>
       <c r="AF7" s="3">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="AG7" s="3">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="AH7" s="4">
-        <v>0.9962825278810409</v>
+        <v>0.9882352941176471</v>
       </c>
       <c r="AI7" s="4">
         <v>1</v>
       </c>
       <c r="AJ7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36">
+      <c r="A8" s="2">
+        <v>45937</v>
+      </c>
+      <c r="B8" s="3">
+        <v>9788</v>
+      </c>
+      <c r="C8" s="3">
+        <v>5766</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1326</v>
+      </c>
+      <c r="E8" s="3">
+        <v>4440</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.2299687825182102</v>
+      </c>
+      <c r="G8" s="5">
+        <v>43.87166146375304</v>
+      </c>
+      <c r="H8" s="3">
+        <v>4022</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0.5890886800163465</v>
+      </c>
+      <c r="J8" s="3">
+        <v>4022</v>
+      </c>
+      <c r="K8" s="3">
+        <v>4016</v>
+      </c>
+      <c r="L8" s="3">
+        <v>3974</v>
+      </c>
+      <c r="M8" s="3">
+        <v>3917</v>
+      </c>
+      <c r="N8" s="3">
+        <v>57</v>
+      </c>
+      <c r="O8" s="4">
+        <v>0.9895418326693227</v>
+      </c>
+      <c r="P8" s="3">
+        <v>42</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>0.01045816733067724</v>
+      </c>
+      <c r="R8" s="3">
+        <v>6</v>
+      </c>
+      <c r="S8" s="3">
+        <v>3947</v>
+      </c>
+      <c r="T8" s="3">
+        <v>18</v>
+      </c>
+      <c r="U8" s="3">
+        <v>27</v>
+      </c>
+      <c r="V8" s="4">
+        <v>0.9887274549098195</v>
+      </c>
+      <c r="W8" s="5">
+        <v>132.3426091396477</v>
+      </c>
+      <c r="X8" s="5">
+        <v>5.61092672964003</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>217</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>16</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>6</v>
+      </c>
+      <c r="AB8" s="5">
+        <v>60</v>
+      </c>
+      <c r="AC8" s="5">
+        <v>45</v>
+      </c>
+      <c r="AD8" s="5">
+        <v>30</v>
+      </c>
+      <c r="AE8" s="3">
+        <v>217</v>
+      </c>
+      <c r="AF8" s="3">
+        <v>16</v>
+      </c>
+      <c r="AG8" s="3">
+        <v>6</v>
+      </c>
+      <c r="AH8" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI8" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36">
+      <c r="A9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="3">
+        <v>65801</v>
+      </c>
+      <c r="C9" s="3">
+        <v>38276</v>
+      </c>
+      <c r="D9" s="3">
+        <v>8957</v>
+      </c>
+      <c r="E9" s="3">
+        <v>29319</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.234010868429303</v>
+      </c>
+      <c r="G9" s="5">
+        <v>44.24096039293552</v>
+      </c>
+      <c r="H9" s="3">
+        <v>27525</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0.5816932873360587</v>
+      </c>
+      <c r="J9" s="3">
+        <v>27525</v>
+      </c>
+      <c r="K9" s="3">
+        <v>27478</v>
+      </c>
+      <c r="L9" s="3">
+        <v>27143</v>
+      </c>
+      <c r="M9" s="3">
+        <v>26544</v>
+      </c>
+      <c r="N9" s="3">
+        <v>599</v>
+      </c>
+      <c r="O9" s="4">
+        <v>0.9878084285610307</v>
+      </c>
+      <c r="P9" s="3">
+        <v>335</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>0.01219157143896936</v>
+      </c>
+      <c r="R9" s="3">
+        <v>47</v>
+      </c>
+      <c r="S9" s="3">
+        <v>26878</v>
+      </c>
+      <c r="T9" s="3">
+        <v>72</v>
+      </c>
+      <c r="U9" s="3">
+        <v>265</v>
+      </c>
+      <c r="V9" s="4">
+        <v>0.9876171229101598</v>
+      </c>
+      <c r="W9" s="5">
+        <v>134.1079339963834</v>
+      </c>
+      <c r="X9" s="5">
+        <v>6.336987643158529</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>1548</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>119</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>79</v>
+      </c>
+      <c r="AB9" s="5">
+        <v>60</v>
+      </c>
+      <c r="AC9" s="5">
+        <v>45</v>
+      </c>
+      <c r="AD9" s="5">
+        <v>30</v>
+      </c>
+      <c r="AE9" s="3">
+        <v>1541</v>
+      </c>
+      <c r="AF9" s="3">
+        <v>119</v>
+      </c>
+      <c r="AG9" s="3">
+        <v>79</v>
+      </c>
+      <c r="AH9" s="4">
+        <v>0.9954780361757106</v>
+      </c>
+      <c r="AI9" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ9" s="4">
         <v>1</v>
       </c>
     </row>
@@ -2146,7 +2592,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ7"/>
+  <dimension ref="A1:AJ9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2816,86 +3262,86 @@
       </c>
     </row>
     <row r="7" spans="1:36">
-      <c r="A7" s="3" t="s">
-        <v>36</v>
+      <c r="A7" s="2">
+        <v>45936</v>
       </c>
       <c r="B7" s="3">
-        <v>20725</v>
+        <v>5403</v>
       </c>
       <c r="C7" s="3">
-        <v>10043</v>
+        <v>2493</v>
       </c>
       <c r="D7" s="3">
-        <v>3587</v>
+        <v>794</v>
       </c>
       <c r="E7" s="3">
-        <v>6456</v>
+        <v>1699</v>
       </c>
       <c r="F7" s="4">
-        <v>0.3571641939659465</v>
+        <v>0.3184917769755315</v>
       </c>
       <c r="G7" s="5">
-        <v>27.43612466394504</v>
+        <v>27.59245888487766</v>
       </c>
       <c r="H7" s="3">
-        <v>10682</v>
+        <v>2910</v>
       </c>
       <c r="I7" s="4">
-        <v>0.484583835946924</v>
+        <v>0.4614103275957801</v>
       </c>
       <c r="J7" s="3">
-        <v>10682</v>
+        <v>2910</v>
       </c>
       <c r="K7" s="3">
-        <v>10664</v>
+        <v>2902</v>
       </c>
       <c r="L7" s="3">
-        <v>10529</v>
+        <v>2855</v>
       </c>
       <c r="M7" s="3">
-        <v>10331</v>
+        <v>2789</v>
       </c>
       <c r="N7" s="3">
-        <v>198</v>
+        <v>66</v>
       </c>
       <c r="O7" s="4">
-        <v>0.9873405851462865</v>
+        <v>0.9838042729152309</v>
       </c>
       <c r="P7" s="3">
-        <v>135</v>
+        <v>47</v>
       </c>
       <c r="Q7" s="4">
-        <v>0.01265941485371343</v>
+        <v>0.01619572708476909</v>
       </c>
       <c r="R7" s="3">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="S7" s="3">
-        <v>10453</v>
+        <v>2841</v>
       </c>
       <c r="T7" s="3">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="U7" s="3">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="V7" s="4">
-        <v>0.9905240216052307</v>
+        <v>0.9930094372596995</v>
       </c>
       <c r="W7" s="5">
-        <v>125.0659181105411</v>
+        <v>122.2814628899247</v>
       </c>
       <c r="X7" s="5">
-        <v>5.075791307714645</v>
+        <v>6.067766224453209</v>
       </c>
       <c r="Y7" s="3">
-        <v>666</v>
+        <v>202</v>
       </c>
       <c r="Z7" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AA7" s="3">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="AB7" s="5">
         <v>60</v>
@@ -2907,21 +3353,241 @@
         <v>30</v>
       </c>
       <c r="AE7" s="3">
-        <v>663</v>
+        <v>201</v>
       </c>
       <c r="AF7" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AG7" s="3">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="AH7" s="4">
-        <v>0.9954954954954955</v>
+        <v>0.995049504950495</v>
       </c>
       <c r="AI7" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36">
+      <c r="A8" s="2">
+        <v>45937</v>
+      </c>
+      <c r="B8" s="3">
+        <v>5205</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2439</v>
+      </c>
+      <c r="D8" s="3">
+        <v>815</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1624</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.3341533415334153</v>
+      </c>
+      <c r="G8" s="5">
+        <v>26.81549815498155</v>
+      </c>
+      <c r="H8" s="3">
+        <v>2766</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0.4685878962536023</v>
+      </c>
+      <c r="J8" s="3">
+        <v>2766</v>
+      </c>
+      <c r="K8" s="3">
+        <v>2754</v>
+      </c>
+      <c r="L8" s="3">
+        <v>2596</v>
+      </c>
+      <c r="M8" s="3">
+        <v>2565</v>
+      </c>
+      <c r="N8" s="3">
+        <v>31</v>
+      </c>
+      <c r="O8" s="4">
+        <v>0.942628903413217</v>
+      </c>
+      <c r="P8" s="3">
+        <v>158</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>0.05737109658678292</v>
+      </c>
+      <c r="R8" s="3">
+        <v>12</v>
+      </c>
+      <c r="S8" s="3">
+        <v>2543</v>
+      </c>
+      <c r="T8" s="3">
+        <v>60</v>
+      </c>
+      <c r="U8" s="3">
+        <v>53</v>
+      </c>
+      <c r="V8" s="4">
+        <v>0.9574548192771084</v>
+      </c>
+      <c r="W8" s="5">
+        <v>120.8943469785575</v>
+      </c>
+      <c r="X8" s="5">
+        <v>8.427680311890839</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>163</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>4</v>
+      </c>
+      <c r="AB8" s="5">
+        <v>60</v>
+      </c>
+      <c r="AC8" s="5">
+        <v>45</v>
+      </c>
+      <c r="AD8" s="5">
+        <v>30</v>
+      </c>
+      <c r="AE8" s="3">
+        <v>163</v>
+      </c>
+      <c r="AF8" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG8" s="3">
+        <v>4</v>
+      </c>
+      <c r="AH8" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI8" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36">
+      <c r="A9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="3">
+        <v>31333</v>
+      </c>
+      <c r="C9" s="3">
+        <v>14975</v>
+      </c>
+      <c r="D9" s="3">
+        <v>5196</v>
+      </c>
+      <c r="E9" s="3">
+        <v>9779</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.3469782971619366</v>
+      </c>
+      <c r="G9" s="5">
+        <v>27.36106844741235</v>
+      </c>
+      <c r="H9" s="3">
+        <v>16358</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0.4779306162831519</v>
+      </c>
+      <c r="J9" s="3">
+        <v>16358</v>
+      </c>
+      <c r="K9" s="3">
+        <v>16320</v>
+      </c>
+      <c r="L9" s="3">
+        <v>15980</v>
+      </c>
+      <c r="M9" s="3">
+        <v>15685</v>
+      </c>
+      <c r="N9" s="3">
+        <v>295</v>
+      </c>
+      <c r="O9" s="4">
+        <v>0.9791666666666665</v>
+      </c>
+      <c r="P9" s="3">
+        <v>340</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>0.02083333333333343</v>
+      </c>
+      <c r="R9" s="3">
+        <v>38</v>
+      </c>
+      <c r="S9" s="3">
+        <v>15837</v>
+      </c>
+      <c r="T9" s="3">
+        <v>90</v>
+      </c>
+      <c r="U9" s="3">
+        <v>143</v>
+      </c>
+      <c r="V9" s="4">
+        <v>0.9855009334163036</v>
+      </c>
+      <c r="W9" s="5">
+        <v>123.8886197003507</v>
+      </c>
+      <c r="X9" s="5">
+        <v>5.800318775900542</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>1031</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>9</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>20</v>
+      </c>
+      <c r="AB9" s="5">
+        <v>60</v>
+      </c>
+      <c r="AC9" s="5">
+        <v>45</v>
+      </c>
+      <c r="AD9" s="5">
+        <v>30</v>
+      </c>
+      <c r="AE9" s="3">
+        <v>1027</v>
+      </c>
+      <c r="AF9" s="3">
+        <v>9</v>
+      </c>
+      <c r="AG9" s="3">
+        <v>20</v>
+      </c>
+      <c r="AH9" s="4">
+        <v>0.9961202715809894</v>
+      </c>
+      <c r="AI9" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ9" s="4">
         <v>1</v>
       </c>
     </row>
@@ -2932,7 +3598,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ7"/>
+  <dimension ref="A1:AJ9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3602,83 +4268,83 @@
       </c>
     </row>
     <row r="7" spans="1:36">
-      <c r="A7" s="3" t="s">
-        <v>36</v>
+      <c r="A7" s="2">
+        <v>45936</v>
       </c>
       <c r="B7" s="3">
-        <v>13734</v>
+        <v>3168</v>
       </c>
       <c r="C7" s="3">
-        <v>5828</v>
+        <v>1338</v>
       </c>
       <c r="D7" s="3">
-        <v>1696</v>
+        <v>398</v>
       </c>
       <c r="E7" s="3">
-        <v>4132</v>
+        <v>940</v>
       </c>
       <c r="F7" s="4">
-        <v>0.2910089224433768</v>
+        <v>0.2974588938714499</v>
       </c>
       <c r="G7" s="5">
-        <v>37.83013040494166</v>
+        <v>35.7982062780269</v>
       </c>
       <c r="H7" s="3">
-        <v>7906</v>
+        <v>1830</v>
       </c>
       <c r="I7" s="4">
-        <v>0.4243483326052133</v>
+        <v>0.4223484848484849</v>
       </c>
       <c r="J7" s="3">
-        <v>7906</v>
+        <v>1830</v>
       </c>
       <c r="K7" s="3">
-        <v>7895</v>
+        <v>1826</v>
       </c>
       <c r="L7" s="3">
-        <v>7823</v>
+        <v>1811</v>
       </c>
       <c r="M7" s="3">
-        <v>7730</v>
+        <v>1790</v>
       </c>
       <c r="N7" s="3">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="O7" s="4">
-        <v>0.990880303989867</v>
+        <v>0.9917853231106243</v>
       </c>
       <c r="P7" s="3">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="Q7" s="4">
-        <v>0.009119696010132969</v>
+        <v>0.008214676889375739</v>
       </c>
       <c r="R7" s="3">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="S7" s="3">
-        <v>7758</v>
+        <v>1792</v>
       </c>
       <c r="T7" s="3">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="U7" s="3">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="V7" s="4">
-        <v>0.9887840938057608</v>
+        <v>0.9878721058434398</v>
       </c>
       <c r="W7" s="5">
-        <v>140.2950840879689</v>
+        <v>137.3240223463687</v>
       </c>
       <c r="X7" s="5">
-        <v>5.476326002587322</v>
+        <v>6.818435754189944</v>
       </c>
       <c r="Y7" s="3">
-        <v>492</v>
+        <v>123</v>
       </c>
       <c r="Z7" s="3">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="AA7" s="3">
         <v>2</v>
@@ -3693,21 +4359,241 @@
         <v>30</v>
       </c>
       <c r="AE7" s="3">
-        <v>490</v>
+        <v>123</v>
       </c>
       <c r="AF7" s="3">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="AG7" s="3">
         <v>2</v>
       </c>
       <c r="AH7" s="4">
-        <v>0.9959349593495935</v>
+        <v>1</v>
       </c>
       <c r="AI7" s="4">
         <v>1</v>
       </c>
       <c r="AJ7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36">
+      <c r="A8" s="2">
+        <v>45937</v>
+      </c>
+      <c r="B8" s="3">
+        <v>3272</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1376</v>
+      </c>
+      <c r="D8" s="3">
+        <v>417</v>
+      </c>
+      <c r="E8" s="3">
+        <v>959</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.3030523255813953</v>
+      </c>
+      <c r="G8" s="5">
+        <v>38.82485465116279</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1896</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0.4205378973105134</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1896</v>
+      </c>
+      <c r="K8" s="3">
+        <v>1892</v>
+      </c>
+      <c r="L8" s="3">
+        <v>1843</v>
+      </c>
+      <c r="M8" s="3">
+        <v>1822</v>
+      </c>
+      <c r="N8" s="3">
+        <v>21</v>
+      </c>
+      <c r="O8" s="4">
+        <v>0.9741014799154334</v>
+      </c>
+      <c r="P8" s="3">
+        <v>49</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>0.0258985200845666</v>
+      </c>
+      <c r="R8" s="3">
+        <v>4</v>
+      </c>
+      <c r="S8" s="3">
+        <v>1807</v>
+      </c>
+      <c r="T8" s="3">
+        <v>16</v>
+      </c>
+      <c r="U8" s="3">
+        <v>36</v>
+      </c>
+      <c r="V8" s="4">
+        <v>0.972027972027972</v>
+      </c>
+      <c r="W8" s="5">
+        <v>128.4566410537871</v>
+      </c>
+      <c r="X8" s="5">
+        <v>8.375960482985731</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>124</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>4</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="5">
+        <v>60</v>
+      </c>
+      <c r="AC8" s="5">
+        <v>45</v>
+      </c>
+      <c r="AD8" s="5">
+        <v>30</v>
+      </c>
+      <c r="AE8" s="3">
+        <v>124</v>
+      </c>
+      <c r="AF8" s="3">
+        <v>4</v>
+      </c>
+      <c r="AG8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI8" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36">
+      <c r="A9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="3">
+        <v>20174</v>
+      </c>
+      <c r="C9" s="3">
+        <v>8542</v>
+      </c>
+      <c r="D9" s="3">
+        <v>2511</v>
+      </c>
+      <c r="E9" s="3">
+        <v>6031</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.2939592601264341</v>
+      </c>
+      <c r="G9" s="5">
+        <v>37.67209084523531</v>
+      </c>
+      <c r="H9" s="3">
+        <v>11632</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0.4234162783781105</v>
+      </c>
+      <c r="J9" s="3">
+        <v>11632</v>
+      </c>
+      <c r="K9" s="3">
+        <v>11613</v>
+      </c>
+      <c r="L9" s="3">
+        <v>11477</v>
+      </c>
+      <c r="M9" s="3">
+        <v>11342</v>
+      </c>
+      <c r="N9" s="3">
+        <v>135</v>
+      </c>
+      <c r="O9" s="4">
+        <v>0.9882889864806682</v>
+      </c>
+      <c r="P9" s="3">
+        <v>136</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>0.01171101351933174</v>
+      </c>
+      <c r="R9" s="3">
+        <v>19</v>
+      </c>
+      <c r="S9" s="3">
+        <v>11357</v>
+      </c>
+      <c r="T9" s="3">
+        <v>42</v>
+      </c>
+      <c r="U9" s="3">
+        <v>120</v>
+      </c>
+      <c r="V9" s="4">
+        <v>0.985936279190902</v>
+      </c>
+      <c r="W9" s="5">
+        <v>137.9244401340152</v>
+      </c>
+      <c r="X9" s="5">
+        <v>6.153941103861753</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>739</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>23</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>4</v>
+      </c>
+      <c r="AB9" s="5">
+        <v>60</v>
+      </c>
+      <c r="AC9" s="5">
+        <v>45</v>
+      </c>
+      <c r="AD9" s="5">
+        <v>30</v>
+      </c>
+      <c r="AE9" s="3">
+        <v>737</v>
+      </c>
+      <c r="AF9" s="3">
+        <v>23</v>
+      </c>
+      <c r="AG9" s="3">
+        <v>4</v>
+      </c>
+      <c r="AH9" s="4">
+        <v>0.9972936400541272</v>
+      </c>
+      <c r="AI9" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ9" s="4">
         <v>1</v>
       </c>
     </row>
@@ -3718,7 +4604,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L121"/>
+  <dimension ref="A1:L169"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8325,6 +9211,1830 @@
         <v>100</v>
       </c>
     </row>
+    <row r="122" spans="1:12">
+      <c r="A122" s="2">
+        <v>45936</v>
+      </c>
+      <c r="B122" s="3">
+        <v>0</v>
+      </c>
+      <c r="C122" s="3">
+        <v>65</v>
+      </c>
+      <c r="D122" s="3">
+        <v>26</v>
+      </c>
+      <c r="E122" s="3">
+        <v>26</v>
+      </c>
+      <c r="F122" s="3">
+        <v>0</v>
+      </c>
+      <c r="G122" s="4">
+        <v>1</v>
+      </c>
+      <c r="H122" s="4">
+        <v>1</v>
+      </c>
+      <c r="I122" s="5">
+        <v>133.5384615384615</v>
+      </c>
+      <c r="J122" s="3">
+        <v>100</v>
+      </c>
+      <c r="K122" s="3">
+        <v>100</v>
+      </c>
+      <c r="L122" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12">
+      <c r="A123" s="2">
+        <v>45936</v>
+      </c>
+      <c r="B123" s="3">
+        <v>1</v>
+      </c>
+      <c r="C123" s="3">
+        <v>47</v>
+      </c>
+      <c r="D123" s="3">
+        <v>29</v>
+      </c>
+      <c r="E123" s="3">
+        <v>29</v>
+      </c>
+      <c r="F123" s="3">
+        <v>0</v>
+      </c>
+      <c r="G123" s="4">
+        <v>1</v>
+      </c>
+      <c r="H123" s="4">
+        <v>1</v>
+      </c>
+      <c r="I123" s="5">
+        <v>60.90909090909091</v>
+      </c>
+      <c r="J123" s="3">
+        <v>100</v>
+      </c>
+      <c r="K123" s="3">
+        <v>100</v>
+      </c>
+      <c r="L123" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12">
+      <c r="A124" s="2">
+        <v>45936</v>
+      </c>
+      <c r="B124" s="3">
+        <v>2</v>
+      </c>
+      <c r="C124" s="3">
+        <v>26</v>
+      </c>
+      <c r="D124" s="3">
+        <v>15</v>
+      </c>
+      <c r="E124" s="3">
+        <v>15</v>
+      </c>
+      <c r="F124" s="3">
+        <v>0</v>
+      </c>
+      <c r="G124" s="4">
+        <v>1</v>
+      </c>
+      <c r="H124" s="4">
+        <v>0.9333333333333332</v>
+      </c>
+      <c r="I124" s="5">
+        <v>102.2857142857143</v>
+      </c>
+      <c r="J124" s="3">
+        <v>90.90909090909091</v>
+      </c>
+      <c r="K124" s="3">
+        <v>0</v>
+      </c>
+      <c r="L124" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12">
+      <c r="A125" s="2">
+        <v>45936</v>
+      </c>
+      <c r="B125" s="3">
+        <v>3</v>
+      </c>
+      <c r="C125" s="3">
+        <v>20</v>
+      </c>
+      <c r="D125" s="3">
+        <v>8</v>
+      </c>
+      <c r="E125" s="3">
+        <v>8</v>
+      </c>
+      <c r="F125" s="3">
+        <v>0</v>
+      </c>
+      <c r="G125" s="4">
+        <v>1</v>
+      </c>
+      <c r="H125" s="4">
+        <v>1</v>
+      </c>
+      <c r="I125" s="5">
+        <v>71</v>
+      </c>
+      <c r="J125" s="3">
+        <v>100</v>
+      </c>
+      <c r="K125" s="3">
+        <v>100</v>
+      </c>
+      <c r="L125" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12">
+      <c r="A126" s="2">
+        <v>45936</v>
+      </c>
+      <c r="B126" s="3">
+        <v>4</v>
+      </c>
+      <c r="C126" s="3">
+        <v>17</v>
+      </c>
+      <c r="D126" s="3">
+        <v>4</v>
+      </c>
+      <c r="E126" s="3">
+        <v>4</v>
+      </c>
+      <c r="F126" s="3">
+        <v>0</v>
+      </c>
+      <c r="G126" s="4">
+        <v>1</v>
+      </c>
+      <c r="H126" s="4">
+        <v>1</v>
+      </c>
+      <c r="I126" s="5">
+        <v>123.75</v>
+      </c>
+      <c r="J126" s="3">
+        <v>0</v>
+      </c>
+      <c r="K126" s="3">
+        <v>100</v>
+      </c>
+      <c r="L126" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12">
+      <c r="A127" s="2">
+        <v>45936</v>
+      </c>
+      <c r="B127" s="3">
+        <v>5</v>
+      </c>
+      <c r="C127" s="3">
+        <v>64</v>
+      </c>
+      <c r="D127" s="3">
+        <v>25</v>
+      </c>
+      <c r="E127" s="3">
+        <v>22</v>
+      </c>
+      <c r="F127" s="3">
+        <v>3</v>
+      </c>
+      <c r="G127" s="4">
+        <v>0.88</v>
+      </c>
+      <c r="H127" s="4">
+        <v>0.9130434782608695</v>
+      </c>
+      <c r="I127" s="5">
+        <v>107.65</v>
+      </c>
+      <c r="J127" s="3">
+        <v>90.90909090909091</v>
+      </c>
+      <c r="K127" s="3">
+        <v>100</v>
+      </c>
+      <c r="L127" s="3">
+        <v>83.33333333333334</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12">
+      <c r="A128" s="2">
+        <v>45936</v>
+      </c>
+      <c r="B128" s="3">
+        <v>6</v>
+      </c>
+      <c r="C128" s="3">
+        <v>298</v>
+      </c>
+      <c r="D128" s="3">
+        <v>134</v>
+      </c>
+      <c r="E128" s="3">
+        <v>127</v>
+      </c>
+      <c r="F128" s="3">
+        <v>7</v>
+      </c>
+      <c r="G128" s="4">
+        <v>0.9477611940298507</v>
+      </c>
+      <c r="H128" s="4">
+        <v>0.9453125</v>
+      </c>
+      <c r="I128" s="5">
+        <v>118.7661290322581</v>
+      </c>
+      <c r="J128" s="3">
+        <v>90</v>
+      </c>
+      <c r="K128" s="3">
+        <v>98.48484848484848</v>
+      </c>
+      <c r="L128" s="3">
+        <v>90.90909090909091</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12">
+      <c r="A129" s="2">
+        <v>45936</v>
+      </c>
+      <c r="B129" s="3">
+        <v>7</v>
+      </c>
+      <c r="C129" s="3">
+        <v>563</v>
+      </c>
+      <c r="D129" s="3">
+        <v>272</v>
+      </c>
+      <c r="E129" s="3">
+        <v>260</v>
+      </c>
+      <c r="F129" s="3">
+        <v>12</v>
+      </c>
+      <c r="G129" s="4">
+        <v>0.9558823529411765</v>
+      </c>
+      <c r="H129" s="4">
+        <v>0.9389312977099238</v>
+      </c>
+      <c r="I129" s="5">
+        <v>104.2879377431907</v>
+      </c>
+      <c r="J129" s="3">
+        <v>94.54545454545455</v>
+      </c>
+      <c r="K129" s="3">
+        <v>97.9381443298969</v>
+      </c>
+      <c r="L129" s="3">
+        <v>85.45454545454545</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12">
+      <c r="A130" s="2">
+        <v>45936</v>
+      </c>
+      <c r="B130" s="3">
+        <v>8</v>
+      </c>
+      <c r="C130" s="3">
+        <v>713</v>
+      </c>
+      <c r="D130" s="3">
+        <v>346</v>
+      </c>
+      <c r="E130" s="3">
+        <v>332</v>
+      </c>
+      <c r="F130" s="3">
+        <v>14</v>
+      </c>
+      <c r="G130" s="4">
+        <v>0.9595375722543352</v>
+      </c>
+      <c r="H130" s="4">
+        <v>0.9580838323353293</v>
+      </c>
+      <c r="I130" s="5">
+        <v>127.7545454545455</v>
+      </c>
+      <c r="J130" s="3">
+        <v>90.29850746268657</v>
+      </c>
+      <c r="K130" s="3">
+        <v>100</v>
+      </c>
+      <c r="L130" s="3">
+        <v>98.71794871794873</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12">
+      <c r="A131" s="2">
+        <v>45936</v>
+      </c>
+      <c r="B131" s="3">
+        <v>9</v>
+      </c>
+      <c r="C131" s="3">
+        <v>1121</v>
+      </c>
+      <c r="D131" s="3">
+        <v>546</v>
+      </c>
+      <c r="E131" s="3">
+        <v>541</v>
+      </c>
+      <c r="F131" s="3">
+        <v>5</v>
+      </c>
+      <c r="G131" s="4">
+        <v>0.9908424908424908</v>
+      </c>
+      <c r="H131" s="4">
+        <v>0.9926062846580408</v>
+      </c>
+      <c r="I131" s="5">
+        <v>119.3836126629423</v>
+      </c>
+      <c r="J131" s="3">
+        <v>98.6046511627907</v>
+      </c>
+      <c r="K131" s="3">
+        <v>100</v>
+      </c>
+      <c r="L131" s="3">
+        <v>99.20634920634922</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12">
+      <c r="A132" s="2">
+        <v>45936</v>
+      </c>
+      <c r="B132" s="3">
+        <v>10</v>
+      </c>
+      <c r="C132" s="3">
+        <v>1400</v>
+      </c>
+      <c r="D132" s="3">
+        <v>711</v>
+      </c>
+      <c r="E132" s="3">
+        <v>699</v>
+      </c>
+      <c r="F132" s="3">
+        <v>12</v>
+      </c>
+      <c r="G132" s="4">
+        <v>0.9831223628691983</v>
+      </c>
+      <c r="H132" s="4">
+        <v>1</v>
+      </c>
+      <c r="I132" s="5">
+        <v>121.3826086956522</v>
+      </c>
+      <c r="J132" s="3">
+        <v>100</v>
+      </c>
+      <c r="K132" s="3">
+        <v>100</v>
+      </c>
+      <c r="L132" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12">
+      <c r="A133" s="2">
+        <v>45936</v>
+      </c>
+      <c r="B133" s="3">
+        <v>11</v>
+      </c>
+      <c r="C133" s="3">
+        <v>1323</v>
+      </c>
+      <c r="D133" s="3">
+        <v>677</v>
+      </c>
+      <c r="E133" s="3">
+        <v>675</v>
+      </c>
+      <c r="F133" s="3">
+        <v>2</v>
+      </c>
+      <c r="G133" s="4">
+        <v>0.9970457902511078</v>
+      </c>
+      <c r="H133" s="4">
+        <v>1</v>
+      </c>
+      <c r="I133" s="5">
+        <v>127.1486486486486</v>
+      </c>
+      <c r="J133" s="3">
+        <v>100</v>
+      </c>
+      <c r="K133" s="3">
+        <v>100</v>
+      </c>
+      <c r="L133" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12">
+      <c r="A134" s="2">
+        <v>45936</v>
+      </c>
+      <c r="B134" s="3">
+        <v>12</v>
+      </c>
+      <c r="C134" s="3">
+        <v>1279</v>
+      </c>
+      <c r="D134" s="3">
+        <v>650</v>
+      </c>
+      <c r="E134" s="3">
+        <v>644</v>
+      </c>
+      <c r="F134" s="3">
+        <v>6</v>
+      </c>
+      <c r="G134" s="4">
+        <v>0.9907692307692308</v>
+      </c>
+      <c r="H134" s="4">
+        <v>0.9891304347826086</v>
+      </c>
+      <c r="I134" s="5">
+        <v>127.8325434439179</v>
+      </c>
+      <c r="J134" s="3">
+        <v>98.19277108433735</v>
+      </c>
+      <c r="K134" s="3">
+        <v>100</v>
+      </c>
+      <c r="L134" s="3">
+        <v>99.25925925925925</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12">
+      <c r="A135" s="2">
+        <v>45936</v>
+      </c>
+      <c r="B135" s="3">
+        <v>13</v>
+      </c>
+      <c r="C135" s="3">
+        <v>1332</v>
+      </c>
+      <c r="D135" s="3">
+        <v>616</v>
+      </c>
+      <c r="E135" s="3">
+        <v>605</v>
+      </c>
+      <c r="F135" s="3">
+        <v>11</v>
+      </c>
+      <c r="G135" s="4">
+        <v>0.9821428571428571</v>
+      </c>
+      <c r="H135" s="4">
+        <v>0.9606557377049181</v>
+      </c>
+      <c r="I135" s="5">
+        <v>134.0336134453782</v>
+      </c>
+      <c r="J135" s="3">
+        <v>91.94139194139194</v>
+      </c>
+      <c r="K135" s="3">
+        <v>100</v>
+      </c>
+      <c r="L135" s="3">
+        <v>98.7012987012987</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12">
+      <c r="A136" s="2">
+        <v>45936</v>
+      </c>
+      <c r="B136" s="3">
+        <v>14</v>
+      </c>
+      <c r="C136" s="3">
+        <v>1224</v>
+      </c>
+      <c r="D136" s="3">
+        <v>586</v>
+      </c>
+      <c r="E136" s="3">
+        <v>580</v>
+      </c>
+      <c r="F136" s="3">
+        <v>6</v>
+      </c>
+      <c r="G136" s="4">
+        <v>0.9897610921501706</v>
+      </c>
+      <c r="H136" s="4">
+        <v>0.9982758620689656</v>
+      </c>
+      <c r="I136" s="5">
+        <v>135.03125</v>
+      </c>
+      <c r="J136" s="3">
+        <v>100</v>
+      </c>
+      <c r="K136" s="3">
+        <v>99.5</v>
+      </c>
+      <c r="L136" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12">
+      <c r="A137" s="2">
+        <v>45936</v>
+      </c>
+      <c r="B137" s="3">
+        <v>15</v>
+      </c>
+      <c r="C137" s="3">
+        <v>1092</v>
+      </c>
+      <c r="D137" s="3">
+        <v>484</v>
+      </c>
+      <c r="E137" s="3">
+        <v>484</v>
+      </c>
+      <c r="F137" s="3">
+        <v>0</v>
+      </c>
+      <c r="G137" s="4">
+        <v>1</v>
+      </c>
+      <c r="H137" s="4">
+        <v>1</v>
+      </c>
+      <c r="I137" s="5">
+        <v>142.9811715481171</v>
+      </c>
+      <c r="J137" s="3">
+        <v>100</v>
+      </c>
+      <c r="K137" s="3">
+        <v>100</v>
+      </c>
+      <c r="L137" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12">
+      <c r="A138" s="2">
+        <v>45936</v>
+      </c>
+      <c r="B138" s="3">
+        <v>16</v>
+      </c>
+      <c r="C138" s="3">
+        <v>1201</v>
+      </c>
+      <c r="D138" s="3">
+        <v>557</v>
+      </c>
+      <c r="E138" s="3">
+        <v>557</v>
+      </c>
+      <c r="F138" s="3">
+        <v>0</v>
+      </c>
+      <c r="G138" s="4">
+        <v>1</v>
+      </c>
+      <c r="H138" s="4">
+        <v>1</v>
+      </c>
+      <c r="I138" s="5">
+        <v>145.3094339622641</v>
+      </c>
+      <c r="J138" s="3">
+        <v>100</v>
+      </c>
+      <c r="K138" s="3">
+        <v>100</v>
+      </c>
+      <c r="L138" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12">
+      <c r="A139" s="2">
+        <v>45936</v>
+      </c>
+      <c r="B139" s="3">
+        <v>17</v>
+      </c>
+      <c r="C139" s="3">
+        <v>1205</v>
+      </c>
+      <c r="D139" s="3">
+        <v>557</v>
+      </c>
+      <c r="E139" s="3">
+        <v>555</v>
+      </c>
+      <c r="F139" s="3">
+        <v>2</v>
+      </c>
+      <c r="G139" s="4">
+        <v>0.9964093357271095</v>
+      </c>
+      <c r="H139" s="4">
+        <v>1</v>
+      </c>
+      <c r="I139" s="5">
+        <v>140.3770491803279</v>
+      </c>
+      <c r="J139" s="3">
+        <v>100</v>
+      </c>
+      <c r="K139" s="3">
+        <v>100</v>
+      </c>
+      <c r="L139" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12">
+      <c r="A140" s="2">
+        <v>45936</v>
+      </c>
+      <c r="B140" s="3">
+        <v>18</v>
+      </c>
+      <c r="C140" s="3">
+        <v>1260</v>
+      </c>
+      <c r="D140" s="3">
+        <v>517</v>
+      </c>
+      <c r="E140" s="3">
+        <v>516</v>
+      </c>
+      <c r="F140" s="3">
+        <v>1</v>
+      </c>
+      <c r="G140" s="4">
+        <v>0.9980657640232109</v>
+      </c>
+      <c r="H140" s="4">
+        <v>1</v>
+      </c>
+      <c r="I140" s="5">
+        <v>138.8952569169961</v>
+      </c>
+      <c r="J140" s="3">
+        <v>100</v>
+      </c>
+      <c r="K140" s="3">
+        <v>100</v>
+      </c>
+      <c r="L140" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12">
+      <c r="A141" s="2">
+        <v>45936</v>
+      </c>
+      <c r="B141" s="3">
+        <v>19</v>
+      </c>
+      <c r="C141" s="3">
+        <v>1374</v>
+      </c>
+      <c r="D141" s="3">
+        <v>630</v>
+      </c>
+      <c r="E141" s="3">
+        <v>628</v>
+      </c>
+      <c r="F141" s="3">
+        <v>2</v>
+      </c>
+      <c r="G141" s="4">
+        <v>0.9968253968253968</v>
+      </c>
+      <c r="H141" s="4">
+        <v>1</v>
+      </c>
+      <c r="I141" s="5">
+        <v>123.991961414791</v>
+      </c>
+      <c r="J141" s="3">
+        <v>100</v>
+      </c>
+      <c r="K141" s="3">
+        <v>100</v>
+      </c>
+      <c r="L141" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12">
+      <c r="A142" s="2">
+        <v>45936</v>
+      </c>
+      <c r="B142" s="3">
+        <v>20</v>
+      </c>
+      <c r="C142" s="3">
+        <v>1085</v>
+      </c>
+      <c r="D142" s="3">
+        <v>553</v>
+      </c>
+      <c r="E142" s="3">
+        <v>534</v>
+      </c>
+      <c r="F142" s="3">
+        <v>19</v>
+      </c>
+      <c r="G142" s="4">
+        <v>0.9656419529837251</v>
+      </c>
+      <c r="H142" s="4">
+        <v>0.966542750929368</v>
+      </c>
+      <c r="I142" s="5">
+        <v>138.3422053231939</v>
+      </c>
+      <c r="J142" s="3">
+        <v>100</v>
+      </c>
+      <c r="K142" s="3">
+        <v>92.5925925925926</v>
+      </c>
+      <c r="L142" s="3">
+        <v>96.03960396039604</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12">
+      <c r="A143" s="2">
+        <v>45936</v>
+      </c>
+      <c r="B143" s="3">
+        <v>21</v>
+      </c>
+      <c r="C143" s="3">
+        <v>933</v>
+      </c>
+      <c r="D143" s="3">
+        <v>486</v>
+      </c>
+      <c r="E143" s="3">
+        <v>476</v>
+      </c>
+      <c r="F143" s="3">
+        <v>10</v>
+      </c>
+      <c r="G143" s="4">
+        <v>0.9794238683127571</v>
+      </c>
+      <c r="H143" s="4">
+        <v>0.9937106918238993</v>
+      </c>
+      <c r="I143" s="5">
+        <v>127.4678111587983</v>
+      </c>
+      <c r="J143" s="3">
+        <v>99.59183673469387</v>
+      </c>
+      <c r="K143" s="3">
+        <v>99.32885906040269</v>
+      </c>
+      <c r="L143" s="3">
+        <v>98.79518072289156</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12">
+      <c r="A144" s="2">
+        <v>45936</v>
+      </c>
+      <c r="B144" s="3">
+        <v>22</v>
+      </c>
+      <c r="C144" s="3">
+        <v>510</v>
+      </c>
+      <c r="D144" s="3">
+        <v>256</v>
+      </c>
+      <c r="E144" s="3">
+        <v>250</v>
+      </c>
+      <c r="F144" s="3">
+        <v>6</v>
+      </c>
+      <c r="G144" s="4">
+        <v>0.9765625</v>
+      </c>
+      <c r="H144" s="4">
+        <v>0.996</v>
+      </c>
+      <c r="I144" s="5">
+        <v>130.6935483870968</v>
+      </c>
+      <c r="J144" s="3">
+        <v>100</v>
+      </c>
+      <c r="K144" s="3">
+        <v>98.83720930232558</v>
+      </c>
+      <c r="L144" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12">
+      <c r="A145" s="2">
+        <v>45936</v>
+      </c>
+      <c r="B145" s="3">
+        <v>23</v>
+      </c>
+      <c r="C145" s="3">
+        <v>265</v>
+      </c>
+      <c r="D145" s="3">
+        <v>126</v>
+      </c>
+      <c r="E145" s="3">
+        <v>126</v>
+      </c>
+      <c r="F145" s="3">
+        <v>0</v>
+      </c>
+      <c r="G145" s="4">
+        <v>1</v>
+      </c>
+      <c r="H145" s="4">
+        <v>0.9920634920634922</v>
+      </c>
+      <c r="I145" s="5">
+        <v>147.6814159292036</v>
+      </c>
+      <c r="J145" s="3">
+        <v>100</v>
+      </c>
+      <c r="K145" s="3">
+        <v>100</v>
+      </c>
+      <c r="L145" s="3">
+        <v>96.7741935483871</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12">
+      <c r="A146" s="2">
+        <v>45937</v>
+      </c>
+      <c r="B146" s="3">
+        <v>0</v>
+      </c>
+      <c r="C146" s="3">
+        <v>88</v>
+      </c>
+      <c r="D146" s="3">
+        <v>44</v>
+      </c>
+      <c r="E146" s="3">
+        <v>44</v>
+      </c>
+      <c r="F146" s="3">
+        <v>0</v>
+      </c>
+      <c r="G146" s="4">
+        <v>1</v>
+      </c>
+      <c r="H146" s="4">
+        <v>1</v>
+      </c>
+      <c r="I146" s="5">
+        <v>126.5909090909091</v>
+      </c>
+      <c r="J146" s="3">
+        <v>100</v>
+      </c>
+      <c r="K146" s="3">
+        <v>100</v>
+      </c>
+      <c r="L146" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12">
+      <c r="A147" s="2">
+        <v>45937</v>
+      </c>
+      <c r="B147" s="3">
+        <v>1</v>
+      </c>
+      <c r="C147" s="3">
+        <v>59</v>
+      </c>
+      <c r="D147" s="3">
+        <v>33</v>
+      </c>
+      <c r="E147" s="3">
+        <v>33</v>
+      </c>
+      <c r="F147" s="3">
+        <v>0</v>
+      </c>
+      <c r="G147" s="4">
+        <v>1</v>
+      </c>
+      <c r="H147" s="4">
+        <v>1</v>
+      </c>
+      <c r="I147" s="5">
+        <v>101.72</v>
+      </c>
+      <c r="J147" s="3">
+        <v>100</v>
+      </c>
+      <c r="K147" s="3">
+        <v>100</v>
+      </c>
+      <c r="L147" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12">
+      <c r="A148" s="2">
+        <v>45937</v>
+      </c>
+      <c r="B148" s="3">
+        <v>2</v>
+      </c>
+      <c r="C148" s="3">
+        <v>27</v>
+      </c>
+      <c r="D148" s="3">
+        <v>17</v>
+      </c>
+      <c r="E148" s="3">
+        <v>17</v>
+      </c>
+      <c r="F148" s="3">
+        <v>0</v>
+      </c>
+      <c r="G148" s="4">
+        <v>1</v>
+      </c>
+      <c r="H148" s="4">
+        <v>1</v>
+      </c>
+      <c r="I148" s="5">
+        <v>57.93333333333333</v>
+      </c>
+      <c r="J148" s="3">
+        <v>100</v>
+      </c>
+      <c r="K148" s="3">
+        <v>100</v>
+      </c>
+      <c r="L148" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12">
+      <c r="A149" s="2">
+        <v>45937</v>
+      </c>
+      <c r="B149" s="3">
+        <v>3</v>
+      </c>
+      <c r="C149" s="3">
+        <v>39</v>
+      </c>
+      <c r="D149" s="3">
+        <v>22</v>
+      </c>
+      <c r="E149" s="3">
+        <v>18</v>
+      </c>
+      <c r="F149" s="3">
+        <v>4</v>
+      </c>
+      <c r="G149" s="4">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="H149" s="4">
+        <v>0.7619047619047619</v>
+      </c>
+      <c r="I149" s="5">
+        <v>107.0588235294118</v>
+      </c>
+      <c r="J149" s="3">
+        <v>50</v>
+      </c>
+      <c r="K149" s="3">
+        <v>84.61538461538461</v>
+      </c>
+      <c r="L149" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12">
+      <c r="A150" s="2">
+        <v>45937</v>
+      </c>
+      <c r="B150" s="3">
+        <v>4</v>
+      </c>
+      <c r="C150" s="3">
+        <v>34</v>
+      </c>
+      <c r="D150" s="3">
+        <v>9</v>
+      </c>
+      <c r="E150" s="3">
+        <v>9</v>
+      </c>
+      <c r="F150" s="3">
+        <v>0</v>
+      </c>
+      <c r="G150" s="4">
+        <v>1</v>
+      </c>
+      <c r="H150" s="4">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="I150" s="5">
+        <v>116.3333333333333</v>
+      </c>
+      <c r="J150" s="3">
+        <v>0</v>
+      </c>
+      <c r="K150" s="3">
+        <v>100</v>
+      </c>
+      <c r="L150" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12">
+      <c r="A151" s="2">
+        <v>45937</v>
+      </c>
+      <c r="B151" s="3">
+        <v>5</v>
+      </c>
+      <c r="C151" s="3">
+        <v>134</v>
+      </c>
+      <c r="D151" s="3">
+        <v>57</v>
+      </c>
+      <c r="E151" s="3">
+        <v>30</v>
+      </c>
+      <c r="F151" s="3">
+        <v>27</v>
+      </c>
+      <c r="G151" s="4">
+        <v>0.5263157894736842</v>
+      </c>
+      <c r="H151" s="4">
+        <v>0.2826086956521739</v>
+      </c>
+      <c r="I151" s="5">
+        <v>133.1034482758621</v>
+      </c>
+      <c r="J151" s="3">
+        <v>25</v>
+      </c>
+      <c r="K151" s="3">
+        <v>29.41176470588236</v>
+      </c>
+      <c r="L151" s="3">
+        <v>30.76923076923077</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12">
+      <c r="A152" s="2">
+        <v>45937</v>
+      </c>
+      <c r="B152" s="3">
+        <v>6</v>
+      </c>
+      <c r="C152" s="3">
+        <v>338</v>
+      </c>
+      <c r="D152" s="3">
+        <v>140</v>
+      </c>
+      <c r="E152" s="3">
+        <v>134</v>
+      </c>
+      <c r="F152" s="3">
+        <v>6</v>
+      </c>
+      <c r="G152" s="4">
+        <v>0.9571428571428572</v>
+      </c>
+      <c r="H152" s="4">
+        <v>0.9485294117647058</v>
+      </c>
+      <c r="I152" s="5">
+        <v>114.9473684210526</v>
+      </c>
+      <c r="J152" s="3">
+        <v>96.55172413793103</v>
+      </c>
+      <c r="K152" s="3">
+        <v>90.90909090909091</v>
+      </c>
+      <c r="L152" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12">
+      <c r="A153" s="2">
+        <v>45937</v>
+      </c>
+      <c r="B153" s="3">
+        <v>7</v>
+      </c>
+      <c r="C153" s="3">
+        <v>608</v>
+      </c>
+      <c r="D153" s="3">
+        <v>274</v>
+      </c>
+      <c r="E153" s="3">
+        <v>272</v>
+      </c>
+      <c r="F153" s="3">
+        <v>2</v>
+      </c>
+      <c r="G153" s="4">
+        <v>0.9927007299270073</v>
+      </c>
+      <c r="H153" s="4">
+        <v>0.9890510948905109</v>
+      </c>
+      <c r="I153" s="5">
+        <v>131.7453874538745</v>
+      </c>
+      <c r="J153" s="3">
+        <v>97.52066115702479</v>
+      </c>
+      <c r="K153" s="3">
+        <v>100</v>
+      </c>
+      <c r="L153" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12">
+      <c r="A154" s="2">
+        <v>45937</v>
+      </c>
+      <c r="B154" s="3">
+        <v>8</v>
+      </c>
+      <c r="C154" s="3">
+        <v>783</v>
+      </c>
+      <c r="D154" s="3">
+        <v>361</v>
+      </c>
+      <c r="E154" s="3">
+        <v>349</v>
+      </c>
+      <c r="F154" s="3">
+        <v>12</v>
+      </c>
+      <c r="G154" s="4">
+        <v>0.9667590027700831</v>
+      </c>
+      <c r="H154" s="4">
+        <v>0.9631728045325779</v>
+      </c>
+      <c r="I154" s="5">
+        <v>126.0579710144928</v>
+      </c>
+      <c r="J154" s="3">
+        <v>92.26190476190477</v>
+      </c>
+      <c r="K154" s="3">
+        <v>100</v>
+      </c>
+      <c r="L154" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12">
+      <c r="A155" s="2">
+        <v>45937</v>
+      </c>
+      <c r="B155" s="3">
+        <v>9</v>
+      </c>
+      <c r="C155" s="3">
+        <v>1021</v>
+      </c>
+      <c r="D155" s="3">
+        <v>508</v>
+      </c>
+      <c r="E155" s="3">
+        <v>505</v>
+      </c>
+      <c r="F155" s="3">
+        <v>3</v>
+      </c>
+      <c r="G155" s="4">
+        <v>0.9940944881889764</v>
+      </c>
+      <c r="H155" s="4">
+        <v>1</v>
+      </c>
+      <c r="I155" s="5">
+        <v>130.226</v>
+      </c>
+      <c r="J155" s="3">
+        <v>100</v>
+      </c>
+      <c r="K155" s="3">
+        <v>100</v>
+      </c>
+      <c r="L155" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12">
+      <c r="A156" s="2">
+        <v>45937</v>
+      </c>
+      <c r="B156" s="3">
+        <v>10</v>
+      </c>
+      <c r="C156" s="3">
+        <v>1277</v>
+      </c>
+      <c r="D156" s="3">
+        <v>608</v>
+      </c>
+      <c r="E156" s="3">
+        <v>606</v>
+      </c>
+      <c r="F156" s="3">
+        <v>2</v>
+      </c>
+      <c r="G156" s="4">
+        <v>0.9967105263157895</v>
+      </c>
+      <c r="H156" s="4">
+        <v>0.9983498349834984</v>
+      </c>
+      <c r="I156" s="5">
+        <v>127.0249169435216</v>
+      </c>
+      <c r="J156" s="3">
+        <v>100</v>
+      </c>
+      <c r="K156" s="3">
+        <v>100</v>
+      </c>
+      <c r="L156" s="3">
+        <v>99.33774834437085</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12">
+      <c r="A157" s="2">
+        <v>45937</v>
+      </c>
+      <c r="B157" s="3">
+        <v>11</v>
+      </c>
+      <c r="C157" s="3">
+        <v>1373</v>
+      </c>
+      <c r="D157" s="3">
+        <v>672</v>
+      </c>
+      <c r="E157" s="3">
+        <v>670</v>
+      </c>
+      <c r="F157" s="3">
+        <v>2</v>
+      </c>
+      <c r="G157" s="4">
+        <v>0.9970238095238095</v>
+      </c>
+      <c r="H157" s="4">
+        <v>1</v>
+      </c>
+      <c r="I157" s="5">
+        <v>130.9595808383233</v>
+      </c>
+      <c r="J157" s="3">
+        <v>100</v>
+      </c>
+      <c r="K157" s="3">
+        <v>100</v>
+      </c>
+      <c r="L157" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12">
+      <c r="A158" s="2">
+        <v>45937</v>
+      </c>
+      <c r="B158" s="3">
+        <v>12</v>
+      </c>
+      <c r="C158" s="3">
+        <v>1243</v>
+      </c>
+      <c r="D158" s="3">
+        <v>567</v>
+      </c>
+      <c r="E158" s="3">
+        <v>565</v>
+      </c>
+      <c r="F158" s="3">
+        <v>2</v>
+      </c>
+      <c r="G158" s="4">
+        <v>0.9964726631393297</v>
+      </c>
+      <c r="H158" s="4">
+        <v>1</v>
+      </c>
+      <c r="I158" s="5">
+        <v>134.2980251346499</v>
+      </c>
+      <c r="J158" s="3">
+        <v>100</v>
+      </c>
+      <c r="K158" s="3">
+        <v>100</v>
+      </c>
+      <c r="L158" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12">
+      <c r="A159" s="2">
+        <v>45937</v>
+      </c>
+      <c r="B159" s="3">
+        <v>13</v>
+      </c>
+      <c r="C159" s="3">
+        <v>1100</v>
+      </c>
+      <c r="D159" s="3">
+        <v>534</v>
+      </c>
+      <c r="E159" s="3">
+        <v>533</v>
+      </c>
+      <c r="F159" s="3">
+        <v>1</v>
+      </c>
+      <c r="G159" s="4">
+        <v>0.99812734082397</v>
+      </c>
+      <c r="H159" s="4">
+        <v>1</v>
+      </c>
+      <c r="I159" s="5">
+        <v>128.3849056603774</v>
+      </c>
+      <c r="J159" s="3">
+        <v>100</v>
+      </c>
+      <c r="K159" s="3">
+        <v>100</v>
+      </c>
+      <c r="L159" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12">
+      <c r="A160" s="2">
+        <v>45937</v>
+      </c>
+      <c r="B160" s="3">
+        <v>14</v>
+      </c>
+      <c r="C160" s="3">
+        <v>1099</v>
+      </c>
+      <c r="D160" s="3">
+        <v>520</v>
+      </c>
+      <c r="E160" s="3">
+        <v>517</v>
+      </c>
+      <c r="F160" s="3">
+        <v>3</v>
+      </c>
+      <c r="G160" s="4">
+        <v>0.9942307692307693</v>
+      </c>
+      <c r="H160" s="4">
+        <v>0.9961315280464217</v>
+      </c>
+      <c r="I160" s="5">
+        <v>116.9196078431373</v>
+      </c>
+      <c r="J160" s="3">
+        <v>99.25093632958801</v>
+      </c>
+      <c r="K160" s="3">
+        <v>100</v>
+      </c>
+      <c r="L160" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12">
+      <c r="A161" s="2">
+        <v>45937</v>
+      </c>
+      <c r="B161" s="3">
+        <v>15</v>
+      </c>
+      <c r="C161" s="3">
+        <v>1016</v>
+      </c>
+      <c r="D161" s="3">
+        <v>453</v>
+      </c>
+      <c r="E161" s="3">
+        <v>453</v>
+      </c>
+      <c r="F161" s="3">
+        <v>0</v>
+      </c>
+      <c r="G161" s="4">
+        <v>1</v>
+      </c>
+      <c r="H161" s="4">
+        <v>1</v>
+      </c>
+      <c r="I161" s="5">
+        <v>128.5133333333333</v>
+      </c>
+      <c r="J161" s="3">
+        <v>100</v>
+      </c>
+      <c r="K161" s="3">
+        <v>100</v>
+      </c>
+      <c r="L161" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12">
+      <c r="A162" s="2">
+        <v>45937</v>
+      </c>
+      <c r="B162" s="3">
+        <v>16</v>
+      </c>
+      <c r="C162" s="3">
+        <v>1201</v>
+      </c>
+      <c r="D162" s="3">
+        <v>536</v>
+      </c>
+      <c r="E162" s="3">
+        <v>536</v>
+      </c>
+      <c r="F162" s="3">
+        <v>0</v>
+      </c>
+      <c r="G162" s="4">
+        <v>1</v>
+      </c>
+      <c r="H162" s="4">
+        <v>1</v>
+      </c>
+      <c r="I162" s="5">
+        <v>141.111320754717</v>
+      </c>
+      <c r="J162" s="3">
+        <v>100</v>
+      </c>
+      <c r="K162" s="3">
+        <v>100</v>
+      </c>
+      <c r="L162" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12">
+      <c r="A163" s="2">
+        <v>45937</v>
+      </c>
+      <c r="B163" s="3">
+        <v>17</v>
+      </c>
+      <c r="C163" s="3">
+        <v>1158</v>
+      </c>
+      <c r="D163" s="3">
+        <v>574</v>
+      </c>
+      <c r="E163" s="3">
+        <v>573</v>
+      </c>
+      <c r="F163" s="3">
+        <v>1</v>
+      </c>
+      <c r="G163" s="4">
+        <v>0.9982578397212544</v>
+      </c>
+      <c r="H163" s="4">
+        <v>1</v>
+      </c>
+      <c r="I163" s="5">
+        <v>137.3838028169014</v>
+      </c>
+      <c r="J163" s="3">
+        <v>100</v>
+      </c>
+      <c r="K163" s="3">
+        <v>100</v>
+      </c>
+      <c r="L163" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12">
+      <c r="A164" s="2">
+        <v>45937</v>
+      </c>
+      <c r="B164" s="3">
+        <v>18</v>
+      </c>
+      <c r="C164" s="3">
+        <v>1114</v>
+      </c>
+      <c r="D164" s="3">
+        <v>523</v>
+      </c>
+      <c r="E164" s="3">
+        <v>521</v>
+      </c>
+      <c r="F164" s="3">
+        <v>2</v>
+      </c>
+      <c r="G164" s="4">
+        <v>0.9961759082217974</v>
+      </c>
+      <c r="H164" s="4">
+        <v>1</v>
+      </c>
+      <c r="I164" s="5">
+        <v>134.5068493150685</v>
+      </c>
+      <c r="J164" s="3">
+        <v>100</v>
+      </c>
+      <c r="K164" s="3">
+        <v>100</v>
+      </c>
+      <c r="L164" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12">
+      <c r="A165" s="2">
+        <v>45937</v>
+      </c>
+      <c r="B165" s="3">
+        <v>19</v>
+      </c>
+      <c r="C165" s="3">
+        <v>1284</v>
+      </c>
+      <c r="D165" s="3">
+        <v>535</v>
+      </c>
+      <c r="E165" s="3">
+        <v>535</v>
+      </c>
+      <c r="F165" s="3">
+        <v>0</v>
+      </c>
+      <c r="G165" s="4">
+        <v>1</v>
+      </c>
+      <c r="H165" s="4">
+        <v>1</v>
+      </c>
+      <c r="I165" s="5">
+        <v>123.2930056710775</v>
+      </c>
+      <c r="J165" s="3">
+        <v>100</v>
+      </c>
+      <c r="K165" s="3">
+        <v>100</v>
+      </c>
+      <c r="L165" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12">
+      <c r="A166" s="2">
+        <v>45937</v>
+      </c>
+      <c r="B166" s="3">
+        <v>20</v>
+      </c>
+      <c r="C166" s="3">
+        <v>1493</v>
+      </c>
+      <c r="D166" s="3">
+        <v>777</v>
+      </c>
+      <c r="E166" s="3">
+        <v>618</v>
+      </c>
+      <c r="F166" s="3">
+        <v>159</v>
+      </c>
+      <c r="G166" s="4">
+        <v>0.7953667953667953</v>
+      </c>
+      <c r="H166" s="4">
+        <v>0.8087591240875912</v>
+      </c>
+      <c r="I166" s="5">
+        <v>110.7339901477832</v>
+      </c>
+      <c r="J166" s="3">
+        <v>98.48484848484848</v>
+      </c>
+      <c r="K166" s="3">
+        <v>69.01408450704226</v>
+      </c>
+      <c r="L166" s="3">
+        <v>71.53284671532847</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12">
+      <c r="A167" s="2">
+        <v>45937</v>
+      </c>
+      <c r="B167" s="3">
+        <v>21</v>
+      </c>
+      <c r="C167" s="3">
+        <v>953</v>
+      </c>
+      <c r="D167" s="3">
+        <v>483</v>
+      </c>
+      <c r="E167" s="3">
+        <v>470</v>
+      </c>
+      <c r="F167" s="3">
+        <v>13</v>
+      </c>
+      <c r="G167" s="4">
+        <v>0.9730848861283644</v>
+      </c>
+      <c r="H167" s="4">
+        <v>0.9702127659574468</v>
+      </c>
+      <c r="I167" s="5">
+        <v>119.9034334763949</v>
+      </c>
+      <c r="J167" s="3">
+        <v>96.44670050761421</v>
+      </c>
+      <c r="K167" s="3">
+        <v>96.82539682539682</v>
+      </c>
+      <c r="L167" s="3">
+        <v>98.80952380952381</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12">
+      <c r="A168" s="2">
+        <v>45937</v>
+      </c>
+      <c r="B168" s="3">
+        <v>22</v>
+      </c>
+      <c r="C168" s="3">
+        <v>535</v>
+      </c>
+      <c r="D168" s="3">
+        <v>270</v>
+      </c>
+      <c r="E168" s="3">
+        <v>263</v>
+      </c>
+      <c r="F168" s="3">
+        <v>7</v>
+      </c>
+      <c r="G168" s="4">
+        <v>0.9740740740740741</v>
+      </c>
+      <c r="H168" s="4">
+        <v>1</v>
+      </c>
+      <c r="I168" s="5">
+        <v>138.2411067193676</v>
+      </c>
+      <c r="J168" s="3">
+        <v>100</v>
+      </c>
+      <c r="K168" s="3">
+        <v>100</v>
+      </c>
+      <c r="L168" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12">
+      <c r="A169" s="2">
+        <v>45937</v>
+      </c>
+      <c r="B169" s="3">
+        <v>23</v>
+      </c>
+      <c r="C169" s="3">
+        <v>288</v>
+      </c>
+      <c r="D169" s="3">
+        <v>145</v>
+      </c>
+      <c r="E169" s="3">
+        <v>142</v>
+      </c>
+      <c r="F169" s="3">
+        <v>3</v>
+      </c>
+      <c r="G169" s="4">
+        <v>0.9793103448275862</v>
+      </c>
+      <c r="H169" s="4">
+        <v>1</v>
+      </c>
+      <c r="I169" s="5">
+        <v>134.6015037593985</v>
+      </c>
+      <c r="J169" s="3">
+        <v>100</v>
+      </c>
+      <c r="K169" s="3">
+        <v>100</v>
+      </c>
+      <c r="L169" s="3">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8332,7 +11042,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK25"/>
+  <dimension ref="A1:AK33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10715,454 +13425,1358 @@
       </c>
     </row>
     <row r="22" spans="1:37">
-      <c r="A22" s="3" t="s">
-        <v>36</v>
+      <c r="A22" s="2">
+        <v>45936</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C22" s="3">
-        <v>1935</v>
+        <v>401</v>
       </c>
       <c r="D22" s="3">
-        <v>815</v>
+        <v>147</v>
       </c>
       <c r="E22" s="3">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="F22" s="3">
-        <v>787</v>
+        <v>146</v>
       </c>
       <c r="G22" s="4">
-        <v>0.0343558282208589</v>
+        <v>0.006802721088435374</v>
       </c>
       <c r="H22" s="5">
-        <v>56.24785276073619</v>
+        <v>54.70068027210884</v>
       </c>
       <c r="I22" s="3">
-        <v>1120</v>
+        <v>254</v>
       </c>
       <c r="J22" s="4">
-        <v>0.4211886304909561</v>
+        <v>0.3665835411471321</v>
       </c>
       <c r="K22" s="3">
-        <v>1120</v>
+        <v>254</v>
       </c>
       <c r="L22" s="3">
-        <v>1105</v>
+        <v>247</v>
       </c>
       <c r="M22" s="3">
-        <v>1064</v>
+        <v>243</v>
       </c>
       <c r="N22" s="3">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="O22" s="3">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="P22" s="3">
-        <v>1117</v>
+        <v>252</v>
       </c>
       <c r="Q22" s="4">
-        <v>0.9892569382273948</v>
+        <v>0.9801587301587301</v>
       </c>
       <c r="R22" s="4">
-        <v>0.01074306177260525</v>
+        <v>0.01984126984126988</v>
       </c>
       <c r="S22" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T22" s="3">
-        <v>1097</v>
+        <v>246</v>
       </c>
       <c r="U22" s="3">
+        <v>1</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="4">
+        <v>0.9959514170040485</v>
+      </c>
+      <c r="X22" s="5">
+        <v>133.0041152263375</v>
+      </c>
+      <c r="Y22" s="5">
+        <v>6.518518518518518</v>
+      </c>
+      <c r="Z22" s="3">
         <v>8</v>
-      </c>
-      <c r="V22" s="3">
-        <v>3</v>
-      </c>
-      <c r="W22" s="4">
-        <v>0.990072202166065</v>
-      </c>
-      <c r="X22" s="5">
-        <v>142.8073308270677</v>
-      </c>
-      <c r="Y22" s="5">
-        <v>5.457706766917293</v>
-      </c>
-      <c r="Z22" s="3">
-        <v>59</v>
       </c>
       <c r="AA22" s="5">
         <v>60</v>
       </c>
       <c r="AB22" s="3">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="AC22" s="4">
         <v>1</v>
       </c>
       <c r="AD22" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE22" s="5">
         <v>45</v>
       </c>
       <c r="AF22" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AG22" s="4">
         <v>1</v>
       </c>
       <c r="AH22" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AI22" s="5">
         <v>30</v>
       </c>
       <c r="AJ22" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AK22" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:37">
-      <c r="A23" s="3" t="s">
-        <v>36</v>
+      <c r="A23" s="2">
+        <v>45936</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C23" s="3">
-        <v>1350</v>
+        <v>246</v>
       </c>
       <c r="D23" s="3">
-        <v>599</v>
+        <v>119</v>
       </c>
       <c r="E23" s="3">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="F23" s="3">
-        <v>569</v>
+        <v>117</v>
       </c>
       <c r="G23" s="4">
-        <v>0.05008347245409015</v>
+        <v>0.01680672268907563</v>
       </c>
       <c r="H23" s="5">
-        <v>69.62103505843072</v>
+        <v>66.05882352941177</v>
       </c>
       <c r="I23" s="3">
-        <v>751</v>
+        <v>127</v>
       </c>
       <c r="J23" s="4">
-        <v>0.4437037037037037</v>
+        <v>0.483739837398374</v>
       </c>
       <c r="K23" s="3">
-        <v>751</v>
+        <v>127</v>
       </c>
       <c r="L23" s="3">
-        <v>739</v>
+        <v>124</v>
       </c>
       <c r="M23" s="3">
-        <v>720</v>
+        <v>121</v>
       </c>
       <c r="N23" s="3">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="O23" s="3">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="P23" s="3">
-        <v>750</v>
+        <v>126</v>
       </c>
       <c r="Q23" s="4">
-        <v>0.9853333333333333</v>
+        <v>0.9841269841269841</v>
       </c>
       <c r="R23" s="4">
-        <v>0.01466666666666669</v>
+        <v>0.01587301587301596</v>
       </c>
       <c r="S23" s="3">
         <v>1</v>
       </c>
       <c r="T23" s="3">
-        <v>734</v>
+        <v>124</v>
       </c>
       <c r="U23" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V23" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W23" s="4">
-        <v>0.9892183288409704</v>
+        <v>1</v>
       </c>
       <c r="X23" s="5">
-        <v>104.3694444444444</v>
+        <v>104.4545454545455</v>
       </c>
       <c r="Y23" s="5">
-        <v>6.75</v>
+        <v>5.462809917355372</v>
       </c>
       <c r="Z23" s="3">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="AA23" s="5">
         <v>60</v>
       </c>
       <c r="AB23" s="3">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="AC23" s="4">
         <v>1</v>
       </c>
       <c r="AD23" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="5">
         <v>45</v>
       </c>
       <c r="AF23" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG23" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH23" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI23" s="5">
         <v>30</v>
       </c>
       <c r="AJ23" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK23" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:37">
-      <c r="A24" s="3" t="s">
-        <v>36</v>
+      <c r="A24" s="2">
+        <v>45936</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C24" s="3">
-        <v>44658</v>
+        <v>9579</v>
       </c>
       <c r="D24" s="3">
-        <v>25982</v>
+        <v>5615</v>
       </c>
       <c r="E24" s="3">
-        <v>6289</v>
+        <v>1309</v>
       </c>
       <c r="F24" s="3">
-        <v>19693</v>
+        <v>4306</v>
       </c>
       <c r="G24" s="4">
-        <v>0.2420521899776769</v>
+        <v>0.2331255565449688</v>
       </c>
       <c r="H24" s="5">
-        <v>43.73500885228235</v>
+        <v>43.86500445235975</v>
       </c>
       <c r="I24" s="3">
-        <v>18676</v>
+        <v>3964</v>
       </c>
       <c r="J24" s="4">
-        <v>0.5817994536253303</v>
+        <v>0.5861780979225388</v>
       </c>
       <c r="K24" s="3">
-        <v>18676</v>
+        <v>3964</v>
       </c>
       <c r="L24" s="3">
-        <v>18416</v>
+        <v>3904</v>
       </c>
       <c r="M24" s="3">
-        <v>17969</v>
+        <v>3842</v>
       </c>
       <c r="N24" s="3">
-        <v>447</v>
+        <v>62</v>
       </c>
       <c r="O24" s="3">
-        <v>230</v>
+        <v>53</v>
       </c>
       <c r="P24" s="3">
-        <v>18646</v>
+        <v>3957</v>
       </c>
       <c r="Q24" s="4">
-        <v>0.9876649147270193</v>
+        <v>0.986606014657569</v>
       </c>
       <c r="R24" s="4">
-        <v>0.01233508527298071</v>
+        <v>0.01339398534243102</v>
       </c>
       <c r="S24" s="3">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="T24" s="3">
-        <v>18234</v>
+        <v>3854</v>
       </c>
       <c r="U24" s="3">
-        <v>182</v>
+        <v>50</v>
       </c>
       <c r="V24" s="3">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="W24" s="4">
-        <v>0.9876503087422814</v>
+        <v>0.9854257223216568</v>
       </c>
       <c r="X24" s="5">
-        <v>134.9393399744004</v>
+        <v>133.9836022904737</v>
       </c>
       <c r="Y24" s="5">
-        <v>6.161333407535199</v>
+        <v>7.972410203019261</v>
       </c>
       <c r="Z24" s="3">
-        <v>1046</v>
+        <v>250</v>
       </c>
       <c r="AA24" s="5">
         <v>60</v>
       </c>
       <c r="AB24" s="3">
-        <v>1042</v>
+        <v>247</v>
       </c>
       <c r="AC24" s="4">
-        <v>0.9961759082217974</v>
+        <v>0.988</v>
       </c>
       <c r="AD24" s="3">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="AE24" s="5">
         <v>45</v>
       </c>
       <c r="AF24" s="3">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="AG24" s="4">
         <v>1</v>
       </c>
       <c r="AH24" s="3">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="AI24" s="5">
         <v>30</v>
       </c>
       <c r="AJ24" s="3">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="AK24" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:37">
-      <c r="A25" s="3" t="s">
-        <v>36</v>
+      <c r="A25" s="2">
+        <v>45936</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C25" s="3">
-        <v>32683</v>
+        <v>8191</v>
       </c>
       <c r="D25" s="3">
-        <v>15230</v>
+        <v>3705</v>
       </c>
       <c r="E25" s="3">
-        <v>5257</v>
+        <v>1190</v>
       </c>
       <c r="F25" s="3">
-        <v>9973</v>
+        <v>2515</v>
       </c>
       <c r="G25" s="4">
-        <v>0.3451739986868024</v>
+        <v>0.3211875843454791</v>
       </c>
       <c r="H25" s="5">
-        <v>30.00669730794485</v>
+        <v>29.69770580296896</v>
       </c>
       <c r="I25" s="3">
-        <v>17453</v>
+        <v>4486</v>
       </c>
       <c r="J25" s="4">
-        <v>0.4659914940488939</v>
+        <v>0.4523257233549017</v>
       </c>
       <c r="K25" s="3">
-        <v>17453</v>
+        <v>4486</v>
       </c>
       <c r="L25" s="3">
-        <v>17234</v>
+        <v>4418</v>
       </c>
       <c r="M25" s="3">
-        <v>16974</v>
+        <v>4334</v>
       </c>
       <c r="N25" s="3">
-        <v>260</v>
+        <v>84</v>
       </c>
       <c r="O25" s="3">
-        <v>191</v>
+        <v>58</v>
       </c>
       <c r="P25" s="3">
-        <v>17425</v>
+        <v>4476</v>
       </c>
       <c r="Q25" s="4">
-        <v>0.989038737446198</v>
+        <v>0.9870420017873101</v>
       </c>
       <c r="R25" s="4">
-        <v>0.01096126255380199</v>
+        <v>0.01295799821269</v>
       </c>
       <c r="S25" s="3">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="T25" s="3">
-        <v>17100</v>
+        <v>4386</v>
       </c>
       <c r="U25" s="3">
-        <v>134</v>
+        <v>32</v>
       </c>
       <c r="V25" s="3">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="W25" s="4">
-        <v>0.989812456587173</v>
+        <v>0.9907386491981025</v>
       </c>
       <c r="X25" s="5">
-        <v>131.8316837516201</v>
+        <v>128.1753576372866</v>
       </c>
       <c r="Y25" s="5">
-        <v>5.208613173088253</v>
+        <v>6.336640516843563</v>
       </c>
       <c r="Z25" s="3">
-        <v>1096</v>
+        <v>312</v>
       </c>
       <c r="AA25" s="5">
         <v>60</v>
       </c>
       <c r="AB25" s="3">
-        <v>1091</v>
+        <v>311</v>
       </c>
       <c r="AC25" s="4">
-        <v>0.9954379562043796</v>
+        <v>0.9967948717948718</v>
       </c>
       <c r="AD25" s="3">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="AE25" s="5">
         <v>45</v>
       </c>
       <c r="AF25" s="3">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="AG25" s="4">
         <v>1</v>
       </c>
       <c r="AH25" s="3">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="AI25" s="5">
         <v>30</v>
       </c>
       <c r="AJ25" s="3">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="AK25" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:37">
+      <c r="A26" s="2">
+        <v>45937</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="3">
+        <v>370</v>
+      </c>
+      <c r="D26" s="3">
+        <v>162</v>
+      </c>
+      <c r="E26" s="3">
+        <v>4</v>
+      </c>
+      <c r="F26" s="3">
+        <v>158</v>
+      </c>
+      <c r="G26" s="4">
+        <v>0.02469135802469136</v>
+      </c>
+      <c r="H26" s="5">
+        <v>59.32716049382716</v>
+      </c>
+      <c r="I26" s="3">
+        <v>208</v>
+      </c>
+      <c r="J26" s="4">
+        <v>0.4378378378378379</v>
+      </c>
+      <c r="K26" s="3">
+        <v>208</v>
+      </c>
+      <c r="L26" s="3">
+        <v>203</v>
+      </c>
+      <c r="M26" s="3">
+        <v>200</v>
+      </c>
+      <c r="N26" s="3">
+        <v>3</v>
+      </c>
+      <c r="O26" s="3">
+        <v>3</v>
+      </c>
+      <c r="P26" s="3">
+        <v>206</v>
+      </c>
+      <c r="Q26" s="4">
+        <v>0.9854368932038835</v>
+      </c>
+      <c r="R26" s="4">
+        <v>0.01456310679611647</v>
+      </c>
+      <c r="S26" s="3">
+        <v>2</v>
+      </c>
+      <c r="T26" s="3">
+        <v>201</v>
+      </c>
+      <c r="U26" s="3">
+        <v>2</v>
+      </c>
+      <c r="V26" s="3">
+        <v>1</v>
+      </c>
+      <c r="W26" s="4">
+        <v>0.9852941176470589</v>
+      </c>
+      <c r="X26" s="5">
+        <v>128.735</v>
+      </c>
+      <c r="Y26" s="5">
+        <v>5.315</v>
+      </c>
+      <c r="Z26" s="3">
+        <v>10</v>
+      </c>
+      <c r="AA26" s="5">
+        <v>60</v>
+      </c>
+      <c r="AB26" s="3">
+        <v>10</v>
+      </c>
+      <c r="AC26" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="5">
+        <v>45</v>
+      </c>
+      <c r="AF26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI26" s="5">
+        <v>30</v>
+      </c>
+      <c r="AJ26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK26" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:37">
+      <c r="A27" s="2">
+        <v>45937</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="3">
+        <v>231</v>
+      </c>
+      <c r="D27" s="3">
+        <v>111</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1</v>
+      </c>
+      <c r="F27" s="3">
+        <v>110</v>
+      </c>
+      <c r="G27" s="4">
+        <v>0.009009009009009009</v>
+      </c>
+      <c r="H27" s="5">
+        <v>58.23423423423424</v>
+      </c>
+      <c r="I27" s="3">
+        <v>120</v>
+      </c>
+      <c r="J27" s="4">
+        <v>0.4805194805194805</v>
+      </c>
+      <c r="K27" s="3">
+        <v>120</v>
+      </c>
+      <c r="L27" s="3">
+        <v>118</v>
+      </c>
+      <c r="M27" s="3">
+        <v>111</v>
+      </c>
+      <c r="N27" s="3">
+        <v>7</v>
+      </c>
+      <c r="O27" s="3">
+        <v>2</v>
+      </c>
+      <c r="P27" s="3">
+        <v>120</v>
+      </c>
+      <c r="Q27" s="4">
+        <v>0.9833333333333333</v>
+      </c>
+      <c r="R27" s="4">
+        <v>0.01666666666666672</v>
+      </c>
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
+        <v>115</v>
+      </c>
+      <c r="U27" s="3">
+        <v>3</v>
+      </c>
+      <c r="V27" s="3">
+        <v>0</v>
+      </c>
+      <c r="W27" s="4">
+        <v>0.9745762711864407</v>
+      </c>
+      <c r="X27" s="5">
+        <v>106.1351351351351</v>
+      </c>
+      <c r="Y27" s="5">
+        <v>10.57657657657658</v>
+      </c>
+      <c r="Z27" s="3">
+        <v>4</v>
+      </c>
+      <c r="AA27" s="5">
+        <v>60</v>
+      </c>
+      <c r="AB27" s="3">
+        <v>4</v>
+      </c>
+      <c r="AC27" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="5">
+        <v>45</v>
+      </c>
+      <c r="AF27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG27" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH27" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI27" s="5">
+        <v>30</v>
+      </c>
+      <c r="AJ27" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK27" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:37">
+      <c r="A28" s="2">
+        <v>45937</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="3">
+        <v>9560</v>
+      </c>
+      <c r="D28" s="3">
+        <v>5634</v>
+      </c>
+      <c r="E28" s="3">
+        <v>1325</v>
+      </c>
+      <c r="F28" s="3">
+        <v>4309</v>
+      </c>
+      <c r="G28" s="4">
+        <v>0.2351792687255946</v>
+      </c>
+      <c r="H28" s="5">
+        <v>43.43982960596379</v>
+      </c>
+      <c r="I28" s="3">
+        <v>3926</v>
+      </c>
+      <c r="J28" s="4">
+        <v>0.5893305439330544</v>
+      </c>
+      <c r="K28" s="3">
+        <v>3926</v>
+      </c>
+      <c r="L28" s="3">
+        <v>3880</v>
+      </c>
+      <c r="M28" s="3">
+        <v>3828</v>
+      </c>
+      <c r="N28" s="3">
+        <v>52</v>
+      </c>
+      <c r="O28" s="3">
+        <v>41</v>
+      </c>
+      <c r="P28" s="3">
+        <v>3921</v>
+      </c>
+      <c r="Q28" s="4">
+        <v>0.9895434838051517</v>
+      </c>
+      <c r="R28" s="4">
+        <v>0.01045651619484829</v>
+      </c>
+      <c r="S28" s="3">
+        <v>5</v>
+      </c>
+      <c r="T28" s="3">
+        <v>3853</v>
+      </c>
+      <c r="U28" s="3">
+        <v>27</v>
+      </c>
+      <c r="V28" s="3">
+        <v>18</v>
+      </c>
+      <c r="W28" s="4">
+        <v>0.9884556182657773</v>
+      </c>
+      <c r="X28" s="5">
+        <v>132.4775339602926</v>
+      </c>
+      <c r="Y28" s="5">
+        <v>5.658045977011494</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>213</v>
+      </c>
+      <c r="AA28" s="5">
+        <v>60</v>
+      </c>
+      <c r="AB28" s="3">
+        <v>213</v>
+      </c>
+      <c r="AC28" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>16</v>
+      </c>
+      <c r="AE28" s="5">
+        <v>45</v>
+      </c>
+      <c r="AF28" s="3">
+        <v>16</v>
+      </c>
+      <c r="AG28" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH28" s="3">
+        <v>6</v>
+      </c>
+      <c r="AI28" s="5">
+        <v>30</v>
+      </c>
+      <c r="AJ28" s="3">
+        <v>6</v>
+      </c>
+      <c r="AK28" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:37">
+      <c r="A29" s="2">
+        <v>45937</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="3">
+        <v>8104</v>
+      </c>
+      <c r="D29" s="3">
+        <v>3674</v>
+      </c>
+      <c r="E29" s="3">
+        <v>1228</v>
+      </c>
+      <c r="F29" s="3">
+        <v>2446</v>
+      </c>
+      <c r="G29" s="4">
+        <v>0.3342406096897115</v>
+      </c>
+      <c r="H29" s="5">
+        <v>30.20549809471965</v>
+      </c>
+      <c r="I29" s="3">
+        <v>4430</v>
+      </c>
+      <c r="J29" s="4">
+        <v>0.4533563672260612</v>
+      </c>
+      <c r="K29" s="3">
+        <v>4430</v>
+      </c>
+      <c r="L29" s="3">
+        <v>4212</v>
+      </c>
+      <c r="M29" s="3">
+        <v>4165</v>
+      </c>
+      <c r="N29" s="3">
+        <v>47</v>
+      </c>
+      <c r="O29" s="3">
+        <v>203</v>
+      </c>
+      <c r="P29" s="3">
+        <v>4415</v>
+      </c>
+      <c r="Q29" s="4">
+        <v>0.9540203850509628</v>
+      </c>
+      <c r="R29" s="4">
+        <v>0.04597961494903728</v>
+      </c>
+      <c r="S29" s="3">
+        <v>15</v>
+      </c>
+      <c r="T29" s="3">
+        <v>4128</v>
+      </c>
+      <c r="U29" s="3">
+        <v>84</v>
+      </c>
+      <c r="V29" s="3">
+        <v>75</v>
+      </c>
+      <c r="W29" s="4">
+        <v>0.9629111266620014</v>
+      </c>
+      <c r="X29" s="5">
+        <v>124.3399759903962</v>
+      </c>
+      <c r="Y29" s="5">
+        <v>8.393757503001201</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>277</v>
+      </c>
+      <c r="AA29" s="5">
+        <v>60</v>
+      </c>
+      <c r="AB29" s="3">
+        <v>277</v>
+      </c>
+      <c r="AC29" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD29" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE29" s="5">
+        <v>45</v>
+      </c>
+      <c r="AF29" s="3">
+        <v>5</v>
+      </c>
+      <c r="AG29" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH29" s="3">
+        <v>3</v>
+      </c>
+      <c r="AI29" s="5">
+        <v>30</v>
+      </c>
+      <c r="AJ29" s="3">
+        <v>3</v>
+      </c>
+      <c r="AK29" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:37">
+      <c r="A30" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="3">
+        <v>2706</v>
+      </c>
+      <c r="D30" s="3">
+        <v>1124</v>
+      </c>
+      <c r="E30" s="3">
+        <v>33</v>
+      </c>
+      <c r="F30" s="3">
+        <v>1091</v>
+      </c>
+      <c r="G30" s="4">
+        <v>0.02935943060498221</v>
+      </c>
+      <c r="H30" s="5">
+        <v>56.48932384341637</v>
+      </c>
+      <c r="I30" s="3">
+        <v>1582</v>
+      </c>
+      <c r="J30" s="4">
+        <v>0.4153732446415372</v>
+      </c>
+      <c r="K30" s="3">
+        <v>1582</v>
+      </c>
+      <c r="L30" s="3">
+        <v>1555</v>
+      </c>
+      <c r="M30" s="3">
+        <v>1507</v>
+      </c>
+      <c r="N30" s="3">
+        <v>48</v>
+      </c>
+      <c r="O30" s="3">
+        <v>20</v>
+      </c>
+      <c r="P30" s="3">
+        <v>1575</v>
+      </c>
+      <c r="Q30" s="4">
+        <v>0.9873015873015873</v>
+      </c>
+      <c r="R30" s="4">
+        <v>0.01269841269841265</v>
+      </c>
+      <c r="S30" s="3">
+        <v>7</v>
+      </c>
+      <c r="T30" s="3">
+        <v>1544</v>
+      </c>
+      <c r="U30" s="3">
+        <v>11</v>
+      </c>
+      <c r="V30" s="3">
+        <v>4</v>
+      </c>
+      <c r="W30" s="4">
+        <v>0.9903784477228993</v>
+      </c>
+      <c r="X30" s="5">
+        <v>139.3589913735899</v>
+      </c>
+      <c r="Y30" s="5">
+        <v>5.609820836098208</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>77</v>
+      </c>
+      <c r="AA30" s="5">
+        <v>60</v>
+      </c>
+      <c r="AB30" s="3">
+        <v>77</v>
+      </c>
+      <c r="AC30" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>11</v>
+      </c>
+      <c r="AE30" s="5">
+        <v>45</v>
+      </c>
+      <c r="AF30" s="3">
+        <v>11</v>
+      </c>
+      <c r="AG30" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH30" s="3">
+        <v>5</v>
+      </c>
+      <c r="AI30" s="5">
+        <v>30</v>
+      </c>
+      <c r="AJ30" s="3">
+        <v>5</v>
+      </c>
+      <c r="AK30" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:37">
+      <c r="A31" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="3">
+        <v>1827</v>
+      </c>
+      <c r="D31" s="3">
+        <v>829</v>
+      </c>
+      <c r="E31" s="3">
+        <v>33</v>
+      </c>
+      <c r="F31" s="3">
+        <v>796</v>
+      </c>
+      <c r="G31" s="4">
+        <v>0.03980699638118215</v>
+      </c>
+      <c r="H31" s="5">
+        <v>67.58504221954162</v>
+      </c>
+      <c r="I31" s="3">
+        <v>998</v>
+      </c>
+      <c r="J31" s="4">
+        <v>0.4537493158182813</v>
+      </c>
+      <c r="K31" s="3">
+        <v>998</v>
+      </c>
+      <c r="L31" s="3">
+        <v>981</v>
+      </c>
+      <c r="M31" s="3">
+        <v>952</v>
+      </c>
+      <c r="N31" s="3">
+        <v>29</v>
+      </c>
+      <c r="O31" s="3">
+        <v>15</v>
+      </c>
+      <c r="P31" s="3">
+        <v>996</v>
+      </c>
+      <c r="Q31" s="4">
+        <v>0.9849397590361445</v>
+      </c>
+      <c r="R31" s="4">
+        <v>0.01506024096385545</v>
+      </c>
+      <c r="S31" s="3">
+        <v>2</v>
+      </c>
+      <c r="T31" s="3">
+        <v>973</v>
+      </c>
+      <c r="U31" s="3">
+        <v>8</v>
+      </c>
+      <c r="V31" s="3">
+        <v>3</v>
+      </c>
+      <c r="W31" s="4">
+        <v>0.9888211382113821</v>
+      </c>
+      <c r="X31" s="5">
+        <v>104.5861344537815</v>
+      </c>
+      <c r="Y31" s="5">
+        <v>7.032563025210084</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>47</v>
+      </c>
+      <c r="AA31" s="5">
+        <v>60</v>
+      </c>
+      <c r="AB31" s="3">
+        <v>47</v>
+      </c>
+      <c r="AC31" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE31" s="5">
+        <v>45</v>
+      </c>
+      <c r="AF31" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG31" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH31" s="3">
+        <v>4</v>
+      </c>
+      <c r="AI31" s="5">
+        <v>30</v>
+      </c>
+      <c r="AJ31" s="3">
+        <v>4</v>
+      </c>
+      <c r="AK31" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:37">
+      <c r="A32" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="3">
+        <v>63797</v>
+      </c>
+      <c r="D32" s="3">
+        <v>37231</v>
+      </c>
+      <c r="E32" s="3">
+        <v>8923</v>
+      </c>
+      <c r="F32" s="3">
+        <v>28308</v>
+      </c>
+      <c r="G32" s="4">
+        <v>0.2396658698396497</v>
+      </c>
+      <c r="H32" s="5">
+        <v>43.70994601273133</v>
+      </c>
+      <c r="I32" s="3">
+        <v>26566</v>
+      </c>
+      <c r="J32" s="4">
+        <v>0.5835854350518049</v>
+      </c>
+      <c r="K32" s="3">
+        <v>26566</v>
+      </c>
+      <c r="L32" s="3">
+        <v>26200</v>
+      </c>
+      <c r="M32" s="3">
+        <v>25639</v>
+      </c>
+      <c r="N32" s="3">
+        <v>561</v>
+      </c>
+      <c r="O32" s="3">
+        <v>324</v>
+      </c>
+      <c r="P32" s="3">
+        <v>26524</v>
+      </c>
+      <c r="Q32" s="4">
+        <v>0.9877846478660836</v>
+      </c>
+      <c r="R32" s="4">
+        <v>0.01221535213391647</v>
+      </c>
+      <c r="S32" s="3">
+        <v>42</v>
+      </c>
+      <c r="T32" s="3">
+        <v>25941</v>
+      </c>
+      <c r="U32" s="3">
+        <v>259</v>
+      </c>
+      <c r="V32" s="3">
+        <v>71</v>
+      </c>
+      <c r="W32" s="4">
+        <v>0.9874386205321457</v>
+      </c>
+      <c r="X32" s="5">
+        <v>134.4285658567027</v>
+      </c>
+      <c r="Y32" s="5">
+        <v>6.357580248839659</v>
+      </c>
+      <c r="Z32" s="3">
+        <v>1509</v>
+      </c>
+      <c r="AA32" s="5">
+        <v>60</v>
+      </c>
+      <c r="AB32" s="3">
+        <v>1502</v>
+      </c>
+      <c r="AC32" s="4">
+        <v>0.9953611663353215</v>
+      </c>
+      <c r="AD32" s="3">
+        <v>117</v>
+      </c>
+      <c r="AE32" s="5">
+        <v>45</v>
+      </c>
+      <c r="AF32" s="3">
+        <v>117</v>
+      </c>
+      <c r="AG32" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH32" s="3">
+        <v>73</v>
+      </c>
+      <c r="AI32" s="5">
+        <v>30</v>
+      </c>
+      <c r="AJ32" s="3">
+        <v>73</v>
+      </c>
+      <c r="AK32" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:37">
+      <c r="A33" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="3">
+        <v>48978</v>
+      </c>
+      <c r="D33" s="3">
+        <v>22609</v>
+      </c>
+      <c r="E33" s="3">
+        <v>7675</v>
+      </c>
+      <c r="F33" s="3">
+        <v>14934</v>
+      </c>
+      <c r="G33" s="4">
+        <v>0.3394665841036755</v>
+      </c>
+      <c r="H33" s="5">
+        <v>29.98836746428413</v>
+      </c>
+      <c r="I33" s="3">
+        <v>26369</v>
+      </c>
+      <c r="J33" s="4">
+        <v>0.4616154191677896</v>
+      </c>
+      <c r="K33" s="3">
+        <v>26369</v>
+      </c>
+      <c r="L33" s="3">
+        <v>25864</v>
+      </c>
+      <c r="M33" s="3">
+        <v>25473</v>
+      </c>
+      <c r="N33" s="3">
+        <v>391</v>
+      </c>
+      <c r="O33" s="3">
+        <v>452</v>
+      </c>
+      <c r="P33" s="3">
+        <v>26316</v>
+      </c>
+      <c r="Q33" s="4">
+        <v>0.9828241374069008</v>
+      </c>
+      <c r="R33" s="4">
+        <v>0.01717586259309925</v>
+      </c>
+      <c r="S33" s="3">
+        <v>53</v>
+      </c>
+      <c r="T33" s="3">
+        <v>25614</v>
+      </c>
+      <c r="U33" s="3">
+        <v>250</v>
+      </c>
+      <c r="V33" s="3">
+        <v>126</v>
+      </c>
+      <c r="W33" s="4">
+        <v>0.9855328972681801</v>
+      </c>
+      <c r="X33" s="5">
+        <v>129.984650414164</v>
+      </c>
+      <c r="Y33" s="5">
+        <v>5.921328465433989</v>
+      </c>
+      <c r="Z33" s="3">
+        <v>1685</v>
+      </c>
+      <c r="AA33" s="5">
+        <v>60</v>
+      </c>
+      <c r="AB33" s="3">
+        <v>1679</v>
+      </c>
+      <c r="AC33" s="4">
+        <v>0.9964391691394658</v>
+      </c>
+      <c r="AD33" s="3">
+        <v>22</v>
+      </c>
+      <c r="AE33" s="5">
+        <v>45</v>
+      </c>
+      <c r="AF33" s="3">
+        <v>22</v>
+      </c>
+      <c r="AG33" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH33" s="3">
+        <v>21</v>
+      </c>
+      <c r="AI33" s="5">
+        <v>30</v>
+      </c>
+      <c r="AJ33" s="3">
+        <v>21</v>
+      </c>
+      <c r="AK33" s="4">
         <v>1</v>
       </c>
     </row>
@@ -11173,13 +14787,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -11198,8 +14812,14 @@
       <c r="F1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>0</v>
       </c>
@@ -11218,8 +14838,14 @@
       <c r="F2">
         <v>123</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2">
+        <v>65</v>
+      </c>
+      <c r="H2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>1</v>
       </c>
@@ -11238,8 +14864,14 @@
       <c r="F3">
         <v>72</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>47</v>
+      </c>
+      <c r="H3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>2</v>
       </c>
@@ -11258,8 +14890,14 @@
       <c r="F4">
         <v>41</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4">
+        <v>26</v>
+      </c>
+      <c r="H4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>3</v>
       </c>
@@ -11278,8 +14916,14 @@
       <c r="F5">
         <v>33</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>20</v>
+      </c>
+      <c r="H5">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>4</v>
       </c>
@@ -11298,8 +14942,14 @@
       <c r="F6">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6">
+        <v>17</v>
+      </c>
+      <c r="H6">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>5</v>
       </c>
@@ -11318,8 +14968,14 @@
       <c r="F7">
         <v>96</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7">
+        <v>64</v>
+      </c>
+      <c r="H7">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>6</v>
       </c>
@@ -11338,8 +14994,14 @@
       <c r="F8">
         <v>233</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8">
+        <v>298</v>
+      </c>
+      <c r="H8">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>7</v>
       </c>
@@ -11358,8 +15020,14 @@
       <c r="F9">
         <v>498</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9">
+        <v>563</v>
+      </c>
+      <c r="H9">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>8</v>
       </c>
@@ -11378,8 +15046,14 @@
       <c r="F10">
         <v>772</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10">
+        <v>713</v>
+      </c>
+      <c r="H10">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>9</v>
       </c>
@@ -11398,8 +15072,14 @@
       <c r="F11">
         <v>981</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11">
+        <v>1121</v>
+      </c>
+      <c r="H11">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>10</v>
       </c>
@@ -11418,8 +15098,14 @@
       <c r="F12">
         <v>1094</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12">
+        <v>1400</v>
+      </c>
+      <c r="H12">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>11</v>
       </c>
@@ -11438,8 +15124,14 @@
       <c r="F13">
         <v>1209</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13">
+        <v>1323</v>
+      </c>
+      <c r="H13">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>12</v>
       </c>
@@ -11458,8 +15150,14 @@
       <c r="F14">
         <v>1146</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14">
+        <v>1279</v>
+      </c>
+      <c r="H14">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>13</v>
       </c>
@@ -11478,8 +15176,14 @@
       <c r="F15">
         <v>1031</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>1332</v>
+      </c>
+      <c r="H15">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>14</v>
       </c>
@@ -11498,8 +15202,14 @@
       <c r="F16">
         <v>969</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16">
+        <v>1224</v>
+      </c>
+      <c r="H16">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>15</v>
       </c>
@@ -11518,8 +15228,14 @@
       <c r="F17">
         <v>878</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>1092</v>
+      </c>
+      <c r="H17">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>16</v>
       </c>
@@ -11538,8 +15254,14 @@
       <c r="F18">
         <v>821</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>1201</v>
+      </c>
+      <c r="H18">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>17</v>
       </c>
@@ -11558,8 +15280,14 @@
       <c r="F19">
         <v>935</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19">
+        <v>1205</v>
+      </c>
+      <c r="H19">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>18</v>
       </c>
@@ -11578,8 +15306,14 @@
       <c r="F20">
         <v>987</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20">
+        <v>1260</v>
+      </c>
+      <c r="H20">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>19</v>
       </c>
@@ -11598,8 +15332,14 @@
       <c r="F21">
         <v>1166</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21">
+        <v>1374</v>
+      </c>
+      <c r="H21">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>20</v>
       </c>
@@ -11618,8 +15358,14 @@
       <c r="F22">
         <v>967</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>1085</v>
+      </c>
+      <c r="H22">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>21</v>
       </c>
@@ -11638,8 +15384,14 @@
       <c r="F23">
         <v>656</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>933</v>
+      </c>
+      <c r="H23">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>22</v>
       </c>
@@ -11658,8 +15410,14 @@
       <c r="F24">
         <v>450</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="G24">
+        <v>510</v>
+      </c>
+      <c r="H24">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>23</v>
       </c>
@@ -11678,9 +15436,15 @@
       <c r="F25">
         <v>255</v>
       </c>
+      <c r="G25">
+        <v>265</v>
+      </c>
+      <c r="H25">
+        <v>288</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:F25">
+  <conditionalFormatting sqref="B2:H25">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11698,13 +15462,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -11723,8 +15487,14 @@
       <c r="F1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>0</v>
       </c>
@@ -11743,8 +15513,14 @@
       <c r="F2">
         <v>144</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2">
+        <v>134</v>
+      </c>
+      <c r="H2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>1</v>
       </c>
@@ -11763,8 +15539,14 @@
       <c r="F3">
         <v>122</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>61</v>
+      </c>
+      <c r="H3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>2</v>
       </c>
@@ -11783,8 +15565,14 @@
       <c r="F4">
         <v>110</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4">
+        <v>102</v>
+      </c>
+      <c r="H4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>3</v>
       </c>
@@ -11803,8 +15591,14 @@
       <c r="F5">
         <v>50</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>71</v>
+      </c>
+      <c r="H5">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>4</v>
       </c>
@@ -11823,8 +15617,14 @@
       <c r="F6">
         <v>51</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6">
+        <v>124</v>
+      </c>
+      <c r="H6">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>5</v>
       </c>
@@ -11843,8 +15643,14 @@
       <c r="F7">
         <v>60</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7">
+        <v>108</v>
+      </c>
+      <c r="H7">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>6</v>
       </c>
@@ -11863,8 +15669,14 @@
       <c r="F8">
         <v>124</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8">
+        <v>119</v>
+      </c>
+      <c r="H8">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>7</v>
       </c>
@@ -11883,8 +15695,14 @@
       <c r="F9">
         <v>118</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9">
+        <v>104</v>
+      </c>
+      <c r="H9">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>8</v>
       </c>
@@ -11903,8 +15721,14 @@
       <c r="F10">
         <v>124</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10">
+        <v>128</v>
+      </c>
+      <c r="H10">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>9</v>
       </c>
@@ -11923,8 +15747,14 @@
       <c r="F11">
         <v>131</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11">
+        <v>119</v>
+      </c>
+      <c r="H11">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>10</v>
       </c>
@@ -11943,8 +15773,14 @@
       <c r="F12">
         <v>129</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12">
+        <v>121</v>
+      </c>
+      <c r="H12">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>11</v>
       </c>
@@ -11963,8 +15799,14 @@
       <c r="F13">
         <v>128</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13">
+        <v>127</v>
+      </c>
+      <c r="H13">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>12</v>
       </c>
@@ -11983,8 +15825,14 @@
       <c r="F14">
         <v>132</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14">
+        <v>128</v>
+      </c>
+      <c r="H14">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>13</v>
       </c>
@@ -12003,8 +15851,14 @@
       <c r="F15">
         <v>122</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>134</v>
+      </c>
+      <c r="H15">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>14</v>
       </c>
@@ -12023,8 +15877,14 @@
       <c r="F16">
         <v>135</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16">
+        <v>135</v>
+      </c>
+      <c r="H16">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>15</v>
       </c>
@@ -12043,8 +15903,14 @@
       <c r="F17">
         <v>128</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>143</v>
+      </c>
+      <c r="H17">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>16</v>
       </c>
@@ -12063,8 +15929,14 @@
       <c r="F18">
         <v>142</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>145</v>
+      </c>
+      <c r="H18">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>17</v>
       </c>
@@ -12083,8 +15955,14 @@
       <c r="F19">
         <v>144</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19">
+        <v>140</v>
+      </c>
+      <c r="H19">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>18</v>
       </c>
@@ -12103,8 +15981,14 @@
       <c r="F20">
         <v>140</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20">
+        <v>139</v>
+      </c>
+      <c r="H20">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>19</v>
       </c>
@@ -12123,8 +16007,14 @@
       <c r="F21">
         <v>142</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21">
+        <v>124</v>
+      </c>
+      <c r="H21">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>20</v>
       </c>
@@ -12143,8 +16033,14 @@
       <c r="F22">
         <v>131</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>138</v>
+      </c>
+      <c r="H22">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>21</v>
       </c>
@@ -12163,8 +16059,14 @@
       <c r="F23">
         <v>147</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>127</v>
+      </c>
+      <c r="H23">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>22</v>
       </c>
@@ -12183,8 +16085,14 @@
       <c r="F24">
         <v>154</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="G24">
+        <v>131</v>
+      </c>
+      <c r="H24">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>23</v>
       </c>
@@ -12203,9 +16111,15 @@
       <c r="F25">
         <v>120</v>
       </c>
+      <c r="G25">
+        <v>148</v>
+      </c>
+      <c r="H25">
+        <v>135</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:F25">
+  <conditionalFormatting sqref="B2:H25">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>

--- a/Result.xlsx
+++ b/Result.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="56">
   <si>
     <t>Date</t>
   </si>
@@ -183,6 +183,12 @@
   </si>
   <si>
     <t>2025-10-07</t>
+  </si>
+  <si>
+    <t>2025-10-08</t>
+  </si>
+  <si>
+    <t>2025-10-09</t>
   </si>
 </sst>
 </file>
@@ -580,7 +586,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ9"/>
+  <dimension ref="A1:AJ11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1470,86 +1476,86 @@
       </c>
     </row>
     <row r="9" spans="1:36">
-      <c r="A9" s="3" t="s">
-        <v>36</v>
+      <c r="A9" s="2">
+        <v>45938</v>
       </c>
       <c r="B9" s="3">
-        <v>117308</v>
+        <v>18367</v>
       </c>
       <c r="C9" s="3">
-        <v>61793</v>
+        <v>9655</v>
       </c>
       <c r="D9" s="3">
-        <v>16664</v>
+        <v>2348</v>
       </c>
       <c r="E9" s="3">
-        <v>45129</v>
+        <v>7307</v>
       </c>
       <c r="F9" s="4">
-        <v>0.2696745586069619</v>
+        <v>0.243190056965303</v>
       </c>
       <c r="G9" s="5">
-        <v>39.24221190102439</v>
+        <v>40.20486794407043</v>
       </c>
       <c r="H9" s="3">
-        <v>55515</v>
+        <v>8712</v>
       </c>
       <c r="I9" s="4">
-        <v>0.5267586183380503</v>
+        <v>0.5256710404529863</v>
       </c>
       <c r="J9" s="3">
-        <v>55515</v>
+        <v>8712</v>
       </c>
       <c r="K9" s="3">
-        <v>55411</v>
+        <v>8689</v>
       </c>
       <c r="L9" s="3">
-        <v>54600</v>
+        <v>8627</v>
       </c>
       <c r="M9" s="3">
-        <v>53571</v>
+        <v>8491</v>
       </c>
       <c r="N9" s="3">
-        <v>1029</v>
+        <v>136</v>
       </c>
       <c r="O9" s="4">
-        <v>0.9853639169118044</v>
+        <v>0.9928645413741513</v>
       </c>
       <c r="P9" s="3">
-        <v>811</v>
+        <v>62</v>
       </c>
       <c r="Q9" s="4">
-        <v>0.01463608308819559</v>
+        <v>0.007135458625848798</v>
       </c>
       <c r="R9" s="3">
-        <v>104</v>
+        <v>23</v>
       </c>
       <c r="S9" s="3">
-        <v>54072</v>
+        <v>8595</v>
       </c>
       <c r="T9" s="3">
-        <v>204</v>
+        <v>6</v>
       </c>
       <c r="U9" s="3">
-        <v>528</v>
+        <v>32</v>
       </c>
       <c r="V9" s="4">
-        <v>0.9866433107072478</v>
+        <v>0.9955982856480945</v>
       </c>
       <c r="W9" s="5">
-        <v>131.9238580575311</v>
+        <v>132.2004475326817</v>
       </c>
       <c r="X9" s="5">
-        <v>6.141102462153031</v>
+        <v>4.289247438464256</v>
       </c>
       <c r="Y9" s="3">
-        <v>3318</v>
+        <v>576</v>
       </c>
       <c r="Z9" s="3">
-        <v>151</v>
+        <v>21</v>
       </c>
       <c r="AA9" s="3">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="AB9" s="5">
         <v>60</v>
@@ -1561,21 +1567,241 @@
         <v>30</v>
       </c>
       <c r="AE9" s="3">
-        <v>3305</v>
+        <v>576</v>
       </c>
       <c r="AF9" s="3">
-        <v>151</v>
+        <v>21</v>
       </c>
       <c r="AG9" s="3">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="AH9" s="4">
-        <v>0.9960819770946352</v>
+        <v>1</v>
       </c>
       <c r="AI9" s="4">
         <v>1</v>
       </c>
       <c r="AJ9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36">
+      <c r="A10" s="2">
+        <v>45939</v>
+      </c>
+      <c r="B10" s="3">
+        <v>17071</v>
+      </c>
+      <c r="C10" s="3">
+        <v>9159</v>
+      </c>
+      <c r="D10" s="3">
+        <v>2362</v>
+      </c>
+      <c r="E10" s="3">
+        <v>6797</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.2578884157659133</v>
+      </c>
+      <c r="G10" s="5">
+        <v>40.07555409979256</v>
+      </c>
+      <c r="H10" s="3">
+        <v>7912</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0.5365239294710328</v>
+      </c>
+      <c r="J10" s="3">
+        <v>7912</v>
+      </c>
+      <c r="K10" s="3">
+        <v>7899</v>
+      </c>
+      <c r="L10" s="3">
+        <v>7869</v>
+      </c>
+      <c r="M10" s="3">
+        <v>7709</v>
+      </c>
+      <c r="N10" s="3">
+        <v>160</v>
+      </c>
+      <c r="O10" s="4">
+        <v>0.996202050892518</v>
+      </c>
+      <c r="P10" s="3">
+        <v>30</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>0.003797949107482026</v>
+      </c>
+      <c r="R10" s="3">
+        <v>13</v>
+      </c>
+      <c r="S10" s="3">
+        <v>7852</v>
+      </c>
+      <c r="T10" s="3">
+        <v>4</v>
+      </c>
+      <c r="U10" s="3">
+        <v>17</v>
+      </c>
+      <c r="V10" s="4">
+        <v>0.9973326559126128</v>
+      </c>
+      <c r="W10" s="5">
+        <v>133.2906991827734</v>
+      </c>
+      <c r="X10" s="5">
+        <v>2.669088078868854</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>555</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>32</v>
+      </c>
+      <c r="AA10" s="3">
+        <v>13</v>
+      </c>
+      <c r="AB10" s="5">
+        <v>60</v>
+      </c>
+      <c r="AC10" s="5">
+        <v>45</v>
+      </c>
+      <c r="AD10" s="5">
+        <v>30</v>
+      </c>
+      <c r="AE10" s="3">
+        <v>555</v>
+      </c>
+      <c r="AF10" s="3">
+        <v>32</v>
+      </c>
+      <c r="AG10" s="3">
+        <v>13</v>
+      </c>
+      <c r="AH10" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI10" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36">
+      <c r="A11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="3">
+        <v>152746</v>
+      </c>
+      <c r="C11" s="3">
+        <v>80607</v>
+      </c>
+      <c r="D11" s="3">
+        <v>21374</v>
+      </c>
+      <c r="E11" s="3">
+        <v>59233</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.2651630751671691</v>
+      </c>
+      <c r="G11" s="5">
+        <v>39.45220638406094</v>
+      </c>
+      <c r="H11" s="3">
+        <v>72139</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0.5277192201432443</v>
+      </c>
+      <c r="J11" s="3">
+        <v>72139</v>
+      </c>
+      <c r="K11" s="3">
+        <v>71999</v>
+      </c>
+      <c r="L11" s="3">
+        <v>71096</v>
+      </c>
+      <c r="M11" s="3">
+        <v>69771</v>
+      </c>
+      <c r="N11" s="3">
+        <v>1325</v>
+      </c>
+      <c r="O11" s="4">
+        <v>0.9874581591410991</v>
+      </c>
+      <c r="P11" s="3">
+        <v>903</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>0.01254184085890088</v>
+      </c>
+      <c r="R11" s="3">
+        <v>140</v>
+      </c>
+      <c r="S11" s="3">
+        <v>70519</v>
+      </c>
+      <c r="T11" s="3">
+        <v>214</v>
+      </c>
+      <c r="U11" s="3">
+        <v>577</v>
+      </c>
+      <c r="V11" s="4">
+        <v>0.9889075865937457</v>
+      </c>
+      <c r="W11" s="5">
+        <v>132.1085407977527</v>
+      </c>
+      <c r="X11" s="5">
+        <v>5.532112195611357</v>
+      </c>
+      <c r="Y11" s="3">
+        <v>4449</v>
+      </c>
+      <c r="Z11" s="3">
+        <v>204</v>
+      </c>
+      <c r="AA11" s="3">
+        <v>132</v>
+      </c>
+      <c r="AB11" s="5">
+        <v>60</v>
+      </c>
+      <c r="AC11" s="5">
+        <v>45</v>
+      </c>
+      <c r="AD11" s="5">
+        <v>30</v>
+      </c>
+      <c r="AE11" s="3">
+        <v>4436</v>
+      </c>
+      <c r="AF11" s="3">
+        <v>204</v>
+      </c>
+      <c r="AG11" s="3">
+        <v>132</v>
+      </c>
+      <c r="AH11" s="4">
+        <v>0.9970779950550686</v>
+      </c>
+      <c r="AI11" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ11" s="4">
         <v>1</v>
       </c>
     </row>
@@ -1586,7 +1812,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ9"/>
+  <dimension ref="A1:AJ11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2476,86 +2702,86 @@
       </c>
     </row>
     <row r="9" spans="1:36">
-      <c r="A9" s="3" t="s">
-        <v>36</v>
+      <c r="A9" s="2">
+        <v>45938</v>
       </c>
       <c r="B9" s="3">
-        <v>65801</v>
+        <v>9978</v>
       </c>
       <c r="C9" s="3">
-        <v>38276</v>
+        <v>5840</v>
       </c>
       <c r="D9" s="3">
-        <v>8957</v>
+        <v>1259</v>
       </c>
       <c r="E9" s="3">
-        <v>29319</v>
+        <v>4581</v>
       </c>
       <c r="F9" s="4">
-        <v>0.234010868429303</v>
+        <v>0.2155821917808219</v>
       </c>
       <c r="G9" s="5">
-        <v>44.24096039293552</v>
+        <v>44.75821917808219</v>
       </c>
       <c r="H9" s="3">
-        <v>27525</v>
+        <v>4138</v>
       </c>
       <c r="I9" s="4">
-        <v>0.5816932873360587</v>
+        <v>0.5852876327921427</v>
       </c>
       <c r="J9" s="3">
-        <v>27525</v>
+        <v>4138</v>
       </c>
       <c r="K9" s="3">
-        <v>27478</v>
+        <v>4127</v>
       </c>
       <c r="L9" s="3">
-        <v>27143</v>
+        <v>4110</v>
       </c>
       <c r="M9" s="3">
-        <v>26544</v>
+        <v>4039</v>
       </c>
       <c r="N9" s="3">
-        <v>599</v>
+        <v>71</v>
       </c>
       <c r="O9" s="4">
-        <v>0.9878084285610307</v>
+        <v>0.9958807850739035</v>
       </c>
       <c r="P9" s="3">
-        <v>335</v>
+        <v>17</v>
       </c>
       <c r="Q9" s="4">
-        <v>0.01219157143896936</v>
+        <v>0.004119214926096504</v>
       </c>
       <c r="R9" s="3">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="S9" s="3">
-        <v>26878</v>
+        <v>4097</v>
       </c>
       <c r="T9" s="3">
-        <v>72</v>
+        <v>1</v>
       </c>
       <c r="U9" s="3">
-        <v>265</v>
+        <v>13</v>
       </c>
       <c r="V9" s="4">
-        <v>0.9876171229101598</v>
+        <v>0.9965945025541231</v>
       </c>
       <c r="W9" s="5">
-        <v>134.1079339963834</v>
+        <v>135.641000247586</v>
       </c>
       <c r="X9" s="5">
-        <v>6.336987643158529</v>
+        <v>4.441941074523397</v>
       </c>
       <c r="Y9" s="3">
-        <v>1548</v>
+        <v>239</v>
       </c>
       <c r="Z9" s="3">
-        <v>119</v>
+        <v>15</v>
       </c>
       <c r="AA9" s="3">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="AB9" s="5">
         <v>60</v>
@@ -2567,21 +2793,241 @@
         <v>30</v>
       </c>
       <c r="AE9" s="3">
-        <v>1541</v>
+        <v>239</v>
       </c>
       <c r="AF9" s="3">
-        <v>119</v>
+        <v>15</v>
       </c>
       <c r="AG9" s="3">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="AH9" s="4">
-        <v>0.9954780361757106</v>
+        <v>1</v>
       </c>
       <c r="AI9" s="4">
         <v>1</v>
       </c>
       <c r="AJ9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36">
+      <c r="A10" s="2">
+        <v>45939</v>
+      </c>
+      <c r="B10" s="3">
+        <v>9306</v>
+      </c>
+      <c r="C10" s="3">
+        <v>5606</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1283</v>
+      </c>
+      <c r="E10" s="3">
+        <v>4323</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.2288619336425258</v>
+      </c>
+      <c r="G10" s="5">
+        <v>44.83624687834463</v>
+      </c>
+      <c r="H10" s="3">
+        <v>3700</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0.6024070492155599</v>
+      </c>
+      <c r="J10" s="3">
+        <v>3700</v>
+      </c>
+      <c r="K10" s="3">
+        <v>3697</v>
+      </c>
+      <c r="L10" s="3">
+        <v>3688</v>
+      </c>
+      <c r="M10" s="3">
+        <v>3602</v>
+      </c>
+      <c r="N10" s="3">
+        <v>86</v>
+      </c>
+      <c r="O10" s="4">
+        <v>0.9975655937246415</v>
+      </c>
+      <c r="P10" s="3">
+        <v>9</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>0.00243440627535847</v>
+      </c>
+      <c r="R10" s="3">
+        <v>3</v>
+      </c>
+      <c r="S10" s="3">
+        <v>3680</v>
+      </c>
+      <c r="T10" s="3">
+        <v>1</v>
+      </c>
+      <c r="U10" s="3">
+        <v>8</v>
+      </c>
+      <c r="V10" s="4">
+        <v>0.99756031444836</v>
+      </c>
+      <c r="W10" s="5">
+        <v>136.5985563575791</v>
+      </c>
+      <c r="X10" s="5">
+        <v>2.317601332593004</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>236</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>24</v>
+      </c>
+      <c r="AA10" s="3">
+        <v>12</v>
+      </c>
+      <c r="AB10" s="5">
+        <v>60</v>
+      </c>
+      <c r="AC10" s="5">
+        <v>45</v>
+      </c>
+      <c r="AD10" s="5">
+        <v>30</v>
+      </c>
+      <c r="AE10" s="3">
+        <v>236</v>
+      </c>
+      <c r="AF10" s="3">
+        <v>24</v>
+      </c>
+      <c r="AG10" s="3">
+        <v>12</v>
+      </c>
+      <c r="AH10" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI10" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36">
+      <c r="A11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="3">
+        <v>85085</v>
+      </c>
+      <c r="C11" s="3">
+        <v>49722</v>
+      </c>
+      <c r="D11" s="3">
+        <v>11499</v>
+      </c>
+      <c r="E11" s="3">
+        <v>38223</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.2312658380596114</v>
+      </c>
+      <c r="G11" s="5">
+        <v>44.36883069868469</v>
+      </c>
+      <c r="H11" s="3">
+        <v>35363</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0.5843803255567962</v>
+      </c>
+      <c r="J11" s="3">
+        <v>35363</v>
+      </c>
+      <c r="K11" s="3">
+        <v>35302</v>
+      </c>
+      <c r="L11" s="3">
+        <v>34941</v>
+      </c>
+      <c r="M11" s="3">
+        <v>34185</v>
+      </c>
+      <c r="N11" s="3">
+        <v>756</v>
+      </c>
+      <c r="O11" s="4">
+        <v>0.9897739504843919</v>
+      </c>
+      <c r="P11" s="3">
+        <v>361</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>0.01022604951560808</v>
+      </c>
+      <c r="R11" s="3">
+        <v>61</v>
+      </c>
+      <c r="S11" s="3">
+        <v>34655</v>
+      </c>
+      <c r="T11" s="3">
+        <v>74</v>
+      </c>
+      <c r="U11" s="3">
+        <v>286</v>
+      </c>
+      <c r="V11" s="4">
+        <v>0.9897186919891474</v>
+      </c>
+      <c r="W11" s="5">
+        <v>134.5514991955536</v>
+      </c>
+      <c r="X11" s="5">
+        <v>5.68957144946614</v>
+      </c>
+      <c r="Y11" s="3">
+        <v>2023</v>
+      </c>
+      <c r="Z11" s="3">
+        <v>158</v>
+      </c>
+      <c r="AA11" s="3">
+        <v>102</v>
+      </c>
+      <c r="AB11" s="5">
+        <v>60</v>
+      </c>
+      <c r="AC11" s="5">
+        <v>45</v>
+      </c>
+      <c r="AD11" s="5">
+        <v>30</v>
+      </c>
+      <c r="AE11" s="3">
+        <v>2016</v>
+      </c>
+      <c r="AF11" s="3">
+        <v>158</v>
+      </c>
+      <c r="AG11" s="3">
+        <v>102</v>
+      </c>
+      <c r="AH11" s="4">
+        <v>0.9965397923875432</v>
+      </c>
+      <c r="AI11" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ11" s="4">
         <v>1</v>
       </c>
     </row>
@@ -2592,7 +3038,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ9"/>
+  <dimension ref="A1:AJ11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3482,86 +3928,86 @@
       </c>
     </row>
     <row r="9" spans="1:36">
-      <c r="A9" s="3" t="s">
-        <v>36</v>
+      <c r="A9" s="2">
+        <v>45938</v>
       </c>
       <c r="B9" s="3">
-        <v>31333</v>
+        <v>4810</v>
       </c>
       <c r="C9" s="3">
-        <v>14975</v>
+        <v>2310</v>
       </c>
       <c r="D9" s="3">
-        <v>5196</v>
+        <v>747</v>
       </c>
       <c r="E9" s="3">
-        <v>9779</v>
+        <v>1563</v>
       </c>
       <c r="F9" s="4">
-        <v>0.3469782971619366</v>
+        <v>0.3233766233766234</v>
       </c>
       <c r="G9" s="5">
-        <v>27.36106844741235</v>
+        <v>26.4008658008658</v>
       </c>
       <c r="H9" s="3">
-        <v>16358</v>
+        <v>2500</v>
       </c>
       <c r="I9" s="4">
-        <v>0.4779306162831519</v>
+        <v>0.4802494802494802</v>
       </c>
       <c r="J9" s="3">
-        <v>16358</v>
+        <v>2500</v>
       </c>
       <c r="K9" s="3">
-        <v>16320</v>
+        <v>2493</v>
       </c>
       <c r="L9" s="3">
-        <v>15980</v>
+        <v>2464</v>
       </c>
       <c r="M9" s="3">
-        <v>15685</v>
+        <v>2421</v>
       </c>
       <c r="N9" s="3">
-        <v>295</v>
+        <v>43</v>
       </c>
       <c r="O9" s="4">
-        <v>0.9791666666666665</v>
+        <v>0.9883674288006418</v>
       </c>
       <c r="P9" s="3">
-        <v>340</v>
+        <v>29</v>
       </c>
       <c r="Q9" s="4">
-        <v>0.02083333333333343</v>
+        <v>0.01163257119935821</v>
       </c>
       <c r="R9" s="3">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="S9" s="3">
-        <v>15837</v>
+        <v>2457</v>
       </c>
       <c r="T9" s="3">
-        <v>90</v>
+        <v>2</v>
       </c>
       <c r="U9" s="3">
-        <v>143</v>
+        <v>7</v>
       </c>
       <c r="V9" s="4">
-        <v>0.9855009334163036</v>
+        <v>0.9963503649635037</v>
       </c>
       <c r="W9" s="5">
-        <v>123.8886197003507</v>
+        <v>129.909541511772</v>
       </c>
       <c r="X9" s="5">
-        <v>5.800318775900542</v>
+        <v>3.72573316811235</v>
       </c>
       <c r="Y9" s="3">
-        <v>1031</v>
+        <v>202</v>
       </c>
       <c r="Z9" s="3">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AA9" s="3">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="AB9" s="5">
         <v>60</v>
@@ -3573,21 +4019,241 @@
         <v>30</v>
       </c>
       <c r="AE9" s="3">
-        <v>1027</v>
+        <v>202</v>
       </c>
       <c r="AF9" s="3">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AG9" s="3">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="AH9" s="4">
-        <v>0.9961202715809894</v>
+        <v>1</v>
       </c>
       <c r="AI9" s="4">
         <v>1</v>
       </c>
       <c r="AJ9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36">
+      <c r="A10" s="2">
+        <v>45939</v>
+      </c>
+      <c r="B10" s="3">
+        <v>4427</v>
+      </c>
+      <c r="C10" s="3">
+        <v>2126</v>
+      </c>
+      <c r="D10" s="3">
+        <v>702</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1424</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.3301975540921919</v>
+      </c>
+      <c r="G10" s="5">
+        <v>26.96095954844779</v>
+      </c>
+      <c r="H10" s="3">
+        <v>2301</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0.4802349220691213</v>
+      </c>
+      <c r="J10" s="3">
+        <v>2301</v>
+      </c>
+      <c r="K10" s="3">
+        <v>2296</v>
+      </c>
+      <c r="L10" s="3">
+        <v>2282</v>
+      </c>
+      <c r="M10" s="3">
+        <v>2233</v>
+      </c>
+      <c r="N10" s="3">
+        <v>49</v>
+      </c>
+      <c r="O10" s="4">
+        <v>0.9939024390243902</v>
+      </c>
+      <c r="P10" s="3">
+        <v>14</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>0.006097560975609753</v>
+      </c>
+      <c r="R10" s="3">
+        <v>5</v>
+      </c>
+      <c r="S10" s="3">
+        <v>2277</v>
+      </c>
+      <c r="T10" s="3">
+        <v>1</v>
+      </c>
+      <c r="U10" s="3">
+        <v>5</v>
+      </c>
+      <c r="V10" s="4">
+        <v>0.9973718791064389</v>
+      </c>
+      <c r="W10" s="5">
+        <v>126.0855351545007</v>
+      </c>
+      <c r="X10" s="5">
+        <v>2.686968204209584</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>205</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>5</v>
+      </c>
+      <c r="AA10" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="5">
+        <v>60</v>
+      </c>
+      <c r="AC10" s="5">
+        <v>45</v>
+      </c>
+      <c r="AD10" s="5">
+        <v>30</v>
+      </c>
+      <c r="AE10" s="3">
+        <v>205</v>
+      </c>
+      <c r="AF10" s="3">
+        <v>5</v>
+      </c>
+      <c r="AG10" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH10" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI10" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36">
+      <c r="A11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="3">
+        <v>40570</v>
+      </c>
+      <c r="C11" s="3">
+        <v>19411</v>
+      </c>
+      <c r="D11" s="3">
+        <v>6645</v>
+      </c>
+      <c r="E11" s="3">
+        <v>12766</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.3423316676111483</v>
+      </c>
+      <c r="G11" s="5">
+        <v>27.20297769306064</v>
+      </c>
+      <c r="H11" s="3">
+        <v>21159</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0.4784569879221099</v>
+      </c>
+      <c r="J11" s="3">
+        <v>21159</v>
+      </c>
+      <c r="K11" s="3">
+        <v>21109</v>
+      </c>
+      <c r="L11" s="3">
+        <v>20726</v>
+      </c>
+      <c r="M11" s="3">
+        <v>20339</v>
+      </c>
+      <c r="N11" s="3">
+        <v>387</v>
+      </c>
+      <c r="O11" s="4">
+        <v>0.9818560803448766</v>
+      </c>
+      <c r="P11" s="3">
+        <v>383</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>0.01814391965512343</v>
+      </c>
+      <c r="R11" s="3">
+        <v>50</v>
+      </c>
+      <c r="S11" s="3">
+        <v>20571</v>
+      </c>
+      <c r="T11" s="3">
+        <v>93</v>
+      </c>
+      <c r="U11" s="3">
+        <v>155</v>
+      </c>
+      <c r="V11" s="4">
+        <v>0.9880878044094337</v>
+      </c>
+      <c r="W11" s="5">
+        <v>124.8465017945818</v>
+      </c>
+      <c r="X11" s="5">
+        <v>5.211563990363342</v>
+      </c>
+      <c r="Y11" s="3">
+        <v>1438</v>
+      </c>
+      <c r="Z11" s="3">
+        <v>16</v>
+      </c>
+      <c r="AA11" s="3">
+        <v>25</v>
+      </c>
+      <c r="AB11" s="5">
+        <v>60</v>
+      </c>
+      <c r="AC11" s="5">
+        <v>45</v>
+      </c>
+      <c r="AD11" s="5">
+        <v>30</v>
+      </c>
+      <c r="AE11" s="3">
+        <v>1434</v>
+      </c>
+      <c r="AF11" s="3">
+        <v>16</v>
+      </c>
+      <c r="AG11" s="3">
+        <v>25</v>
+      </c>
+      <c r="AH11" s="4">
+        <v>0.9972183588317107</v>
+      </c>
+      <c r="AI11" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ11" s="4">
         <v>1</v>
       </c>
     </row>
@@ -3598,7 +4264,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ9"/>
+  <dimension ref="A1:AJ11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4488,86 +5154,86 @@
       </c>
     </row>
     <row r="9" spans="1:36">
-      <c r="A9" s="3" t="s">
-        <v>36</v>
+      <c r="A9" s="2">
+        <v>45938</v>
       </c>
       <c r="B9" s="3">
-        <v>20174</v>
+        <v>3579</v>
       </c>
       <c r="C9" s="3">
-        <v>8542</v>
+        <v>1505</v>
       </c>
       <c r="D9" s="3">
-        <v>2511</v>
+        <v>342</v>
       </c>
       <c r="E9" s="3">
-        <v>6031</v>
+        <v>1163</v>
       </c>
       <c r="F9" s="4">
-        <v>0.2939592601264341</v>
+        <v>0.2272425249169435</v>
       </c>
       <c r="G9" s="5">
-        <v>37.67209084523531</v>
+        <v>43.72358803986711</v>
       </c>
       <c r="H9" s="3">
-        <v>11632</v>
+        <v>2074</v>
       </c>
       <c r="I9" s="4">
-        <v>0.4234162783781105</v>
+        <v>0.420508521933501</v>
       </c>
       <c r="J9" s="3">
-        <v>11632</v>
+        <v>2074</v>
       </c>
       <c r="K9" s="3">
-        <v>11613</v>
+        <v>2069</v>
       </c>
       <c r="L9" s="3">
-        <v>11477</v>
+        <v>2053</v>
       </c>
       <c r="M9" s="3">
-        <v>11342</v>
+        <v>2031</v>
       </c>
       <c r="N9" s="3">
+        <v>22</v>
+      </c>
+      <c r="O9" s="4">
+        <v>0.9922667955534075</v>
+      </c>
+      <c r="P9" s="3">
+        <v>16</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>0.007733204446592481</v>
+      </c>
+      <c r="R9" s="3">
+        <v>5</v>
+      </c>
+      <c r="S9" s="3">
+        <v>2041</v>
+      </c>
+      <c r="T9" s="3">
+        <v>3</v>
+      </c>
+      <c r="U9" s="3">
+        <v>12</v>
+      </c>
+      <c r="V9" s="4">
+        <v>0.992704280155642</v>
+      </c>
+      <c r="W9" s="5">
+        <v>128.0891186607583</v>
+      </c>
+      <c r="X9" s="5">
+        <v>4.657311669128508</v>
+      </c>
+      <c r="Y9" s="3">
         <v>135</v>
       </c>
-      <c r="O9" s="4">
-        <v>0.9882889864806682</v>
-      </c>
-      <c r="P9" s="3">
-        <v>136</v>
-      </c>
-      <c r="Q9" s="4">
-        <v>0.01171101351933174</v>
-      </c>
-      <c r="R9" s="3">
-        <v>19</v>
-      </c>
-      <c r="S9" s="3">
-        <v>11357</v>
-      </c>
-      <c r="T9" s="3">
-        <v>42</v>
-      </c>
-      <c r="U9" s="3">
-        <v>120</v>
-      </c>
-      <c r="V9" s="4">
-        <v>0.985936279190902</v>
-      </c>
-      <c r="W9" s="5">
-        <v>137.9244401340152</v>
-      </c>
-      <c r="X9" s="5">
-        <v>6.153941103861753</v>
-      </c>
-      <c r="Y9" s="3">
-        <v>739</v>
-      </c>
       <c r="Z9" s="3">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="AA9" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AB9" s="5">
         <v>60</v>
@@ -4579,21 +5245,241 @@
         <v>30</v>
       </c>
       <c r="AE9" s="3">
-        <v>737</v>
+        <v>135</v>
       </c>
       <c r="AF9" s="3">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="AG9" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH9" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI9" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36">
+      <c r="A10" s="2">
+        <v>45939</v>
+      </c>
+      <c r="B10" s="3">
+        <v>3338</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1427</v>
+      </c>
+      <c r="D10" s="3">
+        <v>377</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1050</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.2641906096706377</v>
+      </c>
+      <c r="G10" s="5">
+        <v>40.91170287316048</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1911</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0.4275014979029359</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1911</v>
+      </c>
+      <c r="K10" s="3">
+        <v>1906</v>
+      </c>
+      <c r="L10" s="3">
+        <v>1899</v>
+      </c>
+      <c r="M10" s="3">
+        <v>1874</v>
+      </c>
+      <c r="N10" s="3">
+        <v>25</v>
+      </c>
+      <c r="O10" s="4">
+        <v>0.9963273871983211</v>
+      </c>
+      <c r="P10" s="3">
+        <v>7</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>0.00367261280167881</v>
+      </c>
+      <c r="R10" s="3">
+        <v>5</v>
+      </c>
+      <c r="S10" s="3">
+        <v>1895</v>
+      </c>
+      <c r="T10" s="3">
+        <v>2</v>
+      </c>
+      <c r="U10" s="3">
         <v>4</v>
       </c>
-      <c r="AH9" s="4">
-        <v>0.9972936400541272</v>
-      </c>
-      <c r="AI9" s="4">
-        <v>1</v>
-      </c>
-      <c r="AJ9" s="4">
+      <c r="V10" s="4">
+        <v>0.9968437664387164</v>
+      </c>
+      <c r="W10" s="5">
+        <v>135.5181430096051</v>
+      </c>
+      <c r="X10" s="5">
+        <v>3.323372465314835</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>114</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>3</v>
+      </c>
+      <c r="AA10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="5">
+        <v>60</v>
+      </c>
+      <c r="AC10" s="5">
+        <v>45</v>
+      </c>
+      <c r="AD10" s="5">
+        <v>30</v>
+      </c>
+      <c r="AE10" s="3">
+        <v>114</v>
+      </c>
+      <c r="AF10" s="3">
+        <v>3</v>
+      </c>
+      <c r="AG10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI10" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36">
+      <c r="A11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="3">
+        <v>27091</v>
+      </c>
+      <c r="C11" s="3">
+        <v>11474</v>
+      </c>
+      <c r="D11" s="3">
+        <v>3230</v>
+      </c>
+      <c r="E11" s="3">
+        <v>8244</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.2815060135959561</v>
+      </c>
+      <c r="G11" s="5">
+        <v>38.86874673174133</v>
+      </c>
+      <c r="H11" s="3">
+        <v>15617</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0.4235354914916393</v>
+      </c>
+      <c r="J11" s="3">
+        <v>15617</v>
+      </c>
+      <c r="K11" s="3">
+        <v>15588</v>
+      </c>
+      <c r="L11" s="3">
+        <v>15429</v>
+      </c>
+      <c r="M11" s="3">
+        <v>15247</v>
+      </c>
+      <c r="N11" s="3">
+        <v>182</v>
+      </c>
+      <c r="O11" s="4">
+        <v>0.9897998460354118</v>
+      </c>
+      <c r="P11" s="3">
+        <v>159</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>0.01020015396458817</v>
+      </c>
+      <c r="R11" s="3">
+        <v>29</v>
+      </c>
+      <c r="S11" s="3">
+        <v>15293</v>
+      </c>
+      <c r="T11" s="3">
+        <v>47</v>
+      </c>
+      <c r="U11" s="3">
+        <v>136</v>
+      </c>
+      <c r="V11" s="4">
+        <v>0.9881752390798656</v>
+      </c>
+      <c r="W11" s="5">
+        <v>136.3185544697317</v>
+      </c>
+      <c r="X11" s="5">
+        <v>5.606676723289827</v>
+      </c>
+      <c r="Y11" s="3">
+        <v>988</v>
+      </c>
+      <c r="Z11" s="3">
+        <v>30</v>
+      </c>
+      <c r="AA11" s="3">
+        <v>5</v>
+      </c>
+      <c r="AB11" s="5">
+        <v>60</v>
+      </c>
+      <c r="AC11" s="5">
+        <v>45</v>
+      </c>
+      <c r="AD11" s="5">
+        <v>30</v>
+      </c>
+      <c r="AE11" s="3">
+        <v>986</v>
+      </c>
+      <c r="AF11" s="3">
+        <v>30</v>
+      </c>
+      <c r="AG11" s="3">
+        <v>5</v>
+      </c>
+      <c r="AH11" s="4">
+        <v>0.9979757085020243</v>
+      </c>
+      <c r="AI11" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ11" s="4">
         <v>1</v>
       </c>
     </row>
@@ -4604,7 +5490,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L169"/>
+  <dimension ref="A1:L217"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -11035,6 +11921,1830 @@
         <v>100</v>
       </c>
     </row>
+    <row r="170" spans="1:12">
+      <c r="A170" s="2">
+        <v>45938</v>
+      </c>
+      <c r="B170" s="3">
+        <v>0</v>
+      </c>
+      <c r="C170" s="3">
+        <v>133</v>
+      </c>
+      <c r="D170" s="3">
+        <v>74</v>
+      </c>
+      <c r="E170" s="3">
+        <v>73</v>
+      </c>
+      <c r="F170" s="3">
+        <v>1</v>
+      </c>
+      <c r="G170" s="4">
+        <v>0.9864864864864864</v>
+      </c>
+      <c r="H170" s="4">
+        <v>1</v>
+      </c>
+      <c r="I170" s="5">
+        <v>126.0724637681159</v>
+      </c>
+      <c r="J170" s="3">
+        <v>100</v>
+      </c>
+      <c r="K170" s="3">
+        <v>100</v>
+      </c>
+      <c r="L170" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12">
+      <c r="A171" s="2">
+        <v>45938</v>
+      </c>
+      <c r="B171" s="3">
+        <v>1</v>
+      </c>
+      <c r="C171" s="3">
+        <v>82</v>
+      </c>
+      <c r="D171" s="3">
+        <v>52</v>
+      </c>
+      <c r="E171" s="3">
+        <v>52</v>
+      </c>
+      <c r="F171" s="3">
+        <v>0</v>
+      </c>
+      <c r="G171" s="4">
+        <v>1</v>
+      </c>
+      <c r="H171" s="4">
+        <v>1</v>
+      </c>
+      <c r="I171" s="5">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="J171" s="3">
+        <v>100</v>
+      </c>
+      <c r="K171" s="3">
+        <v>100</v>
+      </c>
+      <c r="L171" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12">
+      <c r="A172" s="2">
+        <v>45938</v>
+      </c>
+      <c r="B172" s="3">
+        <v>2</v>
+      </c>
+      <c r="C172" s="3">
+        <v>56</v>
+      </c>
+      <c r="D172" s="3">
+        <v>19</v>
+      </c>
+      <c r="E172" s="3">
+        <v>19</v>
+      </c>
+      <c r="F172" s="3">
+        <v>0</v>
+      </c>
+      <c r="G172" s="4">
+        <v>1</v>
+      </c>
+      <c r="H172" s="4">
+        <v>1</v>
+      </c>
+      <c r="I172" s="5">
+        <v>74.13333333333334</v>
+      </c>
+      <c r="J172" s="3">
+        <v>100</v>
+      </c>
+      <c r="K172" s="3">
+        <v>0</v>
+      </c>
+      <c r="L172" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12">
+      <c r="A173" s="2">
+        <v>45938</v>
+      </c>
+      <c r="B173" s="3">
+        <v>3</v>
+      </c>
+      <c r="C173" s="3">
+        <v>10</v>
+      </c>
+      <c r="D173" s="3">
+        <v>6</v>
+      </c>
+      <c r="E173" s="3">
+        <v>6</v>
+      </c>
+      <c r="F173" s="3">
+        <v>0</v>
+      </c>
+      <c r="G173" s="4">
+        <v>1</v>
+      </c>
+      <c r="H173" s="4">
+        <v>1</v>
+      </c>
+      <c r="I173" s="5">
+        <v>37.2</v>
+      </c>
+      <c r="J173" s="3">
+        <v>0</v>
+      </c>
+      <c r="K173" s="3">
+        <v>100</v>
+      </c>
+      <c r="L173" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12">
+      <c r="A174" s="2">
+        <v>45938</v>
+      </c>
+      <c r="B174" s="3">
+        <v>4</v>
+      </c>
+      <c r="C174" s="3">
+        <v>27</v>
+      </c>
+      <c r="D174" s="3">
+        <v>11</v>
+      </c>
+      <c r="E174" s="3">
+        <v>8</v>
+      </c>
+      <c r="F174" s="3">
+        <v>3</v>
+      </c>
+      <c r="G174" s="4">
+        <v>0.7272727272727273</v>
+      </c>
+      <c r="H174" s="4">
+        <v>0.6666666666666665</v>
+      </c>
+      <c r="I174" s="5">
+        <v>143.5</v>
+      </c>
+      <c r="J174" s="3">
+        <v>50</v>
+      </c>
+      <c r="K174" s="3">
+        <v>75</v>
+      </c>
+      <c r="L174" s="3">
+        <v>66.66666666666666</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12">
+      <c r="A175" s="2">
+        <v>45938</v>
+      </c>
+      <c r="B175" s="3">
+        <v>5</v>
+      </c>
+      <c r="C175" s="3">
+        <v>89</v>
+      </c>
+      <c r="D175" s="3">
+        <v>32</v>
+      </c>
+      <c r="E175" s="3">
+        <v>30</v>
+      </c>
+      <c r="F175" s="3">
+        <v>2</v>
+      </c>
+      <c r="G175" s="4">
+        <v>0.9375</v>
+      </c>
+      <c r="H175" s="4">
+        <v>0.9333333333333332</v>
+      </c>
+      <c r="I175" s="5">
+        <v>101.4827586206897</v>
+      </c>
+      <c r="J175" s="3">
+        <v>100</v>
+      </c>
+      <c r="K175" s="3">
+        <v>100</v>
+      </c>
+      <c r="L175" s="3">
+        <v>33.33333333333333</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12">
+      <c r="A176" s="2">
+        <v>45938</v>
+      </c>
+      <c r="B176" s="3">
+        <v>6</v>
+      </c>
+      <c r="C176" s="3">
+        <v>306</v>
+      </c>
+      <c r="D176" s="3">
+        <v>166</v>
+      </c>
+      <c r="E176" s="3">
+        <v>165</v>
+      </c>
+      <c r="F176" s="3">
+        <v>1</v>
+      </c>
+      <c r="G176" s="4">
+        <v>0.993975903614458</v>
+      </c>
+      <c r="H176" s="4">
+        <v>0.9879518072289156</v>
+      </c>
+      <c r="I176" s="5">
+        <v>106.8353658536585</v>
+      </c>
+      <c r="J176" s="3">
+        <v>100</v>
+      </c>
+      <c r="K176" s="3">
+        <v>98.64864864864865</v>
+      </c>
+      <c r="L176" s="3">
+        <v>96.875</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12">
+      <c r="A177" s="2">
+        <v>45938</v>
+      </c>
+      <c r="B177" s="3">
+        <v>7</v>
+      </c>
+      <c r="C177" s="3">
+        <v>637</v>
+      </c>
+      <c r="D177" s="3">
+        <v>326</v>
+      </c>
+      <c r="E177" s="3">
+        <v>319</v>
+      </c>
+      <c r="F177" s="3">
+        <v>7</v>
+      </c>
+      <c r="G177" s="4">
+        <v>0.9785276073619632</v>
+      </c>
+      <c r="H177" s="4">
+        <v>0.975</v>
+      </c>
+      <c r="I177" s="5">
+        <v>106.6190476190476</v>
+      </c>
+      <c r="J177" s="3">
+        <v>99.16666666666667</v>
+      </c>
+      <c r="K177" s="3">
+        <v>96.26865671641791</v>
+      </c>
+      <c r="L177" s="3">
+        <v>96.96969696969697</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12">
+      <c r="A178" s="2">
+        <v>45938</v>
+      </c>
+      <c r="B178" s="3">
+        <v>8</v>
+      </c>
+      <c r="C178" s="3">
+        <v>789</v>
+      </c>
+      <c r="D178" s="3">
+        <v>393</v>
+      </c>
+      <c r="E178" s="3">
+        <v>390</v>
+      </c>
+      <c r="F178" s="3">
+        <v>3</v>
+      </c>
+      <c r="G178" s="4">
+        <v>0.9923664122137404</v>
+      </c>
+      <c r="H178" s="4">
+        <v>0.9948717948717949</v>
+      </c>
+      <c r="I178" s="5">
+        <v>123.5104166666667</v>
+      </c>
+      <c r="J178" s="3">
+        <v>100</v>
+      </c>
+      <c r="K178" s="3">
+        <v>99.2</v>
+      </c>
+      <c r="L178" s="3">
+        <v>98.91304347826086</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12">
+      <c r="A179" s="2">
+        <v>45938</v>
+      </c>
+      <c r="B179" s="3">
+        <v>9</v>
+      </c>
+      <c r="C179" s="3">
+        <v>1172</v>
+      </c>
+      <c r="D179" s="3">
+        <v>553</v>
+      </c>
+      <c r="E179" s="3">
+        <v>550</v>
+      </c>
+      <c r="F179" s="3">
+        <v>3</v>
+      </c>
+      <c r="G179" s="4">
+        <v>0.9945750452079565</v>
+      </c>
+      <c r="H179" s="4">
+        <v>0.9963636363636365</v>
+      </c>
+      <c r="I179" s="5">
+        <v>130.5764272559853</v>
+      </c>
+      <c r="J179" s="3">
+        <v>100</v>
+      </c>
+      <c r="K179" s="3">
+        <v>99.3421052631579</v>
+      </c>
+      <c r="L179" s="3">
+        <v>99.22480620155039</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12">
+      <c r="A180" s="2">
+        <v>45938</v>
+      </c>
+      <c r="B180" s="3">
+        <v>10</v>
+      </c>
+      <c r="C180" s="3">
+        <v>1224</v>
+      </c>
+      <c r="D180" s="3">
+        <v>649</v>
+      </c>
+      <c r="E180" s="3">
+        <v>646</v>
+      </c>
+      <c r="F180" s="3">
+        <v>3</v>
+      </c>
+      <c r="G180" s="4">
+        <v>0.9953775038520801</v>
+      </c>
+      <c r="H180" s="4">
+        <v>1</v>
+      </c>
+      <c r="I180" s="5">
+        <v>129.588785046729</v>
+      </c>
+      <c r="J180" s="3">
+        <v>100</v>
+      </c>
+      <c r="K180" s="3">
+        <v>100</v>
+      </c>
+      <c r="L180" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12">
+      <c r="A181" s="2">
+        <v>45938</v>
+      </c>
+      <c r="B181" s="3">
+        <v>11</v>
+      </c>
+      <c r="C181" s="3">
+        <v>1327</v>
+      </c>
+      <c r="D181" s="3">
+        <v>649</v>
+      </c>
+      <c r="E181" s="3">
+        <v>646</v>
+      </c>
+      <c r="F181" s="3">
+        <v>3</v>
+      </c>
+      <c r="G181" s="4">
+        <v>0.9953775038520801</v>
+      </c>
+      <c r="H181" s="4">
+        <v>0.9922600619195046</v>
+      </c>
+      <c r="I181" s="5">
+        <v>128.68125</v>
+      </c>
+      <c r="J181" s="3">
+        <v>98.62068965517241</v>
+      </c>
+      <c r="K181" s="3">
+        <v>100</v>
+      </c>
+      <c r="L181" s="3">
+        <v>99.44134078212289</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12">
+      <c r="A182" s="2">
+        <v>45938</v>
+      </c>
+      <c r="B182" s="3">
+        <v>12</v>
+      </c>
+      <c r="C182" s="3">
+        <v>1283</v>
+      </c>
+      <c r="D182" s="3">
+        <v>636</v>
+      </c>
+      <c r="E182" s="3">
+        <v>633</v>
+      </c>
+      <c r="F182" s="3">
+        <v>3</v>
+      </c>
+      <c r="G182" s="4">
+        <v>0.9952830188679245</v>
+      </c>
+      <c r="H182" s="4">
+        <v>0.9984202211690362</v>
+      </c>
+      <c r="I182" s="5">
+        <v>130.2264752791069</v>
+      </c>
+      <c r="J182" s="3">
+        <v>100</v>
+      </c>
+      <c r="K182" s="3">
+        <v>100</v>
+      </c>
+      <c r="L182" s="3">
+        <v>99.35483870967742</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12">
+      <c r="A183" s="2">
+        <v>45938</v>
+      </c>
+      <c r="B183" s="3">
+        <v>13</v>
+      </c>
+      <c r="C183" s="3">
+        <v>1162</v>
+      </c>
+      <c r="D183" s="3">
+        <v>591</v>
+      </c>
+      <c r="E183" s="3">
+        <v>583</v>
+      </c>
+      <c r="F183" s="3">
+        <v>8</v>
+      </c>
+      <c r="G183" s="4">
+        <v>0.9864636209813875</v>
+      </c>
+      <c r="H183" s="4">
+        <v>0.9931506849315067</v>
+      </c>
+      <c r="I183" s="5">
+        <v>118.2556131260795</v>
+      </c>
+      <c r="J183" s="3">
+        <v>98.86792452830188</v>
+      </c>
+      <c r="K183" s="3">
+        <v>100</v>
+      </c>
+      <c r="L183" s="3">
+        <v>99.39393939393939</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12">
+      <c r="A184" s="2">
+        <v>45938</v>
+      </c>
+      <c r="B184" s="3">
+        <v>14</v>
+      </c>
+      <c r="C184" s="3">
+        <v>1165</v>
+      </c>
+      <c r="D184" s="3">
+        <v>548</v>
+      </c>
+      <c r="E184" s="3">
+        <v>548</v>
+      </c>
+      <c r="F184" s="3">
+        <v>0</v>
+      </c>
+      <c r="G184" s="4">
+        <v>1</v>
+      </c>
+      <c r="H184" s="4">
+        <v>0.9963503649635037</v>
+      </c>
+      <c r="I184" s="5">
+        <v>133.9180633147114</v>
+      </c>
+      <c r="J184" s="3">
+        <v>99.26470588235294</v>
+      </c>
+      <c r="K184" s="3">
+        <v>100</v>
+      </c>
+      <c r="L184" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12">
+      <c r="A185" s="2">
+        <v>45938</v>
+      </c>
+      <c r="B185" s="3">
+        <v>15</v>
+      </c>
+      <c r="C185" s="3">
+        <v>1109</v>
+      </c>
+      <c r="D185" s="3">
+        <v>513</v>
+      </c>
+      <c r="E185" s="3">
+        <v>513</v>
+      </c>
+      <c r="F185" s="3">
+        <v>0</v>
+      </c>
+      <c r="G185" s="4">
+        <v>1</v>
+      </c>
+      <c r="H185" s="4">
+        <v>1</v>
+      </c>
+      <c r="I185" s="5">
+        <v>123.8998035363458</v>
+      </c>
+      <c r="J185" s="3">
+        <v>100</v>
+      </c>
+      <c r="K185" s="3">
+        <v>100</v>
+      </c>
+      <c r="L185" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12">
+      <c r="A186" s="2">
+        <v>45938</v>
+      </c>
+      <c r="B186" s="3">
+        <v>16</v>
+      </c>
+      <c r="C186" s="3">
+        <v>1079</v>
+      </c>
+      <c r="D186" s="3">
+        <v>477</v>
+      </c>
+      <c r="E186" s="3">
+        <v>476</v>
+      </c>
+      <c r="F186" s="3">
+        <v>1</v>
+      </c>
+      <c r="G186" s="4">
+        <v>0.9979035639412998</v>
+      </c>
+      <c r="H186" s="4">
+        <v>1</v>
+      </c>
+      <c r="I186" s="5">
+        <v>137.8755364806867</v>
+      </c>
+      <c r="J186" s="3">
+        <v>100</v>
+      </c>
+      <c r="K186" s="3">
+        <v>100</v>
+      </c>
+      <c r="L186" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12">
+      <c r="A187" s="2">
+        <v>45938</v>
+      </c>
+      <c r="B187" s="3">
+        <v>17</v>
+      </c>
+      <c r="C187" s="3">
+        <v>1249</v>
+      </c>
+      <c r="D187" s="3">
+        <v>552</v>
+      </c>
+      <c r="E187" s="3">
+        <v>551</v>
+      </c>
+      <c r="F187" s="3">
+        <v>1</v>
+      </c>
+      <c r="G187" s="4">
+        <v>0.9981884057971014</v>
+      </c>
+      <c r="H187" s="4">
+        <v>1</v>
+      </c>
+      <c r="I187" s="5">
+        <v>141.0824175824176</v>
+      </c>
+      <c r="J187" s="3">
+        <v>100</v>
+      </c>
+      <c r="K187" s="3">
+        <v>100</v>
+      </c>
+      <c r="L187" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12">
+      <c r="A188" s="2">
+        <v>45938</v>
+      </c>
+      <c r="B188" s="3">
+        <v>18</v>
+      </c>
+      <c r="C188" s="3">
+        <v>1416</v>
+      </c>
+      <c r="D188" s="3">
+        <v>594</v>
+      </c>
+      <c r="E188" s="3">
+        <v>586</v>
+      </c>
+      <c r="F188" s="3">
+        <v>8</v>
+      </c>
+      <c r="G188" s="4">
+        <v>0.9865319865319865</v>
+      </c>
+      <c r="H188" s="4">
+        <v>1</v>
+      </c>
+      <c r="I188" s="5">
+        <v>140.8719723183391</v>
+      </c>
+      <c r="J188" s="3">
+        <v>100</v>
+      </c>
+      <c r="K188" s="3">
+        <v>100</v>
+      </c>
+      <c r="L188" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12">
+      <c r="A189" s="2">
+        <v>45938</v>
+      </c>
+      <c r="B189" s="3">
+        <v>19</v>
+      </c>
+      <c r="C189" s="3">
+        <v>1375</v>
+      </c>
+      <c r="D189" s="3">
+        <v>614</v>
+      </c>
+      <c r="E189" s="3">
+        <v>613</v>
+      </c>
+      <c r="F189" s="3">
+        <v>1</v>
+      </c>
+      <c r="G189" s="4">
+        <v>0.998371335504886</v>
+      </c>
+      <c r="H189" s="4">
+        <v>1</v>
+      </c>
+      <c r="I189" s="5">
+        <v>142.0132669983416</v>
+      </c>
+      <c r="J189" s="3">
+        <v>100</v>
+      </c>
+      <c r="K189" s="3">
+        <v>100</v>
+      </c>
+      <c r="L189" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12">
+      <c r="A190" s="2">
+        <v>45938</v>
+      </c>
+      <c r="B190" s="3">
+        <v>20</v>
+      </c>
+      <c r="C190" s="3">
+        <v>1096</v>
+      </c>
+      <c r="D190" s="3">
+        <v>504</v>
+      </c>
+      <c r="E190" s="3">
+        <v>492</v>
+      </c>
+      <c r="F190" s="3">
+        <v>12</v>
+      </c>
+      <c r="G190" s="4">
+        <v>0.9761904761904762</v>
+      </c>
+      <c r="H190" s="4">
+        <v>0.9919028340080972</v>
+      </c>
+      <c r="I190" s="5">
+        <v>148.9672131147541</v>
+      </c>
+      <c r="J190" s="3">
+        <v>100</v>
+      </c>
+      <c r="K190" s="3">
+        <v>100</v>
+      </c>
+      <c r="L190" s="3">
+        <v>96.11650485436894</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12">
+      <c r="A191" s="2">
+        <v>45938</v>
+      </c>
+      <c r="B191" s="3">
+        <v>21</v>
+      </c>
+      <c r="C191" s="3">
+        <v>866</v>
+      </c>
+      <c r="D191" s="3">
+        <v>376</v>
+      </c>
+      <c r="E191" s="3">
+        <v>374</v>
+      </c>
+      <c r="F191" s="3">
+        <v>2</v>
+      </c>
+      <c r="G191" s="4">
+        <v>0.9946808510638298</v>
+      </c>
+      <c r="H191" s="4">
+        <v>0.9919786096256683</v>
+      </c>
+      <c r="I191" s="5">
+        <v>144.5803814713896</v>
+      </c>
+      <c r="J191" s="3">
+        <v>98.46938775510205</v>
+      </c>
+      <c r="K191" s="3">
+        <v>100</v>
+      </c>
+      <c r="L191" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12">
+      <c r="A192" s="2">
+        <v>45938</v>
+      </c>
+      <c r="B192" s="3">
+        <v>22</v>
+      </c>
+      <c r="C192" s="3">
+        <v>481</v>
+      </c>
+      <c r="D192" s="3">
+        <v>229</v>
+      </c>
+      <c r="E192" s="3">
+        <v>229</v>
+      </c>
+      <c r="F192" s="3">
+        <v>0</v>
+      </c>
+      <c r="G192" s="4">
+        <v>1</v>
+      </c>
+      <c r="H192" s="4">
+        <v>1</v>
+      </c>
+      <c r="I192" s="5">
+        <v>143.3362831858407</v>
+      </c>
+      <c r="J192" s="3">
+        <v>100</v>
+      </c>
+      <c r="K192" s="3">
+        <v>100</v>
+      </c>
+      <c r="L192" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12">
+      <c r="A193" s="2">
+        <v>45938</v>
+      </c>
+      <c r="B193" s="3">
+        <v>23</v>
+      </c>
+      <c r="C193" s="3">
+        <v>234</v>
+      </c>
+      <c r="D193" s="3">
+        <v>125</v>
+      </c>
+      <c r="E193" s="3">
+        <v>125</v>
+      </c>
+      <c r="F193" s="3">
+        <v>0</v>
+      </c>
+      <c r="G193" s="4">
+        <v>1</v>
+      </c>
+      <c r="H193" s="4">
+        <v>1</v>
+      </c>
+      <c r="I193" s="5">
+        <v>165.5943396226415</v>
+      </c>
+      <c r="J193" s="3">
+        <v>100</v>
+      </c>
+      <c r="K193" s="3">
+        <v>100</v>
+      </c>
+      <c r="L193" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12">
+      <c r="A194" s="2">
+        <v>45939</v>
+      </c>
+      <c r="B194" s="3">
+        <v>0</v>
+      </c>
+      <c r="C194" s="3">
+        <v>81</v>
+      </c>
+      <c r="D194" s="3">
+        <v>41</v>
+      </c>
+      <c r="E194" s="3">
+        <v>41</v>
+      </c>
+      <c r="F194" s="3">
+        <v>0</v>
+      </c>
+      <c r="G194" s="4">
+        <v>1</v>
+      </c>
+      <c r="H194" s="4">
+        <v>1</v>
+      </c>
+      <c r="I194" s="5">
+        <v>179.3333333333333</v>
+      </c>
+      <c r="J194" s="3">
+        <v>100</v>
+      </c>
+      <c r="K194" s="3">
+        <v>100</v>
+      </c>
+      <c r="L194" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12">
+      <c r="A195" s="2">
+        <v>45939</v>
+      </c>
+      <c r="B195" s="3">
+        <v>1</v>
+      </c>
+      <c r="C195" s="3">
+        <v>92</v>
+      </c>
+      <c r="D195" s="3">
+        <v>53</v>
+      </c>
+      <c r="E195" s="3">
+        <v>53</v>
+      </c>
+      <c r="F195" s="3">
+        <v>0</v>
+      </c>
+      <c r="G195" s="4">
+        <v>1</v>
+      </c>
+      <c r="H195" s="4">
+        <v>1</v>
+      </c>
+      <c r="I195" s="5">
+        <v>40.94444444444444</v>
+      </c>
+      <c r="J195" s="3">
+        <v>100</v>
+      </c>
+      <c r="K195" s="3">
+        <v>100</v>
+      </c>
+      <c r="L195" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12">
+      <c r="A196" s="2">
+        <v>45939</v>
+      </c>
+      <c r="B196" s="3">
+        <v>2</v>
+      </c>
+      <c r="C196" s="3">
+        <v>33</v>
+      </c>
+      <c r="D196" s="3">
+        <v>17</v>
+      </c>
+      <c r="E196" s="3">
+        <v>17</v>
+      </c>
+      <c r="F196" s="3">
+        <v>0</v>
+      </c>
+      <c r="G196" s="4">
+        <v>1</v>
+      </c>
+      <c r="H196" s="4">
+        <v>0.9411764705882352</v>
+      </c>
+      <c r="I196" s="5">
+        <v>72.23076923076923</v>
+      </c>
+      <c r="J196" s="3">
+        <v>90</v>
+      </c>
+      <c r="K196" s="3">
+        <v>100</v>
+      </c>
+      <c r="L196" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12">
+      <c r="A197" s="2">
+        <v>45939</v>
+      </c>
+      <c r="B197" s="3">
+        <v>3</v>
+      </c>
+      <c r="C197" s="3">
+        <v>30</v>
+      </c>
+      <c r="D197" s="3">
+        <v>11</v>
+      </c>
+      <c r="E197" s="3">
+        <v>11</v>
+      </c>
+      <c r="F197" s="3">
+        <v>0</v>
+      </c>
+      <c r="G197" s="4">
+        <v>1</v>
+      </c>
+      <c r="H197" s="4">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="I197" s="5">
+        <v>115.5454545454545</v>
+      </c>
+      <c r="J197" s="3">
+        <v>80</v>
+      </c>
+      <c r="K197" s="3">
+        <v>100</v>
+      </c>
+      <c r="L197" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12">
+      <c r="A198" s="2">
+        <v>45939</v>
+      </c>
+      <c r="B198" s="3">
+        <v>4</v>
+      </c>
+      <c r="C198" s="3">
+        <v>36</v>
+      </c>
+      <c r="D198" s="3">
+        <v>14</v>
+      </c>
+      <c r="E198" s="3">
+        <v>13</v>
+      </c>
+      <c r="F198" s="3">
+        <v>1</v>
+      </c>
+      <c r="G198" s="4">
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="H198" s="4">
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="I198" s="5">
+        <v>165.5384615384615</v>
+      </c>
+      <c r="J198" s="3">
+        <v>90</v>
+      </c>
+      <c r="K198" s="3">
+        <v>100</v>
+      </c>
+      <c r="L198" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12">
+      <c r="A199" s="2">
+        <v>45939</v>
+      </c>
+      <c r="B199" s="3">
+        <v>5</v>
+      </c>
+      <c r="C199" s="3">
+        <v>96</v>
+      </c>
+      <c r="D199" s="3">
+        <v>25</v>
+      </c>
+      <c r="E199" s="3">
+        <v>23</v>
+      </c>
+      <c r="F199" s="3">
+        <v>2</v>
+      </c>
+      <c r="G199" s="4">
+        <v>0.92</v>
+      </c>
+      <c r="H199" s="4">
+        <v>0.7826086956521739</v>
+      </c>
+      <c r="I199" s="5">
+        <v>83.56521739130434</v>
+      </c>
+      <c r="J199" s="3">
+        <v>90</v>
+      </c>
+      <c r="K199" s="3">
+        <v>70</v>
+      </c>
+      <c r="L199" s="3">
+        <v>66.66666666666666</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12">
+      <c r="A200" s="2">
+        <v>45939</v>
+      </c>
+      <c r="B200" s="3">
+        <v>6</v>
+      </c>
+      <c r="C200" s="3">
+        <v>267</v>
+      </c>
+      <c r="D200" s="3">
+        <v>115</v>
+      </c>
+      <c r="E200" s="3">
+        <v>112</v>
+      </c>
+      <c r="F200" s="3">
+        <v>3</v>
+      </c>
+      <c r="G200" s="4">
+        <v>0.9739130434782609</v>
+      </c>
+      <c r="H200" s="4">
+        <v>0.9732142857142857</v>
+      </c>
+      <c r="I200" s="5">
+        <v>122.8727272727273</v>
+      </c>
+      <c r="J200" s="3">
+        <v>93.61702127659575</v>
+      </c>
+      <c r="K200" s="3">
+        <v>100</v>
+      </c>
+      <c r="L200" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12">
+      <c r="A201" s="2">
+        <v>45939</v>
+      </c>
+      <c r="B201" s="3">
+        <v>7</v>
+      </c>
+      <c r="C201" s="3">
+        <v>534</v>
+      </c>
+      <c r="D201" s="3">
+        <v>252</v>
+      </c>
+      <c r="E201" s="3">
+        <v>252</v>
+      </c>
+      <c r="F201" s="3">
+        <v>0</v>
+      </c>
+      <c r="G201" s="4">
+        <v>1</v>
+      </c>
+      <c r="H201" s="4">
+        <v>1</v>
+      </c>
+      <c r="I201" s="5">
+        <v>130.3456790123457</v>
+      </c>
+      <c r="J201" s="3">
+        <v>100</v>
+      </c>
+      <c r="K201" s="3">
+        <v>100</v>
+      </c>
+      <c r="L201" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12">
+      <c r="A202" s="2">
+        <v>45939</v>
+      </c>
+      <c r="B202" s="3">
+        <v>8</v>
+      </c>
+      <c r="C202" s="3">
+        <v>792</v>
+      </c>
+      <c r="D202" s="3">
+        <v>377</v>
+      </c>
+      <c r="E202" s="3">
+        <v>372</v>
+      </c>
+      <c r="F202" s="3">
+        <v>5</v>
+      </c>
+      <c r="G202" s="4">
+        <v>0.986737400530504</v>
+      </c>
+      <c r="H202" s="4">
+        <v>0.9946380697050938</v>
+      </c>
+      <c r="I202" s="5">
+        <v>129.6185286103542</v>
+      </c>
+      <c r="J202" s="3">
+        <v>99.39759036144579</v>
+      </c>
+      <c r="K202" s="3">
+        <v>100</v>
+      </c>
+      <c r="L202" s="3">
+        <v>98.83720930232558</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12">
+      <c r="A203" s="2">
+        <v>45939</v>
+      </c>
+      <c r="B203" s="3">
+        <v>9</v>
+      </c>
+      <c r="C203" s="3">
+        <v>984</v>
+      </c>
+      <c r="D203" s="3">
+        <v>477</v>
+      </c>
+      <c r="E203" s="3">
+        <v>471</v>
+      </c>
+      <c r="F203" s="3">
+        <v>6</v>
+      </c>
+      <c r="G203" s="4">
+        <v>0.9874213836477987</v>
+      </c>
+      <c r="H203" s="4">
+        <v>0.9936440677966103</v>
+      </c>
+      <c r="I203" s="5">
+        <v>136.4925373134328</v>
+      </c>
+      <c r="J203" s="3">
+        <v>99.47916666666666</v>
+      </c>
+      <c r="K203" s="3">
+        <v>98.64864864864865</v>
+      </c>
+      <c r="L203" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12">
+      <c r="A204" s="2">
+        <v>45939</v>
+      </c>
+      <c r="B204" s="3">
+        <v>10</v>
+      </c>
+      <c r="C204" s="3">
+        <v>1219</v>
+      </c>
+      <c r="D204" s="3">
+        <v>626</v>
+      </c>
+      <c r="E204" s="3">
+        <v>624</v>
+      </c>
+      <c r="F204" s="3">
+        <v>2</v>
+      </c>
+      <c r="G204" s="4">
+        <v>0.9968051118210862</v>
+      </c>
+      <c r="H204" s="4">
+        <v>1</v>
+      </c>
+      <c r="I204" s="5">
+        <v>133.453074433657</v>
+      </c>
+      <c r="J204" s="3">
+        <v>100</v>
+      </c>
+      <c r="K204" s="3">
+        <v>100</v>
+      </c>
+      <c r="L204" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12">
+      <c r="A205" s="2">
+        <v>45939</v>
+      </c>
+      <c r="B205" s="3">
+        <v>11</v>
+      </c>
+      <c r="C205" s="3">
+        <v>1182</v>
+      </c>
+      <c r="D205" s="3">
+        <v>617</v>
+      </c>
+      <c r="E205" s="3">
+        <v>617</v>
+      </c>
+      <c r="F205" s="3">
+        <v>0</v>
+      </c>
+      <c r="G205" s="4">
+        <v>1</v>
+      </c>
+      <c r="H205" s="4">
+        <v>1</v>
+      </c>
+      <c r="I205" s="5">
+        <v>130.0212765957447</v>
+      </c>
+      <c r="J205" s="3">
+        <v>100</v>
+      </c>
+      <c r="K205" s="3">
+        <v>100</v>
+      </c>
+      <c r="L205" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12">
+      <c r="A206" s="2">
+        <v>45939</v>
+      </c>
+      <c r="B206" s="3">
+        <v>12</v>
+      </c>
+      <c r="C206" s="3">
+        <v>1240</v>
+      </c>
+      <c r="D206" s="3">
+        <v>565</v>
+      </c>
+      <c r="E206" s="3">
+        <v>564</v>
+      </c>
+      <c r="F206" s="3">
+        <v>1</v>
+      </c>
+      <c r="G206" s="4">
+        <v>0.9982300884955753</v>
+      </c>
+      <c r="H206" s="4">
+        <v>1</v>
+      </c>
+      <c r="I206" s="5">
+        <v>127.8345195729537</v>
+      </c>
+      <c r="J206" s="3">
+        <v>100</v>
+      </c>
+      <c r="K206" s="3">
+        <v>100</v>
+      </c>
+      <c r="L206" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12">
+      <c r="A207" s="2">
+        <v>45939</v>
+      </c>
+      <c r="B207" s="3">
+        <v>13</v>
+      </c>
+      <c r="C207" s="3">
+        <v>1252</v>
+      </c>
+      <c r="D207" s="3">
+        <v>568</v>
+      </c>
+      <c r="E207" s="3">
+        <v>567</v>
+      </c>
+      <c r="F207" s="3">
+        <v>1</v>
+      </c>
+      <c r="G207" s="4">
+        <v>0.9982394366197183</v>
+      </c>
+      <c r="H207" s="4">
+        <v>0.9982363315696648</v>
+      </c>
+      <c r="I207" s="5">
+        <v>120.3398926654741</v>
+      </c>
+      <c r="J207" s="3">
+        <v>100</v>
+      </c>
+      <c r="K207" s="3">
+        <v>100</v>
+      </c>
+      <c r="L207" s="3">
+        <v>99.27007299270073</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12">
+      <c r="A208" s="2">
+        <v>45939</v>
+      </c>
+      <c r="B208" s="3">
+        <v>14</v>
+      </c>
+      <c r="C208" s="3">
+        <v>1058</v>
+      </c>
+      <c r="D208" s="3">
+        <v>488</v>
+      </c>
+      <c r="E208" s="3">
+        <v>488</v>
+      </c>
+      <c r="F208" s="3">
+        <v>0</v>
+      </c>
+      <c r="G208" s="4">
+        <v>1</v>
+      </c>
+      <c r="H208" s="4">
+        <v>1</v>
+      </c>
+      <c r="I208" s="5">
+        <v>122.7945492662474</v>
+      </c>
+      <c r="J208" s="3">
+        <v>100</v>
+      </c>
+      <c r="K208" s="3">
+        <v>100</v>
+      </c>
+      <c r="L208" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12">
+      <c r="A209" s="2">
+        <v>45939</v>
+      </c>
+      <c r="B209" s="3">
+        <v>15</v>
+      </c>
+      <c r="C209" s="3">
+        <v>875</v>
+      </c>
+      <c r="D209" s="3">
+        <v>403</v>
+      </c>
+      <c r="E209" s="3">
+        <v>403</v>
+      </c>
+      <c r="F209" s="3">
+        <v>0</v>
+      </c>
+      <c r="G209" s="4">
+        <v>1</v>
+      </c>
+      <c r="H209" s="4">
+        <v>1</v>
+      </c>
+      <c r="I209" s="5">
+        <v>127.7286432160804</v>
+      </c>
+      <c r="J209" s="3">
+        <v>100</v>
+      </c>
+      <c r="K209" s="3">
+        <v>100</v>
+      </c>
+      <c r="L209" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12">
+      <c r="A210" s="2">
+        <v>45939</v>
+      </c>
+      <c r="B210" s="3">
+        <v>16</v>
+      </c>
+      <c r="C210" s="3">
+        <v>1039</v>
+      </c>
+      <c r="D210" s="3">
+        <v>452</v>
+      </c>
+      <c r="E210" s="3">
+        <v>452</v>
+      </c>
+      <c r="F210" s="3">
+        <v>0</v>
+      </c>
+      <c r="G210" s="4">
+        <v>1</v>
+      </c>
+      <c r="H210" s="4">
+        <v>1</v>
+      </c>
+      <c r="I210" s="5">
+        <v>137.4675615212528</v>
+      </c>
+      <c r="J210" s="3">
+        <v>100</v>
+      </c>
+      <c r="K210" s="3">
+        <v>100</v>
+      </c>
+      <c r="L210" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12">
+      <c r="A211" s="2">
+        <v>45939</v>
+      </c>
+      <c r="B211" s="3">
+        <v>17</v>
+      </c>
+      <c r="C211" s="3">
+        <v>994</v>
+      </c>
+      <c r="D211" s="3">
+        <v>442</v>
+      </c>
+      <c r="E211" s="3">
+        <v>442</v>
+      </c>
+      <c r="F211" s="3">
+        <v>0</v>
+      </c>
+      <c r="G211" s="4">
+        <v>1</v>
+      </c>
+      <c r="H211" s="4">
+        <v>1</v>
+      </c>
+      <c r="I211" s="5">
+        <v>135.5806451612903</v>
+      </c>
+      <c r="J211" s="3">
+        <v>100</v>
+      </c>
+      <c r="K211" s="3">
+        <v>100</v>
+      </c>
+      <c r="L211" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12">
+      <c r="A212" s="2">
+        <v>45939</v>
+      </c>
+      <c r="B212" s="3">
+        <v>18</v>
+      </c>
+      <c r="C212" s="3">
+        <v>1351</v>
+      </c>
+      <c r="D212" s="3">
+        <v>538</v>
+      </c>
+      <c r="E212" s="3">
+        <v>537</v>
+      </c>
+      <c r="F212" s="3">
+        <v>1</v>
+      </c>
+      <c r="G212" s="4">
+        <v>0.9981412639405205</v>
+      </c>
+      <c r="H212" s="4">
+        <v>1</v>
+      </c>
+      <c r="I212" s="5">
+        <v>137.17202268431</v>
+      </c>
+      <c r="J212" s="3">
+        <v>100</v>
+      </c>
+      <c r="K212" s="3">
+        <v>100</v>
+      </c>
+      <c r="L212" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12">
+      <c r="A213" s="2">
+        <v>45939</v>
+      </c>
+      <c r="B213" s="3">
+        <v>19</v>
+      </c>
+      <c r="C213" s="3">
+        <v>1299</v>
+      </c>
+      <c r="D213" s="3">
+        <v>600</v>
+      </c>
+      <c r="E213" s="3">
+        <v>600</v>
+      </c>
+      <c r="F213" s="3">
+        <v>0</v>
+      </c>
+      <c r="G213" s="4">
+        <v>1</v>
+      </c>
+      <c r="H213" s="4">
+        <v>1</v>
+      </c>
+      <c r="I213" s="5">
+        <v>134.864406779661</v>
+      </c>
+      <c r="J213" s="3">
+        <v>100</v>
+      </c>
+      <c r="K213" s="3">
+        <v>100</v>
+      </c>
+      <c r="L213" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12">
+      <c r="A214" s="2">
+        <v>45939</v>
+      </c>
+      <c r="B214" s="3">
+        <v>20</v>
+      </c>
+      <c r="C214" s="3">
+        <v>1097</v>
+      </c>
+      <c r="D214" s="3">
+        <v>504</v>
+      </c>
+      <c r="E214" s="3">
+        <v>496</v>
+      </c>
+      <c r="F214" s="3">
+        <v>8</v>
+      </c>
+      <c r="G214" s="4">
+        <v>0.9841269841269841</v>
+      </c>
+      <c r="H214" s="4">
+        <v>0.993963782696177</v>
+      </c>
+      <c r="I214" s="5">
+        <v>147.7489795918367</v>
+      </c>
+      <c r="J214" s="3">
+        <v>100</v>
+      </c>
+      <c r="K214" s="3">
+        <v>99.33774834437085</v>
+      </c>
+      <c r="L214" s="3">
+        <v>97.97979797979798</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12">
+      <c r="A215" s="2">
+        <v>45939</v>
+      </c>
+      <c r="B215" s="3">
+        <v>21</v>
+      </c>
+      <c r="C215" s="3">
+        <v>746</v>
+      </c>
+      <c r="D215" s="3">
+        <v>348</v>
+      </c>
+      <c r="E215" s="3">
+        <v>348</v>
+      </c>
+      <c r="F215" s="3">
+        <v>0</v>
+      </c>
+      <c r="G215" s="4">
+        <v>1</v>
+      </c>
+      <c r="H215" s="4">
+        <v>1</v>
+      </c>
+      <c r="I215" s="5">
+        <v>155.5970149253731</v>
+      </c>
+      <c r="J215" s="3">
+        <v>100</v>
+      </c>
+      <c r="K215" s="3">
+        <v>100</v>
+      </c>
+      <c r="L215" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12">
+      <c r="A216" s="2">
+        <v>45939</v>
+      </c>
+      <c r="B216" s="3">
+        <v>22</v>
+      </c>
+      <c r="C216" s="3">
+        <v>502</v>
+      </c>
+      <c r="D216" s="3">
+        <v>228</v>
+      </c>
+      <c r="E216" s="3">
+        <v>228</v>
+      </c>
+      <c r="F216" s="3">
+        <v>0</v>
+      </c>
+      <c r="G216" s="4">
+        <v>1</v>
+      </c>
+      <c r="H216" s="4">
+        <v>1</v>
+      </c>
+      <c r="I216" s="5">
+        <v>151.4151785714286</v>
+      </c>
+      <c r="J216" s="3">
+        <v>100</v>
+      </c>
+      <c r="K216" s="3">
+        <v>100</v>
+      </c>
+      <c r="L216" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12">
+      <c r="A217" s="2">
+        <v>45939</v>
+      </c>
+      <c r="B217" s="3">
+        <v>23</v>
+      </c>
+      <c r="C217" s="3">
+        <v>272</v>
+      </c>
+      <c r="D217" s="3">
+        <v>138</v>
+      </c>
+      <c r="E217" s="3">
+        <v>138</v>
+      </c>
+      <c r="F217" s="3">
+        <v>0</v>
+      </c>
+      <c r="G217" s="4">
+        <v>1</v>
+      </c>
+      <c r="H217" s="4">
+        <v>1</v>
+      </c>
+      <c r="I217" s="5">
+        <v>134.9145299145299</v>
+      </c>
+      <c r="J217" s="3">
+        <v>100</v>
+      </c>
+      <c r="K217" s="3">
+        <v>100</v>
+      </c>
+      <c r="L217" s="3">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11042,7 +13752,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK33"/>
+  <dimension ref="A1:AK41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -14329,454 +17039,1358 @@
       </c>
     </row>
     <row r="30" spans="1:37">
-      <c r="A30" s="3" t="s">
-        <v>36</v>
+      <c r="A30" s="2">
+        <v>45938</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C30" s="3">
-        <v>2706</v>
+        <v>413</v>
       </c>
       <c r="D30" s="3">
-        <v>1124</v>
+        <v>180</v>
       </c>
       <c r="E30" s="3">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="F30" s="3">
-        <v>1091</v>
+        <v>174</v>
       </c>
       <c r="G30" s="4">
-        <v>0.02935943060498221</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="H30" s="5">
-        <v>56.48932384341637</v>
+        <v>62.15</v>
       </c>
       <c r="I30" s="3">
-        <v>1582</v>
+        <v>233</v>
       </c>
       <c r="J30" s="4">
-        <v>0.4153732446415372</v>
+        <v>0.4358353510895883</v>
       </c>
       <c r="K30" s="3">
-        <v>1582</v>
+        <v>233</v>
       </c>
       <c r="L30" s="3">
-        <v>1555</v>
+        <v>228</v>
       </c>
       <c r="M30" s="3">
-        <v>1507</v>
+        <v>225</v>
       </c>
       <c r="N30" s="3">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="O30" s="3">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="P30" s="3">
-        <v>1575</v>
+        <v>232</v>
       </c>
       <c r="Q30" s="4">
-        <v>0.9873015873015873</v>
+        <v>0.9827586206896551</v>
       </c>
       <c r="R30" s="4">
-        <v>0.01269841269841265</v>
+        <v>0.01724137931034491</v>
       </c>
       <c r="S30" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="T30" s="3">
-        <v>1544</v>
+        <v>228</v>
       </c>
       <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="4">
+        <v>1</v>
+      </c>
+      <c r="X30" s="5">
+        <v>154.0088888888889</v>
+      </c>
+      <c r="Y30" s="5">
+        <v>3.586666666666666</v>
+      </c>
+      <c r="Z30" s="3">
         <v>11</v>
-      </c>
-      <c r="V30" s="3">
-        <v>4</v>
-      </c>
-      <c r="W30" s="4">
-        <v>0.9903784477228993</v>
-      </c>
-      <c r="X30" s="5">
-        <v>139.3589913735899</v>
-      </c>
-      <c r="Y30" s="5">
-        <v>5.609820836098208</v>
-      </c>
-      <c r="Z30" s="3">
-        <v>77</v>
       </c>
       <c r="AA30" s="5">
         <v>60</v>
       </c>
       <c r="AB30" s="3">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="AC30" s="4">
         <v>1</v>
       </c>
       <c r="AD30" s="3">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AE30" s="5">
         <v>45</v>
       </c>
       <c r="AF30" s="3">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AG30" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH30" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI30" s="5">
         <v>30</v>
       </c>
       <c r="AJ30" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AK30" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:37">
-      <c r="A31" s="3" t="s">
-        <v>36</v>
+      <c r="A31" s="2">
+        <v>45938</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C31" s="3">
-        <v>1827</v>
+        <v>246</v>
       </c>
       <c r="D31" s="3">
-        <v>829</v>
+        <v>132</v>
       </c>
       <c r="E31" s="3">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="F31" s="3">
-        <v>796</v>
+        <v>127</v>
       </c>
       <c r="G31" s="4">
-        <v>0.03980699638118215</v>
+        <v>0.03787878787878788</v>
       </c>
       <c r="H31" s="5">
-        <v>67.58504221954162</v>
+        <v>75.09090909090909</v>
       </c>
       <c r="I31" s="3">
-        <v>998</v>
+        <v>114</v>
       </c>
       <c r="J31" s="4">
-        <v>0.4537493158182813</v>
+        <v>0.5365853658536586</v>
       </c>
       <c r="K31" s="3">
-        <v>998</v>
+        <v>114</v>
       </c>
       <c r="L31" s="3">
-        <v>981</v>
+        <v>111</v>
       </c>
       <c r="M31" s="3">
-        <v>952</v>
+        <v>109</v>
       </c>
       <c r="N31" s="3">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="O31" s="3">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="P31" s="3">
-        <v>996</v>
+        <v>113</v>
       </c>
       <c r="Q31" s="4">
-        <v>0.9849397590361445</v>
+        <v>0.9823008849557522</v>
       </c>
       <c r="R31" s="4">
-        <v>0.01506024096385545</v>
+        <v>0.01769911504424783</v>
       </c>
       <c r="S31" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T31" s="3">
-        <v>973</v>
+        <v>108</v>
       </c>
       <c r="U31" s="3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="V31" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W31" s="4">
-        <v>0.9888211382113821</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="X31" s="5">
-        <v>104.5861344537815</v>
+        <v>92.52293577981651</v>
       </c>
       <c r="Y31" s="5">
-        <v>7.032563025210084</v>
+        <v>7.128440366972477</v>
       </c>
       <c r="Z31" s="3">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="AA31" s="5">
         <v>60</v>
       </c>
       <c r="AB31" s="3">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="AC31" s="4">
         <v>1</v>
       </c>
       <c r="AD31" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE31" s="5">
         <v>45</v>
       </c>
       <c r="AF31" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG31" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH31" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AI31" s="5">
         <v>30</v>
       </c>
       <c r="AJ31" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AK31" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:37">
-      <c r="A32" s="3" t="s">
-        <v>36</v>
+      <c r="A32" s="2">
+        <v>45938</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C32" s="3">
-        <v>63797</v>
+        <v>9695</v>
       </c>
       <c r="D32" s="3">
-        <v>37231</v>
+        <v>5677</v>
       </c>
       <c r="E32" s="3">
-        <v>8923</v>
+        <v>1252</v>
       </c>
       <c r="F32" s="3">
-        <v>28308</v>
+        <v>4425</v>
       </c>
       <c r="G32" s="4">
-        <v>0.2396658698396497</v>
+        <v>0.2205390170864893</v>
       </c>
       <c r="H32" s="5">
-        <v>43.70994601273133</v>
+        <v>44.07310199048793</v>
       </c>
       <c r="I32" s="3">
-        <v>26566</v>
+        <v>4018</v>
       </c>
       <c r="J32" s="4">
-        <v>0.5835854350518049</v>
+        <v>0.5855595667870036</v>
       </c>
       <c r="K32" s="3">
-        <v>26566</v>
+        <v>4018</v>
       </c>
       <c r="L32" s="3">
-        <v>26200</v>
+        <v>3993</v>
       </c>
       <c r="M32" s="3">
-        <v>25639</v>
+        <v>3926</v>
       </c>
       <c r="N32" s="3">
-        <v>561</v>
+        <v>67</v>
       </c>
       <c r="O32" s="3">
-        <v>324</v>
+        <v>16</v>
       </c>
       <c r="P32" s="3">
-        <v>26524</v>
+        <v>4009</v>
       </c>
       <c r="Q32" s="4">
-        <v>0.9877846478660836</v>
+        <v>0.9960089797954602</v>
       </c>
       <c r="R32" s="4">
-        <v>0.01221535213391647</v>
+        <v>0.003991020204539808</v>
       </c>
       <c r="S32" s="3">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="T32" s="3">
-        <v>25941</v>
+        <v>3980</v>
       </c>
       <c r="U32" s="3">
-        <v>259</v>
+        <v>13</v>
       </c>
       <c r="V32" s="3">
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="W32" s="4">
-        <v>0.9874386205321457</v>
+        <v>0.9964947421131698</v>
       </c>
       <c r="X32" s="5">
-        <v>134.4285658567027</v>
+        <v>135.4019358125318</v>
       </c>
       <c r="Y32" s="5">
-        <v>6.357580248839659</v>
+        <v>4.505603667855324</v>
       </c>
       <c r="Z32" s="3">
-        <v>1509</v>
+        <v>238</v>
       </c>
       <c r="AA32" s="5">
         <v>60</v>
       </c>
       <c r="AB32" s="3">
-        <v>1502</v>
+        <v>238</v>
       </c>
       <c r="AC32" s="4">
-        <v>0.9953611663353215</v>
+        <v>1</v>
       </c>
       <c r="AD32" s="3">
-        <v>117</v>
+        <v>15</v>
       </c>
       <c r="AE32" s="5">
         <v>45</v>
       </c>
       <c r="AF32" s="3">
-        <v>117</v>
+        <v>15</v>
       </c>
       <c r="AG32" s="4">
         <v>1</v>
       </c>
       <c r="AH32" s="3">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="AI32" s="5">
         <v>30</v>
       </c>
       <c r="AJ32" s="3">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="AK32" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:37">
-      <c r="A33" s="3" t="s">
-        <v>36</v>
+      <c r="A33" s="2">
+        <v>45938</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C33" s="3">
-        <v>48978</v>
+        <v>8013</v>
       </c>
       <c r="D33" s="3">
-        <v>22609</v>
+        <v>3666</v>
       </c>
       <c r="E33" s="3">
-        <v>7675</v>
+        <v>1085</v>
       </c>
       <c r="F33" s="3">
-        <v>14934</v>
+        <v>2581</v>
       </c>
       <c r="G33" s="4">
-        <v>0.3394665841036755</v>
+        <v>0.2959629023458811</v>
       </c>
       <c r="H33" s="5">
-        <v>29.98836746428413</v>
+        <v>31.8810692853246</v>
       </c>
       <c r="I33" s="3">
-        <v>26369</v>
+        <v>4347</v>
       </c>
       <c r="J33" s="4">
-        <v>0.4616154191677896</v>
+        <v>0.4575065518532384</v>
       </c>
       <c r="K33" s="3">
-        <v>26369</v>
+        <v>4347</v>
       </c>
       <c r="L33" s="3">
-        <v>25864</v>
+        <v>4295</v>
       </c>
       <c r="M33" s="3">
-        <v>25473</v>
+        <v>4231</v>
       </c>
       <c r="N33" s="3">
-        <v>391</v>
+        <v>64</v>
       </c>
       <c r="O33" s="3">
-        <v>452</v>
+        <v>40</v>
       </c>
       <c r="P33" s="3">
-        <v>26316</v>
+        <v>4335</v>
       </c>
       <c r="Q33" s="4">
-        <v>0.9828241374069008</v>
+        <v>0.9907727797001153</v>
       </c>
       <c r="R33" s="4">
-        <v>0.01717586259309925</v>
+        <v>0.009227220299884636</v>
       </c>
       <c r="S33" s="3">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="T33" s="3">
-        <v>25614</v>
+        <v>4279</v>
       </c>
       <c r="U33" s="3">
-        <v>250</v>
+        <v>16</v>
       </c>
       <c r="V33" s="3">
-        <v>126</v>
+        <v>4</v>
       </c>
       <c r="W33" s="4">
-        <v>0.9855328972681801</v>
+        <v>0.9953477552919283</v>
       </c>
       <c r="X33" s="5">
-        <v>129.984650414164</v>
+        <v>129.0921767903569</v>
       </c>
       <c r="Y33" s="5">
-        <v>5.921328465433989</v>
+        <v>4.05270621602458</v>
       </c>
       <c r="Z33" s="3">
-        <v>1685</v>
+        <v>317</v>
       </c>
       <c r="AA33" s="5">
         <v>60</v>
       </c>
       <c r="AB33" s="3">
-        <v>1679</v>
+        <v>317</v>
       </c>
       <c r="AC33" s="4">
-        <v>0.9964391691394658</v>
+        <v>1</v>
       </c>
       <c r="AD33" s="3">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="AE33" s="5">
         <v>45</v>
       </c>
       <c r="AF33" s="3">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="AG33" s="4">
         <v>1</v>
       </c>
       <c r="AH33" s="3">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="AI33" s="5">
         <v>30</v>
       </c>
       <c r="AJ33" s="3">
+        <v>4</v>
+      </c>
+      <c r="AK33" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:37">
+      <c r="A34" s="2">
+        <v>45939</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="3">
+        <v>379</v>
+      </c>
+      <c r="D34" s="3">
+        <v>167</v>
+      </c>
+      <c r="E34" s="3">
+        <v>5</v>
+      </c>
+      <c r="F34" s="3">
+        <v>162</v>
+      </c>
+      <c r="G34" s="4">
+        <v>0.02994011976047904</v>
+      </c>
+      <c r="H34" s="5">
+        <v>59.04790419161677</v>
+      </c>
+      <c r="I34" s="3">
+        <v>212</v>
+      </c>
+      <c r="J34" s="4">
+        <v>0.4406332453825857</v>
+      </c>
+      <c r="K34" s="3">
+        <v>212</v>
+      </c>
+      <c r="L34" s="3">
+        <v>211</v>
+      </c>
+      <c r="M34" s="3">
+        <v>205</v>
+      </c>
+      <c r="N34" s="3">
+        <v>6</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>211</v>
+      </c>
+      <c r="Q34" s="4">
+        <v>1</v>
+      </c>
+      <c r="R34" s="4">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>1</v>
+      </c>
+      <c r="T34" s="3">
+        <v>211</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="4">
+        <v>1</v>
+      </c>
+      <c r="X34" s="5">
+        <v>140.5219512195122</v>
+      </c>
+      <c r="Y34" s="5">
+        <v>4.556097560975609</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>11</v>
+      </c>
+      <c r="AA34" s="5">
+        <v>60</v>
+      </c>
+      <c r="AB34" s="3">
+        <v>11</v>
+      </c>
+      <c r="AC34" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE34" s="5">
+        <v>45</v>
+      </c>
+      <c r="AF34" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG34" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH34" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI34" s="5">
+        <v>30</v>
+      </c>
+      <c r="AJ34" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK34" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:37">
+      <c r="A35" s="2">
+        <v>45939</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="3">
+        <v>251</v>
+      </c>
+      <c r="D35" s="3">
+        <v>145</v>
+      </c>
+      <c r="E35" s="3">
+        <v>8</v>
+      </c>
+      <c r="F35" s="3">
+        <v>137</v>
+      </c>
+      <c r="G35" s="4">
+        <v>0.05517241379310345</v>
+      </c>
+      <c r="H35" s="5">
+        <v>72</v>
+      </c>
+      <c r="I35" s="3">
+        <v>106</v>
+      </c>
+      <c r="J35" s="4">
+        <v>0.5776892430278885</v>
+      </c>
+      <c r="K35" s="3">
+        <v>106</v>
+      </c>
+      <c r="L35" s="3">
+        <v>106</v>
+      </c>
+      <c r="M35" s="3">
+        <v>102</v>
+      </c>
+      <c r="N35" s="3">
+        <v>4</v>
+      </c>
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
+        <v>106</v>
+      </c>
+      <c r="Q35" s="4">
+        <v>1</v>
+      </c>
+      <c r="R35" s="4">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
+        <v>105</v>
+      </c>
+      <c r="U35" s="3">
+        <v>1</v>
+      </c>
+      <c r="V35" s="3">
+        <v>0</v>
+      </c>
+      <c r="W35" s="4">
+        <v>0.9905660377358491</v>
+      </c>
+      <c r="X35" s="5">
+        <v>104.6862745098039</v>
+      </c>
+      <c r="Y35" s="5">
+        <v>4.205882352941177</v>
+      </c>
+      <c r="Z35" s="3">
+        <v>5</v>
+      </c>
+      <c r="AA35" s="5">
+        <v>60</v>
+      </c>
+      <c r="AB35" s="3">
+        <v>5</v>
+      </c>
+      <c r="AC35" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD35" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE35" s="5">
+        <v>45</v>
+      </c>
+      <c r="AF35" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG35" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH35" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI35" s="5">
+        <v>30</v>
+      </c>
+      <c r="AJ35" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK35" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:37">
+      <c r="A36" s="2">
+        <v>45939</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="3">
+        <v>9024</v>
+      </c>
+      <c r="D36" s="3">
+        <v>5450</v>
+      </c>
+      <c r="E36" s="3">
+        <v>1277</v>
+      </c>
+      <c r="F36" s="3">
+        <v>4173</v>
+      </c>
+      <c r="G36" s="4">
+        <v>0.2343119266055046</v>
+      </c>
+      <c r="H36" s="5">
+        <v>44.34440366972477</v>
+      </c>
+      <c r="I36" s="3">
+        <v>3574</v>
+      </c>
+      <c r="J36" s="4">
+        <v>0.6039450354609929</v>
+      </c>
+      <c r="K36" s="3">
+        <v>3574</v>
+      </c>
+      <c r="L36" s="3">
+        <v>3562</v>
+      </c>
+      <c r="M36" s="3">
+        <v>3481</v>
+      </c>
+      <c r="N36" s="3">
+        <v>81</v>
+      </c>
+      <c r="O36" s="3">
+        <v>9</v>
+      </c>
+      <c r="P36" s="3">
+        <v>3571</v>
+      </c>
+      <c r="Q36" s="4">
+        <v>0.9974796975637077</v>
+      </c>
+      <c r="R36" s="4">
+        <v>0.002520302436292354</v>
+      </c>
+      <c r="S36" s="3">
+        <v>3</v>
+      </c>
+      <c r="T36" s="3">
+        <v>3555</v>
+      </c>
+      <c r="U36" s="3">
+        <v>7</v>
+      </c>
+      <c r="V36" s="3">
+        <v>1</v>
+      </c>
+      <c r="W36" s="4">
+        <v>0.9977547010945833</v>
+      </c>
+      <c r="X36" s="5">
+        <v>136.7153116920425</v>
+      </c>
+      <c r="Y36" s="5">
+        <v>2.273197357081298</v>
+      </c>
+      <c r="Z36" s="3">
+        <v>230</v>
+      </c>
+      <c r="AA36" s="5">
+        <v>60</v>
+      </c>
+      <c r="AB36" s="3">
+        <v>230</v>
+      </c>
+      <c r="AC36" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD36" s="3">
+        <v>23</v>
+      </c>
+      <c r="AE36" s="5">
+        <v>45</v>
+      </c>
+      <c r="AF36" s="3">
+        <v>23</v>
+      </c>
+      <c r="AG36" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH36" s="3">
+        <v>10</v>
+      </c>
+      <c r="AI36" s="5">
+        <v>30</v>
+      </c>
+      <c r="AJ36" s="3">
+        <v>10</v>
+      </c>
+      <c r="AK36" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:37">
+      <c r="A37" s="2">
+        <v>45939</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="3">
+        <v>7417</v>
+      </c>
+      <c r="D37" s="3">
+        <v>3397</v>
+      </c>
+      <c r="E37" s="3">
+        <v>1072</v>
+      </c>
+      <c r="F37" s="3">
+        <v>2325</v>
+      </c>
+      <c r="G37" s="4">
+        <v>0.3155725640270827</v>
+      </c>
+      <c r="H37" s="5">
+        <v>30.9314100677068</v>
+      </c>
+      <c r="I37" s="3">
+        <v>4020</v>
+      </c>
+      <c r="J37" s="4">
+        <v>0.4580018875556155</v>
+      </c>
+      <c r="K37" s="3">
+        <v>4020</v>
+      </c>
+      <c r="L37" s="3">
+        <v>3990</v>
+      </c>
+      <c r="M37" s="3">
+        <v>3921</v>
+      </c>
+      <c r="N37" s="3">
+        <v>69</v>
+      </c>
+      <c r="O37" s="3">
         <v>21</v>
       </c>
-      <c r="AK33" s="4">
+      <c r="P37" s="3">
+        <v>4011</v>
+      </c>
+      <c r="Q37" s="4">
+        <v>0.9947643979057592</v>
+      </c>
+      <c r="R37" s="4">
+        <v>0.005235602094240761</v>
+      </c>
+      <c r="S37" s="3">
+        <v>9</v>
+      </c>
+      <c r="T37" s="3">
+        <v>3981</v>
+      </c>
+      <c r="U37" s="3">
+        <v>9</v>
+      </c>
+      <c r="V37" s="3">
+        <v>3</v>
+      </c>
+      <c r="W37" s="4">
+        <v>0.9969947407963937</v>
+      </c>
+      <c r="X37" s="5">
+        <v>130.6164243815353</v>
+      </c>
+      <c r="Y37" s="5">
+        <v>2.881917878092323</v>
+      </c>
+      <c r="Z37" s="3">
+        <v>309</v>
+      </c>
+      <c r="AA37" s="5">
+        <v>60</v>
+      </c>
+      <c r="AB37" s="3">
+        <v>309</v>
+      </c>
+      <c r="AC37" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD37" s="3">
+        <v>7</v>
+      </c>
+      <c r="AE37" s="5">
+        <v>45</v>
+      </c>
+      <c r="AF37" s="3">
+        <v>7</v>
+      </c>
+      <c r="AG37" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH37" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI37" s="5">
+        <v>30</v>
+      </c>
+      <c r="AJ37" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK37" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:37">
+      <c r="A38" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="3">
+        <v>3498</v>
+      </c>
+      <c r="D38" s="3">
+        <v>1471</v>
+      </c>
+      <c r="E38" s="3">
+        <v>44</v>
+      </c>
+      <c r="F38" s="3">
+        <v>1427</v>
+      </c>
+      <c r="G38" s="4">
+        <v>0.02991162474507138</v>
+      </c>
+      <c r="H38" s="5">
+        <v>57.47246770904147</v>
+      </c>
+      <c r="I38" s="3">
+        <v>2027</v>
+      </c>
+      <c r="J38" s="4">
+        <v>0.4205260148656375</v>
+      </c>
+      <c r="K38" s="3">
+        <v>2027</v>
+      </c>
+      <c r="L38" s="3">
+        <v>1994</v>
+      </c>
+      <c r="M38" s="3">
+        <v>1937</v>
+      </c>
+      <c r="N38" s="3">
+        <v>57</v>
+      </c>
+      <c r="O38" s="3">
+        <v>24</v>
+      </c>
+      <c r="P38" s="3">
+        <v>2018</v>
+      </c>
+      <c r="Q38" s="4">
+        <v>0.9881070366699702</v>
+      </c>
+      <c r="R38" s="4">
+        <v>0.01189296333002971</v>
+      </c>
+      <c r="S38" s="3">
+        <v>9</v>
+      </c>
+      <c r="T38" s="3">
+        <v>1983</v>
+      </c>
+      <c r="U38" s="3">
+        <v>11</v>
+      </c>
+      <c r="V38" s="3">
+        <v>4</v>
+      </c>
+      <c r="W38" s="4">
+        <v>0.9924924924924925</v>
+      </c>
+      <c r="X38" s="5">
+        <v>141.1837893649974</v>
+      </c>
+      <c r="Y38" s="5">
+        <v>5.263293753226639</v>
+      </c>
+      <c r="Z38" s="3">
+        <v>99</v>
+      </c>
+      <c r="AA38" s="5">
+        <v>60</v>
+      </c>
+      <c r="AB38" s="3">
+        <v>99</v>
+      </c>
+      <c r="AC38" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD38" s="3">
+        <v>12</v>
+      </c>
+      <c r="AE38" s="5">
+        <v>45</v>
+      </c>
+      <c r="AF38" s="3">
+        <v>12</v>
+      </c>
+      <c r="AG38" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH38" s="3">
+        <v>7</v>
+      </c>
+      <c r="AI38" s="5">
+        <v>30</v>
+      </c>
+      <c r="AJ38" s="3">
+        <v>7</v>
+      </c>
+      <c r="AK38" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:37">
+      <c r="A39" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" s="3">
+        <v>2324</v>
+      </c>
+      <c r="D39" s="3">
+        <v>1106</v>
+      </c>
+      <c r="E39" s="3">
+        <v>46</v>
+      </c>
+      <c r="F39" s="3">
+        <v>1060</v>
+      </c>
+      <c r="G39" s="4">
+        <v>0.04159132007233273</v>
+      </c>
+      <c r="H39" s="5">
+        <v>69.05967450271248</v>
+      </c>
+      <c r="I39" s="3">
+        <v>1218</v>
+      </c>
+      <c r="J39" s="4">
+        <v>0.4759036144578313</v>
+      </c>
+      <c r="K39" s="3">
+        <v>1218</v>
+      </c>
+      <c r="L39" s="3">
+        <v>1198</v>
+      </c>
+      <c r="M39" s="3">
+        <v>1163</v>
+      </c>
+      <c r="N39" s="3">
+        <v>35</v>
+      </c>
+      <c r="O39" s="3">
+        <v>17</v>
+      </c>
+      <c r="P39" s="3">
+        <v>1215</v>
+      </c>
+      <c r="Q39" s="4">
+        <v>0.9860082304526749</v>
+      </c>
+      <c r="R39" s="4">
+        <v>0.01399176954732511</v>
+      </c>
+      <c r="S39" s="3">
+        <v>3</v>
+      </c>
+      <c r="T39" s="3">
+        <v>1186</v>
+      </c>
+      <c r="U39" s="3">
+        <v>12</v>
+      </c>
+      <c r="V39" s="3">
+        <v>4</v>
+      </c>
+      <c r="W39" s="4">
+        <v>0.9866888519134775</v>
+      </c>
+      <c r="X39" s="5">
+        <v>103.4643164230439</v>
+      </c>
+      <c r="Y39" s="5">
+        <v>6.793637145313843</v>
+      </c>
+      <c r="Z39" s="3">
+        <v>62</v>
+      </c>
+      <c r="AA39" s="5">
+        <v>60</v>
+      </c>
+      <c r="AB39" s="3">
+        <v>62</v>
+      </c>
+      <c r="AC39" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD39" s="3">
+        <v>2</v>
+      </c>
+      <c r="AE39" s="5">
+        <v>45</v>
+      </c>
+      <c r="AF39" s="3">
+        <v>2</v>
+      </c>
+      <c r="AG39" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH39" s="3">
+        <v>6</v>
+      </c>
+      <c r="AI39" s="5">
+        <v>30</v>
+      </c>
+      <c r="AJ39" s="3">
+        <v>6</v>
+      </c>
+      <c r="AK39" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:37">
+      <c r="A40" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="3">
+        <v>82516</v>
+      </c>
+      <c r="D40" s="3">
+        <v>48358</v>
+      </c>
+      <c r="E40" s="3">
+        <v>11452</v>
+      </c>
+      <c r="F40" s="3">
+        <v>36906</v>
+      </c>
+      <c r="G40" s="4">
+        <v>0.2368170726663634</v>
+      </c>
+      <c r="H40" s="5">
+        <v>43.82408288183962</v>
+      </c>
+      <c r="I40" s="3">
+        <v>34158</v>
+      </c>
+      <c r="J40" s="4">
+        <v>0.5860439187551505</v>
+      </c>
+      <c r="K40" s="3">
+        <v>34158</v>
+      </c>
+      <c r="L40" s="3">
+        <v>33755</v>
+      </c>
+      <c r="M40" s="3">
+        <v>33046</v>
+      </c>
+      <c r="N40" s="3">
+        <v>709</v>
+      </c>
+      <c r="O40" s="3">
+        <v>349</v>
+      </c>
+      <c r="P40" s="3">
+        <v>34104</v>
+      </c>
+      <c r="Q40" s="4">
+        <v>0.9897665962936899</v>
+      </c>
+      <c r="R40" s="4">
+        <v>0.01023340370631004</v>
+      </c>
+      <c r="S40" s="3">
+        <v>54</v>
+      </c>
+      <c r="T40" s="3">
+        <v>33476</v>
+      </c>
+      <c r="U40" s="3">
+        <v>279</v>
+      </c>
+      <c r="V40" s="3">
+        <v>73</v>
+      </c>
+      <c r="W40" s="4">
+        <v>0.9895944188246424</v>
+      </c>
+      <c r="X40" s="5">
+        <v>134.7850874538522</v>
+      </c>
+      <c r="Y40" s="5">
+        <v>5.707317073170731</v>
+      </c>
+      <c r="Z40" s="3">
+        <v>1977</v>
+      </c>
+      <c r="AA40" s="5">
+        <v>60</v>
+      </c>
+      <c r="AB40" s="3">
+        <v>1970</v>
+      </c>
+      <c r="AC40" s="4">
+        <v>0.9964592817400102</v>
+      </c>
+      <c r="AD40" s="3">
+        <v>155</v>
+      </c>
+      <c r="AE40" s="5">
+        <v>45</v>
+      </c>
+      <c r="AF40" s="3">
+        <v>155</v>
+      </c>
+      <c r="AG40" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH40" s="3">
+        <v>93</v>
+      </c>
+      <c r="AI40" s="5">
+        <v>30</v>
+      </c>
+      <c r="AJ40" s="3">
+        <v>93</v>
+      </c>
+      <c r="AK40" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:37">
+      <c r="A41" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="3">
+        <v>64408</v>
+      </c>
+      <c r="D41" s="3">
+        <v>29672</v>
+      </c>
+      <c r="E41" s="3">
+        <v>9832</v>
+      </c>
+      <c r="F41" s="3">
+        <v>19840</v>
+      </c>
+      <c r="G41" s="4">
+        <v>0.331356160690213</v>
+      </c>
+      <c r="H41" s="5">
+        <v>30.33017659746562</v>
+      </c>
+      <c r="I41" s="3">
+        <v>34736</v>
+      </c>
+      <c r="J41" s="4">
+        <v>0.4606881132778537</v>
+      </c>
+      <c r="K41" s="3">
+        <v>34736</v>
+      </c>
+      <c r="L41" s="3">
+        <v>34149</v>
+      </c>
+      <c r="M41" s="3">
+        <v>33625</v>
+      </c>
+      <c r="N41" s="3">
+        <v>524</v>
+      </c>
+      <c r="O41" s="3">
+        <v>513</v>
+      </c>
+      <c r="P41" s="3">
+        <v>34662</v>
+      </c>
+      <c r="Q41" s="4">
+        <v>0.98519993075991</v>
+      </c>
+      <c r="R41" s="4">
+        <v>0.01480006924009004</v>
+      </c>
+      <c r="S41" s="3">
+        <v>74</v>
+      </c>
+      <c r="T41" s="3">
+        <v>33874</v>
+      </c>
+      <c r="U41" s="3">
+        <v>275</v>
+      </c>
+      <c r="V41" s="3">
+        <v>133</v>
+      </c>
+      <c r="W41" s="4">
+        <v>0.9880987106936585</v>
+      </c>
+      <c r="X41" s="5">
+        <v>129.9460223048327</v>
+      </c>
+      <c r="Y41" s="5">
+        <v>5.331776951672863</v>
+      </c>
+      <c r="Z41" s="3">
+        <v>2311</v>
+      </c>
+      <c r="AA41" s="5">
+        <v>60</v>
+      </c>
+      <c r="AB41" s="3">
+        <v>2305</v>
+      </c>
+      <c r="AC41" s="4">
+        <v>0.9974037213327562</v>
+      </c>
+      <c r="AD41" s="3">
+        <v>35</v>
+      </c>
+      <c r="AE41" s="5">
+        <v>45</v>
+      </c>
+      <c r="AF41" s="3">
+        <v>35</v>
+      </c>
+      <c r="AG41" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH41" s="3">
+        <v>26</v>
+      </c>
+      <c r="AI41" s="5">
+        <v>30</v>
+      </c>
+      <c r="AJ41" s="3">
+        <v>26</v>
+      </c>
+      <c r="AK41" s="4">
         <v>1</v>
       </c>
     </row>
@@ -14787,13 +18401,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -14818,8 +18432,14 @@
       <c r="H1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>0</v>
       </c>
@@ -14844,8 +18464,14 @@
       <c r="H2">
         <v>88</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2">
+        <v>133</v>
+      </c>
+      <c r="J2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>1</v>
       </c>
@@ -14870,8 +18496,14 @@
       <c r="H3">
         <v>59</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>82</v>
+      </c>
+      <c r="J3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>2</v>
       </c>
@@ -14896,8 +18528,14 @@
       <c r="H4">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4">
+        <v>56</v>
+      </c>
+      <c r="J4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>3</v>
       </c>
@@ -14922,8 +18560,14 @@
       <c r="H5">
         <v>39</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>10</v>
+      </c>
+      <c r="J5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>4</v>
       </c>
@@ -14948,8 +18592,14 @@
       <c r="H6">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6">
+        <v>27</v>
+      </c>
+      <c r="J6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>5</v>
       </c>
@@ -14974,8 +18624,14 @@
       <c r="H7">
         <v>134</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7">
+        <v>89</v>
+      </c>
+      <c r="J7">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>6</v>
       </c>
@@ -15000,8 +18656,14 @@
       <c r="H8">
         <v>338</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8">
+        <v>306</v>
+      </c>
+      <c r="J8">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>7</v>
       </c>
@@ -15026,8 +18688,14 @@
       <c r="H9">
         <v>608</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9">
+        <v>637</v>
+      </c>
+      <c r="J9">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>8</v>
       </c>
@@ -15052,8 +18720,14 @@
       <c r="H10">
         <v>783</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10">
+        <v>789</v>
+      </c>
+      <c r="J10">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>9</v>
       </c>
@@ -15078,8 +18752,14 @@
       <c r="H11">
         <v>1021</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11">
+        <v>1172</v>
+      </c>
+      <c r="J11">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>10</v>
       </c>
@@ -15104,8 +18784,14 @@
       <c r="H12">
         <v>1277</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12">
+        <v>1224</v>
+      </c>
+      <c r="J12">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13">
         <v>11</v>
       </c>
@@ -15130,8 +18816,14 @@
       <c r="H13">
         <v>1373</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13">
+        <v>1327</v>
+      </c>
+      <c r="J13">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14">
         <v>12</v>
       </c>
@@ -15156,8 +18848,14 @@
       <c r="H14">
         <v>1243</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14">
+        <v>1283</v>
+      </c>
+      <c r="J14">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15">
         <v>13</v>
       </c>
@@ -15182,8 +18880,14 @@
       <c r="H15">
         <v>1100</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15">
+        <v>1162</v>
+      </c>
+      <c r="J15">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16">
         <v>14</v>
       </c>
@@ -15208,8 +18912,14 @@
       <c r="H16">
         <v>1099</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16">
+        <v>1165</v>
+      </c>
+      <c r="J16">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17">
         <v>15</v>
       </c>
@@ -15234,8 +18944,14 @@
       <c r="H17">
         <v>1016</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>1109</v>
+      </c>
+      <c r="J17">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18">
         <v>16</v>
       </c>
@@ -15260,8 +18976,14 @@
       <c r="H18">
         <v>1201</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18">
+        <v>1079</v>
+      </c>
+      <c r="J18">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19">
         <v>17</v>
       </c>
@@ -15286,8 +19008,14 @@
       <c r="H19">
         <v>1158</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19">
+        <v>1249</v>
+      </c>
+      <c r="J19">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20">
         <v>18</v>
       </c>
@@ -15312,8 +19040,14 @@
       <c r="H20">
         <v>1114</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="I20">
+        <v>1416</v>
+      </c>
+      <c r="J20">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21">
         <v>19</v>
       </c>
@@ -15338,8 +19072,14 @@
       <c r="H21">
         <v>1284</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="I21">
+        <v>1375</v>
+      </c>
+      <c r="J21">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22">
         <v>20</v>
       </c>
@@ -15364,8 +19104,14 @@
       <c r="H22">
         <v>1493</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="I22">
+        <v>1096</v>
+      </c>
+      <c r="J22">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23">
         <v>21</v>
       </c>
@@ -15390,8 +19136,14 @@
       <c r="H23">
         <v>953</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="I23">
+        <v>866</v>
+      </c>
+      <c r="J23">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24">
         <v>22</v>
       </c>
@@ -15416,8 +19168,14 @@
       <c r="H24">
         <v>535</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="I24">
+        <v>481</v>
+      </c>
+      <c r="J24">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25">
         <v>23</v>
       </c>
@@ -15442,9 +19200,15 @@
       <c r="H25">
         <v>288</v>
       </c>
+      <c r="I25">
+        <v>234</v>
+      </c>
+      <c r="J25">
+        <v>272</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:H25">
+  <conditionalFormatting sqref="B2:J25">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -15462,13 +19226,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -15493,8 +19257,14 @@
       <c r="H1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>0</v>
       </c>
@@ -15519,8 +19289,14 @@
       <c r="H2">
         <v>127</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2">
+        <v>126</v>
+      </c>
+      <c r="J2">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>1</v>
       </c>
@@ -15545,8 +19321,14 @@
       <c r="H3">
         <v>102</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>95</v>
+      </c>
+      <c r="J3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>2</v>
       </c>
@@ -15571,8 +19353,14 @@
       <c r="H4">
         <v>58</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4">
+        <v>74</v>
+      </c>
+      <c r="J4">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>3</v>
       </c>
@@ -15597,8 +19385,14 @@
       <c r="H5">
         <v>107</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>37</v>
+      </c>
+      <c r="J5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>4</v>
       </c>
@@ -15623,8 +19417,14 @@
       <c r="H6">
         <v>116</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6">
+        <v>144</v>
+      </c>
+      <c r="J6">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>5</v>
       </c>
@@ -15649,8 +19449,14 @@
       <c r="H7">
         <v>133</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7">
+        <v>101</v>
+      </c>
+      <c r="J7">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>6</v>
       </c>
@@ -15675,8 +19481,14 @@
       <c r="H8">
         <v>115</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8">
+        <v>107</v>
+      </c>
+      <c r="J8">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>7</v>
       </c>
@@ -15701,8 +19513,14 @@
       <c r="H9">
         <v>132</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9">
+        <v>107</v>
+      </c>
+      <c r="J9">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>8</v>
       </c>
@@ -15727,8 +19545,14 @@
       <c r="H10">
         <v>126</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10">
+        <v>124</v>
+      </c>
+      <c r="J10">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>9</v>
       </c>
@@ -15753,8 +19577,14 @@
       <c r="H11">
         <v>130</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11">
+        <v>131</v>
+      </c>
+      <c r="J11">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>10</v>
       </c>
@@ -15779,8 +19609,14 @@
       <c r="H12">
         <v>127</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12">
+        <v>130</v>
+      </c>
+      <c r="J12">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13">
         <v>11</v>
       </c>
@@ -15805,8 +19641,14 @@
       <c r="H13">
         <v>131</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13">
+        <v>129</v>
+      </c>
+      <c r="J13">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14">
         <v>12</v>
       </c>
@@ -15831,8 +19673,14 @@
       <c r="H14">
         <v>134</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14">
+        <v>130</v>
+      </c>
+      <c r="J14">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15">
         <v>13</v>
       </c>
@@ -15857,8 +19705,14 @@
       <c r="H15">
         <v>128</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15">
+        <v>118</v>
+      </c>
+      <c r="J15">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16">
         <v>14</v>
       </c>
@@ -15883,8 +19737,14 @@
       <c r="H16">
         <v>117</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16">
+        <v>134</v>
+      </c>
+      <c r="J16">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17">
         <v>15</v>
       </c>
@@ -15909,8 +19769,14 @@
       <c r="H17">
         <v>129</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>124</v>
+      </c>
+      <c r="J17">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18">
         <v>16</v>
       </c>
@@ -15935,8 +19801,14 @@
       <c r="H18">
         <v>141</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18">
+        <v>138</v>
+      </c>
+      <c r="J18">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19">
         <v>17</v>
       </c>
@@ -15961,8 +19833,14 @@
       <c r="H19">
         <v>137</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19">
+        <v>141</v>
+      </c>
+      <c r="J19">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20">
         <v>18</v>
       </c>
@@ -15987,8 +19865,14 @@
       <c r="H20">
         <v>135</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="I20">
+        <v>141</v>
+      </c>
+      <c r="J20">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21">
         <v>19</v>
       </c>
@@ -16013,8 +19897,14 @@
       <c r="H21">
         <v>123</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="I21">
+        <v>142</v>
+      </c>
+      <c r="J21">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22">
         <v>20</v>
       </c>
@@ -16039,8 +19929,14 @@
       <c r="H22">
         <v>111</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="I22">
+        <v>149</v>
+      </c>
+      <c r="J22">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23">
         <v>21</v>
       </c>
@@ -16065,8 +19961,14 @@
       <c r="H23">
         <v>120</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="I23">
+        <v>145</v>
+      </c>
+      <c r="J23">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24">
         <v>22</v>
       </c>
@@ -16091,8 +19993,14 @@
       <c r="H24">
         <v>138</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="I24">
+        <v>143</v>
+      </c>
+      <c r="J24">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25">
         <v>23</v>
       </c>
@@ -16117,9 +20025,15 @@
       <c r="H25">
         <v>135</v>
       </c>
+      <c r="I25">
+        <v>166</v>
+      </c>
+      <c r="J25">
+        <v>135</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:H25">
+  <conditionalFormatting sqref="B2:J25">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>

--- a/Result.xlsx
+++ b/Result.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="57">
   <si>
     <t>Date</t>
   </si>
@@ -189,6 +189,9 @@
   </si>
   <si>
     <t>2025-10-09</t>
+  </si>
+  <si>
+    <t>2025-10-10</t>
   </si>
 </sst>
 </file>
@@ -586,7 +589,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ11"/>
+  <dimension ref="A1:AJ12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1696,86 +1699,86 @@
       </c>
     </row>
     <row r="11" spans="1:36">
-      <c r="A11" s="3" t="s">
-        <v>36</v>
+      <c r="A11" s="2">
+        <v>45940</v>
       </c>
       <c r="B11" s="3">
-        <v>152746</v>
+        <v>15480</v>
       </c>
       <c r="C11" s="3">
-        <v>80607</v>
+        <v>8047</v>
       </c>
       <c r="D11" s="3">
-        <v>21374</v>
+        <v>2175</v>
       </c>
       <c r="E11" s="3">
-        <v>59233</v>
+        <v>5872</v>
       </c>
       <c r="F11" s="4">
-        <v>0.2651630751671691</v>
+        <v>0.2702870635019262</v>
       </c>
       <c r="G11" s="5">
-        <v>39.45220638406094</v>
+        <v>38.07244936000994</v>
       </c>
       <c r="H11" s="3">
-        <v>72139</v>
+        <v>7433</v>
       </c>
       <c r="I11" s="4">
-        <v>0.5277192201432443</v>
+        <v>0.5198320413436692</v>
       </c>
       <c r="J11" s="3">
-        <v>72139</v>
+        <v>7433</v>
       </c>
       <c r="K11" s="3">
-        <v>71999</v>
+        <v>7421</v>
       </c>
       <c r="L11" s="3">
-        <v>71096</v>
+        <v>7348</v>
       </c>
       <c r="M11" s="3">
-        <v>69771</v>
+        <v>7198</v>
       </c>
       <c r="N11" s="3">
-        <v>1325</v>
+        <v>150</v>
       </c>
       <c r="O11" s="4">
-        <v>0.9874581591410991</v>
+        <v>0.9901630508017787</v>
       </c>
       <c r="P11" s="3">
-        <v>903</v>
+        <v>73</v>
       </c>
       <c r="Q11" s="4">
-        <v>0.01254184085890088</v>
+        <v>0.009836949198221277</v>
       </c>
       <c r="R11" s="3">
-        <v>140</v>
+        <v>12</v>
       </c>
       <c r="S11" s="3">
-        <v>70519</v>
+        <v>7311</v>
       </c>
       <c r="T11" s="3">
-        <v>214</v>
+        <v>19</v>
       </c>
       <c r="U11" s="3">
-        <v>577</v>
+        <v>37</v>
       </c>
       <c r="V11" s="4">
-        <v>0.9889075865937457</v>
+        <v>0.9923985340029863</v>
       </c>
       <c r="W11" s="5">
-        <v>132.1085407977527</v>
+        <v>127.5786329535982</v>
       </c>
       <c r="X11" s="5">
-        <v>5.532112195611357</v>
+        <v>3.279799944429008</v>
       </c>
       <c r="Y11" s="3">
-        <v>4449</v>
+        <v>528</v>
       </c>
       <c r="Z11" s="3">
-        <v>204</v>
+        <v>31</v>
       </c>
       <c r="AA11" s="3">
-        <v>132</v>
+        <v>9</v>
       </c>
       <c r="AB11" s="5">
         <v>60</v>
@@ -1787,21 +1790,131 @@
         <v>30</v>
       </c>
       <c r="AE11" s="3">
-        <v>4436</v>
+        <v>527</v>
       </c>
       <c r="AF11" s="3">
-        <v>204</v>
+        <v>31</v>
       </c>
       <c r="AG11" s="3">
-        <v>132</v>
+        <v>9</v>
       </c>
       <c r="AH11" s="4">
-        <v>0.9970779950550686</v>
+        <v>0.9981060606060607</v>
       </c>
       <c r="AI11" s="4">
         <v>1</v>
       </c>
       <c r="AJ11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36">
+      <c r="A12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="3">
+        <v>168226</v>
+      </c>
+      <c r="C12" s="3">
+        <v>88654</v>
+      </c>
+      <c r="D12" s="3">
+        <v>23549</v>
+      </c>
+      <c r="E12" s="3">
+        <v>65105</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.2656281724456877</v>
+      </c>
+      <c r="G12" s="5">
+        <v>39.32696776231191</v>
+      </c>
+      <c r="H12" s="3">
+        <v>79572</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0.5269934492884571</v>
+      </c>
+      <c r="J12" s="3">
+        <v>79572</v>
+      </c>
+      <c r="K12" s="3">
+        <v>79420</v>
+      </c>
+      <c r="L12" s="3">
+        <v>78444</v>
+      </c>
+      <c r="M12" s="3">
+        <v>76969</v>
+      </c>
+      <c r="N12" s="3">
+        <v>1475</v>
+      </c>
+      <c r="O12" s="4">
+        <v>0.9877109040543943</v>
+      </c>
+      <c r="P12" s="3">
+        <v>976</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>0.01228909594560562</v>
+      </c>
+      <c r="R12" s="3">
+        <v>152</v>
+      </c>
+      <c r="S12" s="3">
+        <v>77830</v>
+      </c>
+      <c r="T12" s="3">
+        <v>233</v>
+      </c>
+      <c r="U12" s="3">
+        <v>614</v>
+      </c>
+      <c r="V12" s="4">
+        <v>0.989234464964348</v>
+      </c>
+      <c r="W12" s="5">
+        <v>131.6849121074718</v>
+      </c>
+      <c r="X12" s="5">
+        <v>5.321480076394392</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>4977</v>
+      </c>
+      <c r="Z12" s="3">
+        <v>235</v>
+      </c>
+      <c r="AA12" s="3">
+        <v>141</v>
+      </c>
+      <c r="AB12" s="5">
+        <v>60</v>
+      </c>
+      <c r="AC12" s="5">
+        <v>45</v>
+      </c>
+      <c r="AD12" s="5">
+        <v>30</v>
+      </c>
+      <c r="AE12" s="3">
+        <v>4963</v>
+      </c>
+      <c r="AF12" s="3">
+        <v>235</v>
+      </c>
+      <c r="AG12" s="3">
+        <v>141</v>
+      </c>
+      <c r="AH12" s="4">
+        <v>0.9971870604781998</v>
+      </c>
+      <c r="AI12" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ12" s="4">
         <v>1</v>
       </c>
     </row>
@@ -1812,7 +1925,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ11"/>
+  <dimension ref="A1:AJ12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2922,86 +3035,86 @@
       </c>
     </row>
     <row r="11" spans="1:36">
-      <c r="A11" s="3" t="s">
-        <v>36</v>
+      <c r="A11" s="2">
+        <v>45940</v>
       </c>
       <c r="B11" s="3">
-        <v>85085</v>
+        <v>8408</v>
       </c>
       <c r="C11" s="3">
-        <v>49722</v>
+        <v>4942</v>
       </c>
       <c r="D11" s="3">
-        <v>11499</v>
+        <v>1155</v>
       </c>
       <c r="E11" s="3">
-        <v>38223</v>
+        <v>3787</v>
       </c>
       <c r="F11" s="4">
-        <v>0.2312658380596114</v>
+        <v>0.2337110481586402</v>
       </c>
       <c r="G11" s="5">
-        <v>44.36883069868469</v>
+        <v>42.96539862403885</v>
       </c>
       <c r="H11" s="3">
-        <v>35363</v>
+        <v>3466</v>
       </c>
       <c r="I11" s="4">
-        <v>0.5843803255567962</v>
+        <v>0.5877735490009515</v>
       </c>
       <c r="J11" s="3">
-        <v>35363</v>
+        <v>3466</v>
       </c>
       <c r="K11" s="3">
-        <v>35302</v>
+        <v>3463</v>
       </c>
       <c r="L11" s="3">
-        <v>34941</v>
+        <v>3430</v>
       </c>
       <c r="M11" s="3">
-        <v>34185</v>
+        <v>3351</v>
       </c>
       <c r="N11" s="3">
-        <v>756</v>
+        <v>79</v>
       </c>
       <c r="O11" s="4">
-        <v>0.9897739504843919</v>
+        <v>0.9904706901530465</v>
       </c>
       <c r="P11" s="3">
-        <v>361</v>
+        <v>33</v>
       </c>
       <c r="Q11" s="4">
-        <v>0.01022604951560808</v>
+        <v>0.009529309846953566</v>
       </c>
       <c r="R11" s="3">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="S11" s="3">
-        <v>34655</v>
+        <v>3414</v>
       </c>
       <c r="T11" s="3">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="U11" s="3">
-        <v>286</v>
+        <v>16</v>
       </c>
       <c r="V11" s="4">
-        <v>0.9897186919891474</v>
+        <v>0.9918651946542708</v>
       </c>
       <c r="W11" s="5">
-        <v>134.5514991955536</v>
+        <v>128.0164130110415</v>
       </c>
       <c r="X11" s="5">
-        <v>5.68957144946614</v>
+        <v>2.903312444046553</v>
       </c>
       <c r="Y11" s="3">
-        <v>2023</v>
+        <v>235</v>
       </c>
       <c r="Z11" s="3">
-        <v>158</v>
+        <v>24</v>
       </c>
       <c r="AA11" s="3">
-        <v>102</v>
+        <v>7</v>
       </c>
       <c r="AB11" s="5">
         <v>60</v>
@@ -3013,21 +3126,131 @@
         <v>30</v>
       </c>
       <c r="AE11" s="3">
-        <v>2016</v>
+        <v>235</v>
       </c>
       <c r="AF11" s="3">
-        <v>158</v>
+        <v>24</v>
       </c>
       <c r="AG11" s="3">
-        <v>102</v>
+        <v>7</v>
       </c>
       <c r="AH11" s="4">
-        <v>0.9965397923875432</v>
+        <v>1</v>
       </c>
       <c r="AI11" s="4">
         <v>1</v>
       </c>
       <c r="AJ11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36">
+      <c r="A12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="3">
+        <v>93493</v>
+      </c>
+      <c r="C12" s="3">
+        <v>54664</v>
+      </c>
+      <c r="D12" s="3">
+        <v>12654</v>
+      </c>
+      <c r="E12" s="3">
+        <v>42010</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.2314869018000878</v>
+      </c>
+      <c r="G12" s="5">
+        <v>44.2419508268696</v>
+      </c>
+      <c r="H12" s="3">
+        <v>38829</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0.5846854844747735</v>
+      </c>
+      <c r="J12" s="3">
+        <v>38829</v>
+      </c>
+      <c r="K12" s="3">
+        <v>38765</v>
+      </c>
+      <c r="L12" s="3">
+        <v>38371</v>
+      </c>
+      <c r="M12" s="3">
+        <v>37536</v>
+      </c>
+      <c r="N12" s="3">
+        <v>835</v>
+      </c>
+      <c r="O12" s="4">
+        <v>0.9898361924416355</v>
+      </c>
+      <c r="P12" s="3">
+        <v>394</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>0.01016380755836451</v>
+      </c>
+      <c r="R12" s="3">
+        <v>64</v>
+      </c>
+      <c r="S12" s="3">
+        <v>38069</v>
+      </c>
+      <c r="T12" s="3">
+        <v>86</v>
+      </c>
+      <c r="U12" s="3">
+        <v>302</v>
+      </c>
+      <c r="V12" s="4">
+        <v>0.9899108094755181</v>
+      </c>
+      <c r="W12" s="5">
+        <v>133.9680839727195</v>
+      </c>
+      <c r="X12" s="5">
+        <v>5.440830136402387</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>2258</v>
+      </c>
+      <c r="Z12" s="3">
+        <v>182</v>
+      </c>
+      <c r="AA12" s="3">
+        <v>109</v>
+      </c>
+      <c r="AB12" s="5">
+        <v>60</v>
+      </c>
+      <c r="AC12" s="5">
+        <v>45</v>
+      </c>
+      <c r="AD12" s="5">
+        <v>30</v>
+      </c>
+      <c r="AE12" s="3">
+        <v>2251</v>
+      </c>
+      <c r="AF12" s="3">
+        <v>182</v>
+      </c>
+      <c r="AG12" s="3">
+        <v>109</v>
+      </c>
+      <c r="AH12" s="4">
+        <v>0.9968999114260407</v>
+      </c>
+      <c r="AI12" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ12" s="4">
         <v>1</v>
       </c>
     </row>
@@ -3038,7 +3261,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ11"/>
+  <dimension ref="A1:AJ12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4148,86 +4371,86 @@
       </c>
     </row>
     <row r="11" spans="1:36">
-      <c r="A11" s="3" t="s">
-        <v>36</v>
+      <c r="A11" s="2">
+        <v>45940</v>
       </c>
       <c r="B11" s="3">
-        <v>40570</v>
+        <v>4049</v>
       </c>
       <c r="C11" s="3">
-        <v>19411</v>
+        <v>1841</v>
       </c>
       <c r="D11" s="3">
-        <v>6645</v>
+        <v>621</v>
       </c>
       <c r="E11" s="3">
-        <v>12766</v>
+        <v>1220</v>
       </c>
       <c r="F11" s="4">
-        <v>0.3423316676111483</v>
+        <v>0.3373166757197176</v>
       </c>
       <c r="G11" s="5">
-        <v>27.20297769306064</v>
+        <v>26.20097772949484</v>
       </c>
       <c r="H11" s="3">
-        <v>21159</v>
+        <v>2208</v>
       </c>
       <c r="I11" s="4">
-        <v>0.4784569879221099</v>
+        <v>0.4546801679427019</v>
       </c>
       <c r="J11" s="3">
-        <v>21159</v>
+        <v>2208</v>
       </c>
       <c r="K11" s="3">
-        <v>21109</v>
+        <v>2200</v>
       </c>
       <c r="L11" s="3">
-        <v>20726</v>
+        <v>2179</v>
       </c>
       <c r="M11" s="3">
-        <v>20339</v>
+        <v>2134</v>
       </c>
       <c r="N11" s="3">
-        <v>387</v>
+        <v>45</v>
       </c>
       <c r="O11" s="4">
-        <v>0.9818560803448766</v>
+        <v>0.9904545454545455</v>
       </c>
       <c r="P11" s="3">
-        <v>383</v>
+        <v>21</v>
       </c>
       <c r="Q11" s="4">
-        <v>0.01814391965512343</v>
+        <v>0.009545454545454532</v>
       </c>
       <c r="R11" s="3">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="S11" s="3">
-        <v>20571</v>
+        <v>2174</v>
       </c>
       <c r="T11" s="3">
-        <v>93</v>
+        <v>2</v>
       </c>
       <c r="U11" s="3">
-        <v>155</v>
+        <v>5</v>
       </c>
       <c r="V11" s="4">
-        <v>0.9880878044094337</v>
+        <v>0.9967904630903255</v>
       </c>
       <c r="W11" s="5">
-        <v>124.8465017945818</v>
+        <v>122.6569821930647</v>
       </c>
       <c r="X11" s="5">
-        <v>5.211563990363342</v>
+        <v>2.557169634489222</v>
       </c>
       <c r="Y11" s="3">
-        <v>1438</v>
+        <v>168</v>
       </c>
       <c r="Z11" s="3">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="AA11" s="3">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="AB11" s="5">
         <v>60</v>
@@ -4239,21 +4462,131 @@
         <v>30</v>
       </c>
       <c r="AE11" s="3">
-        <v>1434</v>
+        <v>167</v>
       </c>
       <c r="AF11" s="3">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="AG11" s="3">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="AH11" s="4">
-        <v>0.9972183588317107</v>
+        <v>0.9940476190476191</v>
       </c>
       <c r="AI11" s="4">
         <v>1</v>
       </c>
       <c r="AJ11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36">
+      <c r="A12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="3">
+        <v>44619</v>
+      </c>
+      <c r="C12" s="3">
+        <v>21252</v>
+      </c>
+      <c r="D12" s="3">
+        <v>7266</v>
+      </c>
+      <c r="E12" s="3">
+        <v>13986</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.3418972332015811</v>
+      </c>
+      <c r="G12" s="5">
+        <v>27.11617730095991</v>
+      </c>
+      <c r="H12" s="3">
+        <v>23367</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0.4762993343642843</v>
+      </c>
+      <c r="J12" s="3">
+        <v>23367</v>
+      </c>
+      <c r="K12" s="3">
+        <v>23309</v>
+      </c>
+      <c r="L12" s="3">
+        <v>22905</v>
+      </c>
+      <c r="M12" s="3">
+        <v>22473</v>
+      </c>
+      <c r="N12" s="3">
+        <v>432</v>
+      </c>
+      <c r="O12" s="4">
+        <v>0.9826676391093569</v>
+      </c>
+      <c r="P12" s="3">
+        <v>404</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>0.01733236089064306</v>
+      </c>
+      <c r="R12" s="3">
+        <v>58</v>
+      </c>
+      <c r="S12" s="3">
+        <v>22745</v>
+      </c>
+      <c r="T12" s="3">
+        <v>95</v>
+      </c>
+      <c r="U12" s="3">
+        <v>160</v>
+      </c>
+      <c r="V12" s="4">
+        <v>0.9889130434782609</v>
+      </c>
+      <c r="W12" s="5">
+        <v>124.6385885284564</v>
+      </c>
+      <c r="X12" s="5">
+        <v>4.959506963912251</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>1606</v>
+      </c>
+      <c r="Z12" s="3">
+        <v>17</v>
+      </c>
+      <c r="AA12" s="3">
+        <v>26</v>
+      </c>
+      <c r="AB12" s="5">
+        <v>60</v>
+      </c>
+      <c r="AC12" s="5">
+        <v>45</v>
+      </c>
+      <c r="AD12" s="5">
+        <v>30</v>
+      </c>
+      <c r="AE12" s="3">
+        <v>1601</v>
+      </c>
+      <c r="AF12" s="3">
+        <v>17</v>
+      </c>
+      <c r="AG12" s="3">
+        <v>26</v>
+      </c>
+      <c r="AH12" s="4">
+        <v>0.9968866749688668</v>
+      </c>
+      <c r="AI12" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ12" s="4">
         <v>1</v>
       </c>
     </row>
@@ -4264,7 +4597,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ11"/>
+  <dimension ref="A1:AJ12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5374,86 +5707,86 @@
       </c>
     </row>
     <row r="11" spans="1:36">
-      <c r="A11" s="3" t="s">
-        <v>36</v>
+      <c r="A11" s="2">
+        <v>45940</v>
       </c>
       <c r="B11" s="3">
-        <v>27091</v>
+        <v>3023</v>
       </c>
       <c r="C11" s="3">
-        <v>11474</v>
+        <v>1264</v>
       </c>
       <c r="D11" s="3">
-        <v>3230</v>
+        <v>399</v>
       </c>
       <c r="E11" s="3">
-        <v>8244</v>
+        <v>865</v>
       </c>
       <c r="F11" s="4">
-        <v>0.2815060135959561</v>
+        <v>0.3156645569620253</v>
       </c>
       <c r="G11" s="5">
-        <v>38.86874673174133</v>
+        <v>36.23259493670886</v>
       </c>
       <c r="H11" s="3">
-        <v>15617</v>
+        <v>1759</v>
       </c>
       <c r="I11" s="4">
-        <v>0.4235354914916393</v>
+        <v>0.4181276877274231</v>
       </c>
       <c r="J11" s="3">
-        <v>15617</v>
+        <v>1759</v>
       </c>
       <c r="K11" s="3">
-        <v>15588</v>
+        <v>1758</v>
       </c>
       <c r="L11" s="3">
-        <v>15429</v>
+        <v>1739</v>
       </c>
       <c r="M11" s="3">
-        <v>15247</v>
+        <v>1713</v>
       </c>
       <c r="N11" s="3">
-        <v>182</v>
+        <v>26</v>
       </c>
       <c r="O11" s="4">
-        <v>0.9897998460354118</v>
+        <v>0.9891922639362911</v>
       </c>
       <c r="P11" s="3">
-        <v>159</v>
+        <v>19</v>
       </c>
       <c r="Q11" s="4">
-        <v>0.01020015396458817</v>
+        <v>0.01080773606370883</v>
       </c>
       <c r="R11" s="3">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="S11" s="3">
-        <v>15293</v>
+        <v>1723</v>
       </c>
       <c r="T11" s="3">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="U11" s="3">
-        <v>136</v>
+        <v>16</v>
       </c>
       <c r="V11" s="4">
-        <v>0.9881752390798656</v>
+        <v>0.9879587155963303</v>
       </c>
       <c r="W11" s="5">
-        <v>136.3185544697317</v>
+        <v>132.8534734384122</v>
       </c>
       <c r="X11" s="5">
-        <v>5.606676723289827</v>
+        <v>4.916520723876241</v>
       </c>
       <c r="Y11" s="3">
-        <v>988</v>
+        <v>125</v>
       </c>
       <c r="Z11" s="3">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="AA11" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AB11" s="5">
         <v>60</v>
@@ -5465,21 +5798,131 @@
         <v>30</v>
       </c>
       <c r="AE11" s="3">
-        <v>986</v>
+        <v>125</v>
       </c>
       <c r="AF11" s="3">
+        <v>6</v>
+      </c>
+      <c r="AG11" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH11" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI11" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36">
+      <c r="A12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="3">
+        <v>30114</v>
+      </c>
+      <c r="C12" s="3">
+        <v>12738</v>
+      </c>
+      <c r="D12" s="3">
+        <v>3629</v>
+      </c>
+      <c r="E12" s="3">
+        <v>9109</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.2848955880043963</v>
+      </c>
+      <c r="G12" s="5">
+        <v>38.60715967969854</v>
+      </c>
+      <c r="H12" s="3">
+        <v>17376</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0.4229926280135486</v>
+      </c>
+      <c r="J12" s="3">
+        <v>17376</v>
+      </c>
+      <c r="K12" s="3">
+        <v>17346</v>
+      </c>
+      <c r="L12" s="3">
+        <v>17168</v>
+      </c>
+      <c r="M12" s="3">
+        <v>16960</v>
+      </c>
+      <c r="N12" s="3">
+        <v>208</v>
+      </c>
+      <c r="O12" s="4">
+        <v>0.9897382681886314</v>
+      </c>
+      <c r="P12" s="3">
+        <v>178</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>0.01026173181136855</v>
+      </c>
+      <c r="R12" s="3">
         <v>30</v>
       </c>
-      <c r="AG11" s="3">
-        <v>5</v>
-      </c>
-      <c r="AH11" s="4">
-        <v>0.9979757085020243</v>
-      </c>
-      <c r="AI11" s="4">
-        <v>1</v>
-      </c>
-      <c r="AJ11" s="4">
+      <c r="S12" s="3">
+        <v>17016</v>
+      </c>
+      <c r="T12" s="3">
+        <v>52</v>
+      </c>
+      <c r="U12" s="3">
+        <v>152</v>
+      </c>
+      <c r="V12" s="4">
+        <v>0.9881533101045297</v>
+      </c>
+      <c r="W12" s="5">
+        <v>135.9685731132076</v>
+      </c>
+      <c r="X12" s="5">
+        <v>5.536969339622641</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>1113</v>
+      </c>
+      <c r="Z12" s="3">
+        <v>36</v>
+      </c>
+      <c r="AA12" s="3">
+        <v>6</v>
+      </c>
+      <c r="AB12" s="5">
+        <v>60</v>
+      </c>
+      <c r="AC12" s="5">
+        <v>45</v>
+      </c>
+      <c r="AD12" s="5">
+        <v>30</v>
+      </c>
+      <c r="AE12" s="3">
+        <v>1111</v>
+      </c>
+      <c r="AF12" s="3">
+        <v>36</v>
+      </c>
+      <c r="AG12" s="3">
+        <v>6</v>
+      </c>
+      <c r="AH12" s="4">
+        <v>0.9982030548068284</v>
+      </c>
+      <c r="AI12" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ12" s="4">
         <v>1</v>
       </c>
     </row>
@@ -5490,7 +5933,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L217"/>
+  <dimension ref="A1:L241"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -13745,6 +14188,918 @@
         <v>100</v>
       </c>
     </row>
+    <row r="218" spans="1:12">
+      <c r="A218" s="2">
+        <v>45940</v>
+      </c>
+      <c r="B218" s="3">
+        <v>0</v>
+      </c>
+      <c r="C218" s="3">
+        <v>107</v>
+      </c>
+      <c r="D218" s="3">
+        <v>60</v>
+      </c>
+      <c r="E218" s="3">
+        <v>60</v>
+      </c>
+      <c r="F218" s="3">
+        <v>0</v>
+      </c>
+      <c r="G218" s="4">
+        <v>1</v>
+      </c>
+      <c r="H218" s="4">
+        <v>1</v>
+      </c>
+      <c r="I218" s="5">
+        <v>106.4716981132076</v>
+      </c>
+      <c r="J218" s="3">
+        <v>100</v>
+      </c>
+      <c r="K218" s="3">
+        <v>100</v>
+      </c>
+      <c r="L218" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12">
+      <c r="A219" s="2">
+        <v>45940</v>
+      </c>
+      <c r="B219" s="3">
+        <v>1</v>
+      </c>
+      <c r="C219" s="3">
+        <v>90</v>
+      </c>
+      <c r="D219" s="3">
+        <v>50</v>
+      </c>
+      <c r="E219" s="3">
+        <v>50</v>
+      </c>
+      <c r="F219" s="3">
+        <v>0</v>
+      </c>
+      <c r="G219" s="4">
+        <v>1</v>
+      </c>
+      <c r="H219" s="4">
+        <v>1</v>
+      </c>
+      <c r="I219" s="5">
+        <v>87.44117647058823</v>
+      </c>
+      <c r="J219" s="3">
+        <v>100</v>
+      </c>
+      <c r="K219" s="3">
+        <v>100</v>
+      </c>
+      <c r="L219" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12">
+      <c r="A220" s="2">
+        <v>45940</v>
+      </c>
+      <c r="B220" s="3">
+        <v>2</v>
+      </c>
+      <c r="C220" s="3">
+        <v>38</v>
+      </c>
+      <c r="D220" s="3">
+        <v>20</v>
+      </c>
+      <c r="E220" s="3">
+        <v>17</v>
+      </c>
+      <c r="F220" s="3">
+        <v>3</v>
+      </c>
+      <c r="G220" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="H220" s="4">
+        <v>0.9444444444444444</v>
+      </c>
+      <c r="I220" s="5">
+        <v>134.5454545454545</v>
+      </c>
+      <c r="J220" s="3">
+        <v>100</v>
+      </c>
+      <c r="K220" s="3">
+        <v>100</v>
+      </c>
+      <c r="L220" s="3">
+        <v>85.71428571428571</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12">
+      <c r="A221" s="2">
+        <v>45940</v>
+      </c>
+      <c r="B221" s="3">
+        <v>3</v>
+      </c>
+      <c r="C221" s="3">
+        <v>28</v>
+      </c>
+      <c r="D221" s="3">
+        <v>11</v>
+      </c>
+      <c r="E221" s="3">
+        <v>8</v>
+      </c>
+      <c r="F221" s="3">
+        <v>3</v>
+      </c>
+      <c r="G221" s="4">
+        <v>0.7272727272727273</v>
+      </c>
+      <c r="H221" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="I221" s="5">
+        <v>153.5</v>
+      </c>
+      <c r="J221" s="3">
+        <v>50</v>
+      </c>
+      <c r="K221" s="3">
+        <v>100</v>
+      </c>
+      <c r="L221" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12">
+      <c r="A222" s="2">
+        <v>45940</v>
+      </c>
+      <c r="B222" s="3">
+        <v>4</v>
+      </c>
+      <c r="C222" s="3">
+        <v>39</v>
+      </c>
+      <c r="D222" s="3">
+        <v>21</v>
+      </c>
+      <c r="E222" s="3">
+        <v>17</v>
+      </c>
+      <c r="F222" s="3">
+        <v>4</v>
+      </c>
+      <c r="G222" s="4">
+        <v>0.8095238095238095</v>
+      </c>
+      <c r="H222" s="4">
+        <v>0.8235294117647058</v>
+      </c>
+      <c r="I222" s="5">
+        <v>115.7058823529412</v>
+      </c>
+      <c r="J222" s="3">
+        <v>100</v>
+      </c>
+      <c r="K222" s="3">
+        <v>80</v>
+      </c>
+      <c r="L222" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12">
+      <c r="A223" s="2">
+        <v>45940</v>
+      </c>
+      <c r="B223" s="3">
+        <v>5</v>
+      </c>
+      <c r="C223" s="3">
+        <v>121</v>
+      </c>
+      <c r="D223" s="3">
+        <v>45</v>
+      </c>
+      <c r="E223" s="3">
+        <v>24</v>
+      </c>
+      <c r="F223" s="3">
+        <v>21</v>
+      </c>
+      <c r="G223" s="4">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="H223" s="4">
+        <v>0.6060606060606061</v>
+      </c>
+      <c r="I223" s="5">
+        <v>130.3181818181818</v>
+      </c>
+      <c r="J223" s="3">
+        <v>53.33333333333334</v>
+      </c>
+      <c r="K223" s="3">
+        <v>77.77777777777779</v>
+      </c>
+      <c r="L223" s="3">
+        <v>55.55555555555556</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12">
+      <c r="A224" s="2">
+        <v>45940</v>
+      </c>
+      <c r="B224" s="3">
+        <v>6</v>
+      </c>
+      <c r="C224" s="3">
+        <v>314</v>
+      </c>
+      <c r="D224" s="3">
+        <v>157</v>
+      </c>
+      <c r="E224" s="3">
+        <v>135</v>
+      </c>
+      <c r="F224" s="3">
+        <v>22</v>
+      </c>
+      <c r="G224" s="4">
+        <v>0.8598726114649682</v>
+      </c>
+      <c r="H224" s="4">
+        <v>0.8111888111888113</v>
+      </c>
+      <c r="I224" s="5">
+        <v>113.696</v>
+      </c>
+      <c r="J224" s="3">
+        <v>73.33333333333333</v>
+      </c>
+      <c r="K224" s="3">
+        <v>95</v>
+      </c>
+      <c r="L224" s="3">
+        <v>82.14285714285714</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12">
+      <c r="A225" s="2">
+        <v>45940</v>
+      </c>
+      <c r="B225" s="3">
+        <v>7</v>
+      </c>
+      <c r="C225" s="3">
+        <v>477</v>
+      </c>
+      <c r="D225" s="3">
+        <v>249</v>
+      </c>
+      <c r="E225" s="3">
+        <v>247</v>
+      </c>
+      <c r="F225" s="3">
+        <v>2</v>
+      </c>
+      <c r="G225" s="4">
+        <v>0.9919678714859438</v>
+      </c>
+      <c r="H225" s="4">
+        <v>1</v>
+      </c>
+      <c r="I225" s="5">
+        <v>121.1183673469388</v>
+      </c>
+      <c r="J225" s="3">
+        <v>100</v>
+      </c>
+      <c r="K225" s="3">
+        <v>100</v>
+      </c>
+      <c r="L225" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12">
+      <c r="A226" s="2">
+        <v>45940</v>
+      </c>
+      <c r="B226" s="3">
+        <v>8</v>
+      </c>
+      <c r="C226" s="3">
+        <v>667</v>
+      </c>
+      <c r="D226" s="3">
+        <v>305</v>
+      </c>
+      <c r="E226" s="3">
+        <v>305</v>
+      </c>
+      <c r="F226" s="3">
+        <v>0</v>
+      </c>
+      <c r="G226" s="4">
+        <v>1</v>
+      </c>
+      <c r="H226" s="4">
+        <v>1</v>
+      </c>
+      <c r="I226" s="5">
+        <v>124.7766666666667</v>
+      </c>
+      <c r="J226" s="3">
+        <v>100</v>
+      </c>
+      <c r="K226" s="3">
+        <v>100</v>
+      </c>
+      <c r="L226" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12">
+      <c r="A227" s="2">
+        <v>45940</v>
+      </c>
+      <c r="B227" s="3">
+        <v>9</v>
+      </c>
+      <c r="C227" s="3">
+        <v>913</v>
+      </c>
+      <c r="D227" s="3">
+        <v>465</v>
+      </c>
+      <c r="E227" s="3">
+        <v>465</v>
+      </c>
+      <c r="F227" s="3">
+        <v>0</v>
+      </c>
+      <c r="G227" s="4">
+        <v>1</v>
+      </c>
+      <c r="H227" s="4">
+        <v>1</v>
+      </c>
+      <c r="I227" s="5">
+        <v>136.6578947368421</v>
+      </c>
+      <c r="J227" s="3">
+        <v>100</v>
+      </c>
+      <c r="K227" s="3">
+        <v>100</v>
+      </c>
+      <c r="L227" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12">
+      <c r="A228" s="2">
+        <v>45940</v>
+      </c>
+      <c r="B228" s="3">
+        <v>10</v>
+      </c>
+      <c r="C228" s="3">
+        <v>1174</v>
+      </c>
+      <c r="D228" s="3">
+        <v>553</v>
+      </c>
+      <c r="E228" s="3">
+        <v>553</v>
+      </c>
+      <c r="F228" s="3">
+        <v>0</v>
+      </c>
+      <c r="G228" s="4">
+        <v>1</v>
+      </c>
+      <c r="H228" s="4">
+        <v>1</v>
+      </c>
+      <c r="I228" s="5">
+        <v>127.254113345521</v>
+      </c>
+      <c r="J228" s="3">
+        <v>100</v>
+      </c>
+      <c r="K228" s="3">
+        <v>100</v>
+      </c>
+      <c r="L228" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12">
+      <c r="A229" s="2">
+        <v>45940</v>
+      </c>
+      <c r="B229" s="3">
+        <v>11</v>
+      </c>
+      <c r="C229" s="3">
+        <v>1100</v>
+      </c>
+      <c r="D229" s="3">
+        <v>566</v>
+      </c>
+      <c r="E229" s="3">
+        <v>566</v>
+      </c>
+      <c r="F229" s="3">
+        <v>0</v>
+      </c>
+      <c r="G229" s="4">
+        <v>1</v>
+      </c>
+      <c r="H229" s="4">
+        <v>1</v>
+      </c>
+      <c r="I229" s="5">
+        <v>129.0849557522124</v>
+      </c>
+      <c r="J229" s="3">
+        <v>100</v>
+      </c>
+      <c r="K229" s="3">
+        <v>100</v>
+      </c>
+      <c r="L229" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12">
+      <c r="A230" s="2">
+        <v>45940</v>
+      </c>
+      <c r="B230" s="3">
+        <v>12</v>
+      </c>
+      <c r="C230" s="3">
+        <v>1087</v>
+      </c>
+      <c r="D230" s="3">
+        <v>499</v>
+      </c>
+      <c r="E230" s="3">
+        <v>498</v>
+      </c>
+      <c r="F230" s="3">
+        <v>1</v>
+      </c>
+      <c r="G230" s="4">
+        <v>0.9979959919839679</v>
+      </c>
+      <c r="H230" s="4">
+        <v>1</v>
+      </c>
+      <c r="I230" s="5">
+        <v>126.9595141700405</v>
+      </c>
+      <c r="J230" s="3">
+        <v>100</v>
+      </c>
+      <c r="K230" s="3">
+        <v>100</v>
+      </c>
+      <c r="L230" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12">
+      <c r="A231" s="2">
+        <v>45940</v>
+      </c>
+      <c r="B231" s="3">
+        <v>13</v>
+      </c>
+      <c r="C231" s="3">
+        <v>946</v>
+      </c>
+      <c r="D231" s="3">
+        <v>452</v>
+      </c>
+      <c r="E231" s="3">
+        <v>452</v>
+      </c>
+      <c r="F231" s="3">
+        <v>0</v>
+      </c>
+      <c r="G231" s="4">
+        <v>1</v>
+      </c>
+      <c r="H231" s="4">
+        <v>1</v>
+      </c>
+      <c r="I231" s="5">
+        <v>128.5358744394619</v>
+      </c>
+      <c r="J231" s="3">
+        <v>100</v>
+      </c>
+      <c r="K231" s="3">
+        <v>100</v>
+      </c>
+      <c r="L231" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12">
+      <c r="A232" s="2">
+        <v>45940</v>
+      </c>
+      <c r="B232" s="3">
+        <v>14</v>
+      </c>
+      <c r="C232" s="3">
+        <v>1013</v>
+      </c>
+      <c r="D232" s="3">
+        <v>482</v>
+      </c>
+      <c r="E232" s="3">
+        <v>482</v>
+      </c>
+      <c r="F232" s="3">
+        <v>0</v>
+      </c>
+      <c r="G232" s="4">
+        <v>1</v>
+      </c>
+      <c r="H232" s="4">
+        <v>1</v>
+      </c>
+      <c r="I232" s="5">
+        <v>112.7796610169491</v>
+      </c>
+      <c r="J232" s="3">
+        <v>100</v>
+      </c>
+      <c r="K232" s="3">
+        <v>100</v>
+      </c>
+      <c r="L232" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12">
+      <c r="A233" s="2">
+        <v>45940</v>
+      </c>
+      <c r="B233" s="3">
+        <v>15</v>
+      </c>
+      <c r="C233" s="3">
+        <v>775</v>
+      </c>
+      <c r="D233" s="3">
+        <v>372</v>
+      </c>
+      <c r="E233" s="3">
+        <v>372</v>
+      </c>
+      <c r="F233" s="3">
+        <v>0</v>
+      </c>
+      <c r="G233" s="4">
+        <v>1</v>
+      </c>
+      <c r="H233" s="4">
+        <v>1</v>
+      </c>
+      <c r="I233" s="5">
+        <v>125.1165311653117</v>
+      </c>
+      <c r="J233" s="3">
+        <v>100</v>
+      </c>
+      <c r="K233" s="3">
+        <v>100</v>
+      </c>
+      <c r="L233" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12">
+      <c r="A234" s="2">
+        <v>45940</v>
+      </c>
+      <c r="B234" s="3">
+        <v>16</v>
+      </c>
+      <c r="C234" s="3">
+        <v>942</v>
+      </c>
+      <c r="D234" s="3">
+        <v>417</v>
+      </c>
+      <c r="E234" s="3">
+        <v>417</v>
+      </c>
+      <c r="F234" s="3">
+        <v>0</v>
+      </c>
+      <c r="G234" s="4">
+        <v>1</v>
+      </c>
+      <c r="H234" s="4">
+        <v>1</v>
+      </c>
+      <c r="I234" s="5">
+        <v>135.3765281173594</v>
+      </c>
+      <c r="J234" s="3">
+        <v>100</v>
+      </c>
+      <c r="K234" s="3">
+        <v>100</v>
+      </c>
+      <c r="L234" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12">
+      <c r="A235" s="2">
+        <v>45940</v>
+      </c>
+      <c r="B235" s="3">
+        <v>17</v>
+      </c>
+      <c r="C235" s="3">
+        <v>1055</v>
+      </c>
+      <c r="D235" s="3">
+        <v>510</v>
+      </c>
+      <c r="E235" s="3">
+        <v>507</v>
+      </c>
+      <c r="F235" s="3">
+        <v>3</v>
+      </c>
+      <c r="G235" s="4">
+        <v>0.9941176470588234</v>
+      </c>
+      <c r="H235" s="4">
+        <v>0.9980276134122288</v>
+      </c>
+      <c r="I235" s="5">
+        <v>123.4116465863454</v>
+      </c>
+      <c r="J235" s="3">
+        <v>100</v>
+      </c>
+      <c r="K235" s="3">
+        <v>100</v>
+      </c>
+      <c r="L235" s="3">
+        <v>99.25373134328358</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12">
+      <c r="A236" s="2">
+        <v>45940</v>
+      </c>
+      <c r="B236" s="3">
+        <v>18</v>
+      </c>
+      <c r="C236" s="3">
+        <v>1036</v>
+      </c>
+      <c r="D236" s="3">
+        <v>453</v>
+      </c>
+      <c r="E236" s="3">
+        <v>451</v>
+      </c>
+      <c r="F236" s="3">
+        <v>2</v>
+      </c>
+      <c r="G236" s="4">
+        <v>0.9955849889624724</v>
+      </c>
+      <c r="H236" s="4">
+        <v>0.9933481152993349</v>
+      </c>
+      <c r="I236" s="5">
+        <v>125.8</v>
+      </c>
+      <c r="J236" s="3">
+        <v>100</v>
+      </c>
+      <c r="K236" s="3">
+        <v>100</v>
+      </c>
+      <c r="L236" s="3">
+        <v>97.67441860465115</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12">
+      <c r="A237" s="2">
+        <v>45940</v>
+      </c>
+      <c r="B237" s="3">
+        <v>19</v>
+      </c>
+      <c r="C237" s="3">
+        <v>1180</v>
+      </c>
+      <c r="D237" s="3">
+        <v>569</v>
+      </c>
+      <c r="E237" s="3">
+        <v>568</v>
+      </c>
+      <c r="F237" s="3">
+        <v>1</v>
+      </c>
+      <c r="G237" s="4">
+        <v>0.9982425307557118</v>
+      </c>
+      <c r="H237" s="4">
+        <v>1</v>
+      </c>
+      <c r="I237" s="5">
+        <v>126.9857904085258</v>
+      </c>
+      <c r="J237" s="3">
+        <v>100</v>
+      </c>
+      <c r="K237" s="3">
+        <v>100</v>
+      </c>
+      <c r="L237" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12">
+      <c r="A238" s="2">
+        <v>45940</v>
+      </c>
+      <c r="B238" s="3">
+        <v>20</v>
+      </c>
+      <c r="C238" s="3">
+        <v>943</v>
+      </c>
+      <c r="D238" s="3">
+        <v>470</v>
+      </c>
+      <c r="E238" s="3">
+        <v>463</v>
+      </c>
+      <c r="F238" s="3">
+        <v>7</v>
+      </c>
+      <c r="G238" s="4">
+        <v>0.9851063829787234</v>
+      </c>
+      <c r="H238" s="4">
+        <v>0.9913793103448276</v>
+      </c>
+      <c r="I238" s="5">
+        <v>124.232967032967</v>
+      </c>
+      <c r="J238" s="3">
+        <v>100</v>
+      </c>
+      <c r="K238" s="3">
+        <v>98.6013986013986</v>
+      </c>
+      <c r="L238" s="3">
+        <v>97.95918367346938</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12">
+      <c r="A239" s="2">
+        <v>45940</v>
+      </c>
+      <c r="B239" s="3">
+        <v>21</v>
+      </c>
+      <c r="C239" s="3">
+        <v>818</v>
+      </c>
+      <c r="D239" s="3">
+        <v>376</v>
+      </c>
+      <c r="E239" s="3">
+        <v>372</v>
+      </c>
+      <c r="F239" s="3">
+        <v>4</v>
+      </c>
+      <c r="G239" s="4">
+        <v>0.9893617021276596</v>
+      </c>
+      <c r="H239" s="4">
+        <v>0.9946236559139785</v>
+      </c>
+      <c r="I239" s="5">
+        <v>140.9835616438356</v>
+      </c>
+      <c r="J239" s="3">
+        <v>100</v>
+      </c>
+      <c r="K239" s="3">
+        <v>100</v>
+      </c>
+      <c r="L239" s="3">
+        <v>97.59036144578313</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12">
+      <c r="A240" s="2">
+        <v>45940</v>
+      </c>
+      <c r="B240" s="3">
+        <v>22</v>
+      </c>
+      <c r="C240" s="3">
+        <v>404</v>
+      </c>
+      <c r="D240" s="3">
+        <v>212</v>
+      </c>
+      <c r="E240" s="3">
+        <v>212</v>
+      </c>
+      <c r="F240" s="3">
+        <v>0</v>
+      </c>
+      <c r="G240" s="4">
+        <v>1</v>
+      </c>
+      <c r="H240" s="4">
+        <v>1</v>
+      </c>
+      <c r="I240" s="5">
+        <v>148.4571428571429</v>
+      </c>
+      <c r="J240" s="3">
+        <v>100</v>
+      </c>
+      <c r="K240" s="3">
+        <v>100</v>
+      </c>
+      <c r="L240" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12">
+      <c r="A241" s="2">
+        <v>45940</v>
+      </c>
+      <c r="B241" s="3">
+        <v>23</v>
+      </c>
+      <c r="C241" s="3">
+        <v>213</v>
+      </c>
+      <c r="D241" s="3">
+        <v>107</v>
+      </c>
+      <c r="E241" s="3">
+        <v>107</v>
+      </c>
+      <c r="F241" s="3">
+        <v>0</v>
+      </c>
+      <c r="G241" s="4">
+        <v>1</v>
+      </c>
+      <c r="H241" s="4">
+        <v>1</v>
+      </c>
+      <c r="I241" s="5">
+        <v>145.7234042553191</v>
+      </c>
+      <c r="J241" s="3">
+        <v>100</v>
+      </c>
+      <c r="K241" s="3">
+        <v>100</v>
+      </c>
+      <c r="L241" s="3">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13752,7 +15107,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK41"/>
+  <dimension ref="A1:AK45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -17943,202 +19298,202 @@
       </c>
     </row>
     <row r="38" spans="1:37">
-      <c r="A38" s="3" t="s">
-        <v>36</v>
+      <c r="A38" s="2">
+        <v>45940</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C38" s="3">
-        <v>3498</v>
+        <v>350</v>
       </c>
       <c r="D38" s="3">
-        <v>1471</v>
+        <v>138</v>
       </c>
       <c r="E38" s="3">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="F38" s="3">
-        <v>1427</v>
+        <v>133</v>
       </c>
       <c r="G38" s="4">
-        <v>0.02991162474507138</v>
+        <v>0.03623188405797102</v>
       </c>
       <c r="H38" s="5">
-        <v>57.47246770904147</v>
+        <v>59.04347826086956</v>
       </c>
       <c r="I38" s="3">
-        <v>2027</v>
+        <v>212</v>
       </c>
       <c r="J38" s="4">
-        <v>0.4205260148656375</v>
+        <v>0.3942857142857143</v>
       </c>
       <c r="K38" s="3">
-        <v>2027</v>
+        <v>212</v>
       </c>
       <c r="L38" s="3">
-        <v>1994</v>
+        <v>206</v>
       </c>
       <c r="M38" s="3">
-        <v>1937</v>
+        <v>205</v>
       </c>
       <c r="N38" s="3">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="O38" s="3">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="P38" s="3">
-        <v>2018</v>
+        <v>210</v>
       </c>
       <c r="Q38" s="4">
-        <v>0.9881070366699702</v>
+        <v>0.9809523809523809</v>
       </c>
       <c r="R38" s="4">
-        <v>0.01189296333002971</v>
+        <v>0.01904761904761912</v>
       </c>
       <c r="S38" s="3">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="T38" s="3">
-        <v>1983</v>
+        <v>203</v>
       </c>
       <c r="U38" s="3">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="V38" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="W38" s="4">
-        <v>0.9924924924924925</v>
+        <v>0.9806763285024155</v>
       </c>
       <c r="X38" s="5">
-        <v>141.1837893649974</v>
+        <v>133.8975609756098</v>
       </c>
       <c r="Y38" s="5">
-        <v>5.263293753226639</v>
+        <v>5.292682926829269</v>
       </c>
       <c r="Z38" s="3">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="AA38" s="5">
         <v>60</v>
       </c>
       <c r="AB38" s="3">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="AC38" s="4">
         <v>1</v>
       </c>
       <c r="AD38" s="3">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AE38" s="5">
         <v>45</v>
       </c>
       <c r="AF38" s="3">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AG38" s="4">
         <v>1</v>
       </c>
       <c r="AH38" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AI38" s="5">
         <v>30</v>
       </c>
       <c r="AJ38" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AK38" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:37">
-      <c r="A39" s="3" t="s">
-        <v>36</v>
+      <c r="A39" s="2">
+        <v>45940</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C39" s="3">
-        <v>2324</v>
+        <v>255</v>
       </c>
       <c r="D39" s="3">
-        <v>1106</v>
+        <v>131</v>
       </c>
       <c r="E39" s="3">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="F39" s="3">
-        <v>1060</v>
+        <v>126</v>
       </c>
       <c r="G39" s="4">
-        <v>0.04159132007233273</v>
+        <v>0.03816793893129771</v>
       </c>
       <c r="H39" s="5">
-        <v>69.05967450271248</v>
+        <v>64.06870229007633</v>
       </c>
       <c r="I39" s="3">
-        <v>1218</v>
+        <v>124</v>
       </c>
       <c r="J39" s="4">
-        <v>0.4759036144578313</v>
+        <v>0.5137254901960784</v>
       </c>
       <c r="K39" s="3">
-        <v>1218</v>
+        <v>124</v>
       </c>
       <c r="L39" s="3">
-        <v>1198</v>
+        <v>119</v>
       </c>
       <c r="M39" s="3">
-        <v>1163</v>
+        <v>114</v>
       </c>
       <c r="N39" s="3">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="O39" s="3">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="P39" s="3">
-        <v>1215</v>
+        <v>124</v>
       </c>
       <c r="Q39" s="4">
-        <v>0.9860082304526749</v>
+        <v>0.9596774193548387</v>
       </c>
       <c r="R39" s="4">
-        <v>0.01399176954732511</v>
+        <v>0.04032258064516128</v>
       </c>
       <c r="S39" s="3">
+        <v>0</v>
+      </c>
+      <c r="T39" s="3">
+        <v>116</v>
+      </c>
+      <c r="U39" s="3">
         <v>3</v>
       </c>
-      <c r="T39" s="3">
-        <v>1186</v>
-      </c>
-      <c r="U39" s="3">
-        <v>12</v>
-      </c>
       <c r="V39" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="W39" s="4">
-        <v>0.9866888519134775</v>
+        <v>0.9666666666666667</v>
       </c>
       <c r="X39" s="5">
-        <v>103.4643164230439</v>
+        <v>99.85087719298245</v>
       </c>
       <c r="Y39" s="5">
-        <v>6.793637145313843</v>
+        <v>14.7719298245614</v>
       </c>
       <c r="Z39" s="3">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="AA39" s="5">
         <v>60</v>
       </c>
       <c r="AB39" s="3">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="AC39" s="4">
         <v>1</v>
@@ -18156,241 +19511,693 @@
         <v>1</v>
       </c>
       <c r="AH39" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AI39" s="5">
         <v>30</v>
       </c>
       <c r="AJ39" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AK39" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:37">
-      <c r="A40" s="3" t="s">
-        <v>36</v>
+      <c r="A40" s="2">
+        <v>45940</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C40" s="3">
-        <v>82516</v>
+        <v>8128</v>
       </c>
       <c r="D40" s="3">
-        <v>48358</v>
+        <v>4788</v>
       </c>
       <c r="E40" s="3">
-        <v>11452</v>
+        <v>1150</v>
       </c>
       <c r="F40" s="3">
-        <v>36906</v>
+        <v>3638</v>
       </c>
       <c r="G40" s="4">
-        <v>0.2368170726663634</v>
+        <v>0.2401837928153717</v>
       </c>
       <c r="H40" s="5">
-        <v>43.82408288183962</v>
+        <v>42.23621553884712</v>
       </c>
       <c r="I40" s="3">
-        <v>34158</v>
+        <v>3340</v>
       </c>
       <c r="J40" s="4">
-        <v>0.5860439187551505</v>
+        <v>0.5890748031496063</v>
       </c>
       <c r="K40" s="3">
-        <v>34158</v>
+        <v>3340</v>
       </c>
       <c r="L40" s="3">
-        <v>33755</v>
+        <v>3307</v>
       </c>
       <c r="M40" s="3">
-        <v>33046</v>
+        <v>3232</v>
       </c>
       <c r="N40" s="3">
-        <v>709</v>
+        <v>75</v>
       </c>
       <c r="O40" s="3">
-        <v>349</v>
+        <v>31</v>
       </c>
       <c r="P40" s="3">
-        <v>34104</v>
+        <v>3338</v>
       </c>
       <c r="Q40" s="4">
-        <v>0.9897665962936899</v>
+        <v>0.9907130017974837</v>
       </c>
       <c r="R40" s="4">
-        <v>0.01023340370631004</v>
+        <v>0.009286998202516373</v>
       </c>
       <c r="S40" s="3">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="T40" s="3">
-        <v>33476</v>
+        <v>3293</v>
       </c>
       <c r="U40" s="3">
-        <v>279</v>
+        <v>14</v>
       </c>
       <c r="V40" s="3">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="W40" s="4">
-        <v>0.9895944188246424</v>
+        <v>0.9921663151551673</v>
       </c>
       <c r="X40" s="5">
-        <v>134.7850874538522</v>
+        <v>128.1847153465347</v>
       </c>
       <c r="Y40" s="5">
-        <v>5.707317073170731</v>
+        <v>2.795482673267327</v>
       </c>
       <c r="Z40" s="3">
-        <v>1977</v>
+        <v>224</v>
       </c>
       <c r="AA40" s="5">
         <v>60</v>
       </c>
       <c r="AB40" s="3">
-        <v>1970</v>
+        <v>224</v>
       </c>
       <c r="AC40" s="4">
-        <v>0.9964592817400102</v>
+        <v>1</v>
       </c>
       <c r="AD40" s="3">
-        <v>155</v>
+        <v>20</v>
       </c>
       <c r="AE40" s="5">
         <v>45</v>
       </c>
       <c r="AF40" s="3">
-        <v>155</v>
+        <v>20</v>
       </c>
       <c r="AG40" s="4">
         <v>1</v>
       </c>
       <c r="AH40" s="3">
-        <v>93</v>
+        <v>7</v>
       </c>
       <c r="AI40" s="5">
         <v>30</v>
       </c>
       <c r="AJ40" s="3">
-        <v>93</v>
+        <v>7</v>
       </c>
       <c r="AK40" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:37">
-      <c r="A41" s="3" t="s">
-        <v>36</v>
+      <c r="A41" s="2">
+        <v>45940</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C41" s="3">
-        <v>64408</v>
+        <v>6747</v>
       </c>
       <c r="D41" s="3">
-        <v>29672</v>
+        <v>2990</v>
       </c>
       <c r="E41" s="3">
-        <v>9832</v>
+        <v>1015</v>
       </c>
       <c r="F41" s="3">
-        <v>19840</v>
+        <v>1975</v>
       </c>
       <c r="G41" s="4">
-        <v>0.331356160690213</v>
+        <v>0.3394648829431438</v>
       </c>
       <c r="H41" s="5">
-        <v>30.33017659746562</v>
+        <v>29.29799331103679</v>
       </c>
       <c r="I41" s="3">
-        <v>34736</v>
+        <v>3757</v>
       </c>
       <c r="J41" s="4">
-        <v>0.4606881132778537</v>
+        <v>0.443159922928709</v>
       </c>
       <c r="K41" s="3">
-        <v>34736</v>
+        <v>3757</v>
       </c>
       <c r="L41" s="3">
-        <v>34149</v>
+        <v>3716</v>
       </c>
       <c r="M41" s="3">
-        <v>33625</v>
+        <v>3647</v>
       </c>
       <c r="N41" s="3">
-        <v>524</v>
+        <v>69</v>
       </c>
       <c r="O41" s="3">
-        <v>513</v>
+        <v>33</v>
       </c>
       <c r="P41" s="3">
-        <v>34662</v>
+        <v>3749</v>
       </c>
       <c r="Q41" s="4">
-        <v>0.98519993075991</v>
+        <v>0.9911976527073887</v>
       </c>
       <c r="R41" s="4">
-        <v>0.01480006924009004</v>
+        <v>0.00880234729261133</v>
       </c>
       <c r="S41" s="3">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="T41" s="3">
-        <v>33874</v>
+        <v>3699</v>
       </c>
       <c r="U41" s="3">
-        <v>275</v>
+        <v>17</v>
       </c>
       <c r="V41" s="3">
-        <v>133</v>
+        <v>5</v>
       </c>
       <c r="W41" s="4">
-        <v>0.9880987106936585</v>
+        <v>0.9940876108572965</v>
       </c>
       <c r="X41" s="5">
-        <v>129.9460223048327</v>
+        <v>127.5530573073759</v>
       </c>
       <c r="Y41" s="5">
-        <v>5.331776951672863</v>
+        <v>3.236632848916918</v>
       </c>
       <c r="Z41" s="3">
-        <v>2311</v>
+        <v>283</v>
       </c>
       <c r="AA41" s="5">
         <v>60</v>
       </c>
       <c r="AB41" s="3">
-        <v>2305</v>
+        <v>282</v>
       </c>
       <c r="AC41" s="4">
-        <v>0.9974037213327562</v>
+        <v>0.9964664310954063</v>
       </c>
       <c r="AD41" s="3">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AE41" s="5">
         <v>45</v>
       </c>
       <c r="AF41" s="3">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AG41" s="4">
         <v>1</v>
       </c>
       <c r="AH41" s="3">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="AI41" s="5">
         <v>30</v>
       </c>
       <c r="AJ41" s="3">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="AK41" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:37">
+      <c r="A42" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" s="3">
+        <v>3848</v>
+      </c>
+      <c r="D42" s="3">
+        <v>1609</v>
+      </c>
+      <c r="E42" s="3">
+        <v>49</v>
+      </c>
+      <c r="F42" s="3">
+        <v>1560</v>
+      </c>
+      <c r="G42" s="4">
+        <v>0.03045369794903667</v>
+      </c>
+      <c r="H42" s="5">
+        <v>57.6072094468614</v>
+      </c>
+      <c r="I42" s="3">
+        <v>2239</v>
+      </c>
+      <c r="J42" s="4">
+        <v>0.4181392931392932</v>
+      </c>
+      <c r="K42" s="3">
+        <v>2239</v>
+      </c>
+      <c r="L42" s="3">
+        <v>2200</v>
+      </c>
+      <c r="M42" s="3">
+        <v>2142</v>
+      </c>
+      <c r="N42" s="3">
+        <v>58</v>
+      </c>
+      <c r="O42" s="3">
+        <v>28</v>
+      </c>
+      <c r="P42" s="3">
+        <v>2228</v>
+      </c>
+      <c r="Q42" s="4">
+        <v>0.9874326750448833</v>
+      </c>
+      <c r="R42" s="4">
+        <v>0.0125673249551167</v>
+      </c>
+      <c r="S42" s="3">
+        <v>11</v>
+      </c>
+      <c r="T42" s="3">
+        <v>2186</v>
+      </c>
+      <c r="U42" s="3">
+        <v>14</v>
+      </c>
+      <c r="V42" s="3">
+        <v>5</v>
+      </c>
+      <c r="W42" s="4">
+        <v>0.9913832199546485</v>
+      </c>
+      <c r="X42" s="5">
+        <v>140.4864612511671</v>
+      </c>
+      <c r="Y42" s="5">
+        <v>5.266106442577031</v>
+      </c>
+      <c r="Z42" s="3">
+        <v>114</v>
+      </c>
+      <c r="AA42" s="5">
+        <v>60</v>
+      </c>
+      <c r="AB42" s="3">
+        <v>114</v>
+      </c>
+      <c r="AC42" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD42" s="3">
+        <v>14</v>
+      </c>
+      <c r="AE42" s="5">
+        <v>45</v>
+      </c>
+      <c r="AF42" s="3">
+        <v>14</v>
+      </c>
+      <c r="AG42" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH42" s="3">
+        <v>7</v>
+      </c>
+      <c r="AI42" s="5">
+        <v>30</v>
+      </c>
+      <c r="AJ42" s="3">
+        <v>7</v>
+      </c>
+      <c r="AK42" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:37">
+      <c r="A43" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" s="3">
+        <v>2579</v>
+      </c>
+      <c r="D43" s="3">
+        <v>1237</v>
+      </c>
+      <c r="E43" s="3">
+        <v>51</v>
+      </c>
+      <c r="F43" s="3">
+        <v>1186</v>
+      </c>
+      <c r="G43" s="4">
+        <v>0.04122877930476961</v>
+      </c>
+      <c r="H43" s="5">
+        <v>68.53112368633792</v>
+      </c>
+      <c r="I43" s="3">
+        <v>1342</v>
+      </c>
+      <c r="J43" s="4">
+        <v>0.4796432725862738</v>
+      </c>
+      <c r="K43" s="3">
+        <v>1342</v>
+      </c>
+      <c r="L43" s="3">
+        <v>1317</v>
+      </c>
+      <c r="M43" s="3">
+        <v>1277</v>
+      </c>
+      <c r="N43" s="3">
+        <v>40</v>
+      </c>
+      <c r="O43" s="3">
+        <v>22</v>
+      </c>
+      <c r="P43" s="3">
+        <v>1339</v>
+      </c>
+      <c r="Q43" s="4">
+        <v>0.9835698282300224</v>
+      </c>
+      <c r="R43" s="4">
+        <v>0.01643017176997759</v>
+      </c>
+      <c r="S43" s="3">
+        <v>3</v>
+      </c>
+      <c r="T43" s="3">
+        <v>1302</v>
+      </c>
+      <c r="U43" s="3">
+        <v>15</v>
+      </c>
+      <c r="V43" s="3">
+        <v>5</v>
+      </c>
+      <c r="W43" s="4">
+        <v>0.9848714069591528</v>
+      </c>
+      <c r="X43" s="5">
+        <v>103.141738449491</v>
+      </c>
+      <c r="Y43" s="5">
+        <v>7.505873140172278</v>
+      </c>
+      <c r="Z43" s="3">
+        <v>68</v>
+      </c>
+      <c r="AA43" s="5">
+        <v>60</v>
+      </c>
+      <c r="AB43" s="3">
+        <v>68</v>
+      </c>
+      <c r="AC43" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD43" s="3">
+        <v>4</v>
+      </c>
+      <c r="AE43" s="5">
+        <v>45</v>
+      </c>
+      <c r="AF43" s="3">
+        <v>4</v>
+      </c>
+      <c r="AG43" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH43" s="3">
+        <v>7</v>
+      </c>
+      <c r="AI43" s="5">
+        <v>30</v>
+      </c>
+      <c r="AJ43" s="3">
+        <v>7</v>
+      </c>
+      <c r="AK43" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:37">
+      <c r="A44" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" s="3">
+        <v>90644</v>
+      </c>
+      <c r="D44" s="3">
+        <v>53146</v>
+      </c>
+      <c r="E44" s="3">
+        <v>12602</v>
+      </c>
+      <c r="F44" s="3">
+        <v>40544</v>
+      </c>
+      <c r="G44" s="4">
+        <v>0.2371203853535544</v>
+      </c>
+      <c r="H44" s="5">
+        <v>43.68102961652806</v>
+      </c>
+      <c r="I44" s="3">
+        <v>37498</v>
+      </c>
+      <c r="J44" s="4">
+        <v>0.5863156965712016</v>
+      </c>
+      <c r="K44" s="3">
+        <v>37498</v>
+      </c>
+      <c r="L44" s="3">
+        <v>37062</v>
+      </c>
+      <c r="M44" s="3">
+        <v>36278</v>
+      </c>
+      <c r="N44" s="3">
+        <v>784</v>
+      </c>
+      <c r="O44" s="3">
+        <v>380</v>
+      </c>
+      <c r="P44" s="3">
+        <v>37442</v>
+      </c>
+      <c r="Q44" s="4">
+        <v>0.9898509694994925</v>
+      </c>
+      <c r="R44" s="4">
+        <v>0.01014903050050748</v>
+      </c>
+      <c r="S44" s="3">
+        <v>56</v>
+      </c>
+      <c r="T44" s="3">
+        <v>36769</v>
+      </c>
+      <c r="U44" s="3">
+        <v>293</v>
+      </c>
+      <c r="V44" s="3">
+        <v>85</v>
+      </c>
+      <c r="W44" s="4">
+        <v>0.9898242119148248</v>
+      </c>
+      <c r="X44" s="5">
+        <v>134.1970615800209</v>
+      </c>
+      <c r="Y44" s="5">
+        <v>5.447902309939908</v>
+      </c>
+      <c r="Z44" s="3">
+        <v>2201</v>
+      </c>
+      <c r="AA44" s="5">
+        <v>60</v>
+      </c>
+      <c r="AB44" s="3">
+        <v>2194</v>
+      </c>
+      <c r="AC44" s="4">
+        <v>0.9968196274420716</v>
+      </c>
+      <c r="AD44" s="3">
+        <v>175</v>
+      </c>
+      <c r="AE44" s="5">
+        <v>45</v>
+      </c>
+      <c r="AF44" s="3">
+        <v>175</v>
+      </c>
+      <c r="AG44" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH44" s="3">
+        <v>100</v>
+      </c>
+      <c r="AI44" s="5">
+        <v>30</v>
+      </c>
+      <c r="AJ44" s="3">
+        <v>100</v>
+      </c>
+      <c r="AK44" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:37">
+      <c r="A45" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" s="3">
+        <v>71155</v>
+      </c>
+      <c r="D45" s="3">
+        <v>32662</v>
+      </c>
+      <c r="E45" s="3">
+        <v>10847</v>
+      </c>
+      <c r="F45" s="3">
+        <v>21815</v>
+      </c>
+      <c r="G45" s="4">
+        <v>0.3320984630457413</v>
+      </c>
+      <c r="H45" s="5">
+        <v>30.23568673075745</v>
+      </c>
+      <c r="I45" s="3">
+        <v>38493</v>
+      </c>
+      <c r="J45" s="4">
+        <v>0.459026069847516</v>
+      </c>
+      <c r="K45" s="3">
+        <v>38493</v>
+      </c>
+      <c r="L45" s="3">
+        <v>37865</v>
+      </c>
+      <c r="M45" s="3">
+        <v>37272</v>
+      </c>
+      <c r="N45" s="3">
+        <v>593</v>
+      </c>
+      <c r="O45" s="3">
+        <v>546</v>
+      </c>
+      <c r="P45" s="3">
+        <v>38411</v>
+      </c>
+      <c r="Q45" s="4">
+        <v>0.9857853219129937</v>
+      </c>
+      <c r="R45" s="4">
+        <v>0.01421467808700626</v>
+      </c>
+      <c r="S45" s="3">
+        <v>82</v>
+      </c>
+      <c r="T45" s="3">
+        <v>37573</v>
+      </c>
+      <c r="U45" s="3">
+        <v>292</v>
+      </c>
+      <c r="V45" s="3">
+        <v>138</v>
+      </c>
+      <c r="W45" s="4">
+        <v>0.9886851038075942</v>
+      </c>
+      <c r="X45" s="5">
+        <v>129.711874865851</v>
+      </c>
+      <c r="Y45" s="5">
+        <v>5.126770766258854</v>
+      </c>
+      <c r="Z45" s="3">
+        <v>2594</v>
+      </c>
+      <c r="AA45" s="5">
+        <v>60</v>
+      </c>
+      <c r="AB45" s="3">
+        <v>2587</v>
+      </c>
+      <c r="AC45" s="4">
+        <v>0.9973014649190439</v>
+      </c>
+      <c r="AD45" s="3">
+        <v>42</v>
+      </c>
+      <c r="AE45" s="5">
+        <v>45</v>
+      </c>
+      <c r="AF45" s="3">
+        <v>42</v>
+      </c>
+      <c r="AG45" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH45" s="3">
+        <v>27</v>
+      </c>
+      <c r="AI45" s="5">
+        <v>30</v>
+      </c>
+      <c r="AJ45" s="3">
+        <v>27</v>
+      </c>
+      <c r="AK45" s="4">
         <v>1</v>
       </c>
     </row>
@@ -18401,13 +20208,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -18438,8 +20245,11 @@
       <c r="J1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>0</v>
       </c>
@@ -18470,8 +20280,11 @@
       <c r="J2">
         <v>81</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>1</v>
       </c>
@@ -18502,8 +20315,11 @@
       <c r="J3">
         <v>92</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>2</v>
       </c>
@@ -18534,8 +20350,11 @@
       <c r="J4">
         <v>33</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="K4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>3</v>
       </c>
@@ -18566,8 +20385,11 @@
       <c r="J5">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="K5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>4</v>
       </c>
@@ -18598,8 +20420,11 @@
       <c r="J6">
         <v>36</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>5</v>
       </c>
@@ -18630,8 +20455,11 @@
       <c r="J7">
         <v>96</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="K7">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>6</v>
       </c>
@@ -18662,8 +20490,11 @@
       <c r="J8">
         <v>267</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="K8">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>7</v>
       </c>
@@ -18694,8 +20525,11 @@
       <c r="J9">
         <v>534</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="K9">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>8</v>
       </c>
@@ -18726,8 +20560,11 @@
       <c r="J10">
         <v>792</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="K10">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>9</v>
       </c>
@@ -18758,8 +20595,11 @@
       <c r="J11">
         <v>984</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="K11">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12">
         <v>10</v>
       </c>
@@ -18790,8 +20630,11 @@
       <c r="J12">
         <v>1219</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="K12">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>11</v>
       </c>
@@ -18822,8 +20665,11 @@
       <c r="J13">
         <v>1182</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="K13">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14">
         <v>12</v>
       </c>
@@ -18854,8 +20700,11 @@
       <c r="J14">
         <v>1240</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="K14">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15">
         <v>13</v>
       </c>
@@ -18886,8 +20735,11 @@
       <c r="J15">
         <v>1252</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="K15">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16">
         <v>14</v>
       </c>
@@ -18918,8 +20770,11 @@
       <c r="J16">
         <v>1058</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="K16">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17">
         <v>15</v>
       </c>
@@ -18950,8 +20805,11 @@
       <c r="J17">
         <v>875</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="K17">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18">
         <v>16</v>
       </c>
@@ -18982,8 +20840,11 @@
       <c r="J18">
         <v>1039</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="K18">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19">
         <v>17</v>
       </c>
@@ -19014,8 +20875,11 @@
       <c r="J19">
         <v>994</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="K19">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20">
         <v>18</v>
       </c>
@@ -19046,8 +20910,11 @@
       <c r="J20">
         <v>1351</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="K20">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21">
         <v>19</v>
       </c>
@@ -19078,8 +20945,11 @@
       <c r="J21">
         <v>1299</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="K21">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22">
         <v>20</v>
       </c>
@@ -19110,8 +20980,11 @@
       <c r="J22">
         <v>1097</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="K22">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23">
         <v>21</v>
       </c>
@@ -19142,8 +21015,11 @@
       <c r="J23">
         <v>746</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="K23">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24">
         <v>22</v>
       </c>
@@ -19174,8 +21050,11 @@
       <c r="J24">
         <v>502</v>
       </c>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="K24">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25">
         <v>23</v>
       </c>
@@ -19206,9 +21085,12 @@
       <c r="J25">
         <v>272</v>
       </c>
+      <c r="K25">
+        <v>213</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:J25">
+  <conditionalFormatting sqref="B2:K25">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -19226,13 +21108,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -19263,8 +21145,11 @@
       <c r="J1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>0</v>
       </c>
@@ -19295,8 +21180,11 @@
       <c r="J2">
         <v>179</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>1</v>
       </c>
@@ -19327,8 +21215,11 @@
       <c r="J3">
         <v>41</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>2</v>
       </c>
@@ -19359,8 +21250,11 @@
       <c r="J4">
         <v>72</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="K4">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>3</v>
       </c>
@@ -19391,8 +21285,11 @@
       <c r="J5">
         <v>116</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="K5">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>4</v>
       </c>
@@ -19423,8 +21320,11 @@
       <c r="J6">
         <v>166</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>5</v>
       </c>
@@ -19455,8 +21355,11 @@
       <c r="J7">
         <v>84</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="K7">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>6</v>
       </c>
@@ -19487,8 +21390,11 @@
       <c r="J8">
         <v>123</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="K8">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>7</v>
       </c>
@@ -19519,8 +21425,11 @@
       <c r="J9">
         <v>130</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="K9">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>8</v>
       </c>
@@ -19551,8 +21460,11 @@
       <c r="J10">
         <v>130</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="K10">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>9</v>
       </c>
@@ -19583,8 +21495,11 @@
       <c r="J11">
         <v>136</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="K11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12">
         <v>10</v>
       </c>
@@ -19615,8 +21530,11 @@
       <c r="J12">
         <v>133</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="K12">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>11</v>
       </c>
@@ -19647,8 +21565,11 @@
       <c r="J13">
         <v>130</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="K13">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14">
         <v>12</v>
       </c>
@@ -19679,8 +21600,11 @@
       <c r="J14">
         <v>128</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="K14">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15">
         <v>13</v>
       </c>
@@ -19711,8 +21635,11 @@
       <c r="J15">
         <v>120</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="K15">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16">
         <v>14</v>
       </c>
@@ -19743,8 +21670,11 @@
       <c r="J16">
         <v>123</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="K16">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17">
         <v>15</v>
       </c>
@@ -19775,8 +21705,11 @@
       <c r="J17">
         <v>128</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="K17">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18">
         <v>16</v>
       </c>
@@ -19807,8 +21740,11 @@
       <c r="J18">
         <v>137</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="K18">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19">
         <v>17</v>
       </c>
@@ -19839,8 +21775,11 @@
       <c r="J19">
         <v>136</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="K19">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20">
         <v>18</v>
       </c>
@@ -19871,8 +21810,11 @@
       <c r="J20">
         <v>137</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="K20">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21">
         <v>19</v>
       </c>
@@ -19903,8 +21845,11 @@
       <c r="J21">
         <v>135</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="K21">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22">
         <v>20</v>
       </c>
@@ -19935,8 +21880,11 @@
       <c r="J22">
         <v>148</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="K22">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23">
         <v>21</v>
       </c>
@@ -19967,8 +21915,11 @@
       <c r="J23">
         <v>156</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="K23">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24">
         <v>22</v>
       </c>
@@ -19999,8 +21950,11 @@
       <c r="J24">
         <v>151</v>
       </c>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="K24">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25">
         <v>23</v>
       </c>
@@ -20031,9 +21985,12 @@
       <c r="J25">
         <v>135</v>
       </c>
+      <c r="K25">
+        <v>146</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:J25">
+  <conditionalFormatting sqref="B2:K25">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>

--- a/Result.xlsx
+++ b/Result.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="58">
   <si>
     <t>Date</t>
   </si>
@@ -192,6 +192,9 @@
   </si>
   <si>
     <t>2025-10-10</t>
+  </si>
+  <si>
+    <t>2025-10-11</t>
   </si>
 </sst>
 </file>
@@ -589,7 +592,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ12"/>
+  <dimension ref="A1:AJ13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1809,86 +1812,86 @@
       </c>
     </row>
     <row r="12" spans="1:36">
-      <c r="A12" s="3" t="s">
-        <v>36</v>
+      <c r="A12" s="2">
+        <v>45941</v>
       </c>
       <c r="B12" s="3">
-        <v>168226</v>
+        <v>15633</v>
       </c>
       <c r="C12" s="3">
-        <v>88654</v>
+        <v>8496</v>
       </c>
       <c r="D12" s="3">
-        <v>23549</v>
+        <v>2399</v>
       </c>
       <c r="E12" s="3">
-        <v>65105</v>
+        <v>6097</v>
       </c>
       <c r="F12" s="4">
-        <v>0.2656281724456877</v>
+        <v>0.2823681732580038</v>
       </c>
       <c r="G12" s="5">
-        <v>39.32696776231191</v>
+        <v>36.5215395480226</v>
       </c>
       <c r="H12" s="3">
-        <v>79572</v>
+        <v>7137</v>
       </c>
       <c r="I12" s="4">
-        <v>0.5269934492884571</v>
+        <v>0.5434657455382844</v>
       </c>
       <c r="J12" s="3">
-        <v>79572</v>
+        <v>7137</v>
       </c>
       <c r="K12" s="3">
-        <v>79420</v>
+        <v>7132</v>
       </c>
       <c r="L12" s="3">
-        <v>78444</v>
+        <v>7095</v>
       </c>
       <c r="M12" s="3">
-        <v>76969</v>
+        <v>6966</v>
       </c>
       <c r="N12" s="3">
-        <v>1475</v>
+        <v>129</v>
       </c>
       <c r="O12" s="4">
-        <v>0.9877109040543943</v>
+        <v>0.9948121144139092</v>
       </c>
       <c r="P12" s="3">
-        <v>976</v>
+        <v>37</v>
       </c>
       <c r="Q12" s="4">
-        <v>0.01228909594560562</v>
+        <v>0.005187885586090886</v>
       </c>
       <c r="R12" s="3">
-        <v>152</v>
+        <v>5</v>
       </c>
       <c r="S12" s="3">
-        <v>77830</v>
+        <v>7073</v>
       </c>
       <c r="T12" s="3">
-        <v>233</v>
+        <v>6</v>
       </c>
       <c r="U12" s="3">
-        <v>614</v>
+        <v>22</v>
       </c>
       <c r="V12" s="4">
-        <v>0.989234464964348</v>
+        <v>0.9960568933952965</v>
       </c>
       <c r="W12" s="5">
-        <v>131.6849121074718</v>
+        <v>131.6060867068619</v>
       </c>
       <c r="X12" s="5">
-        <v>5.321480076394392</v>
+        <v>3.124174562159058</v>
       </c>
       <c r="Y12" s="3">
-        <v>4977</v>
+        <v>464</v>
       </c>
       <c r="Z12" s="3">
-        <v>235</v>
+        <v>16</v>
       </c>
       <c r="AA12" s="3">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="AB12" s="5">
         <v>60</v>
@@ -1900,21 +1903,131 @@
         <v>30</v>
       </c>
       <c r="AE12" s="3">
-        <v>4963</v>
+        <v>463</v>
       </c>
       <c r="AF12" s="3">
-        <v>235</v>
+        <v>16</v>
       </c>
       <c r="AG12" s="3">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="AH12" s="4">
-        <v>0.9971870604781998</v>
+        <v>0.9978448275862069</v>
       </c>
       <c r="AI12" s="4">
         <v>1</v>
       </c>
       <c r="AJ12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36">
+      <c r="A13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="3">
+        <v>183859</v>
+      </c>
+      <c r="C13" s="3">
+        <v>97150</v>
+      </c>
+      <c r="D13" s="3">
+        <v>25948</v>
+      </c>
+      <c r="E13" s="3">
+        <v>71202</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.2670921255790015</v>
+      </c>
+      <c r="G13" s="5">
+        <v>39.0816263510036</v>
+      </c>
+      <c r="H13" s="3">
+        <v>86709</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0.5283940410858321</v>
+      </c>
+      <c r="J13" s="3">
+        <v>86709</v>
+      </c>
+      <c r="K13" s="3">
+        <v>86552</v>
+      </c>
+      <c r="L13" s="3">
+        <v>85539</v>
+      </c>
+      <c r="M13" s="3">
+        <v>83935</v>
+      </c>
+      <c r="N13" s="3">
+        <v>1604</v>
+      </c>
+      <c r="O13" s="4">
+        <v>0.988296053239671</v>
+      </c>
+      <c r="P13" s="3">
+        <v>1013</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>0.01170394676032899</v>
+      </c>
+      <c r="R13" s="3">
+        <v>157</v>
+      </c>
+      <c r="S13" s="3">
+        <v>84903</v>
+      </c>
+      <c r="T13" s="3">
+        <v>239</v>
+      </c>
+      <c r="U13" s="3">
+        <v>636</v>
+      </c>
+      <c r="V13" s="4">
+        <v>0.9897992492247429</v>
+      </c>
+      <c r="W13" s="5">
+        <v>131.6783701673914</v>
+      </c>
+      <c r="X13" s="5">
+        <v>5.139119556799905</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>5441</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>251</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>157</v>
+      </c>
+      <c r="AB13" s="5">
+        <v>60</v>
+      </c>
+      <c r="AC13" s="5">
+        <v>45</v>
+      </c>
+      <c r="AD13" s="5">
+        <v>30</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>5426</v>
+      </c>
+      <c r="AF13" s="3">
+        <v>251</v>
+      </c>
+      <c r="AG13" s="3">
+        <v>157</v>
+      </c>
+      <c r="AH13" s="4">
+        <v>0.9972431538320162</v>
+      </c>
+      <c r="AI13" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ13" s="4">
         <v>1</v>
       </c>
     </row>
@@ -1925,7 +2038,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ12"/>
+  <dimension ref="A1:AJ13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3145,86 +3258,86 @@
       </c>
     </row>
     <row r="12" spans="1:36">
-      <c r="A12" s="3" t="s">
-        <v>36</v>
+      <c r="A12" s="2">
+        <v>45941</v>
       </c>
       <c r="B12" s="3">
-        <v>93493</v>
+        <v>8666</v>
       </c>
       <c r="C12" s="3">
-        <v>54664</v>
+        <v>5142</v>
       </c>
       <c r="D12" s="3">
-        <v>12654</v>
+        <v>1344</v>
       </c>
       <c r="E12" s="3">
-        <v>42010</v>
+        <v>3798</v>
       </c>
       <c r="F12" s="4">
-        <v>0.2314869018000878</v>
+        <v>0.2613768961493582</v>
       </c>
       <c r="G12" s="5">
-        <v>44.2419508268696</v>
+        <v>40.66919486581097</v>
       </c>
       <c r="H12" s="3">
-        <v>38829</v>
+        <v>3524</v>
       </c>
       <c r="I12" s="4">
-        <v>0.5846854844747735</v>
+        <v>0.5933533348719132</v>
       </c>
       <c r="J12" s="3">
-        <v>38829</v>
+        <v>3524</v>
       </c>
       <c r="K12" s="3">
-        <v>38765</v>
+        <v>3523</v>
       </c>
       <c r="L12" s="3">
-        <v>38371</v>
+        <v>3507</v>
       </c>
       <c r="M12" s="3">
-        <v>37536</v>
+        <v>3433</v>
       </c>
       <c r="N12" s="3">
-        <v>835</v>
+        <v>74</v>
       </c>
       <c r="O12" s="4">
-        <v>0.9898361924416355</v>
+        <v>0.9954584161226228</v>
       </c>
       <c r="P12" s="3">
-        <v>394</v>
+        <v>16</v>
       </c>
       <c r="Q12" s="4">
-        <v>0.01016380755836451</v>
+        <v>0.004541583877377207</v>
       </c>
       <c r="R12" s="3">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="S12" s="3">
-        <v>38069</v>
+        <v>3499</v>
       </c>
       <c r="T12" s="3">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="U12" s="3">
-        <v>302</v>
+        <v>8</v>
       </c>
       <c r="V12" s="4">
-        <v>0.9899108094755181</v>
+        <v>0.9968660968660968</v>
       </c>
       <c r="W12" s="5">
-        <v>133.9680839727195</v>
+        <v>131.7014273230411</v>
       </c>
       <c r="X12" s="5">
-        <v>5.440830136402387</v>
+        <v>3.021555490824352</v>
       </c>
       <c r="Y12" s="3">
-        <v>2258</v>
+        <v>211</v>
       </c>
       <c r="Z12" s="3">
-        <v>182</v>
+        <v>13</v>
       </c>
       <c r="AA12" s="3">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="AB12" s="5">
         <v>60</v>
@@ -3236,21 +3349,131 @@
         <v>30</v>
       </c>
       <c r="AE12" s="3">
-        <v>2251</v>
+        <v>211</v>
       </c>
       <c r="AF12" s="3">
-        <v>182</v>
+        <v>13</v>
       </c>
       <c r="AG12" s="3">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="AH12" s="4">
-        <v>0.9968999114260407</v>
+        <v>1</v>
       </c>
       <c r="AI12" s="4">
         <v>1</v>
       </c>
       <c r="AJ12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36">
+      <c r="A13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="3">
+        <v>102159</v>
+      </c>
+      <c r="C13" s="3">
+        <v>59806</v>
+      </c>
+      <c r="D13" s="3">
+        <v>13998</v>
+      </c>
+      <c r="E13" s="3">
+        <v>45808</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.2340567836003077</v>
+      </c>
+      <c r="G13" s="5">
+        <v>43.93477243085978</v>
+      </c>
+      <c r="H13" s="3">
+        <v>42353</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0.585420765669202</v>
+      </c>
+      <c r="J13" s="3">
+        <v>42353</v>
+      </c>
+      <c r="K13" s="3">
+        <v>42288</v>
+      </c>
+      <c r="L13" s="3">
+        <v>41878</v>
+      </c>
+      <c r="M13" s="3">
+        <v>40969</v>
+      </c>
+      <c r="N13" s="3">
+        <v>909</v>
+      </c>
+      <c r="O13" s="4">
+        <v>0.9903045781309119</v>
+      </c>
+      <c r="P13" s="3">
+        <v>410</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>0.009695421869088108</v>
+      </c>
+      <c r="R13" s="3">
+        <v>65</v>
+      </c>
+      <c r="S13" s="3">
+        <v>41568</v>
+      </c>
+      <c r="T13" s="3">
+        <v>89</v>
+      </c>
+      <c r="U13" s="3">
+        <v>310</v>
+      </c>
+      <c r="V13" s="4">
+        <v>0.9904925298448781</v>
+      </c>
+      <c r="W13" s="5">
+        <v>133.7781493324221</v>
+      </c>
+      <c r="X13" s="5">
+        <v>5.238106861285362</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>2469</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>195</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>122</v>
+      </c>
+      <c r="AB13" s="5">
+        <v>60</v>
+      </c>
+      <c r="AC13" s="5">
+        <v>45</v>
+      </c>
+      <c r="AD13" s="5">
+        <v>30</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>2462</v>
+      </c>
+      <c r="AF13" s="3">
+        <v>195</v>
+      </c>
+      <c r="AG13" s="3">
+        <v>122</v>
+      </c>
+      <c r="AH13" s="4">
+        <v>0.9971648440664237</v>
+      </c>
+      <c r="AI13" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ13" s="4">
         <v>1</v>
       </c>
     </row>
@@ -3261,7 +3484,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ12"/>
+  <dimension ref="A1:AJ13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4481,86 +4704,86 @@
       </c>
     </row>
     <row r="12" spans="1:36">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2">
+        <v>45941</v>
+      </c>
+      <c r="B12" s="3">
+        <v>4187</v>
+      </c>
+      <c r="C12" s="3">
+        <v>2171</v>
+      </c>
+      <c r="D12" s="3">
+        <v>713</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1458</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.3284200829111008</v>
+      </c>
+      <c r="G12" s="5">
+        <v>25.7830492860433</v>
+      </c>
+      <c r="H12" s="3">
+        <v>2016</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0.5185096727967519</v>
+      </c>
+      <c r="J12" s="3">
+        <v>2016</v>
+      </c>
+      <c r="K12" s="3">
+        <v>2014</v>
+      </c>
+      <c r="L12" s="3">
+        <v>2004</v>
+      </c>
+      <c r="M12" s="3">
+        <v>1968</v>
+      </c>
+      <c r="N12" s="3">
         <v>36</v>
       </c>
-      <c r="B12" s="3">
-        <v>44619</v>
-      </c>
-      <c r="C12" s="3">
-        <v>21252</v>
-      </c>
-      <c r="D12" s="3">
-        <v>7266</v>
-      </c>
-      <c r="E12" s="3">
-        <v>13986</v>
-      </c>
-      <c r="F12" s="4">
-        <v>0.3418972332015811</v>
-      </c>
-      <c r="G12" s="5">
-        <v>27.11617730095991</v>
-      </c>
-      <c r="H12" s="3">
-        <v>23367</v>
-      </c>
-      <c r="I12" s="4">
-        <v>0.4762993343642843</v>
-      </c>
-      <c r="J12" s="3">
-        <v>23367</v>
-      </c>
-      <c r="K12" s="3">
-        <v>23309</v>
-      </c>
-      <c r="L12" s="3">
-        <v>22905</v>
-      </c>
-      <c r="M12" s="3">
-        <v>22473</v>
-      </c>
-      <c r="N12" s="3">
-        <v>432</v>
-      </c>
       <c r="O12" s="4">
-        <v>0.9826676391093569</v>
+        <v>0.9950347567030785</v>
       </c>
       <c r="P12" s="3">
-        <v>404</v>
+        <v>10</v>
       </c>
       <c r="Q12" s="4">
-        <v>0.01733236089064306</v>
+        <v>0.0049652432969215</v>
       </c>
       <c r="R12" s="3">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="S12" s="3">
-        <v>22745</v>
+        <v>1997</v>
       </c>
       <c r="T12" s="3">
-        <v>95</v>
+        <v>2</v>
       </c>
       <c r="U12" s="3">
-        <v>160</v>
+        <v>7</v>
       </c>
       <c r="V12" s="4">
-        <v>0.9889130434782609</v>
+        <v>0.9955134596211366</v>
       </c>
       <c r="W12" s="5">
-        <v>124.6385885284564</v>
+        <v>128.4420731707317</v>
       </c>
       <c r="X12" s="5">
-        <v>4.959506963912251</v>
+        <v>2.963414634146341</v>
       </c>
       <c r="Y12" s="3">
-        <v>1606</v>
+        <v>156</v>
       </c>
       <c r="Z12" s="3">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="AA12" s="3">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="AB12" s="5">
         <v>60</v>
@@ -4572,21 +4795,131 @@
         <v>30</v>
       </c>
       <c r="AE12" s="3">
-        <v>1601</v>
+        <v>156</v>
       </c>
       <c r="AF12" s="3">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="AG12" s="3">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="AH12" s="4">
-        <v>0.9968866749688668</v>
+        <v>1</v>
       </c>
       <c r="AI12" s="4">
         <v>1</v>
       </c>
       <c r="AJ12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36">
+      <c r="A13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="3">
+        <v>48806</v>
+      </c>
+      <c r="C13" s="3">
+        <v>23423</v>
+      </c>
+      <c r="D13" s="3">
+        <v>7979</v>
+      </c>
+      <c r="E13" s="3">
+        <v>15444</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.3406480809460786</v>
+      </c>
+      <c r="G13" s="5">
+        <v>26.99261409725484</v>
+      </c>
+      <c r="H13" s="3">
+        <v>25383</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0.4799205015776749</v>
+      </c>
+      <c r="J13" s="3">
+        <v>25383</v>
+      </c>
+      <c r="K13" s="3">
+        <v>25323</v>
+      </c>
+      <c r="L13" s="3">
+        <v>24909</v>
+      </c>
+      <c r="M13" s="3">
+        <v>24441</v>
+      </c>
+      <c r="N13" s="3">
+        <v>468</v>
+      </c>
+      <c r="O13" s="4">
+        <v>0.9836512261580381</v>
+      </c>
+      <c r="P13" s="3">
+        <v>414</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>0.01634877384196187</v>
+      </c>
+      <c r="R13" s="3">
+        <v>60</v>
+      </c>
+      <c r="S13" s="3">
+        <v>24742</v>
+      </c>
+      <c r="T13" s="3">
+        <v>97</v>
+      </c>
+      <c r="U13" s="3">
+        <v>167</v>
+      </c>
+      <c r="V13" s="4">
+        <v>0.98944253379189</v>
+      </c>
+      <c r="W13" s="5">
+        <v>124.9448467738636</v>
+      </c>
+      <c r="X13" s="5">
+        <v>4.798780737285709</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>1762</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>19</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>27</v>
+      </c>
+      <c r="AB13" s="5">
+        <v>60</v>
+      </c>
+      <c r="AC13" s="5">
+        <v>45</v>
+      </c>
+      <c r="AD13" s="5">
+        <v>30</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>1757</v>
+      </c>
+      <c r="AF13" s="3">
+        <v>19</v>
+      </c>
+      <c r="AG13" s="3">
+        <v>27</v>
+      </c>
+      <c r="AH13" s="4">
+        <v>0.9971623155505108</v>
+      </c>
+      <c r="AI13" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ13" s="4">
         <v>1</v>
       </c>
     </row>
@@ -4597,7 +4930,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ12"/>
+  <dimension ref="A1:AJ13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5817,86 +6150,86 @@
       </c>
     </row>
     <row r="12" spans="1:36">
-      <c r="A12" s="3" t="s">
-        <v>36</v>
+      <c r="A12" s="2">
+        <v>45941</v>
       </c>
       <c r="B12" s="3">
-        <v>30114</v>
+        <v>2780</v>
       </c>
       <c r="C12" s="3">
-        <v>12738</v>
+        <v>1183</v>
       </c>
       <c r="D12" s="3">
-        <v>3629</v>
+        <v>342</v>
       </c>
       <c r="E12" s="3">
-        <v>9109</v>
+        <v>841</v>
       </c>
       <c r="F12" s="4">
-        <v>0.2848955880043963</v>
+        <v>0.2890955198647506</v>
       </c>
       <c r="G12" s="5">
-        <v>38.60715967969854</v>
+        <v>38.20033812341504</v>
       </c>
       <c r="H12" s="3">
-        <v>17376</v>
+        <v>1597</v>
       </c>
       <c r="I12" s="4">
-        <v>0.4229926280135486</v>
+        <v>0.4255395683453237</v>
       </c>
       <c r="J12" s="3">
-        <v>17376</v>
+        <v>1597</v>
       </c>
       <c r="K12" s="3">
-        <v>17346</v>
+        <v>1595</v>
       </c>
       <c r="L12" s="3">
-        <v>17168</v>
+        <v>1584</v>
       </c>
       <c r="M12" s="3">
-        <v>16960</v>
+        <v>1565</v>
       </c>
       <c r="N12" s="3">
-        <v>208</v>
+        <v>19</v>
       </c>
       <c r="O12" s="4">
-        <v>0.9897382681886314</v>
+        <v>0.9931034482758621</v>
       </c>
       <c r="P12" s="3">
-        <v>178</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="4">
-        <v>0.01026173181136855</v>
+        <v>0.006896551724137936</v>
       </c>
       <c r="R12" s="3">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="S12" s="3">
-        <v>17016</v>
+        <v>1577</v>
       </c>
       <c r="T12" s="3">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="U12" s="3">
-        <v>152</v>
+        <v>7</v>
       </c>
       <c r="V12" s="4">
-        <v>0.9881533101045297</v>
+        <v>0.9949526813880126</v>
       </c>
       <c r="W12" s="5">
-        <v>135.9685731132076</v>
+        <v>135.3757188498403</v>
       </c>
       <c r="X12" s="5">
-        <v>5.536969339622641</v>
+        <v>3.551437699680511</v>
       </c>
       <c r="Y12" s="3">
-        <v>1113</v>
+        <v>97</v>
       </c>
       <c r="Z12" s="3">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="AA12" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AB12" s="5">
         <v>60</v>
@@ -5908,21 +6241,131 @@
         <v>30</v>
       </c>
       <c r="AE12" s="3">
-        <v>1111</v>
+        <v>96</v>
       </c>
       <c r="AF12" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG12" s="3">
+        <v>2</v>
+      </c>
+      <c r="AH12" s="4">
+        <v>0.9896907216494846</v>
+      </c>
+      <c r="AI12" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36">
+      <c r="A13" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AG12" s="3">
-        <v>6</v>
-      </c>
-      <c r="AH12" s="4">
-        <v>0.9982030548068284</v>
-      </c>
-      <c r="AI12" s="4">
-        <v>1</v>
-      </c>
-      <c r="AJ12" s="4">
+      <c r="B13" s="3">
+        <v>32894</v>
+      </c>
+      <c r="C13" s="3">
+        <v>13921</v>
+      </c>
+      <c r="D13" s="3">
+        <v>3971</v>
+      </c>
+      <c r="E13" s="3">
+        <v>9950</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.2852524962287192</v>
+      </c>
+      <c r="G13" s="5">
+        <v>38.57258817613677</v>
+      </c>
+      <c r="H13" s="3">
+        <v>18973</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0.4232078798565088</v>
+      </c>
+      <c r="J13" s="3">
+        <v>18973</v>
+      </c>
+      <c r="K13" s="3">
+        <v>18941</v>
+      </c>
+      <c r="L13" s="3">
+        <v>18752</v>
+      </c>
+      <c r="M13" s="3">
+        <v>18525</v>
+      </c>
+      <c r="N13" s="3">
+        <v>227</v>
+      </c>
+      <c r="O13" s="4">
+        <v>0.9900216461644052</v>
+      </c>
+      <c r="P13" s="3">
+        <v>189</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>0.009978353835594761</v>
+      </c>
+      <c r="R13" s="3">
+        <v>32</v>
+      </c>
+      <c r="S13" s="3">
+        <v>18593</v>
+      </c>
+      <c r="T13" s="3">
+        <v>53</v>
+      </c>
+      <c r="U13" s="3">
+        <v>159</v>
+      </c>
+      <c r="V13" s="4">
+        <v>0.9887264025525127</v>
+      </c>
+      <c r="W13" s="5">
+        <v>135.9184885290148</v>
+      </c>
+      <c r="X13" s="5">
+        <v>5.369230769230769</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>1210</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>37</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>8</v>
+      </c>
+      <c r="AB13" s="5">
+        <v>60</v>
+      </c>
+      <c r="AC13" s="5">
+        <v>45</v>
+      </c>
+      <c r="AD13" s="5">
+        <v>30</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>1207</v>
+      </c>
+      <c r="AF13" s="3">
+        <v>37</v>
+      </c>
+      <c r="AG13" s="3">
+        <v>8</v>
+      </c>
+      <c r="AH13" s="4">
+        <v>0.9975206611570248</v>
+      </c>
+      <c r="AI13" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ13" s="4">
         <v>1</v>
       </c>
     </row>
@@ -5933,7 +6376,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L241"/>
+  <dimension ref="A1:L265"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -15100,6 +15543,918 @@
         <v>100</v>
       </c>
     </row>
+    <row r="242" spans="1:12">
+      <c r="A242" s="2">
+        <v>45941</v>
+      </c>
+      <c r="B242" s="3">
+        <v>0</v>
+      </c>
+      <c r="C242" s="3">
+        <v>129</v>
+      </c>
+      <c r="D242" s="3">
+        <v>57</v>
+      </c>
+      <c r="E242" s="3">
+        <v>57</v>
+      </c>
+      <c r="F242" s="3">
+        <v>0</v>
+      </c>
+      <c r="G242" s="4">
+        <v>1</v>
+      </c>
+      <c r="H242" s="4">
+        <v>1</v>
+      </c>
+      <c r="I242" s="5">
+        <v>130.5818181818182</v>
+      </c>
+      <c r="J242" s="3">
+        <v>100</v>
+      </c>
+      <c r="K242" s="3">
+        <v>100</v>
+      </c>
+      <c r="L242" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12">
+      <c r="A243" s="2">
+        <v>45941</v>
+      </c>
+      <c r="B243" s="3">
+        <v>1</v>
+      </c>
+      <c r="C243" s="3">
+        <v>59</v>
+      </c>
+      <c r="D243" s="3">
+        <v>33</v>
+      </c>
+      <c r="E243" s="3">
+        <v>33</v>
+      </c>
+      <c r="F243" s="3">
+        <v>0</v>
+      </c>
+      <c r="G243" s="4">
+        <v>1</v>
+      </c>
+      <c r="H243" s="4">
+        <v>1</v>
+      </c>
+      <c r="I243" s="5">
+        <v>88.20689655172414</v>
+      </c>
+      <c r="J243" s="3">
+        <v>100</v>
+      </c>
+      <c r="K243" s="3">
+        <v>100</v>
+      </c>
+      <c r="L243" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12">
+      <c r="A244" s="2">
+        <v>45941</v>
+      </c>
+      <c r="B244" s="3">
+        <v>2</v>
+      </c>
+      <c r="C244" s="3">
+        <v>32</v>
+      </c>
+      <c r="D244" s="3">
+        <v>12</v>
+      </c>
+      <c r="E244" s="3">
+        <v>12</v>
+      </c>
+      <c r="F244" s="3">
+        <v>0</v>
+      </c>
+      <c r="G244" s="4">
+        <v>1</v>
+      </c>
+      <c r="H244" s="4">
+        <v>1</v>
+      </c>
+      <c r="I244" s="5">
+        <v>90.18181818181819</v>
+      </c>
+      <c r="J244" s="3">
+        <v>100</v>
+      </c>
+      <c r="K244" s="3">
+        <v>100</v>
+      </c>
+      <c r="L244" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="245" spans="1:12">
+      <c r="A245" s="2">
+        <v>45941</v>
+      </c>
+      <c r="B245" s="3">
+        <v>3</v>
+      </c>
+      <c r="C245" s="3">
+        <v>60</v>
+      </c>
+      <c r="D245" s="3">
+        <v>6</v>
+      </c>
+      <c r="E245" s="3">
+        <v>5</v>
+      </c>
+      <c r="F245" s="3">
+        <v>1</v>
+      </c>
+      <c r="G245" s="4">
+        <v>0.8333333333333335</v>
+      </c>
+      <c r="H245" s="4">
+        <v>1</v>
+      </c>
+      <c r="I245" s="5">
+        <v>170.8</v>
+      </c>
+      <c r="J245" s="3">
+        <v>100</v>
+      </c>
+      <c r="K245" s="3">
+        <v>100</v>
+      </c>
+      <c r="L245" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="246" spans="1:12">
+      <c r="A246" s="2">
+        <v>45941</v>
+      </c>
+      <c r="B246" s="3">
+        <v>4</v>
+      </c>
+      <c r="C246" s="3">
+        <v>41</v>
+      </c>
+      <c r="D246" s="3">
+        <v>16</v>
+      </c>
+      <c r="E246" s="3">
+        <v>13</v>
+      </c>
+      <c r="F246" s="3">
+        <v>3</v>
+      </c>
+      <c r="G246" s="4">
+        <v>0.8125</v>
+      </c>
+      <c r="H246" s="4">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="I246" s="5">
+        <v>105.25</v>
+      </c>
+      <c r="J246" s="3">
+        <v>66.66666666666666</v>
+      </c>
+      <c r="K246" s="3">
+        <v>66.66666666666666</v>
+      </c>
+      <c r="L246" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="247" spans="1:12">
+      <c r="A247" s="2">
+        <v>45941</v>
+      </c>
+      <c r="B247" s="3">
+        <v>5</v>
+      </c>
+      <c r="C247" s="3">
+        <v>84</v>
+      </c>
+      <c r="D247" s="3">
+        <v>27</v>
+      </c>
+      <c r="E247" s="3">
+        <v>24</v>
+      </c>
+      <c r="F247" s="3">
+        <v>3</v>
+      </c>
+      <c r="G247" s="4">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="H247" s="4">
+        <v>0.84</v>
+      </c>
+      <c r="I247" s="5">
+        <v>124.1304347826087</v>
+      </c>
+      <c r="J247" s="3">
+        <v>81.25</v>
+      </c>
+      <c r="K247" s="3">
+        <v>85.71428571428571</v>
+      </c>
+      <c r="L247" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="248" spans="1:12">
+      <c r="A248" s="2">
+        <v>45941</v>
+      </c>
+      <c r="B248" s="3">
+        <v>6</v>
+      </c>
+      <c r="C248" s="3">
+        <v>225</v>
+      </c>
+      <c r="D248" s="3">
+        <v>84</v>
+      </c>
+      <c r="E248" s="3">
+        <v>84</v>
+      </c>
+      <c r="F248" s="3">
+        <v>0</v>
+      </c>
+      <c r="G248" s="4">
+        <v>1</v>
+      </c>
+      <c r="H248" s="4">
+        <v>1</v>
+      </c>
+      <c r="I248" s="5">
+        <v>130.2926829268293</v>
+      </c>
+      <c r="J248" s="3">
+        <v>100</v>
+      </c>
+      <c r="K248" s="3">
+        <v>100</v>
+      </c>
+      <c r="L248" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12">
+      <c r="A249" s="2">
+        <v>45941</v>
+      </c>
+      <c r="B249" s="3">
+        <v>7</v>
+      </c>
+      <c r="C249" s="3">
+        <v>490</v>
+      </c>
+      <c r="D249" s="3">
+        <v>241</v>
+      </c>
+      <c r="E249" s="3">
+        <v>232</v>
+      </c>
+      <c r="F249" s="3">
+        <v>9</v>
+      </c>
+      <c r="G249" s="4">
+        <v>0.9626556016597511</v>
+      </c>
+      <c r="H249" s="4">
+        <v>0.9401709401709401</v>
+      </c>
+      <c r="I249" s="5">
+        <v>119.9344978165939</v>
+      </c>
+      <c r="J249" s="3">
+        <v>97.91666666666666</v>
+      </c>
+      <c r="K249" s="3">
+        <v>93.47826086956522</v>
+      </c>
+      <c r="L249" s="3">
+        <v>86.95652173913044</v>
+      </c>
+    </row>
+    <row r="250" spans="1:12">
+      <c r="A250" s="2">
+        <v>45941</v>
+      </c>
+      <c r="B250" s="3">
+        <v>8</v>
+      </c>
+      <c r="C250" s="3">
+        <v>711</v>
+      </c>
+      <c r="D250" s="3">
+        <v>326</v>
+      </c>
+      <c r="E250" s="3">
+        <v>325</v>
+      </c>
+      <c r="F250" s="3">
+        <v>1</v>
+      </c>
+      <c r="G250" s="4">
+        <v>0.9969325153374232</v>
+      </c>
+      <c r="H250" s="4">
+        <v>1</v>
+      </c>
+      <c r="I250" s="5">
+        <v>127.95625</v>
+      </c>
+      <c r="J250" s="3">
+        <v>100</v>
+      </c>
+      <c r="K250" s="3">
+        <v>100</v>
+      </c>
+      <c r="L250" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="251" spans="1:12">
+      <c r="A251" s="2">
+        <v>45941</v>
+      </c>
+      <c r="B251" s="3">
+        <v>9</v>
+      </c>
+      <c r="C251" s="3">
+        <v>954</v>
+      </c>
+      <c r="D251" s="3">
+        <v>433</v>
+      </c>
+      <c r="E251" s="3">
+        <v>430</v>
+      </c>
+      <c r="F251" s="3">
+        <v>3</v>
+      </c>
+      <c r="G251" s="4">
+        <v>0.9930715935334873</v>
+      </c>
+      <c r="H251" s="4">
+        <v>0.9953488372093023</v>
+      </c>
+      <c r="I251" s="5">
+        <v>134.2978723404255</v>
+      </c>
+      <c r="J251" s="3">
+        <v>98.99497487437185</v>
+      </c>
+      <c r="K251" s="3">
+        <v>100</v>
+      </c>
+      <c r="L251" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="252" spans="1:12">
+      <c r="A252" s="2">
+        <v>45941</v>
+      </c>
+      <c r="B252" s="3">
+        <v>10</v>
+      </c>
+      <c r="C252" s="3">
+        <v>1161</v>
+      </c>
+      <c r="D252" s="3">
+        <v>523</v>
+      </c>
+      <c r="E252" s="3">
+        <v>523</v>
+      </c>
+      <c r="F252" s="3">
+        <v>0</v>
+      </c>
+      <c r="G252" s="4">
+        <v>1</v>
+      </c>
+      <c r="H252" s="4">
+        <v>1</v>
+      </c>
+      <c r="I252" s="5">
+        <v>129.1804222648752</v>
+      </c>
+      <c r="J252" s="3">
+        <v>100</v>
+      </c>
+      <c r="K252" s="3">
+        <v>100</v>
+      </c>
+      <c r="L252" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="253" spans="1:12">
+      <c r="A253" s="2">
+        <v>45941</v>
+      </c>
+      <c r="B253" s="3">
+        <v>11</v>
+      </c>
+      <c r="C253" s="3">
+        <v>1287</v>
+      </c>
+      <c r="D253" s="3">
+        <v>651</v>
+      </c>
+      <c r="E253" s="3">
+        <v>648</v>
+      </c>
+      <c r="F253" s="3">
+        <v>3</v>
+      </c>
+      <c r="G253" s="4">
+        <v>0.9953917050691244</v>
+      </c>
+      <c r="H253" s="4">
+        <v>1</v>
+      </c>
+      <c r="I253" s="5">
+        <v>118.5785381026439</v>
+      </c>
+      <c r="J253" s="3">
+        <v>100</v>
+      </c>
+      <c r="K253" s="3">
+        <v>100</v>
+      </c>
+      <c r="L253" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="254" spans="1:12">
+      <c r="A254" s="2">
+        <v>45941</v>
+      </c>
+      <c r="B254" s="3">
+        <v>12</v>
+      </c>
+      <c r="C254" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D254" s="3">
+        <v>528</v>
+      </c>
+      <c r="E254" s="3">
+        <v>526</v>
+      </c>
+      <c r="F254" s="3">
+        <v>2</v>
+      </c>
+      <c r="G254" s="4">
+        <v>0.9962121212121212</v>
+      </c>
+      <c r="H254" s="4">
+        <v>1</v>
+      </c>
+      <c r="I254" s="5">
+        <v>135.357833655706</v>
+      </c>
+      <c r="J254" s="3">
+        <v>100</v>
+      </c>
+      <c r="K254" s="3">
+        <v>100</v>
+      </c>
+      <c r="L254" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="255" spans="1:12">
+      <c r="A255" s="2">
+        <v>45941</v>
+      </c>
+      <c r="B255" s="3">
+        <v>13</v>
+      </c>
+      <c r="C255" s="3">
+        <v>1062</v>
+      </c>
+      <c r="D255" s="3">
+        <v>464</v>
+      </c>
+      <c r="E255" s="3">
+        <v>464</v>
+      </c>
+      <c r="F255" s="3">
+        <v>0</v>
+      </c>
+      <c r="G255" s="4">
+        <v>1</v>
+      </c>
+      <c r="H255" s="4">
+        <v>1</v>
+      </c>
+      <c r="I255" s="5">
+        <v>133.2413043478261</v>
+      </c>
+      <c r="J255" s="3">
+        <v>100</v>
+      </c>
+      <c r="K255" s="3">
+        <v>100</v>
+      </c>
+      <c r="L255" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="256" spans="1:12">
+      <c r="A256" s="2">
+        <v>45941</v>
+      </c>
+      <c r="B256" s="3">
+        <v>14</v>
+      </c>
+      <c r="C256" s="3">
+        <v>957</v>
+      </c>
+      <c r="D256" s="3">
+        <v>443</v>
+      </c>
+      <c r="E256" s="3">
+        <v>443</v>
+      </c>
+      <c r="F256" s="3">
+        <v>0</v>
+      </c>
+      <c r="G256" s="4">
+        <v>1</v>
+      </c>
+      <c r="H256" s="4">
+        <v>1</v>
+      </c>
+      <c r="I256" s="5">
+        <v>122.3096330275229</v>
+      </c>
+      <c r="J256" s="3">
+        <v>100</v>
+      </c>
+      <c r="K256" s="3">
+        <v>100</v>
+      </c>
+      <c r="L256" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="257" spans="1:12">
+      <c r="A257" s="2">
+        <v>45941</v>
+      </c>
+      <c r="B257" s="3">
+        <v>15</v>
+      </c>
+      <c r="C257" s="3">
+        <v>950</v>
+      </c>
+      <c r="D257" s="3">
+        <v>414</v>
+      </c>
+      <c r="E257" s="3">
+        <v>414</v>
+      </c>
+      <c r="F257" s="3">
+        <v>0</v>
+      </c>
+      <c r="G257" s="4">
+        <v>1</v>
+      </c>
+      <c r="H257" s="4">
+        <v>1</v>
+      </c>
+      <c r="I257" s="5">
+        <v>123.3743842364532</v>
+      </c>
+      <c r="J257" s="3">
+        <v>100</v>
+      </c>
+      <c r="K257" s="3">
+        <v>100</v>
+      </c>
+      <c r="L257" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="258" spans="1:12">
+      <c r="A258" s="2">
+        <v>45941</v>
+      </c>
+      <c r="B258" s="3">
+        <v>16</v>
+      </c>
+      <c r="C258" s="3">
+        <v>888</v>
+      </c>
+      <c r="D258" s="3">
+        <v>429</v>
+      </c>
+      <c r="E258" s="3">
+        <v>428</v>
+      </c>
+      <c r="F258" s="3">
+        <v>1</v>
+      </c>
+      <c r="G258" s="4">
+        <v>0.9976689976689976</v>
+      </c>
+      <c r="H258" s="4">
+        <v>1</v>
+      </c>
+      <c r="I258" s="5">
+        <v>142.6533018867925</v>
+      </c>
+      <c r="J258" s="3">
+        <v>100</v>
+      </c>
+      <c r="K258" s="3">
+        <v>100</v>
+      </c>
+      <c r="L258" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="259" spans="1:12">
+      <c r="A259" s="2">
+        <v>45941</v>
+      </c>
+      <c r="B259" s="3">
+        <v>17</v>
+      </c>
+      <c r="C259" s="3">
+        <v>831</v>
+      </c>
+      <c r="D259" s="3">
+        <v>399</v>
+      </c>
+      <c r="E259" s="3">
+        <v>399</v>
+      </c>
+      <c r="F259" s="3">
+        <v>0</v>
+      </c>
+      <c r="G259" s="4">
+        <v>1</v>
+      </c>
+      <c r="H259" s="4">
+        <v>1</v>
+      </c>
+      <c r="I259" s="5">
+        <v>142.4368686868687</v>
+      </c>
+      <c r="J259" s="3">
+        <v>100</v>
+      </c>
+      <c r="K259" s="3">
+        <v>100</v>
+      </c>
+      <c r="L259" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="260" spans="1:12">
+      <c r="A260" s="2">
+        <v>45941</v>
+      </c>
+      <c r="B260" s="3">
+        <v>18</v>
+      </c>
+      <c r="C260" s="3">
+        <v>959</v>
+      </c>
+      <c r="D260" s="3">
+        <v>439</v>
+      </c>
+      <c r="E260" s="3">
+        <v>438</v>
+      </c>
+      <c r="F260" s="3">
+        <v>1</v>
+      </c>
+      <c r="G260" s="4">
+        <v>0.9977220956719818</v>
+      </c>
+      <c r="H260" s="4">
+        <v>1</v>
+      </c>
+      <c r="I260" s="5">
+        <v>140.5654205607477</v>
+      </c>
+      <c r="J260" s="3">
+        <v>100</v>
+      </c>
+      <c r="K260" s="3">
+        <v>100</v>
+      </c>
+      <c r="L260" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="261" spans="1:12">
+      <c r="A261" s="2">
+        <v>45941</v>
+      </c>
+      <c r="B261" s="3">
+        <v>19</v>
+      </c>
+      <c r="C261" s="3">
+        <v>1214</v>
+      </c>
+      <c r="D261" s="3">
+        <v>496</v>
+      </c>
+      <c r="E261" s="3">
+        <v>496</v>
+      </c>
+      <c r="F261" s="3">
+        <v>0</v>
+      </c>
+      <c r="G261" s="4">
+        <v>1</v>
+      </c>
+      <c r="H261" s="4">
+        <v>1</v>
+      </c>
+      <c r="I261" s="5">
+        <v>129.7802874743327</v>
+      </c>
+      <c r="J261" s="3">
+        <v>100</v>
+      </c>
+      <c r="K261" s="3">
+        <v>100</v>
+      </c>
+      <c r="L261" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="262" spans="1:12">
+      <c r="A262" s="2">
+        <v>45941</v>
+      </c>
+      <c r="B262" s="3">
+        <v>20</v>
+      </c>
+      <c r="C262" s="3">
+        <v>956</v>
+      </c>
+      <c r="D262" s="3">
+        <v>436</v>
+      </c>
+      <c r="E262" s="3">
+        <v>432</v>
+      </c>
+      <c r="F262" s="3">
+        <v>4</v>
+      </c>
+      <c r="G262" s="4">
+        <v>0.9908256880733946</v>
+      </c>
+      <c r="H262" s="4">
+        <v>0.9976851851851852</v>
+      </c>
+      <c r="I262" s="5">
+        <v>138.021327014218</v>
+      </c>
+      <c r="J262" s="3">
+        <v>100</v>
+      </c>
+      <c r="K262" s="3">
+        <v>100</v>
+      </c>
+      <c r="L262" s="3">
+        <v>98.76543209876543</v>
+      </c>
+    </row>
+    <row r="263" spans="1:12">
+      <c r="A263" s="2">
+        <v>45941</v>
+      </c>
+      <c r="B263" s="3">
+        <v>21</v>
+      </c>
+      <c r="C263" s="3">
+        <v>735</v>
+      </c>
+      <c r="D263" s="3">
+        <v>321</v>
+      </c>
+      <c r="E263" s="3">
+        <v>317</v>
+      </c>
+      <c r="F263" s="3">
+        <v>4</v>
+      </c>
+      <c r="G263" s="4">
+        <v>0.9875389408099688</v>
+      </c>
+      <c r="H263" s="4">
+        <v>0.9936908517350159</v>
+      </c>
+      <c r="I263" s="5">
+        <v>139.5846645367412</v>
+      </c>
+      <c r="J263" s="3">
+        <v>99.40828402366864</v>
+      </c>
+      <c r="K263" s="3">
+        <v>100</v>
+      </c>
+      <c r="L263" s="3">
+        <v>98.36065573770492</v>
+      </c>
+    </row>
+    <row r="264" spans="1:12">
+      <c r="A264" s="2">
+        <v>45941</v>
+      </c>
+      <c r="B264" s="3">
+        <v>22</v>
+      </c>
+      <c r="C264" s="3">
+        <v>497</v>
+      </c>
+      <c r="D264" s="3">
+        <v>232</v>
+      </c>
+      <c r="E264" s="3">
+        <v>232</v>
+      </c>
+      <c r="F264" s="3">
+        <v>0</v>
+      </c>
+      <c r="G264" s="4">
+        <v>1</v>
+      </c>
+      <c r="H264" s="4">
+        <v>1</v>
+      </c>
+      <c r="I264" s="5">
+        <v>140.2162162162162</v>
+      </c>
+      <c r="J264" s="3">
+        <v>100</v>
+      </c>
+      <c r="K264" s="3">
+        <v>100</v>
+      </c>
+      <c r="L264" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="265" spans="1:12">
+      <c r="A265" s="2">
+        <v>45941</v>
+      </c>
+      <c r="B265" s="3">
+        <v>23</v>
+      </c>
+      <c r="C265" s="3">
+        <v>240</v>
+      </c>
+      <c r="D265" s="3">
+        <v>122</v>
+      </c>
+      <c r="E265" s="3">
+        <v>120</v>
+      </c>
+      <c r="F265" s="3">
+        <v>2</v>
+      </c>
+      <c r="G265" s="4">
+        <v>0.9836065573770492</v>
+      </c>
+      <c r="H265" s="4">
+        <v>0.9917355371900827</v>
+      </c>
+      <c r="I265" s="5">
+        <v>133.3921568627451</v>
+      </c>
+      <c r="J265" s="3">
+        <v>100</v>
+      </c>
+      <c r="K265" s="3">
+        <v>96.15384615384616</v>
+      </c>
+      <c r="L265" s="3">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15107,7 +16462,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK45"/>
+  <dimension ref="A1:AK49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -19750,454 +21105,906 @@
       </c>
     </row>
     <row r="42" spans="1:37">
-      <c r="A42" s="3" t="s">
-        <v>36</v>
+      <c r="A42" s="2">
+        <v>45941</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C42" s="3">
-        <v>3848</v>
+        <v>355</v>
       </c>
       <c r="D42" s="3">
-        <v>1609</v>
+        <v>164</v>
       </c>
       <c r="E42" s="3">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="F42" s="3">
-        <v>1560</v>
+        <v>159</v>
       </c>
       <c r="G42" s="4">
-        <v>0.03045369794903667</v>
+        <v>0.03048780487804878</v>
       </c>
       <c r="H42" s="5">
-        <v>57.6072094468614</v>
+        <v>56.49390243902439</v>
       </c>
       <c r="I42" s="3">
-        <v>2239</v>
+        <v>191</v>
       </c>
       <c r="J42" s="4">
-        <v>0.4181392931392932</v>
+        <v>0.4619718309859155</v>
       </c>
       <c r="K42" s="3">
-        <v>2239</v>
+        <v>191</v>
       </c>
       <c r="L42" s="3">
-        <v>2200</v>
+        <v>188</v>
       </c>
       <c r="M42" s="3">
-        <v>2142</v>
+        <v>186</v>
       </c>
       <c r="N42" s="3">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="O42" s="3">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="P42" s="3">
-        <v>2228</v>
+        <v>191</v>
       </c>
       <c r="Q42" s="4">
-        <v>0.9874326750448833</v>
+        <v>0.9842931937172775</v>
       </c>
       <c r="R42" s="4">
-        <v>0.0125673249551167</v>
+        <v>0.01570680628272243</v>
       </c>
       <c r="S42" s="3">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="T42" s="3">
-        <v>2186</v>
+        <v>188</v>
       </c>
       <c r="U42" s="3">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="V42" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="W42" s="4">
-        <v>0.9913832199546485</v>
+        <v>1</v>
       </c>
       <c r="X42" s="5">
-        <v>140.4864612511671</v>
+        <v>141.7956989247312</v>
       </c>
       <c r="Y42" s="5">
-        <v>5.266106442577031</v>
+        <v>1.994623655913978</v>
       </c>
       <c r="Z42" s="3">
-        <v>114</v>
+        <v>15</v>
       </c>
       <c r="AA42" s="5">
         <v>60</v>
       </c>
       <c r="AB42" s="3">
-        <v>114</v>
+        <v>15</v>
       </c>
       <c r="AC42" s="4">
         <v>1</v>
       </c>
       <c r="AD42" s="3">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AE42" s="5">
         <v>45</v>
       </c>
       <c r="AF42" s="3">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AG42" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH42" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AI42" s="5">
         <v>30</v>
       </c>
       <c r="AJ42" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AK42" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:37">
-      <c r="A43" s="3" t="s">
-        <v>36</v>
+      <c r="A43" s="2">
+        <v>45941</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C43" s="3">
-        <v>2579</v>
+        <v>223</v>
       </c>
       <c r="D43" s="3">
-        <v>1237</v>
+        <v>103</v>
       </c>
       <c r="E43" s="3">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="F43" s="3">
-        <v>1186</v>
+        <v>97</v>
       </c>
       <c r="G43" s="4">
-        <v>0.04122877930476961</v>
+        <v>0.05825242718446602</v>
       </c>
       <c r="H43" s="5">
-        <v>68.53112368633792</v>
+        <v>53.41747572815534</v>
       </c>
       <c r="I43" s="3">
-        <v>1342</v>
+        <v>120</v>
       </c>
       <c r="J43" s="4">
-        <v>0.4796432725862738</v>
+        <v>0.4618834080717489</v>
       </c>
       <c r="K43" s="3">
-        <v>1342</v>
+        <v>120</v>
       </c>
       <c r="L43" s="3">
-        <v>1317</v>
+        <v>119</v>
       </c>
       <c r="M43" s="3">
-        <v>1277</v>
+        <v>117</v>
       </c>
       <c r="N43" s="3">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="O43" s="3">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="P43" s="3">
-        <v>1339</v>
+        <v>120</v>
       </c>
       <c r="Q43" s="4">
-        <v>0.9835698282300224</v>
+        <v>0.9916666666666667</v>
       </c>
       <c r="R43" s="4">
-        <v>0.01643017176997759</v>
+        <v>0.008333333333333286</v>
       </c>
       <c r="S43" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T43" s="3">
-        <v>1302</v>
+        <v>119</v>
       </c>
       <c r="U43" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="V43" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="W43" s="4">
-        <v>0.9848714069591528</v>
+        <v>0.9916666666666667</v>
       </c>
       <c r="X43" s="5">
-        <v>103.141738449491</v>
+        <v>101.8034188034188</v>
       </c>
       <c r="Y43" s="5">
-        <v>7.505873140172278</v>
+        <v>3.452991452991453</v>
       </c>
       <c r="Z43" s="3">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="AA43" s="5">
         <v>60</v>
       </c>
       <c r="AB43" s="3">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="AC43" s="4">
         <v>1</v>
       </c>
       <c r="AD43" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE43" s="5">
         <v>45</v>
       </c>
       <c r="AF43" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AG43" s="4">
         <v>1</v>
       </c>
       <c r="AH43" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AI43" s="5">
         <v>30</v>
       </c>
       <c r="AJ43" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AK43" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:37">
-      <c r="A44" s="3" t="s">
-        <v>36</v>
+      <c r="A44" s="2">
+        <v>45941</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C44" s="3">
-        <v>90644</v>
+        <v>8407</v>
       </c>
       <c r="D44" s="3">
-        <v>53146</v>
+        <v>5003</v>
       </c>
       <c r="E44" s="3">
-        <v>12602</v>
+        <v>1340</v>
       </c>
       <c r="F44" s="3">
-        <v>40544</v>
+        <v>3663</v>
       </c>
       <c r="G44" s="4">
-        <v>0.2371203853535544</v>
+        <v>0.2678392964221467</v>
       </c>
       <c r="H44" s="5">
-        <v>43.68102961652806</v>
+        <v>40.05976414151509</v>
       </c>
       <c r="I44" s="3">
-        <v>37498</v>
+        <v>3404</v>
       </c>
       <c r="J44" s="4">
-        <v>0.5863156965712016</v>
+        <v>0.5950993219935767</v>
       </c>
       <c r="K44" s="3">
-        <v>37498</v>
+        <v>3404</v>
       </c>
       <c r="L44" s="3">
-        <v>37062</v>
+        <v>3387</v>
       </c>
       <c r="M44" s="3">
-        <v>36278</v>
+        <v>3315</v>
       </c>
       <c r="N44" s="3">
-        <v>784</v>
+        <v>72</v>
       </c>
       <c r="O44" s="3">
-        <v>380</v>
+        <v>16</v>
       </c>
       <c r="P44" s="3">
-        <v>37442</v>
+        <v>3403</v>
       </c>
       <c r="Q44" s="4">
-        <v>0.9898509694994925</v>
+        <v>0.9952982662356744</v>
       </c>
       <c r="R44" s="4">
-        <v>0.01014903050050748</v>
+        <v>0.004701733764325553</v>
       </c>
       <c r="S44" s="3">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="T44" s="3">
-        <v>36769</v>
+        <v>3379</v>
       </c>
       <c r="U44" s="3">
-        <v>293</v>
+        <v>8</v>
       </c>
       <c r="V44" s="3">
-        <v>85</v>
+        <v>3</v>
       </c>
       <c r="W44" s="4">
-        <v>0.9898242119148248</v>
+        <v>0.9967551622418879</v>
       </c>
       <c r="X44" s="5">
-        <v>134.1970615800209</v>
+        <v>131.8286576168929</v>
       </c>
       <c r="Y44" s="5">
-        <v>5.447902309939908</v>
+        <v>3.063348416289593</v>
       </c>
       <c r="Z44" s="3">
-        <v>2201</v>
+        <v>199</v>
       </c>
       <c r="AA44" s="5">
         <v>60</v>
       </c>
       <c r="AB44" s="3">
-        <v>2194</v>
+        <v>199</v>
       </c>
       <c r="AC44" s="4">
-        <v>0.9968196274420716</v>
+        <v>1</v>
       </c>
       <c r="AD44" s="3">
-        <v>175</v>
+        <v>12</v>
       </c>
       <c r="AE44" s="5">
         <v>45</v>
       </c>
       <c r="AF44" s="3">
-        <v>175</v>
+        <v>12</v>
       </c>
       <c r="AG44" s="4">
         <v>1</v>
       </c>
       <c r="AH44" s="3">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="AI44" s="5">
         <v>30</v>
       </c>
       <c r="AJ44" s="3">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="AK44" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:37">
-      <c r="A45" s="3" t="s">
-        <v>36</v>
+      <c r="A45" s="2">
+        <v>45941</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C45" s="3">
-        <v>71155</v>
+        <v>6648</v>
       </c>
       <c r="D45" s="3">
-        <v>32662</v>
+        <v>3226</v>
       </c>
       <c r="E45" s="3">
-        <v>10847</v>
+        <v>1048</v>
       </c>
       <c r="F45" s="3">
-        <v>21815</v>
+        <v>2178</v>
       </c>
       <c r="G45" s="4">
-        <v>0.3320984630457413</v>
+        <v>0.3248605083694978</v>
       </c>
       <c r="H45" s="5">
-        <v>30.23568673075745</v>
+        <v>29.47954122752635</v>
       </c>
       <c r="I45" s="3">
-        <v>38493</v>
+        <v>3422</v>
       </c>
       <c r="J45" s="4">
-        <v>0.459026069847516</v>
+        <v>0.4852587244283996</v>
       </c>
       <c r="K45" s="3">
-        <v>38493</v>
+        <v>3422</v>
       </c>
       <c r="L45" s="3">
-        <v>37865</v>
+        <v>3401</v>
       </c>
       <c r="M45" s="3">
-        <v>37272</v>
+        <v>3348</v>
       </c>
       <c r="N45" s="3">
-        <v>593</v>
+        <v>53</v>
       </c>
       <c r="O45" s="3">
-        <v>546</v>
+        <v>17</v>
       </c>
       <c r="P45" s="3">
-        <v>38411</v>
+        <v>3418</v>
       </c>
       <c r="Q45" s="4">
-        <v>0.9857853219129937</v>
+        <v>0.9950263311878291</v>
       </c>
       <c r="R45" s="4">
-        <v>0.01421467808700626</v>
+        <v>0.0049736688121709</v>
       </c>
       <c r="S45" s="3">
-        <v>82</v>
+        <v>4</v>
       </c>
       <c r="T45" s="3">
-        <v>37573</v>
+        <v>3387</v>
       </c>
       <c r="U45" s="3">
-        <v>292</v>
+        <v>14</v>
       </c>
       <c r="V45" s="3">
-        <v>138</v>
+        <v>2</v>
       </c>
       <c r="W45" s="4">
-        <v>0.9886851038075942</v>
+        <v>0.9952982662356744</v>
       </c>
       <c r="X45" s="5">
-        <v>129.711874865851</v>
+        <v>131.8611111111111</v>
       </c>
       <c r="Y45" s="5">
-        <v>5.126770766258854</v>
+        <v>3.235663082437276</v>
       </c>
       <c r="Z45" s="3">
-        <v>2594</v>
+        <v>243</v>
       </c>
       <c r="AA45" s="5">
         <v>60</v>
       </c>
       <c r="AB45" s="3">
-        <v>2587</v>
+        <v>242</v>
       </c>
       <c r="AC45" s="4">
-        <v>0.9973014649190439</v>
+        <v>0.9958847736625515</v>
       </c>
       <c r="AD45" s="3">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="AE45" s="5">
         <v>45</v>
       </c>
       <c r="AF45" s="3">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="AG45" s="4">
         <v>1</v>
       </c>
       <c r="AH45" s="3">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="AI45" s="5">
         <v>30</v>
       </c>
       <c r="AJ45" s="3">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="AK45" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:37">
+      <c r="A46" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46" s="3">
+        <v>4203</v>
+      </c>
+      <c r="D46" s="3">
+        <v>1773</v>
+      </c>
+      <c r="E46" s="3">
+        <v>54</v>
+      </c>
+      <c r="F46" s="3">
+        <v>1719</v>
+      </c>
+      <c r="G46" s="4">
+        <v>0.03045685279187817</v>
+      </c>
+      <c r="H46" s="5">
+        <v>57.50423011844332</v>
+      </c>
+      <c r="I46" s="3">
+        <v>2430</v>
+      </c>
+      <c r="J46" s="4">
+        <v>0.4218415417558887</v>
+      </c>
+      <c r="K46" s="3">
+        <v>2430</v>
+      </c>
+      <c r="L46" s="3">
+        <v>2388</v>
+      </c>
+      <c r="M46" s="3">
+        <v>2328</v>
+      </c>
+      <c r="N46" s="3">
+        <v>60</v>
+      </c>
+      <c r="O46" s="3">
+        <v>31</v>
+      </c>
+      <c r="P46" s="3">
+        <v>2419</v>
+      </c>
+      <c r="Q46" s="4">
+        <v>0.9871847871021083</v>
+      </c>
+      <c r="R46" s="4">
+        <v>0.01281521289789168</v>
+      </c>
+      <c r="S46" s="3">
+        <v>11</v>
+      </c>
+      <c r="T46" s="3">
+        <v>2374</v>
+      </c>
+      <c r="U46" s="3">
+        <v>14</v>
+      </c>
+      <c r="V46" s="3">
+        <v>5</v>
+      </c>
+      <c r="W46" s="4">
+        <v>0.9920601755119097</v>
+      </c>
+      <c r="X46" s="5">
+        <v>140.5910652920962</v>
+      </c>
+      <c r="Y46" s="5">
+        <v>5.004725085910653</v>
+      </c>
+      <c r="Z46" s="3">
+        <v>129</v>
+      </c>
+      <c r="AA46" s="5">
+        <v>60</v>
+      </c>
+      <c r="AB46" s="3">
+        <v>129</v>
+      </c>
+      <c r="AC46" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD46" s="3">
+        <v>14</v>
+      </c>
+      <c r="AE46" s="5">
+        <v>45</v>
+      </c>
+      <c r="AF46" s="3">
+        <v>14</v>
+      </c>
+      <c r="AG46" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH46" s="3">
+        <v>8</v>
+      </c>
+      <c r="AI46" s="5">
+        <v>30</v>
+      </c>
+      <c r="AJ46" s="3">
+        <v>8</v>
+      </c>
+      <c r="AK46" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:37">
+      <c r="A47" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47" s="3">
+        <v>2802</v>
+      </c>
+      <c r="D47" s="3">
+        <v>1340</v>
+      </c>
+      <c r="E47" s="3">
+        <v>57</v>
+      </c>
+      <c r="F47" s="3">
+        <v>1283</v>
+      </c>
+      <c r="G47" s="4">
+        <v>0.04253731343283582</v>
+      </c>
+      <c r="H47" s="5">
+        <v>67.36940298507463</v>
+      </c>
+      <c r="I47" s="3">
+        <v>1462</v>
+      </c>
+      <c r="J47" s="4">
+        <v>0.4782298358315489</v>
+      </c>
+      <c r="K47" s="3">
+        <v>1462</v>
+      </c>
+      <c r="L47" s="3">
+        <v>1436</v>
+      </c>
+      <c r="M47" s="3">
+        <v>1394</v>
+      </c>
+      <c r="N47" s="3">
+        <v>42</v>
+      </c>
+      <c r="O47" s="3">
+        <v>23</v>
+      </c>
+      <c r="P47" s="3">
+        <v>1459</v>
+      </c>
+      <c r="Q47" s="4">
+        <v>0.984235777930089</v>
+      </c>
+      <c r="R47" s="4">
+        <v>0.01576422206991097</v>
+      </c>
+      <c r="S47" s="3">
+        <v>3</v>
+      </c>
+      <c r="T47" s="3">
+        <v>1421</v>
+      </c>
+      <c r="U47" s="3">
+        <v>15</v>
+      </c>
+      <c r="V47" s="3">
+        <v>6</v>
+      </c>
+      <c r="W47" s="4">
+        <v>0.9854368932038835</v>
+      </c>
+      <c r="X47" s="5">
+        <v>103.0294117647059</v>
+      </c>
+      <c r="Y47" s="5">
+        <v>7.16571018651363</v>
+      </c>
+      <c r="Z47" s="3">
+        <v>75</v>
+      </c>
+      <c r="AA47" s="5">
+        <v>60</v>
+      </c>
+      <c r="AB47" s="3">
+        <v>75</v>
+      </c>
+      <c r="AC47" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD47" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE47" s="5">
+        <v>45</v>
+      </c>
+      <c r="AF47" s="3">
+        <v>5</v>
+      </c>
+      <c r="AG47" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH47" s="3">
+        <v>9</v>
+      </c>
+      <c r="AI47" s="5">
+        <v>30</v>
+      </c>
+      <c r="AJ47" s="3">
+        <v>9</v>
+      </c>
+      <c r="AK47" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:37">
+      <c r="A48" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C48" s="3">
+        <v>99051</v>
+      </c>
+      <c r="D48" s="3">
+        <v>58149</v>
+      </c>
+      <c r="E48" s="3">
+        <v>13942</v>
+      </c>
+      <c r="F48" s="3">
+        <v>44207</v>
+      </c>
+      <c r="G48" s="4">
+        <v>0.2397633665239299</v>
+      </c>
+      <c r="H48" s="5">
+        <v>43.36946465115479</v>
+      </c>
+      <c r="I48" s="3">
+        <v>40902</v>
+      </c>
+      <c r="J48" s="4">
+        <v>0.587061210891359</v>
+      </c>
+      <c r="K48" s="3">
+        <v>40902</v>
+      </c>
+      <c r="L48" s="3">
+        <v>40449</v>
+      </c>
+      <c r="M48" s="3">
+        <v>39593</v>
+      </c>
+      <c r="N48" s="3">
+        <v>856</v>
+      </c>
+      <c r="O48" s="3">
+        <v>396</v>
+      </c>
+      <c r="P48" s="3">
+        <v>40845</v>
+      </c>
+      <c r="Q48" s="4">
+        <v>0.9903048108703636</v>
+      </c>
+      <c r="R48" s="4">
+        <v>0.009695189129636361</v>
+      </c>
+      <c r="S48" s="3">
+        <v>57</v>
+      </c>
+      <c r="T48" s="3">
+        <v>40148</v>
+      </c>
+      <c r="U48" s="3">
+        <v>301</v>
+      </c>
+      <c r="V48" s="3">
+        <v>88</v>
+      </c>
+      <c r="W48" s="4">
+        <v>0.9904038286010313</v>
+      </c>
+      <c r="X48" s="5">
+        <v>133.9987624074963</v>
+      </c>
+      <c r="Y48" s="5">
+        <v>5.248250953451367</v>
+      </c>
+      <c r="Z48" s="3">
+        <v>2400</v>
+      </c>
+      <c r="AA48" s="5">
+        <v>60</v>
+      </c>
+      <c r="AB48" s="3">
+        <v>2393</v>
+      </c>
+      <c r="AC48" s="4">
+        <v>0.9970833333333333</v>
+      </c>
+      <c r="AD48" s="3">
+        <v>187</v>
+      </c>
+      <c r="AE48" s="5">
+        <v>45</v>
+      </c>
+      <c r="AF48" s="3">
+        <v>187</v>
+      </c>
+      <c r="AG48" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH48" s="3">
+        <v>110</v>
+      </c>
+      <c r="AI48" s="5">
+        <v>30</v>
+      </c>
+      <c r="AJ48" s="3">
+        <v>110</v>
+      </c>
+      <c r="AK48" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:37">
+      <c r="A49" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C49" s="3">
+        <v>77803</v>
+      </c>
+      <c r="D49" s="3">
+        <v>35888</v>
+      </c>
+      <c r="E49" s="3">
+        <v>11895</v>
+      </c>
+      <c r="F49" s="3">
+        <v>23993</v>
+      </c>
+      <c r="G49" s="4">
+        <v>0.3314478377173428</v>
+      </c>
+      <c r="H49" s="5">
+        <v>30.16771622826571</v>
+      </c>
+      <c r="I49" s="3">
+        <v>41915</v>
+      </c>
+      <c r="J49" s="4">
+        <v>0.4612675603768493</v>
+      </c>
+      <c r="K49" s="3">
+        <v>41915</v>
+      </c>
+      <c r="L49" s="3">
+        <v>41266</v>
+      </c>
+      <c r="M49" s="3">
+        <v>40620</v>
+      </c>
+      <c r="N49" s="3">
+        <v>646</v>
+      </c>
+      <c r="O49" s="3">
+        <v>563</v>
+      </c>
+      <c r="P49" s="3">
+        <v>41829</v>
+      </c>
+      <c r="Q49" s="4">
+        <v>0.9865404384517918</v>
+      </c>
+      <c r="R49" s="4">
+        <v>0.01345956154820811</v>
+      </c>
+      <c r="S49" s="3">
+        <v>86</v>
+      </c>
+      <c r="T49" s="3">
+        <v>40960</v>
+      </c>
+      <c r="U49" s="3">
+        <v>306</v>
+      </c>
+      <c r="V49" s="3">
+        <v>140</v>
+      </c>
+      <c r="W49" s="4">
+        <v>0.9892286142105009</v>
+      </c>
+      <c r="X49" s="5">
+        <v>129.8890201871</v>
+      </c>
+      <c r="Y49" s="5">
+        <v>4.970901033973412</v>
+      </c>
+      <c r="Z49" s="3">
+        <v>2837</v>
+      </c>
+      <c r="AA49" s="5">
+        <v>60</v>
+      </c>
+      <c r="AB49" s="3">
+        <v>2829</v>
+      </c>
+      <c r="AC49" s="4">
+        <v>0.9971801198449066</v>
+      </c>
+      <c r="AD49" s="3">
+        <v>45</v>
+      </c>
+      <c r="AE49" s="5">
+        <v>45</v>
+      </c>
+      <c r="AF49" s="3">
+        <v>45</v>
+      </c>
+      <c r="AG49" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH49" s="3">
+        <v>30</v>
+      </c>
+      <c r="AI49" s="5">
+        <v>30</v>
+      </c>
+      <c r="AJ49" s="3">
+        <v>30</v>
+      </c>
+      <c r="AK49" s="4">
         <v>1</v>
       </c>
     </row>
@@ -20208,13 +22015,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -20248,8 +22055,11 @@
       <c r="K1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>0</v>
       </c>
@@ -20283,8 +22093,11 @@
       <c r="K2">
         <v>107</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>1</v>
       </c>
@@ -20318,8 +22131,11 @@
       <c r="K3">
         <v>90</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="L3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>2</v>
       </c>
@@ -20353,8 +22169,11 @@
       <c r="K4">
         <v>38</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="L4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>3</v>
       </c>
@@ -20388,8 +22207,11 @@
       <c r="K5">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="L5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>4</v>
       </c>
@@ -20423,8 +22245,11 @@
       <c r="K6">
         <v>39</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="L6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>5</v>
       </c>
@@ -20458,8 +22283,11 @@
       <c r="K7">
         <v>121</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="L7">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>6</v>
       </c>
@@ -20493,8 +22321,11 @@
       <c r="K8">
         <v>314</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="L8">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>7</v>
       </c>
@@ -20528,8 +22359,11 @@
       <c r="K9">
         <v>477</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="L9">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>8</v>
       </c>
@@ -20563,8 +22397,11 @@
       <c r="K10">
         <v>667</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="L10">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>9</v>
       </c>
@@ -20598,8 +22435,11 @@
       <c r="K11">
         <v>913</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="L11">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>10</v>
       </c>
@@ -20633,8 +22473,11 @@
       <c r="K12">
         <v>1174</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="L12">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>11</v>
       </c>
@@ -20668,8 +22511,11 @@
       <c r="K13">
         <v>1100</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="L13">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>12</v>
       </c>
@@ -20703,8 +22549,11 @@
       <c r="K14">
         <v>1087</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="L14">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>13</v>
       </c>
@@ -20738,8 +22587,11 @@
       <c r="K15">
         <v>946</v>
       </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="L15">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>14</v>
       </c>
@@ -20773,8 +22625,11 @@
       <c r="K16">
         <v>1013</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="L16">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17">
         <v>15</v>
       </c>
@@ -20808,8 +22663,11 @@
       <c r="K17">
         <v>775</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="L17">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18">
         <v>16</v>
       </c>
@@ -20843,8 +22701,11 @@
       <c r="K18">
         <v>942</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="L18">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19">
         <v>17</v>
       </c>
@@ -20878,8 +22739,11 @@
       <c r="K19">
         <v>1055</v>
       </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="L19">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20">
         <v>18</v>
       </c>
@@ -20913,8 +22777,11 @@
       <c r="K20">
         <v>1036</v>
       </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="L20">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21">
         <v>19</v>
       </c>
@@ -20948,8 +22815,11 @@
       <c r="K21">
         <v>1180</v>
       </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="L21">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22">
         <v>20</v>
       </c>
@@ -20983,8 +22853,11 @@
       <c r="K22">
         <v>943</v>
       </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="L22">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23">
         <v>21</v>
       </c>
@@ -21018,8 +22891,11 @@
       <c r="K23">
         <v>818</v>
       </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="L23">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24">
         <v>22</v>
       </c>
@@ -21053,8 +22929,11 @@
       <c r="K24">
         <v>404</v>
       </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="L24">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25">
         <v>23</v>
       </c>
@@ -21088,9 +22967,12 @@
       <c r="K25">
         <v>213</v>
       </c>
+      <c r="L25">
+        <v>240</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:K25">
+  <conditionalFormatting sqref="B2:L25">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -21108,13 +22990,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -21148,8 +23030,11 @@
       <c r="K1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>0</v>
       </c>
@@ -21183,8 +23068,11 @@
       <c r="K2">
         <v>106</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>1</v>
       </c>
@@ -21218,8 +23106,11 @@
       <c r="K3">
         <v>87</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="L3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>2</v>
       </c>
@@ -21253,8 +23144,11 @@
       <c r="K4">
         <v>135</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="L4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>3</v>
       </c>
@@ -21288,8 +23182,11 @@
       <c r="K5">
         <v>154</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="L5">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>4</v>
       </c>
@@ -21323,8 +23220,11 @@
       <c r="K6">
         <v>116</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="L6">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>5</v>
       </c>
@@ -21358,8 +23258,11 @@
       <c r="K7">
         <v>130</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="L7">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>6</v>
       </c>
@@ -21393,8 +23296,11 @@
       <c r="K8">
         <v>114</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="L8">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>7</v>
       </c>
@@ -21428,8 +23334,11 @@
       <c r="K9">
         <v>121</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="L9">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>8</v>
       </c>
@@ -21463,8 +23372,11 @@
       <c r="K10">
         <v>125</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="L10">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>9</v>
       </c>
@@ -21498,8 +23410,11 @@
       <c r="K11">
         <v>137</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="L11">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>10</v>
       </c>
@@ -21533,8 +23448,11 @@
       <c r="K12">
         <v>127</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="L12">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>11</v>
       </c>
@@ -21568,8 +23486,11 @@
       <c r="K13">
         <v>129</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="L13">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>12</v>
       </c>
@@ -21603,8 +23524,11 @@
       <c r="K14">
         <v>127</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="L14">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>13</v>
       </c>
@@ -21638,8 +23562,11 @@
       <c r="K15">
         <v>129</v>
       </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="L15">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>14</v>
       </c>
@@ -21673,8 +23600,11 @@
       <c r="K16">
         <v>113</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="L16">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17">
         <v>15</v>
       </c>
@@ -21708,8 +23638,11 @@
       <c r="K17">
         <v>125</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="L17">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18">
         <v>16</v>
       </c>
@@ -21743,8 +23676,11 @@
       <c r="K18">
         <v>135</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="L18">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19">
         <v>17</v>
       </c>
@@ -21778,8 +23714,11 @@
       <c r="K19">
         <v>123</v>
       </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="L19">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20">
         <v>18</v>
       </c>
@@ -21813,8 +23752,11 @@
       <c r="K20">
         <v>126</v>
       </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="L20">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21">
         <v>19</v>
       </c>
@@ -21848,8 +23790,11 @@
       <c r="K21">
         <v>127</v>
       </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="L21">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22">
         <v>20</v>
       </c>
@@ -21883,8 +23828,11 @@
       <c r="K22">
         <v>124</v>
       </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="L22">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23">
         <v>21</v>
       </c>
@@ -21918,8 +23866,11 @@
       <c r="K23">
         <v>141</v>
       </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="L23">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24">
         <v>22</v>
       </c>
@@ -21953,8 +23904,11 @@
       <c r="K24">
         <v>148</v>
       </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="L24">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25">
         <v>23</v>
       </c>
@@ -21988,9 +23942,12 @@
       <c r="K25">
         <v>146</v>
       </c>
+      <c r="L25">
+        <v>133</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:K25">
+  <conditionalFormatting sqref="B2:L25">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>

--- a/Result.xlsx
+++ b/Result.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="59">
   <si>
     <t>Date</t>
   </si>
@@ -195,6 +195,9 @@
   </si>
   <si>
     <t>2025-10-11</t>
+  </si>
+  <si>
+    <t>2025-10-12</t>
   </si>
 </sst>
 </file>
@@ -592,7 +595,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ13"/>
+  <dimension ref="A1:AJ14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1922,86 +1925,86 @@
       </c>
     </row>
     <row r="13" spans="1:36">
-      <c r="A13" s="3" t="s">
-        <v>36</v>
+      <c r="A13" s="2">
+        <v>45942</v>
       </c>
       <c r="B13" s="3">
-        <v>183859</v>
+        <v>13662</v>
       </c>
       <c r="C13" s="3">
-        <v>97150</v>
+        <v>7226</v>
       </c>
       <c r="D13" s="3">
-        <v>25948</v>
+        <v>2096</v>
       </c>
       <c r="E13" s="3">
-        <v>71202</v>
+        <v>5130</v>
       </c>
       <c r="F13" s="4">
-        <v>0.2670921255790015</v>
+        <v>0.2900636590091337</v>
       </c>
       <c r="G13" s="5">
-        <v>39.0816263510036</v>
+        <v>37.65596457237753</v>
       </c>
       <c r="H13" s="3">
-        <v>86709</v>
+        <v>6436</v>
       </c>
       <c r="I13" s="4">
-        <v>0.5283940410858321</v>
+        <v>0.5289123115210072</v>
       </c>
       <c r="J13" s="3">
-        <v>86709</v>
+        <v>6436</v>
       </c>
       <c r="K13" s="3">
-        <v>86552</v>
+        <v>6426</v>
       </c>
       <c r="L13" s="3">
-        <v>85539</v>
+        <v>6380</v>
       </c>
       <c r="M13" s="3">
-        <v>83935</v>
+        <v>6258</v>
       </c>
       <c r="N13" s="3">
-        <v>1604</v>
+        <v>122</v>
       </c>
       <c r="O13" s="4">
-        <v>0.988296053239671</v>
+        <v>0.9928415810768751</v>
       </c>
       <c r="P13" s="3">
-        <v>1013</v>
+        <v>46</v>
       </c>
       <c r="Q13" s="4">
-        <v>0.01170394676032899</v>
+        <v>0.007158418923124827</v>
       </c>
       <c r="R13" s="3">
-        <v>157</v>
+        <v>10</v>
       </c>
       <c r="S13" s="3">
-        <v>84903</v>
+        <v>6346</v>
       </c>
       <c r="T13" s="3">
-        <v>239</v>
+        <v>14</v>
       </c>
       <c r="U13" s="3">
-        <v>636</v>
+        <v>34</v>
       </c>
       <c r="V13" s="4">
-        <v>0.9897992492247429</v>
+        <v>0.9924929621520175</v>
       </c>
       <c r="W13" s="5">
-        <v>131.6783701673914</v>
+        <v>130.4434324065197</v>
       </c>
       <c r="X13" s="5">
-        <v>5.139119556799905</v>
+        <v>3.708213486736977</v>
       </c>
       <c r="Y13" s="3">
-        <v>5441</v>
+        <v>458</v>
       </c>
       <c r="Z13" s="3">
-        <v>251</v>
+        <v>16</v>
       </c>
       <c r="AA13" s="3">
-        <v>157</v>
+        <v>9</v>
       </c>
       <c r="AB13" s="5">
         <v>60</v>
@@ -2013,21 +2016,131 @@
         <v>30</v>
       </c>
       <c r="AE13" s="3">
-        <v>5426</v>
+        <v>458</v>
       </c>
       <c r="AF13" s="3">
-        <v>251</v>
+        <v>16</v>
       </c>
       <c r="AG13" s="3">
-        <v>157</v>
+        <v>9</v>
       </c>
       <c r="AH13" s="4">
-        <v>0.9972431538320162</v>
+        <v>1</v>
       </c>
       <c r="AI13" s="4">
         <v>1</v>
       </c>
       <c r="AJ13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36">
+      <c r="A14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="3">
+        <v>197521</v>
+      </c>
+      <c r="C14" s="3">
+        <v>104376</v>
+      </c>
+      <c r="D14" s="3">
+        <v>28044</v>
+      </c>
+      <c r="E14" s="3">
+        <v>76332</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.268682455736951</v>
+      </c>
+      <c r="G14" s="5">
+        <v>38.98292710968039</v>
+      </c>
+      <c r="H14" s="3">
+        <v>93145</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0.5284298884675553</v>
+      </c>
+      <c r="J14" s="3">
+        <v>93145</v>
+      </c>
+      <c r="K14" s="3">
+        <v>92978</v>
+      </c>
+      <c r="L14" s="3">
+        <v>91919</v>
+      </c>
+      <c r="M14" s="3">
+        <v>90193</v>
+      </c>
+      <c r="N14" s="3">
+        <v>1726</v>
+      </c>
+      <c r="O14" s="4">
+        <v>0.9886102088666137</v>
+      </c>
+      <c r="P14" s="3">
+        <v>1059</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>0.01138979113338635</v>
+      </c>
+      <c r="R14" s="3">
+        <v>167</v>
+      </c>
+      <c r="S14" s="3">
+        <v>91249</v>
+      </c>
+      <c r="T14" s="3">
+        <v>253</v>
+      </c>
+      <c r="U14" s="3">
+        <v>670</v>
+      </c>
+      <c r="V14" s="4">
+        <v>0.9899861129193248</v>
+      </c>
+      <c r="W14" s="5">
+        <v>131.5926845764084</v>
+      </c>
+      <c r="X14" s="5">
+        <v>5.039836794429723</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>5899</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>267</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>166</v>
+      </c>
+      <c r="AB14" s="5">
+        <v>60</v>
+      </c>
+      <c r="AC14" s="5">
+        <v>45</v>
+      </c>
+      <c r="AD14" s="5">
+        <v>30</v>
+      </c>
+      <c r="AE14" s="3">
+        <v>5884</v>
+      </c>
+      <c r="AF14" s="3">
+        <v>267</v>
+      </c>
+      <c r="AG14" s="3">
+        <v>166</v>
+      </c>
+      <c r="AH14" s="4">
+        <v>0.997457196134938</v>
+      </c>
+      <c r="AI14" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ14" s="4">
         <v>1</v>
       </c>
     </row>
@@ -2038,7 +2151,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ13"/>
+  <dimension ref="A1:AJ14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3368,86 +3481,86 @@
       </c>
     </row>
     <row r="13" spans="1:36">
-      <c r="A13" s="3" t="s">
-        <v>36</v>
+      <c r="A13" s="2">
+        <v>45942</v>
       </c>
       <c r="B13" s="3">
-        <v>102159</v>
+        <v>7554</v>
       </c>
       <c r="C13" s="3">
-        <v>59806</v>
+        <v>4414</v>
       </c>
       <c r="D13" s="3">
-        <v>13998</v>
+        <v>1175</v>
       </c>
       <c r="E13" s="3">
-        <v>45808</v>
+        <v>3239</v>
       </c>
       <c r="F13" s="4">
-        <v>0.2340567836003077</v>
+        <v>0.2661984594472134</v>
       </c>
       <c r="G13" s="5">
-        <v>43.93477243085978</v>
+        <v>42.72496601721794</v>
       </c>
       <c r="H13" s="3">
-        <v>42353</v>
+        <v>3140</v>
       </c>
       <c r="I13" s="4">
-        <v>0.585420765669202</v>
+        <v>0.5843261848027536</v>
       </c>
       <c r="J13" s="3">
-        <v>42353</v>
+        <v>3140</v>
       </c>
       <c r="K13" s="3">
-        <v>42288</v>
+        <v>3135</v>
       </c>
       <c r="L13" s="3">
-        <v>41878</v>
+        <v>3109</v>
       </c>
       <c r="M13" s="3">
-        <v>40969</v>
+        <v>3045</v>
       </c>
       <c r="N13" s="3">
-        <v>909</v>
+        <v>64</v>
       </c>
       <c r="O13" s="4">
-        <v>0.9903045781309119</v>
+        <v>0.99170653907496</v>
       </c>
       <c r="P13" s="3">
-        <v>410</v>
+        <v>26</v>
       </c>
       <c r="Q13" s="4">
-        <v>0.009695421869088108</v>
+        <v>0.008293460925039966</v>
       </c>
       <c r="R13" s="3">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="S13" s="3">
-        <v>41568</v>
+        <v>3087</v>
       </c>
       <c r="T13" s="3">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="U13" s="3">
-        <v>310</v>
+        <v>22</v>
       </c>
       <c r="V13" s="4">
-        <v>0.9904925298448781</v>
+        <v>0.9900577293136626</v>
       </c>
       <c r="W13" s="5">
-        <v>133.7781493324221</v>
+        <v>135.3346469622332</v>
       </c>
       <c r="X13" s="5">
-        <v>5.238106861285362</v>
+        <v>4.417733990147783</v>
       </c>
       <c r="Y13" s="3">
-        <v>2469</v>
+        <v>210</v>
       </c>
       <c r="Z13" s="3">
-        <v>195</v>
+        <v>15</v>
       </c>
       <c r="AA13" s="3">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="AB13" s="5">
         <v>60</v>
@@ -3459,21 +3572,131 @@
         <v>30</v>
       </c>
       <c r="AE13" s="3">
-        <v>2462</v>
+        <v>210</v>
       </c>
       <c r="AF13" s="3">
-        <v>195</v>
+        <v>15</v>
       </c>
       <c r="AG13" s="3">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="AH13" s="4">
-        <v>0.9971648440664237</v>
+        <v>1</v>
       </c>
       <c r="AI13" s="4">
         <v>1</v>
       </c>
       <c r="AJ13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36">
+      <c r="A14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="3">
+        <v>109713</v>
+      </c>
+      <c r="C14" s="3">
+        <v>64220</v>
+      </c>
+      <c r="D14" s="3">
+        <v>15173</v>
+      </c>
+      <c r="E14" s="3">
+        <v>49047</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.2362659607598879</v>
+      </c>
+      <c r="G14" s="5">
+        <v>43.85161943319838</v>
+      </c>
+      <c r="H14" s="3">
+        <v>45493</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0.5853454011830868</v>
+      </c>
+      <c r="J14" s="3">
+        <v>45493</v>
+      </c>
+      <c r="K14" s="3">
+        <v>45423</v>
+      </c>
+      <c r="L14" s="3">
+        <v>44987</v>
+      </c>
+      <c r="M14" s="3">
+        <v>44014</v>
+      </c>
+      <c r="N14" s="3">
+        <v>973</v>
+      </c>
+      <c r="O14" s="4">
+        <v>0.990401338528939</v>
+      </c>
+      <c r="P14" s="3">
+        <v>436</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>0.009598661471060978</v>
+      </c>
+      <c r="R14" s="3">
+        <v>70</v>
+      </c>
+      <c r="S14" s="3">
+        <v>44655</v>
+      </c>
+      <c r="T14" s="3">
+        <v>98</v>
+      </c>
+      <c r="U14" s="3">
+        <v>332</v>
+      </c>
+      <c r="V14" s="4">
+        <v>0.9904624597981591</v>
+      </c>
+      <c r="W14" s="5">
+        <v>133.885831780797</v>
+      </c>
+      <c r="X14" s="5">
+        <v>5.181351388194665</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>2679</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>210</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>126</v>
+      </c>
+      <c r="AB14" s="5">
+        <v>60</v>
+      </c>
+      <c r="AC14" s="5">
+        <v>45</v>
+      </c>
+      <c r="AD14" s="5">
+        <v>30</v>
+      </c>
+      <c r="AE14" s="3">
+        <v>2672</v>
+      </c>
+      <c r="AF14" s="3">
+        <v>210</v>
+      </c>
+      <c r="AG14" s="3">
+        <v>126</v>
+      </c>
+      <c r="AH14" s="4">
+        <v>0.9973870847331093</v>
+      </c>
+      <c r="AI14" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ14" s="4">
         <v>1</v>
       </c>
     </row>
@@ -3484,7 +3707,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ13"/>
+  <dimension ref="A1:AJ14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4814,86 +5037,86 @@
       </c>
     </row>
     <row r="13" spans="1:36">
-      <c r="A13" s="3" t="s">
-        <v>36</v>
+      <c r="A13" s="2">
+        <v>45942</v>
       </c>
       <c r="B13" s="3">
-        <v>48806</v>
+        <v>3714</v>
       </c>
       <c r="C13" s="3">
-        <v>23423</v>
+        <v>1808</v>
       </c>
       <c r="D13" s="3">
-        <v>7979</v>
+        <v>630</v>
       </c>
       <c r="E13" s="3">
-        <v>15444</v>
+        <v>1178</v>
       </c>
       <c r="F13" s="4">
-        <v>0.3406480809460786</v>
+        <v>0.3484513274336283</v>
       </c>
       <c r="G13" s="5">
-        <v>26.99261409725484</v>
+        <v>25.8700221238938</v>
       </c>
       <c r="H13" s="3">
-        <v>25383</v>
+        <v>1906</v>
       </c>
       <c r="I13" s="4">
-        <v>0.4799205015776749</v>
+        <v>0.4868066774367258</v>
       </c>
       <c r="J13" s="3">
-        <v>25383</v>
+        <v>1906</v>
       </c>
       <c r="K13" s="3">
-        <v>25323</v>
+        <v>1901</v>
       </c>
       <c r="L13" s="3">
-        <v>24909</v>
+        <v>1889</v>
       </c>
       <c r="M13" s="3">
-        <v>24441</v>
+        <v>1854</v>
       </c>
       <c r="N13" s="3">
-        <v>468</v>
+        <v>35</v>
       </c>
       <c r="O13" s="4">
-        <v>0.9836512261580381</v>
+        <v>0.9936875328774328</v>
       </c>
       <c r="P13" s="3">
-        <v>414</v>
+        <v>12</v>
       </c>
       <c r="Q13" s="4">
-        <v>0.01634877384196187</v>
+        <v>0.006312467122567114</v>
       </c>
       <c r="R13" s="3">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="S13" s="3">
-        <v>24742</v>
+        <v>1880</v>
       </c>
       <c r="T13" s="3">
-        <v>97</v>
+        <v>2</v>
       </c>
       <c r="U13" s="3">
-        <v>167</v>
+        <v>9</v>
       </c>
       <c r="V13" s="4">
-        <v>0.98944253379189</v>
+        <v>0.9941829719725013</v>
       </c>
       <c r="W13" s="5">
-        <v>124.9448467738636</v>
+        <v>122.3290183387271</v>
       </c>
       <c r="X13" s="5">
-        <v>4.798780737285709</v>
+        <v>3.17259978425027</v>
       </c>
       <c r="Y13" s="3">
-        <v>1762</v>
+        <v>150</v>
       </c>
       <c r="Z13" s="3">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AA13" s="3">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="AB13" s="5">
         <v>60</v>
@@ -4905,21 +5128,131 @@
         <v>30</v>
       </c>
       <c r="AE13" s="3">
-        <v>1757</v>
+        <v>150</v>
       </c>
       <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="3">
+        <v>3</v>
+      </c>
+      <c r="AH13" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36">
+      <c r="A14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="3">
+        <v>52520</v>
+      </c>
+      <c r="C14" s="3">
+        <v>25231</v>
+      </c>
+      <c r="D14" s="3">
+        <v>8609</v>
+      </c>
+      <c r="E14" s="3">
+        <v>16622</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.3412072450556854</v>
+      </c>
+      <c r="G14" s="5">
+        <v>26.91217153501645</v>
+      </c>
+      <c r="H14" s="3">
+        <v>27289</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0.4804074638233054</v>
+      </c>
+      <c r="J14" s="3">
+        <v>27289</v>
+      </c>
+      <c r="K14" s="3">
+        <v>27224</v>
+      </c>
+      <c r="L14" s="3">
+        <v>26798</v>
+      </c>
+      <c r="M14" s="3">
+        <v>26295</v>
+      </c>
+      <c r="N14" s="3">
+        <v>503</v>
+      </c>
+      <c r="O14" s="4">
+        <v>0.9843520423156039</v>
+      </c>
+      <c r="P14" s="3">
+        <v>426</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>0.01564795768439609</v>
+      </c>
+      <c r="R14" s="3">
+        <v>65</v>
+      </c>
+      <c r="S14" s="3">
+        <v>26622</v>
+      </c>
+      <c r="T14" s="3">
+        <v>99</v>
+      </c>
+      <c r="U14" s="3">
+        <v>176</v>
+      </c>
+      <c r="V14" s="4">
+        <v>0.9897758114287839</v>
+      </c>
+      <c r="W14" s="5">
+        <v>124.7604107244723</v>
+      </c>
+      <c r="X14" s="5">
+        <v>4.684122456740825</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>1912</v>
+      </c>
+      <c r="Z14" s="3">
         <v>19</v>
       </c>
-      <c r="AG13" s="3">
-        <v>27</v>
-      </c>
-      <c r="AH13" s="4">
-        <v>0.9971623155505108</v>
-      </c>
-      <c r="AI13" s="4">
-        <v>1</v>
-      </c>
-      <c r="AJ13" s="4">
+      <c r="AA14" s="3">
+        <v>30</v>
+      </c>
+      <c r="AB14" s="5">
+        <v>60</v>
+      </c>
+      <c r="AC14" s="5">
+        <v>45</v>
+      </c>
+      <c r="AD14" s="5">
+        <v>30</v>
+      </c>
+      <c r="AE14" s="3">
+        <v>1907</v>
+      </c>
+      <c r="AF14" s="3">
+        <v>19</v>
+      </c>
+      <c r="AG14" s="3">
+        <v>30</v>
+      </c>
+      <c r="AH14" s="4">
+        <v>0.9973849372384938</v>
+      </c>
+      <c r="AI14" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ14" s="4">
         <v>1</v>
       </c>
     </row>
@@ -4930,7 +5263,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ13"/>
+  <dimension ref="A1:AJ14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6260,86 +6593,86 @@
       </c>
     </row>
     <row r="13" spans="1:36">
-      <c r="A13" s="3" t="s">
-        <v>36</v>
+      <c r="A13" s="2">
+        <v>45942</v>
       </c>
       <c r="B13" s="3">
-        <v>32894</v>
+        <v>2394</v>
       </c>
       <c r="C13" s="3">
-        <v>13921</v>
+        <v>1004</v>
       </c>
       <c r="D13" s="3">
-        <v>3971</v>
+        <v>291</v>
       </c>
       <c r="E13" s="3">
-        <v>9950</v>
+        <v>713</v>
       </c>
       <c r="F13" s="4">
-        <v>0.2852524962287192</v>
+        <v>0.2898406374501992</v>
       </c>
       <c r="G13" s="5">
-        <v>38.57258817613677</v>
+        <v>36.59462151394423</v>
       </c>
       <c r="H13" s="3">
-        <v>18973</v>
+        <v>1390</v>
       </c>
       <c r="I13" s="4">
-        <v>0.4232078798565088</v>
+        <v>0.4193817878028404</v>
       </c>
       <c r="J13" s="3">
-        <v>18973</v>
+        <v>1390</v>
       </c>
       <c r="K13" s="3">
-        <v>18941</v>
+        <v>1390</v>
       </c>
       <c r="L13" s="3">
-        <v>18752</v>
+        <v>1382</v>
       </c>
       <c r="M13" s="3">
-        <v>18525</v>
+        <v>1359</v>
       </c>
       <c r="N13" s="3">
-        <v>227</v>
+        <v>23</v>
       </c>
       <c r="O13" s="4">
-        <v>0.9900216461644052</v>
+        <v>0.9942446043165467</v>
       </c>
       <c r="P13" s="3">
-        <v>189</v>
+        <v>8</v>
       </c>
       <c r="Q13" s="4">
-        <v>0.009978353835594761</v>
+        <v>0.005755395683453343</v>
       </c>
       <c r="R13" s="3">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="S13" s="3">
-        <v>18593</v>
+        <v>1379</v>
       </c>
       <c r="T13" s="3">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="U13" s="3">
-        <v>159</v>
+        <v>3</v>
       </c>
       <c r="V13" s="4">
-        <v>0.9887264025525127</v>
+        <v>0.9956678700361011</v>
       </c>
       <c r="W13" s="5">
-        <v>135.9184885290148</v>
+        <v>130.5540838852097</v>
       </c>
       <c r="X13" s="5">
-        <v>5.369230769230769</v>
+        <v>2.849153789551141</v>
       </c>
       <c r="Y13" s="3">
-        <v>1210</v>
+        <v>98</v>
       </c>
       <c r="Z13" s="3">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="AA13" s="3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AB13" s="5">
         <v>60</v>
@@ -6351,21 +6684,131 @@
         <v>30</v>
       </c>
       <c r="AE13" s="3">
-        <v>1207</v>
+        <v>98</v>
       </c>
       <c r="AF13" s="3">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="AG13" s="3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AH13" s="4">
-        <v>0.9975206611570248</v>
+        <v>1</v>
       </c>
       <c r="AI13" s="4">
         <v>1</v>
       </c>
       <c r="AJ13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36">
+      <c r="A14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="3">
+        <v>35288</v>
+      </c>
+      <c r="C14" s="3">
+        <v>14925</v>
+      </c>
+      <c r="D14" s="3">
+        <v>4262</v>
+      </c>
+      <c r="E14" s="3">
+        <v>10663</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.2855611390284757</v>
+      </c>
+      <c r="G14" s="5">
+        <v>38.4395309882747</v>
+      </c>
+      <c r="H14" s="3">
+        <v>20363</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0.4229483110405804</v>
+      </c>
+      <c r="J14" s="3">
+        <v>20363</v>
+      </c>
+      <c r="K14" s="3">
+        <v>20331</v>
+      </c>
+      <c r="L14" s="3">
+        <v>20134</v>
+      </c>
+      <c r="M14" s="3">
+        <v>19884</v>
+      </c>
+      <c r="N14" s="3">
+        <v>250</v>
+      </c>
+      <c r="O14" s="4">
+        <v>0.9903103634843343</v>
+      </c>
+      <c r="P14" s="3">
+        <v>197</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>0.009689636515665683</v>
+      </c>
+      <c r="R14" s="3">
+        <v>32</v>
+      </c>
+      <c r="S14" s="3">
+        <v>19972</v>
+      </c>
+      <c r="T14" s="3">
+        <v>56</v>
+      </c>
+      <c r="U14" s="3">
+        <v>162</v>
+      </c>
+      <c r="V14" s="4">
+        <v>0.9892025755324418</v>
+      </c>
+      <c r="W14" s="5">
+        <v>135.5518507342587</v>
+      </c>
+      <c r="X14" s="5">
+        <v>5.196992556829612</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>1308</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>38</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>10</v>
+      </c>
+      <c r="AB14" s="5">
+        <v>60</v>
+      </c>
+      <c r="AC14" s="5">
+        <v>45</v>
+      </c>
+      <c r="AD14" s="5">
+        <v>30</v>
+      </c>
+      <c r="AE14" s="3">
+        <v>1305</v>
+      </c>
+      <c r="AF14" s="3">
+        <v>38</v>
+      </c>
+      <c r="AG14" s="3">
+        <v>10</v>
+      </c>
+      <c r="AH14" s="4">
+        <v>0.9977064220183486</v>
+      </c>
+      <c r="AI14" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ14" s="4">
         <v>1</v>
       </c>
     </row>
@@ -6376,7 +6819,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L265"/>
+  <dimension ref="A1:L289"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -16455,6 +16898,918 @@
         <v>100</v>
       </c>
     </row>
+    <row r="266" spans="1:12">
+      <c r="A266" s="2">
+        <v>45942</v>
+      </c>
+      <c r="B266" s="3">
+        <v>0</v>
+      </c>
+      <c r="C266" s="3">
+        <v>101</v>
+      </c>
+      <c r="D266" s="3">
+        <v>45</v>
+      </c>
+      <c r="E266" s="3">
+        <v>45</v>
+      </c>
+      <c r="F266" s="3">
+        <v>0</v>
+      </c>
+      <c r="G266" s="4">
+        <v>1</v>
+      </c>
+      <c r="H266" s="4">
+        <v>1</v>
+      </c>
+      <c r="I266" s="5">
+        <v>151.6744186046512</v>
+      </c>
+      <c r="J266" s="3">
+        <v>100</v>
+      </c>
+      <c r="K266" s="3">
+        <v>100</v>
+      </c>
+      <c r="L266" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="267" spans="1:12">
+      <c r="A267" s="2">
+        <v>45942</v>
+      </c>
+      <c r="B267" s="3">
+        <v>1</v>
+      </c>
+      <c r="C267" s="3">
+        <v>76</v>
+      </c>
+      <c r="D267" s="3">
+        <v>44</v>
+      </c>
+      <c r="E267" s="3">
+        <v>43</v>
+      </c>
+      <c r="F267" s="3">
+        <v>1</v>
+      </c>
+      <c r="G267" s="4">
+        <v>0.9772727272727273</v>
+      </c>
+      <c r="H267" s="4">
+        <v>0.9545454545454546</v>
+      </c>
+      <c r="I267" s="5">
+        <v>133.7407407407407</v>
+      </c>
+      <c r="J267" s="3">
+        <v>100</v>
+      </c>
+      <c r="K267" s="3">
+        <v>88.88888888888889</v>
+      </c>
+      <c r="L267" s="3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="268" spans="1:12">
+      <c r="A268" s="2">
+        <v>45942</v>
+      </c>
+      <c r="B268" s="3">
+        <v>2</v>
+      </c>
+      <c r="C268" s="3">
+        <v>37</v>
+      </c>
+      <c r="D268" s="3">
+        <v>14</v>
+      </c>
+      <c r="E268" s="3">
+        <v>11</v>
+      </c>
+      <c r="F268" s="3">
+        <v>3</v>
+      </c>
+      <c r="G268" s="4">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="H268" s="4">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="I268" s="5">
+        <v>73.18181818181819</v>
+      </c>
+      <c r="J268" s="3">
+        <v>75</v>
+      </c>
+      <c r="K268" s="3">
+        <v>100</v>
+      </c>
+      <c r="L268" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="269" spans="1:12">
+      <c r="A269" s="2">
+        <v>45942</v>
+      </c>
+      <c r="B269" s="3">
+        <v>3</v>
+      </c>
+      <c r="C269" s="3">
+        <v>30</v>
+      </c>
+      <c r="D269" s="3">
+        <v>14</v>
+      </c>
+      <c r="E269" s="3">
+        <v>12</v>
+      </c>
+      <c r="F269" s="3">
+        <v>2</v>
+      </c>
+      <c r="G269" s="4">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="H269" s="4">
+        <v>0.7692307692307694</v>
+      </c>
+      <c r="I269" s="5">
+        <v>123.4166666666667</v>
+      </c>
+      <c r="J269" s="3">
+        <v>100</v>
+      </c>
+      <c r="K269" s="3">
+        <v>40</v>
+      </c>
+      <c r="L269" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="270" spans="1:12">
+      <c r="A270" s="2">
+        <v>45942</v>
+      </c>
+      <c r="B270" s="3">
+        <v>4</v>
+      </c>
+      <c r="C270" s="3">
+        <v>31</v>
+      </c>
+      <c r="D270" s="3">
+        <v>9</v>
+      </c>
+      <c r="E270" s="3">
+        <v>8</v>
+      </c>
+      <c r="F270" s="3">
+        <v>1</v>
+      </c>
+      <c r="G270" s="4">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="H270" s="4">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="I270" s="5">
+        <v>113</v>
+      </c>
+      <c r="J270" s="3">
+        <v>83.33333333333334</v>
+      </c>
+      <c r="K270" s="3">
+        <v>100</v>
+      </c>
+      <c r="L270" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="271" spans="1:12">
+      <c r="A271" s="2">
+        <v>45942</v>
+      </c>
+      <c r="B271" s="3">
+        <v>5</v>
+      </c>
+      <c r="C271" s="3">
+        <v>93</v>
+      </c>
+      <c r="D271" s="3">
+        <v>37</v>
+      </c>
+      <c r="E271" s="3">
+        <v>28</v>
+      </c>
+      <c r="F271" s="3">
+        <v>9</v>
+      </c>
+      <c r="G271" s="4">
+        <v>0.7567567567567568</v>
+      </c>
+      <c r="H271" s="4">
+        <v>0.71875</v>
+      </c>
+      <c r="I271" s="5">
+        <v>94.78571428571429</v>
+      </c>
+      <c r="J271" s="3">
+        <v>66.66666666666666</v>
+      </c>
+      <c r="K271" s="3">
+        <v>85.71428571428571</v>
+      </c>
+      <c r="L271" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="272" spans="1:12">
+      <c r="A272" s="2">
+        <v>45942</v>
+      </c>
+      <c r="B272" s="3">
+        <v>6</v>
+      </c>
+      <c r="C272" s="3">
+        <v>255</v>
+      </c>
+      <c r="D272" s="3">
+        <v>106</v>
+      </c>
+      <c r="E272" s="3">
+        <v>94</v>
+      </c>
+      <c r="F272" s="3">
+        <v>12</v>
+      </c>
+      <c r="G272" s="4">
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="H272" s="4">
+        <v>0.90625</v>
+      </c>
+      <c r="I272" s="5">
+        <v>102.4838709677419</v>
+      </c>
+      <c r="J272" s="3">
+        <v>79.06976744186046</v>
+      </c>
+      <c r="K272" s="3">
+        <v>100</v>
+      </c>
+      <c r="L272" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="273" spans="1:12">
+      <c r="A273" s="2">
+        <v>45942</v>
+      </c>
+      <c r="B273" s="3">
+        <v>7</v>
+      </c>
+      <c r="C273" s="3">
+        <v>483</v>
+      </c>
+      <c r="D273" s="3">
+        <v>235</v>
+      </c>
+      <c r="E273" s="3">
+        <v>235</v>
+      </c>
+      <c r="F273" s="3">
+        <v>0</v>
+      </c>
+      <c r="G273" s="4">
+        <v>1</v>
+      </c>
+      <c r="H273" s="4">
+        <v>1</v>
+      </c>
+      <c r="I273" s="5">
+        <v>101.9145299145299</v>
+      </c>
+      <c r="J273" s="3">
+        <v>100</v>
+      </c>
+      <c r="K273" s="3">
+        <v>100</v>
+      </c>
+      <c r="L273" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="274" spans="1:12">
+      <c r="A274" s="2">
+        <v>45942</v>
+      </c>
+      <c r="B274" s="3">
+        <v>8</v>
+      </c>
+      <c r="C274" s="3">
+        <v>691</v>
+      </c>
+      <c r="D274" s="3">
+        <v>331</v>
+      </c>
+      <c r="E274" s="3">
+        <v>323</v>
+      </c>
+      <c r="F274" s="3">
+        <v>8</v>
+      </c>
+      <c r="G274" s="4">
+        <v>0.9758308157099698</v>
+      </c>
+      <c r="H274" s="4">
+        <v>0.9629629629629629</v>
+      </c>
+      <c r="I274" s="5">
+        <v>130.7295597484277</v>
+      </c>
+      <c r="J274" s="3">
+        <v>93.16770186335404</v>
+      </c>
+      <c r="K274" s="3">
+        <v>100</v>
+      </c>
+      <c r="L274" s="3">
+        <v>98.63013698630137</v>
+      </c>
+    </row>
+    <row r="275" spans="1:12">
+      <c r="A275" s="2">
+        <v>45942</v>
+      </c>
+      <c r="B275" s="3">
+        <v>9</v>
+      </c>
+      <c r="C275" s="3">
+        <v>917</v>
+      </c>
+      <c r="D275" s="3">
+        <v>432</v>
+      </c>
+      <c r="E275" s="3">
+        <v>430</v>
+      </c>
+      <c r="F275" s="3">
+        <v>2</v>
+      </c>
+      <c r="G275" s="4">
+        <v>0.9953703703703703</v>
+      </c>
+      <c r="H275" s="4">
+        <v>0.9953488372093023</v>
+      </c>
+      <c r="I275" s="5">
+        <v>122.3623529411765</v>
+      </c>
+      <c r="J275" s="3">
+        <v>100</v>
+      </c>
+      <c r="K275" s="3">
+        <v>98.62068965517241</v>
+      </c>
+      <c r="L275" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="276" spans="1:12">
+      <c r="A276" s="2">
+        <v>45942</v>
+      </c>
+      <c r="B276" s="3">
+        <v>10</v>
+      </c>
+      <c r="C276" s="3">
+        <v>989</v>
+      </c>
+      <c r="D276" s="3">
+        <v>459</v>
+      </c>
+      <c r="E276" s="3">
+        <v>457</v>
+      </c>
+      <c r="F276" s="3">
+        <v>2</v>
+      </c>
+      <c r="G276" s="4">
+        <v>0.9956427015250546</v>
+      </c>
+      <c r="H276" s="4">
+        <v>1</v>
+      </c>
+      <c r="I276" s="5">
+        <v>121.6216216216216</v>
+      </c>
+      <c r="J276" s="3">
+        <v>100</v>
+      </c>
+      <c r="K276" s="3">
+        <v>100</v>
+      </c>
+      <c r="L276" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="277" spans="1:12">
+      <c r="A277" s="2">
+        <v>45942</v>
+      </c>
+      <c r="B277" s="3">
+        <v>11</v>
+      </c>
+      <c r="C277" s="3">
+        <v>1068</v>
+      </c>
+      <c r="D277" s="3">
+        <v>537</v>
+      </c>
+      <c r="E277" s="3">
+        <v>537</v>
+      </c>
+      <c r="F277" s="3">
+        <v>0</v>
+      </c>
+      <c r="G277" s="4">
+        <v>1</v>
+      </c>
+      <c r="H277" s="4">
+        <v>1</v>
+      </c>
+      <c r="I277" s="5">
+        <v>128.0075471698113</v>
+      </c>
+      <c r="J277" s="3">
+        <v>100</v>
+      </c>
+      <c r="K277" s="3">
+        <v>100</v>
+      </c>
+      <c r="L277" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="278" spans="1:12">
+      <c r="A278" s="2">
+        <v>45942</v>
+      </c>
+      <c r="B278" s="3">
+        <v>12</v>
+      </c>
+      <c r="C278" s="3">
+        <v>972</v>
+      </c>
+      <c r="D278" s="3">
+        <v>488</v>
+      </c>
+      <c r="E278" s="3">
+        <v>488</v>
+      </c>
+      <c r="F278" s="3">
+        <v>0</v>
+      </c>
+      <c r="G278" s="4">
+        <v>1</v>
+      </c>
+      <c r="H278" s="4">
+        <v>1</v>
+      </c>
+      <c r="I278" s="5">
+        <v>125.3904958677686</v>
+      </c>
+      <c r="J278" s="3">
+        <v>100</v>
+      </c>
+      <c r="K278" s="3">
+        <v>100</v>
+      </c>
+      <c r="L278" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="279" spans="1:12">
+      <c r="A279" s="2">
+        <v>45942</v>
+      </c>
+      <c r="B279" s="3">
+        <v>13</v>
+      </c>
+      <c r="C279" s="3">
+        <v>768</v>
+      </c>
+      <c r="D279" s="3">
+        <v>370</v>
+      </c>
+      <c r="E279" s="3">
+        <v>369</v>
+      </c>
+      <c r="F279" s="3">
+        <v>1</v>
+      </c>
+      <c r="G279" s="4">
+        <v>0.9972972972972972</v>
+      </c>
+      <c r="H279" s="4">
+        <v>1</v>
+      </c>
+      <c r="I279" s="5">
+        <v>134.3873626373626</v>
+      </c>
+      <c r="J279" s="3">
+        <v>100</v>
+      </c>
+      <c r="K279" s="3">
+        <v>100</v>
+      </c>
+      <c r="L279" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="280" spans="1:12">
+      <c r="A280" s="2">
+        <v>45942</v>
+      </c>
+      <c r="B280" s="3">
+        <v>14</v>
+      </c>
+      <c r="C280" s="3">
+        <v>776</v>
+      </c>
+      <c r="D280" s="3">
+        <v>353</v>
+      </c>
+      <c r="E280" s="3">
+        <v>353</v>
+      </c>
+      <c r="F280" s="3">
+        <v>0</v>
+      </c>
+      <c r="G280" s="4">
+        <v>1</v>
+      </c>
+      <c r="H280" s="4">
+        <v>1</v>
+      </c>
+      <c r="I280" s="5">
+        <v>128.4011627906977</v>
+      </c>
+      <c r="J280" s="3">
+        <v>100</v>
+      </c>
+      <c r="K280" s="3">
+        <v>100</v>
+      </c>
+      <c r="L280" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="281" spans="1:12">
+      <c r="A281" s="2">
+        <v>45942</v>
+      </c>
+      <c r="B281" s="3">
+        <v>15</v>
+      </c>
+      <c r="C281" s="3">
+        <v>847</v>
+      </c>
+      <c r="D281" s="3">
+        <v>344</v>
+      </c>
+      <c r="E281" s="3">
+        <v>344</v>
+      </c>
+      <c r="F281" s="3">
+        <v>0</v>
+      </c>
+      <c r="G281" s="4">
+        <v>1</v>
+      </c>
+      <c r="H281" s="4">
+        <v>1</v>
+      </c>
+      <c r="I281" s="5">
+        <v>137.103550295858</v>
+      </c>
+      <c r="J281" s="3">
+        <v>100</v>
+      </c>
+      <c r="K281" s="3">
+        <v>100</v>
+      </c>
+      <c r="L281" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="282" spans="1:12">
+      <c r="A282" s="2">
+        <v>45942</v>
+      </c>
+      <c r="B282" s="3">
+        <v>16</v>
+      </c>
+      <c r="C282" s="3">
+        <v>767</v>
+      </c>
+      <c r="D282" s="3">
+        <v>368</v>
+      </c>
+      <c r="E282" s="3">
+        <v>368</v>
+      </c>
+      <c r="F282" s="3">
+        <v>0</v>
+      </c>
+      <c r="G282" s="4">
+        <v>1</v>
+      </c>
+      <c r="H282" s="4">
+        <v>1</v>
+      </c>
+      <c r="I282" s="5">
+        <v>142.8164383561644</v>
+      </c>
+      <c r="J282" s="3">
+        <v>100</v>
+      </c>
+      <c r="K282" s="3">
+        <v>100</v>
+      </c>
+      <c r="L282" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="283" spans="1:12">
+      <c r="A283" s="2">
+        <v>45942</v>
+      </c>
+      <c r="B283" s="3">
+        <v>17</v>
+      </c>
+      <c r="C283" s="3">
+        <v>819</v>
+      </c>
+      <c r="D283" s="3">
+        <v>380</v>
+      </c>
+      <c r="E283" s="3">
+        <v>380</v>
+      </c>
+      <c r="F283" s="3">
+        <v>0</v>
+      </c>
+      <c r="G283" s="4">
+        <v>1</v>
+      </c>
+      <c r="H283" s="4">
+        <v>1</v>
+      </c>
+      <c r="I283" s="5">
+        <v>140.3037634408602</v>
+      </c>
+      <c r="J283" s="3">
+        <v>100</v>
+      </c>
+      <c r="K283" s="3">
+        <v>100</v>
+      </c>
+      <c r="L283" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="284" spans="1:12">
+      <c r="A284" s="2">
+        <v>45942</v>
+      </c>
+      <c r="B284" s="3">
+        <v>18</v>
+      </c>
+      <c r="C284" s="3">
+        <v>960</v>
+      </c>
+      <c r="D284" s="3">
+        <v>447</v>
+      </c>
+      <c r="E284" s="3">
+        <v>447</v>
+      </c>
+      <c r="F284" s="3">
+        <v>0</v>
+      </c>
+      <c r="G284" s="4">
+        <v>1</v>
+      </c>
+      <c r="H284" s="4">
+        <v>1</v>
+      </c>
+      <c r="I284" s="5">
+        <v>136.8140589569161</v>
+      </c>
+      <c r="J284" s="3">
+        <v>100</v>
+      </c>
+      <c r="K284" s="3">
+        <v>100</v>
+      </c>
+      <c r="L284" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="285" spans="1:12">
+      <c r="A285" s="2">
+        <v>45942</v>
+      </c>
+      <c r="B285" s="3">
+        <v>19</v>
+      </c>
+      <c r="C285" s="3">
+        <v>1032</v>
+      </c>
+      <c r="D285" s="3">
+        <v>484</v>
+      </c>
+      <c r="E285" s="3">
+        <v>483</v>
+      </c>
+      <c r="F285" s="3">
+        <v>1</v>
+      </c>
+      <c r="G285" s="4">
+        <v>0.9979338842975206</v>
+      </c>
+      <c r="H285" s="4">
+        <v>1</v>
+      </c>
+      <c r="I285" s="5">
+        <v>133.7115789473684</v>
+      </c>
+      <c r="J285" s="3">
+        <v>100</v>
+      </c>
+      <c r="K285" s="3">
+        <v>100</v>
+      </c>
+      <c r="L285" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="286" spans="1:12">
+      <c r="A286" s="2">
+        <v>45942</v>
+      </c>
+      <c r="B286" s="3">
+        <v>20</v>
+      </c>
+      <c r="C286" s="3">
+        <v>768</v>
+      </c>
+      <c r="D286" s="3">
+        <v>370</v>
+      </c>
+      <c r="E286" s="3">
+        <v>367</v>
+      </c>
+      <c r="F286" s="3">
+        <v>3</v>
+      </c>
+      <c r="G286" s="4">
+        <v>0.991891891891892</v>
+      </c>
+      <c r="H286" s="4">
+        <v>0.9836956521739131</v>
+      </c>
+      <c r="I286" s="5">
+        <v>133.1939058171745</v>
+      </c>
+      <c r="J286" s="3">
+        <v>98.98477157360406</v>
+      </c>
+      <c r="K286" s="3">
+        <v>97.16981132075472</v>
+      </c>
+      <c r="L286" s="3">
+        <v>98.46153846153847</v>
+      </c>
+    </row>
+    <row r="287" spans="1:12">
+      <c r="A287" s="2">
+        <v>45942</v>
+      </c>
+      <c r="B287" s="3">
+        <v>21</v>
+      </c>
+      <c r="C287" s="3">
+        <v>579</v>
+      </c>
+      <c r="D287" s="3">
+        <v>254</v>
+      </c>
+      <c r="E287" s="3">
+        <v>253</v>
+      </c>
+      <c r="F287" s="3">
+        <v>1</v>
+      </c>
+      <c r="G287" s="4">
+        <v>0.9960629921259843</v>
+      </c>
+      <c r="H287" s="4">
+        <v>0.9960474308300395</v>
+      </c>
+      <c r="I287" s="5">
+        <v>145.8055555555555</v>
+      </c>
+      <c r="J287" s="3">
+        <v>99.19354838709677</v>
+      </c>
+      <c r="K287" s="3">
+        <v>100</v>
+      </c>
+      <c r="L287" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="288" spans="1:12">
+      <c r="A288" s="2">
+        <v>45942</v>
+      </c>
+      <c r="B288" s="3">
+        <v>22</v>
+      </c>
+      <c r="C288" s="3">
+        <v>366</v>
+      </c>
+      <c r="D288" s="3">
+        <v>171</v>
+      </c>
+      <c r="E288" s="3">
+        <v>171</v>
+      </c>
+      <c r="F288" s="3">
+        <v>0</v>
+      </c>
+      <c r="G288" s="4">
+        <v>1</v>
+      </c>
+      <c r="H288" s="4">
+        <v>1</v>
+      </c>
+      <c r="I288" s="5">
+        <v>148.2046783625731</v>
+      </c>
+      <c r="J288" s="3">
+        <v>100</v>
+      </c>
+      <c r="K288" s="3">
+        <v>100</v>
+      </c>
+      <c r="L288" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="289" spans="1:12">
+      <c r="A289" s="2">
+        <v>45942</v>
+      </c>
+      <c r="B289" s="3">
+        <v>23</v>
+      </c>
+      <c r="C289" s="3">
+        <v>237</v>
+      </c>
+      <c r="D289" s="3">
+        <v>134</v>
+      </c>
+      <c r="E289" s="3">
+        <v>134</v>
+      </c>
+      <c r="F289" s="3">
+        <v>0</v>
+      </c>
+      <c r="G289" s="4">
+        <v>1</v>
+      </c>
+      <c r="H289" s="4">
+        <v>1</v>
+      </c>
+      <c r="I289" s="5">
+        <v>110.8813559322034</v>
+      </c>
+      <c r="J289" s="3">
+        <v>100</v>
+      </c>
+      <c r="K289" s="3">
+        <v>100</v>
+      </c>
+      <c r="L289" s="3">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16462,7 +17817,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK49"/>
+  <dimension ref="A1:AK53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -21557,454 +22912,906 @@
       </c>
     </row>
     <row r="46" spans="1:37">
-      <c r="A46" s="3" t="s">
-        <v>36</v>
+      <c r="A46" s="2">
+        <v>45942</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C46" s="3">
-        <v>4203</v>
+        <v>282</v>
       </c>
       <c r="D46" s="3">
-        <v>1773</v>
+        <v>115</v>
       </c>
       <c r="E46" s="3">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="F46" s="3">
-        <v>1719</v>
+        <v>113</v>
       </c>
       <c r="G46" s="4">
-        <v>0.03045685279187817</v>
+        <v>0.01739130434782609</v>
       </c>
       <c r="H46" s="5">
-        <v>57.50423011844332</v>
+        <v>50.81739130434783</v>
       </c>
       <c r="I46" s="3">
-        <v>2430</v>
+        <v>167</v>
       </c>
       <c r="J46" s="4">
-        <v>0.4218415417558887</v>
+        <v>0.4078014184397163</v>
       </c>
       <c r="K46" s="3">
-        <v>2430</v>
+        <v>167</v>
       </c>
       <c r="L46" s="3">
-        <v>2388</v>
+        <v>166</v>
       </c>
       <c r="M46" s="3">
-        <v>2328</v>
+        <v>161</v>
       </c>
       <c r="N46" s="3">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="O46" s="3">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="P46" s="3">
-        <v>2419</v>
+        <v>166</v>
       </c>
       <c r="Q46" s="4">
-        <v>0.9871847871021083</v>
+        <v>1</v>
       </c>
       <c r="R46" s="4">
-        <v>0.01281521289789168</v>
+        <v>0</v>
       </c>
       <c r="S46" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="T46" s="3">
-        <v>2374</v>
+        <v>165</v>
       </c>
       <c r="U46" s="3">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="V46" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="W46" s="4">
-        <v>0.9920601755119097</v>
+        <v>0.993975903614458</v>
       </c>
       <c r="X46" s="5">
-        <v>140.5910652920962</v>
+        <v>124.6583850931677</v>
       </c>
       <c r="Y46" s="5">
-        <v>5.004725085910653</v>
+        <v>3.565217391304348</v>
       </c>
       <c r="Z46" s="3">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="AA46" s="5">
         <v>60</v>
       </c>
       <c r="AB46" s="3">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="AC46" s="4">
         <v>1</v>
       </c>
       <c r="AD46" s="3">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="AE46" s="5">
         <v>45</v>
       </c>
       <c r="AF46" s="3">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="AG46" s="4">
         <v>1</v>
       </c>
       <c r="AH46" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AI46" s="5">
         <v>30</v>
       </c>
       <c r="AJ46" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AK46" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:37">
-      <c r="A47" s="3" t="s">
-        <v>36</v>
+      <c r="A47" s="2">
+        <v>45942</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C47" s="3">
-        <v>2802</v>
+        <v>247</v>
       </c>
       <c r="D47" s="3">
-        <v>1340</v>
+        <v>117</v>
       </c>
       <c r="E47" s="3">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="F47" s="3">
-        <v>1283</v>
+        <v>109</v>
       </c>
       <c r="G47" s="4">
-        <v>0.04253731343283582</v>
+        <v>0.06837606837606838</v>
       </c>
       <c r="H47" s="5">
-        <v>67.36940298507463</v>
+        <v>61.74358974358974</v>
       </c>
       <c r="I47" s="3">
-        <v>1462</v>
+        <v>130</v>
       </c>
       <c r="J47" s="4">
-        <v>0.4782298358315489</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="K47" s="3">
-        <v>1462</v>
+        <v>130</v>
       </c>
       <c r="L47" s="3">
-        <v>1436</v>
+        <v>127</v>
       </c>
       <c r="M47" s="3">
-        <v>1394</v>
+        <v>126</v>
       </c>
       <c r="N47" s="3">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="O47" s="3">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="P47" s="3">
-        <v>1459</v>
+        <v>130</v>
       </c>
       <c r="Q47" s="4">
-        <v>0.984235777930089</v>
+        <v>0.9769230769230769</v>
       </c>
       <c r="R47" s="4">
-        <v>0.01576422206991097</v>
+        <v>0.02307692307692306</v>
       </c>
       <c r="S47" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T47" s="3">
-        <v>1421</v>
+        <v>125</v>
       </c>
       <c r="U47" s="3">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="V47" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="W47" s="4">
-        <v>0.9854368932038835</v>
+        <v>0.984251968503937</v>
       </c>
       <c r="X47" s="5">
-        <v>103.0294117647059</v>
+        <v>92.34126984126983</v>
       </c>
       <c r="Y47" s="5">
-        <v>7.16571018651363</v>
+        <v>7.642857142857143</v>
       </c>
       <c r="Z47" s="3">
-        <v>75</v>
+        <v>7</v>
       </c>
       <c r="AA47" s="5">
         <v>60</v>
       </c>
       <c r="AB47" s="3">
-        <v>75</v>
+        <v>7</v>
       </c>
       <c r="AC47" s="4">
         <v>1</v>
       </c>
       <c r="AD47" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AE47" s="5">
         <v>45</v>
       </c>
       <c r="AF47" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AG47" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH47" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AI47" s="5">
         <v>30</v>
       </c>
       <c r="AJ47" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AK47" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:37">
-      <c r="A48" s="3" t="s">
-        <v>36</v>
+      <c r="A48" s="2">
+        <v>45942</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C48" s="3">
-        <v>99051</v>
+        <v>7327</v>
       </c>
       <c r="D48" s="3">
-        <v>58149</v>
+        <v>4291</v>
       </c>
       <c r="E48" s="3">
-        <v>13942</v>
+        <v>1171</v>
       </c>
       <c r="F48" s="3">
-        <v>44207</v>
+        <v>3120</v>
       </c>
       <c r="G48" s="4">
-        <v>0.2397633665239299</v>
+        <v>0.2728967606618504</v>
       </c>
       <c r="H48" s="5">
-        <v>43.36946465115479</v>
+        <v>42.1647634584013</v>
       </c>
       <c r="I48" s="3">
-        <v>40902</v>
+        <v>3036</v>
       </c>
       <c r="J48" s="4">
-        <v>0.587061210891359</v>
+        <v>0.5856421454892862</v>
       </c>
       <c r="K48" s="3">
-        <v>40902</v>
+        <v>3036</v>
       </c>
       <c r="L48" s="3">
-        <v>40449</v>
+        <v>3007</v>
       </c>
       <c r="M48" s="3">
-        <v>39593</v>
+        <v>2946</v>
       </c>
       <c r="N48" s="3">
-        <v>856</v>
+        <v>61</v>
       </c>
       <c r="O48" s="3">
-        <v>396</v>
+        <v>25</v>
       </c>
       <c r="P48" s="3">
-        <v>40845</v>
+        <v>3032</v>
       </c>
       <c r="Q48" s="4">
-        <v>0.9903048108703636</v>
+        <v>0.991754617414248</v>
       </c>
       <c r="R48" s="4">
-        <v>0.009695189129636361</v>
+        <v>0.008245382585752026</v>
       </c>
       <c r="S48" s="3">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="T48" s="3">
-        <v>40148</v>
+        <v>2986</v>
       </c>
       <c r="U48" s="3">
-        <v>301</v>
+        <v>21</v>
       </c>
       <c r="V48" s="3">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="W48" s="4">
-        <v>0.9904038286010313</v>
+        <v>0.9900530503978779</v>
       </c>
       <c r="X48" s="5">
-        <v>133.9987624074963</v>
+        <v>136.316700610998</v>
       </c>
       <c r="Y48" s="5">
-        <v>5.248250953451367</v>
+        <v>4.306856754921928</v>
       </c>
       <c r="Z48" s="3">
-        <v>2400</v>
+        <v>205</v>
       </c>
       <c r="AA48" s="5">
         <v>60</v>
       </c>
       <c r="AB48" s="3">
-        <v>2393</v>
+        <v>205</v>
       </c>
       <c r="AC48" s="4">
-        <v>0.9970833333333333</v>
+        <v>1</v>
       </c>
       <c r="AD48" s="3">
-        <v>187</v>
+        <v>15</v>
       </c>
       <c r="AE48" s="5">
         <v>45</v>
       </c>
       <c r="AF48" s="3">
-        <v>187</v>
+        <v>15</v>
       </c>
       <c r="AG48" s="4">
         <v>1</v>
       </c>
       <c r="AH48" s="3">
-        <v>110</v>
+        <v>4</v>
       </c>
       <c r="AI48" s="5">
         <v>30</v>
       </c>
       <c r="AJ48" s="3">
-        <v>110</v>
+        <v>4</v>
       </c>
       <c r="AK48" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:37">
-      <c r="A49" s="3" t="s">
-        <v>36</v>
+      <c r="A49" s="2">
+        <v>45942</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C49" s="3">
-        <v>77803</v>
+        <v>5806</v>
       </c>
       <c r="D49" s="3">
-        <v>35888</v>
+        <v>2703</v>
       </c>
       <c r="E49" s="3">
-        <v>11895</v>
+        <v>915</v>
       </c>
       <c r="F49" s="3">
-        <v>23993</v>
+        <v>1788</v>
       </c>
       <c r="G49" s="4">
-        <v>0.3314478377173428</v>
+        <v>0.3385127635960045</v>
       </c>
       <c r="H49" s="5">
-        <v>30.16771622826571</v>
+        <v>28.89567147613763</v>
       </c>
       <c r="I49" s="3">
-        <v>41915</v>
+        <v>3103</v>
       </c>
       <c r="J49" s="4">
-        <v>0.4612675603768493</v>
+        <v>0.4655528763348261</v>
       </c>
       <c r="K49" s="3">
-        <v>41915</v>
+        <v>3103</v>
       </c>
       <c r="L49" s="3">
-        <v>41266</v>
+        <v>3080</v>
       </c>
       <c r="M49" s="3">
-        <v>40620</v>
+        <v>3025</v>
       </c>
       <c r="N49" s="3">
-        <v>646</v>
+        <v>55</v>
       </c>
       <c r="O49" s="3">
-        <v>563</v>
+        <v>18</v>
       </c>
       <c r="P49" s="3">
-        <v>41829</v>
+        <v>3098</v>
       </c>
       <c r="Q49" s="4">
-        <v>0.9865404384517918</v>
+        <v>0.9941897998708843</v>
       </c>
       <c r="R49" s="4">
-        <v>0.01345956154820811</v>
+        <v>0.005810200129115657</v>
       </c>
       <c r="S49" s="3">
-        <v>86</v>
+        <v>5</v>
       </c>
       <c r="T49" s="3">
-        <v>40960</v>
+        <v>3070</v>
       </c>
       <c r="U49" s="3">
-        <v>306</v>
+        <v>10</v>
       </c>
       <c r="V49" s="3">
-        <v>140</v>
+        <v>5</v>
       </c>
       <c r="W49" s="4">
-        <v>0.9892286142105009</v>
+        <v>0.9951377633711506</v>
       </c>
       <c r="X49" s="5">
-        <v>129.8890201871</v>
+        <v>126.6185123966942</v>
       </c>
       <c r="Y49" s="5">
-        <v>4.970901033973412</v>
+        <v>2.968925619834711</v>
       </c>
       <c r="Z49" s="3">
-        <v>2837</v>
+        <v>233</v>
       </c>
       <c r="AA49" s="5">
         <v>60</v>
       </c>
       <c r="AB49" s="3">
-        <v>2829</v>
+        <v>233</v>
       </c>
       <c r="AC49" s="4">
-        <v>0.9971801198449066</v>
+        <v>1</v>
       </c>
       <c r="AD49" s="3">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="AE49" s="5">
         <v>45</v>
       </c>
       <c r="AF49" s="3">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="AG49" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH49" s="3">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="AI49" s="5">
         <v>30</v>
       </c>
       <c r="AJ49" s="3">
+        <v>5</v>
+      </c>
+      <c r="AK49" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:37">
+      <c r="A50" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C50" s="3">
+        <v>4485</v>
+      </c>
+      <c r="D50" s="3">
+        <v>1888</v>
+      </c>
+      <c r="E50" s="3">
+        <v>56</v>
+      </c>
+      <c r="F50" s="3">
+        <v>1832</v>
+      </c>
+      <c r="G50" s="4">
+        <v>0.02966101694915254</v>
+      </c>
+      <c r="H50" s="5">
+        <v>57.0969279661017</v>
+      </c>
+      <c r="I50" s="3">
+        <v>2597</v>
+      </c>
+      <c r="J50" s="4">
+        <v>0.420958751393534</v>
+      </c>
+      <c r="K50" s="3">
+        <v>2597</v>
+      </c>
+      <c r="L50" s="3">
+        <v>2554</v>
+      </c>
+      <c r="M50" s="3">
+        <v>2489</v>
+      </c>
+      <c r="N50" s="3">
+        <v>65</v>
+      </c>
+      <c r="O50" s="3">
+        <v>31</v>
+      </c>
+      <c r="P50" s="3">
+        <v>2585</v>
+      </c>
+      <c r="Q50" s="4">
+        <v>0.9880077369439071</v>
+      </c>
+      <c r="R50" s="4">
+        <v>0.01199226305609287</v>
+      </c>
+      <c r="S50" s="3">
+        <v>12</v>
+      </c>
+      <c r="T50" s="3">
+        <v>2539</v>
+      </c>
+      <c r="U50" s="3">
+        <v>15</v>
+      </c>
+      <c r="V50" s="3">
+        <v>5</v>
+      </c>
+      <c r="W50" s="4">
+        <v>0.9921844470496288</v>
+      </c>
+      <c r="X50" s="5">
+        <v>139.5604660506228</v>
+      </c>
+      <c r="Y50" s="5">
+        <v>4.911611088790679</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>142</v>
+      </c>
+      <c r="AA50" s="5">
+        <v>60</v>
+      </c>
+      <c r="AB50" s="3">
+        <v>142</v>
+      </c>
+      <c r="AC50" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>15</v>
+      </c>
+      <c r="AE50" s="5">
+        <v>45</v>
+      </c>
+      <c r="AF50" s="3">
+        <v>15</v>
+      </c>
+      <c r="AG50" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH50" s="3">
+        <v>8</v>
+      </c>
+      <c r="AI50" s="5">
         <v>30</v>
       </c>
-      <c r="AK49" s="4">
+      <c r="AJ50" s="3">
+        <v>8</v>
+      </c>
+      <c r="AK50" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:37">
+      <c r="A51" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C51" s="3">
+        <v>3049</v>
+      </c>
+      <c r="D51" s="3">
+        <v>1457</v>
+      </c>
+      <c r="E51" s="3">
+        <v>65</v>
+      </c>
+      <c r="F51" s="3">
+        <v>1392</v>
+      </c>
+      <c r="G51" s="4">
+        <v>0.04461221688400824</v>
+      </c>
+      <c r="H51" s="5">
+        <v>66.91763898421414</v>
+      </c>
+      <c r="I51" s="3">
+        <v>1592</v>
+      </c>
+      <c r="J51" s="4">
+        <v>0.4778615939652344</v>
+      </c>
+      <c r="K51" s="3">
+        <v>1592</v>
+      </c>
+      <c r="L51" s="3">
+        <v>1563</v>
+      </c>
+      <c r="M51" s="3">
+        <v>1520</v>
+      </c>
+      <c r="N51" s="3">
+        <v>43</v>
+      </c>
+      <c r="O51" s="3">
+        <v>26</v>
+      </c>
+      <c r="P51" s="3">
+        <v>1589</v>
+      </c>
+      <c r="Q51" s="4">
+        <v>0.9836375078665828</v>
+      </c>
+      <c r="R51" s="4">
+        <v>0.01636249213341728</v>
+      </c>
+      <c r="S51" s="3">
+        <v>3</v>
+      </c>
+      <c r="T51" s="3">
+        <v>1546</v>
+      </c>
+      <c r="U51" s="3">
+        <v>17</v>
+      </c>
+      <c r="V51" s="3">
+        <v>6</v>
+      </c>
+      <c r="W51" s="4">
+        <v>0.9853409815168898</v>
+      </c>
+      <c r="X51" s="5">
+        <v>102.1434210526316</v>
+      </c>
+      <c r="Y51" s="5">
+        <v>7.205263157894737</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>82</v>
+      </c>
+      <c r="AA51" s="5">
+        <v>60</v>
+      </c>
+      <c r="AB51" s="3">
+        <v>82</v>
+      </c>
+      <c r="AC51" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE51" s="5">
+        <v>45</v>
+      </c>
+      <c r="AF51" s="3">
+        <v>5</v>
+      </c>
+      <c r="AG51" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH51" s="3">
+        <v>9</v>
+      </c>
+      <c r="AI51" s="5">
+        <v>30</v>
+      </c>
+      <c r="AJ51" s="3">
+        <v>9</v>
+      </c>
+      <c r="AK51" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:37">
+      <c r="A52" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C52" s="3">
+        <v>106378</v>
+      </c>
+      <c r="D52" s="3">
+        <v>62440</v>
+      </c>
+      <c r="E52" s="3">
+        <v>15113</v>
+      </c>
+      <c r="F52" s="3">
+        <v>47327</v>
+      </c>
+      <c r="G52" s="4">
+        <v>0.2420403587443946</v>
+      </c>
+      <c r="H52" s="5">
+        <v>43.28667520819987</v>
+      </c>
+      <c r="I52" s="3">
+        <v>43938</v>
+      </c>
+      <c r="J52" s="4">
+        <v>0.5869634698903908</v>
+      </c>
+      <c r="K52" s="3">
+        <v>43938</v>
+      </c>
+      <c r="L52" s="3">
+        <v>43456</v>
+      </c>
+      <c r="M52" s="3">
+        <v>42539</v>
+      </c>
+      <c r="N52" s="3">
+        <v>917</v>
+      </c>
+      <c r="O52" s="3">
+        <v>421</v>
+      </c>
+      <c r="P52" s="3">
+        <v>43877</v>
+      </c>
+      <c r="Q52" s="4">
+        <v>0.990404995783668</v>
+      </c>
+      <c r="R52" s="4">
+        <v>0.009595004216331944</v>
+      </c>
+      <c r="S52" s="3">
+        <v>61</v>
+      </c>
+      <c r="T52" s="3">
+        <v>43134</v>
+      </c>
+      <c r="U52" s="3">
+        <v>322</v>
+      </c>
+      <c r="V52" s="3">
+        <v>97</v>
+      </c>
+      <c r="W52" s="4">
+        <v>0.9903795375749087</v>
+      </c>
+      <c r="X52" s="5">
+        <v>134.1592891229225</v>
+      </c>
+      <c r="Y52" s="5">
+        <v>5.1830555490256</v>
+      </c>
+      <c r="Z52" s="3">
+        <v>2605</v>
+      </c>
+      <c r="AA52" s="5">
+        <v>60</v>
+      </c>
+      <c r="AB52" s="3">
+        <v>2598</v>
+      </c>
+      <c r="AC52" s="4">
+        <v>0.9973128598848369</v>
+      </c>
+      <c r="AD52" s="3">
+        <v>202</v>
+      </c>
+      <c r="AE52" s="5">
+        <v>45</v>
+      </c>
+      <c r="AF52" s="3">
+        <v>202</v>
+      </c>
+      <c r="AG52" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH52" s="3">
+        <v>114</v>
+      </c>
+      <c r="AI52" s="5">
+        <v>30</v>
+      </c>
+      <c r="AJ52" s="3">
+        <v>114</v>
+      </c>
+      <c r="AK52" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:37">
+      <c r="A53" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C53" s="3">
+        <v>83609</v>
+      </c>
+      <c r="D53" s="3">
+        <v>38591</v>
+      </c>
+      <c r="E53" s="3">
+        <v>12810</v>
+      </c>
+      <c r="F53" s="3">
+        <v>25781</v>
+      </c>
+      <c r="G53" s="4">
+        <v>0.3319426809359695</v>
+      </c>
+      <c r="H53" s="5">
+        <v>30.07861936720997</v>
+      </c>
+      <c r="I53" s="3">
+        <v>45018</v>
+      </c>
+      <c r="J53" s="4">
+        <v>0.4615651425085816</v>
+      </c>
+      <c r="K53" s="3">
+        <v>45018</v>
+      </c>
+      <c r="L53" s="3">
+        <v>44346</v>
+      </c>
+      <c r="M53" s="3">
+        <v>43645</v>
+      </c>
+      <c r="N53" s="3">
+        <v>701</v>
+      </c>
+      <c r="O53" s="3">
+        <v>581</v>
+      </c>
+      <c r="P53" s="3">
+        <v>44927</v>
+      </c>
+      <c r="Q53" s="4">
+        <v>0.9870679101653795</v>
+      </c>
+      <c r="R53" s="4">
+        <v>0.01293208983462051</v>
+      </c>
+      <c r="S53" s="3">
+        <v>91</v>
+      </c>
+      <c r="T53" s="3">
+        <v>44030</v>
+      </c>
+      <c r="U53" s="3">
+        <v>316</v>
+      </c>
+      <c r="V53" s="3">
+        <v>145</v>
+      </c>
+      <c r="W53" s="4">
+        <v>0.9896383538243689</v>
+      </c>
+      <c r="X53" s="5">
+        <v>129.6623439111009</v>
+      </c>
+      <c r="Y53" s="5">
+        <v>4.832145721159354</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>3070</v>
+      </c>
+      <c r="AA53" s="5">
+        <v>60</v>
+      </c>
+      <c r="AB53" s="3">
+        <v>3062</v>
+      </c>
+      <c r="AC53" s="4">
+        <v>0.9973941368078176</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>45</v>
+      </c>
+      <c r="AE53" s="5">
+        <v>45</v>
+      </c>
+      <c r="AF53" s="3">
+        <v>45</v>
+      </c>
+      <c r="AG53" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH53" s="3">
+        <v>35</v>
+      </c>
+      <c r="AI53" s="5">
+        <v>30</v>
+      </c>
+      <c r="AJ53" s="3">
+        <v>35</v>
+      </c>
+      <c r="AK53" s="4">
         <v>1</v>
       </c>
     </row>
@@ -22015,13 +23822,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -22058,8 +23865,11 @@
       <c r="L1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2">
         <v>0</v>
       </c>
@@ -22096,8 +23906,11 @@
       <c r="L2">
         <v>129</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3">
         <v>1</v>
       </c>
@@ -22134,8 +23947,11 @@
       <c r="L3">
         <v>59</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>2</v>
       </c>
@@ -22172,8 +23988,11 @@
       <c r="L4">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>3</v>
       </c>
@@ -22210,8 +24029,11 @@
       <c r="L5">
         <v>60</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>4</v>
       </c>
@@ -22248,8 +24070,11 @@
       <c r="L6">
         <v>41</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>5</v>
       </c>
@@ -22286,8 +24111,11 @@
       <c r="L7">
         <v>84</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>6</v>
       </c>
@@ -22324,8 +24152,11 @@
       <c r="L8">
         <v>225</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>7</v>
       </c>
@@ -22362,8 +24193,11 @@
       <c r="L9">
         <v>490</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10">
         <v>8</v>
       </c>
@@ -22400,8 +24234,11 @@
       <c r="L10">
         <v>711</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11">
         <v>9</v>
       </c>
@@ -22438,8 +24275,11 @@
       <c r="L11">
         <v>954</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12">
         <v>10</v>
       </c>
@@ -22476,8 +24316,11 @@
       <c r="L12">
         <v>1161</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13">
         <v>11</v>
       </c>
@@ -22514,8 +24357,11 @@
       <c r="L13">
         <v>1287</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14">
         <v>12</v>
       </c>
@@ -22552,8 +24398,11 @@
       <c r="L14">
         <v>1111</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15">
         <v>13</v>
       </c>
@@ -22590,8 +24439,11 @@
       <c r="L15">
         <v>1062</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16">
         <v>14</v>
       </c>
@@ -22628,8 +24480,11 @@
       <c r="L16">
         <v>957</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17">
         <v>15</v>
       </c>
@@ -22666,8 +24521,11 @@
       <c r="L17">
         <v>950</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18">
         <v>16</v>
       </c>
@@ -22704,8 +24562,11 @@
       <c r="L18">
         <v>888</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19">
         <v>17</v>
       </c>
@@ -22742,8 +24603,11 @@
       <c r="L19">
         <v>831</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20">
         <v>18</v>
       </c>
@@ -22780,8 +24644,11 @@
       <c r="L20">
         <v>959</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21">
         <v>19</v>
       </c>
@@ -22818,8 +24685,11 @@
       <c r="L21">
         <v>1214</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22">
         <v>20</v>
       </c>
@@ -22856,8 +24726,11 @@
       <c r="L22">
         <v>956</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23">
         <v>21</v>
       </c>
@@ -22894,8 +24767,11 @@
       <c r="L23">
         <v>735</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24">
         <v>22</v>
       </c>
@@ -22932,8 +24808,11 @@
       <c r="L24">
         <v>497</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25">
         <v>23</v>
       </c>
@@ -22970,9 +24849,12 @@
       <c r="L25">
         <v>240</v>
       </c>
+      <c r="M25">
+        <v>237</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:L25">
+  <conditionalFormatting sqref="B2:M25">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -22990,13 +24872,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -23033,8 +24915,11 @@
       <c r="L1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2">
         <v>0</v>
       </c>
@@ -23071,8 +24956,11 @@
       <c r="L2">
         <v>131</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3">
         <v>1</v>
       </c>
@@ -23109,8 +24997,11 @@
       <c r="L3">
         <v>88</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>2</v>
       </c>
@@ -23147,8 +25038,11 @@
       <c r="L4">
         <v>90</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>3</v>
       </c>
@@ -23185,8 +25079,11 @@
       <c r="L5">
         <v>171</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>4</v>
       </c>
@@ -23223,8 +25120,11 @@
       <c r="L6">
         <v>105</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>5</v>
       </c>
@@ -23261,8 +25161,11 @@
       <c r="L7">
         <v>124</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>6</v>
       </c>
@@ -23299,8 +25202,11 @@
       <c r="L8">
         <v>130</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>7</v>
       </c>
@@ -23337,8 +25243,11 @@
       <c r="L9">
         <v>120</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10">
         <v>8</v>
       </c>
@@ -23375,8 +25284,11 @@
       <c r="L10">
         <v>128</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11">
         <v>9</v>
       </c>
@@ -23413,8 +25325,11 @@
       <c r="L11">
         <v>134</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12">
         <v>10</v>
       </c>
@@ -23451,8 +25366,11 @@
       <c r="L12">
         <v>129</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13">
         <v>11</v>
       </c>
@@ -23489,8 +25407,11 @@
       <c r="L13">
         <v>119</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14">
         <v>12</v>
       </c>
@@ -23527,8 +25448,11 @@
       <c r="L14">
         <v>135</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15">
         <v>13</v>
       </c>
@@ -23565,8 +25489,11 @@
       <c r="L15">
         <v>133</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16">
         <v>14</v>
       </c>
@@ -23603,8 +25530,11 @@
       <c r="L16">
         <v>122</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17">
         <v>15</v>
       </c>
@@ -23641,8 +25571,11 @@
       <c r="L17">
         <v>123</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18">
         <v>16</v>
       </c>
@@ -23679,8 +25612,11 @@
       <c r="L18">
         <v>143</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19">
         <v>17</v>
       </c>
@@ -23717,8 +25653,11 @@
       <c r="L19">
         <v>142</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20">
         <v>18</v>
       </c>
@@ -23755,8 +25694,11 @@
       <c r="L20">
         <v>141</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21">
         <v>19</v>
       </c>
@@ -23793,8 +25735,11 @@
       <c r="L21">
         <v>130</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22">
         <v>20</v>
       </c>
@@ -23831,8 +25776,11 @@
       <c r="L22">
         <v>138</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23">
         <v>21</v>
       </c>
@@ -23869,8 +25817,11 @@
       <c r="L23">
         <v>140</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24">
         <v>22</v>
       </c>
@@ -23907,8 +25858,11 @@
       <c r="L24">
         <v>140</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25">
         <v>23</v>
       </c>
@@ -23945,9 +25899,12 @@
       <c r="L25">
         <v>133</v>
       </c>
+      <c r="M25">
+        <v>111</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:L25">
+  <conditionalFormatting sqref="B2:M25">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>

--- a/Result.xlsx
+++ b/Result.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="80">
   <si>
     <t>Date</t>
   </si>
@@ -259,6 +259,9 @@
   </si>
   <si>
     <t>2025-10-14</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
   </si>
 </sst>
 </file>
@@ -757,7 +760,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ16"/>
+  <dimension ref="A1:AJ17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2417,86 +2420,86 @@
       </c>
     </row>
     <row r="16" spans="1:36">
-      <c r="A16" s="5" t="s">
-        <v>36</v>
+      <c r="A16" s="2">
+        <v>45945</v>
       </c>
       <c r="B16" s="3">
-        <v>231310</v>
+        <v>17324</v>
       </c>
       <c r="C16" s="3">
-        <v>122353</v>
+        <v>9319</v>
       </c>
       <c r="D16" s="3">
-        <v>32809</v>
+        <v>2446</v>
       </c>
       <c r="E16" s="3">
-        <v>89544</v>
+        <v>6873</v>
       </c>
       <c r="F16" s="4">
-        <v>0.2681503518507924</v>
+        <v>0.2624745144328791</v>
       </c>
       <c r="G16" s="3">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H16" s="3">
-        <v>108957</v>
+        <v>8005</v>
       </c>
       <c r="I16" s="4">
-        <v>0.5289568112057412</v>
+        <v>0.5379242669129531</v>
       </c>
       <c r="J16" s="3">
-        <v>108957</v>
+        <v>8005</v>
       </c>
       <c r="K16" s="3">
-        <v>108749</v>
+        <v>7990</v>
       </c>
       <c r="L16" s="3">
-        <v>107508</v>
+        <v>7916</v>
       </c>
       <c r="M16" s="3">
-        <v>105516</v>
+        <v>7802</v>
       </c>
       <c r="N16" s="3">
-        <v>1992</v>
+        <v>114</v>
       </c>
       <c r="O16" s="4">
-        <v>0.9885884008128811</v>
+        <v>0.990738423028786</v>
       </c>
       <c r="P16" s="3">
-        <v>1241</v>
+        <v>74</v>
       </c>
       <c r="Q16" s="4">
-        <v>0.01141159918711896</v>
+        <v>0.009261576971214018</v>
       </c>
       <c r="R16" s="3">
-        <v>208</v>
+        <v>15</v>
       </c>
       <c r="S16" s="3">
-        <v>106763</v>
+        <v>7881</v>
       </c>
       <c r="T16" s="3">
-        <v>287</v>
+        <v>7</v>
       </c>
       <c r="U16" s="3">
-        <v>745</v>
+        <v>35</v>
       </c>
       <c r="V16" s="4">
-        <v>0.9904262720905421</v>
+        <v>0.9946989776599773</v>
       </c>
       <c r="W16" s="3">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="X16" s="3">
         <v>5</v>
       </c>
       <c r="Y16" s="3">
-        <v>6896</v>
+        <v>514</v>
       </c>
       <c r="Z16" s="3">
-        <v>321</v>
+        <v>21</v>
       </c>
       <c r="AA16" s="3">
-        <v>209</v>
+        <v>15</v>
       </c>
       <c r="AB16" s="3">
         <v>60</v>
@@ -2508,26 +2511,136 @@
         <v>30</v>
       </c>
       <c r="AE16" s="3">
-        <v>6879</v>
+        <v>514</v>
       </c>
       <c r="AF16" s="3">
-        <v>321</v>
+        <v>21</v>
       </c>
       <c r="AG16" s="3">
-        <v>207</v>
+        <v>15</v>
       </c>
       <c r="AH16" s="4">
-        <v>0.9975348027842227</v>
+        <v>1</v>
       </c>
       <c r="AI16" s="4">
         <v>1</v>
       </c>
       <c r="AJ16" s="4">
-        <v>0.9904306220095694</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36">
+      <c r="A17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="3">
+        <v>248634</v>
+      </c>
+      <c r="C17" s="3">
+        <v>131672</v>
+      </c>
+      <c r="D17" s="3">
+        <v>35255</v>
+      </c>
+      <c r="E17" s="3">
+        <v>96417</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0.2677486481560241</v>
+      </c>
+      <c r="G17" s="3">
+        <v>39</v>
+      </c>
+      <c r="H17" s="3">
+        <v>116962</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0.5295816340484407</v>
+      </c>
+      <c r="J17" s="3">
+        <v>116962</v>
+      </c>
+      <c r="K17" s="3">
+        <v>116739</v>
+      </c>
+      <c r="L17" s="3">
+        <v>115424</v>
+      </c>
+      <c r="M17" s="3">
+        <v>113318</v>
+      </c>
+      <c r="N17" s="3">
+        <v>2106</v>
+      </c>
+      <c r="O17" s="4">
+        <v>0.9887355553842332</v>
+      </c>
+      <c r="P17" s="3">
+        <v>1315</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>0.0112644446157668</v>
+      </c>
+      <c r="R17" s="3">
+        <v>223</v>
+      </c>
+      <c r="S17" s="3">
+        <v>114644</v>
+      </c>
+      <c r="T17" s="3">
+        <v>294</v>
+      </c>
+      <c r="U17" s="3">
+        <v>780</v>
+      </c>
+      <c r="V17" s="4">
+        <v>0.9907188164330527</v>
+      </c>
+      <c r="W17" s="3">
+        <v>131</v>
+      </c>
+      <c r="X17" s="3">
+        <v>5</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>7410</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>342</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>224</v>
+      </c>
+      <c r="AB17" s="3">
+        <v>60</v>
+      </c>
+      <c r="AC17" s="3">
+        <v>45</v>
+      </c>
+      <c r="AD17" s="3">
+        <v>30</v>
+      </c>
+      <c r="AE17" s="3">
+        <v>7393</v>
+      </c>
+      <c r="AF17" s="3">
+        <v>342</v>
+      </c>
+      <c r="AG17" s="3">
+        <v>222</v>
+      </c>
+      <c r="AH17" s="4">
+        <v>0.9977058029689608</v>
+      </c>
+      <c r="AI17" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ17" s="4">
+        <v>0.9910714285714286</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="AH2:AH16">
+  <conditionalFormatting sqref="AH2:AH17">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThanOrEqual">
       <formula>0.95</formula>
     </cfRule>
@@ -2535,7 +2648,7 @@
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI2:AI16">
+  <conditionalFormatting sqref="AI2:AI17">
     <cfRule type="cellIs" dxfId="3" priority="5" operator="greaterThanOrEqual">
       <formula>0.95</formula>
     </cfRule>
@@ -2543,7 +2656,7 @@
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ2:AJ16">
+  <conditionalFormatting sqref="AJ2:AJ17">
     <cfRule type="cellIs" dxfId="3" priority="7" operator="greaterThanOrEqual">
       <formula>0.95</formula>
     </cfRule>
@@ -2551,7 +2664,7 @@
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O16">
+  <conditionalFormatting sqref="O2:O17">
     <cfRule type="cellIs" dxfId="3" priority="9" operator="greaterThanOrEqual">
       <formula>0.95</formula>
     </cfRule>
@@ -2559,7 +2672,7 @@
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q16">
+  <conditionalFormatting sqref="Q2:Q17">
     <cfRule type="cellIs" dxfId="3" priority="13" operator="lessThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
@@ -2567,7 +2680,7 @@
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V2:V16">
+  <conditionalFormatting sqref="V2:V17">
     <cfRule type="cellIs" dxfId="3" priority="11" operator="greaterThanOrEqual">
       <formula>0.95</formula>
     </cfRule>
@@ -2575,7 +2688,7 @@
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W2:W16">
+  <conditionalFormatting sqref="W2:W17">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThanOrEqual">
       <formula>130</formula>
     </cfRule>
@@ -2589,7 +2702,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ16"/>
+  <dimension ref="A1:AJ17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4249,86 +4362,86 @@
       </c>
     </row>
     <row r="16" spans="1:36">
-      <c r="A16" s="5" t="s">
-        <v>36</v>
+      <c r="A16" s="2">
+        <v>45945</v>
       </c>
       <c r="B16" s="3">
-        <v>129064</v>
+        <v>10439</v>
       </c>
       <c r="C16" s="3">
-        <v>75656</v>
+        <v>6122</v>
       </c>
       <c r="D16" s="3">
-        <v>17806</v>
+        <v>1422</v>
       </c>
       <c r="E16" s="3">
-        <v>57850</v>
+        <v>4700</v>
       </c>
       <c r="F16" s="4">
-        <v>0.2353547636671249</v>
+        <v>0.2322770336491343</v>
       </c>
       <c r="G16" s="3">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H16" s="3">
-        <v>53408</v>
+        <v>4317</v>
       </c>
       <c r="I16" s="4">
-        <v>0.5861897973098618</v>
+        <v>0.5864546412491618</v>
       </c>
       <c r="J16" s="3">
-        <v>53408</v>
+        <v>4317</v>
       </c>
       <c r="K16" s="3">
-        <v>53317</v>
+        <v>4308</v>
       </c>
       <c r="L16" s="3">
-        <v>52827</v>
+        <v>4258</v>
       </c>
       <c r="M16" s="3">
-        <v>51708</v>
+        <v>4186</v>
       </c>
       <c r="N16" s="3">
-        <v>1119</v>
+        <v>72</v>
       </c>
       <c r="O16" s="4">
-        <v>0.990809685466174</v>
+        <v>0.9883936861652739</v>
       </c>
       <c r="P16" s="3">
-        <v>490</v>
+        <v>50</v>
       </c>
       <c r="Q16" s="4">
-        <v>0.009190314533825985</v>
+        <v>0.01160631383472609</v>
       </c>
       <c r="R16" s="3">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="S16" s="3">
-        <v>52468</v>
+        <v>4229</v>
       </c>
       <c r="T16" s="3">
-        <v>110</v>
+        <v>5</v>
       </c>
       <c r="U16" s="3">
-        <v>359</v>
+        <v>29</v>
       </c>
       <c r="V16" s="4">
-        <v>0.9911404121880726</v>
+        <v>0.9920243959652827</v>
       </c>
       <c r="W16" s="3">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="X16" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y16" s="3">
-        <v>3130</v>
+        <v>268</v>
       </c>
       <c r="Z16" s="3">
-        <v>254</v>
+        <v>19</v>
       </c>
       <c r="AA16" s="3">
-        <v>159</v>
+        <v>14</v>
       </c>
       <c r="AB16" s="3">
         <v>60</v>
@@ -4340,26 +4453,136 @@
         <v>30</v>
       </c>
       <c r="AE16" s="3">
-        <v>3121</v>
+        <v>268</v>
       </c>
       <c r="AF16" s="3">
-        <v>254</v>
+        <v>19</v>
       </c>
       <c r="AG16" s="3">
-        <v>158</v>
+        <v>14</v>
       </c>
       <c r="AH16" s="4">
-        <v>0.9971246006389777</v>
+        <v>1</v>
       </c>
       <c r="AI16" s="4">
         <v>1</v>
       </c>
       <c r="AJ16" s="4">
-        <v>0.9937106918238993</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36">
+      <c r="A17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="3">
+        <v>139503</v>
+      </c>
+      <c r="C17" s="3">
+        <v>81778</v>
+      </c>
+      <c r="D17" s="3">
+        <v>19228</v>
+      </c>
+      <c r="E17" s="3">
+        <v>62550</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0.2351243610751058</v>
+      </c>
+      <c r="G17" s="3">
+        <v>44</v>
+      </c>
+      <c r="H17" s="3">
+        <v>57725</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0.586209615563823</v>
+      </c>
+      <c r="J17" s="3">
+        <v>57725</v>
+      </c>
+      <c r="K17" s="3">
+        <v>57625</v>
+      </c>
+      <c r="L17" s="3">
+        <v>57085</v>
+      </c>
+      <c r="M17" s="3">
+        <v>55894</v>
+      </c>
+      <c r="N17" s="3">
+        <v>1191</v>
+      </c>
+      <c r="O17" s="4">
+        <v>0.9906290672451193</v>
+      </c>
+      <c r="P17" s="3">
+        <v>540</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>0.009370932754880695</v>
+      </c>
+      <c r="R17" s="3">
+        <v>100</v>
+      </c>
+      <c r="S17" s="3">
+        <v>56697</v>
+      </c>
+      <c r="T17" s="3">
+        <v>115</v>
+      </c>
+      <c r="U17" s="3">
+        <v>388</v>
+      </c>
+      <c r="V17" s="4">
+        <v>0.9912062937062938</v>
+      </c>
+      <c r="W17" s="3">
+        <v>133</v>
+      </c>
+      <c r="X17" s="3">
+        <v>5</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>3398</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>273</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>173</v>
+      </c>
+      <c r="AB17" s="3">
+        <v>60</v>
+      </c>
+      <c r="AC17" s="3">
+        <v>45</v>
+      </c>
+      <c r="AD17" s="3">
+        <v>30</v>
+      </c>
+      <c r="AE17" s="3">
+        <v>3389</v>
+      </c>
+      <c r="AF17" s="3">
+        <v>273</v>
+      </c>
+      <c r="AG17" s="3">
+        <v>172</v>
+      </c>
+      <c r="AH17" s="4">
+        <v>0.9973513831665686</v>
+      </c>
+      <c r="AI17" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ17" s="4">
+        <v>0.9942196531791907</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="AH2:AH16">
+  <conditionalFormatting sqref="AH2:AH17">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThanOrEqual">
       <formula>0.95</formula>
     </cfRule>
@@ -4367,7 +4590,7 @@
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI2:AI16">
+  <conditionalFormatting sqref="AI2:AI17">
     <cfRule type="cellIs" dxfId="3" priority="5" operator="greaterThanOrEqual">
       <formula>0.95</formula>
     </cfRule>
@@ -4375,7 +4598,7 @@
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ2:AJ16">
+  <conditionalFormatting sqref="AJ2:AJ17">
     <cfRule type="cellIs" dxfId="3" priority="7" operator="greaterThanOrEqual">
       <formula>0.95</formula>
     </cfRule>
@@ -4383,7 +4606,7 @@
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O16">
+  <conditionalFormatting sqref="O2:O17">
     <cfRule type="cellIs" dxfId="3" priority="9" operator="greaterThanOrEqual">
       <formula>0.95</formula>
     </cfRule>
@@ -4391,7 +4614,7 @@
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q16">
+  <conditionalFormatting sqref="Q2:Q17">
     <cfRule type="cellIs" dxfId="3" priority="13" operator="lessThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
@@ -4399,7 +4622,7 @@
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V2:V16">
+  <conditionalFormatting sqref="V2:V17">
     <cfRule type="cellIs" dxfId="3" priority="11" operator="greaterThanOrEqual">
       <formula>0.95</formula>
     </cfRule>
@@ -4407,7 +4630,7 @@
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W2:W16">
+  <conditionalFormatting sqref="W2:W17">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThanOrEqual">
       <formula>130</formula>
     </cfRule>
@@ -4421,7 +4644,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ16"/>
+  <dimension ref="A1:AJ17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6081,86 +6304,86 @@
       </c>
     </row>
     <row r="16" spans="1:36">
-      <c r="A16" s="5" t="s">
-        <v>36</v>
+      <c r="A16" s="2">
+        <v>45945</v>
       </c>
       <c r="B16" s="3">
-        <v>61216</v>
+        <v>4132</v>
       </c>
       <c r="C16" s="3">
-        <v>29344</v>
+        <v>1988</v>
       </c>
       <c r="D16" s="3">
-        <v>10062</v>
+        <v>676</v>
       </c>
       <c r="E16" s="3">
-        <v>19282</v>
+        <v>1312</v>
       </c>
       <c r="F16" s="4">
-        <v>0.3428980370774263</v>
+        <v>0.3400402414486921</v>
       </c>
       <c r="G16" s="3">
         <v>27</v>
       </c>
       <c r="H16" s="3">
-        <v>31872</v>
+        <v>2144</v>
       </c>
       <c r="I16" s="4">
-        <v>0.4793518034500784</v>
+        <v>0.4811229428848016</v>
       </c>
       <c r="J16" s="3">
-        <v>31872</v>
+        <v>2144</v>
       </c>
       <c r="K16" s="3">
-        <v>31792</v>
+        <v>2139</v>
       </c>
       <c r="L16" s="3">
-        <v>31306</v>
+        <v>2127</v>
       </c>
       <c r="M16" s="3">
-        <v>30732</v>
+        <v>2100</v>
       </c>
       <c r="N16" s="3">
-        <v>574</v>
+        <v>27</v>
       </c>
       <c r="O16" s="4">
-        <v>0.98471313537997</v>
+        <v>0.994389901823282</v>
       </c>
       <c r="P16" s="3">
-        <v>486</v>
+        <v>12</v>
       </c>
       <c r="Q16" s="4">
-        <v>0.0152868646200302</v>
+        <v>0.005610098176718092</v>
       </c>
       <c r="R16" s="3">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="S16" s="3">
-        <v>31114</v>
+        <v>2121</v>
       </c>
       <c r="T16" s="3">
-        <v>108</v>
+        <v>1</v>
       </c>
       <c r="U16" s="3">
-        <v>192</v>
+        <v>6</v>
       </c>
       <c r="V16" s="4">
-        <v>0.9904501177818807</v>
+        <v>0.9967105263157895</v>
       </c>
       <c r="W16" s="3">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="X16" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Y16" s="3">
-        <v>2252</v>
+        <v>149</v>
       </c>
       <c r="Z16" s="3">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AA16" s="3">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="AB16" s="3">
         <v>60</v>
@@ -6172,26 +6395,136 @@
         <v>30</v>
       </c>
       <c r="AE16" s="3">
-        <v>2247</v>
+        <v>149</v>
       </c>
       <c r="AF16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH16" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36">
+      <c r="A17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="3">
+        <v>65348</v>
+      </c>
+      <c r="C17" s="3">
+        <v>31332</v>
+      </c>
+      <c r="D17" s="3">
+        <v>10738</v>
+      </c>
+      <c r="E17" s="3">
+        <v>20594</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0.3427167113494191</v>
+      </c>
+      <c r="G17" s="3">
+        <v>27</v>
+      </c>
+      <c r="H17" s="3">
+        <v>34016</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0.4794637938421987</v>
+      </c>
+      <c r="J17" s="3">
+        <v>34016</v>
+      </c>
+      <c r="K17" s="3">
+        <v>33931</v>
+      </c>
+      <c r="L17" s="3">
+        <v>33433</v>
+      </c>
+      <c r="M17" s="3">
+        <v>32832</v>
+      </c>
+      <c r="N17" s="3">
+        <v>601</v>
+      </c>
+      <c r="O17" s="4">
+        <v>0.9853231558162152</v>
+      </c>
+      <c r="P17" s="3">
+        <v>498</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>0.01467684418378474</v>
+      </c>
+      <c r="R17" s="3">
+        <v>85</v>
+      </c>
+      <c r="S17" s="3">
+        <v>33235</v>
+      </c>
+      <c r="T17" s="3">
+        <v>109</v>
+      </c>
+      <c r="U17" s="3">
+        <v>198</v>
+      </c>
+      <c r="V17" s="4">
+        <v>0.9908472959274939</v>
+      </c>
+      <c r="W17" s="3">
+        <v>126</v>
+      </c>
+      <c r="X17" s="3">
+        <v>5</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>2401</v>
+      </c>
+      <c r="Z17" s="3">
         <v>22</v>
       </c>
-      <c r="AG16" s="3">
-        <v>37</v>
-      </c>
-      <c r="AH16" s="4">
-        <v>0.9977797513321492</v>
-      </c>
-      <c r="AI16" s="4">
-        <v>1</v>
-      </c>
-      <c r="AJ16" s="4">
-        <v>0.9736842105263157</v>
+      <c r="AA17" s="3">
+        <v>39</v>
+      </c>
+      <c r="AB17" s="3">
+        <v>60</v>
+      </c>
+      <c r="AC17" s="3">
+        <v>45</v>
+      </c>
+      <c r="AD17" s="3">
+        <v>30</v>
+      </c>
+      <c r="AE17" s="3">
+        <v>2396</v>
+      </c>
+      <c r="AF17" s="3">
+        <v>22</v>
+      </c>
+      <c r="AG17" s="3">
+        <v>38</v>
+      </c>
+      <c r="AH17" s="4">
+        <v>0.9979175343606831</v>
+      </c>
+      <c r="AI17" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ17" s="4">
+        <v>0.9743589743589743</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="AH2:AH16">
+  <conditionalFormatting sqref="AH2:AH17">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThanOrEqual">
       <formula>0.95</formula>
     </cfRule>
@@ -6199,7 +6532,7 @@
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI2:AI16">
+  <conditionalFormatting sqref="AI2:AI17">
     <cfRule type="cellIs" dxfId="3" priority="5" operator="greaterThanOrEqual">
       <formula>0.95</formula>
     </cfRule>
@@ -6207,7 +6540,7 @@
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ2:AJ16">
+  <conditionalFormatting sqref="AJ2:AJ17">
     <cfRule type="cellIs" dxfId="3" priority="7" operator="greaterThanOrEqual">
       <formula>0.95</formula>
     </cfRule>
@@ -6215,7 +6548,7 @@
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O16">
+  <conditionalFormatting sqref="O2:O17">
     <cfRule type="cellIs" dxfId="3" priority="9" operator="greaterThanOrEqual">
       <formula>0.95</formula>
     </cfRule>
@@ -6223,7 +6556,7 @@
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q16">
+  <conditionalFormatting sqref="Q2:Q17">
     <cfRule type="cellIs" dxfId="3" priority="13" operator="lessThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
@@ -6231,7 +6564,7 @@
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V2:V16">
+  <conditionalFormatting sqref="V2:V17">
     <cfRule type="cellIs" dxfId="3" priority="11" operator="greaterThanOrEqual">
       <formula>0.95</formula>
     </cfRule>
@@ -6239,7 +6572,7 @@
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W2:W16">
+  <conditionalFormatting sqref="W2:W17">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThanOrEqual">
       <formula>130</formula>
     </cfRule>
@@ -6253,7 +6586,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ16"/>
+  <dimension ref="A1:AJ17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7913,86 +8246,86 @@
       </c>
     </row>
     <row r="16" spans="1:36">
-      <c r="A16" s="5" t="s">
-        <v>36</v>
+      <c r="A16" s="2">
+        <v>45945</v>
       </c>
       <c r="B16" s="3">
-        <v>41030</v>
+        <v>2753</v>
       </c>
       <c r="C16" s="3">
-        <v>17353</v>
+        <v>1209</v>
       </c>
       <c r="D16" s="3">
-        <v>4941</v>
+        <v>348</v>
       </c>
       <c r="E16" s="3">
-        <v>12412</v>
+        <v>861</v>
       </c>
       <c r="F16" s="4">
-        <v>0.2847346280182101</v>
+        <v>0.2878411910669975</v>
       </c>
       <c r="G16" s="3">
         <v>38</v>
       </c>
       <c r="H16" s="3">
-        <v>23677</v>
+        <v>1544</v>
       </c>
       <c r="I16" s="4">
-        <v>0.4229344382159395</v>
+        <v>0.4391572829640392</v>
       </c>
       <c r="J16" s="3">
-        <v>23677</v>
+        <v>1544</v>
       </c>
       <c r="K16" s="3">
-        <v>23640</v>
+        <v>1543</v>
       </c>
       <c r="L16" s="3">
-        <v>23375</v>
+        <v>1531</v>
       </c>
       <c r="M16" s="3">
-        <v>23076</v>
+        <v>1516</v>
       </c>
       <c r="N16" s="3">
-        <v>299</v>
+        <v>15</v>
       </c>
       <c r="O16" s="4">
-        <v>0.9887901861252115</v>
+        <v>0.9922229423201556</v>
       </c>
       <c r="P16" s="3">
-        <v>265</v>
+        <v>12</v>
       </c>
       <c r="Q16" s="4">
-        <v>0.01120981387478849</v>
+        <v>0.007777057679844459</v>
       </c>
       <c r="R16" s="3">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="S16" s="3">
-        <v>23181</v>
+        <v>1531</v>
       </c>
       <c r="T16" s="3">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="U16" s="3">
-        <v>194</v>
+        <v>0</v>
       </c>
       <c r="V16" s="4">
-        <v>0.9887817778536087</v>
+        <v>0.9993472584856398</v>
       </c>
       <c r="W16" s="3">
         <v>135</v>
       </c>
       <c r="X16" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Y16" s="3">
-        <v>1514</v>
+        <v>97</v>
       </c>
       <c r="Z16" s="3">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="AA16" s="3">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AB16" s="3">
         <v>60</v>
@@ -8004,26 +8337,136 @@
         <v>30</v>
       </c>
       <c r="AE16" s="3">
-        <v>1511</v>
+        <v>97</v>
       </c>
       <c r="AF16" s="3">
+        <v>2</v>
+      </c>
+      <c r="AG16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI16" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36">
+      <c r="A17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="3">
+        <v>43783</v>
+      </c>
+      <c r="C17" s="3">
+        <v>18562</v>
+      </c>
+      <c r="D17" s="3">
+        <v>5289</v>
+      </c>
+      <c r="E17" s="3">
+        <v>13273</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0.284936967999138</v>
+      </c>
+      <c r="G17" s="3">
+        <v>38</v>
+      </c>
+      <c r="H17" s="3">
+        <v>25221</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0.4239545028892493</v>
+      </c>
+      <c r="J17" s="3">
+        <v>25221</v>
+      </c>
+      <c r="K17" s="3">
+        <v>25183</v>
+      </c>
+      <c r="L17" s="3">
+        <v>24906</v>
+      </c>
+      <c r="M17" s="3">
+        <v>24592</v>
+      </c>
+      <c r="N17" s="3">
+        <v>314</v>
+      </c>
+      <c r="O17" s="4">
+        <v>0.9890005162212604</v>
+      </c>
+      <c r="P17" s="3">
+        <v>277</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>0.01099948377873963</v>
+      </c>
+      <c r="R17" s="3">
+        <v>38</v>
+      </c>
+      <c r="S17" s="3">
+        <v>24712</v>
+      </c>
+      <c r="T17" s="3">
+        <v>70</v>
+      </c>
+      <c r="U17" s="3">
+        <v>194</v>
+      </c>
+      <c r="V17" s="4">
+        <v>0.9894298526585523</v>
+      </c>
+      <c r="W17" s="3">
+        <v>135</v>
+      </c>
+      <c r="X17" s="3">
+        <v>5</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>1611</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>47</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>12</v>
+      </c>
+      <c r="AB17" s="3">
+        <v>60</v>
+      </c>
+      <c r="AC17" s="3">
         <v>45</v>
       </c>
-      <c r="AG16" s="3">
+      <c r="AD17" s="3">
+        <v>30</v>
+      </c>
+      <c r="AE17" s="3">
+        <v>1608</v>
+      </c>
+      <c r="AF17" s="3">
+        <v>47</v>
+      </c>
+      <c r="AG17" s="3">
         <v>12</v>
       </c>
-      <c r="AH16" s="4">
-        <v>0.9980184940554822</v>
-      </c>
-      <c r="AI16" s="4">
-        <v>1</v>
-      </c>
-      <c r="AJ16" s="4">
+      <c r="AH17" s="4">
+        <v>0.9981378026070763</v>
+      </c>
+      <c r="AI17" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ17" s="4">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="AH2:AH16">
+  <conditionalFormatting sqref="AH2:AH17">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThanOrEqual">
       <formula>0.95</formula>
     </cfRule>
@@ -8031,7 +8474,7 @@
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI2:AI16">
+  <conditionalFormatting sqref="AI2:AI17">
     <cfRule type="cellIs" dxfId="3" priority="5" operator="greaterThanOrEqual">
       <formula>0.95</formula>
     </cfRule>
@@ -8039,7 +8482,7 @@
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ2:AJ16">
+  <conditionalFormatting sqref="AJ2:AJ17">
     <cfRule type="cellIs" dxfId="3" priority="7" operator="greaterThanOrEqual">
       <formula>0.95</formula>
     </cfRule>
@@ -8047,7 +8490,7 @@
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O16">
+  <conditionalFormatting sqref="O2:O17">
     <cfRule type="cellIs" dxfId="3" priority="9" operator="greaterThanOrEqual">
       <formula>0.95</formula>
     </cfRule>
@@ -8055,7 +8498,7 @@
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q16">
+  <conditionalFormatting sqref="Q2:Q17">
     <cfRule type="cellIs" dxfId="3" priority="13" operator="lessThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
@@ -8063,7 +8506,7 @@
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V2:V16">
+  <conditionalFormatting sqref="V2:V17">
     <cfRule type="cellIs" dxfId="3" priority="11" operator="greaterThanOrEqual">
       <formula>0.95</formula>
     </cfRule>
@@ -8071,7 +8514,7 @@
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W2:W16">
+  <conditionalFormatting sqref="W2:W17">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThanOrEqual">
       <formula>130</formula>
     </cfRule>
@@ -8085,7 +8528,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M337"/>
+  <dimension ref="A1:M361"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -21911,8 +22354,992 @@
         <v>1</v>
       </c>
     </row>
+    <row r="338" spans="1:13">
+      <c r="A338" s="2">
+        <v>45945</v>
+      </c>
+      <c r="B338" s="3">
+        <v>0</v>
+      </c>
+      <c r="C338" s="3">
+        <v>103</v>
+      </c>
+      <c r="D338" s="3">
+        <v>60</v>
+      </c>
+      <c r="E338" s="3">
+        <v>60</v>
+      </c>
+      <c r="F338" s="3">
+        <v>0</v>
+      </c>
+      <c r="G338" s="4">
+        <v>1</v>
+      </c>
+      <c r="H338" s="4">
+        <v>1</v>
+      </c>
+      <c r="I338" s="3">
+        <v>170</v>
+      </c>
+      <c r="J338" s="3">
+        <v>1</v>
+      </c>
+      <c r="K338" s="4">
+        <v>1</v>
+      </c>
+      <c r="L338" s="4">
+        <v>1</v>
+      </c>
+      <c r="M338" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:13">
+      <c r="A339" s="2">
+        <v>45945</v>
+      </c>
+      <c r="B339" s="3">
+        <v>1</v>
+      </c>
+      <c r="C339" s="3">
+        <v>64</v>
+      </c>
+      <c r="D339" s="3">
+        <v>34</v>
+      </c>
+      <c r="E339" s="3">
+        <v>34</v>
+      </c>
+      <c r="F339" s="3">
+        <v>0</v>
+      </c>
+      <c r="G339" s="4">
+        <v>1</v>
+      </c>
+      <c r="H339" s="4">
+        <v>1</v>
+      </c>
+      <c r="I339" s="3">
+        <v>83</v>
+      </c>
+      <c r="J339" s="3">
+        <v>1</v>
+      </c>
+      <c r="K339" s="4">
+        <v>1</v>
+      </c>
+      <c r="L339" s="4">
+        <v>1</v>
+      </c>
+      <c r="M339" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:13">
+      <c r="A340" s="2">
+        <v>45945</v>
+      </c>
+      <c r="B340" s="3">
+        <v>2</v>
+      </c>
+      <c r="C340" s="3">
+        <v>43</v>
+      </c>
+      <c r="D340" s="3">
+        <v>20</v>
+      </c>
+      <c r="E340" s="3">
+        <v>20</v>
+      </c>
+      <c r="F340" s="3">
+        <v>0</v>
+      </c>
+      <c r="G340" s="4">
+        <v>1</v>
+      </c>
+      <c r="H340" s="4">
+        <v>1</v>
+      </c>
+      <c r="I340" s="3">
+        <v>77</v>
+      </c>
+      <c r="J340" s="3">
+        <v>18</v>
+      </c>
+      <c r="K340" s="4">
+        <v>1</v>
+      </c>
+      <c r="L340" s="4">
+        <v>1</v>
+      </c>
+      <c r="M340" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:13">
+      <c r="A341" s="2">
+        <v>45945</v>
+      </c>
+      <c r="B341" s="3">
+        <v>3</v>
+      </c>
+      <c r="C341" s="3">
+        <v>18</v>
+      </c>
+      <c r="D341" s="3">
+        <v>4</v>
+      </c>
+      <c r="E341" s="3">
+        <v>4</v>
+      </c>
+      <c r="F341" s="3">
+        <v>0</v>
+      </c>
+      <c r="G341" s="4">
+        <v>1</v>
+      </c>
+      <c r="H341" s="4">
+        <v>1</v>
+      </c>
+      <c r="I341" s="3">
+        <v>83</v>
+      </c>
+      <c r="J341" s="3">
+        <v>1</v>
+      </c>
+      <c r="K341" s="4">
+        <v>1</v>
+      </c>
+      <c r="L341" s="4">
+        <v>0</v>
+      </c>
+      <c r="M341" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:13">
+      <c r="A342" s="2">
+        <v>45945</v>
+      </c>
+      <c r="B342" s="3">
+        <v>4</v>
+      </c>
+      <c r="C342" s="3">
+        <v>36</v>
+      </c>
+      <c r="D342" s="3">
+        <v>11</v>
+      </c>
+      <c r="E342" s="3">
+        <v>11</v>
+      </c>
+      <c r="F342" s="3">
+        <v>0</v>
+      </c>
+      <c r="G342" s="4">
+        <v>1</v>
+      </c>
+      <c r="H342" s="4">
+        <v>1</v>
+      </c>
+      <c r="I342" s="3">
+        <v>152</v>
+      </c>
+      <c r="J342" s="3">
+        <v>17</v>
+      </c>
+      <c r="K342" s="4">
+        <v>1</v>
+      </c>
+      <c r="L342" s="4">
+        <v>1</v>
+      </c>
+      <c r="M342" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:13">
+      <c r="A343" s="2">
+        <v>45945</v>
+      </c>
+      <c r="B343" s="3">
+        <v>5</v>
+      </c>
+      <c r="C343" s="3">
+        <v>80</v>
+      </c>
+      <c r="D343" s="3">
+        <v>33</v>
+      </c>
+      <c r="E343" s="3">
+        <v>31</v>
+      </c>
+      <c r="F343" s="3">
+        <v>2</v>
+      </c>
+      <c r="G343" s="4">
+        <v>0.9393939393939393</v>
+      </c>
+      <c r="H343" s="4">
+        <v>0.967741935483871</v>
+      </c>
+      <c r="I343" s="3">
+        <v>99</v>
+      </c>
+      <c r="J343" s="3">
+        <v>21</v>
+      </c>
+      <c r="K343" s="4">
+        <v>1</v>
+      </c>
+      <c r="L343" s="4">
+        <v>0.9333333333333332</v>
+      </c>
+      <c r="M343" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:13">
+      <c r="A344" s="2">
+        <v>45945</v>
+      </c>
+      <c r="B344" s="3">
+        <v>6</v>
+      </c>
+      <c r="C344" s="3">
+        <v>302</v>
+      </c>
+      <c r="D344" s="3">
+        <v>145</v>
+      </c>
+      <c r="E344" s="3">
+        <v>142</v>
+      </c>
+      <c r="F344" s="3">
+        <v>3</v>
+      </c>
+      <c r="G344" s="4">
+        <v>0.9793103448275862</v>
+      </c>
+      <c r="H344" s="4">
+        <v>0.9859154929577465</v>
+      </c>
+      <c r="I344" s="3">
+        <v>109</v>
+      </c>
+      <c r="J344" s="3">
+        <v>10</v>
+      </c>
+      <c r="K344" s="4">
+        <v>0.9666666666666667</v>
+      </c>
+      <c r="L344" s="4">
+        <v>1</v>
+      </c>
+      <c r="M344" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:13">
+      <c r="A345" s="2">
+        <v>45945</v>
+      </c>
+      <c r="B345" s="3">
+        <v>7</v>
+      </c>
+      <c r="C345" s="3">
+        <v>532</v>
+      </c>
+      <c r="D345" s="3">
+        <v>276</v>
+      </c>
+      <c r="E345" s="3">
+        <v>264</v>
+      </c>
+      <c r="F345" s="3">
+        <v>12</v>
+      </c>
+      <c r="G345" s="4">
+        <v>0.9565217391304348</v>
+      </c>
+      <c r="H345" s="4">
+        <v>0.966542750929368</v>
+      </c>
+      <c r="I345" s="3">
+        <v>108</v>
+      </c>
+      <c r="J345" s="3">
+        <v>7</v>
+      </c>
+      <c r="K345" s="4">
+        <v>0.9312977099236641</v>
+      </c>
+      <c r="L345" s="4">
+        <v>1</v>
+      </c>
+      <c r="M345" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:13">
+      <c r="A346" s="2">
+        <v>45945</v>
+      </c>
+      <c r="B346" s="3">
+        <v>8</v>
+      </c>
+      <c r="C346" s="3">
+        <v>739</v>
+      </c>
+      <c r="D346" s="3">
+        <v>356</v>
+      </c>
+      <c r="E346" s="3">
+        <v>352</v>
+      </c>
+      <c r="F346" s="3">
+        <v>4</v>
+      </c>
+      <c r="G346" s="4">
+        <v>0.9887640449438202</v>
+      </c>
+      <c r="H346" s="4">
+        <v>0.9943181818181818</v>
+      </c>
+      <c r="I346" s="3">
+        <v>113</v>
+      </c>
+      <c r="J346" s="3">
+        <v>10</v>
+      </c>
+      <c r="K346" s="4">
+        <v>0.9885714285714287</v>
+      </c>
+      <c r="L346" s="4">
+        <v>1</v>
+      </c>
+      <c r="M346" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:13">
+      <c r="A347" s="2">
+        <v>45945</v>
+      </c>
+      <c r="B347" s="3">
+        <v>9</v>
+      </c>
+      <c r="C347" s="3">
+        <v>917</v>
+      </c>
+      <c r="D347" s="3">
+        <v>460</v>
+      </c>
+      <c r="E347" s="3">
+        <v>453</v>
+      </c>
+      <c r="F347" s="3">
+        <v>7</v>
+      </c>
+      <c r="G347" s="4">
+        <v>0.9847826086956522</v>
+      </c>
+      <c r="H347" s="4">
+        <v>0.9735099337748345</v>
+      </c>
+      <c r="I347" s="3">
+        <v>123</v>
+      </c>
+      <c r="J347" s="3">
+        <v>10</v>
+      </c>
+      <c r="K347" s="4">
+        <v>0.9495412844036697</v>
+      </c>
+      <c r="L347" s="4">
+        <v>0.9923076923076922</v>
+      </c>
+      <c r="M347" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:13">
+      <c r="A348" s="2">
+        <v>45945</v>
+      </c>
+      <c r="B348" s="3">
+        <v>10</v>
+      </c>
+      <c r="C348" s="3">
+        <v>1184</v>
+      </c>
+      <c r="D348" s="3">
+        <v>553</v>
+      </c>
+      <c r="E348" s="3">
+        <v>548</v>
+      </c>
+      <c r="F348" s="3">
+        <v>5</v>
+      </c>
+      <c r="G348" s="4">
+        <v>0.9909584086799277</v>
+      </c>
+      <c r="H348" s="4">
+        <v>0.9981751824817519</v>
+      </c>
+      <c r="I348" s="3">
+        <v>136</v>
+      </c>
+      <c r="J348" s="3">
+        <v>7</v>
+      </c>
+      <c r="K348" s="4">
+        <v>0.996742671009772</v>
+      </c>
+      <c r="L348" s="4">
+        <v>1</v>
+      </c>
+      <c r="M348" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:13">
+      <c r="A349" s="2">
+        <v>45945</v>
+      </c>
+      <c r="B349" s="3">
+        <v>11</v>
+      </c>
+      <c r="C349" s="3">
+        <v>1348</v>
+      </c>
+      <c r="D349" s="3">
+        <v>694</v>
+      </c>
+      <c r="E349" s="3">
+        <v>691</v>
+      </c>
+      <c r="F349" s="3">
+        <v>3</v>
+      </c>
+      <c r="G349" s="4">
+        <v>0.9956772334293948</v>
+      </c>
+      <c r="H349" s="4">
+        <v>0.9985528219971056</v>
+      </c>
+      <c r="I349" s="3">
+        <v>122</v>
+      </c>
+      <c r="J349" s="3">
+        <v>5</v>
+      </c>
+      <c r="K349" s="4">
+        <v>0.9972527472527473</v>
+      </c>
+      <c r="L349" s="4">
+        <v>1</v>
+      </c>
+      <c r="M349" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:13">
+      <c r="A350" s="2">
+        <v>45945</v>
+      </c>
+      <c r="B350" s="3">
+        <v>12</v>
+      </c>
+      <c r="C350" s="3">
+        <v>1168</v>
+      </c>
+      <c r="D350" s="3">
+        <v>535</v>
+      </c>
+      <c r="E350" s="3">
+        <v>532</v>
+      </c>
+      <c r="F350" s="3">
+        <v>3</v>
+      </c>
+      <c r="G350" s="4">
+        <v>0.994392523364486</v>
+      </c>
+      <c r="H350" s="4">
+        <v>1</v>
+      </c>
+      <c r="I350" s="3">
+        <v>119</v>
+      </c>
+      <c r="J350" s="3">
+        <v>3</v>
+      </c>
+      <c r="K350" s="4">
+        <v>1</v>
+      </c>
+      <c r="L350" s="4">
+        <v>1</v>
+      </c>
+      <c r="M350" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:13">
+      <c r="A351" s="2">
+        <v>45945</v>
+      </c>
+      <c r="B351" s="3">
+        <v>13</v>
+      </c>
+      <c r="C351" s="3">
+        <v>1154</v>
+      </c>
+      <c r="D351" s="3">
+        <v>554</v>
+      </c>
+      <c r="E351" s="3">
+        <v>552</v>
+      </c>
+      <c r="F351" s="3">
+        <v>2</v>
+      </c>
+      <c r="G351" s="4">
+        <v>0.9963898916967509</v>
+      </c>
+      <c r="H351" s="4">
+        <v>1</v>
+      </c>
+      <c r="I351" s="3">
+        <v>114</v>
+      </c>
+      <c r="J351" s="3">
+        <v>4</v>
+      </c>
+      <c r="K351" s="4">
+        <v>1</v>
+      </c>
+      <c r="L351" s="4">
+        <v>1</v>
+      </c>
+      <c r="M351" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:13">
+      <c r="A352" s="2">
+        <v>45945</v>
+      </c>
+      <c r="B352" s="3">
+        <v>14</v>
+      </c>
+      <c r="C352" s="3">
+        <v>1124</v>
+      </c>
+      <c r="D352" s="3">
+        <v>455</v>
+      </c>
+      <c r="E352" s="3">
+        <v>455</v>
+      </c>
+      <c r="F352" s="3">
+        <v>0</v>
+      </c>
+      <c r="G352" s="4">
+        <v>1</v>
+      </c>
+      <c r="H352" s="4">
+        <v>1</v>
+      </c>
+      <c r="I352" s="3">
+        <v>130</v>
+      </c>
+      <c r="J352" s="3">
+        <v>1</v>
+      </c>
+      <c r="K352" s="4">
+        <v>1</v>
+      </c>
+      <c r="L352" s="4">
+        <v>1</v>
+      </c>
+      <c r="M352" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:13">
+      <c r="A353" s="2">
+        <v>45945</v>
+      </c>
+      <c r="B353" s="3">
+        <v>15</v>
+      </c>
+      <c r="C353" s="3">
+        <v>1051</v>
+      </c>
+      <c r="D353" s="3">
+        <v>470</v>
+      </c>
+      <c r="E353" s="3">
+        <v>470</v>
+      </c>
+      <c r="F353" s="3">
+        <v>0</v>
+      </c>
+      <c r="G353" s="4">
+        <v>1</v>
+      </c>
+      <c r="H353" s="4">
+        <v>1</v>
+      </c>
+      <c r="I353" s="3">
+        <v>128</v>
+      </c>
+      <c r="J353" s="3">
+        <v>1</v>
+      </c>
+      <c r="K353" s="4">
+        <v>1</v>
+      </c>
+      <c r="L353" s="4">
+        <v>1</v>
+      </c>
+      <c r="M353" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:13">
+      <c r="A354" s="2">
+        <v>45945</v>
+      </c>
+      <c r="B354" s="3">
+        <v>16</v>
+      </c>
+      <c r="C354" s="3">
+        <v>1140</v>
+      </c>
+      <c r="D354" s="3">
+        <v>494</v>
+      </c>
+      <c r="E354" s="3">
+        <v>494</v>
+      </c>
+      <c r="F354" s="3">
+        <v>0</v>
+      </c>
+      <c r="G354" s="4">
+        <v>1</v>
+      </c>
+      <c r="H354" s="4">
+        <v>1</v>
+      </c>
+      <c r="I354" s="3">
+        <v>144</v>
+      </c>
+      <c r="J354" s="3">
+        <v>2</v>
+      </c>
+      <c r="K354" s="4">
+        <v>1</v>
+      </c>
+      <c r="L354" s="4">
+        <v>1</v>
+      </c>
+      <c r="M354" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:13">
+      <c r="A355" s="2">
+        <v>45945</v>
+      </c>
+      <c r="B355" s="3">
+        <v>17</v>
+      </c>
+      <c r="C355" s="3">
+        <v>1115</v>
+      </c>
+      <c r="D355" s="3">
+        <v>520</v>
+      </c>
+      <c r="E355" s="3">
+        <v>520</v>
+      </c>
+      <c r="F355" s="3">
+        <v>0</v>
+      </c>
+      <c r="G355" s="4">
+        <v>1</v>
+      </c>
+      <c r="H355" s="4">
+        <v>0.9980769230769231</v>
+      </c>
+      <c r="I355" s="3">
+        <v>138</v>
+      </c>
+      <c r="J355" s="3">
+        <v>2</v>
+      </c>
+      <c r="K355" s="4">
+        <v>0.99672131147541</v>
+      </c>
+      <c r="L355" s="4">
+        <v>1</v>
+      </c>
+      <c r="M355" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:13">
+      <c r="A356" s="2">
+        <v>45945</v>
+      </c>
+      <c r="B356" s="3">
+        <v>18</v>
+      </c>
+      <c r="C356" s="3">
+        <v>1199</v>
+      </c>
+      <c r="D356" s="3">
+        <v>488</v>
+      </c>
+      <c r="E356" s="3">
+        <v>481</v>
+      </c>
+      <c r="F356" s="3">
+        <v>7</v>
+      </c>
+      <c r="G356" s="4">
+        <v>0.985655737704918</v>
+      </c>
+      <c r="H356" s="4">
+        <v>0.9979209979209981</v>
+      </c>
+      <c r="I356" s="3">
+        <v>145</v>
+      </c>
+      <c r="J356" s="3">
+        <v>5</v>
+      </c>
+      <c r="K356" s="4">
+        <v>1</v>
+      </c>
+      <c r="L356" s="4">
+        <v>0.9928571428571429</v>
+      </c>
+      <c r="M356" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:13">
+      <c r="A357" s="2">
+        <v>45945</v>
+      </c>
+      <c r="B357" s="3">
+        <v>19</v>
+      </c>
+      <c r="C357" s="3">
+        <v>1320</v>
+      </c>
+      <c r="D357" s="3">
+        <v>552</v>
+      </c>
+      <c r="E357" s="3">
+        <v>550</v>
+      </c>
+      <c r="F357" s="3">
+        <v>2</v>
+      </c>
+      <c r="G357" s="4">
+        <v>0.9963768115942028</v>
+      </c>
+      <c r="H357" s="4">
+        <v>1</v>
+      </c>
+      <c r="I357" s="3">
+        <v>129</v>
+      </c>
+      <c r="J357" s="3">
+        <v>2</v>
+      </c>
+      <c r="K357" s="4">
+        <v>1</v>
+      </c>
+      <c r="L357" s="4">
+        <v>1</v>
+      </c>
+      <c r="M357" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:13">
+      <c r="A358" s="2">
+        <v>45945</v>
+      </c>
+      <c r="B358" s="3">
+        <v>20</v>
+      </c>
+      <c r="C358" s="3">
+        <v>1137</v>
+      </c>
+      <c r="D358" s="3">
+        <v>520</v>
+      </c>
+      <c r="E358" s="3">
+        <v>507</v>
+      </c>
+      <c r="F358" s="3">
+        <v>13</v>
+      </c>
+      <c r="G358" s="4">
+        <v>0.975</v>
+      </c>
+      <c r="H358" s="4">
+        <v>0.9881656804733728</v>
+      </c>
+      <c r="I358" s="3">
+        <v>138</v>
+      </c>
+      <c r="J358" s="3">
+        <v>10</v>
+      </c>
+      <c r="K358" s="4">
+        <v>0.9810606060606061</v>
+      </c>
+      <c r="L358" s="4">
+        <v>0.9932432432432432</v>
+      </c>
+      <c r="M358" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:13">
+      <c r="A359" s="2">
+        <v>45945</v>
+      </c>
+      <c r="B359" s="3">
+        <v>21</v>
+      </c>
+      <c r="C359" s="3">
+        <v>840</v>
+      </c>
+      <c r="D359" s="3">
+        <v>412</v>
+      </c>
+      <c r="E359" s="3">
+        <v>401</v>
+      </c>
+      <c r="F359" s="3">
+        <v>11</v>
+      </c>
+      <c r="G359" s="4">
+        <v>0.9733009708737864</v>
+      </c>
+      <c r="H359" s="4">
+        <v>0.9851116625310173</v>
+      </c>
+      <c r="I359" s="3">
+        <v>144</v>
+      </c>
+      <c r="J359" s="3">
+        <v>10</v>
+      </c>
+      <c r="K359" s="4">
+        <v>0.9911111111111112</v>
+      </c>
+      <c r="L359" s="4">
+        <v>0.9711538461538461</v>
+      </c>
+      <c r="M359" s="4">
+        <v>0.9864864864864864</v>
+      </c>
+    </row>
+    <row r="360" spans="1:13">
+      <c r="A360" s="2">
+        <v>45945</v>
+      </c>
+      <c r="B360" s="3">
+        <v>22</v>
+      </c>
+      <c r="C360" s="3">
+        <v>446</v>
+      </c>
+      <c r="D360" s="3">
+        <v>220</v>
+      </c>
+      <c r="E360" s="3">
+        <v>220</v>
+      </c>
+      <c r="F360" s="3">
+        <v>0</v>
+      </c>
+      <c r="G360" s="4">
+        <v>1</v>
+      </c>
+      <c r="H360" s="4">
+        <v>1</v>
+      </c>
+      <c r="I360" s="3">
+        <v>142</v>
+      </c>
+      <c r="J360" s="3">
+        <v>3</v>
+      </c>
+      <c r="K360" s="4">
+        <v>1</v>
+      </c>
+      <c r="L360" s="4">
+        <v>1</v>
+      </c>
+      <c r="M360" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:13">
+      <c r="A361" s="2">
+        <v>45945</v>
+      </c>
+      <c r="B361" s="3">
+        <v>23</v>
+      </c>
+      <c r="C361" s="3">
+        <v>264</v>
+      </c>
+      <c r="D361" s="3">
+        <v>124</v>
+      </c>
+      <c r="E361" s="3">
+        <v>124</v>
+      </c>
+      <c r="F361" s="3">
+        <v>0</v>
+      </c>
+      <c r="G361" s="4">
+        <v>1</v>
+      </c>
+      <c r="H361" s="4">
+        <v>1</v>
+      </c>
+      <c r="I361" s="3">
+        <v>130</v>
+      </c>
+      <c r="J361" s="3">
+        <v>1</v>
+      </c>
+      <c r="K361" s="4">
+        <v>1</v>
+      </c>
+      <c r="L361" s="4">
+        <v>1</v>
+      </c>
+      <c r="M361" s="4">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="G2:G337">
+  <conditionalFormatting sqref="G2:G361">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThanOrEqual">
       <formula>0.95</formula>
     </cfRule>
@@ -21920,7 +23347,7 @@
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H337">
+  <conditionalFormatting sqref="H2:H361">
     <cfRule type="cellIs" dxfId="3" priority="5" operator="greaterThanOrEqual">
       <formula>0.95</formula>
     </cfRule>
@@ -21928,7 +23355,7 @@
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I337">
+  <conditionalFormatting sqref="I2:I361">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThanOrEqual">
       <formula>130</formula>
     </cfRule>
@@ -21936,7 +23363,7 @@
       <formula>130</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K337">
+  <conditionalFormatting sqref="K2:K361">
     <cfRule type="cellIs" dxfId="3" priority="7" operator="greaterThanOrEqual">
       <formula>0.95</formula>
     </cfRule>
@@ -21944,7 +23371,7 @@
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L337">
+  <conditionalFormatting sqref="L2:L361">
     <cfRule type="cellIs" dxfId="3" priority="9" operator="greaterThanOrEqual">
       <formula>0.95</formula>
     </cfRule>
@@ -21952,7 +23379,7 @@
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M337">
+  <conditionalFormatting sqref="M2:M361">
     <cfRule type="cellIs" dxfId="3" priority="11" operator="greaterThanOrEqual">
       <formula>0.95</formula>
     </cfRule>
@@ -21966,7 +23393,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK31"/>
+  <dimension ref="A1:AK33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -25253,233 +26680,459 @@
       </c>
     </row>
     <row r="30" spans="1:37">
-      <c r="A30" s="5" t="s">
-        <v>36</v>
+      <c r="A30" s="2">
+        <v>45945</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>43</v>
       </c>
       <c r="C30" s="3">
-        <v>129064</v>
+        <v>10439</v>
       </c>
       <c r="D30" s="3">
-        <v>75656</v>
+        <v>6122</v>
       </c>
       <c r="E30" s="3">
-        <v>17806</v>
+        <v>1422</v>
       </c>
       <c r="F30" s="3">
-        <v>57850</v>
+        <v>4700</v>
       </c>
       <c r="G30" s="4">
-        <v>0.2353547636671249</v>
+        <v>0.2322770336491343</v>
       </c>
       <c r="H30" s="3">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I30" s="3">
-        <v>53408</v>
+        <v>4317</v>
       </c>
       <c r="J30" s="4">
-        <v>0.5861897973098618</v>
+        <v>0.5864546412491618</v>
       </c>
       <c r="K30" s="3">
-        <v>53408</v>
+        <v>4317</v>
       </c>
       <c r="L30" s="3">
-        <v>52827</v>
+        <v>4258</v>
       </c>
       <c r="M30" s="3">
-        <v>51708</v>
+        <v>4186</v>
       </c>
       <c r="N30" s="3">
-        <v>1119</v>
+        <v>72</v>
       </c>
       <c r="O30" s="3">
-        <v>490</v>
+        <v>50</v>
       </c>
       <c r="P30" s="3">
-        <v>53317</v>
+        <v>4308</v>
       </c>
       <c r="Q30" s="4">
-        <v>0.990809685466174</v>
+        <v>0.9883936861652739</v>
       </c>
       <c r="R30" s="4">
-        <v>0.009190314533825985</v>
+        <v>0.01160631383472609</v>
       </c>
       <c r="S30" s="3">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="T30" s="3">
-        <v>52468</v>
+        <v>4229</v>
       </c>
       <c r="U30" s="3">
-        <v>359</v>
+        <v>29</v>
       </c>
       <c r="V30" s="3">
-        <v>110</v>
+        <v>5</v>
       </c>
       <c r="W30" s="4">
-        <v>0.9911404121880726</v>
+        <v>0.9920243959652827</v>
       </c>
       <c r="X30" s="3">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="Y30" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z30" s="3">
-        <v>3130</v>
+        <v>268</v>
       </c>
       <c r="AA30" s="3">
         <v>60</v>
       </c>
       <c r="AB30" s="3">
-        <v>3121</v>
+        <v>268</v>
       </c>
       <c r="AC30" s="4">
-        <v>0.9971246006389777</v>
+        <v>1</v>
       </c>
       <c r="AD30" s="3">
-        <v>254</v>
+        <v>19</v>
       </c>
       <c r="AE30" s="3">
         <v>45</v>
       </c>
       <c r="AF30" s="3">
-        <v>254</v>
+        <v>19</v>
       </c>
       <c r="AG30" s="4">
         <v>1</v>
       </c>
       <c r="AH30" s="3">
-        <v>159</v>
+        <v>14</v>
       </c>
       <c r="AI30" s="3">
         <v>30</v>
       </c>
       <c r="AJ30" s="3">
-        <v>158</v>
+        <v>14</v>
       </c>
       <c r="AK30" s="4">
-        <v>0.9937106918238993</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:37">
-      <c r="A31" s="5" t="s">
-        <v>36</v>
+      <c r="A31" s="2">
+        <v>45945</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>44</v>
       </c>
       <c r="C31" s="3">
-        <v>102246</v>
+        <v>6885</v>
       </c>
       <c r="D31" s="3">
-        <v>46697</v>
+        <v>3197</v>
       </c>
       <c r="E31" s="3">
-        <v>15003</v>
+        <v>1024</v>
       </c>
       <c r="F31" s="3">
-        <v>31694</v>
+        <v>2173</v>
       </c>
       <c r="G31" s="4">
-        <v>0.3212840225282138</v>
+        <v>0.3203002815139193</v>
       </c>
       <c r="H31" s="3">
         <v>31</v>
       </c>
       <c r="I31" s="3">
-        <v>55549</v>
+        <v>3688</v>
       </c>
       <c r="J31" s="4">
-        <v>0.4567122430217319</v>
+        <v>0.4643427741466957</v>
       </c>
       <c r="K31" s="3">
-        <v>55549</v>
+        <v>3688</v>
       </c>
       <c r="L31" s="3">
-        <v>54681</v>
+        <v>3658</v>
       </c>
       <c r="M31" s="3">
-        <v>53808</v>
+        <v>3616</v>
       </c>
       <c r="N31" s="3">
-        <v>873</v>
+        <v>42</v>
       </c>
       <c r="O31" s="3">
-        <v>751</v>
+        <v>24</v>
       </c>
       <c r="P31" s="3">
-        <v>55432</v>
+        <v>3682</v>
       </c>
       <c r="Q31" s="4">
-        <v>0.9864518689565593</v>
+        <v>0.993481803367735</v>
       </c>
       <c r="R31" s="4">
-        <v>0.01354813104344061</v>
+        <v>0.006518196632265073</v>
       </c>
       <c r="S31" s="3">
-        <v>117</v>
+        <v>6</v>
       </c>
       <c r="T31" s="3">
-        <v>54295</v>
+        <v>3652</v>
       </c>
       <c r="U31" s="3">
-        <v>386</v>
+        <v>6</v>
       </c>
       <c r="V31" s="3">
-        <v>177</v>
+        <v>2</v>
       </c>
       <c r="W31" s="4">
-        <v>0.9897371395238614</v>
+        <v>0.9978142076502732</v>
       </c>
       <c r="X31" s="3">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Y31" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Z31" s="3">
-        <v>3766</v>
+        <v>246</v>
       </c>
       <c r="AA31" s="3">
         <v>60</v>
       </c>
       <c r="AB31" s="3">
-        <v>3758</v>
+        <v>246</v>
       </c>
       <c r="AC31" s="4">
-        <v>0.9978757302177377</v>
+        <v>1</v>
       </c>
       <c r="AD31" s="3">
-        <v>67</v>
+        <v>2</v>
       </c>
       <c r="AE31" s="3">
         <v>45</v>
       </c>
       <c r="AF31" s="3">
-        <v>67</v>
+        <v>2</v>
       </c>
       <c r="AG31" s="4">
         <v>1</v>
       </c>
       <c r="AH31" s="3">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="AI31" s="3">
         <v>30</v>
       </c>
       <c r="AJ31" s="3">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="AK31" s="4">
-        <v>0.98</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:37">
+      <c r="A32" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="3">
+        <v>139503</v>
+      </c>
+      <c r="D32" s="3">
+        <v>81778</v>
+      </c>
+      <c r="E32" s="3">
+        <v>19228</v>
+      </c>
+      <c r="F32" s="3">
+        <v>62550</v>
+      </c>
+      <c r="G32" s="4">
+        <v>0.2351243610751058</v>
+      </c>
+      <c r="H32" s="3">
+        <v>44</v>
+      </c>
+      <c r="I32" s="3">
+        <v>57725</v>
+      </c>
+      <c r="J32" s="4">
+        <v>0.586209615563823</v>
+      </c>
+      <c r="K32" s="3">
+        <v>57725</v>
+      </c>
+      <c r="L32" s="3">
+        <v>57085</v>
+      </c>
+      <c r="M32" s="3">
+        <v>55894</v>
+      </c>
+      <c r="N32" s="3">
+        <v>1191</v>
+      </c>
+      <c r="O32" s="3">
+        <v>540</v>
+      </c>
+      <c r="P32" s="3">
+        <v>57625</v>
+      </c>
+      <c r="Q32" s="4">
+        <v>0.9906290672451193</v>
+      </c>
+      <c r="R32" s="4">
+        <v>0.009370932754880695</v>
+      </c>
+      <c r="S32" s="3">
+        <v>100</v>
+      </c>
+      <c r="T32" s="3">
+        <v>56697</v>
+      </c>
+      <c r="U32" s="3">
+        <v>388</v>
+      </c>
+      <c r="V32" s="3">
+        <v>115</v>
+      </c>
+      <c r="W32" s="4">
+        <v>0.9912062937062938</v>
+      </c>
+      <c r="X32" s="3">
+        <v>133</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>5</v>
+      </c>
+      <c r="Z32" s="3">
+        <v>3398</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>60</v>
+      </c>
+      <c r="AB32" s="3">
+        <v>3389</v>
+      </c>
+      <c r="AC32" s="4">
+        <v>0.9973513831665686</v>
+      </c>
+      <c r="AD32" s="3">
+        <v>273</v>
+      </c>
+      <c r="AE32" s="3">
+        <v>45</v>
+      </c>
+      <c r="AF32" s="3">
+        <v>273</v>
+      </c>
+      <c r="AG32" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH32" s="3">
+        <v>173</v>
+      </c>
+      <c r="AI32" s="3">
+        <v>30</v>
+      </c>
+      <c r="AJ32" s="3">
+        <v>172</v>
+      </c>
+      <c r="AK32" s="4">
+        <v>0.9942196531791907</v>
+      </c>
+    </row>
+    <row r="33" spans="1:37">
+      <c r="A33" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="3">
+        <v>109131</v>
+      </c>
+      <c r="D33" s="3">
+        <v>49894</v>
+      </c>
+      <c r="E33" s="3">
+        <v>16027</v>
+      </c>
+      <c r="F33" s="3">
+        <v>33867</v>
+      </c>
+      <c r="G33" s="4">
+        <v>0.3212209884956107</v>
+      </c>
+      <c r="H33" s="3">
+        <v>31</v>
+      </c>
+      <c r="I33" s="3">
+        <v>59237</v>
+      </c>
+      <c r="J33" s="4">
+        <v>0.4571936480010263</v>
+      </c>
+      <c r="K33" s="3">
+        <v>59237</v>
+      </c>
+      <c r="L33" s="3">
+        <v>58339</v>
+      </c>
+      <c r="M33" s="3">
+        <v>57424</v>
+      </c>
+      <c r="N33" s="3">
+        <v>915</v>
+      </c>
+      <c r="O33" s="3">
+        <v>775</v>
+      </c>
+      <c r="P33" s="3">
+        <v>59114</v>
+      </c>
+      <c r="Q33" s="4">
+        <v>0.9868897384714281</v>
+      </c>
+      <c r="R33" s="4">
+        <v>0.01311026152857191</v>
+      </c>
+      <c r="S33" s="3">
+        <v>123</v>
+      </c>
+      <c r="T33" s="3">
+        <v>57947</v>
+      </c>
+      <c r="U33" s="3">
+        <v>392</v>
+      </c>
+      <c r="V33" s="3">
+        <v>179</v>
+      </c>
+      <c r="W33" s="4">
+        <v>0.9902423186028231</v>
+      </c>
+      <c r="X33" s="3">
+        <v>130</v>
+      </c>
+      <c r="Y33" s="3">
+        <v>5</v>
+      </c>
+      <c r="Z33" s="3">
+        <v>4012</v>
+      </c>
+      <c r="AA33" s="3">
+        <v>60</v>
+      </c>
+      <c r="AB33" s="3">
+        <v>4004</v>
+      </c>
+      <c r="AC33" s="4">
+        <v>0.9980059820538385</v>
+      </c>
+      <c r="AD33" s="3">
+        <v>69</v>
+      </c>
+      <c r="AE33" s="3">
+        <v>45</v>
+      </c>
+      <c r="AF33" s="3">
+        <v>69</v>
+      </c>
+      <c r="AG33" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH33" s="3">
+        <v>51</v>
+      </c>
+      <c r="AI33" s="3">
+        <v>30</v>
+      </c>
+      <c r="AJ33" s="3">
+        <v>50</v>
+      </c>
+      <c r="AK33" s="4">
+        <v>0.9803921568627451</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="AC2:AC31">
+  <conditionalFormatting sqref="AC2:AC33">
     <cfRule type="cellIs" dxfId="3" priority="11" operator="greaterThanOrEqual">
       <formula>0.95</formula>
     </cfRule>
@@ -25487,7 +27140,7 @@
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG2:AG31">
+  <conditionalFormatting sqref="AG2:AG33">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThanOrEqual">
       <formula>0.95</formula>
     </cfRule>
@@ -25495,7 +27148,7 @@
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK2:AK31">
+  <conditionalFormatting sqref="AK2:AK33">
     <cfRule type="cellIs" dxfId="3" priority="5" operator="greaterThanOrEqual">
       <formula>0.95</formula>
     </cfRule>
@@ -25503,7 +27156,7 @@
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q31">
+  <conditionalFormatting sqref="Q2:Q33">
     <cfRule type="cellIs" dxfId="3" priority="7" operator="greaterThanOrEqual">
       <formula>0.95</formula>
     </cfRule>
@@ -25511,7 +27164,7 @@
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R2:R31">
+  <conditionalFormatting sqref="R2:R33">
     <cfRule type="cellIs" dxfId="3" priority="13" operator="lessThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
@@ -25519,7 +27172,7 @@
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W2:W31">
+  <conditionalFormatting sqref="W2:W33">
     <cfRule type="cellIs" dxfId="3" priority="9" operator="greaterThanOrEqual">
       <formula>0.95</formula>
     </cfRule>
@@ -25527,7 +27180,7 @@
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X2:X31">
+  <conditionalFormatting sqref="X2:X33">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThanOrEqual">
       <formula>130</formula>
     </cfRule>
@@ -25541,7 +27194,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U16"/>
+  <dimension ref="A1:U17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -26526,68 +28179,133 @@
       </c>
     </row>
     <row r="16" spans="1:21">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="2">
+        <v>45945</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1064</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0.134411318847903</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1496</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.1605322459491362</v>
+      </c>
+      <c r="F16" s="3">
+        <v>719</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0.09082870136432541</v>
+      </c>
+      <c r="H16" s="3">
+        <v>1242</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0.1332761025861144</v>
+      </c>
+      <c r="J16" s="3">
+        <v>426</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0.05381505811015665</v>
+      </c>
+      <c r="L16" s="3">
+        <v>869</v>
+      </c>
+      <c r="M16" s="4">
+        <v>0.09325034874986587</v>
+      </c>
+      <c r="N16" s="3">
+        <v>430</v>
+      </c>
+      <c r="O16" s="4">
+        <v>0.05432036382011117</v>
+      </c>
+      <c r="P16" s="3">
+        <v>884</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>0.09485996351539865</v>
+      </c>
+      <c r="R16" s="3">
+        <v>323</v>
+      </c>
+      <c r="S16" s="4">
+        <v>0.04080343607882769</v>
+      </c>
+      <c r="T16" s="3">
+        <v>953</v>
+      </c>
+      <c r="U16" s="4">
+        <v>0.1022641914368494</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
+      <c r="A17" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="3">
-        <v>12792</v>
-      </c>
-      <c r="C16" s="4">
-        <v>0.3951685150288838</v>
-      </c>
-      <c r="D16" s="3">
-        <v>18422</v>
-      </c>
-      <c r="E16" s="4">
-        <v>0.3297179266895762</v>
-      </c>
-      <c r="F16" s="3">
-        <v>7762</v>
-      </c>
-      <c r="G16" s="4">
-        <v>0.2397825213926045</v>
-      </c>
-      <c r="H16" s="3">
-        <v>12973</v>
-      </c>
-      <c r="I16" s="4">
-        <v>0.2321914375715922</v>
-      </c>
-      <c r="J16" s="3">
-        <v>5843</v>
-      </c>
-      <c r="K16" s="4">
-        <v>0.1805010657687436</v>
-      </c>
-      <c r="L16" s="3">
-        <v>10700</v>
-      </c>
-      <c r="M16" s="4">
-        <v>0.1915091638029782</v>
-      </c>
-      <c r="N16" s="3">
-        <v>3463</v>
-      </c>
-      <c r="O16" s="4">
-        <v>0.106978468382194</v>
-      </c>
-      <c r="P16" s="3">
-        <v>7972</v>
-      </c>
-      <c r="Q16" s="4">
-        <v>0.1426832760595647</v>
-      </c>
-      <c r="R16" s="3">
-        <v>2511</v>
-      </c>
-      <c r="S16" s="4">
-        <v>0.07756942942757407</v>
-      </c>
-      <c r="T16" s="3">
-        <v>5805</v>
-      </c>
-      <c r="U16" s="4">
-        <v>0.1038981958762887</v>
+      <c r="B17" s="3">
+        <v>13856</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0.3921546429683299</v>
+      </c>
+      <c r="D17" s="3">
+        <v>19918</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0.3248418031182725</v>
+      </c>
+      <c r="F17" s="3">
+        <v>8481</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0.2400305663260974</v>
+      </c>
+      <c r="H17" s="3">
+        <v>14215</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0.2318318220366625</v>
+      </c>
+      <c r="J17" s="3">
+        <v>6269</v>
+      </c>
+      <c r="K17" s="4">
+        <v>0.1774262021339824</v>
+      </c>
+      <c r="L17" s="3">
+        <v>11569</v>
+      </c>
+      <c r="M17" s="4">
+        <v>0.1886783221345163</v>
+      </c>
+      <c r="N17" s="3">
+        <v>3893</v>
+      </c>
+      <c r="O17" s="4">
+        <v>0.1101802847196672</v>
+      </c>
+      <c r="P17" s="3">
+        <v>8856</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>0.1444321221214691</v>
+      </c>
+      <c r="R17" s="3">
+        <v>2834</v>
+      </c>
+      <c r="S17" s="4">
+        <v>0.08020830385192314</v>
+      </c>
+      <c r="T17" s="3">
+        <v>6758</v>
+      </c>
+      <c r="U17" s="4">
+        <v>0.1102159305890795</v>
       </c>
     </row>
   </sheetData>
@@ -26597,13 +28315,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -26649,8 +28367,11 @@
       <c r="O1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2">
         <v>0</v>
       </c>
@@ -26696,8 +28417,11 @@
       <c r="O2">
         <v>102</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3">
         <v>1</v>
       </c>
@@ -26743,8 +28467,11 @@
       <c r="O3">
         <v>54</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4">
         <v>2</v>
       </c>
@@ -26790,8 +28517,11 @@
       <c r="O4">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5">
         <v>3</v>
       </c>
@@ -26837,8 +28567,11 @@
       <c r="O5">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6">
         <v>4</v>
       </c>
@@ -26884,8 +28617,11 @@
       <c r="O6">
         <v>37</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7">
         <v>5</v>
       </c>
@@ -26931,8 +28667,11 @@
       <c r="O7">
         <v>101</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8">
         <v>6</v>
       </c>
@@ -26978,8 +28717,11 @@
       <c r="O8">
         <v>275</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9">
         <v>7</v>
       </c>
@@ -27025,8 +28767,11 @@
       <c r="O9">
         <v>525</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10">
         <v>8</v>
       </c>
@@ -27072,8 +28817,11 @@
       <c r="O10">
         <v>776</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11">
         <v>9</v>
       </c>
@@ -27119,8 +28867,11 @@
       <c r="O11">
         <v>1027</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12">
         <v>10</v>
       </c>
@@ -27166,8 +28917,11 @@
       <c r="O12">
         <v>1212</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13">
         <v>11</v>
       </c>
@@ -27213,8 +28967,11 @@
       <c r="O13">
         <v>1199</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14">
         <v>12</v>
       </c>
@@ -27260,8 +29017,11 @@
       <c r="O14">
         <v>1107</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15">
         <v>13</v>
       </c>
@@ -27307,8 +29067,11 @@
       <c r="O15">
         <v>1102</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16">
         <v>14</v>
       </c>
@@ -27354,8 +29117,11 @@
       <c r="O16">
         <v>1050</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17">
         <v>15</v>
       </c>
@@ -27401,8 +29167,11 @@
       <c r="O17">
         <v>957</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18">
         <v>16</v>
       </c>
@@ -27448,8 +29217,11 @@
       <c r="O18">
         <v>959</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19">
         <v>17</v>
       </c>
@@ -27495,8 +29267,11 @@
       <c r="O19">
         <v>1158</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20">
         <v>18</v>
       </c>
@@ -27542,8 +29317,11 @@
       <c r="O20">
         <v>1266</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21">
         <v>19</v>
       </c>
@@ -27589,8 +29367,11 @@
       <c r="O21">
         <v>1286</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22">
         <v>20</v>
       </c>
@@ -27636,8 +29417,11 @@
       <c r="O22">
         <v>1060</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23">
         <v>21</v>
       </c>
@@ -27683,8 +29467,11 @@
       <c r="O23">
         <v>663</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24">
         <v>22</v>
       </c>
@@ -27730,8 +29517,11 @@
       <c r="O24">
         <v>445</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25">
         <v>23</v>
       </c>
@@ -27777,9 +29567,12 @@
       <c r="O25">
         <v>257</v>
       </c>
+      <c r="P25">
+        <v>264</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:O25">
+  <conditionalFormatting sqref="B2:P25">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -27797,13 +29590,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -27849,8 +29642,11 @@
       <c r="O1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2">
         <v>0</v>
       </c>
@@ -27896,8 +29692,11 @@
       <c r="O2">
         <v>166</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3">
         <v>1</v>
       </c>
@@ -27943,8 +29742,11 @@
       <c r="O3">
         <v>93</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4">
         <v>2</v>
       </c>
@@ -27990,8 +29792,11 @@
       <c r="O4">
         <v>110</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5">
         <v>3</v>
       </c>
@@ -28037,8 +29842,11 @@
       <c r="O5">
         <v>78</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6">
         <v>4</v>
       </c>
@@ -28084,8 +29892,11 @@
       <c r="O6">
         <v>113</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7">
         <v>5</v>
       </c>
@@ -28131,8 +29942,11 @@
       <c r="O7">
         <v>97</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8">
         <v>6</v>
       </c>
@@ -28178,8 +29992,11 @@
       <c r="O8">
         <v>113</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9">
         <v>7</v>
       </c>
@@ -28225,8 +30042,11 @@
       <c r="O9">
         <v>115</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10">
         <v>8</v>
       </c>
@@ -28272,8 +30092,11 @@
       <c r="O10">
         <v>123</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11">
         <v>9</v>
       </c>
@@ -28319,8 +30142,11 @@
       <c r="O11">
         <v>124</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12">
         <v>10</v>
       </c>
@@ -28366,8 +30192,11 @@
       <c r="O12">
         <v>119</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13">
         <v>11</v>
       </c>
@@ -28413,8 +30242,11 @@
       <c r="O13">
         <v>127</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14">
         <v>12</v>
       </c>
@@ -28460,8 +30292,11 @@
       <c r="O14">
         <v>119</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15">
         <v>13</v>
       </c>
@@ -28507,8 +30342,11 @@
       <c r="O15">
         <v>116</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16">
         <v>14</v>
       </c>
@@ -28554,8 +30392,11 @@
       <c r="O16">
         <v>121</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17">
         <v>15</v>
       </c>
@@ -28601,8 +30442,11 @@
       <c r="O17">
         <v>122</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18">
         <v>16</v>
       </c>
@@ -28648,8 +30492,11 @@
       <c r="O18">
         <v>146</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19">
         <v>17</v>
       </c>
@@ -28695,8 +30542,11 @@
       <c r="O19">
         <v>159</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20">
         <v>18</v>
       </c>
@@ -28742,8 +30592,11 @@
       <c r="O20">
         <v>139</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21">
         <v>19</v>
       </c>
@@ -28789,8 +30642,11 @@
       <c r="O21">
         <v>136</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22">
         <v>20</v>
       </c>
@@ -28836,8 +30692,11 @@
       <c r="O22">
         <v>144</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23">
         <v>21</v>
       </c>
@@ -28883,8 +30742,11 @@
       <c r="O23">
         <v>153</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24">
         <v>22</v>
       </c>
@@ -28930,8 +30792,11 @@
       <c r="O24">
         <v>129</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25">
         <v>23</v>
       </c>
@@ -28977,9 +30842,12 @@
       <c r="O25">
         <v>125</v>
       </c>
+      <c r="P25">
+        <v>130</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:O25">
+  <conditionalFormatting sqref="B2:P25">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>

--- a/Result.xlsx
+++ b/Result.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="90">
   <si>
     <t>Date</t>
   </si>
@@ -280,6 +280,18 @@
   </si>
   <si>
     <t>2025-10-21</t>
+  </si>
+  <si>
+    <t>2025-10-22</t>
+  </si>
+  <si>
+    <t>2025-10-23</t>
+  </si>
+  <si>
+    <t>2025-10-24</t>
+  </si>
+  <si>
+    <t>2025-10-25</t>
   </si>
 </sst>
 </file>
@@ -778,7 +790,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ23"/>
+  <dimension ref="A1:AJ27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3208,86 +3220,86 @@
       </c>
     </row>
     <row r="23" spans="1:36">
-      <c r="A23" s="5" t="s">
-        <v>36</v>
+      <c r="A23" s="2">
+        <v>45952</v>
       </c>
       <c r="B23" s="3">
-        <v>342225</v>
+        <v>17268</v>
       </c>
       <c r="C23" s="3">
-        <v>182470</v>
+        <v>9251</v>
       </c>
       <c r="D23" s="3">
-        <v>48882</v>
+        <v>2493</v>
       </c>
       <c r="E23" s="3">
-        <v>133588</v>
+        <v>6758</v>
       </c>
       <c r="F23" s="4">
-        <v>0.2678906121554228</v>
+        <v>0.2694843800670198</v>
       </c>
       <c r="G23" s="3">
         <v>40</v>
       </c>
       <c r="H23" s="3">
-        <v>159755</v>
+        <v>8017</v>
       </c>
       <c r="I23" s="4">
-        <v>0.533187230623128</v>
+        <v>0.5357308315960158</v>
       </c>
       <c r="J23" s="3">
-        <v>159755</v>
+        <v>8017</v>
       </c>
       <c r="K23" s="3">
-        <v>159473</v>
+        <v>8009</v>
       </c>
       <c r="L23" s="3">
-        <v>157800</v>
+        <v>7961</v>
       </c>
       <c r="M23" s="3">
-        <v>154894</v>
+        <v>7812</v>
       </c>
       <c r="N23" s="3">
-        <v>2906</v>
+        <v>149</v>
       </c>
       <c r="O23" s="4">
-        <v>0.9895091959140419</v>
+        <v>0.9940067424147834</v>
       </c>
       <c r="P23" s="3">
-        <v>1673</v>
+        <v>48</v>
       </c>
       <c r="Q23" s="4">
-        <v>0.01049080408595812</v>
+        <v>0.005993257585216631</v>
       </c>
       <c r="R23" s="3">
-        <v>282</v>
+        <v>8</v>
       </c>
       <c r="S23" s="3">
-        <v>156817</v>
+        <v>7924</v>
       </c>
       <c r="T23" s="3">
-        <v>357</v>
+        <v>7</v>
       </c>
       <c r="U23" s="3">
-        <v>983</v>
+        <v>37</v>
       </c>
       <c r="V23" s="4">
-        <v>0.99152740631145</v>
+        <v>0.9944779116465864</v>
       </c>
       <c r="W23" s="3">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="X23" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Y23" s="3">
-        <v>9859</v>
+        <v>504</v>
       </c>
       <c r="Z23" s="3">
-        <v>456</v>
+        <v>24</v>
       </c>
       <c r="AA23" s="3">
-        <v>312</v>
+        <v>23</v>
       </c>
       <c r="AB23" s="3">
         <v>60</v>
@@ -3299,26 +3311,466 @@
         <v>30</v>
       </c>
       <c r="AE23" s="3">
-        <v>9842</v>
+        <v>502</v>
       </c>
       <c r="AF23" s="3">
-        <v>456</v>
+        <v>24</v>
       </c>
       <c r="AG23" s="3">
-        <v>310</v>
+        <v>23</v>
       </c>
       <c r="AH23" s="4">
-        <v>0.9982756871893702</v>
+        <v>0.996031746031746</v>
       </c>
       <c r="AI23" s="4">
         <v>1</v>
       </c>
       <c r="AJ23" s="4">
-        <v>0.9935897435897436</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:36">
+      <c r="A24" s="2">
+        <v>45953</v>
+      </c>
+      <c r="B24" s="3">
+        <v>17349</v>
+      </c>
+      <c r="C24" s="3">
+        <v>9253</v>
+      </c>
+      <c r="D24" s="3">
+        <v>2595</v>
+      </c>
+      <c r="E24" s="3">
+        <v>6658</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0.280449583918729</v>
+      </c>
+      <c r="G24" s="3">
+        <v>40</v>
+      </c>
+      <c r="H24" s="3">
+        <v>8096</v>
+      </c>
+      <c r="I24" s="4">
+        <v>0.5333448613752954</v>
+      </c>
+      <c r="J24" s="3">
+        <v>8096</v>
+      </c>
+      <c r="K24" s="3">
+        <v>8081</v>
+      </c>
+      <c r="L24" s="3">
+        <v>7994</v>
+      </c>
+      <c r="M24" s="3">
+        <v>7838</v>
+      </c>
+      <c r="N24" s="3">
+        <v>156</v>
+      </c>
+      <c r="O24" s="4">
+        <v>0.989234005692365</v>
+      </c>
+      <c r="P24" s="3">
+        <v>87</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>0.01076599430763519</v>
+      </c>
+      <c r="R24" s="3">
+        <v>15</v>
+      </c>
+      <c r="S24" s="3">
+        <v>7920</v>
+      </c>
+      <c r="T24" s="3">
+        <v>21</v>
+      </c>
+      <c r="U24" s="3">
+        <v>74</v>
+      </c>
+      <c r="V24" s="4">
+        <v>0.9881472239550843</v>
+      </c>
+      <c r="W24" s="3">
+        <v>139</v>
+      </c>
+      <c r="X24" s="3">
+        <v>6</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>469</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>19</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>9</v>
+      </c>
+      <c r="AB24" s="3">
+        <v>60</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>45</v>
+      </c>
+      <c r="AD24" s="3">
+        <v>30</v>
+      </c>
+      <c r="AE24" s="3">
+        <v>469</v>
+      </c>
+      <c r="AF24" s="3">
+        <v>19</v>
+      </c>
+      <c r="AG24" s="3">
+        <v>9</v>
+      </c>
+      <c r="AH24" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI24" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ24" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:36">
+      <c r="A25" s="2">
+        <v>45954</v>
+      </c>
+      <c r="B25" s="3">
+        <v>16774</v>
+      </c>
+      <c r="C25" s="3">
+        <v>9063</v>
+      </c>
+      <c r="D25" s="3">
+        <v>2335</v>
+      </c>
+      <c r="E25" s="3">
+        <v>6728</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0.2576409577402626</v>
+      </c>
+      <c r="G25" s="3">
+        <v>39</v>
+      </c>
+      <c r="H25" s="3">
+        <v>7711</v>
+      </c>
+      <c r="I25" s="4">
+        <v>0.5403004650053654</v>
+      </c>
+      <c r="J25" s="3">
+        <v>7711</v>
+      </c>
+      <c r="K25" s="3">
+        <v>7694</v>
+      </c>
+      <c r="L25" s="3">
+        <v>7582</v>
+      </c>
+      <c r="M25" s="3">
+        <v>7478</v>
+      </c>
+      <c r="N25" s="3">
+        <v>104</v>
+      </c>
+      <c r="O25" s="4">
+        <v>0.9854432024954511</v>
+      </c>
+      <c r="P25" s="3">
+        <v>112</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>0.014556797504549</v>
+      </c>
+      <c r="R25" s="3">
+        <v>17</v>
+      </c>
+      <c r="S25" s="3">
+        <v>7537</v>
+      </c>
+      <c r="T25" s="3">
+        <v>25</v>
+      </c>
+      <c r="U25" s="3">
+        <v>45</v>
+      </c>
+      <c r="V25" s="4">
+        <v>0.9907979492572631</v>
+      </c>
+      <c r="W25" s="3">
+        <v>138</v>
+      </c>
+      <c r="X25" s="3">
+        <v>6</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>530</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>27</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>30</v>
+      </c>
+      <c r="AB25" s="3">
+        <v>60</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>45</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>30</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>529</v>
+      </c>
+      <c r="AF25" s="3">
+        <v>27</v>
+      </c>
+      <c r="AG25" s="3">
+        <v>30</v>
+      </c>
+      <c r="AH25" s="4">
+        <v>0.9981132075471699</v>
+      </c>
+      <c r="AI25" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ25" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:36">
+      <c r="A26" s="2">
+        <v>45955</v>
+      </c>
+      <c r="B26" s="3">
+        <v>16956</v>
+      </c>
+      <c r="C26" s="3">
+        <v>9101</v>
+      </c>
+      <c r="D26" s="3">
+        <v>2378</v>
+      </c>
+      <c r="E26" s="3">
+        <v>6723</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0.2612899681353698</v>
+      </c>
+      <c r="G26" s="3">
+        <v>41</v>
+      </c>
+      <c r="H26" s="3">
+        <v>7855</v>
+      </c>
+      <c r="I26" s="4">
+        <v>0.5367421561689077</v>
+      </c>
+      <c r="J26" s="3">
+        <v>7855</v>
+      </c>
+      <c r="K26" s="3">
+        <v>7835</v>
+      </c>
+      <c r="L26" s="3">
+        <v>7758</v>
+      </c>
+      <c r="M26" s="3">
+        <v>7634</v>
+      </c>
+      <c r="N26" s="3">
+        <v>124</v>
+      </c>
+      <c r="O26" s="4">
+        <v>0.9901723037651563</v>
+      </c>
+      <c r="P26" s="3">
+        <v>77</v>
+      </c>
+      <c r="Q26" s="4">
+        <v>0.00982769623484365</v>
+      </c>
+      <c r="R26" s="3">
+        <v>20</v>
+      </c>
+      <c r="S26" s="3">
+        <v>7715</v>
+      </c>
+      <c r="T26" s="3">
+        <v>13</v>
+      </c>
+      <c r="U26" s="3">
+        <v>43</v>
+      </c>
+      <c r="V26" s="4">
+        <v>0.9927937202419251</v>
+      </c>
+      <c r="W26" s="3">
+        <v>139</v>
+      </c>
+      <c r="X26" s="3">
+        <v>5</v>
+      </c>
+      <c r="Y26" s="3">
+        <v>508</v>
+      </c>
+      <c r="Z26" s="3">
+        <v>18</v>
+      </c>
+      <c r="AA26" s="3">
+        <v>23</v>
+      </c>
+      <c r="AB26" s="3">
+        <v>60</v>
+      </c>
+      <c r="AC26" s="3">
+        <v>45</v>
+      </c>
+      <c r="AD26" s="3">
+        <v>30</v>
+      </c>
+      <c r="AE26" s="3">
+        <v>508</v>
+      </c>
+      <c r="AF26" s="3">
+        <v>18</v>
+      </c>
+      <c r="AG26" s="3">
+        <v>23</v>
+      </c>
+      <c r="AH26" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI26" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ26" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:36">
+      <c r="A27" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="3">
+        <v>410572</v>
+      </c>
+      <c r="C27" s="3">
+        <v>219138</v>
+      </c>
+      <c r="D27" s="3">
+        <v>58683</v>
+      </c>
+      <c r="E27" s="3">
+        <v>160455</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0.2677901596254415</v>
+      </c>
+      <c r="G27" s="3">
+        <v>40</v>
+      </c>
+      <c r="H27" s="3">
+        <v>191434</v>
+      </c>
+      <c r="I27" s="4">
+        <v>0.5337382968151749</v>
+      </c>
+      <c r="J27" s="3">
+        <v>191434</v>
+      </c>
+      <c r="K27" s="3">
+        <v>191092</v>
+      </c>
+      <c r="L27" s="3">
+        <v>189095</v>
+      </c>
+      <c r="M27" s="3">
+        <v>185656</v>
+      </c>
+      <c r="N27" s="3">
+        <v>3439</v>
+      </c>
+      <c r="O27" s="4">
+        <v>0.9895495363489837</v>
+      </c>
+      <c r="P27" s="3">
+        <v>1997</v>
+      </c>
+      <c r="Q27" s="4">
+        <v>0.01045046365101626</v>
+      </c>
+      <c r="R27" s="3">
+        <v>342</v>
+      </c>
+      <c r="S27" s="3">
+        <v>187913</v>
+      </c>
+      <c r="T27" s="3">
+        <v>423</v>
+      </c>
+      <c r="U27" s="3">
+        <v>1182</v>
+      </c>
+      <c r="V27" s="4">
+        <v>0.9915311474371827</v>
+      </c>
+      <c r="W27" s="3">
+        <v>134</v>
+      </c>
+      <c r="X27" s="3">
+        <v>5</v>
+      </c>
+      <c r="Y27" s="3">
+        <v>11870</v>
+      </c>
+      <c r="Z27" s="3">
+        <v>544</v>
+      </c>
+      <c r="AA27" s="3">
+        <v>397</v>
+      </c>
+      <c r="AB27" s="3">
+        <v>60</v>
+      </c>
+      <c r="AC27" s="3">
+        <v>45</v>
+      </c>
+      <c r="AD27" s="3">
+        <v>30</v>
+      </c>
+      <c r="AE27" s="3">
+        <v>11850</v>
+      </c>
+      <c r="AF27" s="3">
+        <v>544</v>
+      </c>
+      <c r="AG27" s="3">
+        <v>395</v>
+      </c>
+      <c r="AH27" s="4">
+        <v>0.9983150800336983</v>
+      </c>
+      <c r="AI27" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ27" s="4">
+        <v>0.9949622166246851</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="AH2:AH23">
+  <conditionalFormatting sqref="AH2:AH27">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThanOrEqual">
       <formula>0.95</formula>
     </cfRule>
@@ -3326,7 +3778,7 @@
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI2:AI23">
+  <conditionalFormatting sqref="AI2:AI27">
     <cfRule type="cellIs" dxfId="3" priority="5" operator="greaterThanOrEqual">
       <formula>0.95</formula>
     </cfRule>
@@ -3334,7 +3786,7 @@
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ2:AJ23">
+  <conditionalFormatting sqref="AJ2:AJ27">
     <cfRule type="cellIs" dxfId="3" priority="7" operator="greaterThanOrEqual">
       <formula>0.95</formula>
     </cfRule>
@@ -3342,7 +3794,7 @@
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O23">
+  <conditionalFormatting sqref="O2:O27">
     <cfRule type="cellIs" dxfId="3" priority="9" operator="greaterThanOrEqual">
       <formula>0.95</formula>
     </cfRule>
@@ -3350,7 +3802,7 @@
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q23">
+  <conditionalFormatting sqref="Q2:Q27">
     <cfRule type="cellIs" dxfId="3" priority="13" operator="lessThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
@@ -3358,7 +3810,7 @@
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V2:V23">
+  <conditionalFormatting sqref="V2:V27">
     <cfRule type="cellIs" dxfId="3" priority="11" operator="greaterThanOrEqual">
       <formula>0.95</formula>
     </cfRule>
@@ -3366,7 +3818,7 @@
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W2:W23">
+  <conditionalFormatting sqref="W2:W27">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThanOrEqual">
       <formula>130</formula>
     </cfRule>
@@ -3380,7 +3832,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ23"/>
+  <dimension ref="A1:AJ27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5810,86 +6262,86 @@
       </c>
     </row>
     <row r="23" spans="1:36">
-      <c r="A23" s="5" t="s">
-        <v>36</v>
+      <c r="A23" s="2">
+        <v>45952</v>
       </c>
       <c r="B23" s="3">
-        <v>193160</v>
+        <v>9174</v>
       </c>
       <c r="C23" s="3">
-        <v>113264</v>
+        <v>5427</v>
       </c>
       <c r="D23" s="3">
-        <v>26843</v>
+        <v>1292</v>
       </c>
       <c r="E23" s="3">
-        <v>86421</v>
+        <v>4135</v>
       </c>
       <c r="F23" s="4">
-        <v>0.2369949851673965</v>
+        <v>0.2380689146858301</v>
       </c>
       <c r="G23" s="3">
         <v>45</v>
       </c>
       <c r="H23" s="3">
-        <v>79896</v>
+        <v>3747</v>
       </c>
       <c r="I23" s="4">
-        <v>0.5863739904742182</v>
+        <v>0.591563113145847</v>
       </c>
       <c r="J23" s="3">
-        <v>79896</v>
+        <v>3747</v>
       </c>
       <c r="K23" s="3">
-        <v>79755</v>
+        <v>3743</v>
       </c>
       <c r="L23" s="3">
-        <v>78978</v>
+        <v>3721</v>
       </c>
       <c r="M23" s="3">
-        <v>77353</v>
+        <v>3639</v>
       </c>
       <c r="N23" s="3">
-        <v>1625</v>
+        <v>82</v>
       </c>
       <c r="O23" s="4">
-        <v>0.9902576640962948</v>
+        <v>0.9941223617419184</v>
       </c>
       <c r="P23" s="3">
-        <v>777</v>
+        <v>22</v>
       </c>
       <c r="Q23" s="4">
-        <v>0.009742335903705096</v>
+        <v>0.005877638258081752</v>
       </c>
       <c r="R23" s="3">
-        <v>141</v>
+        <v>4</v>
       </c>
       <c r="S23" s="3">
-        <v>78429</v>
+        <v>3698</v>
       </c>
       <c r="T23" s="3">
-        <v>161</v>
+        <v>2</v>
       </c>
       <c r="U23" s="3">
-        <v>549</v>
+        <v>23</v>
       </c>
       <c r="V23" s="4">
-        <v>0.9910284436245088</v>
+        <v>0.9932849852269675</v>
       </c>
       <c r="W23" s="3">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="X23" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y23" s="3">
-        <v>4594</v>
+        <v>213</v>
       </c>
       <c r="Z23" s="3">
-        <v>366</v>
+        <v>20</v>
       </c>
       <c r="AA23" s="3">
-        <v>252</v>
+        <v>19</v>
       </c>
       <c r="AB23" s="3">
         <v>60</v>
@@ -5901,26 +6353,466 @@
         <v>30</v>
       </c>
       <c r="AE23" s="3">
-        <v>4585</v>
+        <v>213</v>
       </c>
       <c r="AF23" s="3">
-        <v>366</v>
+        <v>20</v>
       </c>
       <c r="AG23" s="3">
-        <v>251</v>
+        <v>19</v>
       </c>
       <c r="AH23" s="4">
-        <v>0.9980409229429691</v>
+        <v>1</v>
       </c>
       <c r="AI23" s="4">
         <v>1</v>
       </c>
       <c r="AJ23" s="4">
-        <v>0.996031746031746</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:36">
+      <c r="A24" s="2">
+        <v>45953</v>
+      </c>
+      <c r="B24" s="3">
+        <v>9122</v>
+      </c>
+      <c r="C24" s="3">
+        <v>5422</v>
+      </c>
+      <c r="D24" s="3">
+        <v>1406</v>
+      </c>
+      <c r="E24" s="3">
+        <v>4016</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0.2593139063076356</v>
+      </c>
+      <c r="G24" s="3">
+        <v>44</v>
+      </c>
+      <c r="H24" s="3">
+        <v>3700</v>
+      </c>
+      <c r="I24" s="4">
+        <v>0.5943871957903969</v>
+      </c>
+      <c r="J24" s="3">
+        <v>3700</v>
+      </c>
+      <c r="K24" s="3">
+        <v>3697</v>
+      </c>
+      <c r="L24" s="3">
+        <v>3656</v>
+      </c>
+      <c r="M24" s="3">
+        <v>3573</v>
+      </c>
+      <c r="N24" s="3">
+        <v>83</v>
+      </c>
+      <c r="O24" s="4">
+        <v>0.9889099269678119</v>
+      </c>
+      <c r="P24" s="3">
+        <v>41</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>0.01109007303218826</v>
+      </c>
+      <c r="R24" s="3">
+        <v>3</v>
+      </c>
+      <c r="S24" s="3">
+        <v>3600</v>
+      </c>
+      <c r="T24" s="3">
+        <v>12</v>
+      </c>
+      <c r="U24" s="3">
+        <v>56</v>
+      </c>
+      <c r="V24" s="4">
+        <v>0.9814612868047984</v>
+      </c>
+      <c r="W24" s="3">
+        <v>135</v>
+      </c>
+      <c r="X24" s="3">
+        <v>8</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>206</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>12</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>8</v>
+      </c>
+      <c r="AB24" s="3">
+        <v>60</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>45</v>
+      </c>
+      <c r="AD24" s="3">
+        <v>30</v>
+      </c>
+      <c r="AE24" s="3">
+        <v>206</v>
+      </c>
+      <c r="AF24" s="3">
+        <v>12</v>
+      </c>
+      <c r="AG24" s="3">
+        <v>8</v>
+      </c>
+      <c r="AH24" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI24" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ24" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:36">
+      <c r="A25" s="2">
+        <v>45954</v>
+      </c>
+      <c r="B25" s="3">
+        <v>8791</v>
+      </c>
+      <c r="C25" s="3">
+        <v>5272</v>
+      </c>
+      <c r="D25" s="3">
+        <v>1231</v>
+      </c>
+      <c r="E25" s="3">
+        <v>4041</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0.2334977238239757</v>
+      </c>
+      <c r="G25" s="3">
+        <v>44</v>
+      </c>
+      <c r="H25" s="3">
+        <v>3519</v>
+      </c>
+      <c r="I25" s="4">
+        <v>0.5997042429757706</v>
+      </c>
+      <c r="J25" s="3">
+        <v>3519</v>
+      </c>
+      <c r="K25" s="3">
+        <v>3509</v>
+      </c>
+      <c r="L25" s="3">
+        <v>3428</v>
+      </c>
+      <c r="M25" s="3">
+        <v>3372</v>
+      </c>
+      <c r="N25" s="3">
+        <v>56</v>
+      </c>
+      <c r="O25" s="4">
+        <v>0.9769165004274722</v>
+      </c>
+      <c r="P25" s="3">
+        <v>81</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>0.02308349957252779</v>
+      </c>
+      <c r="R25" s="3">
+        <v>10</v>
+      </c>
+      <c r="S25" s="3">
+        <v>3388</v>
+      </c>
+      <c r="T25" s="3">
+        <v>19</v>
+      </c>
+      <c r="U25" s="3">
+        <v>40</v>
+      </c>
+      <c r="V25" s="4">
+        <v>0.982883666956774</v>
+      </c>
+      <c r="W25" s="3">
+        <v>136</v>
+      </c>
+      <c r="X25" s="3">
+        <v>8</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>203</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>15</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>22</v>
+      </c>
+      <c r="AB25" s="3">
+        <v>60</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>45</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>30</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>203</v>
+      </c>
+      <c r="AF25" s="3">
+        <v>15</v>
+      </c>
+      <c r="AG25" s="3">
+        <v>22</v>
+      </c>
+      <c r="AH25" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI25" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ25" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:36">
+      <c r="A26" s="2">
+        <v>45955</v>
+      </c>
+      <c r="B26" s="3">
+        <v>8809</v>
+      </c>
+      <c r="C26" s="3">
+        <v>5301</v>
+      </c>
+      <c r="D26" s="3">
+        <v>1251</v>
+      </c>
+      <c r="E26" s="3">
+        <v>4050</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0.2359932088285229</v>
+      </c>
+      <c r="G26" s="3">
+        <v>46</v>
+      </c>
+      <c r="H26" s="3">
+        <v>3508</v>
+      </c>
+      <c r="I26" s="4">
+        <v>0.6017709161085254</v>
+      </c>
+      <c r="J26" s="3">
+        <v>3508</v>
+      </c>
+      <c r="K26" s="3">
+        <v>3499</v>
+      </c>
+      <c r="L26" s="3">
+        <v>3467</v>
+      </c>
+      <c r="M26" s="3">
+        <v>3408</v>
+      </c>
+      <c r="N26" s="3">
+        <v>59</v>
+      </c>
+      <c r="O26" s="4">
+        <v>0.9908545298656759</v>
+      </c>
+      <c r="P26" s="3">
+        <v>32</v>
+      </c>
+      <c r="Q26" s="4">
+        <v>0.009145470134324093</v>
+      </c>
+      <c r="R26" s="3">
+        <v>9</v>
+      </c>
+      <c r="S26" s="3">
+        <v>3442</v>
+      </c>
+      <c r="T26" s="3">
+        <v>6</v>
+      </c>
+      <c r="U26" s="3">
+        <v>25</v>
+      </c>
+      <c r="V26" s="4">
+        <v>0.991073999424129</v>
+      </c>
+      <c r="W26" s="3">
+        <v>133</v>
+      </c>
+      <c r="X26" s="3">
+        <v>5</v>
+      </c>
+      <c r="Y26" s="3">
+        <v>214</v>
+      </c>
+      <c r="Z26" s="3">
+        <v>15</v>
+      </c>
+      <c r="AA26" s="3">
+        <v>18</v>
+      </c>
+      <c r="AB26" s="3">
+        <v>60</v>
+      </c>
+      <c r="AC26" s="3">
+        <v>45</v>
+      </c>
+      <c r="AD26" s="3">
+        <v>30</v>
+      </c>
+      <c r="AE26" s="3">
+        <v>214</v>
+      </c>
+      <c r="AF26" s="3">
+        <v>15</v>
+      </c>
+      <c r="AG26" s="3">
+        <v>18</v>
+      </c>
+      <c r="AH26" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI26" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ26" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:36">
+      <c r="A27" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="3">
+        <v>229056</v>
+      </c>
+      <c r="C27" s="3">
+        <v>134686</v>
+      </c>
+      <c r="D27" s="3">
+        <v>32023</v>
+      </c>
+      <c r="E27" s="3">
+        <v>102663</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0.2377604205336858</v>
+      </c>
+      <c r="G27" s="3">
+        <v>45</v>
+      </c>
+      <c r="H27" s="3">
+        <v>94370</v>
+      </c>
+      <c r="I27" s="4">
+        <v>0.5880046800782341</v>
+      </c>
+      <c r="J27" s="3">
+        <v>94370</v>
+      </c>
+      <c r="K27" s="3">
+        <v>94203</v>
+      </c>
+      <c r="L27" s="3">
+        <v>93250</v>
+      </c>
+      <c r="M27" s="3">
+        <v>91345</v>
+      </c>
+      <c r="N27" s="3">
+        <v>1905</v>
+      </c>
+      <c r="O27" s="4">
+        <v>0.9898835493561776</v>
+      </c>
+      <c r="P27" s="3">
+        <v>953</v>
+      </c>
+      <c r="Q27" s="4">
+        <v>0.01011645064382238</v>
+      </c>
+      <c r="R27" s="3">
+        <v>167</v>
+      </c>
+      <c r="S27" s="3">
+        <v>92557</v>
+      </c>
+      <c r="T27" s="3">
+        <v>200</v>
+      </c>
+      <c r="U27" s="3">
+        <v>693</v>
+      </c>
+      <c r="V27" s="4">
+        <v>0.9904440877474585</v>
+      </c>
+      <c r="W27" s="3">
+        <v>135</v>
+      </c>
+      <c r="X27" s="3">
+        <v>6</v>
+      </c>
+      <c r="Y27" s="3">
+        <v>5430</v>
+      </c>
+      <c r="Z27" s="3">
+        <v>428</v>
+      </c>
+      <c r="AA27" s="3">
+        <v>319</v>
+      </c>
+      <c r="AB27" s="3">
+        <v>60</v>
+      </c>
+      <c r="AC27" s="3">
+        <v>45</v>
+      </c>
+      <c r="AD27" s="3">
+        <v>30</v>
+      </c>
+      <c r="AE27" s="3">
+        <v>5421</v>
+      </c>
+      <c r="AF27" s="3">
+        <v>428</v>
+      </c>
+      <c r="AG27" s="3">
+        <v>318</v>
+      </c>
+      <c r="AH27" s="4">
+        <v>0.9983425414364641</v>
+      </c>
+      <c r="AI27" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ27" s="4">
+        <v>0.9968652037617555</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="AH2:AH23">
+  <conditionalFormatting sqref="AH2:AH27">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThanOrEqual">
       <formula>0.95</formula>
     </cfRule>
@@ -5928,7 +6820,7 @@
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI2:AI23">
+  <conditionalFormatting sqref="AI2:AI27">
     <cfRule type="cellIs" dxfId="3" priority="5" operator="greaterThanOrEqual">
       <formula>0.95</formula>
     </cfRule>
@@ -5936,7 +6828,7 @@
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ2:AJ23">
+  <conditionalFormatting sqref="AJ2:AJ27">
     <cfRule type="cellIs" dxfId="3" priority="7" operator="greaterThanOrEqual">
       <formula>0.95</formula>
     </cfRule>
@@ -5944,7 +6836,7 @@
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O23">
+  <conditionalFormatting sqref="O2:O27">
     <cfRule type="cellIs" dxfId="3" priority="9" operator="greaterThanOrEqual">
       <formula>0.95</formula>
     </cfRule>
@@ -5952,7 +6844,7 @@
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q23">
+  <conditionalFormatting sqref="Q2:Q27">
     <cfRule type="cellIs" dxfId="3" priority="13" operator="lessThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
@@ -5960,7 +6852,7 @@
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V2:V23">
+  <conditionalFormatting sqref="V2:V27">
     <cfRule type="cellIs" dxfId="3" priority="11" operator="greaterThanOrEqual">
       <formula>0.95</formula>
     </cfRule>
@@ -5968,7 +6860,7 @@
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W2:W23">
+  <conditionalFormatting sqref="W2:W27">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThanOrEqual">
       <formula>130</formula>
     </cfRule>
@@ -5982,7 +6874,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ23"/>
+  <dimension ref="A1:AJ27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8412,86 +9304,86 @@
       </c>
     </row>
     <row r="23" spans="1:36">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="2">
+        <v>45952</v>
+      </c>
+      <c r="B23" s="3">
+        <v>4911</v>
+      </c>
+      <c r="C23" s="3">
+        <v>2438</v>
+      </c>
+      <c r="D23" s="3">
+        <v>812</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1626</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0.3330598851517637</v>
+      </c>
+      <c r="G23" s="3">
+        <v>29</v>
+      </c>
+      <c r="H23" s="3">
+        <v>2473</v>
+      </c>
+      <c r="I23" s="4">
+        <v>0.496436570963144</v>
+      </c>
+      <c r="J23" s="3">
+        <v>2473</v>
+      </c>
+      <c r="K23" s="3">
+        <v>2470</v>
+      </c>
+      <c r="L23" s="3">
+        <v>2460</v>
+      </c>
+      <c r="M23" s="3">
+        <v>2424</v>
+      </c>
+      <c r="N23" s="3">
         <v>36</v>
       </c>
-      <c r="B23" s="3">
-        <v>90627</v>
-      </c>
-      <c r="C23" s="3">
-        <v>44174</v>
-      </c>
-      <c r="D23" s="3">
-        <v>15050</v>
-      </c>
-      <c r="E23" s="3">
-        <v>29124</v>
-      </c>
-      <c r="F23" s="4">
-        <v>0.3406981482319917</v>
-      </c>
-      <c r="G23" s="3">
-        <v>27</v>
-      </c>
-      <c r="H23" s="3">
-        <v>46453</v>
-      </c>
-      <c r="I23" s="4">
-        <v>0.4874264843810344</v>
-      </c>
-      <c r="J23" s="3">
-        <v>46453</v>
-      </c>
-      <c r="K23" s="3">
-        <v>46356</v>
-      </c>
-      <c r="L23" s="3">
-        <v>45781</v>
-      </c>
-      <c r="M23" s="3">
-        <v>44933</v>
-      </c>
-      <c r="N23" s="3">
-        <v>848</v>
-      </c>
       <c r="O23" s="4">
-        <v>0.9875959962032962</v>
+        <v>0.9959514170040485</v>
       </c>
       <c r="P23" s="3">
-        <v>575</v>
+        <v>10</v>
       </c>
       <c r="Q23" s="4">
-        <v>0.01240400379670377</v>
+        <v>0.004048582995951417</v>
       </c>
       <c r="R23" s="3">
-        <v>97</v>
+        <v>3</v>
       </c>
       <c r="S23" s="3">
-        <v>45564</v>
+        <v>2456</v>
       </c>
       <c r="T23" s="3">
-        <v>116</v>
+        <v>2</v>
       </c>
       <c r="U23" s="3">
-        <v>217</v>
+        <v>4</v>
       </c>
       <c r="V23" s="4">
-        <v>0.992744623831623</v>
+        <v>0.9975629569455726</v>
       </c>
       <c r="W23" s="3">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="X23" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y23" s="3">
-        <v>3162</v>
+        <v>183</v>
       </c>
       <c r="Z23" s="3">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="AA23" s="3">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="AB23" s="3">
         <v>60</v>
@@ -8503,26 +9395,466 @@
         <v>30</v>
       </c>
       <c r="AE23" s="3">
-        <v>3157</v>
+        <v>183</v>
       </c>
       <c r="AF23" s="3">
+        <v>2</v>
+      </c>
+      <c r="AG23" s="3">
+        <v>2</v>
+      </c>
+      <c r="AH23" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI23" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ23" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:36">
+      <c r="A24" s="2">
+        <v>45953</v>
+      </c>
+      <c r="B24" s="3">
+        <v>4893</v>
+      </c>
+      <c r="C24" s="3">
+        <v>2405</v>
+      </c>
+      <c r="D24" s="3">
+        <v>822</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1583</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0.3417879417879418</v>
+      </c>
+      <c r="G24" s="3">
+        <v>29</v>
+      </c>
+      <c r="H24" s="3">
+        <v>2488</v>
+      </c>
+      <c r="I24" s="4">
+        <v>0.4915184958103413</v>
+      </c>
+      <c r="J24" s="3">
+        <v>2488</v>
+      </c>
+      <c r="K24" s="3">
+        <v>2482</v>
+      </c>
+      <c r="L24" s="3">
+        <v>2452</v>
+      </c>
+      <c r="M24" s="3">
+        <v>2405</v>
+      </c>
+      <c r="N24" s="3">
+        <v>47</v>
+      </c>
+      <c r="O24" s="4">
+        <v>0.9879129734085415</v>
+      </c>
+      <c r="P24" s="3">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>0.0120870265914585</v>
+      </c>
+      <c r="R24" s="3">
+        <v>6</v>
+      </c>
+      <c r="S24" s="3">
+        <v>2446</v>
+      </c>
+      <c r="T24" s="3">
+        <v>3</v>
+      </c>
+      <c r="U24" s="3">
+        <v>6</v>
+      </c>
+      <c r="V24" s="4">
+        <v>0.9963340122199594</v>
+      </c>
+      <c r="W24" s="3">
+        <v>138</v>
+      </c>
+      <c r="X24" s="3">
+        <v>4</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>159</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>2</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB24" s="3">
+        <v>60</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>45</v>
+      </c>
+      <c r="AD24" s="3">
+        <v>30</v>
+      </c>
+      <c r="AE24" s="3">
+        <v>159</v>
+      </c>
+      <c r="AF24" s="3">
+        <v>2</v>
+      </c>
+      <c r="AG24" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH24" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI24" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ24" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:36">
+      <c r="A25" s="2">
+        <v>45954</v>
+      </c>
+      <c r="B25" s="3">
+        <v>4845</v>
+      </c>
+      <c r="C25" s="3">
+        <v>2466</v>
+      </c>
+      <c r="D25" s="3">
+        <v>758</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1708</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0.3073803730738037</v>
+      </c>
+      <c r="G25" s="3">
+        <v>28</v>
+      </c>
+      <c r="H25" s="3">
+        <v>2379</v>
+      </c>
+      <c r="I25" s="4">
+        <v>0.5089783281733746</v>
+      </c>
+      <c r="J25" s="3">
+        <v>2379</v>
+      </c>
+      <c r="K25" s="3">
+        <v>2375</v>
+      </c>
+      <c r="L25" s="3">
+        <v>2359</v>
+      </c>
+      <c r="M25" s="3">
+        <v>2328</v>
+      </c>
+      <c r="N25" s="3">
         <v>31</v>
       </c>
-      <c r="AG23" s="3">
-        <v>43</v>
-      </c>
-      <c r="AH23" s="4">
-        <v>0.9984187223276407</v>
-      </c>
-      <c r="AI23" s="4">
-        <v>1</v>
-      </c>
-      <c r="AJ23" s="4">
-        <v>0.9772727272727273</v>
+      <c r="O25" s="4">
+        <v>0.9932631578947368</v>
+      </c>
+      <c r="P25" s="3">
+        <v>16</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>0.006736842105263158</v>
+      </c>
+      <c r="R25" s="3">
+        <v>4</v>
+      </c>
+      <c r="S25" s="3">
+        <v>2357</v>
+      </c>
+      <c r="T25" s="3">
+        <v>2</v>
+      </c>
+      <c r="U25" s="3">
+        <v>2</v>
+      </c>
+      <c r="V25" s="4">
+        <v>0.9983058026260059</v>
+      </c>
+      <c r="W25" s="3">
+        <v>134</v>
+      </c>
+      <c r="X25" s="3">
+        <v>4</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>203</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>6</v>
+      </c>
+      <c r="AB25" s="3">
+        <v>60</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>45</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>30</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>202</v>
+      </c>
+      <c r="AF25" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG25" s="3">
+        <v>6</v>
+      </c>
+      <c r="AH25" s="4">
+        <v>0.9950738916256158</v>
+      </c>
+      <c r="AI25" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ25" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:36">
+      <c r="A26" s="2">
+        <v>45955</v>
+      </c>
+      <c r="B26" s="3">
+        <v>5034</v>
+      </c>
+      <c r="C26" s="3">
+        <v>2464</v>
+      </c>
+      <c r="D26" s="3">
+        <v>788</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1676</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0.3198051948051948</v>
+      </c>
+      <c r="G26" s="3">
+        <v>30</v>
+      </c>
+      <c r="H26" s="3">
+        <v>2570</v>
+      </c>
+      <c r="I26" s="4">
+        <v>0.489471593166468</v>
+      </c>
+      <c r="J26" s="3">
+        <v>2570</v>
+      </c>
+      <c r="K26" s="3">
+        <v>2562</v>
+      </c>
+      <c r="L26" s="3">
+        <v>2532</v>
+      </c>
+      <c r="M26" s="3">
+        <v>2496</v>
+      </c>
+      <c r="N26" s="3">
+        <v>36</v>
+      </c>
+      <c r="O26" s="4">
+        <v>0.9882903981264637</v>
+      </c>
+      <c r="P26" s="3">
+        <v>30</v>
+      </c>
+      <c r="Q26" s="4">
+        <v>0.0117096018735363</v>
+      </c>
+      <c r="R26" s="3">
+        <v>8</v>
+      </c>
+      <c r="S26" s="3">
+        <v>2523</v>
+      </c>
+      <c r="T26" s="3">
+        <v>5</v>
+      </c>
+      <c r="U26" s="3">
+        <v>9</v>
+      </c>
+      <c r="V26" s="4">
+        <v>0.994481671265274</v>
+      </c>
+      <c r="W26" s="3">
+        <v>137</v>
+      </c>
+      <c r="X26" s="3">
+        <v>4</v>
+      </c>
+      <c r="Y26" s="3">
+        <v>182</v>
+      </c>
+      <c r="Z26" s="3">
+        <v>2</v>
+      </c>
+      <c r="AA26" s="3">
+        <v>5</v>
+      </c>
+      <c r="AB26" s="3">
+        <v>60</v>
+      </c>
+      <c r="AC26" s="3">
+        <v>45</v>
+      </c>
+      <c r="AD26" s="3">
+        <v>30</v>
+      </c>
+      <c r="AE26" s="3">
+        <v>182</v>
+      </c>
+      <c r="AF26" s="3">
+        <v>2</v>
+      </c>
+      <c r="AG26" s="3">
+        <v>5</v>
+      </c>
+      <c r="AH26" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI26" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ26" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:36">
+      <c r="A27" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="3">
+        <v>110310</v>
+      </c>
+      <c r="C27" s="3">
+        <v>53947</v>
+      </c>
+      <c r="D27" s="3">
+        <v>18230</v>
+      </c>
+      <c r="E27" s="3">
+        <v>35717</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0.3379242589949395</v>
+      </c>
+      <c r="G27" s="3">
+        <v>27</v>
+      </c>
+      <c r="H27" s="3">
+        <v>56363</v>
+      </c>
+      <c r="I27" s="4">
+        <v>0.4890490436043876</v>
+      </c>
+      <c r="J27" s="3">
+        <v>56363</v>
+      </c>
+      <c r="K27" s="3">
+        <v>56245</v>
+      </c>
+      <c r="L27" s="3">
+        <v>55584</v>
+      </c>
+      <c r="M27" s="3">
+        <v>54586</v>
+      </c>
+      <c r="N27" s="3">
+        <v>998</v>
+      </c>
+      <c r="O27" s="4">
+        <v>0.9882478442528224</v>
+      </c>
+      <c r="P27" s="3">
+        <v>661</v>
+      </c>
+      <c r="Q27" s="4">
+        <v>0.01175215574717753</v>
+      </c>
+      <c r="R27" s="3">
+        <v>118</v>
+      </c>
+      <c r="S27" s="3">
+        <v>55346</v>
+      </c>
+      <c r="T27" s="3">
+        <v>128</v>
+      </c>
+      <c r="U27" s="3">
+        <v>238</v>
+      </c>
+      <c r="V27" s="4">
+        <v>0.9934304997128087</v>
+      </c>
+      <c r="W27" s="3">
+        <v>129</v>
+      </c>
+      <c r="X27" s="3">
+        <v>4</v>
+      </c>
+      <c r="Y27" s="3">
+        <v>3889</v>
+      </c>
+      <c r="Z27" s="3">
+        <v>38</v>
+      </c>
+      <c r="AA27" s="3">
+        <v>58</v>
+      </c>
+      <c r="AB27" s="3">
+        <v>60</v>
+      </c>
+      <c r="AC27" s="3">
+        <v>45</v>
+      </c>
+      <c r="AD27" s="3">
+        <v>30</v>
+      </c>
+      <c r="AE27" s="3">
+        <v>3883</v>
+      </c>
+      <c r="AF27" s="3">
+        <v>38</v>
+      </c>
+      <c r="AG27" s="3">
+        <v>57</v>
+      </c>
+      <c r="AH27" s="4">
+        <v>0.9984571869375161</v>
+      </c>
+      <c r="AI27" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ27" s="4">
+        <v>0.9827586206896551</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="AH2:AH23">
+  <conditionalFormatting sqref="AH2:AH27">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThanOrEqual">
       <formula>0.95</formula>
     </cfRule>
@@ -8530,7 +9862,7 @@
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI2:AI23">
+  <conditionalFormatting sqref="AI2:AI27">
     <cfRule type="cellIs" dxfId="3" priority="5" operator="greaterThanOrEqual">
       <formula>0.95</formula>
     </cfRule>
@@ -8538,7 +9870,7 @@
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ2:AJ23">
+  <conditionalFormatting sqref="AJ2:AJ27">
     <cfRule type="cellIs" dxfId="3" priority="7" operator="greaterThanOrEqual">
       <formula>0.95</formula>
     </cfRule>
@@ -8546,7 +9878,7 @@
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O23">
+  <conditionalFormatting sqref="O2:O27">
     <cfRule type="cellIs" dxfId="3" priority="9" operator="greaterThanOrEqual">
       <formula>0.95</formula>
     </cfRule>
@@ -8554,7 +9886,7 @@
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q23">
+  <conditionalFormatting sqref="Q2:Q27">
     <cfRule type="cellIs" dxfId="3" priority="13" operator="lessThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
@@ -8562,7 +9894,7 @@
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V2:V23">
+  <conditionalFormatting sqref="V2:V27">
     <cfRule type="cellIs" dxfId="3" priority="11" operator="greaterThanOrEqual">
       <formula>0.95</formula>
     </cfRule>
@@ -8570,7 +9902,7 @@
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W2:W23">
+  <conditionalFormatting sqref="W2:W27">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThanOrEqual">
       <formula>130</formula>
     </cfRule>
@@ -8584,7 +9916,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ23"/>
+  <dimension ref="A1:AJ27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -11014,86 +12346,86 @@
       </c>
     </row>
     <row r="23" spans="1:36">
-      <c r="A23" s="5" t="s">
-        <v>36</v>
+      <c r="A23" s="2">
+        <v>45952</v>
       </c>
       <c r="B23" s="3">
-        <v>58438</v>
+        <v>3183</v>
       </c>
       <c r="C23" s="3">
-        <v>25032</v>
+        <v>1386</v>
       </c>
       <c r="D23" s="3">
-        <v>6989</v>
+        <v>389</v>
       </c>
       <c r="E23" s="3">
-        <v>18043</v>
+        <v>997</v>
       </c>
       <c r="F23" s="4">
-        <v>0.2792026206455737</v>
+        <v>0.2806637806637807</v>
       </c>
       <c r="G23" s="3">
         <v>39</v>
       </c>
       <c r="H23" s="3">
-        <v>33406</v>
+        <v>1797</v>
       </c>
       <c r="I23" s="4">
-        <v>0.4283514151750573</v>
+        <v>0.4354382657869934</v>
       </c>
       <c r="J23" s="3">
-        <v>33406</v>
+        <v>1797</v>
       </c>
       <c r="K23" s="3">
-        <v>33362</v>
+        <v>1796</v>
       </c>
       <c r="L23" s="3">
-        <v>33041</v>
+        <v>1780</v>
       </c>
       <c r="M23" s="3">
-        <v>32608</v>
+        <v>1749</v>
       </c>
       <c r="N23" s="3">
-        <v>433</v>
+        <v>31</v>
       </c>
       <c r="O23" s="4">
-        <v>0.9903782746837719</v>
+        <v>0.9910913140311804</v>
       </c>
       <c r="P23" s="3">
-        <v>321</v>
+        <v>16</v>
       </c>
       <c r="Q23" s="4">
-        <v>0.009621725316228043</v>
+        <v>0.008908685968819599</v>
       </c>
       <c r="R23" s="3">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="S23" s="3">
-        <v>32824</v>
+        <v>1770</v>
       </c>
       <c r="T23" s="3">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="U23" s="3">
-        <v>217</v>
+        <v>10</v>
       </c>
       <c r="V23" s="4">
-        <v>0.9910328794420458</v>
+        <v>0.9927089175546832</v>
       </c>
       <c r="W23" s="3">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="X23" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Y23" s="3">
-        <v>2103</v>
+        <v>108</v>
       </c>
       <c r="Z23" s="3">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="AA23" s="3">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="AB23" s="3">
         <v>60</v>
@@ -11105,26 +12437,466 @@
         <v>30</v>
       </c>
       <c r="AE23" s="3">
-        <v>2100</v>
+        <v>106</v>
       </c>
       <c r="AF23" s="3">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="AG23" s="3">
+        <v>2</v>
+      </c>
+      <c r="AH23" s="4">
+        <v>0.9814814814814815</v>
+      </c>
+      <c r="AI23" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ23" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:36">
+      <c r="A24" s="2">
+        <v>45953</v>
+      </c>
+      <c r="B24" s="3">
+        <v>3334</v>
+      </c>
+      <c r="C24" s="3">
+        <v>1426</v>
+      </c>
+      <c r="D24" s="3">
+        <v>367</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1059</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0.2573632538569425</v>
+      </c>
+      <c r="G24" s="3">
+        <v>41</v>
+      </c>
+      <c r="H24" s="3">
+        <v>1908</v>
+      </c>
+      <c r="I24" s="4">
+        <v>0.4277144571085783</v>
+      </c>
+      <c r="J24" s="3">
+        <v>1908</v>
+      </c>
+      <c r="K24" s="3">
+        <v>1902</v>
+      </c>
+      <c r="L24" s="3">
+        <v>1886</v>
+      </c>
+      <c r="M24" s="3">
+        <v>1860</v>
+      </c>
+      <c r="N24" s="3">
+        <v>26</v>
+      </c>
+      <c r="O24" s="4">
+        <v>0.9915878023133544</v>
+      </c>
+      <c r="P24" s="3">
         <v>16</v>
       </c>
-      <c r="AH23" s="4">
-        <v>0.9985734664764621</v>
-      </c>
-      <c r="AI23" s="4">
-        <v>1</v>
-      </c>
-      <c r="AJ23" s="4">
+      <c r="Q24" s="4">
+        <v>0.008412197686645636</v>
+      </c>
+      <c r="R24" s="3">
+        <v>6</v>
+      </c>
+      <c r="S24" s="3">
+        <v>1874</v>
+      </c>
+      <c r="T24" s="3">
+        <v>6</v>
+      </c>
+      <c r="U24" s="3">
+        <v>12</v>
+      </c>
+      <c r="V24" s="4">
+        <v>0.9904862579281183</v>
+      </c>
+      <c r="W24" s="3">
+        <v>147</v>
+      </c>
+      <c r="X24" s="3">
+        <v>5</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>104</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>5</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="3">
+        <v>60</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>45</v>
+      </c>
+      <c r="AD24" s="3">
+        <v>30</v>
+      </c>
+      <c r="AE24" s="3">
+        <v>104</v>
+      </c>
+      <c r="AF24" s="3">
+        <v>5</v>
+      </c>
+      <c r="AG24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH24" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI24" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ24" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:36">
+      <c r="A25" s="2">
+        <v>45954</v>
+      </c>
+      <c r="B25" s="3">
+        <v>3138</v>
+      </c>
+      <c r="C25" s="3">
+        <v>1325</v>
+      </c>
+      <c r="D25" s="3">
+        <v>346</v>
+      </c>
+      <c r="E25" s="3">
+        <v>979</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0.2611320754716981</v>
+      </c>
+      <c r="G25" s="3">
+        <v>43</v>
+      </c>
+      <c r="H25" s="3">
+        <v>1813</v>
+      </c>
+      <c r="I25" s="4">
+        <v>0.4222434671765456</v>
+      </c>
+      <c r="J25" s="3">
+        <v>1813</v>
+      </c>
+      <c r="K25" s="3">
+        <v>1810</v>
+      </c>
+      <c r="L25" s="3">
+        <v>1795</v>
+      </c>
+      <c r="M25" s="3">
+        <v>1778</v>
+      </c>
+      <c r="N25" s="3">
+        <v>17</v>
+      </c>
+      <c r="O25" s="4">
+        <v>0.9917127071823204</v>
+      </c>
+      <c r="P25" s="3">
+        <v>15</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>0.008287292817679558</v>
+      </c>
+      <c r="R25" s="3">
+        <v>3</v>
+      </c>
+      <c r="S25" s="3">
+        <v>1792</v>
+      </c>
+      <c r="T25" s="3">
+        <v>4</v>
+      </c>
+      <c r="U25" s="3">
+        <v>3</v>
+      </c>
+      <c r="V25" s="4">
+        <v>0.9961089494163424</v>
+      </c>
+      <c r="W25" s="3">
+        <v>146</v>
+      </c>
+      <c r="X25" s="3">
+        <v>4</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>124</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>11</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>2</v>
+      </c>
+      <c r="AB25" s="3">
+        <v>60</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>45</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>30</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>124</v>
+      </c>
+      <c r="AF25" s="3">
+        <v>11</v>
+      </c>
+      <c r="AG25" s="3">
+        <v>2</v>
+      </c>
+      <c r="AH25" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI25" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ25" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:36">
+      <c r="A26" s="2">
+        <v>45955</v>
+      </c>
+      <c r="B26" s="3">
+        <v>3113</v>
+      </c>
+      <c r="C26" s="3">
+        <v>1336</v>
+      </c>
+      <c r="D26" s="3">
+        <v>339</v>
+      </c>
+      <c r="E26" s="3">
+        <v>997</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0.2537425149700599</v>
+      </c>
+      <c r="G26" s="3">
+        <v>40</v>
+      </c>
+      <c r="H26" s="3">
+        <v>1777</v>
+      </c>
+      <c r="I26" s="4">
+        <v>0.4291680051397366</v>
+      </c>
+      <c r="J26" s="3">
+        <v>1777</v>
+      </c>
+      <c r="K26" s="3">
+        <v>1774</v>
+      </c>
+      <c r="L26" s="3">
+        <v>1759</v>
+      </c>
+      <c r="M26" s="3">
+        <v>1730</v>
+      </c>
+      <c r="N26" s="3">
+        <v>29</v>
+      </c>
+      <c r="O26" s="4">
+        <v>0.9915445321307779</v>
+      </c>
+      <c r="P26" s="3">
+        <v>15</v>
+      </c>
+      <c r="Q26" s="4">
+        <v>0.008455467869222097</v>
+      </c>
+      <c r="R26" s="3">
+        <v>3</v>
+      </c>
+      <c r="S26" s="3">
+        <v>1750</v>
+      </c>
+      <c r="T26" s="3">
+        <v>2</v>
+      </c>
+      <c r="U26" s="3">
+        <v>9</v>
+      </c>
+      <c r="V26" s="4">
+        <v>0.9937535491198183</v>
+      </c>
+      <c r="W26" s="3">
+        <v>154</v>
+      </c>
+      <c r="X26" s="3">
+        <v>5</v>
+      </c>
+      <c r="Y26" s="3">
+        <v>112</v>
+      </c>
+      <c r="Z26" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="3">
+        <v>60</v>
+      </c>
+      <c r="AC26" s="3">
+        <v>45</v>
+      </c>
+      <c r="AD26" s="3">
+        <v>30</v>
+      </c>
+      <c r="AE26" s="3">
+        <v>112</v>
+      </c>
+      <c r="AF26" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH26" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI26" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ26" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:36">
+      <c r="A27" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="3">
+        <v>71206</v>
+      </c>
+      <c r="C27" s="3">
+        <v>30505</v>
+      </c>
+      <c r="D27" s="3">
+        <v>8430</v>
+      </c>
+      <c r="E27" s="3">
+        <v>22075</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0.2763481396492378</v>
+      </c>
+      <c r="G27" s="3">
+        <v>39</v>
+      </c>
+      <c r="H27" s="3">
+        <v>40701</v>
+      </c>
+      <c r="I27" s="4">
+        <v>0.4284049096986209</v>
+      </c>
+      <c r="J27" s="3">
+        <v>40701</v>
+      </c>
+      <c r="K27" s="3">
+        <v>40644</v>
+      </c>
+      <c r="L27" s="3">
+        <v>40261</v>
+      </c>
+      <c r="M27" s="3">
+        <v>39725</v>
+      </c>
+      <c r="N27" s="3">
+        <v>536</v>
+      </c>
+      <c r="O27" s="4">
+        <v>0.9905767148902666</v>
+      </c>
+      <c r="P27" s="3">
+        <v>383</v>
+      </c>
+      <c r="Q27" s="4">
+        <v>0.009423285109733294</v>
+      </c>
+      <c r="R27" s="3">
+        <v>57</v>
+      </c>
+      <c r="S27" s="3">
+        <v>40010</v>
+      </c>
+      <c r="T27" s="3">
+        <v>95</v>
+      </c>
+      <c r="U27" s="3">
+        <v>251</v>
+      </c>
+      <c r="V27" s="4">
+        <v>0.9914263058776885</v>
+      </c>
+      <c r="W27" s="3">
+        <v>140</v>
+      </c>
+      <c r="X27" s="3">
+        <v>5</v>
+      </c>
+      <c r="Y27" s="3">
+        <v>2551</v>
+      </c>
+      <c r="Z27" s="3">
+        <v>78</v>
+      </c>
+      <c r="AA27" s="3">
+        <v>20</v>
+      </c>
+      <c r="AB27" s="3">
+        <v>60</v>
+      </c>
+      <c r="AC27" s="3">
+        <v>45</v>
+      </c>
+      <c r="AD27" s="3">
+        <v>30</v>
+      </c>
+      <c r="AE27" s="3">
+        <v>2546</v>
+      </c>
+      <c r="AF27" s="3">
+        <v>78</v>
+      </c>
+      <c r="AG27" s="3">
+        <v>20</v>
+      </c>
+      <c r="AH27" s="4">
+        <v>0.9980399843198745</v>
+      </c>
+      <c r="AI27" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ27" s="4">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="AH2:AH23">
+  <conditionalFormatting sqref="AH2:AH27">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThanOrEqual">
       <formula>0.95</formula>
     </cfRule>
@@ -11132,7 +12904,7 @@
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI2:AI23">
+  <conditionalFormatting sqref="AI2:AI27">
     <cfRule type="cellIs" dxfId="3" priority="5" operator="greaterThanOrEqual">
       <formula>0.95</formula>
     </cfRule>
@@ -11140,7 +12912,7 @@
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ2:AJ23">
+  <conditionalFormatting sqref="AJ2:AJ27">
     <cfRule type="cellIs" dxfId="3" priority="7" operator="greaterThanOrEqual">
       <formula>0.95</formula>
     </cfRule>
@@ -11148,7 +12920,7 @@
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O23">
+  <conditionalFormatting sqref="O2:O27">
     <cfRule type="cellIs" dxfId="3" priority="9" operator="greaterThanOrEqual">
       <formula>0.95</formula>
     </cfRule>
@@ -11156,7 +12928,7 @@
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q23">
+  <conditionalFormatting sqref="Q2:Q27">
     <cfRule type="cellIs" dxfId="3" priority="13" operator="lessThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
@@ -11164,7 +12936,7 @@
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V2:V23">
+  <conditionalFormatting sqref="V2:V27">
     <cfRule type="cellIs" dxfId="3" priority="11" operator="greaterThanOrEqual">
       <formula>0.95</formula>
     </cfRule>
@@ -11172,7 +12944,7 @@
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W2:W23">
+  <conditionalFormatting sqref="W2:W27">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThanOrEqual">
       <formula>130</formula>
     </cfRule>
@@ -11186,7 +12958,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M505"/>
+  <dimension ref="A1:M601"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -31900,8 +33672,3944 @@
         <v>1</v>
       </c>
     </row>
+    <row r="506" spans="1:13">
+      <c r="A506" s="2">
+        <v>45952</v>
+      </c>
+      <c r="B506" s="3">
+        <v>0</v>
+      </c>
+      <c r="C506" s="3">
+        <v>116</v>
+      </c>
+      <c r="D506" s="3">
+        <v>38</v>
+      </c>
+      <c r="E506" s="3">
+        <v>38</v>
+      </c>
+      <c r="F506" s="3">
+        <v>0</v>
+      </c>
+      <c r="G506" s="4">
+        <v>1</v>
+      </c>
+      <c r="H506" s="4">
+        <v>1</v>
+      </c>
+      <c r="I506" s="3">
+        <v>119</v>
+      </c>
+      <c r="J506" s="3">
+        <v>1</v>
+      </c>
+      <c r="K506" s="4">
+        <v>1</v>
+      </c>
+      <c r="L506" s="4">
+        <v>1</v>
+      </c>
+      <c r="M506" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507" spans="1:13">
+      <c r="A507" s="2">
+        <v>45952</v>
+      </c>
+      <c r="B507" s="3">
+        <v>1</v>
+      </c>
+      <c r="C507" s="3">
+        <v>82</v>
+      </c>
+      <c r="D507" s="3">
+        <v>53</v>
+      </c>
+      <c r="E507" s="3">
+        <v>53</v>
+      </c>
+      <c r="F507" s="3">
+        <v>0</v>
+      </c>
+      <c r="G507" s="4">
+        <v>1</v>
+      </c>
+      <c r="H507" s="4">
+        <v>1</v>
+      </c>
+      <c r="I507" s="3">
+        <v>143</v>
+      </c>
+      <c r="J507" s="3">
+        <v>1</v>
+      </c>
+      <c r="K507" s="4">
+        <v>1</v>
+      </c>
+      <c r="L507" s="4">
+        <v>1</v>
+      </c>
+      <c r="M507" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="508" spans="1:13">
+      <c r="A508" s="2">
+        <v>45952</v>
+      </c>
+      <c r="B508" s="3">
+        <v>2</v>
+      </c>
+      <c r="C508" s="3">
+        <v>23</v>
+      </c>
+      <c r="D508" s="3">
+        <v>13</v>
+      </c>
+      <c r="E508" s="3">
+        <v>13</v>
+      </c>
+      <c r="F508" s="3">
+        <v>0</v>
+      </c>
+      <c r="G508" s="4">
+        <v>1</v>
+      </c>
+      <c r="H508" s="4">
+        <v>1</v>
+      </c>
+      <c r="I508" s="3">
+        <v>63</v>
+      </c>
+      <c r="J508" s="3">
+        <v>4</v>
+      </c>
+      <c r="K508" s="4">
+        <v>1</v>
+      </c>
+      <c r="L508" s="4">
+        <v>1</v>
+      </c>
+      <c r="M508" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="509" spans="1:13">
+      <c r="A509" s="2">
+        <v>45952</v>
+      </c>
+      <c r="B509" s="3">
+        <v>3</v>
+      </c>
+      <c r="C509" s="3">
+        <v>18</v>
+      </c>
+      <c r="D509" s="3">
+        <v>6</v>
+      </c>
+      <c r="E509" s="3">
+        <v>6</v>
+      </c>
+      <c r="F509" s="3">
+        <v>0</v>
+      </c>
+      <c r="G509" s="4">
+        <v>1</v>
+      </c>
+      <c r="H509" s="4">
+        <v>1</v>
+      </c>
+      <c r="I509" s="3">
+        <v>72</v>
+      </c>
+      <c r="J509" s="3">
+        <v>5</v>
+      </c>
+      <c r="K509" s="4">
+        <v>1</v>
+      </c>
+      <c r="L509" s="4">
+        <v>1</v>
+      </c>
+      <c r="M509" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510" spans="1:13">
+      <c r="A510" s="2">
+        <v>45952</v>
+      </c>
+      <c r="B510" s="3">
+        <v>4</v>
+      </c>
+      <c r="C510" s="3">
+        <v>32</v>
+      </c>
+      <c r="D510" s="3">
+        <v>7</v>
+      </c>
+      <c r="E510" s="3">
+        <v>7</v>
+      </c>
+      <c r="F510" s="3">
+        <v>0</v>
+      </c>
+      <c r="G510" s="4">
+        <v>1</v>
+      </c>
+      <c r="H510" s="4">
+        <v>1</v>
+      </c>
+      <c r="I510" s="3">
+        <v>103</v>
+      </c>
+      <c r="J510" s="3">
+        <v>1</v>
+      </c>
+      <c r="K510" s="4">
+        <v>1</v>
+      </c>
+      <c r="L510" s="4">
+        <v>1</v>
+      </c>
+      <c r="M510" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511" spans="1:13">
+      <c r="A511" s="2">
+        <v>45952</v>
+      </c>
+      <c r="B511" s="3">
+        <v>5</v>
+      </c>
+      <c r="C511" s="3">
+        <v>80</v>
+      </c>
+      <c r="D511" s="3">
+        <v>25</v>
+      </c>
+      <c r="E511" s="3">
+        <v>22</v>
+      </c>
+      <c r="F511" s="3">
+        <v>3</v>
+      </c>
+      <c r="G511" s="4">
+        <v>0.88</v>
+      </c>
+      <c r="H511" s="4">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="I511" s="3">
+        <v>80</v>
+      </c>
+      <c r="J511" s="3">
+        <v>30</v>
+      </c>
+      <c r="K511" s="4">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="L511" s="4">
+        <v>1</v>
+      </c>
+      <c r="M511" s="4">
+        <v>0.8333333333333335</v>
+      </c>
+    </row>
+    <row r="512" spans="1:13">
+      <c r="A512" s="2">
+        <v>45952</v>
+      </c>
+      <c r="B512" s="3">
+        <v>6</v>
+      </c>
+      <c r="C512" s="3">
+        <v>297</v>
+      </c>
+      <c r="D512" s="3">
+        <v>107</v>
+      </c>
+      <c r="E512" s="3">
+        <v>101</v>
+      </c>
+      <c r="F512" s="3">
+        <v>6</v>
+      </c>
+      <c r="G512" s="4">
+        <v>0.9439252336448598</v>
+      </c>
+      <c r="H512" s="4">
+        <v>0.8349514563106796</v>
+      </c>
+      <c r="I512" s="3">
+        <v>116</v>
+      </c>
+      <c r="J512" s="3">
+        <v>40</v>
+      </c>
+      <c r="K512" s="4">
+        <v>0.7111111111111111</v>
+      </c>
+      <c r="L512" s="4">
+        <v>0.925</v>
+      </c>
+      <c r="M512" s="4">
+        <v>0.9444444444444444</v>
+      </c>
+    </row>
+    <row r="513" spans="1:13">
+      <c r="A513" s="2">
+        <v>45952</v>
+      </c>
+      <c r="B513" s="3">
+        <v>7</v>
+      </c>
+      <c r="C513" s="3">
+        <v>462</v>
+      </c>
+      <c r="D513" s="3">
+        <v>188</v>
+      </c>
+      <c r="E513" s="3">
+        <v>188</v>
+      </c>
+      <c r="F513" s="3">
+        <v>0</v>
+      </c>
+      <c r="G513" s="4">
+        <v>1</v>
+      </c>
+      <c r="H513" s="4">
+        <v>1</v>
+      </c>
+      <c r="I513" s="3">
+        <v>122</v>
+      </c>
+      <c r="J513" s="3">
+        <v>2</v>
+      </c>
+      <c r="K513" s="4">
+        <v>1</v>
+      </c>
+      <c r="L513" s="4">
+        <v>1</v>
+      </c>
+      <c r="M513" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="514" spans="1:13">
+      <c r="A514" s="2">
+        <v>45952</v>
+      </c>
+      <c r="B514" s="3">
+        <v>8</v>
+      </c>
+      <c r="C514" s="3">
+        <v>703</v>
+      </c>
+      <c r="D514" s="3">
+        <v>313</v>
+      </c>
+      <c r="E514" s="3">
+        <v>311</v>
+      </c>
+      <c r="F514" s="3">
+        <v>2</v>
+      </c>
+      <c r="G514" s="4">
+        <v>0.9936102236421724</v>
+      </c>
+      <c r="H514" s="4">
+        <v>0.9967845659163987</v>
+      </c>
+      <c r="I514" s="3">
+        <v>146</v>
+      </c>
+      <c r="J514" s="3">
+        <v>8</v>
+      </c>
+      <c r="K514" s="4">
+        <v>0.9928057553956835</v>
+      </c>
+      <c r="L514" s="4">
+        <v>1</v>
+      </c>
+      <c r="M514" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="515" spans="1:13">
+      <c r="A515" s="2">
+        <v>45952</v>
+      </c>
+      <c r="B515" s="3">
+        <v>9</v>
+      </c>
+      <c r="C515" s="3">
+        <v>891</v>
+      </c>
+      <c r="D515" s="3">
+        <v>448</v>
+      </c>
+      <c r="E515" s="3">
+        <v>446</v>
+      </c>
+      <c r="F515" s="3">
+        <v>2</v>
+      </c>
+      <c r="G515" s="4">
+        <v>0.9955357142857143</v>
+      </c>
+      <c r="H515" s="4">
+        <v>1</v>
+      </c>
+      <c r="I515" s="3">
+        <v>146</v>
+      </c>
+      <c r="J515" s="3">
+        <v>3</v>
+      </c>
+      <c r="K515" s="4">
+        <v>1</v>
+      </c>
+      <c r="L515" s="4">
+        <v>1</v>
+      </c>
+      <c r="M515" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="516" spans="1:13">
+      <c r="A516" s="2">
+        <v>45952</v>
+      </c>
+      <c r="B516" s="3">
+        <v>10</v>
+      </c>
+      <c r="C516" s="3">
+        <v>1229</v>
+      </c>
+      <c r="D516" s="3">
+        <v>597</v>
+      </c>
+      <c r="E516" s="3">
+        <v>592</v>
+      </c>
+      <c r="F516" s="3">
+        <v>5</v>
+      </c>
+      <c r="G516" s="4">
+        <v>0.9916247906197655</v>
+      </c>
+      <c r="H516" s="4">
+        <v>0.9865092748735245</v>
+      </c>
+      <c r="I516" s="3">
+        <v>145</v>
+      </c>
+      <c r="J516" s="3">
+        <v>7</v>
+      </c>
+      <c r="K516" s="4">
+        <v>0.992831541218638</v>
+      </c>
+      <c r="L516" s="4">
+        <v>0.988950276243094</v>
+      </c>
+      <c r="M516" s="4">
+        <v>0.9699248120300752</v>
+      </c>
+    </row>
+    <row r="517" spans="1:13">
+      <c r="A517" s="2">
+        <v>45952</v>
+      </c>
+      <c r="B517" s="3">
+        <v>11</v>
+      </c>
+      <c r="C517" s="3">
+        <v>1240</v>
+      </c>
+      <c r="D517" s="3">
+        <v>613</v>
+      </c>
+      <c r="E517" s="3">
+        <v>612</v>
+      </c>
+      <c r="F517" s="3">
+        <v>1</v>
+      </c>
+      <c r="G517" s="4">
+        <v>0.99836867862969</v>
+      </c>
+      <c r="H517" s="4">
+        <v>1</v>
+      </c>
+      <c r="I517" s="3">
+        <v>144</v>
+      </c>
+      <c r="J517" s="3">
+        <v>3</v>
+      </c>
+      <c r="K517" s="4">
+        <v>1</v>
+      </c>
+      <c r="L517" s="4">
+        <v>1</v>
+      </c>
+      <c r="M517" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="518" spans="1:13">
+      <c r="A518" s="2">
+        <v>45952</v>
+      </c>
+      <c r="B518" s="3">
+        <v>12</v>
+      </c>
+      <c r="C518" s="3">
+        <v>1279</v>
+      </c>
+      <c r="D518" s="3">
+        <v>623</v>
+      </c>
+      <c r="E518" s="3">
+        <v>621</v>
+      </c>
+      <c r="F518" s="3">
+        <v>2</v>
+      </c>
+      <c r="G518" s="4">
+        <v>0.9967897271268058</v>
+      </c>
+      <c r="H518" s="4">
+        <v>1</v>
+      </c>
+      <c r="I518" s="3">
+        <v>145</v>
+      </c>
+      <c r="J518" s="3">
+        <v>4</v>
+      </c>
+      <c r="K518" s="4">
+        <v>1</v>
+      </c>
+      <c r="L518" s="4">
+        <v>1</v>
+      </c>
+      <c r="M518" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="519" spans="1:13">
+      <c r="A519" s="2">
+        <v>45952</v>
+      </c>
+      <c r="B519" s="3">
+        <v>13</v>
+      </c>
+      <c r="C519" s="3">
+        <v>1248</v>
+      </c>
+      <c r="D519" s="3">
+        <v>585</v>
+      </c>
+      <c r="E519" s="3">
+        <v>581</v>
+      </c>
+      <c r="F519" s="3">
+        <v>4</v>
+      </c>
+      <c r="G519" s="4">
+        <v>0.9931623931623932</v>
+      </c>
+      <c r="H519" s="4">
+        <v>1</v>
+      </c>
+      <c r="I519" s="3">
+        <v>141</v>
+      </c>
+      <c r="J519" s="3">
+        <v>5</v>
+      </c>
+      <c r="K519" s="4">
+        <v>1</v>
+      </c>
+      <c r="L519" s="4">
+        <v>1</v>
+      </c>
+      <c r="M519" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="520" spans="1:13">
+      <c r="A520" s="2">
+        <v>45952</v>
+      </c>
+      <c r="B520" s="3">
+        <v>14</v>
+      </c>
+      <c r="C520" s="3">
+        <v>1260</v>
+      </c>
+      <c r="D520" s="3">
+        <v>568</v>
+      </c>
+      <c r="E520" s="3">
+        <v>567</v>
+      </c>
+      <c r="F520" s="3">
+        <v>1</v>
+      </c>
+      <c r="G520" s="4">
+        <v>0.9982394366197183</v>
+      </c>
+      <c r="H520" s="4">
+        <v>1</v>
+      </c>
+      <c r="I520" s="3">
+        <v>140</v>
+      </c>
+      <c r="J520" s="3">
+        <v>3</v>
+      </c>
+      <c r="K520" s="4">
+        <v>1</v>
+      </c>
+      <c r="L520" s="4">
+        <v>1</v>
+      </c>
+      <c r="M520" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="521" spans="1:13">
+      <c r="A521" s="2">
+        <v>45952</v>
+      </c>
+      <c r="B521" s="3">
+        <v>15</v>
+      </c>
+      <c r="C521" s="3">
+        <v>1091</v>
+      </c>
+      <c r="D521" s="3">
+        <v>511</v>
+      </c>
+      <c r="E521" s="3">
+        <v>511</v>
+      </c>
+      <c r="F521" s="3">
+        <v>0</v>
+      </c>
+      <c r="G521" s="4">
+        <v>1</v>
+      </c>
+      <c r="H521" s="4">
+        <v>1</v>
+      </c>
+      <c r="I521" s="3">
+        <v>149</v>
+      </c>
+      <c r="J521" s="3">
+        <v>3</v>
+      </c>
+      <c r="K521" s="4">
+        <v>1</v>
+      </c>
+      <c r="L521" s="4">
+        <v>1</v>
+      </c>
+      <c r="M521" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="522" spans="1:13">
+      <c r="A522" s="2">
+        <v>45952</v>
+      </c>
+      <c r="B522" s="3">
+        <v>16</v>
+      </c>
+      <c r="C522" s="3">
+        <v>1182</v>
+      </c>
+      <c r="D522" s="3">
+        <v>526</v>
+      </c>
+      <c r="E522" s="3">
+        <v>526</v>
+      </c>
+      <c r="F522" s="3">
+        <v>0</v>
+      </c>
+      <c r="G522" s="4">
+        <v>1</v>
+      </c>
+      <c r="H522" s="4">
+        <v>1</v>
+      </c>
+      <c r="I522" s="3">
+        <v>149</v>
+      </c>
+      <c r="J522" s="3">
+        <v>1</v>
+      </c>
+      <c r="K522" s="4">
+        <v>1</v>
+      </c>
+      <c r="L522" s="4">
+        <v>1</v>
+      </c>
+      <c r="M522" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="523" spans="1:13">
+      <c r="A523" s="2">
+        <v>45952</v>
+      </c>
+      <c r="B523" s="3">
+        <v>17</v>
+      </c>
+      <c r="C523" s="3">
+        <v>1257</v>
+      </c>
+      <c r="D523" s="3">
+        <v>553</v>
+      </c>
+      <c r="E523" s="3">
+        <v>553</v>
+      </c>
+      <c r="F523" s="3">
+        <v>0</v>
+      </c>
+      <c r="G523" s="4">
+        <v>1</v>
+      </c>
+      <c r="H523" s="4">
+        <v>1</v>
+      </c>
+      <c r="I523" s="3">
+        <v>141</v>
+      </c>
+      <c r="J523" s="3">
+        <v>1</v>
+      </c>
+      <c r="K523" s="4">
+        <v>1</v>
+      </c>
+      <c r="L523" s="4">
+        <v>1</v>
+      </c>
+      <c r="M523" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="524" spans="1:13">
+      <c r="A524" s="2">
+        <v>45952</v>
+      </c>
+      <c r="B524" s="3">
+        <v>18</v>
+      </c>
+      <c r="C524" s="3">
+        <v>1206</v>
+      </c>
+      <c r="D524" s="3">
+        <v>541</v>
+      </c>
+      <c r="E524" s="3">
+        <v>541</v>
+      </c>
+      <c r="F524" s="3">
+        <v>0</v>
+      </c>
+      <c r="G524" s="4">
+        <v>1</v>
+      </c>
+      <c r="H524" s="4">
+        <v>1</v>
+      </c>
+      <c r="I524" s="3">
+        <v>134</v>
+      </c>
+      <c r="J524" s="3">
+        <v>1</v>
+      </c>
+      <c r="K524" s="4">
+        <v>1</v>
+      </c>
+      <c r="L524" s="4">
+        <v>1</v>
+      </c>
+      <c r="M524" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="525" spans="1:13">
+      <c r="A525" s="2">
+        <v>45952</v>
+      </c>
+      <c r="B525" s="3">
+        <v>19</v>
+      </c>
+      <c r="C525" s="3">
+        <v>1159</v>
+      </c>
+      <c r="D525" s="3">
+        <v>552</v>
+      </c>
+      <c r="E525" s="3">
+        <v>551</v>
+      </c>
+      <c r="F525" s="3">
+        <v>1</v>
+      </c>
+      <c r="G525" s="4">
+        <v>0.9981884057971014</v>
+      </c>
+      <c r="H525" s="4">
+        <v>1</v>
+      </c>
+      <c r="I525" s="3">
+        <v>122</v>
+      </c>
+      <c r="J525" s="3">
+        <v>1</v>
+      </c>
+      <c r="K525" s="4">
+        <v>1</v>
+      </c>
+      <c r="L525" s="4">
+        <v>1</v>
+      </c>
+      <c r="M525" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="526" spans="1:13">
+      <c r="A526" s="2">
+        <v>45952</v>
+      </c>
+      <c r="B526" s="3">
+        <v>20</v>
+      </c>
+      <c r="C526" s="3">
+        <v>1019</v>
+      </c>
+      <c r="D526" s="3">
+        <v>475</v>
+      </c>
+      <c r="E526" s="3">
+        <v>454</v>
+      </c>
+      <c r="F526" s="3">
+        <v>21</v>
+      </c>
+      <c r="G526" s="4">
+        <v>0.9557894736842105</v>
+      </c>
+      <c r="H526" s="4">
+        <v>0.9650655021834063</v>
+      </c>
+      <c r="I526" s="3">
+        <v>133</v>
+      </c>
+      <c r="J526" s="3">
+        <v>15</v>
+      </c>
+      <c r="K526" s="4">
+        <v>0.9641255605381166</v>
+      </c>
+      <c r="L526" s="4">
+        <v>0.9932432432432432</v>
+      </c>
+      <c r="M526" s="4">
+        <v>0.9195402298850575</v>
+      </c>
+    </row>
+    <row r="527" spans="1:13">
+      <c r="A527" s="2">
+        <v>45952</v>
+      </c>
+      <c r="B527" s="3">
+        <v>21</v>
+      </c>
+      <c r="C527" s="3">
+        <v>736</v>
+      </c>
+      <c r="D527" s="3">
+        <v>346</v>
+      </c>
+      <c r="E527" s="3">
+        <v>346</v>
+      </c>
+      <c r="F527" s="3">
+        <v>0</v>
+      </c>
+      <c r="G527" s="4">
+        <v>1</v>
+      </c>
+      <c r="H527" s="4">
+        <v>1</v>
+      </c>
+      <c r="I527" s="3">
+        <v>146</v>
+      </c>
+      <c r="J527" s="3">
+        <v>2</v>
+      </c>
+      <c r="K527" s="4">
+        <v>1</v>
+      </c>
+      <c r="L527" s="4">
+        <v>1</v>
+      </c>
+      <c r="M527" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="528" spans="1:13">
+      <c r="A528" s="2">
+        <v>45952</v>
+      </c>
+      <c r="B528" s="3">
+        <v>22</v>
+      </c>
+      <c r="C528" s="3">
+        <v>444</v>
+      </c>
+      <c r="D528" s="3">
+        <v>216</v>
+      </c>
+      <c r="E528" s="3">
+        <v>216</v>
+      </c>
+      <c r="F528" s="3">
+        <v>0</v>
+      </c>
+      <c r="G528" s="4">
+        <v>1</v>
+      </c>
+      <c r="H528" s="4">
+        <v>1</v>
+      </c>
+      <c r="I528" s="3">
+        <v>139</v>
+      </c>
+      <c r="J528" s="3">
+        <v>1</v>
+      </c>
+      <c r="K528" s="4">
+        <v>1</v>
+      </c>
+      <c r="L528" s="4">
+        <v>1</v>
+      </c>
+      <c r="M528" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="529" spans="1:13">
+      <c r="A529" s="2">
+        <v>45952</v>
+      </c>
+      <c r="B529" s="3">
+        <v>23</v>
+      </c>
+      <c r="C529" s="3">
+        <v>214</v>
+      </c>
+      <c r="D529" s="3">
+        <v>105</v>
+      </c>
+      <c r="E529" s="3">
+        <v>105</v>
+      </c>
+      <c r="F529" s="3">
+        <v>0</v>
+      </c>
+      <c r="G529" s="4">
+        <v>1</v>
+      </c>
+      <c r="H529" s="4">
+        <v>1</v>
+      </c>
+      <c r="I529" s="3">
+        <v>158</v>
+      </c>
+      <c r="J529" s="3">
+        <v>1</v>
+      </c>
+      <c r="K529" s="4">
+        <v>1</v>
+      </c>
+      <c r="L529" s="4">
+        <v>1</v>
+      </c>
+      <c r="M529" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="530" spans="1:13">
+      <c r="A530" s="2">
+        <v>45953</v>
+      </c>
+      <c r="B530" s="3">
+        <v>0</v>
+      </c>
+      <c r="C530" s="3">
+        <v>84</v>
+      </c>
+      <c r="D530" s="3">
+        <v>37</v>
+      </c>
+      <c r="E530" s="3">
+        <v>37</v>
+      </c>
+      <c r="F530" s="3">
+        <v>0</v>
+      </c>
+      <c r="G530" s="4">
+        <v>1</v>
+      </c>
+      <c r="H530" s="4">
+        <v>1</v>
+      </c>
+      <c r="I530" s="3">
+        <v>178</v>
+      </c>
+      <c r="J530" s="3">
+        <v>1</v>
+      </c>
+      <c r="K530" s="4">
+        <v>1</v>
+      </c>
+      <c r="L530" s="4">
+        <v>1</v>
+      </c>
+      <c r="M530" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="531" spans="1:13">
+      <c r="A531" s="2">
+        <v>45953</v>
+      </c>
+      <c r="B531" s="3">
+        <v>1</v>
+      </c>
+      <c r="C531" s="3">
+        <v>81</v>
+      </c>
+      <c r="D531" s="3">
+        <v>49</v>
+      </c>
+      <c r="E531" s="3">
+        <v>49</v>
+      </c>
+      <c r="F531" s="3">
+        <v>0</v>
+      </c>
+      <c r="G531" s="4">
+        <v>1</v>
+      </c>
+      <c r="H531" s="4">
+        <v>1</v>
+      </c>
+      <c r="I531" s="3">
+        <v>60</v>
+      </c>
+      <c r="J531" s="3">
+        <v>1</v>
+      </c>
+      <c r="K531" s="4">
+        <v>1</v>
+      </c>
+      <c r="L531" s="4">
+        <v>1</v>
+      </c>
+      <c r="M531" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="532" spans="1:13">
+      <c r="A532" s="2">
+        <v>45953</v>
+      </c>
+      <c r="B532" s="3">
+        <v>2</v>
+      </c>
+      <c r="C532" s="3">
+        <v>36</v>
+      </c>
+      <c r="D532" s="3">
+        <v>15</v>
+      </c>
+      <c r="E532" s="3">
+        <v>15</v>
+      </c>
+      <c r="F532" s="3">
+        <v>0</v>
+      </c>
+      <c r="G532" s="4">
+        <v>1</v>
+      </c>
+      <c r="H532" s="4">
+        <v>1</v>
+      </c>
+      <c r="I532" s="3">
+        <v>110</v>
+      </c>
+      <c r="J532" s="3">
+        <v>3</v>
+      </c>
+      <c r="K532" s="4">
+        <v>1</v>
+      </c>
+      <c r="L532" s="4">
+        <v>1</v>
+      </c>
+      <c r="M532" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="533" spans="1:13">
+      <c r="A533" s="2">
+        <v>45953</v>
+      </c>
+      <c r="B533" s="3">
+        <v>3</v>
+      </c>
+      <c r="C533" s="3">
+        <v>18</v>
+      </c>
+      <c r="D533" s="3">
+        <v>5</v>
+      </c>
+      <c r="E533" s="3">
+        <v>5</v>
+      </c>
+      <c r="F533" s="3">
+        <v>0</v>
+      </c>
+      <c r="G533" s="4">
+        <v>1</v>
+      </c>
+      <c r="H533" s="4">
+        <v>1</v>
+      </c>
+      <c r="I533" s="3">
+        <v>68</v>
+      </c>
+      <c r="J533" s="3">
+        <v>1</v>
+      </c>
+      <c r="K533" s="4">
+        <v>1</v>
+      </c>
+      <c r="L533" s="4">
+        <v>1</v>
+      </c>
+      <c r="M533" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="534" spans="1:13">
+      <c r="A534" s="2">
+        <v>45953</v>
+      </c>
+      <c r="B534" s="3">
+        <v>4</v>
+      </c>
+      <c r="C534" s="3">
+        <v>23</v>
+      </c>
+      <c r="D534" s="3">
+        <v>9</v>
+      </c>
+      <c r="E534" s="3">
+        <v>9</v>
+      </c>
+      <c r="F534" s="3">
+        <v>0</v>
+      </c>
+      <c r="G534" s="4">
+        <v>1</v>
+      </c>
+      <c r="H534" s="4">
+        <v>1</v>
+      </c>
+      <c r="I534" s="3">
+        <v>94</v>
+      </c>
+      <c r="J534" s="3">
+        <v>1</v>
+      </c>
+      <c r="K534" s="4">
+        <v>1</v>
+      </c>
+      <c r="L534" s="4">
+        <v>1</v>
+      </c>
+      <c r="M534" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="535" spans="1:13">
+      <c r="A535" s="2">
+        <v>45953</v>
+      </c>
+      <c r="B535" s="3">
+        <v>5</v>
+      </c>
+      <c r="C535" s="3">
+        <v>112</v>
+      </c>
+      <c r="D535" s="3">
+        <v>45</v>
+      </c>
+      <c r="E535" s="3">
+        <v>34</v>
+      </c>
+      <c r="F535" s="3">
+        <v>11</v>
+      </c>
+      <c r="G535" s="4">
+        <v>0.7555555555555555</v>
+      </c>
+      <c r="H535" s="4">
+        <v>0.6279069767441861</v>
+      </c>
+      <c r="I535" s="3">
+        <v>81</v>
+      </c>
+      <c r="J535" s="3">
+        <v>52</v>
+      </c>
+      <c r="K535" s="4">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="L535" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="M535" s="4">
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="536" spans="1:13">
+      <c r="A536" s="2">
+        <v>45953</v>
+      </c>
+      <c r="B536" s="3">
+        <v>6</v>
+      </c>
+      <c r="C536" s="3">
+        <v>275</v>
+      </c>
+      <c r="D536" s="3">
+        <v>116</v>
+      </c>
+      <c r="E536" s="3">
+        <v>115</v>
+      </c>
+      <c r="F536" s="3">
+        <v>1</v>
+      </c>
+      <c r="G536" s="4">
+        <v>0.9913793103448276</v>
+      </c>
+      <c r="H536" s="4">
+        <v>0.991304347826087</v>
+      </c>
+      <c r="I536" s="3">
+        <v>98</v>
+      </c>
+      <c r="J536" s="3">
+        <v>10</v>
+      </c>
+      <c r="K536" s="4">
+        <v>0.9811320754716981</v>
+      </c>
+      <c r="L536" s="4">
+        <v>1</v>
+      </c>
+      <c r="M536" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="537" spans="1:13">
+      <c r="A537" s="2">
+        <v>45953</v>
+      </c>
+      <c r="B537" s="3">
+        <v>7</v>
+      </c>
+      <c r="C537" s="3">
+        <v>508</v>
+      </c>
+      <c r="D537" s="3">
+        <v>209</v>
+      </c>
+      <c r="E537" s="3">
+        <v>203</v>
+      </c>
+      <c r="F537" s="3">
+        <v>6</v>
+      </c>
+      <c r="G537" s="4">
+        <v>0.971291866028708</v>
+      </c>
+      <c r="H537" s="4">
+        <v>0.9607843137254902</v>
+      </c>
+      <c r="I537" s="3">
+        <v>106</v>
+      </c>
+      <c r="J537" s="3">
+        <v>10</v>
+      </c>
+      <c r="K537" s="4">
+        <v>0.9176470588235294</v>
+      </c>
+      <c r="L537" s="4">
+        <v>1</v>
+      </c>
+      <c r="M537" s="4">
+        <v>0.9761904761904762</v>
+      </c>
+    </row>
+    <row r="538" spans="1:13">
+      <c r="A538" s="2">
+        <v>45953</v>
+      </c>
+      <c r="B538" s="3">
+        <v>8</v>
+      </c>
+      <c r="C538" s="3">
+        <v>815</v>
+      </c>
+      <c r="D538" s="3">
+        <v>389</v>
+      </c>
+      <c r="E538" s="3">
+        <v>372</v>
+      </c>
+      <c r="F538" s="3">
+        <v>17</v>
+      </c>
+      <c r="G538" s="4">
+        <v>0.9562982005141388</v>
+      </c>
+      <c r="H538" s="4">
+        <v>0.9680851063829787</v>
+      </c>
+      <c r="I538" s="3">
+        <v>128</v>
+      </c>
+      <c r="J538" s="3">
+        <v>14</v>
+      </c>
+      <c r="K538" s="4">
+        <v>0.9470588235294117</v>
+      </c>
+      <c r="L538" s="4">
+        <v>0.9743589743589743</v>
+      </c>
+      <c r="M538" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="539" spans="1:13">
+      <c r="A539" s="2">
+        <v>45953</v>
+      </c>
+      <c r="B539" s="3">
+        <v>9</v>
+      </c>
+      <c r="C539" s="3">
+        <v>963</v>
+      </c>
+      <c r="D539" s="3">
+        <v>437</v>
+      </c>
+      <c r="E539" s="3">
+        <v>432</v>
+      </c>
+      <c r="F539" s="3">
+        <v>5</v>
+      </c>
+      <c r="G539" s="4">
+        <v>0.988558352402746</v>
+      </c>
+      <c r="H539" s="4">
+        <v>0.9837962962962963</v>
+      </c>
+      <c r="I539" s="3">
+        <v>142</v>
+      </c>
+      <c r="J539" s="3">
+        <v>9</v>
+      </c>
+      <c r="K539" s="4">
+        <v>0.9646464646464646</v>
+      </c>
+      <c r="L539" s="4">
+        <v>1</v>
+      </c>
+      <c r="M539" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="540" spans="1:13">
+      <c r="A540" s="2">
+        <v>45953</v>
+      </c>
+      <c r="B540" s="3">
+        <v>10</v>
+      </c>
+      <c r="C540" s="3">
+        <v>1304</v>
+      </c>
+      <c r="D540" s="3">
+        <v>618</v>
+      </c>
+      <c r="E540" s="3">
+        <v>609</v>
+      </c>
+      <c r="F540" s="3">
+        <v>9</v>
+      </c>
+      <c r="G540" s="4">
+        <v>0.9854368932038835</v>
+      </c>
+      <c r="H540" s="4">
+        <v>0.9868852459016394</v>
+      </c>
+      <c r="I540" s="3">
+        <v>149</v>
+      </c>
+      <c r="J540" s="3">
+        <v>12</v>
+      </c>
+      <c r="K540" s="4">
+        <v>0.9716312056737588</v>
+      </c>
+      <c r="L540" s="4">
+        <v>1</v>
+      </c>
+      <c r="M540" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="541" spans="1:13">
+      <c r="A541" s="2">
+        <v>45953</v>
+      </c>
+      <c r="B541" s="3">
+        <v>11</v>
+      </c>
+      <c r="C541" s="3">
+        <v>1320</v>
+      </c>
+      <c r="D541" s="3">
+        <v>655</v>
+      </c>
+      <c r="E541" s="3">
+        <v>650</v>
+      </c>
+      <c r="F541" s="3">
+        <v>5</v>
+      </c>
+      <c r="G541" s="4">
+        <v>0.9923664122137404</v>
+      </c>
+      <c r="H541" s="4">
+        <v>0.9846390168970813</v>
+      </c>
+      <c r="I541" s="3">
+        <v>129</v>
+      </c>
+      <c r="J541" s="3">
+        <v>6</v>
+      </c>
+      <c r="K541" s="4">
+        <v>0.9644128113879004</v>
+      </c>
+      <c r="L541" s="4">
+        <v>1</v>
+      </c>
+      <c r="M541" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="542" spans="1:13">
+      <c r="A542" s="2">
+        <v>45953</v>
+      </c>
+      <c r="B542" s="3">
+        <v>12</v>
+      </c>
+      <c r="C542" s="3">
+        <v>1212</v>
+      </c>
+      <c r="D542" s="3">
+        <v>567</v>
+      </c>
+      <c r="E542" s="3">
+        <v>567</v>
+      </c>
+      <c r="F542" s="3">
+        <v>0</v>
+      </c>
+      <c r="G542" s="4">
+        <v>1</v>
+      </c>
+      <c r="H542" s="4">
+        <v>1</v>
+      </c>
+      <c r="I542" s="3">
+        <v>140</v>
+      </c>
+      <c r="J542" s="3">
+        <v>1</v>
+      </c>
+      <c r="K542" s="4">
+        <v>1</v>
+      </c>
+      <c r="L542" s="4">
+        <v>1</v>
+      </c>
+      <c r="M542" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543" spans="1:13">
+      <c r="A543" s="2">
+        <v>45953</v>
+      </c>
+      <c r="B543" s="3">
+        <v>13</v>
+      </c>
+      <c r="C543" s="3">
+        <v>1222</v>
+      </c>
+      <c r="D543" s="3">
+        <v>602</v>
+      </c>
+      <c r="E543" s="3">
+        <v>590</v>
+      </c>
+      <c r="F543" s="3">
+        <v>12</v>
+      </c>
+      <c r="G543" s="4">
+        <v>0.9800664451827242</v>
+      </c>
+      <c r="H543" s="4">
+        <v>0.9780405405405407</v>
+      </c>
+      <c r="I543" s="3">
+        <v>140</v>
+      </c>
+      <c r="J543" s="3">
+        <v>10</v>
+      </c>
+      <c r="K543" s="4">
+        <v>0.95703125</v>
+      </c>
+      <c r="L543" s="4">
+        <v>1</v>
+      </c>
+      <c r="M543" s="4">
+        <v>0.9878048780487805</v>
+      </c>
+    </row>
+    <row r="544" spans="1:13">
+      <c r="A544" s="2">
+        <v>45953</v>
+      </c>
+      <c r="B544" s="3">
+        <v>14</v>
+      </c>
+      <c r="C544" s="3">
+        <v>1216</v>
+      </c>
+      <c r="D544" s="3">
+        <v>549</v>
+      </c>
+      <c r="E544" s="3">
+        <v>547</v>
+      </c>
+      <c r="F544" s="3">
+        <v>2</v>
+      </c>
+      <c r="G544" s="4">
+        <v>0.9963570127504553</v>
+      </c>
+      <c r="H544" s="4">
+        <v>0.9908592321755028</v>
+      </c>
+      <c r="I544" s="3">
+        <v>138</v>
+      </c>
+      <c r="J544" s="3">
+        <v>9</v>
+      </c>
+      <c r="K544" s="4">
+        <v>0.9883720930232558</v>
+      </c>
+      <c r="L544" s="4">
+        <v>0.9936708860759493</v>
+      </c>
+      <c r="M544" s="4">
+        <v>0.9923664122137404</v>
+      </c>
+    </row>
+    <row r="545" spans="1:13">
+      <c r="A545" s="2">
+        <v>45953</v>
+      </c>
+      <c r="B545" s="3">
+        <v>15</v>
+      </c>
+      <c r="C545" s="3">
+        <v>1109</v>
+      </c>
+      <c r="D545" s="3">
+        <v>484</v>
+      </c>
+      <c r="E545" s="3">
+        <v>484</v>
+      </c>
+      <c r="F545" s="3">
+        <v>0</v>
+      </c>
+      <c r="G545" s="4">
+        <v>1</v>
+      </c>
+      <c r="H545" s="4">
+        <v>1</v>
+      </c>
+      <c r="I545" s="3">
+        <v>141</v>
+      </c>
+      <c r="J545" s="3">
+        <v>1</v>
+      </c>
+      <c r="K545" s="4">
+        <v>1</v>
+      </c>
+      <c r="L545" s="4">
+        <v>1</v>
+      </c>
+      <c r="M545" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546" spans="1:13">
+      <c r="A546" s="2">
+        <v>45953</v>
+      </c>
+      <c r="B546" s="3">
+        <v>16</v>
+      </c>
+      <c r="C546" s="3">
+        <v>1085</v>
+      </c>
+      <c r="D546" s="3">
+        <v>528</v>
+      </c>
+      <c r="E546" s="3">
+        <v>526</v>
+      </c>
+      <c r="F546" s="3">
+        <v>2</v>
+      </c>
+      <c r="G546" s="4">
+        <v>0.9962121212121212</v>
+      </c>
+      <c r="H546" s="4">
+        <v>0.9980988593155894</v>
+      </c>
+      <c r="I546" s="3">
+        <v>156</v>
+      </c>
+      <c r="J546" s="3">
+        <v>4</v>
+      </c>
+      <c r="K546" s="4">
+        <v>0.9961538461538462</v>
+      </c>
+      <c r="L546" s="4">
+        <v>1</v>
+      </c>
+      <c r="M546" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="547" spans="1:13">
+      <c r="A547" s="2">
+        <v>45953</v>
+      </c>
+      <c r="B547" s="3">
+        <v>17</v>
+      </c>
+      <c r="C547" s="3">
+        <v>1147</v>
+      </c>
+      <c r="D547" s="3">
+        <v>536</v>
+      </c>
+      <c r="E547" s="3">
+        <v>536</v>
+      </c>
+      <c r="F547" s="3">
+        <v>0</v>
+      </c>
+      <c r="G547" s="4">
+        <v>1</v>
+      </c>
+      <c r="H547" s="4">
+        <v>1</v>
+      </c>
+      <c r="I547" s="3">
+        <v>150</v>
+      </c>
+      <c r="J547" s="3">
+        <v>3</v>
+      </c>
+      <c r="K547" s="4">
+        <v>1</v>
+      </c>
+      <c r="L547" s="4">
+        <v>1</v>
+      </c>
+      <c r="M547" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="548" spans="1:13">
+      <c r="A548" s="2">
+        <v>45953</v>
+      </c>
+      <c r="B548" s="3">
+        <v>18</v>
+      </c>
+      <c r="C548" s="3">
+        <v>1240</v>
+      </c>
+      <c r="D548" s="3">
+        <v>570</v>
+      </c>
+      <c r="E548" s="3">
+        <v>562</v>
+      </c>
+      <c r="F548" s="3">
+        <v>8</v>
+      </c>
+      <c r="G548" s="4">
+        <v>0.9859649122807016</v>
+      </c>
+      <c r="H548" s="4">
+        <v>0.994661921708185</v>
+      </c>
+      <c r="I548" s="3">
+        <v>146</v>
+      </c>
+      <c r="J548" s="3">
+        <v>8</v>
+      </c>
+      <c r="K548" s="4">
+        <v>1</v>
+      </c>
+      <c r="L548" s="4">
+        <v>1</v>
+      </c>
+      <c r="M548" s="4">
+        <v>0.9779411764705883</v>
+      </c>
+    </row>
+    <row r="549" spans="1:13">
+      <c r="A549" s="2">
+        <v>45953</v>
+      </c>
+      <c r="B549" s="3">
+        <v>19</v>
+      </c>
+      <c r="C549" s="3">
+        <v>1106</v>
+      </c>
+      <c r="D549" s="3">
+        <v>497</v>
+      </c>
+      <c r="E549" s="3">
+        <v>497</v>
+      </c>
+      <c r="F549" s="3">
+        <v>0</v>
+      </c>
+      <c r="G549" s="4">
+        <v>1</v>
+      </c>
+      <c r="H549" s="4">
+        <v>1</v>
+      </c>
+      <c r="I549" s="3">
+        <v>124</v>
+      </c>
+      <c r="J549" s="3">
+        <v>1</v>
+      </c>
+      <c r="K549" s="4">
+        <v>1</v>
+      </c>
+      <c r="L549" s="4">
+        <v>1</v>
+      </c>
+      <c r="M549" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="550" spans="1:13">
+      <c r="A550" s="2">
+        <v>45953</v>
+      </c>
+      <c r="B550" s="3">
+        <v>20</v>
+      </c>
+      <c r="C550" s="3">
+        <v>1004</v>
+      </c>
+      <c r="D550" s="3">
+        <v>457</v>
+      </c>
+      <c r="E550" s="3">
+        <v>449</v>
+      </c>
+      <c r="F550" s="3">
+        <v>8</v>
+      </c>
+      <c r="G550" s="4">
+        <v>0.9824945295404813</v>
+      </c>
+      <c r="H550" s="4">
+        <v>0.9800884955752213</v>
+      </c>
+      <c r="I550" s="3">
+        <v>144</v>
+      </c>
+      <c r="J550" s="3">
+        <v>6</v>
+      </c>
+      <c r="K550" s="4">
+        <v>1</v>
+      </c>
+      <c r="L550" s="4">
+        <v>0.9747899159663865</v>
+      </c>
+      <c r="M550" s="4">
+        <v>0.9428571428571427</v>
+      </c>
+    </row>
+    <row r="551" spans="1:13">
+      <c r="A551" s="2">
+        <v>45953</v>
+      </c>
+      <c r="B551" s="3">
+        <v>21</v>
+      </c>
+      <c r="C551" s="3">
+        <v>779</v>
+      </c>
+      <c r="D551" s="3">
+        <v>370</v>
+      </c>
+      <c r="E551" s="3">
+        <v>369</v>
+      </c>
+      <c r="F551" s="3">
+        <v>1</v>
+      </c>
+      <c r="G551" s="4">
+        <v>0.9972972972972972</v>
+      </c>
+      <c r="H551" s="4">
+        <v>0.9945799457994579</v>
+      </c>
+      <c r="I551" s="3">
+        <v>142</v>
+      </c>
+      <c r="J551" s="3">
+        <v>5</v>
+      </c>
+      <c r="K551" s="4">
+        <v>1</v>
+      </c>
+      <c r="L551" s="4">
+        <v>1</v>
+      </c>
+      <c r="M551" s="4">
+        <v>0.9629629629629629</v>
+      </c>
+    </row>
+    <row r="552" spans="1:13">
+      <c r="A552" s="2">
+        <v>45953</v>
+      </c>
+      <c r="B552" s="3">
+        <v>22</v>
+      </c>
+      <c r="C552" s="3">
+        <v>445</v>
+      </c>
+      <c r="D552" s="3">
+        <v>217</v>
+      </c>
+      <c r="E552" s="3">
+        <v>217</v>
+      </c>
+      <c r="F552" s="3">
+        <v>0</v>
+      </c>
+      <c r="G552" s="4">
+        <v>1</v>
+      </c>
+      <c r="H552" s="4">
+        <v>1</v>
+      </c>
+      <c r="I552" s="3">
+        <v>154</v>
+      </c>
+      <c r="J552" s="3">
+        <v>1</v>
+      </c>
+      <c r="K552" s="4">
+        <v>1</v>
+      </c>
+      <c r="L552" s="4">
+        <v>1</v>
+      </c>
+      <c r="M552" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="553" spans="1:13">
+      <c r="A553" s="2">
+        <v>45953</v>
+      </c>
+      <c r="B553" s="3">
+        <v>23</v>
+      </c>
+      <c r="C553" s="3">
+        <v>245</v>
+      </c>
+      <c r="D553" s="3">
+        <v>120</v>
+      </c>
+      <c r="E553" s="3">
+        <v>120</v>
+      </c>
+      <c r="F553" s="3">
+        <v>0</v>
+      </c>
+      <c r="G553" s="4">
+        <v>1</v>
+      </c>
+      <c r="H553" s="4">
+        <v>1</v>
+      </c>
+      <c r="I553" s="3">
+        <v>125</v>
+      </c>
+      <c r="J553" s="3">
+        <v>1</v>
+      </c>
+      <c r="K553" s="4">
+        <v>1</v>
+      </c>
+      <c r="L553" s="4">
+        <v>1</v>
+      </c>
+      <c r="M553" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="554" spans="1:13">
+      <c r="A554" s="2">
+        <v>45954</v>
+      </c>
+      <c r="B554" s="3">
+        <v>0</v>
+      </c>
+      <c r="C554" s="3">
+        <v>90</v>
+      </c>
+      <c r="D554" s="3">
+        <v>37</v>
+      </c>
+      <c r="E554" s="3">
+        <v>37</v>
+      </c>
+      <c r="F554" s="3">
+        <v>0</v>
+      </c>
+      <c r="G554" s="4">
+        <v>1</v>
+      </c>
+      <c r="H554" s="4">
+        <v>1</v>
+      </c>
+      <c r="I554" s="3">
+        <v>136</v>
+      </c>
+      <c r="J554" s="3">
+        <v>1</v>
+      </c>
+      <c r="K554" s="4">
+        <v>1</v>
+      </c>
+      <c r="L554" s="4">
+        <v>1</v>
+      </c>
+      <c r="M554" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="555" spans="1:13">
+      <c r="A555" s="2">
+        <v>45954</v>
+      </c>
+      <c r="B555" s="3">
+        <v>1</v>
+      </c>
+      <c r="C555" s="3">
+        <v>62</v>
+      </c>
+      <c r="D555" s="3">
+        <v>36</v>
+      </c>
+      <c r="E555" s="3">
+        <v>36</v>
+      </c>
+      <c r="F555" s="3">
+        <v>0</v>
+      </c>
+      <c r="G555" s="4">
+        <v>1</v>
+      </c>
+      <c r="H555" s="4">
+        <v>1</v>
+      </c>
+      <c r="I555" s="3">
+        <v>74</v>
+      </c>
+      <c r="J555" s="3">
+        <v>1</v>
+      </c>
+      <c r="K555" s="4">
+        <v>1</v>
+      </c>
+      <c r="L555" s="4">
+        <v>1</v>
+      </c>
+      <c r="M555" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="556" spans="1:13">
+      <c r="A556" s="2">
+        <v>45954</v>
+      </c>
+      <c r="B556" s="3">
+        <v>2</v>
+      </c>
+      <c r="C556" s="3">
+        <v>48</v>
+      </c>
+      <c r="D556" s="3">
+        <v>16</v>
+      </c>
+      <c r="E556" s="3">
+        <v>16</v>
+      </c>
+      <c r="F556" s="3">
+        <v>0</v>
+      </c>
+      <c r="G556" s="4">
+        <v>1</v>
+      </c>
+      <c r="H556" s="4">
+        <v>1</v>
+      </c>
+      <c r="I556" s="3">
+        <v>53</v>
+      </c>
+      <c r="J556" s="3">
+        <v>1</v>
+      </c>
+      <c r="K556" s="4">
+        <v>1</v>
+      </c>
+      <c r="L556" s="4">
+        <v>1</v>
+      </c>
+      <c r="M556" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="557" spans="1:13">
+      <c r="A557" s="2">
+        <v>45954</v>
+      </c>
+      <c r="B557" s="3">
+        <v>3</v>
+      </c>
+      <c r="C557" s="3">
+        <v>19</v>
+      </c>
+      <c r="D557" s="3">
+        <v>4</v>
+      </c>
+      <c r="E557" s="3">
+        <v>4</v>
+      </c>
+      <c r="F557" s="3">
+        <v>0</v>
+      </c>
+      <c r="G557" s="4">
+        <v>1</v>
+      </c>
+      <c r="H557" s="4">
+        <v>1</v>
+      </c>
+      <c r="I557" s="3">
+        <v>198</v>
+      </c>
+      <c r="J557" s="3">
+        <v>0</v>
+      </c>
+      <c r="K557" s="4">
+        <v>1</v>
+      </c>
+      <c r="L557" s="4">
+        <v>1</v>
+      </c>
+      <c r="M557" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="558" spans="1:13">
+      <c r="A558" s="2">
+        <v>45954</v>
+      </c>
+      <c r="B558" s="3">
+        <v>4</v>
+      </c>
+      <c r="C558" s="3">
+        <v>39</v>
+      </c>
+      <c r="D558" s="3">
+        <v>18</v>
+      </c>
+      <c r="E558" s="3">
+        <v>15</v>
+      </c>
+      <c r="F558" s="3">
+        <v>3</v>
+      </c>
+      <c r="G558" s="4">
+        <v>0.8333333333333335</v>
+      </c>
+      <c r="H558" s="4">
+        <v>0.875</v>
+      </c>
+      <c r="I558" s="3">
+        <v>110</v>
+      </c>
+      <c r="J558" s="3">
+        <v>10</v>
+      </c>
+      <c r="K558" s="4">
+        <v>1</v>
+      </c>
+      <c r="L558" s="4">
+        <v>1</v>
+      </c>
+      <c r="M558" s="4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="559" spans="1:13">
+      <c r="A559" s="2">
+        <v>45954</v>
+      </c>
+      <c r="B559" s="3">
+        <v>5</v>
+      </c>
+      <c r="C559" s="3">
+        <v>105</v>
+      </c>
+      <c r="D559" s="3">
+        <v>36</v>
+      </c>
+      <c r="E559" s="3">
+        <v>18</v>
+      </c>
+      <c r="F559" s="3">
+        <v>18</v>
+      </c>
+      <c r="G559" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H559" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="I559" s="3">
+        <v>155</v>
+      </c>
+      <c r="J559" s="3">
+        <v>42</v>
+      </c>
+      <c r="K559" s="4">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="L559" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="M559" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="560" spans="1:13">
+      <c r="A560" s="2">
+        <v>45954</v>
+      </c>
+      <c r="B560" s="3">
+        <v>6</v>
+      </c>
+      <c r="C560" s="3">
+        <v>282</v>
+      </c>
+      <c r="D560" s="3">
+        <v>95</v>
+      </c>
+      <c r="E560" s="3">
+        <v>95</v>
+      </c>
+      <c r="F560" s="3">
+        <v>0</v>
+      </c>
+      <c r="G560" s="4">
+        <v>1</v>
+      </c>
+      <c r="H560" s="4">
+        <v>1</v>
+      </c>
+      <c r="I560" s="3">
+        <v>105</v>
+      </c>
+      <c r="J560" s="3">
+        <v>4</v>
+      </c>
+      <c r="K560" s="4">
+        <v>1</v>
+      </c>
+      <c r="L560" s="4">
+        <v>1</v>
+      </c>
+      <c r="M560" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="561" spans="1:13">
+      <c r="A561" s="2">
+        <v>45954</v>
+      </c>
+      <c r="B561" s="3">
+        <v>7</v>
+      </c>
+      <c r="C561" s="3">
+        <v>494</v>
+      </c>
+      <c r="D561" s="3">
+        <v>231</v>
+      </c>
+      <c r="E561" s="3">
+        <v>218</v>
+      </c>
+      <c r="F561" s="3">
+        <v>13</v>
+      </c>
+      <c r="G561" s="4">
+        <v>0.9437229437229437</v>
+      </c>
+      <c r="H561" s="4">
+        <v>0.9417040358744395</v>
+      </c>
+      <c r="I561" s="3">
+        <v>118</v>
+      </c>
+      <c r="J561" s="3">
+        <v>12</v>
+      </c>
+      <c r="K561" s="4">
+        <v>0.8785046728971964</v>
+      </c>
+      <c r="L561" s="4">
+        <v>1</v>
+      </c>
+      <c r="M561" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="562" spans="1:13">
+      <c r="A562" s="2">
+        <v>45954</v>
+      </c>
+      <c r="B562" s="3">
+        <v>8</v>
+      </c>
+      <c r="C562" s="3">
+        <v>704</v>
+      </c>
+      <c r="D562" s="3">
+        <v>310</v>
+      </c>
+      <c r="E562" s="3">
+        <v>308</v>
+      </c>
+      <c r="F562" s="3">
+        <v>2</v>
+      </c>
+      <c r="G562" s="4">
+        <v>0.9935483870967743</v>
+      </c>
+      <c r="H562" s="4">
+        <v>1</v>
+      </c>
+      <c r="I562" s="3">
+        <v>143</v>
+      </c>
+      <c r="J562" s="3">
+        <v>6</v>
+      </c>
+      <c r="K562" s="4">
+        <v>1</v>
+      </c>
+      <c r="L562" s="4">
+        <v>1</v>
+      </c>
+      <c r="M562" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="563" spans="1:13">
+      <c r="A563" s="2">
+        <v>45954</v>
+      </c>
+      <c r="B563" s="3">
+        <v>9</v>
+      </c>
+      <c r="C563" s="3">
+        <v>988</v>
+      </c>
+      <c r="D563" s="3">
+        <v>444</v>
+      </c>
+      <c r="E563" s="3">
+        <v>444</v>
+      </c>
+      <c r="F563" s="3">
+        <v>0</v>
+      </c>
+      <c r="G563" s="4">
+        <v>1</v>
+      </c>
+      <c r="H563" s="4">
+        <v>1</v>
+      </c>
+      <c r="I563" s="3">
+        <v>137</v>
+      </c>
+      <c r="J563" s="3">
+        <v>2</v>
+      </c>
+      <c r="K563" s="4">
+        <v>1</v>
+      </c>
+      <c r="L563" s="4">
+        <v>1</v>
+      </c>
+      <c r="M563" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="564" spans="1:13">
+      <c r="A564" s="2">
+        <v>45954</v>
+      </c>
+      <c r="B564" s="3">
+        <v>10</v>
+      </c>
+      <c r="C564" s="3">
+        <v>1210</v>
+      </c>
+      <c r="D564" s="3">
+        <v>586</v>
+      </c>
+      <c r="E564" s="3">
+        <v>579</v>
+      </c>
+      <c r="F564" s="3">
+        <v>7</v>
+      </c>
+      <c r="G564" s="4">
+        <v>0.9880546075085325</v>
+      </c>
+      <c r="H564" s="4">
+        <v>0.993091537132988</v>
+      </c>
+      <c r="I564" s="3">
+        <v>154</v>
+      </c>
+      <c r="J564" s="3">
+        <v>7</v>
+      </c>
+      <c r="K564" s="4">
+        <v>0.9849624060150376</v>
+      </c>
+      <c r="L564" s="4">
+        <v>1</v>
+      </c>
+      <c r="M564" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="565" spans="1:13">
+      <c r="A565" s="2">
+        <v>45954</v>
+      </c>
+      <c r="B565" s="3">
+        <v>11</v>
+      </c>
+      <c r="C565" s="3">
+        <v>1200</v>
+      </c>
+      <c r="D565" s="3">
+        <v>551</v>
+      </c>
+      <c r="E565" s="3">
+        <v>551</v>
+      </c>
+      <c r="F565" s="3">
+        <v>0</v>
+      </c>
+      <c r="G565" s="4">
+        <v>1</v>
+      </c>
+      <c r="H565" s="4">
+        <v>1</v>
+      </c>
+      <c r="I565" s="3">
+        <v>148</v>
+      </c>
+      <c r="J565" s="3">
+        <v>1</v>
+      </c>
+      <c r="K565" s="4">
+        <v>1</v>
+      </c>
+      <c r="L565" s="4">
+        <v>1</v>
+      </c>
+      <c r="M565" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="566" spans="1:13">
+      <c r="A566" s="2">
+        <v>45954</v>
+      </c>
+      <c r="B566" s="3">
+        <v>12</v>
+      </c>
+      <c r="C566" s="3">
+        <v>1151</v>
+      </c>
+      <c r="D566" s="3">
+        <v>556</v>
+      </c>
+      <c r="E566" s="3">
+        <v>556</v>
+      </c>
+      <c r="F566" s="3">
+        <v>0</v>
+      </c>
+      <c r="G566" s="4">
+        <v>1</v>
+      </c>
+      <c r="H566" s="4">
+        <v>1</v>
+      </c>
+      <c r="I566" s="3">
+        <v>137</v>
+      </c>
+      <c r="J566" s="3">
+        <v>2</v>
+      </c>
+      <c r="K566" s="4">
+        <v>1</v>
+      </c>
+      <c r="L566" s="4">
+        <v>1</v>
+      </c>
+      <c r="M566" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="567" spans="1:13">
+      <c r="A567" s="2">
+        <v>45954</v>
+      </c>
+      <c r="B567" s="3">
+        <v>13</v>
+      </c>
+      <c r="C567" s="3">
+        <v>1095</v>
+      </c>
+      <c r="D567" s="3">
+        <v>494</v>
+      </c>
+      <c r="E567" s="3">
+        <v>490</v>
+      </c>
+      <c r="F567" s="3">
+        <v>4</v>
+      </c>
+      <c r="G567" s="4">
+        <v>0.9919028340080972</v>
+      </c>
+      <c r="H567" s="4">
+        <v>1</v>
+      </c>
+      <c r="I567" s="3">
+        <v>144</v>
+      </c>
+      <c r="J567" s="3">
+        <v>6</v>
+      </c>
+      <c r="K567" s="4">
+        <v>1</v>
+      </c>
+      <c r="L567" s="4">
+        <v>1</v>
+      </c>
+      <c r="M567" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="568" spans="1:13">
+      <c r="A568" s="2">
+        <v>45954</v>
+      </c>
+      <c r="B568" s="3">
+        <v>14</v>
+      </c>
+      <c r="C568" s="3">
+        <v>981</v>
+      </c>
+      <c r="D568" s="3">
+        <v>450</v>
+      </c>
+      <c r="E568" s="3">
+        <v>450</v>
+      </c>
+      <c r="F568" s="3">
+        <v>0</v>
+      </c>
+      <c r="G568" s="4">
+        <v>1</v>
+      </c>
+      <c r="H568" s="4">
+        <v>1</v>
+      </c>
+      <c r="I568" s="3">
+        <v>141</v>
+      </c>
+      <c r="J568" s="3">
+        <v>3</v>
+      </c>
+      <c r="K568" s="4">
+        <v>1</v>
+      </c>
+      <c r="L568" s="4">
+        <v>1</v>
+      </c>
+      <c r="M568" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="569" spans="1:13">
+      <c r="A569" s="2">
+        <v>45954</v>
+      </c>
+      <c r="B569" s="3">
+        <v>15</v>
+      </c>
+      <c r="C569" s="3">
+        <v>1076</v>
+      </c>
+      <c r="D569" s="3">
+        <v>513</v>
+      </c>
+      <c r="E569" s="3">
+        <v>504</v>
+      </c>
+      <c r="F569" s="3">
+        <v>9</v>
+      </c>
+      <c r="G569" s="4">
+        <v>0.9824561403508771</v>
+      </c>
+      <c r="H569" s="4">
+        <v>0.9940476190476191</v>
+      </c>
+      <c r="I569" s="3">
+        <v>151</v>
+      </c>
+      <c r="J569" s="3">
+        <v>10</v>
+      </c>
+      <c r="K569" s="4">
+        <v>0.9911111111111112</v>
+      </c>
+      <c r="L569" s="4">
+        <v>1</v>
+      </c>
+      <c r="M569" s="4">
+        <v>0.9925373134328358</v>
+      </c>
+    </row>
+    <row r="570" spans="1:13">
+      <c r="A570" s="2">
+        <v>45954</v>
+      </c>
+      <c r="B570" s="3">
+        <v>16</v>
+      </c>
+      <c r="C570" s="3">
+        <v>1061</v>
+      </c>
+      <c r="D570" s="3">
+        <v>492</v>
+      </c>
+      <c r="E570" s="3">
+        <v>492</v>
+      </c>
+      <c r="F570" s="3">
+        <v>0</v>
+      </c>
+      <c r="G570" s="4">
+        <v>1</v>
+      </c>
+      <c r="H570" s="4">
+        <v>1</v>
+      </c>
+      <c r="I570" s="3">
+        <v>153</v>
+      </c>
+      <c r="J570" s="3">
+        <v>2</v>
+      </c>
+      <c r="K570" s="4">
+        <v>1</v>
+      </c>
+      <c r="L570" s="4">
+        <v>1</v>
+      </c>
+      <c r="M570" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="571" spans="1:13">
+      <c r="A571" s="2">
+        <v>45954</v>
+      </c>
+      <c r="B571" s="3">
+        <v>17</v>
+      </c>
+      <c r="C571" s="3">
+        <v>1183</v>
+      </c>
+      <c r="D571" s="3">
+        <v>527</v>
+      </c>
+      <c r="E571" s="3">
+        <v>527</v>
+      </c>
+      <c r="F571" s="3">
+        <v>0</v>
+      </c>
+      <c r="G571" s="4">
+        <v>1</v>
+      </c>
+      <c r="H571" s="4">
+        <v>1</v>
+      </c>
+      <c r="I571" s="3">
+        <v>135</v>
+      </c>
+      <c r="J571" s="3">
+        <v>1</v>
+      </c>
+      <c r="K571" s="4">
+        <v>1</v>
+      </c>
+      <c r="L571" s="4">
+        <v>1</v>
+      </c>
+      <c r="M571" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="572" spans="1:13">
+      <c r="A572" s="2">
+        <v>45954</v>
+      </c>
+      <c r="B572" s="3">
+        <v>18</v>
+      </c>
+      <c r="C572" s="3">
+        <v>1245</v>
+      </c>
+      <c r="D572" s="3">
+        <v>545</v>
+      </c>
+      <c r="E572" s="3">
+        <v>543</v>
+      </c>
+      <c r="F572" s="3">
+        <v>2</v>
+      </c>
+      <c r="G572" s="4">
+        <v>0.9963302752293578</v>
+      </c>
+      <c r="H572" s="4">
+        <v>1</v>
+      </c>
+      <c r="I572" s="3">
+        <v>131</v>
+      </c>
+      <c r="J572" s="3">
+        <v>3</v>
+      </c>
+      <c r="K572" s="4">
+        <v>1</v>
+      </c>
+      <c r="L572" s="4">
+        <v>1</v>
+      </c>
+      <c r="M572" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="573" spans="1:13">
+      <c r="A573" s="2">
+        <v>45954</v>
+      </c>
+      <c r="B573" s="3">
+        <v>19</v>
+      </c>
+      <c r="C573" s="3">
+        <v>1249</v>
+      </c>
+      <c r="D573" s="3">
+        <v>589</v>
+      </c>
+      <c r="E573" s="3">
+        <v>587</v>
+      </c>
+      <c r="F573" s="3">
+        <v>2</v>
+      </c>
+      <c r="G573" s="4">
+        <v>0.9966044142614601</v>
+      </c>
+      <c r="H573" s="4">
+        <v>1</v>
+      </c>
+      <c r="I573" s="3">
+        <v>114</v>
+      </c>
+      <c r="J573" s="3">
+        <v>4</v>
+      </c>
+      <c r="K573" s="4">
+        <v>1</v>
+      </c>
+      <c r="L573" s="4">
+        <v>1</v>
+      </c>
+      <c r="M573" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="574" spans="1:13">
+      <c r="A574" s="2">
+        <v>45954</v>
+      </c>
+      <c r="B574" s="3">
+        <v>20</v>
+      </c>
+      <c r="C574" s="3">
+        <v>1048</v>
+      </c>
+      <c r="D574" s="3">
+        <v>473</v>
+      </c>
+      <c r="E574" s="3">
+        <v>442</v>
+      </c>
+      <c r="F574" s="3">
+        <v>31</v>
+      </c>
+      <c r="G574" s="4">
+        <v>0.9344608879492601</v>
+      </c>
+      <c r="H574" s="4">
+        <v>0.9485458612975392</v>
+      </c>
+      <c r="I574" s="3">
+        <v>131</v>
+      </c>
+      <c r="J574" s="3">
+        <v>18</v>
+      </c>
+      <c r="K574" s="4">
+        <v>0.9014084507042255</v>
+      </c>
+      <c r="L574" s="4">
+        <v>1</v>
+      </c>
+      <c r="M574" s="4">
+        <v>0.9787234042553191</v>
+      </c>
+    </row>
+    <row r="575" spans="1:13">
+      <c r="A575" s="2">
+        <v>45954</v>
+      </c>
+      <c r="B575" s="3">
+        <v>21</v>
+      </c>
+      <c r="C575" s="3">
+        <v>802</v>
+      </c>
+      <c r="D575" s="3">
+        <v>398</v>
+      </c>
+      <c r="E575" s="3">
+        <v>377</v>
+      </c>
+      <c r="F575" s="3">
+        <v>21</v>
+      </c>
+      <c r="G575" s="4">
+        <v>0.9472361809045227</v>
+      </c>
+      <c r="H575" s="4">
+        <v>0.9736147757255936</v>
+      </c>
+      <c r="I575" s="3">
+        <v>140</v>
+      </c>
+      <c r="J575" s="3">
+        <v>16</v>
+      </c>
+      <c r="K575" s="4">
+        <v>0.951086956521739</v>
+      </c>
+      <c r="L575" s="4">
+        <v>0.9908256880733946</v>
+      </c>
+      <c r="M575" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="576" spans="1:13">
+      <c r="A576" s="2">
+        <v>45954</v>
+      </c>
+      <c r="B576" s="3">
+        <v>22</v>
+      </c>
+      <c r="C576" s="3">
+        <v>427</v>
+      </c>
+      <c r="D576" s="3">
+        <v>194</v>
+      </c>
+      <c r="E576" s="3">
+        <v>194</v>
+      </c>
+      <c r="F576" s="3">
+        <v>0</v>
+      </c>
+      <c r="G576" s="4">
+        <v>1</v>
+      </c>
+      <c r="H576" s="4">
+        <v>1</v>
+      </c>
+      <c r="I576" s="3">
+        <v>137</v>
+      </c>
+      <c r="J576" s="3">
+        <v>2</v>
+      </c>
+      <c r="K576" s="4">
+        <v>1</v>
+      </c>
+      <c r="L576" s="4">
+        <v>1</v>
+      </c>
+      <c r="M576" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="577" spans="1:13">
+      <c r="A577" s="2">
+        <v>45954</v>
+      </c>
+      <c r="B577" s="3">
+        <v>23</v>
+      </c>
+      <c r="C577" s="3">
+        <v>215</v>
+      </c>
+      <c r="D577" s="3">
+        <v>99</v>
+      </c>
+      <c r="E577" s="3">
+        <v>99</v>
+      </c>
+      <c r="F577" s="3">
+        <v>0</v>
+      </c>
+      <c r="G577" s="4">
+        <v>1</v>
+      </c>
+      <c r="H577" s="4">
+        <v>1</v>
+      </c>
+      <c r="I577" s="3">
+        <v>132</v>
+      </c>
+      <c r="J577" s="3">
+        <v>1</v>
+      </c>
+      <c r="K577" s="4">
+        <v>1</v>
+      </c>
+      <c r="L577" s="4">
+        <v>1</v>
+      </c>
+      <c r="M577" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="578" spans="1:13">
+      <c r="A578" s="2">
+        <v>45955</v>
+      </c>
+      <c r="B578" s="3">
+        <v>0</v>
+      </c>
+      <c r="C578" s="3">
+        <v>113</v>
+      </c>
+      <c r="D578" s="3">
+        <v>57</v>
+      </c>
+      <c r="E578" s="3">
+        <v>57</v>
+      </c>
+      <c r="F578" s="3">
+        <v>0</v>
+      </c>
+      <c r="G578" s="4">
+        <v>1</v>
+      </c>
+      <c r="H578" s="4">
+        <v>1</v>
+      </c>
+      <c r="I578" s="3">
+        <v>123</v>
+      </c>
+      <c r="J578" s="3">
+        <v>1</v>
+      </c>
+      <c r="K578" s="4">
+        <v>1</v>
+      </c>
+      <c r="L578" s="4">
+        <v>1</v>
+      </c>
+      <c r="M578" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="579" spans="1:13">
+      <c r="A579" s="2">
+        <v>45955</v>
+      </c>
+      <c r="B579" s="3">
+        <v>1</v>
+      </c>
+      <c r="C579" s="3">
+        <v>58</v>
+      </c>
+      <c r="D579" s="3">
+        <v>32</v>
+      </c>
+      <c r="E579" s="3">
+        <v>32</v>
+      </c>
+      <c r="F579" s="3">
+        <v>0</v>
+      </c>
+      <c r="G579" s="4">
+        <v>1</v>
+      </c>
+      <c r="H579" s="4">
+        <v>1</v>
+      </c>
+      <c r="I579" s="3">
+        <v>68</v>
+      </c>
+      <c r="J579" s="3">
+        <v>0</v>
+      </c>
+      <c r="K579" s="4">
+        <v>1</v>
+      </c>
+      <c r="L579" s="4">
+        <v>1</v>
+      </c>
+      <c r="M579" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="580" spans="1:13">
+      <c r="A580" s="2">
+        <v>45955</v>
+      </c>
+      <c r="B580" s="3">
+        <v>2</v>
+      </c>
+      <c r="C580" s="3">
+        <v>40</v>
+      </c>
+      <c r="D580" s="3">
+        <v>27</v>
+      </c>
+      <c r="E580" s="3">
+        <v>25</v>
+      </c>
+      <c r="F580" s="3">
+        <v>2</v>
+      </c>
+      <c r="G580" s="4">
+        <v>0.9259259259259259</v>
+      </c>
+      <c r="H580" s="4">
+        <v>0.96</v>
+      </c>
+      <c r="I580" s="3">
+        <v>99</v>
+      </c>
+      <c r="J580" s="3">
+        <v>11</v>
+      </c>
+      <c r="K580" s="4">
+        <v>1</v>
+      </c>
+      <c r="L580" s="4">
+        <v>1</v>
+      </c>
+      <c r="M580" s="4">
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="581" spans="1:13">
+      <c r="A581" s="2">
+        <v>45955</v>
+      </c>
+      <c r="B581" s="3">
+        <v>3</v>
+      </c>
+      <c r="C581" s="3">
+        <v>27</v>
+      </c>
+      <c r="D581" s="3">
+        <v>10</v>
+      </c>
+      <c r="E581" s="3">
+        <v>10</v>
+      </c>
+      <c r="F581" s="3">
+        <v>0</v>
+      </c>
+      <c r="G581" s="4">
+        <v>1</v>
+      </c>
+      <c r="H581" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="I581" s="3">
+        <v>109</v>
+      </c>
+      <c r="J581" s="3">
+        <v>15</v>
+      </c>
+      <c r="K581" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="L581" s="4">
+        <v>1</v>
+      </c>
+      <c r="M581" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="582" spans="1:13">
+      <c r="A582" s="2">
+        <v>45955</v>
+      </c>
+      <c r="B582" s="3">
+        <v>4</v>
+      </c>
+      <c r="C582" s="3">
+        <v>41</v>
+      </c>
+      <c r="D582" s="3">
+        <v>21</v>
+      </c>
+      <c r="E582" s="3">
+        <v>17</v>
+      </c>
+      <c r="F582" s="3">
+        <v>4</v>
+      </c>
+      <c r="G582" s="4">
+        <v>0.8095238095238095</v>
+      </c>
+      <c r="H582" s="4">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="I582" s="3">
+        <v>101</v>
+      </c>
+      <c r="J582" s="3">
+        <v>14</v>
+      </c>
+      <c r="K582" s="4">
+        <v>1</v>
+      </c>
+      <c r="L582" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="M582" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="583" spans="1:13">
+      <c r="A583" s="2">
+        <v>45955</v>
+      </c>
+      <c r="B583" s="3">
+        <v>5</v>
+      </c>
+      <c r="C583" s="3">
+        <v>100</v>
+      </c>
+      <c r="D583" s="3">
+        <v>35</v>
+      </c>
+      <c r="E583" s="3">
+        <v>23</v>
+      </c>
+      <c r="F583" s="3">
+        <v>12</v>
+      </c>
+      <c r="G583" s="4">
+        <v>0.657142857142857</v>
+      </c>
+      <c r="H583" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="I583" s="3">
+        <v>127</v>
+      </c>
+      <c r="J583" s="3">
+        <v>60</v>
+      </c>
+      <c r="K583" s="4">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="L583" s="4">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="M583" s="4">
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="584" spans="1:13">
+      <c r="A584" s="2">
+        <v>45955</v>
+      </c>
+      <c r="B584" s="3">
+        <v>6</v>
+      </c>
+      <c r="C584" s="3">
+        <v>278</v>
+      </c>
+      <c r="D584" s="3">
+        <v>116</v>
+      </c>
+      <c r="E584" s="3">
+        <v>115</v>
+      </c>
+      <c r="F584" s="3">
+        <v>1</v>
+      </c>
+      <c r="G584" s="4">
+        <v>0.9913793103448276</v>
+      </c>
+      <c r="H584" s="4">
+        <v>1</v>
+      </c>
+      <c r="I584" s="3">
+        <v>96</v>
+      </c>
+      <c r="J584" s="3">
+        <v>5</v>
+      </c>
+      <c r="K584" s="4">
+        <v>1</v>
+      </c>
+      <c r="L584" s="4">
+        <v>1</v>
+      </c>
+      <c r="M584" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="585" spans="1:13">
+      <c r="A585" s="2">
+        <v>45955</v>
+      </c>
+      <c r="B585" s="3">
+        <v>7</v>
+      </c>
+      <c r="C585" s="3">
+        <v>577</v>
+      </c>
+      <c r="D585" s="3">
+        <v>257</v>
+      </c>
+      <c r="E585" s="3">
+        <v>244</v>
+      </c>
+      <c r="F585" s="3">
+        <v>13</v>
+      </c>
+      <c r="G585" s="4">
+        <v>0.9494163424124512</v>
+      </c>
+      <c r="H585" s="4">
+        <v>0.9392712550607287</v>
+      </c>
+      <c r="I585" s="3">
+        <v>123</v>
+      </c>
+      <c r="J585" s="3">
+        <v>20</v>
+      </c>
+      <c r="K585" s="4">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="L585" s="4">
+        <v>0.9518072289156626</v>
+      </c>
+      <c r="M585" s="4">
+        <v>0.9692307692307692</v>
+      </c>
+    </row>
+    <row r="586" spans="1:13">
+      <c r="A586" s="2">
+        <v>45955</v>
+      </c>
+      <c r="B586" s="3">
+        <v>8</v>
+      </c>
+      <c r="C586" s="3">
+        <v>778</v>
+      </c>
+      <c r="D586" s="3">
+        <v>349</v>
+      </c>
+      <c r="E586" s="3">
+        <v>344</v>
+      </c>
+      <c r="F586" s="3">
+        <v>5</v>
+      </c>
+      <c r="G586" s="4">
+        <v>0.9856733524355302</v>
+      </c>
+      <c r="H586" s="4">
+        <v>0.9854651162790699</v>
+      </c>
+      <c r="I586" s="3">
+        <v>134</v>
+      </c>
+      <c r="J586" s="3">
+        <v>10</v>
+      </c>
+      <c r="K586" s="4">
+        <v>0.9710144927536232</v>
+      </c>
+      <c r="L586" s="4">
+        <v>0.9918032786885246</v>
+      </c>
+      <c r="M586" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="587" spans="1:13">
+      <c r="A587" s="2">
+        <v>45955</v>
+      </c>
+      <c r="B587" s="3">
+        <v>9</v>
+      </c>
+      <c r="C587" s="3">
+        <v>1019</v>
+      </c>
+      <c r="D587" s="3">
+        <v>482</v>
+      </c>
+      <c r="E587" s="3">
+        <v>475</v>
+      </c>
+      <c r="F587" s="3">
+        <v>7</v>
+      </c>
+      <c r="G587" s="4">
+        <v>0.9854771784232367</v>
+      </c>
+      <c r="H587" s="4">
+        <v>0.9831932773109243</v>
+      </c>
+      <c r="I587" s="3">
+        <v>142</v>
+      </c>
+      <c r="J587" s="3">
+        <v>9</v>
+      </c>
+      <c r="K587" s="4">
+        <v>0.9634703196347032</v>
+      </c>
+      <c r="L587" s="4">
+        <v>1</v>
+      </c>
+      <c r="M587" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="588" spans="1:13">
+      <c r="A588" s="2">
+        <v>45955</v>
+      </c>
+      <c r="B588" s="3">
+        <v>10</v>
+      </c>
+      <c r="C588" s="3">
+        <v>1228</v>
+      </c>
+      <c r="D588" s="3">
+        <v>589</v>
+      </c>
+      <c r="E588" s="3">
+        <v>588</v>
+      </c>
+      <c r="F588" s="3">
+        <v>1</v>
+      </c>
+      <c r="G588" s="4">
+        <v>0.99830220713073</v>
+      </c>
+      <c r="H588" s="4">
+        <v>0.9965986394557824</v>
+      </c>
+      <c r="I588" s="3">
+        <v>145</v>
+      </c>
+      <c r="J588" s="3">
+        <v>6</v>
+      </c>
+      <c r="K588" s="4">
+        <v>0.9925093632958801</v>
+      </c>
+      <c r="L588" s="4">
+        <v>1</v>
+      </c>
+      <c r="M588" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="589" spans="1:13">
+      <c r="A589" s="2">
+        <v>45955</v>
+      </c>
+      <c r="B589" s="3">
+        <v>11</v>
+      </c>
+      <c r="C589" s="3">
+        <v>1336</v>
+      </c>
+      <c r="D589" s="3">
+        <v>615</v>
+      </c>
+      <c r="E589" s="3">
+        <v>612</v>
+      </c>
+      <c r="F589" s="3">
+        <v>3</v>
+      </c>
+      <c r="G589" s="4">
+        <v>0.9951219512195122</v>
+      </c>
+      <c r="H589" s="4">
+        <v>0.9950980392156863</v>
+      </c>
+      <c r="I589" s="3">
+        <v>145</v>
+      </c>
+      <c r="J589" s="3">
+        <v>5</v>
+      </c>
+      <c r="K589" s="4">
+        <v>1</v>
+      </c>
+      <c r="L589" s="4">
+        <v>1</v>
+      </c>
+      <c r="M589" s="4">
+        <v>0.9785714285714284</v>
+      </c>
+    </row>
+    <row r="590" spans="1:13">
+      <c r="A590" s="2">
+        <v>45955</v>
+      </c>
+      <c r="B590" s="3">
+        <v>12</v>
+      </c>
+      <c r="C590" s="3">
+        <v>1239</v>
+      </c>
+      <c r="D590" s="3">
+        <v>601</v>
+      </c>
+      <c r="E590" s="3">
+        <v>600</v>
+      </c>
+      <c r="F590" s="3">
+        <v>1</v>
+      </c>
+      <c r="G590" s="4">
+        <v>0.9983361064891847</v>
+      </c>
+      <c r="H590" s="4">
+        <v>1</v>
+      </c>
+      <c r="I590" s="3">
+        <v>138</v>
+      </c>
+      <c r="J590" s="3">
+        <v>2</v>
+      </c>
+      <c r="K590" s="4">
+        <v>1</v>
+      </c>
+      <c r="L590" s="4">
+        <v>1</v>
+      </c>
+      <c r="M590" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="591" spans="1:13">
+      <c r="A591" s="2">
+        <v>45955</v>
+      </c>
+      <c r="B591" s="3">
+        <v>13</v>
+      </c>
+      <c r="C591" s="3">
+        <v>1091</v>
+      </c>
+      <c r="D591" s="3">
+        <v>525</v>
+      </c>
+      <c r="E591" s="3">
+        <v>524</v>
+      </c>
+      <c r="F591" s="3">
+        <v>1</v>
+      </c>
+      <c r="G591" s="4">
+        <v>0.9980952380952381</v>
+      </c>
+      <c r="H591" s="4">
+        <v>1</v>
+      </c>
+      <c r="I591" s="3">
+        <v>141</v>
+      </c>
+      <c r="J591" s="3">
+        <v>2</v>
+      </c>
+      <c r="K591" s="4">
+        <v>1</v>
+      </c>
+      <c r="L591" s="4">
+        <v>1</v>
+      </c>
+      <c r="M591" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="592" spans="1:13">
+      <c r="A592" s="2">
+        <v>45955</v>
+      </c>
+      <c r="B592" s="3">
+        <v>14</v>
+      </c>
+      <c r="C592" s="3">
+        <v>1047</v>
+      </c>
+      <c r="D592" s="3">
+        <v>497</v>
+      </c>
+      <c r="E592" s="3">
+        <v>497</v>
+      </c>
+      <c r="F592" s="3">
+        <v>0</v>
+      </c>
+      <c r="G592" s="4">
+        <v>1</v>
+      </c>
+      <c r="H592" s="4">
+        <v>1</v>
+      </c>
+      <c r="I592" s="3">
+        <v>136</v>
+      </c>
+      <c r="J592" s="3">
+        <v>1</v>
+      </c>
+      <c r="K592" s="4">
+        <v>1</v>
+      </c>
+      <c r="L592" s="4">
+        <v>1</v>
+      </c>
+      <c r="M592" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="593" spans="1:13">
+      <c r="A593" s="2">
+        <v>45955</v>
+      </c>
+      <c r="B593" s="3">
+        <v>15</v>
+      </c>
+      <c r="C593" s="3">
+        <v>907</v>
+      </c>
+      <c r="D593" s="3">
+        <v>418</v>
+      </c>
+      <c r="E593" s="3">
+        <v>418</v>
+      </c>
+      <c r="F593" s="3">
+        <v>0</v>
+      </c>
+      <c r="G593" s="4">
+        <v>1</v>
+      </c>
+      <c r="H593" s="4">
+        <v>1</v>
+      </c>
+      <c r="I593" s="3">
+        <v>144</v>
+      </c>
+      <c r="J593" s="3">
+        <v>1</v>
+      </c>
+      <c r="K593" s="4">
+        <v>1</v>
+      </c>
+      <c r="L593" s="4">
+        <v>1</v>
+      </c>
+      <c r="M593" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="594" spans="1:13">
+      <c r="A594" s="2">
+        <v>45955</v>
+      </c>
+      <c r="B594" s="3">
+        <v>16</v>
+      </c>
+      <c r="C594" s="3">
+        <v>1043</v>
+      </c>
+      <c r="D594" s="3">
+        <v>474</v>
+      </c>
+      <c r="E594" s="3">
+        <v>468</v>
+      </c>
+      <c r="F594" s="3">
+        <v>6</v>
+      </c>
+      <c r="G594" s="4">
+        <v>0.9873417721518988</v>
+      </c>
+      <c r="H594" s="4">
+        <v>0.9957264957264956</v>
+      </c>
+      <c r="I594" s="3">
+        <v>152</v>
+      </c>
+      <c r="J594" s="3">
+        <v>6</v>
+      </c>
+      <c r="K594" s="4">
+        <v>0.9957446808510639</v>
+      </c>
+      <c r="L594" s="4">
+        <v>1</v>
+      </c>
+      <c r="M594" s="4">
+        <v>0.9896907216494846</v>
+      </c>
+    </row>
+    <row r="595" spans="1:13">
+      <c r="A595" s="2">
+        <v>45955</v>
+      </c>
+      <c r="B595" s="3">
+        <v>17</v>
+      </c>
+      <c r="C595" s="3">
+        <v>1123</v>
+      </c>
+      <c r="D595" s="3">
+        <v>521</v>
+      </c>
+      <c r="E595" s="3">
+        <v>518</v>
+      </c>
+      <c r="F595" s="3">
+        <v>3</v>
+      </c>
+      <c r="G595" s="4">
+        <v>0.9942418426103646</v>
+      </c>
+      <c r="H595" s="4">
+        <v>0.998073217726397</v>
+      </c>
+      <c r="I595" s="3">
+        <v>148</v>
+      </c>
+      <c r="J595" s="3">
+        <v>3</v>
+      </c>
+      <c r="K595" s="4">
+        <v>0.9956331877729258</v>
+      </c>
+      <c r="L595" s="4">
+        <v>1</v>
+      </c>
+      <c r="M595" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="596" spans="1:13">
+      <c r="A596" s="2">
+        <v>45955</v>
+      </c>
+      <c r="B596" s="3">
+        <v>18</v>
+      </c>
+      <c r="C596" s="3">
+        <v>1109</v>
+      </c>
+      <c r="D596" s="3">
+        <v>529</v>
+      </c>
+      <c r="E596" s="3">
+        <v>529</v>
+      </c>
+      <c r="F596" s="3">
+        <v>0</v>
+      </c>
+      <c r="G596" s="4">
+        <v>1</v>
+      </c>
+      <c r="H596" s="4">
+        <v>1</v>
+      </c>
+      <c r="I596" s="3">
+        <v>138</v>
+      </c>
+      <c r="J596" s="3">
+        <v>1</v>
+      </c>
+      <c r="K596" s="4">
+        <v>1</v>
+      </c>
+      <c r="L596" s="4">
+        <v>1</v>
+      </c>
+      <c r="M596" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="597" spans="1:13">
+      <c r="A597" s="2">
+        <v>45955</v>
+      </c>
+      <c r="B597" s="3">
+        <v>19</v>
+      </c>
+      <c r="C597" s="3">
+        <v>1197</v>
+      </c>
+      <c r="D597" s="3">
+        <v>549</v>
+      </c>
+      <c r="E597" s="3">
+        <v>549</v>
+      </c>
+      <c r="F597" s="3">
+        <v>0</v>
+      </c>
+      <c r="G597" s="4">
+        <v>1</v>
+      </c>
+      <c r="H597" s="4">
+        <v>1</v>
+      </c>
+      <c r="I597" s="3">
+        <v>136</v>
+      </c>
+      <c r="J597" s="3">
+        <v>2</v>
+      </c>
+      <c r="K597" s="4">
+        <v>1</v>
+      </c>
+      <c r="L597" s="4">
+        <v>1</v>
+      </c>
+      <c r="M597" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="598" spans="1:13">
+      <c r="A598" s="2">
+        <v>45955</v>
+      </c>
+      <c r="B598" s="3">
+        <v>20</v>
+      </c>
+      <c r="C598" s="3">
+        <v>1067</v>
+      </c>
+      <c r="D598" s="3">
+        <v>448</v>
+      </c>
+      <c r="E598" s="3">
+        <v>431</v>
+      </c>
+      <c r="F598" s="3">
+        <v>17</v>
+      </c>
+      <c r="G598" s="4">
+        <v>0.9620535714285714</v>
+      </c>
+      <c r="H598" s="4">
+        <v>0.9837962962962963</v>
+      </c>
+      <c r="I598" s="3">
+        <v>136</v>
+      </c>
+      <c r="J598" s="3">
+        <v>14</v>
+      </c>
+      <c r="K598" s="4">
+        <v>0.9891891891891892</v>
+      </c>
+      <c r="L598" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="M598" s="4">
+        <v>0.979381443298969</v>
+      </c>
+    </row>
+    <row r="599" spans="1:13">
+      <c r="A599" s="2">
+        <v>45955</v>
+      </c>
+      <c r="B599" s="3">
+        <v>21</v>
+      </c>
+      <c r="C599" s="3">
+        <v>819</v>
+      </c>
+      <c r="D599" s="3">
+        <v>349</v>
+      </c>
+      <c r="E599" s="3">
+        <v>348</v>
+      </c>
+      <c r="F599" s="3">
+        <v>1</v>
+      </c>
+      <c r="G599" s="4">
+        <v>0.997134670487106</v>
+      </c>
+      <c r="H599" s="4">
+        <v>0.997134670487106</v>
+      </c>
+      <c r="I599" s="3">
+        <v>147</v>
+      </c>
+      <c r="J599" s="3">
+        <v>4</v>
+      </c>
+      <c r="K599" s="4">
+        <v>0.9935483870967743</v>
+      </c>
+      <c r="L599" s="4">
+        <v>1</v>
+      </c>
+      <c r="M599" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="600" spans="1:13">
+      <c r="A600" s="2">
+        <v>45955</v>
+      </c>
+      <c r="B600" s="3">
+        <v>22</v>
+      </c>
+      <c r="C600" s="3">
+        <v>490</v>
+      </c>
+      <c r="D600" s="3">
+        <v>219</v>
+      </c>
+      <c r="E600" s="3">
+        <v>219</v>
+      </c>
+      <c r="F600" s="3">
+        <v>0</v>
+      </c>
+      <c r="G600" s="4">
+        <v>1</v>
+      </c>
+      <c r="H600" s="4">
+        <v>1</v>
+      </c>
+      <c r="I600" s="3">
+        <v>124</v>
+      </c>
+      <c r="J600" s="3">
+        <v>1</v>
+      </c>
+      <c r="K600" s="4">
+        <v>1</v>
+      </c>
+      <c r="L600" s="4">
+        <v>1</v>
+      </c>
+      <c r="M600" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="601" spans="1:13">
+      <c r="A601" s="2">
+        <v>45955</v>
+      </c>
+      <c r="B601" s="3">
+        <v>23</v>
+      </c>
+      <c r="C601" s="3">
+        <v>229</v>
+      </c>
+      <c r="D601" s="3">
+        <v>115</v>
+      </c>
+      <c r="E601" s="3">
+        <v>115</v>
+      </c>
+      <c r="F601" s="3">
+        <v>0</v>
+      </c>
+      <c r="G601" s="4">
+        <v>1</v>
+      </c>
+      <c r="H601" s="4">
+        <v>0.991304347826087</v>
+      </c>
+      <c r="I601" s="3">
+        <v>126</v>
+      </c>
+      <c r="J601" s="3">
+        <v>2</v>
+      </c>
+      <c r="K601" s="4">
+        <v>1</v>
+      </c>
+      <c r="L601" s="4">
+        <v>1</v>
+      </c>
+      <c r="M601" s="4">
+        <v>0.9565217391304348</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="G2:G505">
+  <conditionalFormatting sqref="G2:G601">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThanOrEqual">
       <formula>0.95</formula>
     </cfRule>
@@ -31909,7 +37617,7 @@
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H505">
+  <conditionalFormatting sqref="H2:H601">
     <cfRule type="cellIs" dxfId="3" priority="5" operator="greaterThanOrEqual">
       <formula>0.95</formula>
     </cfRule>
@@ -31917,7 +37625,7 @@
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I505">
+  <conditionalFormatting sqref="I2:I601">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThanOrEqual">
       <formula>130</formula>
     </cfRule>
@@ -31925,7 +37633,7 @@
       <formula>130</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K505">
+  <conditionalFormatting sqref="K2:K601">
     <cfRule type="cellIs" dxfId="3" priority="7" operator="greaterThanOrEqual">
       <formula>0.95</formula>
     </cfRule>
@@ -31933,7 +37641,7 @@
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L505">
+  <conditionalFormatting sqref="L2:L601">
     <cfRule type="cellIs" dxfId="3" priority="9" operator="greaterThanOrEqual">
       <formula>0.95</formula>
     </cfRule>
@@ -31941,7 +37649,7 @@
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M505">
+  <conditionalFormatting sqref="M2:M601">
     <cfRule type="cellIs" dxfId="3" priority="11" operator="greaterThanOrEqual">
       <formula>0.95</formula>
     </cfRule>
@@ -31955,7 +37663,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK45"/>
+  <dimension ref="A1:AK53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -36824,233 +42532,1137 @@
       </c>
     </row>
     <row r="44" spans="1:37">
-      <c r="A44" s="5" t="s">
-        <v>36</v>
+      <c r="A44" s="2">
+        <v>45952</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>43</v>
       </c>
       <c r="C44" s="3">
-        <v>193160</v>
+        <v>9174</v>
       </c>
       <c r="D44" s="3">
-        <v>113264</v>
+        <v>5427</v>
       </c>
       <c r="E44" s="3">
-        <v>26843</v>
+        <v>1292</v>
       </c>
       <c r="F44" s="3">
-        <v>86421</v>
+        <v>4135</v>
       </c>
       <c r="G44" s="4">
-        <v>0.2369949851673965</v>
+        <v>0.2380689146858301</v>
       </c>
       <c r="H44" s="3">
         <v>45</v>
       </c>
       <c r="I44" s="3">
-        <v>79896</v>
+        <v>3747</v>
       </c>
       <c r="J44" s="4">
-        <v>0.5863739904742182</v>
+        <v>0.591563113145847</v>
       </c>
       <c r="K44" s="3">
-        <v>79896</v>
+        <v>3747</v>
       </c>
       <c r="L44" s="3">
-        <v>78978</v>
+        <v>3721</v>
       </c>
       <c r="M44" s="3">
-        <v>77353</v>
+        <v>3639</v>
       </c>
       <c r="N44" s="3">
-        <v>1625</v>
+        <v>82</v>
       </c>
       <c r="O44" s="3">
-        <v>777</v>
+        <v>22</v>
       </c>
       <c r="P44" s="3">
-        <v>79755</v>
+        <v>3743</v>
       </c>
       <c r="Q44" s="4">
-        <v>0.9902576640962948</v>
+        <v>0.9941223617419184</v>
       </c>
       <c r="R44" s="4">
-        <v>0.009742335903705096</v>
+        <v>0.005877638258081752</v>
       </c>
       <c r="S44" s="3">
-        <v>141</v>
+        <v>4</v>
       </c>
       <c r="T44" s="3">
-        <v>78429</v>
+        <v>3698</v>
       </c>
       <c r="U44" s="3">
-        <v>549</v>
+        <v>23</v>
       </c>
       <c r="V44" s="3">
-        <v>161</v>
+        <v>2</v>
       </c>
       <c r="W44" s="4">
-        <v>0.9910284436245088</v>
+        <v>0.9932849852269675</v>
       </c>
       <c r="X44" s="3">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Y44" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z44" s="3">
-        <v>4594</v>
+        <v>213</v>
       </c>
       <c r="AA44" s="3">
         <v>60</v>
       </c>
       <c r="AB44" s="3">
-        <v>4585</v>
+        <v>213</v>
       </c>
       <c r="AC44" s="4">
-        <v>0.9980409229429691</v>
+        <v>1</v>
       </c>
       <c r="AD44" s="3">
-        <v>366</v>
+        <v>20</v>
       </c>
       <c r="AE44" s="3">
         <v>45</v>
       </c>
       <c r="AF44" s="3">
-        <v>366</v>
+        <v>20</v>
       </c>
       <c r="AG44" s="4">
         <v>1</v>
       </c>
       <c r="AH44" s="3">
-        <v>252</v>
+        <v>19</v>
       </c>
       <c r="AI44" s="3">
         <v>30</v>
       </c>
       <c r="AJ44" s="3">
-        <v>251</v>
+        <v>19</v>
       </c>
       <c r="AK44" s="4">
-        <v>0.996031746031746</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:37">
-      <c r="A45" s="5" t="s">
-        <v>36</v>
+      <c r="A45" s="2">
+        <v>45952</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>44</v>
       </c>
       <c r="C45" s="3">
-        <v>149065</v>
+        <v>8094</v>
       </c>
       <c r="D45" s="3">
-        <v>69206</v>
+        <v>3824</v>
       </c>
       <c r="E45" s="3">
-        <v>22039</v>
+        <v>1201</v>
       </c>
       <c r="F45" s="3">
-        <v>47167</v>
+        <v>2623</v>
       </c>
       <c r="G45" s="4">
-        <v>0.3184550472502384</v>
+        <v>0.3140690376569037</v>
       </c>
       <c r="H45" s="3">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I45" s="3">
-        <v>79859</v>
+        <v>4270</v>
       </c>
       <c r="J45" s="4">
-        <v>0.4642672659578037</v>
+        <v>0.4724487274524339</v>
       </c>
       <c r="K45" s="3">
-        <v>79859</v>
+        <v>4270</v>
       </c>
       <c r="L45" s="3">
-        <v>78822</v>
+        <v>4240</v>
       </c>
       <c r="M45" s="3">
-        <v>77541</v>
+        <v>4173</v>
       </c>
       <c r="N45" s="3">
-        <v>1281</v>
+        <v>67</v>
       </c>
       <c r="O45" s="3">
-        <v>896</v>
+        <v>26</v>
       </c>
       <c r="P45" s="3">
-        <v>79718</v>
+        <v>4266</v>
       </c>
       <c r="Q45" s="4">
-        <v>0.988760380340701</v>
+        <v>0.993905297702766</v>
       </c>
       <c r="R45" s="4">
-        <v>0.01123961965929903</v>
+        <v>0.006094702297233943</v>
       </c>
       <c r="S45" s="3">
-        <v>141</v>
+        <v>4</v>
       </c>
       <c r="T45" s="3">
-        <v>78388</v>
+        <v>4226</v>
       </c>
       <c r="U45" s="3">
-        <v>434</v>
+        <v>14</v>
       </c>
       <c r="V45" s="3">
-        <v>196</v>
+        <v>5</v>
       </c>
       <c r="W45" s="4">
-        <v>0.9920271330582905</v>
+        <v>0.9955241460541814</v>
       </c>
       <c r="X45" s="3">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="Y45" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z45" s="3">
-        <v>5265</v>
+        <v>291</v>
       </c>
       <c r="AA45" s="3">
         <v>60</v>
       </c>
       <c r="AB45" s="3">
-        <v>5257</v>
+        <v>289</v>
       </c>
       <c r="AC45" s="4">
-        <v>0.9984805318138652</v>
+        <v>0.993127147766323</v>
       </c>
       <c r="AD45" s="3">
-        <v>90</v>
+        <v>4</v>
       </c>
       <c r="AE45" s="3">
         <v>45</v>
       </c>
       <c r="AF45" s="3">
-        <v>90</v>
+        <v>4</v>
       </c>
       <c r="AG45" s="4">
         <v>1</v>
       </c>
       <c r="AH45" s="3">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="AI45" s="3">
         <v>30</v>
       </c>
       <c r="AJ45" s="3">
+        <v>4</v>
+      </c>
+      <c r="AK45" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:37">
+      <c r="A46" s="2">
+        <v>45953</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46" s="3">
+        <v>9122</v>
+      </c>
+      <c r="D46" s="3">
+        <v>5422</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1406</v>
+      </c>
+      <c r="F46" s="3">
+        <v>4016</v>
+      </c>
+      <c r="G46" s="4">
+        <v>0.2593139063076356</v>
+      </c>
+      <c r="H46" s="3">
+        <v>44</v>
+      </c>
+      <c r="I46" s="3">
+        <v>3700</v>
+      </c>
+      <c r="J46" s="4">
+        <v>0.5943871957903969</v>
+      </c>
+      <c r="K46" s="3">
+        <v>3700</v>
+      </c>
+      <c r="L46" s="3">
+        <v>3656</v>
+      </c>
+      <c r="M46" s="3">
+        <v>3573</v>
+      </c>
+      <c r="N46" s="3">
+        <v>83</v>
+      </c>
+      <c r="O46" s="3">
+        <v>41</v>
+      </c>
+      <c r="P46" s="3">
+        <v>3697</v>
+      </c>
+      <c r="Q46" s="4">
+        <v>0.9889099269678119</v>
+      </c>
+      <c r="R46" s="4">
+        <v>0.01109007303218826</v>
+      </c>
+      <c r="S46" s="3">
+        <v>3</v>
+      </c>
+      <c r="T46" s="3">
+        <v>3600</v>
+      </c>
+      <c r="U46" s="3">
+        <v>56</v>
+      </c>
+      <c r="V46" s="3">
+        <v>12</v>
+      </c>
+      <c r="W46" s="4">
+        <v>0.9814612868047984</v>
+      </c>
+      <c r="X46" s="3">
+        <v>135</v>
+      </c>
+      <c r="Y46" s="3">
+        <v>8</v>
+      </c>
+      <c r="Z46" s="3">
+        <v>206</v>
+      </c>
+      <c r="AA46" s="3">
+        <v>60</v>
+      </c>
+      <c r="AB46" s="3">
+        <v>206</v>
+      </c>
+      <c r="AC46" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD46" s="3">
+        <v>12</v>
+      </c>
+      <c r="AE46" s="3">
+        <v>45</v>
+      </c>
+      <c r="AF46" s="3">
+        <v>12</v>
+      </c>
+      <c r="AG46" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH46" s="3">
+        <v>8</v>
+      </c>
+      <c r="AI46" s="3">
+        <v>30</v>
+      </c>
+      <c r="AJ46" s="3">
+        <v>8</v>
+      </c>
+      <c r="AK46" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:37">
+      <c r="A47" s="2">
+        <v>45953</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47" s="3">
+        <v>8227</v>
+      </c>
+      <c r="D47" s="3">
+        <v>3831</v>
+      </c>
+      <c r="E47" s="3">
+        <v>1189</v>
+      </c>
+      <c r="F47" s="3">
+        <v>2642</v>
+      </c>
+      <c r="G47" s="4">
+        <v>0.3103628295484208</v>
+      </c>
+      <c r="H47" s="3">
+        <v>33</v>
+      </c>
+      <c r="I47" s="3">
+        <v>4396</v>
+      </c>
+      <c r="J47" s="4">
+        <v>0.465661845144038</v>
+      </c>
+      <c r="K47" s="3">
+        <v>4396</v>
+      </c>
+      <c r="L47" s="3">
+        <v>4338</v>
+      </c>
+      <c r="M47" s="3">
+        <v>4265</v>
+      </c>
+      <c r="N47" s="3">
+        <v>73</v>
+      </c>
+      <c r="O47" s="3">
+        <v>46</v>
+      </c>
+      <c r="P47" s="3">
+        <v>4384</v>
+      </c>
+      <c r="Q47" s="4">
+        <v>0.989507299270073</v>
+      </c>
+      <c r="R47" s="4">
+        <v>0.01049270072992701</v>
+      </c>
+      <c r="S47" s="3">
+        <v>12</v>
+      </c>
+      <c r="T47" s="3">
+        <v>4320</v>
+      </c>
+      <c r="U47" s="3">
+        <v>18</v>
+      </c>
+      <c r="V47" s="3">
+        <v>9</v>
+      </c>
+      <c r="W47" s="4">
+        <v>0.9937888198757764</v>
+      </c>
+      <c r="X47" s="3">
+        <v>142</v>
+      </c>
+      <c r="Y47" s="3">
+        <v>5</v>
+      </c>
+      <c r="Z47" s="3">
+        <v>263</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>60</v>
+      </c>
+      <c r="AB47" s="3">
+        <v>263</v>
+      </c>
+      <c r="AC47" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD47" s="3">
+        <v>7</v>
+      </c>
+      <c r="AE47" s="3">
+        <v>45</v>
+      </c>
+      <c r="AF47" s="3">
+        <v>7</v>
+      </c>
+      <c r="AG47" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH47" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI47" s="3">
+        <v>30</v>
+      </c>
+      <c r="AJ47" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK47" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:37">
+      <c r="A48" s="2">
+        <v>45954</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C48" s="3">
+        <v>8791</v>
+      </c>
+      <c r="D48" s="3">
+        <v>5272</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1231</v>
+      </c>
+      <c r="F48" s="3">
+        <v>4041</v>
+      </c>
+      <c r="G48" s="4">
+        <v>0.2334977238239757</v>
+      </c>
+      <c r="H48" s="3">
+        <v>44</v>
+      </c>
+      <c r="I48" s="3">
+        <v>3519</v>
+      </c>
+      <c r="J48" s="4">
+        <v>0.5997042429757706</v>
+      </c>
+      <c r="K48" s="3">
+        <v>3519</v>
+      </c>
+      <c r="L48" s="3">
+        <v>3428</v>
+      </c>
+      <c r="M48" s="3">
+        <v>3372</v>
+      </c>
+      <c r="N48" s="3">
+        <v>56</v>
+      </c>
+      <c r="O48" s="3">
+        <v>81</v>
+      </c>
+      <c r="P48" s="3">
+        <v>3509</v>
+      </c>
+      <c r="Q48" s="4">
+        <v>0.9769165004274722</v>
+      </c>
+      <c r="R48" s="4">
+        <v>0.02308349957252779</v>
+      </c>
+      <c r="S48" s="3">
+        <v>10</v>
+      </c>
+      <c r="T48" s="3">
+        <v>3388</v>
+      </c>
+      <c r="U48" s="3">
+        <v>40</v>
+      </c>
+      <c r="V48" s="3">
+        <v>19</v>
+      </c>
+      <c r="W48" s="4">
+        <v>0.982883666956774</v>
+      </c>
+      <c r="X48" s="3">
+        <v>136</v>
+      </c>
+      <c r="Y48" s="3">
+        <v>8</v>
+      </c>
+      <c r="Z48" s="3">
+        <v>203</v>
+      </c>
+      <c r="AA48" s="3">
+        <v>60</v>
+      </c>
+      <c r="AB48" s="3">
+        <v>203</v>
+      </c>
+      <c r="AC48" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD48" s="3">
+        <v>15</v>
+      </c>
+      <c r="AE48" s="3">
+        <v>45</v>
+      </c>
+      <c r="AF48" s="3">
+        <v>15</v>
+      </c>
+      <c r="AG48" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH48" s="3">
+        <v>22</v>
+      </c>
+      <c r="AI48" s="3">
+        <v>30</v>
+      </c>
+      <c r="AJ48" s="3">
+        <v>22</v>
+      </c>
+      <c r="AK48" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:37">
+      <c r="A49" s="2">
+        <v>45954</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C49" s="3">
+        <v>7983</v>
+      </c>
+      <c r="D49" s="3">
+        <v>3791</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1104</v>
+      </c>
+      <c r="F49" s="3">
+        <v>2687</v>
+      </c>
+      <c r="G49" s="4">
+        <v>0.2912160379847006</v>
+      </c>
+      <c r="H49" s="3">
+        <v>33</v>
+      </c>
+      <c r="I49" s="3">
+        <v>4192</v>
+      </c>
+      <c r="J49" s="4">
+        <v>0.4748841287736439</v>
+      </c>
+      <c r="K49" s="3">
+        <v>4192</v>
+      </c>
+      <c r="L49" s="3">
+        <v>4154</v>
+      </c>
+      <c r="M49" s="3">
+        <v>4106</v>
+      </c>
+      <c r="N49" s="3">
+        <v>48</v>
+      </c>
+      <c r="O49" s="3">
+        <v>31</v>
+      </c>
+      <c r="P49" s="3">
+        <v>4185</v>
+      </c>
+      <c r="Q49" s="4">
+        <v>0.9925925925925925</v>
+      </c>
+      <c r="R49" s="4">
+        <v>0.007407407407407408</v>
+      </c>
+      <c r="S49" s="3">
+        <v>7</v>
+      </c>
+      <c r="T49" s="3">
+        <v>4149</v>
+      </c>
+      <c r="U49" s="3">
+        <v>5</v>
+      </c>
+      <c r="V49" s="3">
+        <v>6</v>
+      </c>
+      <c r="W49" s="4">
+        <v>0.9973557692307692</v>
+      </c>
+      <c r="X49" s="3">
+        <v>140</v>
+      </c>
+      <c r="Y49" s="3">
+        <v>4</v>
+      </c>
+      <c r="Z49" s="3">
+        <v>327</v>
+      </c>
+      <c r="AA49" s="3">
+        <v>60</v>
+      </c>
+      <c r="AB49" s="3">
+        <v>326</v>
+      </c>
+      <c r="AC49" s="4">
+        <v>0.9969418960244648</v>
+      </c>
+      <c r="AD49" s="3">
+        <v>12</v>
+      </c>
+      <c r="AE49" s="3">
+        <v>45</v>
+      </c>
+      <c r="AF49" s="3">
+        <v>12</v>
+      </c>
+      <c r="AG49" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH49" s="3">
+        <v>8</v>
+      </c>
+      <c r="AI49" s="3">
+        <v>30</v>
+      </c>
+      <c r="AJ49" s="3">
+        <v>8</v>
+      </c>
+      <c r="AK49" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:37">
+      <c r="A50" s="2">
+        <v>45955</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C50" s="3">
+        <v>8809</v>
+      </c>
+      <c r="D50" s="3">
+        <v>5301</v>
+      </c>
+      <c r="E50" s="3">
+        <v>1251</v>
+      </c>
+      <c r="F50" s="3">
+        <v>4050</v>
+      </c>
+      <c r="G50" s="4">
+        <v>0.2359932088285229</v>
+      </c>
+      <c r="H50" s="3">
+        <v>46</v>
+      </c>
+      <c r="I50" s="3">
+        <v>3508</v>
+      </c>
+      <c r="J50" s="4">
+        <v>0.6017709161085254</v>
+      </c>
+      <c r="K50" s="3">
+        <v>3508</v>
+      </c>
+      <c r="L50" s="3">
+        <v>3467</v>
+      </c>
+      <c r="M50" s="3">
+        <v>3408</v>
+      </c>
+      <c r="N50" s="3">
         <v>59</v>
       </c>
-      <c r="AK45" s="4">
-        <v>0.9833333333333333</v>
+      <c r="O50" s="3">
+        <v>32</v>
+      </c>
+      <c r="P50" s="3">
+        <v>3499</v>
+      </c>
+      <c r="Q50" s="4">
+        <v>0.9908545298656759</v>
+      </c>
+      <c r="R50" s="4">
+        <v>0.009145470134324093</v>
+      </c>
+      <c r="S50" s="3">
+        <v>9</v>
+      </c>
+      <c r="T50" s="3">
+        <v>3442</v>
+      </c>
+      <c r="U50" s="3">
+        <v>25</v>
+      </c>
+      <c r="V50" s="3">
+        <v>6</v>
+      </c>
+      <c r="W50" s="4">
+        <v>0.991073999424129</v>
+      </c>
+      <c r="X50" s="3">
+        <v>133</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>5</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>214</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>60</v>
+      </c>
+      <c r="AB50" s="3">
+        <v>214</v>
+      </c>
+      <c r="AC50" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>15</v>
+      </c>
+      <c r="AE50" s="3">
+        <v>45</v>
+      </c>
+      <c r="AF50" s="3">
+        <v>15</v>
+      </c>
+      <c r="AG50" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH50" s="3">
+        <v>18</v>
+      </c>
+      <c r="AI50" s="3">
+        <v>30</v>
+      </c>
+      <c r="AJ50" s="3">
+        <v>18</v>
+      </c>
+      <c r="AK50" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:37">
+      <c r="A51" s="2">
+        <v>45955</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C51" s="3">
+        <v>8147</v>
+      </c>
+      <c r="D51" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E51" s="3">
+        <v>1127</v>
+      </c>
+      <c r="F51" s="3">
+        <v>2673</v>
+      </c>
+      <c r="G51" s="4">
+        <v>0.2965789473684211</v>
+      </c>
+      <c r="H51" s="3">
+        <v>34</v>
+      </c>
+      <c r="I51" s="3">
+        <v>4347</v>
+      </c>
+      <c r="J51" s="4">
+        <v>0.4664293605007978</v>
+      </c>
+      <c r="K51" s="3">
+        <v>4347</v>
+      </c>
+      <c r="L51" s="3">
+        <v>4291</v>
+      </c>
+      <c r="M51" s="3">
+        <v>4226</v>
+      </c>
+      <c r="N51" s="3">
+        <v>65</v>
+      </c>
+      <c r="O51" s="3">
+        <v>45</v>
+      </c>
+      <c r="P51" s="3">
+        <v>4336</v>
+      </c>
+      <c r="Q51" s="4">
+        <v>0.9896217712177122</v>
+      </c>
+      <c r="R51" s="4">
+        <v>0.01037822878228782</v>
+      </c>
+      <c r="S51" s="3">
+        <v>11</v>
+      </c>
+      <c r="T51" s="3">
+        <v>4273</v>
+      </c>
+      <c r="U51" s="3">
+        <v>18</v>
+      </c>
+      <c r="V51" s="3">
+        <v>7</v>
+      </c>
+      <c r="W51" s="4">
+        <v>0.9941833410888785</v>
+      </c>
+      <c r="X51" s="3">
+        <v>144</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>4</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>294</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>60</v>
+      </c>
+      <c r="AB51" s="3">
+        <v>294</v>
+      </c>
+      <c r="AC51" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>3</v>
+      </c>
+      <c r="AE51" s="3">
+        <v>45</v>
+      </c>
+      <c r="AF51" s="3">
+        <v>3</v>
+      </c>
+      <c r="AG51" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH51" s="3">
+        <v>5</v>
+      </c>
+      <c r="AI51" s="3">
+        <v>30</v>
+      </c>
+      <c r="AJ51" s="3">
+        <v>5</v>
+      </c>
+      <c r="AK51" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:37">
+      <c r="A52" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C52" s="3">
+        <v>229056</v>
+      </c>
+      <c r="D52" s="3">
+        <v>134686</v>
+      </c>
+      <c r="E52" s="3">
+        <v>32023</v>
+      </c>
+      <c r="F52" s="3">
+        <v>102663</v>
+      </c>
+      <c r="G52" s="4">
+        <v>0.2377604205336858</v>
+      </c>
+      <c r="H52" s="3">
+        <v>45</v>
+      </c>
+      <c r="I52" s="3">
+        <v>94370</v>
+      </c>
+      <c r="J52" s="4">
+        <v>0.5880046800782341</v>
+      </c>
+      <c r="K52" s="3">
+        <v>94370</v>
+      </c>
+      <c r="L52" s="3">
+        <v>93250</v>
+      </c>
+      <c r="M52" s="3">
+        <v>91345</v>
+      </c>
+      <c r="N52" s="3">
+        <v>1905</v>
+      </c>
+      <c r="O52" s="3">
+        <v>953</v>
+      </c>
+      <c r="P52" s="3">
+        <v>94203</v>
+      </c>
+      <c r="Q52" s="4">
+        <v>0.9898835493561776</v>
+      </c>
+      <c r="R52" s="4">
+        <v>0.01011645064382238</v>
+      </c>
+      <c r="S52" s="3">
+        <v>167</v>
+      </c>
+      <c r="T52" s="3">
+        <v>92557</v>
+      </c>
+      <c r="U52" s="3">
+        <v>693</v>
+      </c>
+      <c r="V52" s="3">
+        <v>200</v>
+      </c>
+      <c r="W52" s="4">
+        <v>0.9904440877474585</v>
+      </c>
+      <c r="X52" s="3">
+        <v>135</v>
+      </c>
+      <c r="Y52" s="3">
+        <v>6</v>
+      </c>
+      <c r="Z52" s="3">
+        <v>5430</v>
+      </c>
+      <c r="AA52" s="3">
+        <v>60</v>
+      </c>
+      <c r="AB52" s="3">
+        <v>5421</v>
+      </c>
+      <c r="AC52" s="4">
+        <v>0.9983425414364641</v>
+      </c>
+      <c r="AD52" s="3">
+        <v>428</v>
+      </c>
+      <c r="AE52" s="3">
+        <v>45</v>
+      </c>
+      <c r="AF52" s="3">
+        <v>428</v>
+      </c>
+      <c r="AG52" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH52" s="3">
+        <v>319</v>
+      </c>
+      <c r="AI52" s="3">
+        <v>30</v>
+      </c>
+      <c r="AJ52" s="3">
+        <v>318</v>
+      </c>
+      <c r="AK52" s="4">
+        <v>0.9968652037617555</v>
+      </c>
+    </row>
+    <row r="53" spans="1:37">
+      <c r="A53" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C53" s="3">
+        <v>181516</v>
+      </c>
+      <c r="D53" s="3">
+        <v>84452</v>
+      </c>
+      <c r="E53" s="3">
+        <v>26660</v>
+      </c>
+      <c r="F53" s="3">
+        <v>57792</v>
+      </c>
+      <c r="G53" s="4">
+        <v>0.3156822810590632</v>
+      </c>
+      <c r="H53" s="3">
+        <v>32</v>
+      </c>
+      <c r="I53" s="3">
+        <v>97064</v>
+      </c>
+      <c r="J53" s="4">
+        <v>0.4652592608916019</v>
+      </c>
+      <c r="K53" s="3">
+        <v>97064</v>
+      </c>
+      <c r="L53" s="3">
+        <v>95845</v>
+      </c>
+      <c r="M53" s="3">
+        <v>94311</v>
+      </c>
+      <c r="N53" s="3">
+        <v>1534</v>
+      </c>
+      <c r="O53" s="3">
+        <v>1044</v>
+      </c>
+      <c r="P53" s="3">
+        <v>96889</v>
+      </c>
+      <c r="Q53" s="4">
+        <v>0.9892247829991021</v>
+      </c>
+      <c r="R53" s="4">
+        <v>0.01077521700089793</v>
+      </c>
+      <c r="S53" s="3">
+        <v>175</v>
+      </c>
+      <c r="T53" s="3">
+        <v>95356</v>
+      </c>
+      <c r="U53" s="3">
+        <v>489</v>
+      </c>
+      <c r="V53" s="3">
+        <v>223</v>
+      </c>
+      <c r="W53" s="4">
+        <v>0.9925885830869801</v>
+      </c>
+      <c r="X53" s="3">
+        <v>134</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>4</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>6440</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>60</v>
+      </c>
+      <c r="AB53" s="3">
+        <v>6429</v>
+      </c>
+      <c r="AC53" s="4">
+        <v>0.9982919254658386</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>116</v>
+      </c>
+      <c r="AE53" s="3">
+        <v>45</v>
+      </c>
+      <c r="AF53" s="3">
+        <v>116</v>
+      </c>
+      <c r="AG53" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH53" s="3">
+        <v>78</v>
+      </c>
+      <c r="AI53" s="3">
+        <v>30</v>
+      </c>
+      <c r="AJ53" s="3">
+        <v>77</v>
+      </c>
+      <c r="AK53" s="4">
+        <v>0.9871794871794873</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="AC2:AC45">
+  <conditionalFormatting sqref="AC2:AC53">
     <cfRule type="cellIs" dxfId="3" priority="11" operator="greaterThanOrEqual">
       <formula>0.95</formula>
     </cfRule>
@@ -37058,7 +43670,7 @@
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG2:AG45">
+  <conditionalFormatting sqref="AG2:AG53">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThanOrEqual">
       <formula>0.95</formula>
     </cfRule>
@@ -37066,7 +43678,7 @@
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK2:AK45">
+  <conditionalFormatting sqref="AK2:AK53">
     <cfRule type="cellIs" dxfId="3" priority="5" operator="greaterThanOrEqual">
       <formula>0.95</formula>
     </cfRule>
@@ -37074,7 +43686,7 @@
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q45">
+  <conditionalFormatting sqref="Q2:Q53">
     <cfRule type="cellIs" dxfId="3" priority="7" operator="greaterThanOrEqual">
       <formula>0.95</formula>
     </cfRule>
@@ -37082,7 +43694,7 @@
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R2:R45">
+  <conditionalFormatting sqref="R2:R53">
     <cfRule type="cellIs" dxfId="3" priority="13" operator="lessThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
@@ -37090,7 +43702,7 @@
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W2:W45">
+  <conditionalFormatting sqref="W2:W53">
     <cfRule type="cellIs" dxfId="3" priority="9" operator="greaterThanOrEqual">
       <formula>0.95</formula>
     </cfRule>
@@ -37098,7 +43710,7 @@
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X2:X45">
+  <conditionalFormatting sqref="X2:X53">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThanOrEqual">
       <formula>130</formula>
     </cfRule>
@@ -37112,7 +43724,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U23"/>
+  <dimension ref="A1:U27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -38552,68 +45164,328 @@
       </c>
     </row>
     <row r="23" spans="1:21">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="2">
+        <v>45952</v>
+      </c>
+      <c r="B23" s="3">
+        <v>900</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0.1130511242306243</v>
+      </c>
+      <c r="D23" s="3">
+        <v>1378</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0.1489568695276186</v>
+      </c>
+      <c r="F23" s="3">
+        <v>476</v>
+      </c>
+      <c r="G23" s="4">
+        <v>0.05979148348197463</v>
+      </c>
+      <c r="H23" s="3">
+        <v>955</v>
+      </c>
+      <c r="I23" s="4">
+        <v>0.1032320830180521</v>
+      </c>
+      <c r="J23" s="3">
+        <v>485</v>
+      </c>
+      <c r="K23" s="4">
+        <v>0.06092199472428086</v>
+      </c>
+      <c r="L23" s="3">
+        <v>879</v>
+      </c>
+      <c r="M23" s="4">
+        <v>0.09501675494541133</v>
+      </c>
+      <c r="N23" s="3">
+        <v>459</v>
+      </c>
+      <c r="O23" s="4">
+        <v>0.05765607335761839</v>
+      </c>
+      <c r="P23" s="3">
+        <v>875</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>0.09458436925737758</v>
+      </c>
+      <c r="R23" s="3">
+        <v>346</v>
+      </c>
+      <c r="S23" s="4">
+        <v>0.04346187664866223</v>
+      </c>
+      <c r="T23" s="3">
+        <v>874</v>
+      </c>
+      <c r="U23" s="4">
+        <v>0.09447627283536915</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
+      <c r="A24" s="2">
+        <v>45953</v>
+      </c>
+      <c r="B24" s="3">
+        <v>925</v>
+      </c>
+      <c r="C24" s="4">
+        <v>0.1157117838378784</v>
+      </c>
+      <c r="D24" s="3">
+        <v>1514</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0.1636226088836054</v>
+      </c>
+      <c r="F24" s="3">
+        <v>565</v>
+      </c>
+      <c r="G24" s="4">
+        <v>0.07067800850637979</v>
+      </c>
+      <c r="H24" s="3">
+        <v>1121</v>
+      </c>
+      <c r="I24" s="4">
+        <v>0.1211498973305955</v>
+      </c>
+      <c r="J24" s="3">
+        <v>388</v>
+      </c>
+      <c r="K24" s="4">
+        <v>0.0485364023017263</v>
+      </c>
+      <c r="L24" s="3">
+        <v>1007</v>
+      </c>
+      <c r="M24" s="4">
+        <v>0.108829568788501</v>
+      </c>
+      <c r="N24" s="3">
+        <v>428</v>
+      </c>
+      <c r="O24" s="4">
+        <v>0.05354015511633725</v>
+      </c>
+      <c r="P24" s="3">
+        <v>936</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>0.1011563817140387</v>
+      </c>
+      <c r="R24" s="3">
+        <v>395</v>
+      </c>
+      <c r="S24" s="4">
+        <v>0.04941205904428321</v>
+      </c>
+      <c r="T24" s="3">
+        <v>718</v>
+      </c>
+      <c r="U24" s="4">
+        <v>0.07759645520371772</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
+      <c r="A25" s="2">
+        <v>45954</v>
+      </c>
+      <c r="B25" s="3">
+        <v>944</v>
+      </c>
+      <c r="C25" s="4">
+        <v>0.1245054075441836</v>
+      </c>
+      <c r="D25" s="3">
+        <v>1488</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0.1641840450182059</v>
+      </c>
+      <c r="F25" s="3">
+        <v>582</v>
+      </c>
+      <c r="G25" s="4">
+        <v>0.07676074914270641</v>
+      </c>
+      <c r="H25" s="3">
+        <v>1074</v>
+      </c>
+      <c r="I25" s="4">
+        <v>0.1185038066865276</v>
+      </c>
+      <c r="J25" s="3">
+        <v>406</v>
+      </c>
+      <c r="K25" s="4">
+        <v>0.05354787654972302</v>
+      </c>
+      <c r="L25" s="3">
+        <v>900</v>
+      </c>
+      <c r="M25" s="4">
+        <v>0.09930486593843098</v>
+      </c>
+      <c r="N25" s="3">
+        <v>313</v>
+      </c>
+      <c r="O25" s="4">
+        <v>0.04128198364547613</v>
+      </c>
+      <c r="P25" s="3">
+        <v>812</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>0.08959505682445107</v>
+      </c>
+      <c r="R25" s="3">
+        <v>367</v>
+      </c>
+      <c r="S25" s="4">
+        <v>0.04840411500923239</v>
+      </c>
+      <c r="T25" s="3">
+        <v>833</v>
+      </c>
+      <c r="U25" s="4">
+        <v>0.09191217036301445</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
+      <c r="A26" s="2">
+        <v>45955</v>
+      </c>
+      <c r="B26" s="3">
+        <v>1019</v>
+      </c>
+      <c r="C26" s="4">
+        <v>0.131348285640629</v>
+      </c>
+      <c r="D26" s="3">
+        <v>1458</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0.1602021755851005</v>
+      </c>
+      <c r="F26" s="3">
+        <v>662</v>
+      </c>
+      <c r="G26" s="4">
+        <v>0.08533127094612013</v>
+      </c>
+      <c r="H26" s="3">
+        <v>1112</v>
+      </c>
+      <c r="I26" s="4">
+        <v>0.1221843753433689</v>
+      </c>
+      <c r="J26" s="3">
+        <v>529</v>
+      </c>
+      <c r="K26" s="4">
+        <v>0.06818767723640114</v>
+      </c>
+      <c r="L26" s="3">
+        <v>1006</v>
+      </c>
+      <c r="M26" s="4">
+        <v>0.1105373035930118</v>
+      </c>
+      <c r="N26" s="3">
+        <v>310</v>
+      </c>
+      <c r="O26" s="4">
+        <v>0.03995875225573602</v>
+      </c>
+      <c r="P26" s="3">
+        <v>820</v>
+      </c>
+      <c r="Q26" s="4">
+        <v>0.09009998901219646</v>
+      </c>
+      <c r="R26" s="3">
+        <v>336</v>
+      </c>
+      <c r="S26" s="4">
+        <v>0.04331013147718484</v>
+      </c>
+      <c r="T26" s="3">
+        <v>841</v>
+      </c>
+      <c r="U26" s="4">
+        <v>0.09240742775519176</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
+      <c r="A27" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="3">
-        <v>19257</v>
-      </c>
-      <c r="C23" s="4">
-        <v>0.3732555434951156</v>
-      </c>
-      <c r="D23" s="3">
-        <v>28270</v>
-      </c>
-      <c r="E23" s="4">
-        <v>0.3083147930026611</v>
-      </c>
-      <c r="F23" s="3">
-        <v>12150</v>
-      </c>
-      <c r="G23" s="4">
-        <v>0.2355016281594046</v>
-      </c>
-      <c r="H23" s="3">
-        <v>20557</v>
-      </c>
-      <c r="I23" s="4">
-        <v>0.2241962221349736</v>
-      </c>
-      <c r="J23" s="3">
-        <v>9236</v>
-      </c>
-      <c r="K23" s="4">
-        <v>0.179020003101256</v>
-      </c>
-      <c r="L23" s="3">
-        <v>17328</v>
-      </c>
-      <c r="M23" s="4">
-        <v>0.1889804999345635</v>
-      </c>
-      <c r="N23" s="3">
-        <v>6028</v>
-      </c>
-      <c r="O23" s="4">
-        <v>0.1168398201271515</v>
-      </c>
-      <c r="P23" s="3">
-        <v>13987</v>
-      </c>
-      <c r="Q23" s="4">
-        <v>0.1525432971251581</v>
-      </c>
-      <c r="R23" s="3">
-        <v>4921</v>
-      </c>
-      <c r="S23" s="4">
-        <v>0.09538300511707241</v>
-      </c>
-      <c r="T23" s="3">
-        <v>11550</v>
-      </c>
-      <c r="U23" s="4">
-        <v>0.1259651878026436</v>
+      <c r="B27" s="3">
+        <v>23045</v>
+      </c>
+      <c r="C27" s="4">
+        <v>0.3691511685648837</v>
+      </c>
+      <c r="D27" s="3">
+        <v>34108</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0.3037411058569991</v>
+      </c>
+      <c r="F27" s="3">
+        <v>14435</v>
+      </c>
+      <c r="G27" s="4">
+        <v>0.2312300767296202</v>
+      </c>
+      <c r="H27" s="3">
+        <v>24819</v>
+      </c>
+      <c r="I27" s="4">
+        <v>0.221020010152013</v>
+      </c>
+      <c r="J27" s="3">
+        <v>11044</v>
+      </c>
+      <c r="K27" s="4">
+        <v>0.1769106316177295</v>
+      </c>
+      <c r="L27" s="3">
+        <v>21120</v>
+      </c>
+      <c r="M27" s="4">
+        <v>0.1880793994282813</v>
+      </c>
+      <c r="N27" s="3">
+        <v>7538</v>
+      </c>
+      <c r="O27" s="4">
+        <v>0.1207490348727314</v>
+      </c>
+      <c r="P27" s="3">
+        <v>17430</v>
+      </c>
+      <c r="Q27" s="4">
+        <v>0.155218936175897</v>
+      </c>
+      <c r="R27" s="3">
+        <v>6365</v>
+      </c>
+      <c r="S27" s="4">
+        <v>0.1019590882150351</v>
+      </c>
+      <c r="T27" s="3">
+        <v>14816</v>
+      </c>
+      <c r="U27" s="4">
+        <v>0.1319405483868095</v>
       </c>
     </row>
   </sheetData>
@@ -38623,13 +45495,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V25"/>
+  <dimension ref="A1:Z25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:26">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -38696,8 +45568,20 @@
       <c r="V1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="2" spans="1:22">
+      <c r="W1" t="s">
+        <v>86</v>
+      </c>
+      <c r="X1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
       <c r="A2">
         <v>0</v>
       </c>
@@ -38764,8 +45648,20 @@
       <c r="V2">
         <v>94</v>
       </c>
-    </row>
-    <row r="3" spans="1:22">
+      <c r="W2">
+        <v>116</v>
+      </c>
+      <c r="X2">
+        <v>84</v>
+      </c>
+      <c r="Y2">
+        <v>90</v>
+      </c>
+      <c r="Z2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
       <c r="A3">
         <v>1</v>
       </c>
@@ -38832,8 +45728,20 @@
       <c r="V3">
         <v>90</v>
       </c>
-    </row>
-    <row r="4" spans="1:22">
+      <c r="W3">
+        <v>82</v>
+      </c>
+      <c r="X3">
+        <v>81</v>
+      </c>
+      <c r="Y3">
+        <v>62</v>
+      </c>
+      <c r="Z3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
       <c r="A4">
         <v>2</v>
       </c>
@@ -38900,8 +45808,20 @@
       <c r="V4">
         <v>38</v>
       </c>
-    </row>
-    <row r="5" spans="1:22">
+      <c r="W4">
+        <v>23</v>
+      </c>
+      <c r="X4">
+        <v>36</v>
+      </c>
+      <c r="Y4">
+        <v>48</v>
+      </c>
+      <c r="Z4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
       <c r="A5">
         <v>3</v>
       </c>
@@ -38968,8 +45888,20 @@
       <c r="V5">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:22">
+      <c r="W5">
+        <v>18</v>
+      </c>
+      <c r="X5">
+        <v>18</v>
+      </c>
+      <c r="Y5">
+        <v>19</v>
+      </c>
+      <c r="Z5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
       <c r="A6">
         <v>4</v>
       </c>
@@ -39036,8 +45968,20 @@
       <c r="V6">
         <v>40</v>
       </c>
-    </row>
-    <row r="7" spans="1:22">
+      <c r="W6">
+        <v>32</v>
+      </c>
+      <c r="X6">
+        <v>23</v>
+      </c>
+      <c r="Y6">
+        <v>39</v>
+      </c>
+      <c r="Z6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
       <c r="A7">
         <v>5</v>
       </c>
@@ -39104,8 +46048,20 @@
       <c r="V7">
         <v>81</v>
       </c>
-    </row>
-    <row r="8" spans="1:22">
+      <c r="W7">
+        <v>80</v>
+      </c>
+      <c r="X7">
+        <v>112</v>
+      </c>
+      <c r="Y7">
+        <v>105</v>
+      </c>
+      <c r="Z7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
       <c r="A8">
         <v>6</v>
       </c>
@@ -39172,8 +46128,20 @@
       <c r="V8">
         <v>251</v>
       </c>
-    </row>
-    <row r="9" spans="1:22">
+      <c r="W8">
+        <v>297</v>
+      </c>
+      <c r="X8">
+        <v>275</v>
+      </c>
+      <c r="Y8">
+        <v>282</v>
+      </c>
+      <c r="Z8">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
       <c r="A9">
         <v>7</v>
       </c>
@@ -39240,8 +46208,20 @@
       <c r="V9">
         <v>389</v>
       </c>
-    </row>
-    <row r="10" spans="1:22">
+      <c r="W9">
+        <v>462</v>
+      </c>
+      <c r="X9">
+        <v>508</v>
+      </c>
+      <c r="Y9">
+        <v>494</v>
+      </c>
+      <c r="Z9">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
       <c r="A10">
         <v>8</v>
       </c>
@@ -39308,8 +46288,20 @@
       <c r="V10">
         <v>598</v>
       </c>
-    </row>
-    <row r="11" spans="1:22">
+      <c r="W10">
+        <v>703</v>
+      </c>
+      <c r="X10">
+        <v>815</v>
+      </c>
+      <c r="Y10">
+        <v>704</v>
+      </c>
+      <c r="Z10">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
       <c r="A11">
         <v>9</v>
       </c>
@@ -39376,8 +46368,20 @@
       <c r="V11">
         <v>935</v>
       </c>
-    </row>
-    <row r="12" spans="1:22">
+      <c r="W11">
+        <v>891</v>
+      </c>
+      <c r="X11">
+        <v>963</v>
+      </c>
+      <c r="Y11">
+        <v>988</v>
+      </c>
+      <c r="Z11">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
       <c r="A12">
         <v>10</v>
       </c>
@@ -39444,8 +46448,20 @@
       <c r="V12">
         <v>1217</v>
       </c>
-    </row>
-    <row r="13" spans="1:22">
+      <c r="W12">
+        <v>1229</v>
+      </c>
+      <c r="X12">
+        <v>1304</v>
+      </c>
+      <c r="Y12">
+        <v>1210</v>
+      </c>
+      <c r="Z12">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
       <c r="A13">
         <v>11</v>
       </c>
@@ -39512,8 +46528,20 @@
       <c r="V13">
         <v>1247</v>
       </c>
-    </row>
-    <row r="14" spans="1:22">
+      <c r="W13">
+        <v>1240</v>
+      </c>
+      <c r="X13">
+        <v>1320</v>
+      </c>
+      <c r="Y13">
+        <v>1200</v>
+      </c>
+      <c r="Z13">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
       <c r="A14">
         <v>12</v>
       </c>
@@ -39580,8 +46608,20 @@
       <c r="V14">
         <v>1170</v>
       </c>
-    </row>
-    <row r="15" spans="1:22">
+      <c r="W14">
+        <v>1279</v>
+      </c>
+      <c r="X14">
+        <v>1212</v>
+      </c>
+      <c r="Y14">
+        <v>1151</v>
+      </c>
+      <c r="Z14">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
       <c r="A15">
         <v>13</v>
       </c>
@@ -39648,8 +46688,20 @@
       <c r="V15">
         <v>1067</v>
       </c>
-    </row>
-    <row r="16" spans="1:22">
+      <c r="W15">
+        <v>1248</v>
+      </c>
+      <c r="X15">
+        <v>1222</v>
+      </c>
+      <c r="Y15">
+        <v>1095</v>
+      </c>
+      <c r="Z15">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
       <c r="A16">
         <v>14</v>
       </c>
@@ -39716,8 +46768,20 @@
       <c r="V16">
         <v>1079</v>
       </c>
-    </row>
-    <row r="17" spans="1:22">
+      <c r="W16">
+        <v>1260</v>
+      </c>
+      <c r="X16">
+        <v>1216</v>
+      </c>
+      <c r="Y16">
+        <v>981</v>
+      </c>
+      <c r="Z16">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26">
       <c r="A17">
         <v>15</v>
       </c>
@@ -39784,8 +46848,20 @@
       <c r="V17">
         <v>1053</v>
       </c>
-    </row>
-    <row r="18" spans="1:22">
+      <c r="W17">
+        <v>1091</v>
+      </c>
+      <c r="X17">
+        <v>1109</v>
+      </c>
+      <c r="Y17">
+        <v>1076</v>
+      </c>
+      <c r="Z17">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26">
       <c r="A18">
         <v>16</v>
       </c>
@@ -39852,8 +46928,20 @@
       <c r="V18">
         <v>1119</v>
       </c>
-    </row>
-    <row r="19" spans="1:22">
+      <c r="W18">
+        <v>1182</v>
+      </c>
+      <c r="X18">
+        <v>1085</v>
+      </c>
+      <c r="Y18">
+        <v>1061</v>
+      </c>
+      <c r="Z18">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26">
       <c r="A19">
         <v>17</v>
       </c>
@@ -39920,8 +47008,20 @@
       <c r="V19">
         <v>1047</v>
       </c>
-    </row>
-    <row r="20" spans="1:22">
+      <c r="W19">
+        <v>1257</v>
+      </c>
+      <c r="X19">
+        <v>1147</v>
+      </c>
+      <c r="Y19">
+        <v>1183</v>
+      </c>
+      <c r="Z19">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
       <c r="A20">
         <v>18</v>
       </c>
@@ -39988,8 +47088,20 @@
       <c r="V20">
         <v>1016</v>
       </c>
-    </row>
-    <row r="21" spans="1:22">
+      <c r="W20">
+        <v>1206</v>
+      </c>
+      <c r="X20">
+        <v>1240</v>
+      </c>
+      <c r="Y20">
+        <v>1245</v>
+      </c>
+      <c r="Z20">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26">
       <c r="A21">
         <v>19</v>
       </c>
@@ -40056,8 +47168,20 @@
       <c r="V21">
         <v>1045</v>
       </c>
-    </row>
-    <row r="22" spans="1:22">
+      <c r="W21">
+        <v>1159</v>
+      </c>
+      <c r="X21">
+        <v>1106</v>
+      </c>
+      <c r="Y21">
+        <v>1249</v>
+      </c>
+      <c r="Z21">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26">
       <c r="A22">
         <v>20</v>
       </c>
@@ -40124,8 +47248,20 @@
       <c r="V22">
         <v>954</v>
       </c>
-    </row>
-    <row r="23" spans="1:22">
+      <c r="W22">
+        <v>1019</v>
+      </c>
+      <c r="X22">
+        <v>1004</v>
+      </c>
+      <c r="Y22">
+        <v>1048</v>
+      </c>
+      <c r="Z22">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26">
       <c r="A23">
         <v>21</v>
       </c>
@@ -40192,8 +47328,20 @@
       <c r="V23">
         <v>766</v>
       </c>
-    </row>
-    <row r="24" spans="1:22">
+      <c r="W23">
+        <v>736</v>
+      </c>
+      <c r="X23">
+        <v>779</v>
+      </c>
+      <c r="Y23">
+        <v>802</v>
+      </c>
+      <c r="Z23">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26">
       <c r="A24">
         <v>22</v>
       </c>
@@ -40260,8 +47408,20 @@
       <c r="V24">
         <v>415</v>
       </c>
-    </row>
-    <row r="25" spans="1:22">
+      <c r="W24">
+        <v>444</v>
+      </c>
+      <c r="X24">
+        <v>445</v>
+      </c>
+      <c r="Y24">
+        <v>427</v>
+      </c>
+      <c r="Z24">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26">
       <c r="A25">
         <v>23</v>
       </c>
@@ -40328,9 +47488,21 @@
       <c r="V25">
         <v>246</v>
       </c>
+      <c r="W25">
+        <v>214</v>
+      </c>
+      <c r="X25">
+        <v>245</v>
+      </c>
+      <c r="Y25">
+        <v>215</v>
+      </c>
+      <c r="Z25">
+        <v>229</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:V25">
+  <conditionalFormatting sqref="B2:Z25">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -40348,13 +47520,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V25"/>
+  <dimension ref="A1:Z25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:26">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -40421,8 +47593,20 @@
       <c r="V1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="2" spans="1:22">
+      <c r="W1" t="s">
+        <v>86</v>
+      </c>
+      <c r="X1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
       <c r="A2">
         <v>0</v>
       </c>
@@ -40489,8 +47673,20 @@
       <c r="V2">
         <v>168</v>
       </c>
-    </row>
-    <row r="3" spans="1:22">
+      <c r="W2">
+        <v>119</v>
+      </c>
+      <c r="X2">
+        <v>178</v>
+      </c>
+      <c r="Y2">
+        <v>136</v>
+      </c>
+      <c r="Z2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
       <c r="A3">
         <v>1</v>
       </c>
@@ -40557,8 +47753,20 @@
       <c r="V3">
         <v>61</v>
       </c>
-    </row>
-    <row r="4" spans="1:22">
+      <c r="W3">
+        <v>143</v>
+      </c>
+      <c r="X3">
+        <v>60</v>
+      </c>
+      <c r="Y3">
+        <v>74</v>
+      </c>
+      <c r="Z3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
       <c r="A4">
         <v>2</v>
       </c>
@@ -40625,8 +47833,20 @@
       <c r="V4">
         <v>106</v>
       </c>
-    </row>
-    <row r="5" spans="1:22">
+      <c r="W4">
+        <v>63</v>
+      </c>
+      <c r="X4">
+        <v>110</v>
+      </c>
+      <c r="Y4">
+        <v>53</v>
+      </c>
+      <c r="Z4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
       <c r="A5">
         <v>3</v>
       </c>
@@ -40693,8 +47913,20 @@
       <c r="V5">
         <v>92</v>
       </c>
-    </row>
-    <row r="6" spans="1:22">
+      <c r="W5">
+        <v>72</v>
+      </c>
+      <c r="X5">
+        <v>68</v>
+      </c>
+      <c r="Y5">
+        <v>198</v>
+      </c>
+      <c r="Z5">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
       <c r="A6">
         <v>4</v>
       </c>
@@ -40761,8 +47993,20 @@
       <c r="V6">
         <v>132</v>
       </c>
-    </row>
-    <row r="7" spans="1:22">
+      <c r="W6">
+        <v>103</v>
+      </c>
+      <c r="X6">
+        <v>94</v>
+      </c>
+      <c r="Y6">
+        <v>110</v>
+      </c>
+      <c r="Z6">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
       <c r="A7">
         <v>5</v>
       </c>
@@ -40829,8 +48073,20 @@
       <c r="V7">
         <v>123</v>
       </c>
-    </row>
-    <row r="8" spans="1:22">
+      <c r="W7">
+        <v>80</v>
+      </c>
+      <c r="X7">
+        <v>81</v>
+      </c>
+      <c r="Y7">
+        <v>155</v>
+      </c>
+      <c r="Z7">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
       <c r="A8">
         <v>6</v>
       </c>
@@ -40897,8 +48153,20 @@
       <c r="V8">
         <v>117</v>
       </c>
-    </row>
-    <row r="9" spans="1:22">
+      <c r="W8">
+        <v>116</v>
+      </c>
+      <c r="X8">
+        <v>98</v>
+      </c>
+      <c r="Y8">
+        <v>105</v>
+      </c>
+      <c r="Z8">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
       <c r="A9">
         <v>7</v>
       </c>
@@ -40965,8 +48233,20 @@
       <c r="V9">
         <v>138</v>
       </c>
-    </row>
-    <row r="10" spans="1:22">
+      <c r="W9">
+        <v>122</v>
+      </c>
+      <c r="X9">
+        <v>106</v>
+      </c>
+      <c r="Y9">
+        <v>118</v>
+      </c>
+      <c r="Z9">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
       <c r="A10">
         <v>8</v>
       </c>
@@ -41033,8 +48313,20 @@
       <c r="V10">
         <v>151</v>
       </c>
-    </row>
-    <row r="11" spans="1:22">
+      <c r="W10">
+        <v>146</v>
+      </c>
+      <c r="X10">
+        <v>128</v>
+      </c>
+      <c r="Y10">
+        <v>143</v>
+      </c>
+      <c r="Z10">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
       <c r="A11">
         <v>9</v>
       </c>
@@ -41101,8 +48393,20 @@
       <c r="V11">
         <v>147</v>
       </c>
-    </row>
-    <row r="12" spans="1:22">
+      <c r="W11">
+        <v>146</v>
+      </c>
+      <c r="X11">
+        <v>142</v>
+      </c>
+      <c r="Y11">
+        <v>137</v>
+      </c>
+      <c r="Z11">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
       <c r="A12">
         <v>10</v>
       </c>
@@ -41169,8 +48473,20 @@
       <c r="V12">
         <v>143</v>
       </c>
-    </row>
-    <row r="13" spans="1:22">
+      <c r="W12">
+        <v>145</v>
+      </c>
+      <c r="X12">
+        <v>149</v>
+      </c>
+      <c r="Y12">
+        <v>154</v>
+      </c>
+      <c r="Z12">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
       <c r="A13">
         <v>11</v>
       </c>
@@ -41237,8 +48553,20 @@
       <c r="V13">
         <v>148</v>
       </c>
-    </row>
-    <row r="14" spans="1:22">
+      <c r="W13">
+        <v>144</v>
+      </c>
+      <c r="X13">
+        <v>129</v>
+      </c>
+      <c r="Y13">
+        <v>148</v>
+      </c>
+      <c r="Z13">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
       <c r="A14">
         <v>12</v>
       </c>
@@ -41305,8 +48633,20 @@
       <c r="V14">
         <v>149</v>
       </c>
-    </row>
-    <row r="15" spans="1:22">
+      <c r="W14">
+        <v>145</v>
+      </c>
+      <c r="X14">
+        <v>140</v>
+      </c>
+      <c r="Y14">
+        <v>137</v>
+      </c>
+      <c r="Z14">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
       <c r="A15">
         <v>13</v>
       </c>
@@ -41373,8 +48713,20 @@
       <c r="V15">
         <v>157</v>
       </c>
-    </row>
-    <row r="16" spans="1:22">
+      <c r="W15">
+        <v>141</v>
+      </c>
+      <c r="X15">
+        <v>140</v>
+      </c>
+      <c r="Y15">
+        <v>144</v>
+      </c>
+      <c r="Z15">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
       <c r="A16">
         <v>14</v>
       </c>
@@ -41441,8 +48793,20 @@
       <c r="V16">
         <v>147</v>
       </c>
-    </row>
-    <row r="17" spans="1:22">
+      <c r="W16">
+        <v>140</v>
+      </c>
+      <c r="X16">
+        <v>138</v>
+      </c>
+      <c r="Y16">
+        <v>141</v>
+      </c>
+      <c r="Z16">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26">
       <c r="A17">
         <v>15</v>
       </c>
@@ -41509,8 +48873,20 @@
       <c r="V17">
         <v>161</v>
       </c>
-    </row>
-    <row r="18" spans="1:22">
+      <c r="W17">
+        <v>149</v>
+      </c>
+      <c r="X17">
+        <v>141</v>
+      </c>
+      <c r="Y17">
+        <v>151</v>
+      </c>
+      <c r="Z17">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26">
       <c r="A18">
         <v>16</v>
       </c>
@@ -41577,8 +48953,20 @@
       <c r="V18">
         <v>153</v>
       </c>
-    </row>
-    <row r="19" spans="1:22">
+      <c r="W18">
+        <v>149</v>
+      </c>
+      <c r="X18">
+        <v>156</v>
+      </c>
+      <c r="Y18">
+        <v>153</v>
+      </c>
+      <c r="Z18">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26">
       <c r="A19">
         <v>17</v>
       </c>
@@ -41645,8 +49033,20 @@
       <c r="V19">
         <v>143</v>
       </c>
-    </row>
-    <row r="20" spans="1:22">
+      <c r="W19">
+        <v>141</v>
+      </c>
+      <c r="X19">
+        <v>150</v>
+      </c>
+      <c r="Y19">
+        <v>135</v>
+      </c>
+      <c r="Z19">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
       <c r="A20">
         <v>18</v>
       </c>
@@ -41713,8 +49113,20 @@
       <c r="V20">
         <v>146</v>
       </c>
-    </row>
-    <row r="21" spans="1:22">
+      <c r="W20">
+        <v>134</v>
+      </c>
+      <c r="X20">
+        <v>146</v>
+      </c>
+      <c r="Y20">
+        <v>131</v>
+      </c>
+      <c r="Z20">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26">
       <c r="A21">
         <v>19</v>
       </c>
@@ -41781,8 +49193,20 @@
       <c r="V21">
         <v>140</v>
       </c>
-    </row>
-    <row r="22" spans="1:22">
+      <c r="W21">
+        <v>122</v>
+      </c>
+      <c r="X21">
+        <v>124</v>
+      </c>
+      <c r="Y21">
+        <v>114</v>
+      </c>
+      <c r="Z21">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26">
       <c r="A22">
         <v>20</v>
       </c>
@@ -41849,8 +49273,20 @@
       <c r="V22">
         <v>138</v>
       </c>
-    </row>
-    <row r="23" spans="1:22">
+      <c r="W22">
+        <v>133</v>
+      </c>
+      <c r="X22">
+        <v>144</v>
+      </c>
+      <c r="Y22">
+        <v>131</v>
+      </c>
+      <c r="Z22">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26">
       <c r="A23">
         <v>21</v>
       </c>
@@ -41917,8 +49353,20 @@
       <c r="V23">
         <v>140</v>
       </c>
-    </row>
-    <row r="24" spans="1:22">
+      <c r="W23">
+        <v>146</v>
+      </c>
+      <c r="X23">
+        <v>142</v>
+      </c>
+      <c r="Y23">
+        <v>140</v>
+      </c>
+      <c r="Z23">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26">
       <c r="A24">
         <v>22</v>
       </c>
@@ -41985,8 +49433,20 @@
       <c r="V24">
         <v>128</v>
       </c>
-    </row>
-    <row r="25" spans="1:22">
+      <c r="W24">
+        <v>139</v>
+      </c>
+      <c r="X24">
+        <v>154</v>
+      </c>
+      <c r="Y24">
+        <v>137</v>
+      </c>
+      <c r="Z24">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26">
       <c r="A25">
         <v>23</v>
       </c>
@@ -42053,9 +49513,21 @@
       <c r="V25">
         <v>136</v>
       </c>
+      <c r="W25">
+        <v>158</v>
+      </c>
+      <c r="X25">
+        <v>125</v>
+      </c>
+      <c r="Y25">
+        <v>132</v>
+      </c>
+      <c r="Z25">
+        <v>126</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:V25">
+  <conditionalFormatting sqref="B2:Z25">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
